--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309EB3DA-39F8-414F-8E0D-3DA635EDFBE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2A82C8-3BEB-46A6-9FEF-D37E0A52EDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,328 +846,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.8402469999999997</c:v>
+                  <c:v>6.5297229999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6222649999999996</c:v>
+                  <c:v>6.6071799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6582540000000003</c:v>
+                  <c:v>6.7678969999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9883150000000001</c:v>
+                  <c:v>7.4157229999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9267079999999996</c:v>
+                  <c:v>8.5288149999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8459199999999996</c:v>
+                  <c:v>10.458344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.646718</c:v>
+                  <c:v>13.732965999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.666944000000001</c:v>
+                  <c:v>13.970249000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9664280000000005</c:v>
+                  <c:v>11.566496000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2038779999999996</c:v>
+                  <c:v>10.254830999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5434609999999997</c:v>
+                  <c:v>7.3572150000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9157299999999999</c:v>
+                  <c:v>5.8811689999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4197800000000003</c:v>
+                  <c:v>5.7458600000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8104779999999998</c:v>
+                  <c:v>5.1595420000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.250845</c:v>
+                  <c:v>6.3863339999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3802120000000002</c:v>
+                  <c:v>6.7997019999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6934930000000001</c:v>
+                  <c:v>8.0417240000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8771769999999997</c:v>
+                  <c:v>9.8798270000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.760159</c:v>
+                  <c:v>12.353736</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.928141999999999</c:v>
+                  <c:v>14.179397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.607892</c:v>
+                  <c:v>12.544032</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.2528760000000005</c:v>
+                  <c:v>10.236124999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3936010000000003</c:v>
+                  <c:v>7.5424170000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0585779999999998</c:v>
+                  <c:v>5.38063</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2047359999999996</c:v>
+                  <c:v>5.7468300000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0859240000000003</c:v>
+                  <c:v>5.8714130000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.1618909999999998</c:v>
+                  <c:v>5.9712509999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.9157450000000003</c:v>
+                  <c:v>7.9769399999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8043649999999998</c:v>
+                  <c:v>9.0125469999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8943270000000005</c:v>
+                  <c:v>10.319582</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.662604999999999</c:v>
+                  <c:v>13.719935</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.596261999999999</c:v>
+                  <c:v>14.683743</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.623934</c:v>
+                  <c:v>12.790307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7013110000000005</c:v>
+                  <c:v>10.625299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.4931070000000002</c:v>
+                  <c:v>8.1490240000000007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.5620880000000001</c:v>
+                  <c:v>5.6240410000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0244580000000001</c:v>
+                  <c:v>5.1328560000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9186189999999996</c:v>
+                  <c:v>5.5076679999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.0849609999999998</c:v>
+                  <c:v>7.0562550000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.6200570000000001</c:v>
+                  <c:v>8.0875970000000006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.4840800000000005</c:v>
+                  <c:v>9.7949719999999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10.282957</c:v>
+                  <c:v>11.850331000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.658690999999999</c:v>
+                  <c:v>14.645512</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.432411</c:v>
+                  <c:v>14.437049</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.398942</c:v>
+                  <c:v>12.282192</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.8939680000000001</c:v>
+                  <c:v>9.9254650000000009</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.9274149999999999</c:v>
+                  <c:v>7.648326</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.223649</c:v>
+                  <c:v>5.4776809999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2976619999999999</c:v>
+                  <c:v>6.6631530000000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.305447</c:v>
+                  <c:v>6.2271340000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.1383299999999998</c:v>
+                  <c:v>7.303877</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.050249</c:v>
+                  <c:v>8.2866979999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.661994</c:v>
+                  <c:v>10.007847999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.7190510000000003</c:v>
+                  <c:v>11.732272999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.495414</c:v>
+                  <c:v>14.545894000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.299989999999999</c:v>
+                  <c:v>14.729371</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.325112000000001</c:v>
+                  <c:v>12.868437</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.1736660000000008</c:v>
+                  <c:v>11.178086</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.2487380000000003</c:v>
+                  <c:v>8.0595750000000006</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.7618450000000001</c:v>
+                  <c:v>6.9108999999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7775939999999997</c:v>
+                  <c:v>7.1195899999999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.8521530000000004</c:v>
+                  <c:v>7.7947660000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.6651829999999999</c:v>
+                  <c:v>8.7710699999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.164466</c:v>
+                  <c:v>8.8192109999999992</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.2660789999999995</c:v>
+                  <c:v>11.413945999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11.969583</c:v>
+                  <c:v>14.363827000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.425515000000001</c:v>
+                  <c:v>15.049607999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.374139</c:v>
+                  <c:v>15.248101</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.228441</c:v>
+                  <c:v>12.409865999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.6989239999999999</c:v>
+                  <c:v>11.560919999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.6466779999999996</c:v>
+                  <c:v>7.5210319999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.0741540000000001</c:v>
+                  <c:v>6.2389960000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.0739869999999998</c:v>
+                  <c:v>5.4627600000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.1496360000000001</c:v>
+                  <c:v>6.9260299999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.7969720000000002</c:v>
+                  <c:v>6.9236909999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.9170809999999996</c:v>
+                  <c:v>9.1455880000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.9837279999999993</c:v>
+                  <c:v>10.681713999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.406180000000001</c:v>
+                  <c:v>12.578604</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.183655</c:v>
+                  <c:v>13.551264</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.272508</c:v>
+                  <c:v>14.591604</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.8014349999999997</c:v>
+                  <c:v>11.885908000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.357958</c:v>
+                  <c:v>9.4422639999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.6343290000000001</c:v>
+                  <c:v>8.0556409999999996</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.0863659999999999</c:v>
+                  <c:v>4.7618309999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.8351550000000003</c:v>
+                  <c:v>4.9710619999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.493684</c:v>
+                  <c:v>6.3465480000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.9981580000000001</c:v>
+                  <c:v>6.9459799999999996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.1453680000000004</c:v>
+                  <c:v>7.4480639999999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.4055660000000003</c:v>
+                  <c:v>9.4975240000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.076404</c:v>
+                  <c:v>11.573069</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.044384000000001</c:v>
+                  <c:v>14.483074</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.877067</c:v>
+                  <c:v>15.160755</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.837854999999999</c:v>
+                  <c:v>12.651541</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.0021509999999996</c:v>
+                  <c:v>10.042884000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.8603719999999999</c:v>
+                  <c:v>7.6819389999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.4903820000000003</c:v>
+                  <c:v>6.122789</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.0441789999999997</c:v>
+                  <c:v>6.6704509999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.1738799999999996</c:v>
+                  <c:v>5.7695939999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.7776079999999999</c:v>
+                  <c:v>6.8555159999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.877923</c:v>
+                  <c:v>8.1483550000000005</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.5025870000000001</c:v>
+                  <c:v>11.361995</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.300219</c:v>
+                  <c:v>12.479741000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>12.427593</c:v>
+                  <c:v>14.766379000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>12.329682999999999</c:v>
+                  <c:v>14.782641999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10.322787999999999</c:v>
+                  <c:v>11.961473</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.6730929999999997</c:v>
+                  <c:v>10.624886999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.667116</c:v>
+                  <c:v>8.6911439999999995</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.099647</c:v>
+                  <c:v>6.2701310000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.7262389999999996</c:v>
@@ -1191,7 +1191,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1215,328 +1215,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.5611240000000004</c:v>
+                  <c:v>6.7575260000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.204129</c:v>
+                  <c:v>7.0468979999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0899530000000004</c:v>
+                  <c:v>7.5625140000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3831249999999997</c:v>
+                  <c:v>8.5006950000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4534450000000003</c:v>
+                  <c:v>10.083938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8064929999999997</c:v>
+                  <c:v>11.837152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.253795</c:v>
+                  <c:v>16.065334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.724527999999999</c:v>
+                  <c:v>15.599329000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3905910000000006</c:v>
+                  <c:v>13.234444999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7608730000000001</c:v>
+                  <c:v>11.104032999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7657990000000003</c:v>
+                  <c:v>7.7684309999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8019150000000002</c:v>
+                  <c:v>6.5254580000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3048380000000002</c:v>
+                  <c:v>5.8123259999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5831170000000001</c:v>
+                  <c:v>5.5251479999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5250349999999999</c:v>
+                  <c:v>6.5961270000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8515620000000004</c:v>
+                  <c:v>7.4708329999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.832058</c:v>
+                  <c:v>8.912903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7188309999999998</c:v>
+                  <c:v>10.841665000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.470634</c:v>
+                  <c:v>13.848522000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.573588000000001</c:v>
+                  <c:v>15.150067999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.3907810000000005</c:v>
+                  <c:v>12.886526999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5293890000000001</c:v>
+                  <c:v>10.686559000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3008189999999997</c:v>
+                  <c:v>7.3908750000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5235210000000001</c:v>
+                  <c:v>4.6762090000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1981859999999998</c:v>
+                  <c:v>5.7243950000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2563820000000003</c:v>
+                  <c:v>6.0212640000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3000590000000001</c:v>
+                  <c:v>6.2946020000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.3488879999999996</c:v>
+                  <c:v>8.0125010000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.8545740000000004</c:v>
+                  <c:v>9.9014100000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.6545620000000003</c:v>
+                  <c:v>11.643750000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.81798</c:v>
+                  <c:v>14.857324999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.1575600000000001</c:v>
+                  <c:v>15.432864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.2495150000000006</c:v>
+                  <c:v>12.870347000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6215419999999998</c:v>
+                  <c:v>10.587904999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.709956</c:v>
+                  <c:v>8.4551409999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9356859999999996</c:v>
+                  <c:v>6.7407919999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6660560000000002</c:v>
+                  <c:v>4.9180770000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.3088790000000001</c:v>
+                  <c:v>6.1956850000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.8697699999999999</c:v>
+                  <c:v>7.492057</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6472230000000003</c:v>
+                  <c:v>8.5971530000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.939508</c:v>
+                  <c:v>11.077218</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.6459100000000007</c:v>
+                  <c:v>13.704166000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.247596</c:v>
+                  <c:v>16.750347000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.529299</c:v>
+                  <c:v>15.772145</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.5790260000000007</c:v>
+                  <c:v>13.215868</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.826441</c:v>
+                  <c:v>9.9914310000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.7604949999999997</c:v>
+                  <c:v>7.4102540000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2154120000000002</c:v>
+                  <c:v>4.2807459999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.2341430000000004</c:v>
+                  <c:v>5.2900869999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.2153099999999997</c:v>
+                  <c:v>5.9716139999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.1653010000000004</c:v>
+                  <c:v>7.3243400000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.1528090000000004</c:v>
+                  <c:v>8.8320469999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.2855150000000002</c:v>
+                  <c:v>11.221339</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.8023209999999992</c:v>
+                  <c:v>13.324306</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.490181</c:v>
+                  <c:v>16.180609</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.824233</c:v>
+                  <c:v>15.435485</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.5962580000000006</c:v>
+                  <c:v>13.738193000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.3947640000000003</c:v>
+                  <c:v>11.838914000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.7528550000000003</c:v>
+                  <c:v>8.3758119999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.0831379999999999</c:v>
+                  <c:v>7.792554</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1523380000000003</c:v>
+                  <c:v>6.7203629999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.0189560000000002</c:v>
+                  <c:v>7.6048359999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.4329400000000003</c:v>
+                  <c:v>8.8436210000000006</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.7924300000000004</c:v>
+                  <c:v>10.058611000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.9587699999999995</c:v>
+                  <c:v>13.074730000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11.389341</c:v>
+                  <c:v>16.857534000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.897917</c:v>
+                  <c:v>18.027048000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.168345</c:v>
+                  <c:v>17.185048999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.3149300000000004</c:v>
+                  <c:v>14.390521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.3287630000000004</c:v>
+                  <c:v>11.777958</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.9748169999999998</c:v>
+                  <c:v>8.0507980000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.4039159999999997</c:v>
+                  <c:v>7.1561149999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.6272169999999999</c:v>
+                  <c:v>6.2070230000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.3779450000000004</c:v>
+                  <c:v>7.2024429999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.659497</c:v>
+                  <c:v>7.5207629999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.7848269999999999</c:v>
+                  <c:v>10.099689</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.7718749999999996</c:v>
+                  <c:v>12.167942999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.353471000000001</c:v>
+                  <c:v>14.868748</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.011625</c:v>
+                  <c:v>16.696805999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.872294999999999</c:v>
+                  <c:v>16.748556000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.0363220000000002</c:v>
+                  <c:v>14.161457</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.2622250000000008</c:v>
+                  <c:v>11.1876</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.2404169999999999</c:v>
+                  <c:v>9.3414070000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.67211</c:v>
+                  <c:v>6.1767459999999996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.6666099999999999</c:v>
+                  <c:v>4.7506050000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.7065109999999999</c:v>
+                  <c:v>6.3771940000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.946485</c:v>
+                  <c:v>7.0906229999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.5992629999999997</c:v>
+                  <c:v>8.3418410000000005</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.0140260000000003</c:v>
+                  <c:v>10.444659</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7849989999999991</c:v>
+                  <c:v>13.197846</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11.298373</c:v>
+                  <c:v>16.418118</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.501163</c:v>
+                  <c:v>14.948691</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.2247319999999995</c:v>
+                  <c:v>12.859022</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.2264099999999996</c:v>
+                  <c:v>10.140311000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0619870000000002</c:v>
+                  <c:v>7.9655129999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.5872989999999998</c:v>
+                  <c:v>5.5748559999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9552849999999999</c:v>
+                  <c:v>6.7227480000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2978680000000002</c:v>
+                  <c:v>6.0133390000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6569880000000001</c:v>
+                  <c:v>7.0182650000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.8367180000000003</c:v>
+                  <c:v>8.6028570000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.8799700000000001</c:v>
+                  <c:v>11.752383999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.157683</c:v>
+                  <c:v>13.440951999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.548427</c:v>
+                  <c:v>16.549931999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.903589</c:v>
+                  <c:v>16.771944000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.9095630000000003</c:v>
+                  <c:v>13.094060000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.4504200000000003</c:v>
+                  <c:v>10.210146</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.8304580000000001</c:v>
+                  <c:v>7.540826</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.8333740000000001</c:v>
+                  <c:v>6.1656829999999996</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>4.7575370000000001</c:v>
@@ -3741,7 +3741,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I135"/>
+      <selection activeCell="H3" sqref="H3:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B2" s="10">
         <f>H2-I2</f>
-        <v>0.79576798148147976</v>
+        <v>-0.75444141666666908</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3787,11 +3787,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>8.0320528518518497</v>
+        <v>9.4981052314814782</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>7.2362848703703699</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3801,12 +3801,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>1.1714683637721297</v>
+        <v>1.3056961844246762</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>0.88238057407407411</v>
+        <v>0.89209478703703693</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>-9.9074046966462562E-2</v>
+        <v>7.9430728369493359E-2</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -3844,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.8026434449929275</v>
+        <v>0.90432898715829413</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -3932,46 +3932,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5.8402469999999997</v>
+        <v>6.5297229999999997</v>
       </c>
       <c r="I4">
-        <v>5.5611240000000004</v>
+        <v>6.7575260000000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>-0.27912299999999934</v>
+        <v>0.22780300000000064</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-1.6751608703703695</v>
+        <v>-3.4950206481481469</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-2.19180585185185</v>
+        <v>-2.9683822314814785</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>2.8061639416200141</v>
+        <v>12.215169330981894</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>4.8040128922120138</v>
+        <v>8.811293072174962</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>3.6716273984710144</v>
+        <v>10.37455719062384</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>7.7909649128999628E-2</v>
+        <v>5.1894206809000296E-2</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>6.1054893909138981</v>
+        <v>7.5107745240276076</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.27912299999999934</v>
+        <v>0.22780300000000064</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.42229332955954146</v>
+        <v>0.30305244233977841</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -4031,46 +4031,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>5.6222649999999996</v>
+        <v>6.6071799999999996</v>
       </c>
       <c r="I5">
-        <v>5.204129</v>
+        <v>7.0468979999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-0.41813599999999962</v>
+        <v>0.43971800000000005</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-2.0321558703703699</v>
+        <v>-3.2056486481481477</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-2.4097878518518501</v>
+        <v>-2.8909252314814786</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>4.1296574814807556</v>
+        <v>10.276183255374047</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>5.8070774909327545</v>
+        <v>8.3574486940162416</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>4.89706452948794</v>
+        <v>9.2672905601959723</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.17483771449599969</v>
+        <v>0.19335191952400005</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>7.9971533118726024</v>
+        <v>6.0084168916670952</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>0.41813599999999962</v>
+        <v>0.43971800000000005</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B6" s="11">
         <f>B12*B12</f>
-        <v>0.92074934796650143</v>
+        <v>0.96661998537538263</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -4130,46 +4130,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>5.6582540000000003</v>
+        <v>6.7678969999999996</v>
       </c>
       <c r="I6">
-        <v>5.0899530000000004</v>
+        <v>7.5625140000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.56830099999999995</v>
+        <v>0.79461700000000057</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1463318703703695</v>
+        <v>-2.6900326481481471</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3737988518518494</v>
+        <v>-2.7302082314814786</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>4.6067404977675688</v>
+        <v>7.2362756481029331</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>5.6349209890531586</v>
+        <v>7.4540369872492231</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>5.0949601295782152</v>
+        <v>7.3443492789279912</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>0.32296602660099993</v>
+        <v>0.63141617668900096</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>8.6559515382666739</v>
+        <v>3.7465134153879847</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>0.56830099999999995</v>
+        <v>0.79461700000000057</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>8.0320528518518497</v>
+        <v>9.4981052314814782</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4226,46 +4226,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>5.9883150000000001</v>
+        <v>7.4157229999999998</v>
       </c>
       <c r="I7">
-        <v>5.3831249999999997</v>
+        <v>8.5006950000000003</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>-0.60519000000000034</v>
+        <v>1.0849720000000005</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8531598703703702</v>
+        <v>-1.751851648148147</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0437378518518496</v>
+        <v>-2.0823822314814784</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>3.4342015051511274</v>
+        <v>3.068984197119379</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>4.1768644070920127</v>
+        <v>4.3363157579897811</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>3.7873729726087926</v>
+        <v>3.648024744295244</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>0.36625493610000043</v>
+        <v>1.1771642407840011</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>7.0168187643164561</v>
+        <v>0.99482716986393527</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>0.60519000000000034</v>
+        <v>1.0849720000000005</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>2.59821112294162</v>
+        <v>3.1020595267357267</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4322,46 +4322,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>6.9267079999999996</v>
+        <v>8.5288149999999998</v>
       </c>
       <c r="I8">
-        <v>6.4534450000000003</v>
+        <v>10.083938</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.47326299999999932</v>
+        <v>1.555123</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.78283987037036962</v>
+        <v>-0.16860864814814747</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1053448518518501</v>
+        <v>-0.96929023148147841</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.6128382626414971</v>
+        <v>2.8428876230345793E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>1.2217872415153883</v>
+        <v>0.939523552845418</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.86530802053825773</v>
+        <v>0.163430715593297</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>0.22397786716899937</v>
+        <v>2.4184075451289999</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>2.4920027499283104</v>
+        <v>0.34320003267007576</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>0.47326299999999932</v>
+        <v>1.555123</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>7.2362848703703699</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4418,46 +4418,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>8.8459199999999996</v>
+        <v>10.458344</v>
       </c>
       <c r="I9">
-        <v>8.8064929999999997</v>
+        <v>11.837152</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>-3.9426999999999879E-2</v>
+        <v>1.3788079999999994</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.5702081296296297</v>
+        <v>1.5846053518518524</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.81386714814814987</v>
+        <v>0.96023876851852208</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>2.46555357035498</v>
+        <v>2.5109741211175329</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>0.6623797348348025</v>
+        <v>0.92205849256596784</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.2779408124607072</v>
+        <v>1.5215994916500821</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>1.5544883289999904E-3</v>
+        <v>1.9011115008639983</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>0.59975754306372853</v>
+        <v>5.4711397853169377</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>3.9426999999999879E-2</v>
+        <v>1.3788079999999994</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>2.4363490262215648</v>
+        <v>3.6942891261951312</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4513,46 +4513,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>11.646718</v>
+        <v>13.732965999999999</v>
       </c>
       <c r="I10">
-        <v>11.253795</v>
+        <v>16.065334</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-0.39292299999999969</v>
+        <v>2.3323680000000007</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>4.0175101296296303</v>
+        <v>5.8127873518518527</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>3.6146651481481502</v>
+        <v>4.2348607685185211</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>16.140387641676689</v>
+        <v>33.788496797848872</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>13.065804133236888</v>
+        <v>17.934045728737278</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>14.521953847904381</v>
+        <v>24.616345112098077</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>0.15438848392899976</v>
+        <v>5.4399404874240034</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>10.37962246915426</v>
+        <v>43.128493698057298</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>0.39292299999999969</v>
+        <v>2.3323680000000007</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>1.082343921206254</v>
+        <v>1.1426706368961601</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4608,46 +4608,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>11.666944000000001</v>
+        <v>13.970249000000001</v>
       </c>
       <c r="I11">
-        <v>10.724527999999999</v>
+        <v>15.599329000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-0.94241600000000147</v>
+        <v>1.6290800000000001</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>3.4882431296296295</v>
+        <v>5.3467823518518536</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>3.6348911481481512</v>
+        <v>4.4721437685185226</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>12.167840131408312</v>
+        <v>28.588081518074439</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>13.212433658885784</v>
+        <v>20.000069886299052</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>12.679384074479344</v>
+        <v>23.911579376459077</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>0.88814791705600282</v>
+        <v>2.6539016464000005</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>7.2494224233954005</v>
+        <v>37.224931473535364</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>0.94241600000000147</v>
+        <v>1.6290800000000001</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.95955684978353495</v>
+        <v>0.98316834030362399</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -4704,46 +4704,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>9.9664280000000005</v>
+        <v>11.566496000000001</v>
       </c>
       <c r="I12">
-        <v>9.3905910000000006</v>
+        <v>13.234444999999999</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-0.57583699999999993</v>
+        <v>1.6679489999999983</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>2.1543061296296306</v>
+        <v>2.9818983518518518</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>1.9343751481481508</v>
+        <v>2.0683907685185225</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>4.6410349001597986</v>
+        <v>8.8917177807767906</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>3.7418072137731806</v>
+        <v>4.278240371292644</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>4.167236238658786</v>
+        <v>6.1677310236309673</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>0.33158825056899993</v>
+        <v>2.7820538666009944</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>1.8456258999738071</v>
+        <v>13.960234865813034</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>0.57583699999999993</v>
+        <v>1.6679489999999983</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>0.88238057407407411</v>
+        <v>0.89209478703703693</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4799,46 +4799,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>8.2038779999999996</v>
+        <v>10.254830999999999</v>
       </c>
       <c r="I13">
-        <v>7.7608730000000001</v>
+        <v>11.104032999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-0.44300499999999943</v>
+        <v>0.84920200000000001</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.5245881296296302</v>
+        <v>0.85148635185185206</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>0.17182514814814986</v>
+        <v>0.75672576851852114</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.27519270574831367</v>
+        <v>0.725029007389976</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>2.952388153613365E-2</v>
+        <v>0.57263388873994647</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>9.013743309037206E-2</v>
+        <v>0.64434166398812465</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>0.19625343002499948</v>
+        <v>0.72114403680399997</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>7.3538512050391081E-2</v>
+        <v>2.579003997698877</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>0.44300499999999943</v>
+        <v>0.84920200000000001</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4887,46 +4887,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>5.5434609999999997</v>
+        <v>7.3572150000000001</v>
       </c>
       <c r="I14">
-        <v>5.7657990000000003</v>
+        <v>7.7684309999999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>0.22233800000000059</v>
+        <v>0.41121599999999958</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4704858703703696</v>
+        <v>-2.4841156481481477</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4885918518518499</v>
+        <v>-2.1408902314814782</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>2.1623286949589033</v>
+        <v>6.1708305533744916</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>6.1930894051034198</v>
+        <v>4.5834109832528176</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>3.6594391552669774</v>
+        <v>5.3182189249906502</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>4.9434186244000262E-2</v>
+        <v>0.16909859865599966</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>5.1359065210333439</v>
+        <v>2.9917729470510435</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>0.22233800000000059</v>
+        <v>0.41121599999999958</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4964,7 +4964,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <f>B5</f>
-        <v>0.42229332955954146</v>
+        <v>0.30305244233977841</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4979,46 +4979,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>4.9157299999999999</v>
+        <v>5.8811689999999999</v>
       </c>
       <c r="I15">
-        <v>4.8019150000000002</v>
+        <v>6.5254580000000004</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-0.11381499999999978</v>
+        <v>0.64428900000000056</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4343698703703698</v>
+        <v>-3.7270886481481469</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1163228518518498</v>
+        <v>-3.6169362314814784</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>5.926156665767051</v>
+        <v>13.891189791154781</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>9.7114681169740464</v>
+        <v>13.082227702603438</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>7.5862824568948088</v>
+        <v>13.480641969430357</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>1.295385422499995E-2</v>
+        <v>0.41510831552100069</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>10.433790541966081</v>
+        <v>8.8366315628344942</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.11381499999999978</v>
+        <v>0.64428900000000056</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5067,46 +5067,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5.4197800000000003</v>
+        <v>5.7458600000000004</v>
       </c>
       <c r="I16">
-        <v>4.3048380000000002</v>
+        <v>5.8123259999999997</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1149420000000001</v>
+        <v>6.6465999999999248E-2</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9314468703703698</v>
+        <v>-4.4402206481481477</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6122728518518494</v>
+        <v>-3.7522452314814778</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>8.5933807538042348</v>
+        <v>19.715559404241155</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>6.8239694525221948</v>
+        <v>14.079344277175489</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>7.6577390761145843</v>
+        <v>16.660796753739483</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>1.2430956633640002</v>
+        <v>4.4177291559999001E-3</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>13.892130551865005</v>
+        <v>13.584968543220199</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>1.1149420000000001</v>
+        <v>6.6465999999999248E-2</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5134,46 +5134,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>4.8104779999999998</v>
+        <v>5.1595420000000001</v>
       </c>
       <c r="I17">
-        <v>3.5831170000000001</v>
+        <v>5.5251479999999997</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2273609999999997</v>
+        <v>0.36560599999999965</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6531678703703698</v>
+        <v>-4.7273986481481476</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-3.2215748518518499</v>
+        <v>-4.3385632314814782</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>13.345635489106384</v>
+        <v>22.348297978512932</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>10.378544526084269</v>
+        <v>18.823130913563006</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>11.768953740778363</v>
+        <v>20.510117955410799</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>1.5064150243209993</v>
+        <v>0.13366774723599975</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>19.793030213892745</v>
+        <v>15.784389163180974</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>1.2273609999999997</v>
+        <v>0.36560599999999965</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5201,46 +5201,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5.250845</v>
+        <v>6.3863339999999997</v>
       </c>
       <c r="I18">
-        <v>4.5250349999999999</v>
+        <v>6.5961270000000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-0.72581000000000007</v>
+        <v>0.20979300000000034</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-2.71124987037037</v>
+        <v>-3.6564196481481472</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7812078518518497</v>
+        <v>-3.1117712314814785</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>7.3508758595833479</v>
+        <v>13.36940464336382</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>7.7351171152023808</v>
+        <v>9.6831201970757572</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>7.5405494278063827</v>
+        <v>11.377941471331035</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>0.52680015610000008</v>
+        <v>4.4013102849000139E-2</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>12.299174213207563</v>
+        <v>8.4214776559923674</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>0.72581000000000007</v>
+        <v>0.20979300000000034</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5268,46 +5268,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5.3802120000000002</v>
+        <v>6.7997019999999999</v>
       </c>
       <c r="I19">
-        <v>4.8515620000000004</v>
+        <v>7.4708329999999998</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-0.52864999999999984</v>
+        <v>0.67113099999999992</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-2.3847228703703696</v>
+        <v>-2.7817136481481475</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6518408518518495</v>
+        <v>-2.6984032314814783</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>5.6869031684674942</v>
+        <v>7.7379308202936752</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>7.0322599035503428</v>
+        <v>7.2813799996696851</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>6.3239055279935483</v>
+        <v>7.5061850972190935</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>0.27947082249999983</v>
+        <v>0.4504168191609999</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>10.115522058713303</v>
+        <v>4.1098327005358932</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>0.52864999999999984</v>
+        <v>0.67113099999999992</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5338,46 +5338,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>6.6934930000000001</v>
+        <v>8.0417240000000003</v>
       </c>
       <c r="I20">
-        <v>5.832058</v>
+        <v>8.912903</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>-0.86143500000000017</v>
+        <v>0.8711789999999997</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-1.40422687037037</v>
+        <v>-1.3396436481481473</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3385598518518496</v>
+        <v>-1.4563812314814779</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>1.9718531034701638</v>
+        <v>1.7946451040236771</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>1.7917424769896455</v>
+        <v>2.1210462914115062</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>1.8796417115693489</v>
+        <v>1.9510318660363384</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>0.74207025922500025</v>
+        <v>0.75895285004099944</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>4.8399773481746422</v>
+        <v>0.3424616517309016</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>0.86143500000000017</v>
+        <v>0.8711789999999997</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5411,46 +5411,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>8.8771769999999997</v>
+        <v>9.8798270000000006</v>
       </c>
       <c r="I21">
-        <v>7.7188309999999998</v>
+        <v>10.841665000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1583459999999999</v>
+        <v>0.96183800000000019</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.48254612962962984</v>
+        <v>0.58911835185185346</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.84512414814814996</v>
+        <v>0.38172176851852235</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.23285076722053552</v>
+        <v>0.34706043248864421</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>0.71423482578313613</v>
+        <v>0.14571150856090836</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>0.40781138674542766</v>
+        <v>0.22487929913560661</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>1.3417654557159997</v>
+        <v>0.92513233824400032</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>9.8107928477502215E-2</v>
+        <v>1.8051528515815458</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>1.1583459999999999</v>
+        <v>0.96183800000000019</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5484,46 +5484,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>10.760159</v>
+        <v>12.353736</v>
       </c>
       <c r="I22">
-        <v>10.470634</v>
+        <v>13.848522000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>-0.28952499999999937</v>
+        <v>1.4947860000000013</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>3.2343491296296305</v>
+        <v>3.5959753518518536</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.7281061481481501</v>
+        <v>2.8556307685185214</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>10.461014292335948</v>
+        <v>12.931038731126062</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>7.4425631555637359</v>
+        <v>8.1546270861096808</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>8.8236477458002138</v>
+        <v>10.26877785758237</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>8.3824725624999638E-2</v>
+        <v>2.234385185796004</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>5.9466780161035535</v>
+        <v>18.926126059807146</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>0.28952499999999937</v>
+        <v>1.4947860000000013</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5557,46 +5557,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>11.928141999999999</v>
+        <v>14.179397</v>
       </c>
       <c r="I23">
-        <v>10.573588000000001</v>
+        <v>15.150067999999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3545539999999985</v>
+        <v>0.9706709999999994</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>3.3373031296296309</v>
+        <v>4.8975213518518519</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>3.8960891481481497</v>
+        <v>4.6812917685185216</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>11.13759217903573</v>
+        <v>23.985715391844792</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>15.179510650317775</v>
+        <v>21.914492621999269</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>13.002430507430862</v>
+        <v>22.926726390567776</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>1.8348165389159958</v>
+        <v>0.94220219024099883</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>6.4594009092724445</v>
+        <v>31.944683136719544</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>1.3545539999999985</v>
+        <v>0.9706709999999994</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5630,46 +5630,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>11.607892</v>
+        <v>12.544032</v>
       </c>
       <c r="I24">
-        <v>9.3907810000000005</v>
+        <v>12.886526999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-2.2171109999999992</v>
+        <v>0.34249499999999955</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>2.1544961296296306</v>
+        <v>2.6339803518518519</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>3.57583914814815</v>
+        <v>3.0459267685185214</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>4.6418535725890582</v>
+        <v>6.9378524939416053</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>12.786625613428887</v>
+        <v>9.277669879177683</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>7.7041316048633046</v>
+        <v>8.0229112614573896</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>4.9155811863209964</v>
+        <v>0.1173028250249997</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>1.8461421805701033</v>
+        <v>11.481402081370181</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>2.2171109999999992</v>
+        <v>0.34249499999999955</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5703,46 +5703,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>8.2528760000000005</v>
+        <v>10.236124999999999</v>
       </c>
       <c r="I25">
-        <v>7.5293890000000001</v>
+        <v>10.686559000000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-0.72348700000000044</v>
+        <v>0.45043400000000133</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>0.29310412962963017</v>
+        <v>0.4340123518518535</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>0.22082314814815085</v>
+        <v>0.73801976851852125</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>8.5910030805943047E-2</v>
+        <v>0.18836672155997708</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>4.8762862758060181E-2</v>
+        <v>0.54467317872413168</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>6.4724176640038641E-2</v>
+        <v>0.3203096954478839</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>0.52343343916900065</v>
+        <v>0.20289078835600119</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>0.25267094795853817</v>
+        <v>1.4124223599058781</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>0.72348700000000044</v>
+        <v>0.45043400000000133</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5776,46 +5776,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>5.3936010000000003</v>
+        <v>7.5424170000000004</v>
       </c>
       <c r="I26">
-        <v>5.3008189999999997</v>
+        <v>7.3908750000000003</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-9.2782000000000586E-2</v>
+        <v>-0.15154200000000007</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-1.9354658703703702</v>
+        <v>-2.861671648148147</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6384518518518494</v>
+        <v>-1.9556882314814779</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>3.7460281353685345</v>
+        <v>8.1891646218149319</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>6.9614281745404529</v>
+        <v>3.8247164587551503</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>5.1066335098747544</v>
+        <v>5.5965375646475355</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>8.6084995240001093E-3</v>
+        <v>2.296497776400002E-2</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>7.459638353501493</v>
+        <v>4.4404192484694827</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>9.2782000000000586E-2</v>
+        <v>0.15154200000000007</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5849,46 +5849,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>5.0585779999999998</v>
+        <v>5.38063</v>
       </c>
       <c r="I27">
-        <v>3.5235210000000001</v>
+        <v>4.6762090000000001</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5350569999999997</v>
+        <v>-0.70442099999999996</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7127638703703698</v>
+        <v>-5.5763376481481473</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9734748518518499</v>
+        <v>-4.1174752314814782</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>13.784615557127568</v>
+        <v>31.095541566154409</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>8.8415526945953804</v>
+        <v>16.953602281863454</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>11.039809999410437</v>
+        <v>22.960432148627675</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>2.3563999932489992</v>
+        <v>0.49620894524099995</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>20.326859459162662</v>
+        <v>23.25068326717528</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>1.5350569999999997</v>
+        <v>0.70442099999999996</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5922,46 +5922,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>5.2047359999999996</v>
+        <v>5.7468300000000001</v>
       </c>
       <c r="I28">
-        <v>4.1981859999999998</v>
+        <v>5.7243950000000003</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0065499999999998</v>
+        <v>-2.2434999999999761E-2</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0380988703703702</v>
+        <v>-4.528151648148147</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8273168518518501</v>
+        <v>-3.7512752314814781</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>9.2300447461457189</v>
+        <v>20.50415734862678</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>7.9937205807654568</v>
+        <v>14.072065862326417</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>8.5896681337902177</v>
+        <v>16.986343122090176</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>1.0131429024999996</v>
+        <v>5.0332922499998929E-4</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>14.698535037728414</v>
+        <v>14.240888911187989</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>1.0065499999999998</v>
+        <v>2.2434999999999761E-2</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -5995,46 +5995,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5.0859240000000003</v>
+        <v>5.8714130000000004</v>
       </c>
       <c r="I29">
-        <v>4.2563820000000003</v>
+        <v>6.0212640000000004</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-0.829542</v>
+        <v>0.14985099999999996</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9799028703703696</v>
+        <v>-4.2312826481481469</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9461288518518494</v>
+        <v>-3.6266922314814778</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>8.8798211168415673</v>
+        <v>17.903752848519595</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>8.6796752117138958</v>
+        <v>13.152896541888101</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>8.7791778221142867</v>
+        <v>15.34555990924126</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>0.68813992976399996</v>
+        <v>2.2455322200999987E-2</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>14.255690381523669</v>
+        <v>12.088424948929639</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>0.829542</v>
+        <v>0.14985099999999996</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6068,46 +6068,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5.1618909999999998</v>
+        <v>5.9712509999999996</v>
       </c>
       <c r="I30">
-        <v>4.3000590000000001</v>
+        <v>6.2946020000000003</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-0.86183199999999971</v>
+        <v>0.32335100000000061</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9362258703703699</v>
+        <v>-3.9579446481481471</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8701618518518499</v>
+        <v>-3.5268542314814786</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>8.6214223618322361</v>
+        <v>15.665325837804559</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>8.2378290558256406</v>
+        <v>12.43870077011881</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>8.4274434815575301</v>
+        <v>13.959093830290765</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>0.74275439622399952</v>
+        <v>0.10455586920100039</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>13.927778110260006</v>
+        <v>10.262432954112272</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>0.86183199999999971</v>
+        <v>0.32335100000000061</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6141,46 +6141,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6.9157450000000003</v>
+        <v>7.9769399999999999</v>
       </c>
       <c r="I31">
-        <v>5.3488879999999996</v>
+        <v>8.0125010000000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5668570000000006</v>
+        <v>3.5561000000000398E-2</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8873968703703703</v>
+        <v>-2.240045648148147</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1163078518518494</v>
+        <v>-1.5211652314814783</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>3.5622669462838683</v>
+        <v>5.0178045057874519</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>1.2461432201060907</v>
+        <v>2.3139436614680995</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>2.1069159459550515</v>
+        <v>3.4074795568943541</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>2.455040858449002</v>
+        <v>1.2645847210000284E-3</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>7.1993736222131606</v>
+        <v>2.2070199325956725</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>1.5668570000000006</v>
+        <v>3.5561000000000398E-2</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6214,46 +6214,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>7.8043649999999998</v>
+        <v>9.0125469999999996</v>
       </c>
       <c r="I32">
-        <v>6.8545740000000004</v>
+        <v>9.9014100000000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>-0.94979099999999939</v>
+        <v>0.88886300000000062</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-0.38171087037036955</v>
+        <v>-0.35113664814814705</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-0.22768785185184992</v>
+        <v>-0.48555823148147859</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.14570318855890507</v>
+        <v>0.12329694567271562</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>5.1841757880909958E-2</v>
+        <v>0.23576679615942114</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>8.6910928103129392E-2</v>
+        <v>0.1704972898831485</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>0.90210294368099886</v>
+        <v>0.79007743276900111</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>1.3864564465583493</v>
+        <v>0.16265473630977864</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>0.94979099999999939</v>
+        <v>0.88886300000000062</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6281,46 +6281,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>8.8943270000000005</v>
+        <v>10.319582</v>
       </c>
       <c r="I33">
-        <v>8.6545620000000003</v>
+        <v>11.643750000000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>-0.23976500000000023</v>
+        <v>1.3241680000000002</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>1.4182771296296304</v>
+        <v>1.3912033518518534</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.86227414814815084</v>
+        <v>0.82147676851852225</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>2.0115100164304636</v>
+        <v>1.9354467662038317</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>0.74351670656461921</v>
+        <v>0.67482408121563375</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>1.222943703789394</v>
+        <v>1.1428412338313971</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>5.748725522500011E-2</v>
+        <v>1.7534208922240007</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>0.38751763952813612</v>
+        <v>4.6037914726709035</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>0.23976500000000023</v>
+        <v>1.3241680000000002</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6348,46 +6348,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>11.662604999999999</v>
+        <v>13.719935</v>
       </c>
       <c r="I34">
-        <v>10.81798</v>
+        <v>14.857324999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-0.84462499999999885</v>
+        <v>1.1373899999999999</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>3.5816951296296304</v>
+        <v>4.6047783518518521</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>3.6305521481481495</v>
+        <v>4.2218297685185213</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>12.828540001612614</v>
+        <v>21.20398366968346</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>13.180908900423143</v>
+        <v>17.823846594349153</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>13.00353094688862</v>
+        <v>19.440590323277803</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>0.71339139062499801</v>
+        <v>1.2936560120999998</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>7.7613900747888875</v>
+        <v>28.721236527279711</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>0.84462499999999885</v>
+        <v>1.1373899999999999</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6415,46 +6415,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>12.596261999999999</v>
+        <v>14.683743</v>
       </c>
       <c r="I35">
-        <v>8.1575600000000001</v>
+        <v>15.432864</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-4.4387019999999993</v>
+        <v>0.74912100000000059</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>0.92127512962963021</v>
+        <v>5.180317351851853</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>4.5642091481481497</v>
+        <v>5.1856377685185215</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>0.8487478644740919</v>
+        <v>26.835687865897395</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>20.832005148039258</v>
+        <v>26.89083906628575</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>4.2048923746169304</v>
+        <v>26.863249312674821</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>19.702075444803995</v>
+        <v>0.56118227264100085</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>1.5752044236281786E-2</v>
+        <v>35.221361640507489</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>4.4387019999999993</v>
+        <v>0.74912100000000059</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6482,46 +6482,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>11.623934</v>
+        <v>12.790307</v>
       </c>
       <c r="I36">
-        <v>9.2495150000000006</v>
+        <v>12.870347000000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-2.3744189999999996</v>
+        <v>8.0040000000000333E-2</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>2.0132301296296307</v>
+        <v>2.6178003518518533</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>3.5918811481481505</v>
+        <v>3.2922017685185221</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>4.0530955548485395</v>
+        <v>6.8528786821556871</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>12.901610182422075</v>
+        <v>10.838592484636484</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>7.2312833495005275</v>
+        <v>8.6183269479950813</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>5.6378655875609978</v>
+        <v>6.406401600000053E-3</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>1.4822140821735101</v>
+        <v>11.372014545340932</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>2.3744189999999996</v>
+        <v>8.0040000000000333E-2</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6549,46 +6549,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>8.7013110000000005</v>
+        <v>10.625299</v>
       </c>
       <c r="I37">
-        <v>7.6215419999999998</v>
+        <v>10.587904999999999</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0797690000000006</v>
+        <v>-3.7394000000000815E-2</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>0.38525712962962988</v>
+        <v>0.33535835185185192</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>0.66925814814815077</v>
+        <v>1.1271937685185218</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.14842305593046143</v>
+        <v>0.11246522415679051</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>0.44790646886269214</v>
+        <v>1.270565791786987</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>0.25783647313679814</v>
+        <v>0.37801384442804936</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>1.1659010933610015</v>
+        <v>1.398311236000061E-3</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>0.16851915948813143</v>
+        <v>1.1876635354630221</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1.0797690000000006</v>
+        <v>3.7394000000000815E-2</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6616,46 +6616,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>6.4931070000000002</v>
+        <v>8.1490240000000007</v>
       </c>
       <c r="I38">
-        <v>6.709956</v>
+        <v>8.4551409999999994</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0.21684899999999985</v>
+        <v>0.30611699999999864</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-0.52632887037036991</v>
+        <v>-1.797405648148148</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5389458518518495</v>
+        <v>-1.3490812314814775</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>0.27702207978534965</v>
+        <v>3.230667063994864</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>2.3683543349320146</v>
+        <v>1.82002016913558</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>0.80999163176635058</v>
+        <v>2.4248462252754668</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>4.7023488800999935E-2</v>
+        <v>9.370761768899917E-2</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1.7479400856765717</v>
+        <v>1.0877743881497519</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>0.21684899999999985</v>
+        <v>0.30611699999999864</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6683,46 +6683,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>4.5620880000000001</v>
+        <v>5.6240410000000001</v>
       </c>
       <c r="I39">
-        <v>4.9356859999999996</v>
+        <v>6.7407919999999999</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>0.37359799999999943</v>
+        <v>1.1167509999999998</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-2.3005988703703704</v>
+        <v>-3.5117546481481474</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4699648518518496</v>
+        <v>-3.8740642314814782</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>5.2927551623494242</v>
+        <v>12.332420708790119</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>12.040656073087229</v>
+        <v>15.008373669644175</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>7.9829972183952549</v>
+        <v>13.604763072129561</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>0.13957546560399958</v>
+        <v>1.2471327960009997</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>9.5874876812469374</v>
+        <v>7.6027762565028327</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>0.37359799999999943</v>
+        <v>1.1167509999999998</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6750,46 +6750,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>5.0244580000000001</v>
+        <v>5.1328560000000003</v>
       </c>
       <c r="I40">
-        <v>3.6660560000000002</v>
+        <v>4.9180770000000003</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3584019999999999</v>
+        <v>-0.21477900000000005</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5702288703703697</v>
+        <v>-5.3344696481481471</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0075948518518496</v>
+        <v>-4.3652492314814779</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>12.746534186826086</v>
+        <v>28.456566427013815</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>9.0456267928857486</v>
+        <v>19.055400852949635</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>10.737801970458769</v>
+        <v>23.286289531939968</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>1.8452559936039996</v>
+        <v>4.6130018841000021E-2</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>19.061928510380259</v>
+        <v>20.976658601167355</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>1.3584019999999999</v>
+        <v>0.21477900000000005</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6817,46 +6817,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>4.9186189999999996</v>
+        <v>5.5076679999999998</v>
       </c>
       <c r="I41">
-        <v>4.3088790000000001</v>
+        <v>6.1956850000000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-0.6097399999999995</v>
+        <v>0.68801700000000032</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9274058703703698</v>
+        <v>-4.0568616481481472</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1134338518518501</v>
+        <v>-3.9904372314814784</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>8.5697051298789031</v>
+        <v>16.458126432215302</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>9.6934703498570478</v>
+        <v>15.923589298393566</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>9.1142845349209374</v>
+        <v>16.188651763739681</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>0.3717828675999994</v>
+        <v>0.47336739228900043</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>13.862023531113339</v>
+        <v>10.905979385298179</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>0.6097399999999995</v>
+        <v>0.68801700000000032</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6884,46 +6884,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>6.0849609999999998</v>
+        <v>7.0562550000000002</v>
       </c>
       <c r="I42">
-        <v>4.8697699999999999</v>
+        <v>7.492057</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2151909999999999</v>
+        <v>0.4358019999999998</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-2.36651487037037</v>
+        <v>-2.7604896481481473</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9470918518518499</v>
+        <v>-2.4418502314814781</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>5.6003926316840893</v>
+        <v>7.6203030975330828</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>3.791166679547866</v>
+        <v>5.9626325529861477</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>4.607821821384384</v>
+        <v>6.7407022863327777</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>1.4766891664809998</v>
+        <v>0.18992338320399982</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>10.000032835116269</v>
+        <v>4.0242295070299665</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>1.2151909999999999</v>
+        <v>0.4358019999999998</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6951,46 +6951,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>6.6200570000000001</v>
+        <v>8.0875970000000006</v>
       </c>
       <c r="I43">
-        <v>5.6472230000000003</v>
+        <v>8.5971530000000005</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-0.97283399999999975</v>
+        <v>0.5095559999999999</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-1.5890618703703696</v>
+        <v>-1.6553936481481468</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4119958518518496</v>
+        <v>-1.4105082314814776</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>2.5251176278649772</v>
+        <v>2.7403281303292304</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>1.9937322856468305</v>
+        <v>1.9895334710770056</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>2.2437487692989033</v>
+        <v>2.3349463670551138</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>0.94640599155599947</v>
+        <v>0.25964731713599992</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>5.687413422283714</v>
+        <v>0.81171492341145424</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>0.97283399999999975</v>
+        <v>0.5095559999999999</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7018,46 +7018,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>8.4840800000000005</v>
+        <v>9.7949719999999996</v>
       </c>
       <c r="I44">
-        <v>7.939508</v>
+        <v>11.077218</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>-0.5445720000000005</v>
+        <v>1.2822460000000007</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>0.70322312962963007</v>
+        <v>0.82467135185185292</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>0.45202714814815081</v>
+        <v>0.29686676851852134</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.49452277004609152</v>
+        <v>0.68008283856516261</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>0.20432854266295028</v>
+        <v>8.8129878250629332E-2</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>0.31787594579829903</v>
+        <v>0.24481751931406009</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>0.29655866318400054</v>
+        <v>1.6441548045160017</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>8.5645496042808054E-3</v>
+        <v>2.4935971356982312</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>0.5445720000000005</v>
+        <v>1.2822460000000007</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7085,46 +7085,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>10.282957</v>
+        <v>11.850331000000001</v>
       </c>
       <c r="I45">
-        <v>9.6459100000000007</v>
+        <v>13.704166000000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-0.63704699999999903</v>
+        <v>1.8538350000000001</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>2.4096251296296307</v>
+        <v>3.4516193518518534</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>2.25090414814815</v>
+        <v>2.3522257685185224</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>5.8062932653426147</v>
+        <v>11.913676150078208</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>5.0665694841505484</v>
+        <v>5.5329660660825537</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>5.4238351997653593</v>
+        <v>8.1189879825431301</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>0.40582888020899877</v>
+        <v>3.4367042072250005</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>2.6045348946288827</v>
+        <v>17.690947188470624</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>0.63704699999999903</v>
+        <v>1.8538350000000001</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7152,46 +7152,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>12.658690999999999</v>
+        <v>14.645512</v>
       </c>
       <c r="I46">
-        <v>11.247596</v>
+        <v>16.750347000000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4110949999999995</v>
+        <v>2.1048350000000013</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>4.0113111296296298</v>
+        <v>6.4978003518518541</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>4.6266381481481496</v>
+        <v>5.1474067685185219</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>16.090616978690537</v>
+        <v>42.221409412526079</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>21.405780553899739</v>
+        <v>26.49579644059029</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>18.558885096435692</v>
+        <v>33.44682151160427</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>1.9911890990249987</v>
+        <v>4.4303303772250056</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>10.339717737602516</v>
+        <v>52.595010669044676</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>1.4110949999999995</v>
+        <v>2.1048350000000013</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7219,46 +7219,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>12.432411</v>
+        <v>14.437049</v>
       </c>
       <c r="I47">
-        <v>10.529299</v>
+        <v>15.772145</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9031120000000001</v>
+        <v>1.3350960000000001</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>3.29301412962963</v>
+        <v>5.5195983518518528</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>4.4003581481481504</v>
+        <v>4.9389437685185218</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>10.84394205794039</v>
+        <v>30.46596596576569</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>19.36315183197382</v>
+        <v>24.393165548587938</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>14.490441557282733</v>
+        <v>27.260985884603812</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>3.6218352845440007</v>
+        <v>1.7824813292160002</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>6.2362383244407731</v>
+        <v>39.363575016951948</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>1.9031120000000001</v>
+        <v>1.3350960000000001</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7286,46 +7286,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>10.398942</v>
+        <v>12.282192</v>
       </c>
       <c r="I48">
-        <v>9.5790260000000007</v>
+        <v>13.215868</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-0.8199159999999992</v>
+        <v>0.93367600000000017</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>2.3427411296296308</v>
+        <v>2.9633213518518531</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>2.3668891481481502</v>
+        <v>2.784086768518522</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>5.4884360004583188</v>
+        <v>8.7812734343410934</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>5.6021642396214766</v>
+        <v>7.7511391346399066</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>5.5450085566407123</v>
+        <v>8.2501437665591641</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>0.67226224705599869</v>
+        <v>0.87175087297600029</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>2.3931259210914013</v>
+        <v>13.821760002982506</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>0.8199159999999992</v>
+        <v>0.93367600000000017</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7353,46 +7353,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>7.8939680000000001</v>
+        <v>9.9254650000000009</v>
       </c>
       <c r="I49">
-        <v>6.826441</v>
+        <v>9.9914310000000004</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0675270000000001</v>
+        <v>6.5965999999999525E-2</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-0.40984387037036996</v>
+        <v>-0.26111564814814692</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-0.1380848518518496</v>
+        <v>0.42735976851852264</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>0.16797199808016461</v>
+        <v>6.8181381707826866E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>1.9067426310947252E-2</v>
+        <v>0.18263637174820527</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>5.6593230122481186E-2</v>
+        <v>-0.11159032294915608</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>1.1396138957290003</v>
+        <v>4.3515131559999374E-3</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>1.4534999373256465</v>
+        <v>0.24337031388439051</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>1.0675270000000001</v>
+        <v>6.5965999999999525E-2</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7420,46 +7420,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>5.9274149999999999</v>
+        <v>7.648326</v>
       </c>
       <c r="I50">
-        <v>5.7604949999999997</v>
+        <v>7.4102540000000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-0.16692000000000018</v>
+        <v>-0.23807199999999984</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4757898703703702</v>
+        <v>-2.8422926481481472</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1046378518518498</v>
+        <v>-1.8497792314814783</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>2.1779557414877941</v>
+        <v>8.0786274977170081</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>4.4295004874475685</v>
+        <v>3.4216832052202082</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>3.1060032225610161</v>
+        <v>5.2576139103369357</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>2.7862286400000061E-2</v>
+        <v>5.6678277183999926E-2</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>5.1599750743097914</v>
+        <v>4.359122764798725</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>0.16692000000000018</v>
+        <v>0.23807199999999984</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7487,46 +7487,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>5.223649</v>
+        <v>5.4776809999999996</v>
       </c>
       <c r="I51">
-        <v>3.2154120000000002</v>
+        <v>4.2807459999999997</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0082369999999998</v>
+        <v>-1.1969349999999999</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-4.0208728703703702</v>
+        <v>-5.9718006481481476</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8084038518518497</v>
+        <v>-4.0204242314814786</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>16.167418639680459</v>
+        <v>35.662402981222634</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>7.8871321950963065</v>
+        <v>16.163811001083438</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>11.292234856954751</v>
+        <v>24.009172031391614</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>4.0330158481689997</v>
+        <v>1.4326533942249997</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>23.200029095728105</v>
+        <v>27.220837350325002</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>2.0082369999999998</v>
+        <v>1.1969349999999999</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7554,46 +7554,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>6.2976619999999999</v>
+        <v>6.6631530000000003</v>
       </c>
       <c r="I52">
-        <v>4.2341430000000004</v>
+        <v>5.2900869999999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0635189999999994</v>
+        <v>-1.3730660000000006</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0021418703703695</v>
+        <v>-4.9624596481481476</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7343908518518498</v>
+        <v>-2.8349522314814779</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>9.0128558098309011</v>
+        <v>24.626005759498636</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>3.0081116269873851</v>
+        <v>8.0369541547818102</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>5.206887395931771</v>
+        <v>14.068336053154381</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>4.2581106633609975</v>
+        <v>1.8853102403560016</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>14.424119242793335</v>
+        <v>17.707417436480508</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>2.0635189999999994</v>
+        <v>1.3730660000000006</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7621,46 +7621,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5.305447</v>
+        <v>6.2271340000000004</v>
       </c>
       <c r="I53">
-        <v>4.2153099999999997</v>
+        <v>5.9716139999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0901370000000004</v>
+        <v>-0.25552000000000064</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0209748703703703</v>
+        <v>-4.2809326481481476</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7266058518518497</v>
+        <v>-3.2709712314814778</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>9.1262891674092756</v>
+        <v>18.326384337980713</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>7.4343794713527505</v>
+        <v>10.699252797179456</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>8.2370077598492344</v>
+        <v>14.002807536002411</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>1.1883986787690008</v>
+        <v>6.5290470400000328E-2</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>14.567525997162193</v>
+        <v>12.436140405715754</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>1.0901370000000004</v>
+        <v>0.25552000000000064</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7688,46 +7688,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>6.1383299999999998</v>
+        <v>7.303877</v>
       </c>
       <c r="I54">
-        <v>5.1653010000000004</v>
+        <v>7.3243400000000003</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-0.97302899999999948</v>
+        <v>2.0463000000000342E-2</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0709838703703696</v>
+        <v>-2.928206648148147</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8937228518518499</v>
+        <v>-2.1942282314814783</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>4.2889741913342361</v>
+        <v>8.5743941742590053</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>3.5861862396259032</v>
+        <v>4.8146375318303356</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>3.9218694811369579</v>
+        <v>6.425153694978416</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.94678543484099897</v>
+        <v>4.1873436900001401E-4</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>8.2182661800960073</v>
+        <v>4.7252552815977236</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>0.97302899999999948</v>
+        <v>2.0463000000000342E-2</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7755,46 +7755,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>7.050249</v>
+        <v>8.2866979999999995</v>
       </c>
       <c r="I55">
-        <v>6.1528090000000004</v>
+        <v>8.8320469999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-0.89743999999999957</v>
+        <v>0.54534899999999986</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0834758703703695</v>
+        <v>-1.420499648148148</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-0.98180385185184971</v>
+        <v>-1.2114072314814788</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>1.1739199616748297</v>
+        <v>2.0178192503890124</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>0.96393880351112882</v>
+        <v>1.4675074804856212</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1.0637607829181641</v>
+        <v>1.7208035460835627</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>0.80539855359999923</v>
+        <v>0.29740553180099982</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>3.5315574547229751</v>
+        <v>0.44363356772423534</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>0.89743999999999957</v>
+        <v>0.54534899999999986</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7822,46 +7822,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>8.661994</v>
+        <v>10.007847999999999</v>
       </c>
       <c r="I56">
-        <v>8.2855150000000002</v>
+        <v>11.221339</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>-0.37647899999999979</v>
+        <v>1.2134910000000012</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>1.0492301296296302</v>
+        <v>0.96879235185185308</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.62994114814815028</v>
+        <v>0.50974276851852096</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>1.1008838649226107</v>
+        <v>0.93855862100664467</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>0.39682585013020982</v>
+        <v>0.25983769005692642</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.66095323253052185</v>
+        <v>0.49383489555253268</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>0.14173643744099984</v>
+        <v>1.472560407081003</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>6.4243060543874991E-2</v>
+        <v>2.9695346209625475</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>0.37647899999999979</v>
+        <v>1.2134910000000012</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7889,46 +7889,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>9.7190510000000003</v>
+        <v>11.732272999999999</v>
       </c>
       <c r="I57">
-        <v>9.8023209999999992</v>
+        <v>13.324306</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>8.3269999999998845E-2</v>
+        <v>1.5920330000000007</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>2.5660361296296292</v>
+        <v>3.0717593518518527</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>1.6869981481481506</v>
+        <v>2.2341677685185211</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>6.5845414185646076</v>
+        <v>9.4357055156893139</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>2.8459627518552897</v>
+        <v>4.9915056178870278</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>4.3288981987664323</v>
+        <v>6.8628257365527521</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>6.9338928999998078E-3</v>
+        <v>2.5345690730890023</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>3.1338493163478787</v>
+        <v>14.639812321011727</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>8.3269999999998845E-2</v>
+        <v>1.5920330000000007</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7956,46 +7956,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>12.495414</v>
+        <v>14.545894000000001</v>
       </c>
       <c r="I58">
-        <v>11.490181</v>
+        <v>16.180609</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0052330000000005</v>
+        <v>1.6347149999999999</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>4.2538961296296298</v>
+        <v>5.9280623518518532</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>4.4633611481481505</v>
+        <v>5.0477887685185223</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>18.095632281677943</v>
+        <v>35.141923247443323</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>19.921592738798378</v>
+        <v>25.480171451581739</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>18.986674713246678</v>
+        <v>29.923606558755282</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>1.0104933842890009</v>
+        <v>2.6722931312249996</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>11.958650289014553</v>
+        <v>44.655856616264252</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>1.0052330000000005</v>
+        <v>1.6347149999999999</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8023,46 +8023,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>12.299989999999999</v>
+        <v>14.729371</v>
       </c>
       <c r="I59">
-        <v>10.824233</v>
+        <v>15.435485</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4757569999999998</v>
+        <v>0.70611399999999946</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>3.5879481296296296</v>
+        <v>5.1829383518518526</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>4.2679371481481496</v>
+        <v>5.2312657685185222</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>12.873371780912757</v>
+        <v>26.862849959096799</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>18.21528750054296</v>
+        <v>27.366141540873684</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>15.313137108074969</v>
+        <v>27.113327980384405</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>2.1778587230489994</v>
+        <v>0.49859698099599925</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>7.7962699797126245</v>
+        <v>35.252478515613056</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>1.4757569999999998</v>
+        <v>0.70611399999999946</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8090,46 +8090,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>11.325112000000001</v>
+        <v>12.868437</v>
       </c>
       <c r="I60">
-        <v>9.5962580000000006</v>
+        <v>13.738193000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7288540000000001</v>
+        <v>0.86975600000000064</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>2.3599731296296307</v>
+        <v>3.4856463518518535</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>3.293059148148151</v>
+        <v>3.3703317685185219</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>5.5694731725738738</v>
+        <v>12.149730490178134</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>10.844238553202226</v>
+        <v>11.359136229885188</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>7.7715311039106778</v>
+        <v>11.747784633466992</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>2.9889361533160006</v>
+        <v>0.75647549953600113</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>2.4467377454931789</v>
+        <v>17.978344284740384</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>1.7288540000000001</v>
+        <v>0.86975600000000064</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8157,46 +8157,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>9.1736660000000008</v>
+        <v>11.178086</v>
       </c>
       <c r="I61">
-        <v>8.3947640000000003</v>
+        <v>11.838914000000001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-0.77890200000000043</v>
+        <v>0.66082800000000042</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.1584791296296304</v>
+        <v>1.5863673518518535</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>1.1416131481481511</v>
+        <v>1.6799807685185222</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>1.3420738937874259</v>
+        <v>2.5165613750214626</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>1.3032805800247322</v>
+        <v>2.8223353825920845</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>1.3225350062404124</v>
+        <v>2.6650666429167695</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>0.60668832560400066</v>
+        <v>0.43669364558400053</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>0.13155937699094969</v>
+        <v>5.4793856907732019</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>0.77890200000000043</v>
+        <v>0.66082800000000042</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8224,46 +8224,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>6.2487380000000003</v>
+        <v>8.0595750000000006</v>
       </c>
       <c r="I62">
-        <v>6.7528550000000003</v>
+        <v>8.3758119999999998</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>0.50411699999999993</v>
+        <v>0.31623699999999921</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-0.48342987037036966</v>
+        <v>-1.8767346481481475</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7833148518518493</v>
+        <v>-1.4385302314814776</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>0.23370443956631243</v>
+        <v>3.5221329395597509</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>3.1802118608353833</v>
+        <v>2.0693692268861534</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>0.86210766766029456</v>
+        <v>2.6997395278298639</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>0.25413394968899994</v>
+        <v>0.10000584016899951</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1.636347144182386</v>
+        <v>1.2595420974291394</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>0.50411699999999993</v>
+        <v>0.31623699999999921</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8291,46 +8291,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>5.7618450000000001</v>
+        <v>6.9108999999999998</v>
       </c>
       <c r="I63">
-        <v>6.0831379999999999</v>
+        <v>7.792554</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>0.32129299999999983</v>
+        <v>0.88165400000000016</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-1.15314687037037</v>
+        <v>-2.4599926481481473</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2702078518518496</v>
+        <v>-2.5872052314814784</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>1.3297477046449788</v>
+        <v>6.0515638289429345</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>5.1538436906097891</v>
+        <v>6.6936309098051305</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>2.6178830794532009</v>
+        <v>6.3645058486948622</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>0.1032291918489999</v>
+        <v>0.77731377571600024</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>3.7982690997687176</v>
+        <v>2.9089050032079871</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>0.32129299999999983</v>
+        <v>0.88165400000000016</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8358,46 +8358,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6.7775939999999997</v>
+        <v>7.1195899999999996</v>
       </c>
       <c r="I64">
-        <v>5.1523380000000003</v>
+        <v>6.7203629999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6252559999999994</v>
+        <v>-0.39922699999999978</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0839468703703696</v>
+        <v>-3.5321836481481474</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-1.25445885185185</v>
+        <v>-2.3785152314814786</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>4.3428345585264578</v>
+        <v>12.476321324245156</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1.5736670109894617</v>
+        <v>5.657334706389392</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>2.6142255983250702</v>
+        <v>8.4013526075101836</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>2.6414570655359979</v>
+        <v>0.15938219752899982</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>8.292757627976119</v>
+        <v>7.715851904555703</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>1.6252559999999994</v>
+        <v>0.39922699999999978</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8425,46 +8425,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>6.8521530000000004</v>
+        <v>7.7947660000000001</v>
       </c>
       <c r="I65">
-        <v>6.0189560000000002</v>
+        <v>7.6048359999999997</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>-0.83319700000000019</v>
+        <v>-0.18993000000000038</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2173288703703697</v>
+        <v>-2.6477106481481476</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1798998518518493</v>
+        <v>-1.7033392314814781</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>1.4818895786372004</v>
+        <v>7.0103716763170842</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>1.392163660400016</v>
+        <v>2.9013645375039125</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>1.4363261538049783</v>
+        <v>4.5099494206019921</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>0.69421724080900027</v>
+        <v>3.607340490000014E-2</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>4.0525589349358269</v>
+        <v>3.5844683828744683</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>0.83319700000000019</v>
+        <v>0.18993000000000038</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8492,46 +8492,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>7.6651829999999999</v>
+        <v>8.7710699999999999</v>
       </c>
       <c r="I66">
-        <v>6.4329400000000003</v>
+        <v>8.8436210000000006</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2322429999999995</v>
+        <v>7.2551000000000698E-2</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-0.80334487037036961</v>
+        <v>-1.4089256481481467</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-0.36686985185184984</v>
+        <v>-0.72703523148147831</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>0.64536298075038601</v>
+        <v>1.9850714820096753</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>0.13459348819779826</v>
+        <v>0.52858022781532676</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>0.29472301357872099</v>
+        <v>1.0243385847415798</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.5184228110489988</v>
+        <v>5.263647601000101E-3</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>2.557161912957755</v>
+        <v>0.42834960925790039</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>1.2322429999999995</v>
+        <v>7.2551000000000698E-2</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8559,46 +8559,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>7.164466</v>
+        <v>8.8192109999999992</v>
       </c>
       <c r="I67">
-        <v>6.7924300000000004</v>
+        <v>10.058611000000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-0.37203599999999959</v>
+        <v>1.2394000000000016</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-0.44385487037036953</v>
+        <v>-0.19393564814814646</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-0.86758685185184969</v>
+        <v>-0.67889423148147898</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>0.19700714595149754</v>
+        <v>3.7611035622641661E-2</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>0.75270694550620343</v>
+        <v>0.46089737753882798</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.38508264966373973</v>
+        <v>0.13166179280639839</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>0.13841078529599971</v>
+        <v>1.536112360000004</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>1.536664814833312</v>
+        <v>0.31416671654253969</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>0.37203599999999959</v>
+        <v>1.2394000000000016</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8626,46 +8626,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>9.2660789999999995</v>
+        <v>11.413945999999999</v>
       </c>
       <c r="I68">
-        <v>8.9587699999999995</v>
+        <v>13.074730000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-0.30730900000000005</v>
+        <v>1.6607840000000014</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>1.7224851296296295</v>
+        <v>2.8221833518518533</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.2340261481481498</v>
+        <v>1.915840768518521</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>2.9669550217952017</v>
+        <v>7.9647188714697617</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>1.5228205343133594</v>
+        <v>3.6704458503176371</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>2.1255916897593181</v>
+        <v>5.4068539217120302</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>9.4438821481000038E-2</v>
+        <v>2.7582034946560046</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>0.8588046726718398</v>
+        <v>12.792244734780175</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>0.30730900000000005</v>
+        <v>1.6607840000000014</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8693,46 +8693,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>11.969583</v>
+        <v>14.363827000000001</v>
       </c>
       <c r="I69">
-        <v>11.389341</v>
+        <v>16.857534000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>-0.58024200000000015</v>
+        <v>2.4937070000000006</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>4.15305612962963</v>
+        <v>6.6049873518518538</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>3.9375301481481504</v>
+        <v>4.8657217685185223</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>17.247875215854243</v>
+        <v>43.625857918122968</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>15.504143667575596</v>
+        <v>23.675248328635018</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>16.352783717368141</v>
+        <v>32.138030738695072</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>0.33668077856400019</v>
+        <v>6.2185746018490029</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>11.271383709696035</v>
+        <v>54.161191798898059</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>0.58024200000000015</v>
+        <v>2.4937070000000006</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8760,46 +8760,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>12.425515000000001</v>
+        <v>15.049607999999999</v>
       </c>
       <c r="I70">
-        <v>11.897917</v>
+        <v>18.027048000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>-0.52759800000000112</v>
+        <v>2.9774400000000014</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>4.6616321296296297</v>
+        <v>7.7745013518518533</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>4.3934621481481511</v>
+        <v>5.551502768518521</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>21.730814111995276</v>
+        <v>60.442871269946295</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>19.302509647210567</v>
+        <v>30.819182988868803</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>20.480704310119034</v>
+        <v>43.160165778656548</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>0.27835964960400117</v>
+        <v>8.8651489536000092</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>14.944905611937221</v>
+        <v>72.742864748664402</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>0.52759800000000112</v>
+        <v>2.9774400000000014</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8827,46 +8827,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>12.374139</v>
+        <v>15.248101</v>
       </c>
       <c r="I71">
-        <v>11.168345</v>
+        <v>17.185048999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2057939999999991</v>
+        <v>1.9369479999999992</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>3.9320601296296305</v>
+        <v>6.932502351851852</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>4.3420861481481499</v>
+        <v>5.7499957685185219</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>15.461096863022986</v>
+        <v>48.059588858431461</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>18.853712117940038</v>
+        <v>33.06245133798091</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>17.073343822550438</v>
+        <v>39.861859188392849</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>1.4539391704359979</v>
+        <v>3.751767554703997</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>9.836328438535741</v>
+        <v>59.089104500365721</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>1.2057939999999991</v>
+        <v>1.9369479999999992</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8894,46 +8894,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>10.228441</v>
+        <v>12.409865999999999</v>
       </c>
       <c r="I72">
-        <v>9.3149300000000004</v>
+        <v>14.390521</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-0.91351099999999974</v>
+        <v>1.9806550000000005</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>2.0786451296296304</v>
+        <v>4.1379743518518524</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>2.1963881481481504</v>
+        <v>2.9117607685185209</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>4.3207655749329827</v>
+        <v>17.122831736583759</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>4.8241208973256615</v>
+        <v>8.4783507730835677</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>4.5655115269243964</v>
+        <v>12.048791378858079</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>0.83450234712099958</v>
+        <v>3.9229942290250022</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>1.6457737772407321</v>
+        <v>23.935732052048674</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>0.91351099999999974</v>
+        <v>1.9806550000000005</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8961,46 +8961,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>9.6989239999999999</v>
+        <v>11.560919999999999</v>
       </c>
       <c r="I73">
-        <v>8.3287630000000004</v>
+        <v>11.777958</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>-1.3701609999999995</v>
+        <v>0.21703800000000051</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>1.0924781296296304</v>
+        <v>1.5254113518518526</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>1.6668711481481502</v>
+        <v>2.0628147685185212</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>1.1935084637190556</v>
+        <v>2.3268797923584965</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>2.7784594245287324</v>
+        <v>4.2552047692181203</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>1.8210202742624857</v>
+        <v>3.1466410646658036</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>1.8773411659209986</v>
+        <v>4.7105493444000224E-2</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>8.803691201409751E-2</v>
+        <v>5.1977286461215684</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>1.3701609999999995</v>
+        <v>0.21703800000000051</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9028,46 +9028,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>5.6466779999999996</v>
+        <v>7.5210319999999999</v>
       </c>
       <c r="I74">
-        <v>5.9748169999999998</v>
+        <v>8.0507980000000003</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>0.32813900000000018</v>
+        <v>0.5297660000000004</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-1.2614678703703701</v>
+        <v>-2.201748648148147</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-2.3853748518518501</v>
+        <v>-1.9770732314814783</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>1.5913011879767569</v>
+        <v>4.8476971096221924</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>5.6900131838472356</v>
+        <v>3.9088185626406151</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>3.0090737344005904</v>
+        <v>4.3530183147042329</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>0.10767520332100011</v>
+        <v>0.28065201475600043</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>4.2322193501446064</v>
+        <v>2.0946982222985802</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>0.32813900000000018</v>
+        <v>0.5297660000000004</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9095,46 +9095,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>5.0741540000000001</v>
+        <v>6.2389960000000002</v>
       </c>
       <c r="I75">
-        <v>5.4039159999999997</v>
+        <v>7.1561149999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>0.32976199999999967</v>
+        <v>0.91711899999999957</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>-1.8323688703703702</v>
+        <v>-3.0964316481481475</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9578988518518496</v>
+        <v>-3.259109231481478</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>3.3575756771023868</v>
+        <v>9.5878889516534525</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>8.74916561778649</v>
+        <v>10.62179298272779</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>5.4199617778375888</v>
+        <v>10.091608969131036</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>0.10874297664399978</v>
+        <v>0.84110726016099924</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>6.9071033120617527</v>
+        <v>5.4849182443546693</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>0.32976199999999967</v>
+        <v>0.91711899999999957</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9162,46 +9162,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5.0739869999999998</v>
+        <v>5.4627600000000003</v>
       </c>
       <c r="I76">
-        <v>4.6272169999999999</v>
+        <v>6.2070230000000004</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-0.44676999999999989</v>
+        <v>0.74426300000000012</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>-2.60906787037037</v>
+        <v>-4.0455236481481469</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9580658518518499</v>
+        <v>-4.0353452314814779</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>6.8072351521989782</v>
+        <v>16.366261587725891</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>8.7501535838920095</v>
+        <v>16.284011137240302</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>7.7177945725064205</v>
+        <v>16.325084562400178</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>0.19960343289999991</v>
+        <v>0.55392741316900018</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>11.592907178055711</v>
+        <v>10.831222254373104</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>0.44676999999999989</v>
+        <v>0.74426300000000012</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9229,46 +9229,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6.1496360000000001</v>
+        <v>6.9260299999999999</v>
       </c>
       <c r="I77">
-        <v>5.3779450000000004</v>
+        <v>7.2024429999999997</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>-0.77169099999999968</v>
+        <v>0.2764129999999998</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>-1.8583398703703695</v>
+        <v>-3.0501036481481476</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>-1.8824168518518496</v>
+        <v>-2.5720752314814783</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>3.4534270738081618</v>
+        <v>9.3031322644466385</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>3.5434932041358285</v>
+        <v>6.6155709964004998</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>3.4981702884533652</v>
+        <v>7.8450960468531479</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>0.5955069994809995</v>
+        <v>7.6404146568999895E-2</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>7.0442884892616382</v>
+        <v>5.2700650810505216</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>0.77169099999999968</v>
+        <v>0.2764129999999998</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9296,46 +9296,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>5.7969720000000002</v>
+        <v>6.9236909999999998</v>
       </c>
       <c r="I78">
-        <v>5.659497</v>
+        <v>7.5207629999999996</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>-0.13747500000000024</v>
+        <v>0.59707199999999983</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>-1.5767878703703699</v>
+        <v>-2.7317836481481477</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>-2.2350808518518495</v>
+        <v>-2.5744142314814784</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>2.4862599881471263</v>
+        <v>7.4626419002896025</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>4.995586414314789</v>
+        <v>6.6276086352543713</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>3.52424837649707</v>
+        <v>7.0327427011209833</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>1.8899375625000065E-2</v>
+        <v>0.35649497318399981</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>5.6290212701564561</v>
+        <v>3.9098823004001533</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>0.13747500000000024</v>
+        <v>0.59707199999999983</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9363,46 +9363,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>7.9170809999999996</v>
+        <v>9.1455880000000001</v>
       </c>
       <c r="I79">
-        <v>6.7848269999999999</v>
+        <v>10.099689</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1322539999999996</v>
+        <v>0.95410099999999964</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-0.45145787037037</v>
+        <v>-0.15285764814814762</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-0.1149718518518501</v>
+        <v>-0.35251723148147818</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>0.2038142087193498</v>
+        <v>2.3365460597382898E-2</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>1.3218526718243768E-2</v>
+        <v>0.12426839849136607</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>5.1904947389573929E-2</v>
+        <v>5.3884954935954896E-2</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>1.2819991205159993</v>
+        <v>0.91030871820099934</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>1.5555723255275722</v>
+        <v>0.36190303054494605</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>1.1322539999999996</v>
+        <v>0.95410099999999964</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9430,46 +9430,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>8.9837279999999993</v>
+        <v>10.681713999999999</v>
       </c>
       <c r="I80">
-        <v>8.7718749999999996</v>
+        <v>12.167942999999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>-0.21185299999999962</v>
+        <v>1.4862289999999998</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>1.5355901296296297</v>
+        <v>1.915396351851852</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>0.95167514814814957</v>
+        <v>1.1836087685185213</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>2.358037046215943</v>
+        <v>3.6687431846873837</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>0.90568558760280249</v>
+        <v>1.4009297169139305</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>1.4613829641101141</v>
+        <v>2.2670799172402387</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>4.4881693608999844E-2</v>
+        <v>2.2088766404409994</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>0.54733681089054309</v>
+        <v>7.1280337102079558</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>0.21185299999999962</v>
+        <v>1.4862289999999998</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9497,46 +9497,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>10.406180000000001</v>
+        <v>12.578604</v>
       </c>
       <c r="I81">
-        <v>10.353471000000001</v>
+        <v>14.868748</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>-5.2709000000000117E-2</v>
+        <v>2.2901439999999997</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>3.1171861296296308</v>
+        <v>4.6162013518518528</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>2.3741271481481512</v>
+        <v>3.0804987685185221</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>9.7168493667553584</v>
+        <v>21.309314920838872</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>5.6364797155740733</v>
+        <v>9.4894726628441308</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>7.4005962161845682</v>
+        <v>14.220202579613169</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>2.7782386810000122E-3</v>
+        <v>5.2447595407359984</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>5.3889822185515914</v>
+        <v>28.843803747040294</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>5.2709000000000117E-2</v>
+        <v>2.2901439999999997</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9564,46 +9564,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>11.183655</v>
+        <v>13.551264</v>
       </c>
       <c r="I82">
-        <v>11.011625</v>
+        <v>16.696805999999999</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>-0.17202999999999946</v>
+        <v>3.1455419999999989</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>3.7753401296296305</v>
+        <v>6.4442593518518514</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>3.1516021481481502</v>
+        <v>4.0531587685185215</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>14.253193094391875</v>
+        <v>41.528478593930046</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>9.9325961002120344</v>
+        <v>16.428096002818577</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>11.89837006253066</v>
+        <v>26.119606298565817</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>2.9594320899999815E-2</v>
+        <v>9.8944344737639938</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>8.8778501860201864</v>
+        <v>51.821292754669138</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>0.17202999999999946</v>
+        <v>3.1455419999999989</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9631,46 +9631,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>12.272508</v>
+        <v>14.591604</v>
       </c>
       <c r="I83">
-        <v>10.872294999999999</v>
+        <v>16.748556000000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>-1.4002130000000008</v>
+        <v>2.1569520000000004</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>3.6360101296296294</v>
+        <v>6.4960093518518534</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>4.2404551481481505</v>
+        <v>5.093498768518522</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>13.220569662769275</v>
+        <v>42.198137499346736</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>17.981459863456152</v>
+        <v>25.943729704899699</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>15.418337872906786</v>
+        <v>33.087415633942214</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>1.9605964453690023</v>
+        <v>4.6524419303040014</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>8.0669754601172166</v>
+        <v>52.569036346710831</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>1.4002130000000008</v>
+        <v>2.1569520000000004</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9698,46 +9698,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>9.8014349999999997</v>
+        <v>11.885908000000001</v>
       </c>
       <c r="I84">
-        <v>9.0363220000000002</v>
+        <v>14.161457</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-0.76511299999999949</v>
+        <v>2.2755489999999998</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>1.8000371296296303</v>
+        <v>3.9089103518518531</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>1.76938214814815</v>
+        <v>2.3878027685185224</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>3.2401336680452784</v>
+        <v>15.279580138814579</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>3.1307131861853619</v>
+        <v>5.7016020613447198</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>3.184953563170505</v>
+        <v>9.3337069600425657</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>0.58539790276899917</v>
+        <v>5.1781232514009989</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>1.0085565219222119</v>
+        <v>21.74684971694483</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>0.76511299999999949</v>
+        <v>2.2755489999999998</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9765,46 +9765,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>7.357958</v>
+        <v>9.4422639999999998</v>
       </c>
       <c r="I85">
-        <v>8.2622250000000008</v>
+        <v>11.1876</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>0.90426700000000082</v>
+        <v>1.745336</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>1.0259401296296309</v>
+        <v>0.93505335185185245</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>-0.6740948518518497</v>
+        <v>-5.5841231481478459E-2</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>1.0525531495844638</v>
+        <v>0.8743247708093842</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>0.45440386929316717</v>
+        <v>3.1182431333680611E-3</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>-0.69158095969155353</v>
+        <v>-5.2214530668291619E-2</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>0.81769880728900146</v>
+        <v>3.046197752896</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>5.2979217783134427E-2</v>
+        <v>2.8543925728514528</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>0.90426700000000082</v>
+        <v>1.745336</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9832,46 +9832,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>6.6343290000000001</v>
+        <v>8.0556409999999996</v>
       </c>
       <c r="I86">
-        <v>7.2404169999999999</v>
+        <v>9.3414070000000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>0.60608799999999974</v>
+        <v>1.2857660000000006</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>4.1321296296299437E-3</v>
+        <v>-0.91113964814814707</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>-1.3977238518518496</v>
+        <v>-1.4424642314814786</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>1.7074495276065697E-5</v>
+        <v>0.83017545842752927</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>1.953631966035571</v>
+        <v>2.0807030591034525</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>-5.7755761422775215E-3</v>
+        <v>1.3142863523383217</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>0.36734266374399971</v>
+        <v>1.6531942067560017</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>0.62668732193720389</v>
+        <v>2.4554335749422861E-2</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>0.60608799999999974</v>
+        <v>1.2857660000000006</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9899,46 +9899,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.0863659999999999</v>
+        <v>4.7618309999999999</v>
       </c>
       <c r="I87">
-        <v>4.67211</v>
+        <v>6.1767459999999996</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>0.58574400000000004</v>
+        <v>1.4149149999999997</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-2.56417487037037</v>
+        <v>-4.0758006481481477</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-3.9456868518518498</v>
+        <v>-4.7362742314814783</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>6.5749927658389034</v>
+        <v>16.612150923444862</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>15.568444732876561</v>
+        <v>22.432293595795468</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>10.117431071869291</v>
+        <v>19.30410958247958</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>0.34309603353600004</v>
+        <v>2.001984457224999</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>11.289215967710341</v>
+        <v>11.031427144547239</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>0.58574400000000004</v>
+        <v>1.4149149999999997</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9966,46 +9966,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4.8351550000000003</v>
+        <v>4.9710619999999999</v>
       </c>
       <c r="I88">
-        <v>3.6666099999999999</v>
+        <v>4.7506050000000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1685450000000004</v>
+        <v>-0.22045699999999968</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-3.56967487037037</v>
+        <v>-5.5019416481481471</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-3.1968978518518494</v>
+        <v>-4.5270432314814784</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>12.742578680153718</v>
+        <v>30.271361899627149</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>10.220155875174969</v>
+        <v>20.494120419702266</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>11.411885924896565</v>
+        <v>24.907527698255119</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>1.3654974170250009</v>
+        <v>4.8601288848999856E-2</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>19.057091292784406</v>
+        <v>22.538758447916688</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>1.1685450000000004</v>
+        <v>0.22045699999999968</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10033,46 +10033,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>5.493684</v>
+        <v>6.3465480000000003</v>
       </c>
       <c r="I89">
-        <v>4.7065109999999999</v>
+        <v>6.3771940000000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-0.78717300000000012</v>
+        <v>3.0645999999999951E-2</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>-2.52977387037037</v>
+        <v>-3.8753526481481471</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5383688518518497</v>
+        <v>-3.1515572314814779</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>6.3997558352086816</v>
+        <v>15.018358147508856</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>6.4433164280516779</v>
+        <v>9.9323129833031985</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>6.4214991947768461</v>
+        <v>12.213395662812188</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>0.61964133192900017</v>
+        <v>9.3917731599999703E-4</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>11.059228608418231</v>
+        <v>9.740086914787236</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>0.78717300000000012</v>
+        <v>3.0645999999999951E-2</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10100,46 +10100,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>5.9981580000000001</v>
+        <v>6.9459799999999996</v>
       </c>
       <c r="I90">
-        <v>4.946485</v>
+        <v>7.0906229999999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0516730000000001</v>
+        <v>0.1446430000000003</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>-2.2897998703703699</v>
+        <v>-3.1619236481481474</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>-2.0338948518518496</v>
+        <v>-2.5521252314814786</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>5.243183446348163</v>
+        <v>9.9977611567184894</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>4.1367282683894571</v>
+        <v>6.5133431971643905</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>4.6572121681173275</v>
+        <v>8.069625122456852</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>1.1060160989290002</v>
+        <v>2.0921597449000087E-2</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>9.5207289683816381</v>
+        <v>5.7959706948990384</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>1.0516730000000001</v>
+        <v>0.1446430000000003</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10167,46 +10167,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>6.1453680000000004</v>
+        <v>7.4480639999999996</v>
       </c>
       <c r="I91">
-        <v>5.5992629999999997</v>
+        <v>8.3418410000000005</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>-0.54610500000000073</v>
+        <v>0.89377700000000093</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>-1.6370218703703703</v>
+        <v>-1.9107056481481468</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>-1.8866848518518493</v>
+        <v>-2.0500412314814787</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>2.6798406040709053</v>
+        <v>3.6507960738652296</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>3.5595797302072345</v>
+        <v>4.2026690507740971</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>3.0885443649779591</v>
+        <v>3.9170253599282439</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>0.29823067102500078</v>
+        <v>0.79883732572900168</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>5.9184664632733464</v>
+        <v>1.3369469730034522</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>0.54610500000000073</v>
+        <v>0.89377700000000093</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10234,46 +10234,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>8.4055660000000003</v>
+        <v>9.4975240000000003</v>
       </c>
       <c r="I92">
-        <v>7.0140260000000003</v>
+        <v>10.444659</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>-1.39154</v>
+        <v>0.94713499999999939</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>-0.22225887037036962</v>
+        <v>0.19211235185185238</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>0.37351314814815062</v>
+        <v>-5.8123148147792847E-4</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>4.9399005458312766E-2</v>
+        <v>3.6907155734049929E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>0.13951207183954231</v>
+        <v>3.3783003506102753E-7</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>-8.3016610375888478E-2</v>
+        <v>-1.1166174687706121E-4</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>1.9363835716</v>
+        <v>0.89706470822499884</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>1.0363786710913874</v>
+        <v>0.89596403669661473</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>1.39154</v>
+        <v>0.94713499999999939</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10301,46 +10301,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>10.076404</v>
+        <v>11.573069</v>
       </c>
       <c r="I93">
-        <v>9.7849989999999991</v>
+        <v>13.197846</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>-0.29140500000000102</v>
+        <v>1.6247769999999999</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>2.5487141296296292</v>
+        <v>2.9452993518518529</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>2.0443511481481504</v>
+        <v>2.074963768518522</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>6.495943714573718</v>
+        <v>8.6747882720189455</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>4.1793716169346613</v>
+        <v>4.3054746406645865</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>5.2104666572097464</v>
+        <v>6.1113894425336808</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>8.4916874025000602E-2</v>
+        <v>2.6399002997289998</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>3.0728201983074337</v>
+        <v>13.688081754238024</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>0.29140500000000102</v>
+        <v>1.6247769999999999</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10368,46 +10368,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>12.044384000000001</v>
+        <v>14.483074</v>
       </c>
       <c r="I94">
-        <v>11.298373</v>
+        <v>16.418118</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>-0.74601100000000109</v>
+        <v>1.9350439999999995</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>4.0620881296296298</v>
+        <v>6.1655713518518525</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>4.0123311481481512</v>
+        <v>4.984968768518522</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>16.500559972877944</v>
+        <v>38.014270094776279</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>16.098801242399862</v>
+        <v>24.849913623105071</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>16.298442729035827</v>
+        <v>30.735180629054007</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>0.55653241212100157</v>
+        <v>3.744395281935998</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>10.668847310198553</v>
+        <v>47.886576716459373</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>0.74601100000000109</v>
+        <v>1.9350439999999995</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10435,46 +10435,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>12.877067</v>
+        <v>15.160755</v>
       </c>
       <c r="I95">
-        <v>10.501163</v>
+        <v>14.948691</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-2.3759040000000002</v>
+        <v>-0.21206399999999981</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>3.2648781296296301</v>
+        <v>4.6961443518518529</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>4.8450141481481506</v>
+        <v>5.6626497685185218</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>10.659429201333872</v>
+        <v>22.053771773430061</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>23.474162095755748</v>
+        <v>32.065602400902868</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>15.818380730035029</v>
+        <v>26.592620726943458</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>5.6449198172160013</v>
+        <v>4.4971140095999916E-2</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>6.0965049236881805</v>
+        <v>29.708885219976647</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>2.3759040000000002</v>
+        <v>0.21206399999999981</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10502,46 +10502,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>10.837854999999999</v>
+        <v>12.651541</v>
       </c>
       <c r="I96">
-        <v>9.2247319999999995</v>
+        <v>12.859022</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-1.6131229999999999</v>
+        <v>0.20748099999999958</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>1.9884471296296296</v>
+        <v>2.6064753518518522</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>2.8058021481481497</v>
+        <v>3.1534357685185217</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>3.9539219873323126</v>
+        <v>6.7937137598112365</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>7.8725256945527713</v>
+        <v>9.9441571461719995</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>5.5791892277938366</v>
+        <v>8.2193526042915295</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>2.6021658131289995</v>
+        <v>4.3048365360999825E-2</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>1.4224835504273963</v>
+        <v>11.295761524908979</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>1.6131229999999999</v>
+        <v>0.20748099999999958</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10569,46 +10569,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>8.0021509999999996</v>
+        <v>10.042884000000001</v>
       </c>
       <c r="I97">
-        <v>7.2264099999999996</v>
+        <v>10.140311000000001</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-0.77574100000000001</v>
+        <v>9.7426999999999708E-2</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-9.8748703703703811E-3</v>
+        <v>-0.11223564814814679</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9901851851850125E-2</v>
+        <v>0.54477876851852258</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>9.7513064831618873E-5</v>
+        <v>1.2596840715234607E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>8.9412074416999276E-4</v>
+        <v>0.29678390662855803</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>2.9527691087103953E-4</v>
+        <v>-6.114359818202561E-2</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>0.60177409908099999</v>
+        <v>9.4920203289999439E-3</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>0.64906040473998217</v>
+        <v>0.41242824911846582</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>0.77574100000000001</v>
+        <v>9.7426999999999708E-2</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10636,46 +10636,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>5.8603719999999999</v>
+        <v>7.6819389999999999</v>
       </c>
       <c r="I98">
-        <v>6.0619870000000002</v>
+        <v>7.9655129999999996</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>0.20161500000000032</v>
+        <v>0.28357399999999977</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>-1.1742978703703697</v>
+        <v>-2.2870336481481477</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>-2.1716808518518498</v>
+        <v>-1.8161662314814784</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>1.3789754883563856</v>
+        <v>5.2305229077618254</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>4.7161977222999756</v>
+        <v>3.2984597803736349</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>2.5502001994537373</v>
+        <v>4.1536332820285589</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>4.0648608225000132E-2</v>
+        <v>8.0414213475999877E-2</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>3.8811594606327531</v>
+        <v>2.3488389479973781</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>0.20161500000000032</v>
+        <v>0.28357399999999977</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10703,46 +10703,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>5.4903820000000003</v>
+        <v>6.122789</v>
       </c>
       <c r="I99">
-        <v>4.5872989999999998</v>
+        <v>5.5748559999999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-0.90308300000000052</v>
+        <v>-0.54793300000000045</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-2.6489858703703701</v>
+        <v>-4.6776906481481477</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5416708518518494</v>
+        <v>-3.3753162314814782</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>7.0171261414218673</v>
+        <v>21.880789799772639</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>6.4600907191533059</v>
+        <v>11.392759662502328</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>6.7328501736877717</v>
+        <v>15.788685170543559</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>0.81555890488900096</v>
+        <v>0.30023057248900048</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>11.866329099848157</v>
+        <v>15.391884532320013</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>0.90308300000000052</v>
+        <v>0.54793300000000045</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10770,46 +10770,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>6.0441789999999997</v>
+        <v>6.6704509999999999</v>
       </c>
       <c r="I100">
-        <v>4.9552849999999999</v>
+        <v>6.7227480000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0888939999999998</v>
+        <v>5.229700000000026E-2</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>-2.28099987037037</v>
+        <v>-3.5297986481481471</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>-1.9878738518518499</v>
+        <v>-2.8276542314814783</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>5.2029604086296448</v>
+        <v>12.459478496468487</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>3.9516424508763106</v>
+        <v>7.9956284528151098</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>4.5343399983867174</v>
+        <v>9.9810500837137095</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>1.1856901432359996</v>
+        <v>2.734976209000027E-3</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>9.4665004141890456</v>
+        <v>7.7026077623365348</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>1.0888939999999998</v>
+        <v>5.229700000000026E-2</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10837,46 +10837,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>5.1738799999999996</v>
+        <v>5.7695939999999997</v>
       </c>
       <c r="I101">
-        <v>4.2978680000000002</v>
+        <v>6.0133390000000002</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>-0.87601199999999935</v>
+        <v>0.24374500000000054</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-2.9384168703703697</v>
+        <v>-4.2392076481481471</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-2.8581728518518501</v>
+        <v>-3.7285112314814786</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>8.6342937040771979</v>
+        <v>17.970881484117744</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>8.1691520510629374</v>
+        <v>13.901796003283533</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>8.3985033263160673</v>
+        <v>15.805933328702551</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>0.76739702414399891</v>
+        <v>5.9411625025000268E-2</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>13.944136507799819</v>
+        <v>12.143595688073622</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>0.87601199999999935</v>
+        <v>0.24374500000000054</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10904,46 +10904,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>5.7776079999999999</v>
+        <v>6.8555159999999997</v>
       </c>
       <c r="I102">
-        <v>4.6569880000000001</v>
+        <v>7.0182650000000004</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1206199999999997</v>
+        <v>0.1627490000000007</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-2.5792968703703698</v>
+        <v>-3.2342816481481469</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-2.2544448518518498</v>
+        <v>-2.6425892314814785</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>6.6527723455023846</v>
+        <v>10.460577779547894</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>5.082521590041309</v>
+        <v>6.9832778463418714</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>5.814882550804068</v>
+        <v>8.5468778549744613</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>1.2557891843999993</v>
+        <v>2.6487237001000228E-2</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>11.391062754205747</v>
+        <v>6.1496075736741096</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>1.1206199999999997</v>
+        <v>0.1627490000000007</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10971,46 +10971,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>6.877923</v>
+        <v>8.1483550000000005</v>
       </c>
       <c r="I103">
-        <v>5.8367180000000003</v>
+        <v>8.6028570000000002</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0412049999999997</v>
+        <v>0.45450199999999974</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>-1.3995668703703696</v>
+        <v>-1.6496896481481471</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-1.1541298518518497</v>
+        <v>-1.3497502314814778</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>1.958787424638311</v>
+        <v>2.7214759352071574</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>1.3320157149355725</v>
+        <v>1.8218256873843028</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>1.6152819047573117</v>
+        <v>2.2266689844605594</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>1.0841078520249994</v>
+        <v>0.20657206800399977</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>4.8194951117553817</v>
+        <v>0.80146939597071409</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>1.0412049999999997</v>
+        <v>0.45450199999999974</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11038,46 +11038,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>9.5025870000000001</v>
+        <v>11.361995</v>
       </c>
       <c r="I104">
-        <v>8.8799700000000001</v>
+        <v>11.752383999999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>-0.62261699999999998</v>
+        <v>0.39038899999999899</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>1.6436851296296302</v>
+        <v>1.499837351851852</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>1.4705341481481504</v>
+        <v>1.8638897685185221</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>2.7017008053655744</v>
+        <v>2.2495120820099759</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>2.1624706808698062</v>
+        <v>3.4740850691880296</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>2.4170951119236905</v>
+        <v>2.7955314945585816</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>0.38765192868899995</v>
+        <v>0.15240357132099921</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>0.71896349012369254</v>
+        <v>5.0817727661933798</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>0.62261699999999998</v>
+        <v>0.39038899999999899</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11105,46 +11105,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>10.300219</v>
+        <v>12.479741000000001</v>
       </c>
       <c r="I105">
-        <v>10.157683</v>
+        <v>13.440951999999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>-0.14253599999999977</v>
+        <v>0.96121099999999871</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>2.9213981296296305</v>
+        <v>3.188405351851852</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>2.2681661481481505</v>
+        <v>2.9816357685185224</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>8.534567031803503</v>
+        <v>10.165928687717532</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>5.1445776756052179</v>
+        <v>8.8901518561090391</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>6.6262163428892507</v>
+        <v>9.5066634416173663</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>2.0316511295999935E-2</v>
+        <v>0.92392658652099746</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>4.5183035267163296</v>
+        <v>15.546040640016944</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>0.14253599999999977</v>
+        <v>0.96121099999999871</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11172,46 +11172,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>12.427593</v>
+        <v>14.766379000000001</v>
       </c>
       <c r="I106">
-        <v>11.548427</v>
+        <v>16.549931999999998</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>-0.87916599999999967</v>
+        <v>1.7835529999999977</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>4.3121421296296303</v>
+        <v>6.297385351851851</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>4.3955401481481502</v>
+        <v>5.2682737685185224</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>18.594569746126762</v>
+        <v>39.65706226971826</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>19.320773193982262</v>
+        <v>27.754708500060353</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>18.954193855308105</v>
+        <v>33.176350059413892</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>0.77293285555599944</v>
+        <v>3.1810613038089919</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>12.36488714976463</v>
+        <v>49.72826077319435</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>0.87916599999999967</v>
+        <v>1.7835529999999977</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11239,46 +11239,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>12.329682999999999</v>
+        <v>14.782641999999999</v>
       </c>
       <c r="I107">
-        <v>10.903589</v>
+        <v>16.771944000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>-1.4260939999999991</v>
+        <v>1.9893020000000021</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>3.6673041296296303</v>
+        <v>6.519397351851854</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>4.2976301481481496</v>
+        <v>5.2845367685185209</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>13.449119579198539</v>
+        <v>42.502541831332969</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>18.469624890271888</v>
+        <v>27.926328857824171</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>15.760716789924508</v>
+        <v>34.451995014443398</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>2.0337440968359974</v>
+        <v>3.9573224472040085</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>8.2457198501215174</v>
+        <v>52.908730430403061</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>1.4260939999999991</v>
+        <v>1.9893020000000021</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11306,46 +11306,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>10.322787999999999</v>
+        <v>11.961473</v>
       </c>
       <c r="I108">
-        <v>8.9095630000000003</v>
+        <v>13.094060000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-1.4132249999999988</v>
+        <v>1.1325870000000009</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>1.6732781296296304</v>
+        <v>2.8415133518518534</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>2.2907351481481495</v>
+        <v>2.4633677685185216</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>2.7998596990968343</v>
+        <v>8.0741981287523554</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>5.247467518961324</v>
+        <v>6.0681807629759206</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>3.8330370241701899</v>
+        <v>6.9996924047668845</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>1.9972049006249968</v>
+        <v>1.282753312569002</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>0.77002406010298929</v>
+        <v>12.930890697231101</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>1.4132249999999988</v>
+        <v>1.1325870000000009</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11373,46 +11373,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>8.6730929999999997</v>
+        <v>10.624886999999999</v>
       </c>
       <c r="I109">
-        <v>7.4504200000000003</v>
+        <v>10.210146</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2226729999999995</v>
+        <v>-0.41474099999999936</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>0.21413512962963033</v>
+        <v>-4.2400648148147368E-2</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>0.64104014814815002</v>
+        <v>1.1267817685185211</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>4.5853853741498585E-2</v>
+        <v>1.797814963382993E-3</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>0.41093247153780216</v>
+        <v>1.2696371538657261</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>0.13726921522150154</v>
+        <v>-4.7776277306701045E-2</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>1.4949292649289987</v>
+        <v>0.17201009708099946</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>0.33829677435331545</v>
+        <v>0.50700205603244708</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>1.2226729999999995</v>
+        <v>0.41474099999999936</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11440,46 +11440,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>6.667116</v>
+        <v>8.6911439999999995</v>
       </c>
       <c r="I110">
-        <v>5.8304580000000001</v>
+        <v>7.540826</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-0.8366579999999999</v>
+        <v>-1.1503179999999995</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-1.4058268703703698</v>
+        <v>-2.7117206481481473</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-1.3649368518518497</v>
+        <v>-0.80696123148147869</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>1.9763491894553484</v>
+        <v>7.3534288735930078</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>1.8630526095432383</v>
+        <v>0.65118642911410463</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>1.918864902692071</v>
+        <v>2.1882534336633825</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>0.69999660896399984</v>
+        <v>1.3232315011239988</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>4.8470198917005671</v>
+        <v>3.8309419899887258</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>0.8366579999999999</v>
+        <v>1.1503179999999995</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11507,46 +11507,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>5.099647</v>
+        <v>6.2701310000000001</v>
       </c>
       <c r="I111">
-        <v>4.8333740000000001</v>
+        <v>6.1656829999999996</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-0.26627299999999998</v>
+        <v>-0.10444800000000054</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>-2.4029108703703699</v>
+        <v>-4.0868636481481477</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9324058518518497</v>
+        <v>-3.2279742314814781</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>5.7739806509440887</v>
+        <v>16.702454478554788</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>8.5990040799749714</v>
+        <v>10.419817639108439</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>7.0463098977524936</v>
+        <v>13.192290543800608</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>7.0901310528999992E-2</v>
+        <v>1.0909384704000113E-2</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>10.231546397284268</v>
+        <v>11.105037928871997</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>0.26627299999999998</v>
+        <v>0.10444800000000054</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2A82C8-3BEB-46A6-9FEF-D37E0A52EDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABAD44-EE44-48E7-BD6B-D7F9570A1BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Month index</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USGS_14178000_flow_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14178000_flow_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591.csv</t>
   </si>
 </sst>
 </file>
@@ -670,9 +676,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -682,6 +685,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -846,328 +852,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.5297229999999997</c:v>
+                  <c:v>1571.7052000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6071799999999996</c:v>
+                  <c:v>877.40515100000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7678969999999996</c:v>
+                  <c:v>869.32531700000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4157229999999998</c:v>
+                  <c:v>1161.9617920000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5288149999999998</c:v>
+                  <c:v>968.25726299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.458344</c:v>
+                  <c:v>1143.2380370000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.732965999999999</c:v>
+                  <c:v>324.77462800000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.970249000000001</c:v>
+                  <c:v>289.086029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.566496000000001</c:v>
+                  <c:v>418.89544699999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.254830999999999</c:v>
+                  <c:v>684.42132600000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3572150000000001</c:v>
+                  <c:v>1062.4205320000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8811689999999999</c:v>
+                  <c:v>1802.928711</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7458600000000004</c:v>
+                  <c:v>2094.0390619999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1595420000000001</c:v>
+                  <c:v>795.41192599999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3863339999999997</c:v>
+                  <c:v>1709.023193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7997019999999999</c:v>
+                  <c:v>1457.332275</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0417240000000003</c:v>
+                  <c:v>1507.7835689999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.8798270000000006</c:v>
+                  <c:v>1369.328125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.353736</c:v>
+                  <c:v>495.96160900000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.179397</c:v>
+                  <c:v>335.08306900000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.544032</c:v>
+                  <c:v>312.96588100000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.236124999999999</c:v>
+                  <c:v>518.24975600000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5424170000000004</c:v>
+                  <c:v>920.20788600000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.38063</c:v>
+                  <c:v>1077.0177000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7468300000000001</c:v>
+                  <c:v>1367.690552</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.8714130000000004</c:v>
+                  <c:v>1686.0009769999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9712509999999996</c:v>
+                  <c:v>1920.4738769999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9769399999999999</c:v>
+                  <c:v>2405.016846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0125469999999996</c:v>
+                  <c:v>1548.114746</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.319582</c:v>
+                  <c:v>1120.1635739999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.719935</c:v>
+                  <c:v>437.747681</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.683743</c:v>
+                  <c:v>344.42398100000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.790307</c:v>
+                  <c:v>315.44812000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.625299</c:v>
+                  <c:v>1114.8023679999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.1490240000000007</c:v>
+                  <c:v>1797.338501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6240410000000001</c:v>
+                  <c:v>1535.640991</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.1328560000000003</c:v>
+                  <c:v>1042.2468260000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5076679999999998</c:v>
+                  <c:v>947.88952600000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.0562550000000002</c:v>
+                  <c:v>1290.0119629999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.0875970000000006</c:v>
+                  <c:v>1562.4719239999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.7949719999999996</c:v>
+                  <c:v>1078.8942870000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.850331000000001</c:v>
+                  <c:v>513.56964100000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14.645512</c:v>
+                  <c:v>329.101562</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.437049</c:v>
+                  <c:v>317.72796599999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.282192</c:v>
+                  <c:v>666.160706</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.9254650000000009</c:v>
+                  <c:v>791.40741000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.648326</c:v>
+                  <c:v>865.16235400000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.4776809999999996</c:v>
+                  <c:v>731.682007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.6631530000000003</c:v>
+                  <c:v>973.36920199999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.2271340000000004</c:v>
+                  <c:v>1925.5120850000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.303877</c:v>
+                  <c:v>2745.2280270000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.2866979999999995</c:v>
+                  <c:v>1477.073486</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.007847999999999</c:v>
+                  <c:v>1294.546509</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.732272999999999</c:v>
+                  <c:v>531.51275599999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14.545894000000001</c:v>
+                  <c:v>370.54007000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14.729371</c:v>
+                  <c:v>317.260895</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.868437</c:v>
+                  <c:v>310.85693400000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.178086</c:v>
+                  <c:v>998.69805899999994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.0595750000000006</c:v>
+                  <c:v>1886.5954589999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9108999999999998</c:v>
+                  <c:v>2037.9986570000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.1195899999999996</c:v>
+                  <c:v>1400.7531739999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.7947660000000001</c:v>
+                  <c:v>1137.1290280000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.7710699999999999</c:v>
+                  <c:v>790.69457999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.8192109999999992</c:v>
+                  <c:v>718.36987299999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11.413945999999999</c:v>
+                  <c:v>449.86929300000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.363827000000001</c:v>
+                  <c:v>312.76174900000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.049607999999999</c:v>
+                  <c:v>289.552887</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.248101</c:v>
+                  <c:v>266.81918300000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12.409865999999999</c:v>
+                  <c:v>321.18594400000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.560919999999999</c:v>
+                  <c:v>348.42294299999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.5210319999999999</c:v>
+                  <c:v>1444.014038</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.2389960000000002</c:v>
+                  <c:v>2182.4985350000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.4627600000000003</c:v>
+                  <c:v>1807.3911129999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.9260299999999999</c:v>
+                  <c:v>2005.2761230000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.9236909999999998</c:v>
+                  <c:v>1763.7615969999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.1455880000000001</c:v>
+                  <c:v>1381.885986</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.681713999999999</c:v>
+                  <c:v>694.88903800000003</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.578604</c:v>
+                  <c:v>449.42630000000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.551264</c:v>
+                  <c:v>358.43609600000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14.591604</c:v>
+                  <c:v>300.15698200000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.885908000000001</c:v>
+                  <c:v>349.01693699999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.4422639999999998</c:v>
+                  <c:v>2405.686279</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.0556409999999996</c:v>
+                  <c:v>1382.7768550000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7618309999999999</c:v>
+                  <c:v>516.87701400000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9710619999999999</c:v>
+                  <c:v>905.80480999999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.3465480000000003</c:v>
+                  <c:v>2773.8715820000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.9459799999999996</c:v>
+                  <c:v>2821.6750489999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.4480639999999996</c:v>
+                  <c:v>1691.4564210000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.4975240000000003</c:v>
+                  <c:v>1785.1719969999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.573069</c:v>
+                  <c:v>858.02258300000005</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.483074</c:v>
+                  <c:v>401.760559</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.160755</c:v>
+                  <c:v>355.96896400000003</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.651541</c:v>
+                  <c:v>578.98370399999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.042884000000001</c:v>
+                  <c:v>1514.574707</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.6819389999999999</c:v>
+                  <c:v>2058.774414</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.122789</c:v>
+                  <c:v>891.30712900000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.6704509999999999</c:v>
+                  <c:v>1632.2181399999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.7695939999999997</c:v>
+                  <c:v>872.39831500000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.8555159999999997</c:v>
+                  <c:v>1371.462769</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.1483550000000005</c:v>
+                  <c:v>1466.903198</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.361995</c:v>
+                  <c:v>720.18591300000003</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.479741000000001</c:v>
+                  <c:v>342.06536899999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>14.766379000000001</c:v>
+                  <c:v>309.22595200000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>14.782641999999999</c:v>
+                  <c:v>289.345032</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11.961473</c:v>
+                  <c:v>281.96933000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.624886999999999</c:v>
+                  <c:v>383.39123499999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.6911439999999995</c:v>
+                  <c:v>927.26355000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.2701310000000001</c:v>
+                  <c:v>1427.7319339999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.7262389999999996</c:v>
@@ -1191,7 +1197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14178000_flow_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1215,328 +1221,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.7575260000000004</c:v>
+                  <c:v>1658.329712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0468979999999997</c:v>
+                  <c:v>969.63507100000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5625140000000002</c:v>
+                  <c:v>1001.7504269999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5006950000000003</c:v>
+                  <c:v>1342.7420649999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.083938</c:v>
+                  <c:v>1221.1632079999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.837152</c:v>
+                  <c:v>1657.7235109999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.065334</c:v>
+                  <c:v>675.42297399999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.599329000000001</c:v>
+                  <c:v>515.01519800000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.234444999999999</c:v>
+                  <c:v>489.01992799999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.104032999999999</c:v>
+                  <c:v>486.32562300000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7684309999999996</c:v>
+                  <c:v>990.79974400000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5254580000000004</c:v>
+                  <c:v>1843.7036129999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8123259999999997</c:v>
+                  <c:v>2001.8045649999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5251479999999997</c:v>
+                  <c:v>943.07714799999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5961270000000001</c:v>
+                  <c:v>1212.424561</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4708329999999998</c:v>
+                  <c:v>1590.2803960000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.912903</c:v>
+                  <c:v>1574.056763</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.841665000000001</c:v>
+                  <c:v>1557.6092530000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.848522000000001</c:v>
+                  <c:v>818.47106900000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.150067999999999</c:v>
+                  <c:v>576.47088599999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.886526999999999</c:v>
+                  <c:v>496.20931999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.686559000000001</c:v>
+                  <c:v>481.50769000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.3908750000000003</c:v>
+                  <c:v>627.29986599999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6762090000000001</c:v>
+                  <c:v>1006.087524</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7243950000000003</c:v>
+                  <c:v>1889.8961179999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0212640000000004</c:v>
+                  <c:v>1380.950562</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.2946020000000003</c:v>
+                  <c:v>1588.7939449999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0125010000000003</c:v>
+                  <c:v>2247.7705080000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9014100000000003</c:v>
+                  <c:v>1784.1904300000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.643750000000001</c:v>
+                  <c:v>1237.536621</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.857324999999999</c:v>
+                  <c:v>785.24462900000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.432864</c:v>
+                  <c:v>598.64007600000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.870347000000001</c:v>
+                  <c:v>520.57391399999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.587904999999999</c:v>
+                  <c:v>648.737122</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.4551409999999994</c:v>
+                  <c:v>1312.4486079999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.7407919999999999</c:v>
+                  <c:v>1912.724121</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9180770000000003</c:v>
+                  <c:v>1003.251221</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.1956850000000001</c:v>
+                  <c:v>992.99786400000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.492057</c:v>
+                  <c:v>1306.5604249999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5971530000000005</c:v>
+                  <c:v>1844.041504</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.077218</c:v>
+                  <c:v>1224.181885</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.704166000000001</c:v>
+                  <c:v>792.33429000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.750347000000001</c:v>
+                  <c:v>575.90563999999995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.772145</c:v>
+                  <c:v>490.24523900000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.215868</c:v>
+                  <c:v>645.09240699999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.9914310000000004</c:v>
+                  <c:v>850.20874000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.4102540000000001</c:v>
+                  <c:v>901.28021200000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.2807459999999997</c:v>
+                  <c:v>859.92095900000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.2900869999999998</c:v>
+                  <c:v>1009.971436</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.9716139999999998</c:v>
+                  <c:v>2192.0620119999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.3243400000000003</c:v>
+                  <c:v>2580.6989749999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8320469999999993</c:v>
+                  <c:v>1471.7113039999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.221339</c:v>
+                  <c:v>1382.6301269999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.324306</c:v>
+                  <c:v>764.53741500000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.180609</c:v>
+                  <c:v>605.08038299999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15.435485</c:v>
+                  <c:v>483.81219499999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.738193000000001</c:v>
+                  <c:v>433.66195699999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.838914000000001</c:v>
+                  <c:v>516.242615</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.3758119999999998</c:v>
+                  <c:v>1207.1164550000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.792554</c:v>
+                  <c:v>1884.2677000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7203629999999999</c:v>
+                  <c:v>1309.7821039999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.6048359999999997</c:v>
+                  <c:v>1191.05188</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.8436210000000006</c:v>
+                  <c:v>773.01031499999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.058611000000001</c:v>
+                  <c:v>757.00372300000004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.074730000000001</c:v>
+                  <c:v>572.77179000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.857534000000001</c:v>
+                  <c:v>451.80908199999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18.027048000000001</c:v>
+                  <c:v>331.84762599999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.185048999999999</c:v>
+                  <c:v>344.88644399999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.390521</c:v>
+                  <c:v>331.10879499999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.777958</c:v>
+                  <c:v>319.937073</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0507980000000003</c:v>
+                  <c:v>633.98730499999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.1561149999999998</c:v>
+                  <c:v>1822.4492190000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.2070230000000004</c:v>
+                  <c:v>1335.939087</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.2024429999999997</c:v>
+                  <c:v>1661.1883539999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.5207629999999996</c:v>
+                  <c:v>1609.378418</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.099689</c:v>
+                  <c:v>1348.593018</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.167942999999999</c:v>
+                  <c:v>855.28253199999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.868748</c:v>
+                  <c:v>589.57531700000004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.696805999999999</c:v>
+                  <c:v>456.26327500000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.748556000000001</c:v>
+                  <c:v>381.15924100000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.161457</c:v>
+                  <c:v>357.50091600000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.1876</c:v>
+                  <c:v>1041.809814</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.3414070000000002</c:v>
+                  <c:v>1006.809875</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.1767459999999996</c:v>
+                  <c:v>1003.057678</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.7506050000000002</c:v>
+                  <c:v>853.50561500000003</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.3771940000000003</c:v>
+                  <c:v>1857.5124510000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.0906229999999999</c:v>
+                  <c:v>2413.1938479999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.3418410000000005</c:v>
+                  <c:v>1843.8084719999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.444659</c:v>
+                  <c:v>1872.5166019999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.197846</c:v>
+                  <c:v>1033.8005370000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>16.418118</c:v>
+                  <c:v>625.26245100000006</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.948691</c:v>
+                  <c:v>524.06451400000003</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.859022</c:v>
+                  <c:v>519.48230000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.140311000000001</c:v>
+                  <c:v>915.51599099999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.9655129999999996</c:v>
+                  <c:v>1592.2476810000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.5748559999999996</c:v>
+                  <c:v>916.08667000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.7227480000000002</c:v>
+                  <c:v>1438.466553</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.0133390000000002</c:v>
+                  <c:v>1156.155518</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.0182650000000004</c:v>
+                  <c:v>1003.138733</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.6028570000000002</c:v>
+                  <c:v>1613.4224850000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.752383999999999</c:v>
+                  <c:v>1045.286255</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>13.440951999999999</c:v>
+                  <c:v>603.66247599999997</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.549931999999998</c:v>
+                  <c:v>478.86398300000002</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.771944000000001</c:v>
+                  <c:v>422.33435100000003</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.094060000000001</c:v>
+                  <c:v>392.29061899999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.210146</c:v>
+                  <c:v>393.68478399999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.540826</c:v>
+                  <c:v>512.39947500000005</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.1656829999999996</c:v>
+                  <c:v>1060.9879149999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>4.7575370000000001</c:v>
@@ -3741,7 +3747,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I111"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3775,9 +3781,9 @@
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-0.75444141666666908</v>
+        <v>8.0393085462960698</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3787,11 +3793,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>9.4981052314814782</v>
+        <v>1056.522113074074</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>10.252546648148147</v>
+        <v>1048.4828045277779</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3801,12 +3807,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>1.3056961844246762</v>
+        <v>92200.572668567125</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>0.89209478703703693</v>
+        <v>222.43974676851852</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3823,13 +3829,13 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>7.9430728369493359E-2</v>
-      </c>
-      <c r="C3" s="9" t="str">
+        <v>-7.6092193876612447E-3</v>
+      </c>
+      <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -3844,10 +3850,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -3913,11 +3919,11 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.90432898715829413</v>
-      </c>
-      <c r="C4" s="8" t="str">
+        <v>0.67994710629565513</v>
+      </c>
+      <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>VG</v>
+        <v>S</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3932,46 +3938,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>6.5297229999999997</v>
+        <v>1571.7052000000001</v>
       </c>
       <c r="I4">
-        <v>6.7575260000000004</v>
+        <v>1658.329712</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.22780300000000064</v>
+        <v>86.624511999999868</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-3.4950206481481469</v>
+        <v>609.84690747222203</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-2.9683822314814785</v>
+        <v>515.18308692592609</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>12.215169330981894</v>
+        <v>371913.25055343291</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>8.811293072174962</v>
+        <v>265413.61305452633</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>10.37455719062384</v>
+        <v>314182.81234376895</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>5.1894206809000296E-2</v>
+        <v>7503.8060792381211</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>7.5107745240276076</v>
+        <v>362172.38612498814</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.22780300000000064</v>
+        <v>86.624511999999868</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4012,11 +4018,11 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.30305244233977841</v>
-      </c>
-      <c r="C5" s="8" t="str">
+        <v>0.56566872463702678</v>
+      </c>
+      <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
-        <v>VG</v>
+        <v>G</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4031,46 +4037,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>6.6071799999999996</v>
+        <v>877.40515100000005</v>
       </c>
       <c r="I5">
-        <v>7.0468979999999997</v>
+        <v>969.63507100000004</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>0.43971800000000005</v>
+        <v>92.229919999999993</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.2056486481481477</v>
+        <v>-78.847733527777905</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-2.8909252314814786</v>
+        <v>-179.11696207407397</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>10.276183255374047</v>
+        <v>6216.9650824674718</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>8.3574486940162416</v>
+        <v>32082.886102645251</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>9.2672905601959723</v>
+        <v>14122.966495921686</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.19335191952400005</v>
+        <v>8506.3581432063984</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>6.0084168916670952</v>
+        <v>7549.3580803819013</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>0.43971800000000005</v>
+        <v>92.229919999999993</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4109,13 +4115,13 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.96661998537538263</v>
-      </c>
-      <c r="C6" s="8" t="str">
+        <v>0.78515831264333746</v>
+      </c>
+      <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>VG</v>
+        <v>G</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4130,46 +4136,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>6.7678969999999996</v>
+        <v>869.32531700000004</v>
       </c>
       <c r="I6">
-        <v>7.5625140000000002</v>
+        <v>1001.7504269999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>0.79461700000000057</v>
+        <v>132.4251099999999</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6900326481481471</v>
+        <v>-46.732377527777999</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7302082314814786</v>
+        <v>-187.19679607407397</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>7.2362756481029331</v>
+        <v>2183.9151093987703</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>7.4540369872492231</v>
+        <v>35042.640460398434</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>7.3443492789279912</v>
+        <v>8748.1513461240957</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>0.63141617668900096</v>
+        <v>17536.409758512076</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>3.7465134153879847</v>
+        <v>2999.9375953969193</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>0.79461700000000057</v>
+        <v>132.4251099999999</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4210,7 +4216,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>9.4981052314814782</v>
+        <v>1056.522113074074</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4226,46 +4232,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>7.4157229999999998</v>
+        <v>1161.9617920000001</v>
       </c>
       <c r="I7">
-        <v>8.5006950000000003</v>
+        <v>1342.7420649999999</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.0849720000000005</v>
+        <v>180.78027299999985</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-1.751851648148147</v>
+        <v>294.25926047222197</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0823822314814784</v>
+        <v>105.43967892592605</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>3.068984197119379</v>
+        <v>86588.512373658974</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>4.3363157579897811</v>
+        <v>11117.525892002373</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>3.648024744295244</v>
+        <v>31026.601945171526</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>1.1771642407840011</v>
+        <v>32681.507105954475</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>0.99482716986393527</v>
+        <v>81921.860880479333</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.0849720000000005</v>
+        <v>180.78027299999985</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4306,7 +4312,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>3.1020595267357267</v>
+        <v>649.50154268259109</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4322,46 +4328,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>8.5288149999999998</v>
+        <v>968.25726299999997</v>
       </c>
       <c r="I8">
-        <v>10.083938</v>
+        <v>1221.1632079999999</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.555123</v>
+        <v>252.90594499999997</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.16860864814814747</v>
+        <v>172.680403472222</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.96929023148147841</v>
+        <v>-88.264850074074047</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.8428876230345793E-2</v>
+        <v>29818.52174332938</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.939523552845418</v>
+        <v>7790.6837585987696</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.163430715593297</v>
+        <v>-15241.60992320629</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>2.4184075451289999</v>
+        <v>63961.41701634301</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>0.34320003267007576</v>
+        <v>27106.690138407754</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>1.555123</v>
+        <v>252.90594499999997</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4402,7 +4408,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>10.252546648148147</v>
+        <v>1048.4828045277779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4418,46 +4424,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>10.458344</v>
+        <v>1143.2380370000001</v>
       </c>
       <c r="I9">
-        <v>11.837152</v>
+        <v>1657.7235109999999</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.3788079999999994</v>
+        <v>514.48547399999984</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.5846053518518524</v>
+        <v>609.24070647222197</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.96023876851852208</v>
+        <v>86.715923925926063</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>2.5109741211175329</v>
+        <v>371174.23842277215</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>0.92205849256596784</v>
+        <v>7519.6514623269959</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.5215994916500821</v>
+        <v>52830.870755022654</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>1.9011115008639983</v>
+        <v>264695.30295700452</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>5.4711397853169377</v>
+        <v>361443.12086808751</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>1.3788079999999994</v>
+        <v>514.48547399999984</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4498,7 +4504,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>3.6942891261951312</v>
+        <v>536.73007384417201</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4513,46 +4519,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>13.732965999999999</v>
+        <v>324.77462800000001</v>
       </c>
       <c r="I10">
-        <v>16.065334</v>
+        <v>675.42297399999995</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>2.3323680000000007</v>
+        <v>350.64834599999995</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>5.8127873518518527</v>
+        <v>-373.05983052777799</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>4.2348607685185211</v>
+        <v>-731.74748507407401</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>33.788496797848872</v>
+        <v>139173.63715341443</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>17.934045728737278</v>
+        <v>535454.38191223214</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>24.616345112098077</v>
+        <v>272985.59277086181</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>5.4399404874240034</v>
+        <v>122954.26255253569</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>43.128493698057298</v>
+        <v>145236.55380300045</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>2.3323680000000007</v>
+        <v>350.64834599999995</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4593,7 +4599,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>1.1426706368961601</v>
+        <v>303.64547200405792</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4608,46 +4614,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>13.970249000000001</v>
+        <v>289.086029</v>
       </c>
       <c r="I11">
-        <v>15.599329000000001</v>
+        <v>515.01519800000005</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>1.6290800000000001</v>
+        <v>225.92916900000006</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>5.3467823518518536</v>
+        <v>-533.46760652777789</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>4.4721437685185226</v>
+        <v>-767.43608407407396</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>28.588081518074439</v>
+        <v>284587.68721447606</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>20.000069886299052</v>
+        <v>588958.14313894906</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>23.911579376459077</v>
+        <v>409402.29093404673</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>2.6539016464000005</v>
+        <v>51043.989405030588</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>37.224931473535364</v>
+        <v>293229.73907304037</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>1.6290800000000001</v>
+        <v>225.92916900000006</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4688,9 +4694,9 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.98316834030362399</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>0.88609159382274783</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12">
         <v>8</v>
       </c>
@@ -4704,46 +4710,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>11.566496000000001</v>
+        <v>418.89544699999999</v>
       </c>
       <c r="I12">
-        <v>13.234444999999999</v>
+        <v>489.01992799999999</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.6679489999999983</v>
+        <v>70.124481000000003</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>2.9818983518518518</v>
+        <v>-559.46287652777801</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>2.0683907685185225</v>
+        <v>-637.62666607407402</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>8.8917177807767906</v>
+        <v>312998.71021273581</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>4.278240371292644</v>
+        <v>406567.76528873871</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>6.1677310236309673</v>
+        <v>356728.44875261839</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>2.7820538666009944</v>
+        <v>4917.4428355193613</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>13.960234865813034</v>
+        <v>322058.7300638486</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>1.6679489999999983</v>
+        <v>70.124481000000003</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4784,7 +4790,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>0.89209478703703693</v>
+        <v>222.43974676851852</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4799,46 +4805,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>10.254830999999999</v>
+        <v>684.42132600000002</v>
       </c>
       <c r="I13">
-        <v>11.104032999999999</v>
+        <v>486.32562300000001</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0.84920200000000001</v>
+        <v>-198.09570300000001</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.85148635185185206</v>
+        <v>-562.15718152777799</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>0.75672576851852114</v>
+        <v>-372.10078707407399</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.725029007389976</v>
+        <v>316020.69674325513</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>0.57263388873994647</v>
+        <v>138458.99574114534</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>0.64434166398812465</v>
+        <v>209179.12970582928</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>0.72114403680399997</v>
+        <v>39241.907547064213</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>2.579003997698877</v>
+        <v>325124.03729279363</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>0.84920200000000001</v>
+        <v>198.09570300000001</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4887,46 +4893,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>7.3572150000000001</v>
+        <v>1062.4205320000001</v>
       </c>
       <c r="I14">
-        <v>7.7684309999999996</v>
+        <v>990.79974400000003</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>0.41121599999999958</v>
+        <v>-71.620788000000061</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4841156481481477</v>
+        <v>-57.683060527777911</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1408902314814782</v>
+        <v>5.8984189259260802</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>6.1708305533744916</v>
+        <v>3327.3354718512901</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>4.5834109832528176</v>
+        <v>34.791345825722971</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>5.3182189249906502</v>
+        <v>-340.23885592238486</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>0.16909859865599966</v>
+        <v>5129.5372737409525</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>2.9917729470510435</v>
+        <v>4319.4297967087959</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>0.41121599999999958</v>
+        <v>71.620788000000061</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4962,9 +4968,9 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>B5</f>
-        <v>0.30305244233977841</v>
+        <v>0.56566872463702678</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4979,46 +4985,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>5.8811689999999999</v>
+        <v>1802.928711</v>
       </c>
       <c r="I15">
-        <v>6.5254580000000004</v>
+        <v>1843.7036129999999</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0.64428900000000056</v>
+        <v>40.774901999999884</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7270886481481469</v>
+        <v>795.22080847222196</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6169362314814784</v>
+        <v>746.40659792592601</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>13.891189791154781</v>
+        <v>632376.13422721438</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>13.082227702603438</v>
+        <v>557122.80942735495</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>13.480641969430357</v>
+        <v>593558.05825165554</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>0.41510831552100069</v>
+        <v>1662.5926331095945</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>8.8366315628344942</v>
+        <v>619654.71382563049</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.64428900000000056</v>
+        <v>40.774901999999884</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5067,46 +5073,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5.7458600000000004</v>
+        <v>2094.0390619999998</v>
       </c>
       <c r="I16">
-        <v>5.8123259999999997</v>
+        <v>2001.8045649999999</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>6.6465999999999248E-2</v>
+        <v>-92.234496999999919</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4402206481481477</v>
+        <v>953.32176047222197</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7522452314814778</v>
+        <v>1037.5169489259258</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>19.715559404241155</v>
+        <v>908822.37898985657</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>14.079344277175489</v>
+        <v>1076441.4193085621</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>16.660796753739483</v>
+        <v>989087.48426983203</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>4.4177291559999001E-3</v>
+        <v>8507.2024368429938</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>13.584968543220199</v>
+        <v>893558.91391909041</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>6.6465999999999248E-2</v>
+        <v>92.234496999999919</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5134,46 +5140,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>5.1595420000000001</v>
+        <v>795.41192599999999</v>
       </c>
       <c r="I17">
-        <v>5.5251479999999997</v>
+        <v>943.07714799999997</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>0.36560599999999965</v>
+        <v>147.66522199999997</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7273986481481476</v>
+        <v>-105.40565652777798</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3385632314814782</v>
+        <v>-261.11018707407402</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>22.348297978512932</v>
+        <v>11110.352428051905</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>18.823130913563006</v>
+        <v>68178.529793857932</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>20.510117955410799</v>
+        <v>27522.4906946337</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>0.13366774723599975</v>
+        <v>21805.017788309277</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>15.784389163180974</v>
+        <v>12869.760100657881</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>0.36560599999999965</v>
+        <v>147.66522199999997</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5201,46 +5207,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6.3863339999999997</v>
+        <v>1709.023193</v>
       </c>
       <c r="I18">
-        <v>6.5961270000000001</v>
+        <v>1212.424561</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>0.20979300000000034</v>
+        <v>-496.59863199999995</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6564196481481472</v>
+        <v>163.9417564722221</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1117712314814785</v>
+        <v>652.50107992592598</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>13.36940464336382</v>
+        <v>26876.899515197376</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>9.6831201970757572</v>
+        <v>425757.65930449963</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>11.377941471331035</v>
+        <v>106972.17314307808</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>4.4013102849000139E-2</v>
+        <v>246610.20130427138</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>8.4214776559923674</v>
+        <v>24305.573269296077</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>0.20979300000000034</v>
+        <v>496.59863199999995</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5268,46 +5274,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>6.7997019999999999</v>
+        <v>1457.332275</v>
       </c>
       <c r="I19">
-        <v>7.4708329999999998</v>
+        <v>1590.2803960000001</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>0.67113099999999992</v>
+        <v>132.94812100000013</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7817136481481475</v>
+        <v>541.79759147222217</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6984032314814783</v>
+        <v>400.81016192592597</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>7.7379308202936752</v>
+        <v>293544.63012510096</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>7.2813799996696851</v>
+        <v>160648.785903087</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>7.5061850972190935</v>
+        <v>217157.98036905806</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>0.4504168191609999</v>
+        <v>17675.202877430675</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>4.1098327005358932</v>
+        <v>284897.90459203295</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>0.67113099999999992</v>
+        <v>132.94812100000013</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5338,46 +5344,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>8.0417240000000003</v>
+        <v>1507.7835689999999</v>
       </c>
       <c r="I20">
-        <v>8.912903</v>
+        <v>1574.056763</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>0.8711789999999997</v>
+        <v>66.273194000000103</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3396436481481473</v>
+        <v>525.5739584722221</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4563812314814779</v>
+        <v>451.26145592592593</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>1.7946451040236771</v>
+        <v>276227.98582416103</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2.1210462914115062</v>
+        <v>203636.9016043864</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>1.9510318660363384</v>
+        <v>237171.26969692708</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>0.75895285004099944</v>
+        <v>4392.1362429616493</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.3424616517309016</v>
+        <v>267842.11387395079</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>0.8711789999999997</v>
+        <v>66.273194000000103</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5411,46 +5417,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.8798270000000006</v>
+        <v>1369.328125</v>
       </c>
       <c r="I21">
-        <v>10.841665000000001</v>
+        <v>1557.6092530000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>0.96183800000000019</v>
+        <v>188.28112800000008</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.58911835185185346</v>
+        <v>509.12644847222214</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.38172176851852235</v>
+        <v>312.80601192592599</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.34706043248864421</v>
+        <v>259209.74053393825</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>0.14571150856090836</v>
+        <v>97847.601097002553</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>0.22487929913560661</v>
+        <v>159257.81391260627</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>0.92513233824400032</v>
+        <v>35449.783160952415</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>1.8051528515815458</v>
+        <v>251088.32179914461</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>0.96183800000000019</v>
+        <v>188.28112800000008</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5484,46 +5490,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>12.353736</v>
+        <v>495.96160900000001</v>
       </c>
       <c r="I22">
-        <v>13.848522000000001</v>
+        <v>818.47106900000006</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>1.4947860000000013</v>
+        <v>322.50946000000005</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>3.5959753518518536</v>
+        <v>-230.01173552777789</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.8556307685185214</v>
+        <v>-560.56050407407406</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>12.931038731126062</v>
+        <v>52905.398480500444</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>8.1546270861096808</v>
+        <v>314228.07872778003</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>10.26877785758237</v>
+        <v>128935.49441040379</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>2.234385185796004</v>
+        <v>104012.35178949163</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>18.926126059807146</v>
+        <v>56668.2995847567</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>1.4947860000000013</v>
+        <v>322.50946000000005</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5557,46 +5563,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>14.179397</v>
+        <v>335.08306900000002</v>
       </c>
       <c r="I23">
-        <v>15.150067999999999</v>
+        <v>576.47088599999995</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>0.9706709999999994</v>
+        <v>241.38781699999993</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>4.8975213518518519</v>
+        <v>-472.01191852777799</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>4.6812917685185216</v>
+        <v>-721.43904407407399</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>23.985715391844792</v>
+        <v>222795.25123227373</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>21.914492621999269</v>
+        <v>520474.29431451368</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>22.926726390567776</v>
+        <v>340527.82729424984</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>0.94220219024099883</v>
+        <v>58268.078196025454</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>31.944683136719544</v>
+        <v>230449.18061532421</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>0.9706709999999994</v>
+        <v>241.38781699999993</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5630,46 +5636,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>12.544032</v>
+        <v>312.96588100000002</v>
       </c>
       <c r="I24">
-        <v>12.886526999999999</v>
+        <v>496.20931999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>0.34249499999999955</v>
+        <v>183.24343899999997</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>2.6339803518518519</v>
+        <v>-552.27348452777801</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>3.0459267685185214</v>
+        <v>-743.55623207407393</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>6.9378524939416053</v>
+        <v>305006.00171245384</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>9.277669879177683</v>
+        <v>552875.87025619415</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>8.0229112614573896</v>
+        <v>410646.39122989401</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>0.1173028250249997</v>
+        <v>33578.157936546711</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>11.481402081370181</v>
+        <v>313950.42608247016</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>0.34249499999999955</v>
+        <v>183.24343899999997</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5703,46 +5709,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>10.236124999999999</v>
+        <v>518.24975600000005</v>
       </c>
       <c r="I25">
-        <v>10.686559000000001</v>
+        <v>481.50769000000003</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>0.45043400000000133</v>
+        <v>-36.742066000000023</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>0.4340123518518535</v>
+        <v>-566.97511452777792</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>0.73801976851852125</v>
+        <v>-538.27235707407397</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.18836672155997708</v>
+        <v>321460.78049378691</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>0.54467317872413168</v>
+        <v>289737.1303900794</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>0.3203096954478839</v>
+        <v>305187.03129921004</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>0.20289078835600119</v>
+        <v>1349.9794139483577</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>1.4124223599058781</v>
+        <v>330641.58674321015</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>0.45043400000000133</v>
+        <v>36.742066000000023</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5776,46 +5782,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>7.5424170000000004</v>
+        <v>920.20788600000003</v>
       </c>
       <c r="I26">
-        <v>7.3908750000000003</v>
+        <v>627.29986599999995</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-0.15154200000000007</v>
+        <v>-292.90802000000008</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-2.861671648148147</v>
+        <v>-421.18293852777799</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9556882314814779</v>
+        <v>-136.31422707407398</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>8.1891646218149319</v>
+        <v>177395.06770689401</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>3.8247164587551503</v>
+        <v>18581.568502802205</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>5.5965375646475355</v>
+        <v>57413.226722201274</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>2.296497776400002E-2</v>
+        <v>85795.108180320443</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>4.4404192484694827</v>
+        <v>184231.73738331749</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>0.15154200000000007</v>
+        <v>292.90802000000008</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5849,46 +5855,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>5.38063</v>
+        <v>1077.0177000000001</v>
       </c>
       <c r="I27">
-        <v>4.6762090000000001</v>
+        <v>1006.087524</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-0.70442099999999996</v>
+        <v>-70.930176000000074</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5763376481481473</v>
+        <v>-42.395280527777913</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1174752314814782</v>
+        <v>20.495586925926091</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>31.095541566154409</v>
+        <v>1797.3598110289852</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>16.953602281863454</v>
+        <v>420.06908343819248</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>22.960432148627675</v>
+        <v>-868.91615730609396</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>0.49620894524099995</v>
+        <v>5031.0898673909869</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>23.25068326717528</v>
+        <v>2543.6477750707027</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>0.70442099999999996</v>
+        <v>70.930176000000074</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5922,46 +5928,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>5.7468300000000001</v>
+        <v>1367.690552</v>
       </c>
       <c r="I28">
-        <v>5.7243950000000003</v>
+        <v>1889.8961179999999</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-2.2434999999999761E-2</v>
+        <v>522.20556599999986</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-4.528151648148147</v>
+        <v>841.41331347222194</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7512752314814781</v>
+        <v>311.16843892592601</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>20.50415734862678</v>
+        <v>707976.36408830364</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>14.072065862326417</v>
+        <v>96825.797383597746</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>16.986343122090176</v>
+        <v>261821.26724464213</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>5.0332922499998929E-4</v>
+        <v>272698.65316138021</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>14.240888911187989</v>
+        <v>694512.2320862771</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>2.2434999999999761E-2</v>
+        <v>522.20556599999986</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -5995,46 +6001,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5.8714130000000004</v>
+        <v>1686.0009769999999</v>
       </c>
       <c r="I29">
-        <v>6.0212640000000004</v>
+        <v>1380.950562</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>0.14985099999999996</v>
+        <v>-305.05041499999993</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2312826481481469</v>
+        <v>332.46775747222205</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6266922314814778</v>
+        <v>629.47886392592591</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>17.903752848519595</v>
+        <v>110534.80975860826</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>13.152896541888101</v>
+        <v>396243.64012947434</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>15.34555990924126</v>
+        <v>209281.4262656146</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>2.2455322200999987E-2</v>
+        <v>93055.755691672181</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>12.088424948929639</v>
+        <v>105253.81847248216</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>0.14985099999999996</v>
+        <v>305.05041499999993</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6068,46 +6074,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5.9712509999999996</v>
+        <v>1920.4738769999999</v>
       </c>
       <c r="I30">
-        <v>6.2946020000000003</v>
+        <v>1588.7939449999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>0.32335100000000061</v>
+        <v>-331.67993200000001</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-3.9579446481481471</v>
+        <v>540.31114047222195</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-3.5268542314814786</v>
+        <v>863.95176392592589</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>15.665325837804559</v>
+        <v>291936.12851839315</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>12.43870077011881</v>
+        <v>746412.65039071883</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>13.959093830290765</v>
+        <v>466802.76287980488</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>0.10455586920100039</v>
+        <v>110011.57729152463</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>10.262432954112272</v>
+        <v>283313.3030617811</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>0.32335100000000061</v>
+        <v>331.67993200000001</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6141,46 +6147,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>7.9769399999999999</v>
+        <v>2405.016846</v>
       </c>
       <c r="I31">
-        <v>8.0125010000000003</v>
+        <v>2247.7705080000001</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>3.5561000000000398E-2</v>
+        <v>-157.24633799999992</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-2.240045648148147</v>
+        <v>1199.2877034722221</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5211652314814783</v>
+        <v>1348.494732925926</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>5.0178045057874519</v>
+        <v>1438290.9956996767</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>2.3139436614680995</v>
+        <v>1818438.0447289643</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>3.4074795568943541</v>
+        <v>1617233.1513951214</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>1.2645847210000284E-3</v>
+        <v>24726.410814410221</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>2.2070199325956725</v>
+        <v>1419072.7384135951</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>3.5561000000000398E-2</v>
+        <v>157.24633799999992</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6214,46 +6220,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>9.0125469999999996</v>
+        <v>1548.114746</v>
       </c>
       <c r="I32">
-        <v>9.9014100000000003</v>
+        <v>1784.1904300000001</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>0.88886300000000062</v>
+        <v>236.07568400000014</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-0.35113664814814705</v>
+        <v>735.70762547222216</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-0.48555823148147859</v>
+        <v>491.59263292592595</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.12329694567271562</v>
+        <v>541265.71017797547</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>0.23576679615942114</v>
+        <v>241663.31674704418</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>0.1704972898831485</v>
+        <v>361668.44866957073</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>0.79007743276900111</v>
+        <v>55731.728576067922</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>0.16265473630977864</v>
+        <v>529501.17945781001</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>0.88886300000000062</v>
+        <v>236.07568400000014</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6281,46 +6287,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>10.319582</v>
+        <v>1120.1635739999999</v>
       </c>
       <c r="I33">
-        <v>11.643750000000001</v>
+        <v>1237.536621</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>1.3241680000000002</v>
+        <v>117.37304700000004</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>1.3912033518518534</v>
+        <v>189.05381647222202</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.82147676851852225</v>
+        <v>63.641460925925912</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>1.9354467662038317</v>
+        <v>35741.345522712611</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>0.67482408121563375</v>
+        <v>4050.2355487861546</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>1.1428412338313971</v>
+        <v>12031.661073914087</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>1.7534208922240007</v>
+        <v>13776.432162064219</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>4.6037914726709035</v>
+        <v>32766.252079665112</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>1.3241680000000002</v>
+        <v>117.37304700000004</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6348,46 +6354,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>13.719935</v>
+        <v>437.747681</v>
       </c>
       <c r="I34">
-        <v>14.857324999999999</v>
+        <v>785.24462900000003</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>1.1373899999999999</v>
+        <v>347.49694800000003</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>4.6047783518518521</v>
+        <v>-263.23817552777791</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>4.2218297685185213</v>
+        <v>-618.77443207407396</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>21.20398366968346</v>
+        <v>69294.337055193217</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>17.823846594349153</v>
+        <v>382881.79778859275</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>19.440590323277803</v>
+        <v>162885.05256241618</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>1.2936560120999998</v>
+        <v>120754.12886931472</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>28.721236527279711</v>
+        <v>73591.473365559461</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>1.1373899999999999</v>
+        <v>347.49694800000003</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6415,46 +6421,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>14.683743</v>
+        <v>344.42398100000003</v>
       </c>
       <c r="I35">
-        <v>15.432864</v>
+        <v>598.64007600000002</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>0.74912100000000059</v>
+        <v>254.216095</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>5.180317351851853</v>
+        <v>-449.84272852777792</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>5.1856377685185215</v>
+        <v>-712.09813207407399</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>26.835687865897395</v>
+        <v>202358.48040931611</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>26.89083906628575</v>
+        <v>507083.74970338534</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>26.863249312674821</v>
+        <v>320332.16671173542</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>0.56118227264100085</v>
+        <v>64625.822957049022</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>35.221361640507489</v>
+        <v>209655.95987510367</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>0.74912100000000059</v>
+        <v>254.216095</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6482,46 +6488,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>12.790307</v>
+        <v>315.44812000000002</v>
       </c>
       <c r="I36">
-        <v>12.870347000000001</v>
+        <v>520.57391399999995</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>8.0040000000000333E-2</v>
+        <v>205.12579399999993</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>2.6178003518518533</v>
+        <v>-527.908890527778</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>3.2922017685185221</v>
+        <v>-741.073993074074</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>6.8528786821556871</v>
+        <v>278687.79669826949</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>10.838592484636484</v>
+        <v>549190.66321075265</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>8.6183269479950813</v>
+        <v>391219.54948272463</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>6.406401600000053E-3</v>
+        <v>42076.591364130407</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>11.372014545340932</v>
+        <v>287240.47209074331</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>8.0040000000000333E-2</v>
+        <v>205.12579399999993</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6549,46 +6555,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>10.625299</v>
+        <v>1114.8023679999999</v>
       </c>
       <c r="I37">
-        <v>10.587904999999999</v>
+        <v>648.737122</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-3.7394000000000815E-2</v>
+        <v>-466.06524599999989</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>0.33535835185185192</v>
+        <v>-399.74568252777794</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>1.1271937685185218</v>
+        <v>58.280254925925874</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.11246522415679051</v>
+        <v>159796.61069959903</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>1.270565791786987</v>
+        <v>3396.5881142309072</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>0.37801384442804936</v>
+        <v>-23297.280283257132</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>1.398311236000061E-3</v>
+        <v>217216.8135290404</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>1.1876635354630221</v>
+        <v>166288.59894528263</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>3.7394000000000815E-2</v>
+        <v>466.06524599999989</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6616,46 +6622,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>8.1490240000000007</v>
+        <v>1797.338501</v>
       </c>
       <c r="I38">
-        <v>8.4551409999999994</v>
+        <v>1312.4486079999999</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0.30611699999999864</v>
+        <v>-484.88989300000003</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.797405648148148</v>
+        <v>263.96580347222198</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3490812314814775</v>
+        <v>740.81638792592594</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3.230667063994864</v>
+        <v>69677.945402735713</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>1.82002016913558</v>
+        <v>548808.92061961594</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>2.4248462252754668</v>
+        <v>195550.19306425634</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>9.370761768899917E-2</v>
+        <v>235118.20833355148</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1.0877743881497519</v>
+        <v>65498.370805069979</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>0.30611699999999864</v>
+        <v>484.88989300000003</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6683,46 +6689,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>5.6240410000000001</v>
+        <v>1535.640991</v>
       </c>
       <c r="I39">
-        <v>6.7407919999999999</v>
+        <v>1912.724121</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1.1167509999999998</v>
+        <v>377.08312999999998</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5117546481481474</v>
+        <v>864.24131647222202</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-3.8740642314814782</v>
+        <v>479.11887792592597</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>12.332420708790119</v>
+        <v>746913.05309763947</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>15.008373669644175</v>
+        <v>229554.89918499836</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>13.604763072129561</v>
+        <v>414074.32980539609</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>1.2471327960009997</v>
+        <v>142191.68693059689</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>7.6027762565028327</v>
+        <v>733081.87837638741</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>1.1167509999999998</v>
+        <v>377.08312999999998</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6750,46 +6756,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>5.1328560000000003</v>
+        <v>1042.2468260000001</v>
       </c>
       <c r="I40">
-        <v>4.9180770000000003</v>
+        <v>1003.251221</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-0.21477900000000005</v>
+        <v>-38.995605000000069</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3344696481481471</v>
+        <v>-45.231583527777957</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3652492314814779</v>
+        <v>-14.275287074073958</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>28.456566427013815</v>
+        <v>2045.8961484303543</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>19.055400852949635</v>
+        <v>203.78382104722303</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>23.286289531939968</v>
+        <v>645.69383967398528</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>4.6130018841000021E-2</v>
+        <v>1520.6572093160303</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>20.976658601167355</v>
+        <v>2837.7879423676432</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>0.21477900000000005</v>
+        <v>38.995605000000069</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6817,46 +6823,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>5.5076679999999998</v>
+        <v>947.88952600000005</v>
       </c>
       <c r="I41">
-        <v>6.1956850000000001</v>
+        <v>992.99786400000005</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>0.68801700000000032</v>
+        <v>45.108338000000003</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-4.0568616481481472</v>
+        <v>-55.484940527777894</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-3.9904372314814784</v>
+        <v>-108.63258707407397</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>16.458126432215302</v>
+        <v>3078.5786253710498</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>15.923589298393566</v>
+        <v>11801.038974406263</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>16.188651763739681</v>
+        <v>6027.4726331836473</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>0.47336739228900043</v>
+        <v>2034.7621571222444</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>10.905979385298179</v>
+        <v>4035.3302204249867</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>0.68801700000000032</v>
+        <v>45.108338000000003</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6884,46 +6890,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>7.0562550000000002</v>
+        <v>1290.0119629999999</v>
       </c>
       <c r="I42">
-        <v>7.492057</v>
+        <v>1306.5604249999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>0.4358019999999998</v>
+        <v>16.548461999999972</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7604896481481473</v>
+        <v>258.07762047222195</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4418502314814781</v>
+        <v>233.48984992592591</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>7.6203030975330828</v>
+        <v>66604.058188604235</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>5.9626325529861477</v>
+        <v>54517.510018431407</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>6.7407022863327777</v>
+        <v>60258.504873299171</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>0.18992338320399982</v>
+        <v>273.85159456544307</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>4.0242295070299665</v>
+        <v>62519.157430766609</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>0.4358019999999998</v>
+        <v>16.548461999999972</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6951,46 +6957,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>8.0875970000000006</v>
+        <v>1562.4719239999999</v>
       </c>
       <c r="I43">
-        <v>8.5971530000000005</v>
+        <v>1844.041504</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>0.5095559999999999</v>
+        <v>281.56958000000009</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6553936481481468</v>
+        <v>795.55869947222209</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4105082314814776</v>
+        <v>505.94981092592593</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>2.7403281303292304</v>
+        <v>632913.64430593338</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>1.9895334710770056</v>
+        <v>255985.21117598019</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>2.3349463670551138</v>
+        <v>402512.7735784463</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>0.25964731713599992</v>
+        <v>79281.428381376449</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>0.81171492341145424</v>
+        <v>620186.79108434147</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>0.5095559999999999</v>
+        <v>281.56958000000009</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7018,46 +7024,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>9.7949719999999996</v>
+        <v>1078.8942870000001</v>
       </c>
       <c r="I44">
-        <v>11.077218</v>
+        <v>1224.181885</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1.2822460000000007</v>
+        <v>145.28759799999989</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>0.82467135185185292</v>
+        <v>175.69908047222202</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>0.29686676851852134</v>
+        <v>22.372173925926063</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.68008283856516261</v>
+        <v>30870.166878784348</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>8.8129878250629332E-2</v>
+        <v>500.51416617188602</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>0.24481751931406009</v>
+        <v>3930.7703869498305</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>1.6441548045160017</v>
+        <v>21108.486132609571</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>2.4935971356982312</v>
+        <v>28109.799122253509</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>1.2822460000000007</v>
+        <v>145.28759799999989</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7085,46 +7091,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>11.850331000000001</v>
+        <v>513.56964100000005</v>
       </c>
       <c r="I45">
-        <v>13.704166000000001</v>
+        <v>792.33429000000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>1.8538350000000001</v>
+        <v>278.76464899999996</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>3.4516193518518534</v>
+        <v>-256.14851452777793</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>2.3522257685185224</v>
+        <v>-542.95247207407397</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>11.913676150078208</v>
+        <v>65612.061494787267</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>5.5329660660825537</v>
+        <v>294797.38693134807</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>8.1189879825431301</v>
+        <v>139076.46918095887</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>3.4367042072250005</v>
+        <v>77709.729532093173</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>17.690947188470624</v>
+        <v>69795.205860618225</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>1.8538350000000001</v>
+        <v>278.76464899999996</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7152,46 +7158,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>14.645512</v>
+        <v>329.101562</v>
       </c>
       <c r="I46">
-        <v>16.750347000000001</v>
+        <v>575.90563999999995</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>2.1048350000000013</v>
+        <v>246.80407799999995</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>6.4978003518518541</v>
+        <v>-472.577164527778</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>5.1474067685185219</v>
+        <v>-727.42055107407396</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>42.221409412526079</v>
+        <v>223329.17643311454</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>26.49579644059029</v>
+        <v>529140.65812490939</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>33.44682151160427</v>
+        <v>343762.34144581959</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>4.4303303772250056</v>
+        <v>60912.252917430058</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>52.595010669044676</v>
+        <v>230992.19419016215</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>2.1048350000000013</v>
+        <v>246.80407799999995</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7219,46 +7225,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>14.437049</v>
+        <v>317.72796599999998</v>
       </c>
       <c r="I47">
-        <v>15.772145</v>
+        <v>490.24523900000003</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>1.3350960000000001</v>
+        <v>172.51727300000005</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>5.5195983518518528</v>
+        <v>-558.23756552777786</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>4.9389437685185218</v>
+        <v>-738.79414707407409</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>30.46596596576569</v>
+        <v>311629.1795663801</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>24.393165548587938</v>
+        <v>545816.7917509086</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>27.260985884603812</v>
+        <v>412422.6460888022</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>1.7824813292160002</v>
+        <v>29762.209483356546</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>39.363575016951948</v>
+        <v>320669.49811110459</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>1.3350960000000001</v>
+        <v>172.51727300000005</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7286,46 +7292,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>12.282192</v>
+        <v>666.160706</v>
       </c>
       <c r="I48">
-        <v>13.215868</v>
+        <v>645.09240699999998</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>0.93367600000000017</v>
+        <v>-21.068299000000025</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>2.9633213518518531</v>
+        <v>-403.39039752777796</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>2.784086768518522</v>
+        <v>-390.36140707407401</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>8.7812734343410934</v>
+        <v>162723.81281761875</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>7.7511391346399066</v>
+        <v>152382.02813285092</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>8.2501437665591641</v>
+        <v>157468.04317911348</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>0.87175087297600029</v>
+        <v>443.87322275340205</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>13.821760002982506</v>
+        <v>169274.40304019896</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>0.93367600000000017</v>
+        <v>21.068299000000025</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7353,46 +7359,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>9.9254650000000009</v>
+        <v>791.40741000000003</v>
       </c>
       <c r="I49">
-        <v>9.9914310000000004</v>
+        <v>850.20874000000003</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>6.5965999999999525E-2</v>
+        <v>58.801330000000007</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-0.26111564814814692</v>
+        <v>-198.27406452777791</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>0.42735976851852264</v>
+        <v>-265.11470307407399</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>6.8181381707826866E-2</v>
+        <v>39312.604664365441</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>0.18263637174820527</v>
+        <v>70285.805786054421</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-0.11159032294915608</v>
+        <v>52565.369744571624</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>4.3515131559999374E-3</v>
+        <v>3457.5964097689007</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>0.24337031388439051</v>
+        <v>42565.207909202036</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>6.5965999999999525E-2</v>
+        <v>58.801330000000007</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7420,46 +7426,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>7.648326</v>
+        <v>865.16235400000005</v>
       </c>
       <c r="I50">
-        <v>7.4102540000000001</v>
+        <v>901.28021200000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-0.23807199999999984</v>
+        <v>36.117857999999956</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.8422926481481472</v>
+        <v>-147.20259252777794</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8497792314814783</v>
+        <v>-191.35975907407396</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>8.0786274977170081</v>
+        <v>21668.603246899027</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>3.4216832052202082</v>
+        <v>36618.557392887633</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>5.2576139103369357</v>
+        <v>28168.652641194665</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>5.6678277183999926E-2</v>
+        <v>1304.4996665081608</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>4.359122764798725</v>
+        <v>24100.047849092582</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>0.23807199999999984</v>
+        <v>36.117857999999956</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7487,46 +7493,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>5.4776809999999996</v>
+        <v>731.682007</v>
       </c>
       <c r="I51">
-        <v>4.2807459999999997</v>
+        <v>859.92095900000004</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1969349999999999</v>
+        <v>128.23895200000004</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.9718006481481476</v>
+        <v>-188.5618455277779</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0204242314814786</v>
+        <v>-324.84010607407401</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>35.662402981222634</v>
+        <v>35555.569588841579</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>16.163811001083438</v>
+        <v>105521.09451421566</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>24.009172031391614</v>
+        <v>61252.449902766537</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>1.4326533942249997</v>
+        <v>16445.228810058314</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>27.220837350325002</v>
+        <v>38652.013783257775</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>1.1969349999999999</v>
+        <v>128.23895200000004</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7554,46 +7560,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>6.6631530000000003</v>
+        <v>973.36920199999997</v>
       </c>
       <c r="I52">
-        <v>5.2900869999999998</v>
+        <v>1009.971436</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3730660000000006</v>
+        <v>36.602234000000067</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9624596481481476</v>
+        <v>-38.511368527777904</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8349522314814779</v>
+        <v>-83.152911074074041</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>24.626005759498636</v>
+        <v>1483.1255058823224</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>8.0369541547818102</v>
+        <v>6914.4066200928655</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>14.068336053154381</v>
+        <v>3202.3324025312099</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>1.8853102403560016</v>
+        <v>1339.7235337907609</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>17.707417436480508</v>
+        <v>2166.9655360547163</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>1.3730660000000006</v>
+        <v>36.602234000000067</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7621,46 +7627,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>6.2271340000000004</v>
+        <v>1925.5120850000001</v>
       </c>
       <c r="I53">
-        <v>5.9716139999999998</v>
+        <v>2192.0620119999999</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-0.25552000000000064</v>
+        <v>266.5499269999998</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2809326481481476</v>
+        <v>1143.5792074722219</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-3.2709712314814778</v>
+        <v>868.98997192592606</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>18.326384337980713</v>
+        <v>1307773.4037627953</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>10.699252797179456</v>
+        <v>755143.57130782178</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>14.002807536002411</v>
+        <v>993758.86339635891</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>6.5290470400000328E-2</v>
+        <v>71048.863583705228</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>12.436140405715754</v>
+        <v>1289450.8620527019</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>0.25552000000000064</v>
+        <v>266.5499269999998</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7688,46 +7694,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>7.303877</v>
+        <v>2745.2280270000001</v>
       </c>
       <c r="I54">
-        <v>7.3243400000000003</v>
+        <v>2580.6989749999998</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>2.0463000000000342E-2</v>
+        <v>-164.52905200000032</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-2.928206648148147</v>
+        <v>1532.2161704722218</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1942282314814783</v>
+        <v>1688.7059139259261</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>8.5743941742590053</v>
+        <v>2347686.3930565608</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>4.8146375318303356</v>
+        <v>2851727.6637283973</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>6.425153694978416</v>
+        <v>2587462.5084893759</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>4.1873436900001401E-4</v>
+        <v>27069.808952018808</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>4.7252552815977236</v>
+        <v>2323115.1064303624</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>2.0463000000000342E-2</v>
+        <v>164.52905200000032</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7755,46 +7761,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>8.2866979999999995</v>
+        <v>1477.073486</v>
       </c>
       <c r="I55">
-        <v>8.8320469999999993</v>
+        <v>1471.7113039999999</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>0.54534899999999986</v>
+        <v>-5.3621820000000753</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-1.420499648148148</v>
+        <v>423.22849947222198</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2114072314814788</v>
+        <v>420.55137292592599</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>2.0178192503890124</v>
+        <v>179122.36276550862</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>1.4675074804856212</v>
+        <v>176863.45726988127</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1.7208035460835627</v>
+        <v>177989.32651442249</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>0.29740553180099982</v>
+        <v>28.752995801124808</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>0.44363356772423534</v>
+        <v>172382.06426172497</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>0.54534899999999986</v>
+        <v>5.3621820000000753</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7822,46 +7828,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>10.007847999999999</v>
+        <v>1294.546509</v>
       </c>
       <c r="I56">
-        <v>11.221339</v>
+        <v>1382.6301269999999</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>1.2134910000000012</v>
+        <v>88.083617999999888</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>0.96879235185185308</v>
+        <v>334.14732247222196</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.50974276851852096</v>
+        <v>238.024395925926</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>0.93855862100664467</v>
+        <v>111654.43311535509</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>0.25983769005692642</v>
+        <v>56655.61305590198</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.49383489555253268</v>
+        <v>79535.214581716224</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>1.472560407081003</v>
+        <v>7758.7237599699038</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>2.9695346209625475</v>
+        <v>106346.43674671187</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>1.2134910000000012</v>
+        <v>88.083617999999888</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7889,46 +7895,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>11.732272999999999</v>
+        <v>531.51275599999997</v>
       </c>
       <c r="I57">
-        <v>13.324306</v>
+        <v>764.53741500000001</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>1.5920330000000007</v>
+        <v>233.02465900000004</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>3.0717593518518527</v>
+        <v>-283.94538952777793</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>2.2341677685185211</v>
+        <v>-525.00935707407405</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>9.4357055156893139</v>
+        <v>80624.984234081538</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>4.9915056178870278</v>
+        <v>275634.82501533261</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>6.8628257365527521</v>
+        <v>149073.98640012622</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>2.5345690730890023</v>
+        <v>54300.491702066298</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>14.639812321011727</v>
+        <v>85255.063909408156</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>1.5920330000000007</v>
+        <v>233.02465900000004</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7956,46 +7962,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>14.545894000000001</v>
+        <v>370.54007000000001</v>
       </c>
       <c r="I58">
-        <v>16.180609</v>
+        <v>605.08038299999998</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>1.6347149999999999</v>
+        <v>234.54031299999997</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>5.9280623518518532</v>
+        <v>-443.40242152777796</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>5.0477887685185223</v>
+        <v>-685.982043074074</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>35.141923247443323</v>
+        <v>196605.70741669729</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>25.480171451581739</v>
+        <v>470571.36342008074</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>29.923606558755282</v>
+        <v>304166.09902361687</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>2.6722931312249996</v>
+        <v>55009.158422137953</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>44.655856616264252</v>
+        <v>203799.63565227311</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>1.6347149999999999</v>
+        <v>234.54031299999997</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8023,46 +8029,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>14.729371</v>
+        <v>317.260895</v>
       </c>
       <c r="I59">
-        <v>15.435485</v>
+        <v>483.81219499999997</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>0.70611399999999946</v>
+        <v>166.55129999999997</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>5.1829383518518526</v>
+        <v>-564.67060952777797</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>5.2312657685185222</v>
+        <v>-739.26121807407401</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>26.862849959096799</v>
+        <v>318852.89726447233</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>27.366141540873684</v>
+        <v>546507.14854836359</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>27.113327980384405</v>
+        <v>417439.08261013497</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>0.49859698099599925</v>
+        <v>27739.335531689991</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>35.252478515613056</v>
+        <v>327996.6502604126</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>0.70611399999999946</v>
+        <v>166.55129999999997</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8090,46 +8096,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>12.868437</v>
+        <v>310.85693400000002</v>
       </c>
       <c r="I60">
-        <v>13.738193000000001</v>
+        <v>433.66195699999997</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>0.86975600000000064</v>
+        <v>122.80502299999995</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>3.4856463518518535</v>
+        <v>-614.82084752777791</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>3.3703317685185219</v>
+        <v>-745.66517907407399</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>12.149730490178134</v>
+        <v>378004.67455477512</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>11.359136229885188</v>
+        <v>556016.55928357085</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>11.747784633466992</v>
+        <v>458450.49737027445</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>0.75647549953600113</v>
+        <v>15081.073674030516</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>17.978344284740384</v>
+        <v>387954.77402461978</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>0.86975600000000064</v>
+        <v>122.80502299999995</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8157,46 +8163,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>11.178086</v>
+        <v>998.69805899999994</v>
       </c>
       <c r="I61">
-        <v>11.838914000000001</v>
+        <v>516.242615</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>0.66082800000000042</v>
+        <v>-482.45544399999994</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.5863673518518535</v>
+        <v>-532.24018952777794</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>1.6799807685185222</v>
+        <v>-57.82405407407407</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>2.5165613750214626</v>
+        <v>283279.619348565</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>2.8223353825920845</v>
+        <v>3343.6212295614419</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>2.6650666429167695</v>
+        <v>30776.285499649664</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>0.43669364558400053</v>
+        <v>232763.25544523707</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>5.4793856907732019</v>
+        <v>291901.93603917334</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>0.66082800000000042</v>
+        <v>482.45544399999994</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8224,46 +8230,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>8.0595750000000006</v>
+        <v>1886.5954589999999</v>
       </c>
       <c r="I62">
-        <v>8.3758119999999998</v>
+        <v>1207.1164550000001</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>0.31623699999999921</v>
+        <v>-679.4790039999998</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8767346481481475</v>
+        <v>158.63365047222214</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4385302314814776</v>
+        <v>830.07334592592588</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>3.5221329395597509</v>
+        <v>25164.635062143145</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>2.0693692268861534</v>
+        <v>689021.75961666182</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>2.6997395278298639</v>
+        <v>131677.56502392126</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>0.10000584016899951</v>
+        <v>461691.71687683178</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1.2595420974291394</v>
+        <v>22678.655820102736</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>0.31623699999999921</v>
+        <v>679.4790039999998</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8291,46 +8297,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>6.9108999999999998</v>
+        <v>2037.9986570000001</v>
       </c>
       <c r="I63">
-        <v>7.792554</v>
+        <v>1884.2677000000001</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>0.88165400000000016</v>
+        <v>-153.73095699999999</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4599926481481473</v>
+        <v>835.78489547222216</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5872052314814784</v>
+        <v>981.47654392592608</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>6.0515638289429345</v>
+        <v>698536.39149951329</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>6.6936309098051305</v>
+        <v>963296.20627678034</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>6.3645058486948622</v>
+        <v>820303.27067356801</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>0.77731377571600024</v>
+        <v>23633.207140135844</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>2.9089050032079871</v>
+        <v>685162.75667534582</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>0.88165400000000016</v>
+        <v>153.73095699999999</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8358,46 +8364,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>7.1195899999999996</v>
+        <v>1400.7531739999999</v>
       </c>
       <c r="I64">
-        <v>6.7203629999999999</v>
+        <v>1309.7821039999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-0.39922699999999978</v>
+        <v>-90.971070000000054</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5321836481481474</v>
+        <v>261.29929947222195</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3785152314814786</v>
+        <v>344.23106092592593</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>12.476321324245156</v>
+        <v>68277.323904673933</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>5.657334706389392</v>
+        <v>118495.02330618854</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>8.4013526075101836</v>
+        <v>89947.335076524192</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>0.15938219752899982</v>
+        <v>8275.7355769449096</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>7.715851904555703</v>
+        <v>64140.623003800058</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>0.39922699999999978</v>
+        <v>90.971070000000054</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8425,46 +8431,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>7.7947660000000001</v>
+        <v>1137.1290280000001</v>
       </c>
       <c r="I65">
-        <v>7.6048359999999997</v>
+        <v>1191.05188</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>-0.18993000000000038</v>
+        <v>53.922851999999921</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6477106481481476</v>
+        <v>142.56907547222204</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7033392314814781</v>
+        <v>80.606914925926048</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>7.0103716763170842</v>
+        <v>20325.941281004143</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>2.9013645375039125</v>
+        <v>6497.4747338754796</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>4.5099494206019921</v>
+        <v>11492.053337657331</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>3.607340490000014E-2</v>
+        <v>2907.6739678138956</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>3.5844683828744683</v>
+        <v>18098.258189143966</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>0.18993000000000038</v>
+        <v>53.922851999999921</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8492,46 +8498,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>8.7710699999999999</v>
+        <v>790.69457999999997</v>
       </c>
       <c r="I66">
-        <v>8.8436210000000006</v>
+        <v>773.01031499999999</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>7.2551000000000698E-2</v>
+        <v>-17.684264999999982</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4089256481481467</v>
+        <v>-275.47248952777795</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-0.72703523148147831</v>
+        <v>-265.82753307407404</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>1.9850714820096753</v>
+        <v>75885.092486631736</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>0.52858022781532676</v>
+        <v>70664.277340247922</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>1.0243385847415798</v>
+        <v>73228.172320942904</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>5.263647601000101E-3</v>
+        <v>312.73322859022437</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>0.42834960925790039</v>
+        <v>80378.939647194522</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>7.2551000000000698E-2</v>
+        <v>17.684264999999982</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8559,46 +8565,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>8.8192109999999992</v>
+        <v>718.36987299999998</v>
       </c>
       <c r="I67">
-        <v>10.058611000000001</v>
+        <v>757.00372300000004</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>1.2394000000000016</v>
+        <v>38.633850000000052</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19393564814814646</v>
+        <v>-291.47908152777791</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-0.67889423148147898</v>
+        <v>-338.15224007407403</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3.7611035622641661E-2</v>
+        <v>84960.054968277007</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>0.46089737753882798</v>
+        <v>114346.9374671142</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.13166179280639839</v>
+        <v>98564.304353351748</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>1.536112360000004</v>
+        <v>1492.574365822504</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>0.31416671654253969</v>
+        <v>89711.265992565139</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>1.2394000000000016</v>
+        <v>38.633850000000052</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8626,46 +8632,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>11.413945999999999</v>
+        <v>449.86929300000003</v>
       </c>
       <c r="I68">
-        <v>13.074730000000001</v>
+        <v>572.77179000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>1.6607840000000014</v>
+        <v>122.90249699999998</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>2.8221833518518533</v>
+        <v>-475.71101452777793</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.915840768518521</v>
+        <v>-606.65282007407404</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>7.9647188714697617</v>
+        <v>226300.96934304773</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>3.6704458503176371</v>
+        <v>368027.64410382684</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>5.4068539217120302</v>
+        <v>288591.42850357527</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>2.7582034946560046</v>
+        <v>15105.023768835004</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>12.792244734780175</v>
+        <v>234014.37507427097</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>1.6607840000000014</v>
+        <v>122.90249699999998</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8693,46 +8699,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>14.363827000000001</v>
+        <v>312.76174900000001</v>
       </c>
       <c r="I69">
-        <v>16.857534000000001</v>
+        <v>451.80908199999999</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>2.4937070000000006</v>
+        <v>139.04733299999998</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>6.6049873518518538</v>
+        <v>-596.67372252777795</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>4.8657217685185223</v>
+        <v>-743.760364074074</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>43.625857918122968</v>
+        <v>356019.53115515574</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>23.675248328635018</v>
+        <v>553179.47916759911</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>32.138030738695072</v>
+        <v>443782.26510069316</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>6.2185746018490029</v>
+        <v>19334.160814412884</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>54.161191798898059</v>
+        <v>365677.84995079401</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>2.4937070000000006</v>
+        <v>139.04733299999998</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8760,46 +8766,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>15.049607999999999</v>
+        <v>289.552887</v>
       </c>
       <c r="I70">
-        <v>18.027048000000001</v>
+        <v>331.84762599999999</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>2.9774400000000014</v>
+        <v>42.294738999999993</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>7.7745013518518533</v>
+        <v>-716.63517852777795</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>5.551502768518521</v>
+        <v>-766.96922607407396</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>60.442871269946295</v>
+        <v>513565.97910354019</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>30.819182988868803</v>
+        <v>588241.79374466394</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>43.160165778656548</v>
+        <v>549637.12825290568</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>8.8651489536000092</v>
+        <v>1788.8449470781204</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>72.742864748664402</v>
+        <v>525153.11221607227</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>2.9774400000000014</v>
+        <v>42.294738999999993</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8827,46 +8833,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>15.248101</v>
+        <v>266.81918300000001</v>
       </c>
       <c r="I71">
-        <v>17.185048999999999</v>
+        <v>344.88644399999998</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>1.9369479999999992</v>
+        <v>78.067260999999974</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>6.932502351851852</v>
+        <v>-703.59636052777796</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>5.7499957685185219</v>
+        <v>-789.70293007407395</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>48.059588858431461</v>
+        <v>495047.83854793489</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>33.06245133798091</v>
+        <v>623630.71776757773</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>39.861859188392849</v>
+        <v>555632.10749824077</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>3.751767554703997</v>
+        <v>6094.4972400421166</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>59.089104500365721</v>
+        <v>506425.32549850503</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>1.9369479999999992</v>
+        <v>78.067260999999974</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8894,46 +8900,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>12.409865999999999</v>
+        <v>321.18594400000001</v>
       </c>
       <c r="I72">
-        <v>14.390521</v>
+        <v>331.10879499999999</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>1.9806550000000005</v>
+        <v>9.9228509999999801</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>4.1379743518518524</v>
+        <v>-717.37400952777796</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>2.9117607685185209</v>
+        <v>-735.33616907407395</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>17.122831736583759</v>
+        <v>514625.46954596048</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>8.4783507730835677</v>
+        <v>540719.2815485351</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>12.048791378858079</v>
+        <v>527511.05595946452</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>3.9229942290250022</v>
+        <v>98.462971968200605</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>23.935732052048674</v>
+        <v>526224.48203923774</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>1.9806550000000005</v>
+        <v>9.9228509999999801</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8961,46 +8967,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>11.560919999999999</v>
+        <v>348.42294299999998</v>
       </c>
       <c r="I73">
-        <v>11.777958</v>
+        <v>319.937073</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>0.21703800000000051</v>
+        <v>-28.485869999999977</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>1.5254113518518526</v>
+        <v>-728.54573152777789</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>2.0628147685185212</v>
+        <v>-708.09917007407398</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>2.3268797923584965</v>
+        <v>530778.882927345</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>4.2552047692181203</v>
+        <v>501404.43465959234</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>3.1466410646658036</v>
+        <v>515882.62785582861</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>4.7105493444000224E-2</v>
+        <v>811.44478965689871</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>5.1977286461215684</v>
+        <v>542557.5212609251</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>0.21703800000000051</v>
+        <v>28.485869999999977</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9028,46 +9034,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>7.5210319999999999</v>
+        <v>1444.014038</v>
       </c>
       <c r="I74">
-        <v>8.0507980000000003</v>
+        <v>633.98730499999999</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>0.5297660000000004</v>
+        <v>-810.02673300000004</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-2.201748648148147</v>
+        <v>-414.49549952777795</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-1.9770732314814783</v>
+        <v>387.49192492592601</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>4.8476971096221924</v>
+        <v>171806.51912878218</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>3.9088185626406151</v>
+        <v>150149.99188279948</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>4.3530183147042329</v>
+        <v>-160613.65898515194</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>0.28065201475600043</v>
+        <v>656143.30817465333</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>2.0946982222985802</v>
+        <v>178535.66403419457</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>0.5297660000000004</v>
+        <v>810.02673300000004</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9095,46 +9101,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>6.2389960000000002</v>
+        <v>2182.4985350000002</v>
       </c>
       <c r="I75">
-        <v>7.1561149999999998</v>
+        <v>1822.4492190000001</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>0.91711899999999957</v>
+        <v>-360.04931600000009</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>-3.0964316481481475</v>
+        <v>773.96641447222214</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-3.259109231481478</v>
+        <v>1125.9764219259262</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>9.5878889516534525</v>
+        <v>599024.01073098753</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>10.62179298272779</v>
+        <v>1267822.9027331113</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>10.091608969131036</v>
+        <v>871467.934058271</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>0.84110726016099924</v>
+        <v>129635.50995206792</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>5.4849182443546693</v>
+        <v>586644.33159206482</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>0.91711899999999957</v>
+        <v>360.04931600000009</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9162,46 +9168,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5.4627600000000003</v>
+        <v>1807.3911129999999</v>
       </c>
       <c r="I76">
-        <v>6.2070230000000004</v>
+        <v>1335.939087</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>0.74426300000000012</v>
+        <v>-471.45202599999993</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>-4.0455236481481469</v>
+        <v>287.45628247222203</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-4.0353452314814779</v>
+        <v>750.86899992592589</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>16.366261587725891</v>
+        <v>82631.114332749901</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>16.284011137240302</v>
+        <v>563804.2550497601</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>16.325084562400178</v>
+        <v>215842.01134234181</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>0.55392741316900018</v>
+        <v>222267.0128195046</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>10.831222254373104</v>
+        <v>78073.845317921587</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>0.74426300000000012</v>
+        <v>471.45202599999993</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9229,46 +9235,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6.9260299999999999</v>
+        <v>2005.2761230000001</v>
       </c>
       <c r="I77">
-        <v>7.2024429999999997</v>
+        <v>1661.1883539999999</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>0.2764129999999998</v>
+        <v>-344.08776900000021</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>-3.0501036481481476</v>
+        <v>612.70554947222195</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5720752314814783</v>
+        <v>948.75400992592608</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>9.3031322644466385</v>
+        <v>375408.09035405744</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>6.6155709964004998</v>
+        <v>900134.1713505243</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>7.8450960468531479</v>
+        <v>581306.84696563846</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>7.6404146568999895E-2</v>
+        <v>118396.3927753975</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>5.2700650810505216</v>
+        <v>365621.26291548985</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>0.2764129999999998</v>
+        <v>344.08776900000021</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9296,46 +9302,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>6.9236909999999998</v>
+        <v>1763.7615969999999</v>
       </c>
       <c r="I78">
-        <v>7.5207629999999996</v>
+        <v>1609.378418</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>0.59707199999999983</v>
+        <v>-154.38317899999993</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>-2.7317836481481477</v>
+        <v>560.89561347222207</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5744142314814784</v>
+        <v>707.23948392592592</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>7.4626419002896025</v>
+        <v>314603.88921238034</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>6.6276086352543713</v>
+        <v>500187.68762381002</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>7.0327427011209833</v>
+        <v>396687.52420840994</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>0.35649497318399981</v>
+        <v>23834.165958146019</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>3.9098823004001533</v>
+        <v>305650.09389634844</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>0.59707199999999983</v>
+        <v>154.38317899999993</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9363,46 +9369,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>9.1455880000000001</v>
+        <v>1381.885986</v>
       </c>
       <c r="I79">
-        <v>10.099689</v>
+        <v>1348.593018</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>0.95410099999999964</v>
+        <v>-33.292967999999973</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-0.15285764814814762</v>
+        <v>300.11021347222209</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-0.35251723148147818</v>
+        <v>325.36387292592599</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>2.3365460597382898E-2</v>
+        <v>90066.140230342717</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>0.12426839849136607</v>
+        <v>105861.64980535812</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>5.3884954935954896E-2</v>
+        <v>97645.021359948587</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>0.91030871820099934</v>
+        <v>1108.4217182490222</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>0.36190303054494605</v>
+        <v>85305.413504249314</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>0.95410099999999964</v>
+        <v>33.292967999999973</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9430,46 +9436,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>10.681713999999999</v>
+        <v>694.88903800000003</v>
       </c>
       <c r="I80">
-        <v>12.167942999999999</v>
+        <v>855.28253199999995</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>1.4862289999999998</v>
+        <v>160.39349399999992</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>1.915396351851852</v>
+        <v>-193.200272527778</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>1.1836087685185213</v>
+        <v>-361.63307507407399</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>3.6687431846873837</v>
+        <v>37326.345304807692</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>1.4009297169139305</v>
+        <v>130778.48098753083</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2.2670799172402387</v>
+        <v>69867.608659369493</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>2.2088766404409994</v>
+        <v>25726.07291752801</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>7.1280337102079558</v>
+        <v>40497.368990868832</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>1.4862289999999998</v>
+        <v>160.39349399999992</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9497,46 +9503,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>12.578604</v>
+        <v>449.42630000000003</v>
       </c>
       <c r="I81">
-        <v>14.868748</v>
+        <v>589.57531700000004</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>2.2901439999999997</v>
+        <v>140.14901700000001</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>4.6162013518518528</v>
+        <v>-458.9074875277779</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>3.0804987685185221</v>
+        <v>-607.09581307407393</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>21.309314920838872</v>
+        <v>210596.08210905764</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>9.4894726628441308</v>
+        <v>368565.3262520709</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>14.220202579613169</v>
+        <v>278600.81426645676</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>5.2447595407359984</v>
+        <v>19641.746966066294</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>28.843803747040294</v>
+        <v>218039.31036384281</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>2.2901439999999997</v>
+        <v>140.14901700000001</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9564,46 +9570,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>13.551264</v>
+        <v>358.43609600000002</v>
       </c>
       <c r="I82">
-        <v>16.696805999999999</v>
+        <v>456.26327500000002</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>3.1455419999999989</v>
+        <v>97.827179000000001</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>6.4442593518518514</v>
+        <v>-592.21952952777792</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>4.0531587685185215</v>
+        <v>-698.08601707407399</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>41.528478593930046</v>
+        <v>350723.97115410265</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>16.428096002818577</v>
+        <v>487324.08723434433</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>26.119606298565817</v>
+        <v>413420.17260152847</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>9.8944344737639938</v>
+        <v>9570.1569510980407</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>51.821292754669138</v>
+        <v>360310.67268603737</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>3.1455419999999989</v>
+        <v>97.827179000000001</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9631,46 +9637,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>14.591604</v>
+        <v>300.15698200000003</v>
       </c>
       <c r="I83">
-        <v>16.748556000000001</v>
+        <v>381.15924100000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>2.1569520000000004</v>
+        <v>81.002258999999981</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>6.4960093518518534</v>
+        <v>-667.32356352777788</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>5.093498768518522</v>
+        <v>-756.36513107407404</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>42.198137499346736</v>
+        <v>445320.73843941221</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>25.943729704899699</v>
+        <v>572088.21150470118</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>33.087415633942214</v>
+        <v>504740.27459650591</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>4.6524419303040014</v>
+        <v>6561.3659631030778</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>52.569036346710831</v>
+        <v>456115.00897614198</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>2.1569520000000004</v>
+        <v>81.002258999999981</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9698,46 +9704,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>11.885908000000001</v>
+        <v>349.01693699999998</v>
       </c>
       <c r="I84">
-        <v>14.161457</v>
+        <v>357.50091600000002</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>2.2755489999999998</v>
+        <v>8.4839790000000335</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>3.9089103518518531</v>
+        <v>-690.98188852777798</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>2.3878027685185224</v>
+        <v>-707.50517607407403</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>15.279580138814579</v>
+        <v>477455.97027341463</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>5.7016020613447198</v>
+        <v>500563.57417160651</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>9.3337069600425657</v>
+        <v>488873.26270684175</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>5.1781232514009989</v>
+        <v>71.977899672441566</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>21.74684971694483</v>
+        <v>488630.63395887148</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>2.2755489999999998</v>
+        <v>8.4839790000000335</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9765,46 +9771,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>9.4422639999999998</v>
+        <v>2405.686279</v>
       </c>
       <c r="I85">
-        <v>11.1876</v>
+        <v>1041.809814</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>1.745336</v>
+        <v>-1363.8764650000001</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>0.93505335185185245</v>
+        <v>-6.6729905277779835</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>-5.5841231481478459E-2</v>
+        <v>1349.164165925926</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>0.8743247708093842</v>
+        <v>44.528802583814688</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>3.1182431333680611E-3</v>
+        <v>1820243.9466185996</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>-5.2214530668291619E-2</v>
+        <v>-9002.9596996411874</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>3.046197752896</v>
+        <v>1860159.0117808965</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>2.8543925728514528</v>
+        <v>216.45174404500025</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1.745336</v>
+        <v>1363.8764650000001</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9832,46 +9838,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>8.0556409999999996</v>
+        <v>1382.7768550000001</v>
       </c>
       <c r="I86">
-        <v>9.3414070000000002</v>
+        <v>1006.809875</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>1.2857660000000006</v>
+        <v>-375.96698000000004</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-0.91113964814814707</v>
+        <v>-41.67292952777791</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>-1.4424642314814786</v>
+        <v>326.25474192592606</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>0.83017545842752927</v>
+        <v>1736.633055427144</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>2.0807030591034525</v>
+        <v>106442.15662915261</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>1.3142863523383217</v>
+        <v>-13595.990868382485</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>1.6531942067560017</v>
+        <v>141351.17005032042</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>2.4554335749422861E-2</v>
+        <v>2471.3066143334108</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>1.2857660000000006</v>
+        <v>375.96698000000004</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9899,46 +9905,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.7618309999999999</v>
+        <v>516.87701400000003</v>
       </c>
       <c r="I87">
-        <v>6.1767459999999996</v>
+        <v>1003.057678</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1.4149149999999997</v>
+        <v>486.18066399999998</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-4.0758006481481477</v>
+        <v>-45.425126527777934</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-4.7362742314814783</v>
+        <v>-539.64509907407398</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>16.612150923444862</v>
+        <v>2063.4421200646348</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>22.432293595795468</v>
+        <v>291216.8329546671</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>19.30410958247958</v>
+        <v>24513.446905535071</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>2.001984457224999</v>
+        <v>236371.63804748087</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>11.031427144547239</v>
+        <v>2858.4458177898746</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1.4149149999999997</v>
+        <v>486.18066399999998</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9966,46 +9972,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4.9710619999999999</v>
+        <v>905.80480999999997</v>
       </c>
       <c r="I88">
-        <v>4.7506050000000002</v>
+        <v>853.50561500000003</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-0.22045699999999968</v>
+        <v>-52.299194999999941</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-5.5019416481481471</v>
+        <v>-194.97718952777791</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-4.5270432314814784</v>
+        <v>-150.71730307407404</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>30.271361899627149</v>
+        <v>38016.104436151028</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>20.494120419702266</v>
+        <v>22715.705445922289</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>24.907527698255119</v>
+        <v>29386.436166589279</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>4.8601288848999856E-2</v>
+        <v>2735.2057976480187</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>22.538758447916688</v>
+        <v>41215.698490260482</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>0.22045699999999968</v>
+        <v>52.299194999999941</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10033,46 +10039,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>6.3465480000000003</v>
+        <v>2773.8715820000002</v>
       </c>
       <c r="I89">
-        <v>6.3771940000000003</v>
+        <v>1857.5124510000001</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>3.0645999999999951E-2</v>
+        <v>-916.35913100000016</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>-3.8753526481481471</v>
+        <v>809.02964647222211</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>-3.1515572314814779</v>
+        <v>1717.3494689259262</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>15.018358147508856</v>
+        <v>654528.96887096867</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>9.9323129833031985</v>
+        <v>2949289.1984201609</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>12.213395662812188</v>
+        <v>1389386.6337144005</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>9.3917731599999703E-4</v>
+        <v>839714.05696707545</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>9.740086914787236</v>
+        <v>641585.52145068918</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>3.0645999999999951E-2</v>
+        <v>916.35913100000016</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10100,46 +10106,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>6.9459799999999996</v>
+        <v>2821.6750489999999</v>
       </c>
       <c r="I90">
-        <v>7.0906229999999999</v>
+        <v>2413.1938479999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>0.1446430000000003</v>
+        <v>-408.48120100000006</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>-3.1619236481481474</v>
+        <v>1364.7110434722219</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5521252314814786</v>
+        <v>1765.1529359259259</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>9.9977611567184894</v>
+        <v>1862436.2321750408</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>6.5133431971643905</v>
+        <v>3115764.887207916</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>8.069625122456852</v>
+        <v>2408923.7050755266</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>2.0921597449000087E-2</v>
+        <v>166856.89157040245</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>5.7959706948990384</v>
+        <v>1840558.1963469216</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>0.1446430000000003</v>
+        <v>408.48120100000006</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10167,46 +10173,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>7.4480639999999996</v>
+        <v>1691.4564210000001</v>
       </c>
       <c r="I91">
-        <v>8.3418410000000005</v>
+        <v>1843.8084719999999</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>0.89377700000000093</v>
+        <v>152.35205099999985</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>-1.9107056481481468</v>
+        <v>795.32566747222199</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>-2.0500412314814787</v>
+        <v>634.93430792592608</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>3.6507960738652296</v>
+        <v>632542.91734013543</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>4.2026690507740971</v>
+        <v>403141.57538137474</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>3.9170253599282439</v>
+        <v>504979.55225220049</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>0.79883732572900168</v>
+        <v>23211.147443906553</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>1.3369469730034522</v>
+        <v>619819.81095084187</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>0.89377700000000093</v>
+        <v>152.35205099999985</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10234,46 +10240,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>9.4975240000000003</v>
+        <v>1785.1719969999999</v>
       </c>
       <c r="I92">
-        <v>10.444659</v>
+        <v>1872.5166019999999</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>0.94713499999999939</v>
+        <v>87.344605000000001</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>0.19211235185185238</v>
+        <v>824.03379747222198</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>-5.8123148147792847E-4</v>
+        <v>728.64988392592591</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>3.6907155734049929E-2</v>
+        <v>679031.6993764909</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>3.3783003506102753E-7</v>
+        <v>530930.65334526531</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>-1.1166174687706121E-4</v>
+        <v>600432.13087917445</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>0.89706470822499884</v>
+        <v>7629.0800226060255</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>0.89596403669661473</v>
+        <v>665847.00595748296</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>0.94713499999999939</v>
+        <v>87.344605000000001</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10301,46 +10307,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>11.573069</v>
+        <v>858.02258300000005</v>
       </c>
       <c r="I93">
-        <v>13.197846</v>
+        <v>1033.8005370000001</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>1.6247769999999999</v>
+        <v>175.77795400000002</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>2.9452993518518529</v>
+        <v>-14.682267527777867</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>2.074963768518522</v>
+        <v>-198.49953007407396</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>8.6747882720189455</v>
+        <v>215.56897975724041</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>4.3054746406645865</v>
+        <v>39402.063439628189</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>6.1113894425336808</v>
+        <v>2914.4232046857423</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>2.6399002997289998</v>
+        <v>30897.889112426124</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>13.688081754238024</v>
+        <v>516.27001928992922</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>1.6247769999999999</v>
+        <v>175.77795400000002</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10368,46 +10374,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>14.483074</v>
+        <v>401.760559</v>
       </c>
       <c r="I94">
-        <v>16.418118</v>
+        <v>625.26245100000006</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>1.9350439999999995</v>
+        <v>223.50189200000005</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>6.1655713518518525</v>
+        <v>-423.22035352777789</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>4.984968768518522</v>
+        <v>-654.76155407407396</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>38.014270094776279</v>
+        <v>179115.46764017729</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>24.849913623105071</v>
+        <v>428712.69269349647</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>30.735180629054007</v>
+        <v>277108.41639162682</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>3.744395281935998</v>
+        <v>49953.09572757969</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>47.886576716459373</v>
+        <v>185984.89613224447</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>1.9350439999999995</v>
+        <v>223.50189200000005</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10435,46 +10441,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>15.160755</v>
+        <v>355.96896400000003</v>
       </c>
       <c r="I95">
-        <v>14.948691</v>
+        <v>524.06451400000003</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-0.21206399999999981</v>
+        <v>168.09555</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>4.6961443518518529</v>
+        <v>-524.41829052777791</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>5.6626497685185218</v>
+        <v>-700.55314907407399</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>22.053771773430061</v>
+        <v>275014.54344007687</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>32.065602400902868</v>
+        <v>490774.7146776017</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>26.592620726943458</v>
+        <v>367382.88486127742</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>4.4971140095999916E-2</v>
+        <v>28256.113929802501</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>29.708885219976647</v>
+        <v>283511.09481172729</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>0.21206399999999981</v>
+        <v>168.09555</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10502,46 +10508,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>12.651541</v>
+        <v>578.98370399999999</v>
       </c>
       <c r="I96">
-        <v>12.859022</v>
+        <v>519.48230000000001</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>0.20748099999999958</v>
+        <v>-59.50140399999998</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>2.6064753518518522</v>
+        <v>-529.00050452777793</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>3.1534357685185217</v>
+        <v>-477.53840907407402</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>6.7937137598112365</v>
+        <v>279841.53379064362</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>9.9441571461719995</v>
+        <v>228042.93214099767</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>8.2193526042915295</v>
+        <v>252618.05933157756</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>4.3048365360999825E-2</v>
+        <v>3540.4170779712135</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>11.295761524908979</v>
+        <v>288411.76082663634</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>0.20748099999999958</v>
+        <v>59.50140399999998</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10569,46 +10575,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>10.042884000000001</v>
+        <v>1514.574707</v>
       </c>
       <c r="I97">
-        <v>10.140311000000001</v>
+        <v>915.51599099999999</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>9.7426999999999708E-2</v>
+        <v>-599.058716</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-0.11223564814814679</v>
+        <v>-132.96681352777796</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>0.54477876851852258</v>
+        <v>458.05259392592598</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>1.2596840715234607E-2</v>
+        <v>17680.173499730874</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>0.29678390662855803</v>
+        <v>209812.17880226925</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>-6.114359818202561E-2</v>
+        <v>-60905.793842463601</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>9.4920203289999439E-3</v>
+        <v>358871.34521556867</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>0.41242824911846582</v>
+        <v>19882.726462368668</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>9.7426999999999708E-2</v>
+        <v>599.058716</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10636,46 +10642,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7.6819389999999999</v>
+        <v>2058.774414</v>
       </c>
       <c r="I98">
-        <v>7.9655129999999996</v>
+        <v>1592.2476810000001</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>0.28357399999999977</v>
+        <v>-466.52673299999992</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>-2.2870336481481477</v>
+        <v>543.76487647222211</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>-1.8161662314814784</v>
+        <v>1002.252300925926</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>5.2305229077618254</v>
+        <v>295680.24088485097</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>3.2984597803736349</v>
+        <v>1004509.6747113129</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>4.1536332820285589</v>
+        <v>544989.59860698646</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>8.0414213475999877E-2</v>
+        <v>217647.19260365321</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>2.3488389479973781</v>
+        <v>287001.88412955601</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>0.28357399999999977</v>
+        <v>466.52673299999992</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10703,46 +10709,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>6.122789</v>
+        <v>891.30712900000003</v>
       </c>
       <c r="I99">
-        <v>5.5748559999999996</v>
+        <v>916.08667000000003</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-0.54793300000000045</v>
+        <v>24.779540999999995</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-4.6776906481481477</v>
+        <v>-132.39613452777792</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-3.3753162314814782</v>
+        <v>-165.21498407407398</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>21.880789799772639</v>
+        <v>17528.736437897467</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>11.392759662502328</v>
+        <v>27295.990962596519</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>15.788685170543559</v>
+        <v>21873.825257475786</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>0.30023057248900048</v>
+        <v>614.0256521706807</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>15.391884532320013</v>
+        <v>19722.113671411476</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>0.54793300000000045</v>
+        <v>24.779540999999995</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10770,46 +10776,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>6.6704509999999999</v>
+        <v>1632.2181399999999</v>
       </c>
       <c r="I100">
-        <v>6.7227480000000002</v>
+        <v>1438.466553</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>5.229700000000026E-2</v>
+        <v>-193.75158699999997</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>-3.5297986481481471</v>
+        <v>389.98374847222203</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>-2.8276542314814783</v>
+        <v>575.69602692592593</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>12.459478496468487</v>
+        <v>152087.32407244534</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>7.9956284528151098</v>
+        <v>331425.91541829641</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>9.9810500837137095</v>
+        <v>224512.09456113787</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>2.734976209000027E-3</v>
+        <v>37539.677465018562</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>7.7026077623365348</v>
+        <v>145881.55519032927</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>5.229700000000026E-2</v>
+        <v>193.75158699999997</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10837,46 +10843,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>5.7695939999999997</v>
+        <v>872.39831500000003</v>
       </c>
       <c r="I101">
-        <v>6.0133390000000002</v>
+        <v>1156.155518</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>0.24374500000000054</v>
+        <v>283.757203</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-4.2392076481481471</v>
+        <v>107.67271347222209</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-3.7285112314814786</v>
+        <v>-184.12379807407399</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>17.970881484117744</v>
+        <v>11593.413226471235</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>13.901796003283533</v>
+        <v>33901.57301722237</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>15.805933328702551</v>
+        <v>-19825.108953447045</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>5.9411625025000268E-2</v>
+        <v>80518.150254383218</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>12.143595688073622</v>
+        <v>9926.8153771335383</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>0.24374500000000054</v>
+        <v>283.757203</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10904,46 +10910,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>6.8555159999999997</v>
+        <v>1371.462769</v>
       </c>
       <c r="I102">
-        <v>7.0182650000000004</v>
+        <v>1003.138733</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>0.1627490000000007</v>
+        <v>-368.32403599999998</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-3.2342816481481469</v>
+        <v>-45.344071527777942</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-2.6425892314814785</v>
+        <v>314.94065592592597</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>10.460577779547894</v>
+        <v>2056.0848227162423</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>6.9832778463418714</v>
+        <v>99187.616755052484</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>8.5468778549744613</v>
+        <v>-14280.69162931049</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>2.6487237001000228E-2</v>
+        <v>135662.59549532927</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>6.1496075736741096</v>
+        <v>2849.7852681330423</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>0.1627490000000007</v>
+        <v>368.32403599999998</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10971,46 +10977,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>8.1483550000000005</v>
+        <v>1466.903198</v>
       </c>
       <c r="I103">
-        <v>8.6028570000000002</v>
+        <v>1613.4224850000001</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>0.45450199999999974</v>
+        <v>146.51928700000008</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>-1.6496896481481471</v>
+        <v>564.93968047222211</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-1.3497502314814778</v>
+        <v>410.38108492592596</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>2.7214759352071574</v>
+        <v>319156.8425720564</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>1.8218256873843028</v>
+        <v>168412.63486498006</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>2.2266689844605594</v>
+        <v>231840.55898989647</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>0.20657206800399977</v>
+        <v>21467.901462988393</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>0.80146939597071409</v>
+        <v>310138.02425123478</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>0.45450199999999974</v>
+        <v>146.51928700000008</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11038,46 +11044,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>11.361995</v>
+        <v>720.18591300000003</v>
       </c>
       <c r="I104">
-        <v>11.752383999999999</v>
+        <v>1045.286255</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>0.39038899999999899</v>
+        <v>325.10034199999996</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>1.499837351851852</v>
+        <v>-3.196549527777961</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>1.8638897685185221</v>
+        <v>-336.33620007407399</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>2.2495120820099759</v>
+        <v>10.217928883537505</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>3.4740850691880296</v>
+        <v>113122.03948026753</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>2.7955314945585816</v>
+        <v>1075.1153215214149</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>0.15240357132099921</v>
+        <v>105690.23236851694</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>5.0817727661933798</v>
+        <v>126.24450666073459</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>0.39038899999999899</v>
+        <v>325.10034199999996</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11105,46 +11111,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>12.479741000000001</v>
+        <v>342.06536899999998</v>
       </c>
       <c r="I105">
-        <v>13.440951999999999</v>
+        <v>603.66247599999997</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>0.96121099999999871</v>
+        <v>261.59710699999999</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>3.188405351851852</v>
+        <v>-444.82032852777797</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>2.9816357685185224</v>
+        <v>-714.45674407407409</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>10.165928687717532</v>
+        <v>197865.12467156033</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>8.8901518561090391</v>
+        <v>510448.43915292702</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>9.5066634416173663</v>
+        <v>317804.8836179162</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>0.92392658652099746</v>
+        <v>68433.04639076945</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>15.546040640016944</v>
+        <v>205081.85089086206</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>0.96121099999999871</v>
+        <v>261.59710699999999</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11172,46 +11178,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>14.766379000000001</v>
+        <v>309.22595200000001</v>
       </c>
       <c r="I106">
-        <v>16.549931999999998</v>
+        <v>478.86398300000002</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>1.7835529999999977</v>
+        <v>169.63803100000001</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>6.297385351851851</v>
+        <v>-569.61882152777798</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>5.2682737685185224</v>
+        <v>-747.29616107407401</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>39.65706226971826</v>
+        <v>324465.60183869459</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>27.754708500060353</v>
+        <v>558451.55235604837</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>33.176350059413892</v>
+        <v>425673.9586032466</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>3.1810613038089919</v>
+        <v>28777.061561556966</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>49.72826077319435</v>
+        <v>333688.91524067585</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>1.7835529999999977</v>
+        <v>169.63803100000001</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11239,46 +11245,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>14.782641999999999</v>
+        <v>289.345032</v>
       </c>
       <c r="I107">
-        <v>16.771944000000001</v>
+        <v>422.33435100000003</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>1.9893020000000021</v>
+        <v>132.98931900000002</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>6.519397351851854</v>
+        <v>-626.14845352777797</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>5.2845367685185209</v>
+        <v>-767.17708107407407</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>42.502541831332969</v>
+        <v>392061.88585522794</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>27.926328857824171</v>
+        <v>588560.67372533644</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>34.451995014443398</v>
+        <v>480366.74289648625</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>3.9573224472040085</v>
+        <v>17686.158968083768</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>52.908730430403061</v>
+        <v>402194.11756452237</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>1.9893020000000021</v>
+        <v>132.98931900000002</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11306,46 +11312,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>11.961473</v>
+        <v>281.96933000000001</v>
       </c>
       <c r="I108">
-        <v>13.094060000000001</v>
+        <v>392.29061899999999</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>1.1325870000000009</v>
+        <v>110.32128899999998</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>2.8415133518518534</v>
+        <v>-656.19218552777795</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>2.4633677685185216</v>
+        <v>-774.552783074074</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>8.0741981287523554</v>
+        <v>430588.18434772175</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>6.0681807629759206</v>
+        <v>599932.01376779354</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>6.9996924047668845</v>
+        <v>508255.48353199952</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>1.282753312569002</v>
+        <v>12170.786806621516</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>12.930890697231101</v>
+        <v>441203.47771987662</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>1.1325870000000009</v>
+        <v>110.32128899999998</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11373,46 +11379,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>10.624886999999999</v>
+        <v>383.39123499999999</v>
       </c>
       <c r="I109">
-        <v>10.210146</v>
+        <v>393.68478399999998</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-0.41474099999999936</v>
+        <v>10.293548999999985</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-4.2400648148147368E-2</v>
+        <v>-654.79802052777791</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>1.1267817685185211</v>
+        <v>-673.13087807407396</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>1.797814963382993E-3</v>
+        <v>428760.44768709625</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>1.2696371538657261</v>
+        <v>453105.17901677382</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>-4.7776277306701045E-2</v>
+        <v>440764.76651902864</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>0.17201009708099946</v>
+        <v>105.95715101540068</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>0.50700205603244708</v>
+        <v>439353.32481405226</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>0.41474099999999936</v>
+        <v>10.293548999999985</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11440,46 +11446,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>8.6911439999999995</v>
+        <v>927.26355000000001</v>
       </c>
       <c r="I110">
-        <v>7.540826</v>
+        <v>512.39947500000005</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1503179999999995</v>
+        <v>-414.86407499999996</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-2.7117206481481473</v>
+        <v>-536.08332952777789</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-0.80696123148147869</v>
+        <v>-129.258563074074</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>7.3534288735930078</v>
+        <v>287385.33619758813</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>0.65118642911410463</v>
+        <v>16707.776127974368</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>2.1882534336633825</v>
+        <v>69293.36086272588</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>1.3232315011239988</v>
+        <v>172112.20072560559</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>3.8309419899887258</v>
+        <v>296069.44526468968</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>1.1503179999999995</v>
+        <v>414.86407499999996</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11507,46 +11513,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>6.2701310000000001</v>
+        <v>1427.7319339999999</v>
       </c>
       <c r="I111">
-        <v>6.1656829999999996</v>
+        <v>1060.9879149999999</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-0.10444800000000054</v>
+        <v>-366.74401899999998</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>-4.0868636481481477</v>
+        <v>12.505110472221986</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-3.2279742314814781</v>
+        <v>371.2098209259259</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>16.702454478554788</v>
+        <v>156.37778792247599</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>10.419817639108439</v>
+        <v>137796.73115185797</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>13.192290543800608</v>
+        <v>4642.0198190524443</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>1.0909384704000113E-2</v>
+        <v>134501.17547227236</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>11.105037928871997</v>
+        <v>19.943386841603623</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>0.10444800000000054</v>
+        <v>366.74401899999998</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABAD44-EE44-48E7-BD6B-D7F9570A1BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8D8AF-63D4-45BC-A6A7-C169A7CA6E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,10 +165,10 @@
     <t>MAE</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14178000_flow_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591</t>
+    <t xml:space="preserve"> USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14178000_flow_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
   </si>
 </sst>
 </file>
@@ -852,328 +852,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>1571.7052000000001</c:v>
+                  <c:v>5.8202920000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>877.40515100000005</c:v>
+                  <c:v>5.9174030000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>869.32531700000004</c:v>
+                  <c:v>6.0693089999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1161.9617920000001</c:v>
+                  <c:v>6.6768650000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>968.25726299999997</c:v>
+                  <c:v>8.0729710000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1143.2380370000001</c:v>
+                  <c:v>10.310928000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>324.77462800000001</c:v>
+                  <c:v>12.692622999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>289.086029</c:v>
+                  <c:v>13.865622</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>418.89544699999999</c:v>
+                  <c:v>12.790706999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>684.42132600000002</c:v>
+                  <c:v>11.081913999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1062.4205320000001</c:v>
+                  <c:v>8.3434299999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1802.928711</c:v>
+                  <c:v>5.9622609999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2094.0390619999998</c:v>
+                  <c:v>5.1064930000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>795.41192599999999</c:v>
+                  <c:v>4.6125559999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1709.023193</c:v>
+                  <c:v>5.4861620000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1457.332275</c:v>
+                  <c:v>5.9355869999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1507.7835689999999</c:v>
+                  <c:v>7.5782800000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1369.328125</c:v>
+                  <c:v>9.6720710000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>495.96160900000001</c:v>
+                  <c:v>12.291582999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>335.08306900000002</c:v>
+                  <c:v>13.873253</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>312.96588100000002</c:v>
+                  <c:v>13.524761</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>518.24975600000005</c:v>
+                  <c:v>11.462643</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>920.20788600000003</c:v>
+                  <c:v>8.9966720000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1077.0177000000001</c:v>
+                  <c:v>6.393554</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1367.690552</c:v>
+                  <c:v>5.2381729999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1686.0009769999999</c:v>
+                  <c:v>5.05105</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1920.4738769999999</c:v>
+                  <c:v>4.7041890000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2405.016846</c:v>
+                  <c:v>6.78416</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1548.114746</c:v>
+                  <c:v>8.5450079999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1120.1635739999999</c:v>
+                  <c:v>10.039804</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>437.747681</c:v>
+                  <c:v>13.209507</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>344.42398100000003</c:v>
+                  <c:v>14.471056000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>315.44812000000002</c:v>
+                  <c:v>14.034072</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1114.8023679999999</c:v>
+                  <c:v>11.927625000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1797.338501</c:v>
+                  <c:v>8.7805119999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1535.640991</c:v>
+                  <c:v>5.4185600000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1042.2468260000001</c:v>
+                  <c:v>4.487285</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>947.88952600000005</c:v>
+                  <c:v>4.5380079999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1290.0119629999999</c:v>
+                  <c:v>5.9891019999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1562.4719239999999</c:v>
+                  <c:v>7.1827540000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1078.8942870000001</c:v>
+                  <c:v>9.2055249999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>513.56964100000005</c:v>
+                  <c:v>11.538337</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>329.101562</c:v>
+                  <c:v>13.708549</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>317.72796599999998</c:v>
+                  <c:v>14.568191000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>666.160706</c:v>
+                  <c:v>13.419032</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>791.40741000000003</c:v>
+                  <c:v>10.593218999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>865.16235400000005</c:v>
+                  <c:v>8.6587770000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>731.682007</c:v>
+                  <c:v>5.7266870000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>973.36920199999997</c:v>
+                  <c:v>5.585604</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1925.5120850000001</c:v>
+                  <c:v>5.2912280000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2745.2280270000001</c:v>
+                  <c:v>6.3648740000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1477.073486</c:v>
+                  <c:v>7.6323100000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1294.546509</c:v>
+                  <c:v>9.3850379999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>531.51275599999997</c:v>
+                  <c:v>11.610981000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>370.54007000000001</c:v>
+                  <c:v>13.79973</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>317.260895</c:v>
+                  <c:v>14.901332999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>310.85693400000002</c:v>
+                  <c:v>14.157674999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>998.69805899999994</c:v>
+                  <c:v>12.445987000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1886.5954589999999</c:v>
+                  <c:v>9.0372620000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2037.9986570000001</c:v>
+                  <c:v>6.9718749999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1400.7531739999999</c:v>
+                  <c:v>6.2968140000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1137.1290280000001</c:v>
+                  <c:v>6.9573999999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>790.69457999999997</c:v>
+                  <c:v>7.9527080000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>718.36987299999998</c:v>
+                  <c:v>8.1538699999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>449.86929300000003</c:v>
+                  <c:v>10.582678</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>312.76174900000001</c:v>
+                  <c:v>13.866313</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>289.552887</c:v>
+                  <c:v>17.659742000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>266.81918300000001</c:v>
+                  <c:v>18.425664999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>321.18594400000001</c:v>
+                  <c:v>15.563864000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>348.42294299999998</c:v>
+                  <c:v>13.997923</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1444.014038</c:v>
+                  <c:v>8.3817280000000007</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2182.4985350000002</c:v>
+                  <c:v>6.4533620000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1807.3911129999999</c:v>
+                  <c:v>5.010999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2005.2761230000001</c:v>
+                  <c:v>6.1084540000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1763.7615969999999</c:v>
+                  <c:v>6.1605270000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1381.885986</c:v>
+                  <c:v>8.5957170000000005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>694.88903800000003</c:v>
+                  <c:v>10.185598000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>449.42630000000003</c:v>
+                  <c:v>12.135494</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>358.43609600000002</c:v>
+                  <c:v>13.727627</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>300.15698200000003</c:v>
+                  <c:v>15.084669999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>349.01693699999998</c:v>
+                  <c:v>13.913895999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2405.686279</c:v>
+                  <c:v>10.185138</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1382.7768550000001</c:v>
+                  <c:v>8.0148329999999994</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>516.87701400000003</c:v>
+                  <c:v>4.560098</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>905.80480999999997</c:v>
+                  <c:v>3.8927480000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2773.8715820000002</c:v>
+                  <c:v>5.2789570000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2821.6750489999999</c:v>
+                  <c:v>5.8748389999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1691.4564210000001</c:v>
+                  <c:v>6.6104690000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1785.1719969999999</c:v>
+                  <c:v>8.5207829999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>858.02258300000005</c:v>
+                  <c:v>11.018535999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>401.760559</c:v>
+                  <c:v>13.730498000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>355.96896400000003</c:v>
+                  <c:v>14.956518000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>578.98370399999999</c:v>
+                  <c:v>13.544943999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1514.574707</c:v>
+                  <c:v>10.999205</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2058.774414</c:v>
+                  <c:v>8.0877579999999991</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>891.30712900000003</c:v>
+                  <c:v>5.8003999999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1632.2181399999999</c:v>
+                  <c:v>5.6153320000000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>872.39831500000003</c:v>
+                  <c:v>4.89405</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1371.462769</c:v>
+                  <c:v>5.731071</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1466.903198</c:v>
+                  <c:v>7.1734150000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>720.18591300000003</c:v>
+                  <c:v>9.9253230000000006</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>342.06536899999998</c:v>
+                  <c:v>11.859914</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>309.22595200000001</c:v>
+                  <c:v>14.195662</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>289.345032</c:v>
+                  <c:v>15.346171</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>281.96933000000001</c:v>
+                  <c:v>14.256568</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>383.39123499999999</c:v>
+                  <c:v>12.429778000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>927.26355000000001</c:v>
+                  <c:v>9.0345519999999997</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1427.7319339999999</c:v>
+                  <c:v>6.5480689999999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.7262389999999996</c:v>
@@ -1197,7 +1197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14178000_flow_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1221,328 +1221,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>1658.329712</c:v>
+                  <c:v>6.54711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>969.63507100000004</c:v>
+                  <c:v>7.1049119999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1001.7504269999999</c:v>
+                  <c:v>7.7561590000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1342.7420649999999</c:v>
+                  <c:v>8.5838889999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1221.1632079999999</c:v>
+                  <c:v>9.6268139999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1657.7235109999999</c:v>
+                  <c:v>12.364478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.42297399999995</c:v>
+                  <c:v>17.944284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>515.01519800000005</c:v>
+                  <c:v>17.621203999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>489.01992799999999</c:v>
+                  <c:v>14.150831</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>486.32562300000001</c:v>
+                  <c:v>11.137532999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>990.79974400000003</c:v>
+                  <c:v>9.6229460000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1843.7036129999999</c:v>
+                  <c:v>6.9719420000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2001.8045649999999</c:v>
+                  <c:v>5.7269500000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>943.07714799999997</c:v>
+                  <c:v>5.5398800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1212.424561</c:v>
+                  <c:v>6.6660279999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1590.2803960000001</c:v>
+                  <c:v>7.4212160000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1574.056763</c:v>
+                  <c:v>8.8816199999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1557.6092530000001</c:v>
+                  <c:v>11.881873000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>818.47106900000006</c:v>
+                  <c:v>16.148657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>576.47088599999995</c:v>
+                  <c:v>17.884912</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>496.20931999999999</c:v>
+                  <c:v>15.402051999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>481.50769000000003</c:v>
+                  <c:v>11.311054</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>627.29986599999995</c:v>
+                  <c:v>9.0141100000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1006.087524</c:v>
+                  <c:v>5.8945230000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1889.8961179999999</c:v>
+                  <c:v>5.5910279999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1380.950562</c:v>
+                  <c:v>5.7675640000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1588.7939449999999</c:v>
+                  <c:v>6.0292329999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2247.7705080000001</c:v>
+                  <c:v>7.5388890000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1784.1904300000001</c:v>
+                  <c:v>9.6521509999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1237.536621</c:v>
+                  <c:v>12.711807</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>785.24462900000003</c:v>
+                  <c:v>16.876681999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>598.64007600000002</c:v>
+                  <c:v>18.446539000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>520.57391399999995</c:v>
+                  <c:v>14.266251</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>648.737122</c:v>
+                  <c:v>10.601513000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1312.4486079999999</c:v>
+                  <c:v>9.7765780000000007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1912.724121</c:v>
+                  <c:v>6.913138</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1003.251221</c:v>
+                  <c:v>4.6715059999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>992.99786400000005</c:v>
+                  <c:v>5.9268229999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1306.5604249999999</c:v>
+                  <c:v>7.2695530000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1844.041504</c:v>
+                  <c:v>9.0236800000000006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1224.181885</c:v>
+                  <c:v>10.714046</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>792.33429000000001</c:v>
+                  <c:v>14.825206</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>575.90563999999995</c:v>
+                  <c:v>18.854301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>490.24523900000003</c:v>
+                  <c:v>18.179331000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>645.09240699999998</c:v>
+                  <c:v>13.831529</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>850.20874000000003</c:v>
+                  <c:v>11.222716</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>901.28021200000001</c:v>
+                  <c:v>9.0450400000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>859.92095900000004</c:v>
+                  <c:v>5.3185479999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1009.971436</c:v>
+                  <c:v>5.3352490000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2192.0620119999999</c:v>
+                  <c:v>5.3281619999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2580.6989749999998</c:v>
+                  <c:v>7.0873920000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1471.7113039999999</c:v>
+                  <c:v>8.8406249999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1382.6301269999999</c:v>
+                  <c:v>10.805914</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>764.53741500000001</c:v>
+                  <c:v>15.333819</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>605.08038299999998</c:v>
+                  <c:v>19.290593999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>483.81219499999997</c:v>
+                  <c:v>19.834306999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>433.66195699999997</c:v>
+                  <c:v>15.202292</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>516.242615</c:v>
+                  <c:v>12.222011</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1207.1164550000001</c:v>
+                  <c:v>9.9835840000000005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1884.2677000000001</c:v>
+                  <c:v>8.0302419999999994</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1309.7821039999999</c:v>
+                  <c:v>6.7544029999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1191.05188</c:v>
+                  <c:v>7.7837420000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>773.01031499999999</c:v>
+                  <c:v>9.1715890000000009</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>757.00372300000004</c:v>
+                  <c:v>10.332568999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>572.77179000000001</c:v>
+                  <c:v>13.706182999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>451.80908199999999</c:v>
+                  <c:v>17.640868999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>331.84762599999999</c:v>
+                  <c:v>19.424499999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>344.88644399999998</c:v>
+                  <c:v>19.429907</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>331.10879499999999</c:v>
+                  <c:v>16.769477999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>319.937073</c:v>
+                  <c:v>14.072948999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>633.98730499999999</c:v>
+                  <c:v>9.2432739999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1822.4492190000001</c:v>
+                  <c:v>7.8496639999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1335.939087</c:v>
+                  <c:v>6.3295029999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1661.1883539999999</c:v>
+                  <c:v>7.4234200000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1609.378418</c:v>
+                  <c:v>7.8133689999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1348.593018</c:v>
+                  <c:v>10.50104</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>855.28253199999995</c:v>
+                  <c:v>12.243783000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>589.57531700000004</c:v>
+                  <c:v>16.326910000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>456.26327500000002</c:v>
+                  <c:v>18.894119</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>381.15924100000001</c:v>
+                  <c:v>17.526512</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>357.50091600000002</c:v>
+                  <c:v>14.350834000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1041.809814</c:v>
+                  <c:v>11.847716</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1006.809875</c:v>
+                  <c:v>10.713042</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1003.057678</c:v>
+                  <c:v>6.493347</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>853.50561500000003</c:v>
+                  <c:v>4.2790330000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1857.5124510000001</c:v>
+                  <c:v>5.7391360000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2413.1938479999999</c:v>
+                  <c:v>6.6877690000000003</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1843.8084719999999</c:v>
+                  <c:v>8.1786799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1872.5166019999999</c:v>
+                  <c:v>10.853664</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1033.8005370000001</c:v>
+                  <c:v>14.339339000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>625.26245100000006</c:v>
+                  <c:v>18.666298000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>524.06451400000003</c:v>
+                  <c:v>18.377521999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>519.48230000000001</c:v>
+                  <c:v>14.019964</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>915.51599099999999</c:v>
+                  <c:v>11.267341</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1592.2476810000001</c:v>
+                  <c:v>9.4617199999999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>916.08667000000003</c:v>
+                  <c:v>6.4049060000000004</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1438.466553</c:v>
+                  <c:v>6.5747650000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1156.155518</c:v>
+                  <c:v>5.9763390000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1003.138733</c:v>
+                  <c:v>7.1298199999999996</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1613.4224850000001</c:v>
+                  <c:v>8.4933680000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1045.286255</c:v>
+                  <c:v>11.405948</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>603.66247599999997</c:v>
+                  <c:v>14.580590000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>478.86398300000002</c:v>
+                  <c:v>18.980105999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>422.33435100000003</c:v>
+                  <c:v>18.686962000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>392.29061899999999</c:v>
+                  <c:v>13.893890000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>393.68478399999998</c:v>
+                  <c:v>12.614584000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>512.39947500000005</c:v>
+                  <c:v>9.8861899999999991</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1060.9879149999999</c:v>
+                  <c:v>7.5468070000000003</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>4.7575370000000001</c:v>
@@ -3747,7 +3747,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>8.0393085462960698</v>
+        <v>-1.6425795000000001</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3793,11 +3793,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>1056.522113074074</v>
+        <v>9.4522379351851846</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>1048.4828045277779</v>
+        <v>11.094817435185185</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3807,12 +3807,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>92200.572668567125</v>
+        <v>4.7838187550420193</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>222.43974676851852</v>
+        <v>1.7022439444444446</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3825,17 +3825,17 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>-7.6092193876612447E-3</v>
+        <v>0.17377678294424137</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>VG</v>
+        <v>NS</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -3919,11 +3919,11 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.67994710629565513</v>
+        <v>0.75626775042597505</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3938,46 +3938,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>1571.7052000000001</v>
+        <v>5.8202920000000002</v>
       </c>
       <c r="I4">
-        <v>1658.329712</v>
+        <v>6.54711</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>86.624511999999868</v>
+        <v>0.72681799999999974</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>609.84690747222203</v>
+        <v>-4.5477074351851847</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>515.18308692592609</v>
+        <v>-3.6319459351851844</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>371913.25055343291</v>
+        <v>20.681642916038612</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>265413.61305452633</v>
+        <v>13.191031276108184</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>314182.81234376895</v>
+        <v>16.517027533632273</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>7503.8060792381211</v>
+        <v>0.52826440512399964</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>362172.38612498814</v>
+        <v>8.439768319793334</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>86.624511999999868</v>
+        <v>0.72681799999999974</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4018,11 +4018,11 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.56566872463702678</v>
+        <v>0.46290038436311748</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4037,46 +4037,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>877.40515100000005</v>
+        <v>5.9174030000000002</v>
       </c>
       <c r="I5">
-        <v>969.63507100000004</v>
+        <v>7.1049119999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>92.229919999999993</v>
+        <v>1.1875089999999995</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-78.847733527777905</v>
+        <v>-3.989905435185185</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-179.11696207407397</v>
+        <v>-3.5348349351851844</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>6216.9650824674718</v>
+        <v>15.91934538172028</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>32082.886102645251</v>
+        <v>12.495058019005647</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>14122.966495921686</v>
+        <v>14.103657120377839</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>8506.3581432063984</v>
+        <v>1.4101776250809988</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>7549.3580803819013</v>
+        <v>5.5099390459930033</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>92.229919999999993</v>
+        <v>1.1875089999999995</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4117,11 +4117,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.78515831264333746</v>
+        <v>0.91564141950270506</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4136,46 +4136,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>869.32531700000004</v>
+        <v>6.0693089999999996</v>
       </c>
       <c r="I6">
-        <v>1001.7504269999999</v>
+        <v>7.7561590000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>132.4251099999999</v>
+        <v>1.6868500000000006</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-46.732377527777999</v>
+        <v>-3.3386584351851845</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-187.19679607407397</v>
+        <v>-3.382928935185185</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>2183.9151093987703</v>
+        <v>11.146640146833185</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>35042.640460398434</v>
+        <v>11.44420818051317</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>8748.1513461240957</v>
+        <v>11.294444225088052</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>17536.409758512076</v>
+        <v>2.8454629225000021</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>2999.9375953969193</v>
+        <v>2.876683754378909</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>132.4251099999999</v>
+        <v>1.6868500000000006</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>1056.522113074074</v>
+        <v>9.4522379351851846</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4232,46 +4232,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>1161.9617920000001</v>
+        <v>6.6768650000000003</v>
       </c>
       <c r="I7">
-        <v>1342.7420649999999</v>
+        <v>8.5838889999999992</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>180.78027299999985</v>
+        <v>1.9070239999999989</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>294.25926047222197</v>
+        <v>-2.5109284351851855</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>105.43967892592605</v>
+        <v>-2.7753729351851844</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>86588.512373658974</v>
+        <v>6.3047616066215246</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>11117.525892002373</v>
+        <v>7.7026949293584259</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>31026.601945171526</v>
+        <v>6.9687628211998502</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>32681.507105954475</v>
+        <v>3.6367405365759962</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>81921.860880479333</v>
+        <v>0.75402987323724535</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>180.78027299999985</v>
+        <v>1.9070239999999989</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>649.50154268259109</v>
+        <v>3.5835385132214861</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4328,46 +4328,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>968.25726299999997</v>
+        <v>8.0729710000000008</v>
       </c>
       <c r="I8">
-        <v>1221.1632079999999</v>
+        <v>9.6268139999999995</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>252.90594499999997</v>
+        <v>1.5538429999999988</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>172.680403472222</v>
+        <v>-1.4680034351851852</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-88.264850074074047</v>
+        <v>-1.3792669351851838</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>29818.52174332938</v>
+        <v>2.1550340857155041</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>7790.6837585987696</v>
+        <v>1.9023772784951301</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-15241.60992320629</v>
+        <v>2.0247685988891919</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>63961.41701634301</v>
+        <v>2.4144280686489963</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>27106.690138407754</v>
+        <v>3.0476802406226456E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>252.90594499999997</v>
+        <v>1.5538429999999988</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>1048.4828045277779</v>
+        <v>11.094817435185185</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4424,46 +4424,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>1143.2380370000001</v>
+        <v>10.310928000000001</v>
       </c>
       <c r="I9">
-        <v>1657.7235109999999</v>
+        <v>12.364478</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>514.48547399999984</v>
+        <v>2.0535499999999995</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>609.24070647222197</v>
+        <v>1.2696605648148154</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>86.715923925926063</v>
+        <v>0.85869006481481591</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>371174.23842277215</v>
+        <v>1.6120379498458759</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>7519.6514623269959</v>
+        <v>0.73734862741167273</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>52830.870755022654</v>
+        <v>1.0902449126936495</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>264695.30295700452</v>
+        <v>4.2170676024999985</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>361443.12086808751</v>
+        <v>8.4811421951126</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>514.48547399999984</v>
+        <v>2.0535499999999995</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>536.73007384417201</v>
+        <v>4.4302767865875357</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4519,46 +4519,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>324.77462800000001</v>
+        <v>12.692622999999999</v>
       </c>
       <c r="I10">
-        <v>675.42297399999995</v>
+        <v>17.944284</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>350.64834599999995</v>
+        <v>5.2516610000000004</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-373.05983052777799</v>
+        <v>6.849466564814815</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-731.74748507407401</v>
+        <v>3.2403850648148147</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>139173.63715341443</v>
+        <v>46.915192222516062</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>535454.38191223214</v>
+        <v>10.500095368274911</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>272985.59277086181</v>
+        <v>22.194909158574362</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>122954.26255253569</v>
+        <v>27.579943258921002</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>145236.55380300045</v>
+        <v>72.114846366936789</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>350.64834599999995</v>
+        <v>5.2516610000000004</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>303.64547200405792</v>
+        <v>2.1871942655013568</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4614,46 +4614,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>289.086029</v>
+        <v>13.865622</v>
       </c>
       <c r="I11">
-        <v>515.01519800000005</v>
+        <v>17.621203999999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>225.92916900000006</v>
+        <v>3.7555819999999986</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-533.46760652777789</v>
+        <v>6.5263865648148141</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-767.43608407407396</v>
+        <v>4.4133840648148155</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>284587.68721447606</v>
+        <v>42.593721593395308</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>588958.14313894906</v>
+        <v>19.477958903561344</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>409402.29093404673</v>
+        <v>28.803450465975203</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>51043.989405030588</v>
+        <v>14.10439615872399</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>293229.73907304037</v>
+        <v>66.732006568096025</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>225.92916900000006</v>
+        <v>3.7555819999999986</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.88609159382274783</v>
+        <v>0.95689154009360178</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -4710,46 +4710,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>418.89544699999999</v>
+        <v>12.790706999999999</v>
       </c>
       <c r="I12">
-        <v>489.01992799999999</v>
+        <v>14.150831</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>70.124481000000003</v>
+        <v>1.3601240000000008</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-559.46287652777801</v>
+        <v>3.0560135648148155</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-637.62666607407402</v>
+        <v>3.3384690648148148</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>312998.71021273581</v>
+        <v>9.3392189083321568</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>406567.76528873871</v>
+        <v>11.145375696725504</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>356728.44875261839</v>
+        <v>10.202406747788705</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>4917.4428355193613</v>
+        <v>1.849937295376002</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>322058.7300638486</v>
+        <v>22.07677678872588</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>70.124481000000003</v>
+        <v>1.3601240000000008</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>222.43974676851852</v>
+        <v>1.7022439444444446</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4805,46 +4805,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>684.42132600000002</v>
+        <v>11.081913999999999</v>
       </c>
       <c r="I13">
-        <v>486.32562300000001</v>
+        <v>11.137532999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-198.09570300000001</v>
+        <v>5.5619000000000085E-2</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-562.15718152777799</v>
+        <v>4.2715564814814755E-2</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-372.10078707407399</v>
+        <v>1.6296760648148148</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>316020.69674325513</v>
+        <v>1.8246194774486403E-3</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>138458.99574114534</v>
+        <v>2.6558440762303004</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>209179.12970582928</v>
+        <v>6.9612533573749469E-2</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>39241.907547064213</v>
+        <v>3.0934731610000096E-3</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>325124.03729279363</v>
+        <v>2.8402194554891711</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>198.09570300000001</v>
+        <v>5.5619000000000085E-2</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4893,46 +4893,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>1062.4205320000001</v>
+        <v>8.3434299999999997</v>
       </c>
       <c r="I14">
-        <v>990.79974400000003</v>
+        <v>9.6229460000000007</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-71.620788000000061</v>
+        <v>1.279516000000001</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-57.683060527777911</v>
+        <v>-1.471871435185184</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>5.8984189259260802</v>
+        <v>-1.1088079351851849</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>3327.3354718512901</v>
+        <v>2.1664055217140934</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>34.791345825722971</v>
+        <v>1.2294550371296333</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>-340.23885592238486</v>
+        <v>1.6320227269057388</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>5129.5372737409525</v>
+        <v>1.6371611942560025</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>4319.4297967087959</v>
+        <v>2.9141243392819434E-2</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>71.620788000000061</v>
+        <v>1.279516000000001</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4970,7 +4970,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.56566872463702678</v>
+        <v>0.46290038436311748</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4985,46 +4985,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>1802.928711</v>
+        <v>5.9622609999999998</v>
       </c>
       <c r="I15">
-        <v>1843.7036129999999</v>
+        <v>6.9719420000000003</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>40.774901999999884</v>
+        <v>1.0096810000000005</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>795.22080847222196</v>
+        <v>-4.1228754351851844</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>746.40659792592601</v>
+        <v>-3.4899769351851848</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>632376.13422721438</v>
+        <v>16.998101854053424</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>557122.80942735495</v>
+        <v>12.179939008124576</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>593558.05825165554</v>
+        <v>14.388740175437874</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>1662.5926331095945</v>
+        <v>1.019455721761001</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>619654.71382563049</v>
+        <v>6.1518679260961484</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>40.774901999999884</v>
+        <v>1.0096810000000005</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5073,46 +5073,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>2094.0390619999998</v>
+        <v>5.1064930000000004</v>
       </c>
       <c r="I16">
-        <v>2001.8045649999999</v>
+        <v>5.7269500000000004</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-92.234496999999919</v>
+        <v>0.62045700000000004</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>953.32176047222197</v>
+        <v>-5.3678674351851843</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>1037.5169489259258</v>
+        <v>-4.3457449351851842</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>908822.37898985657</v>
+        <v>28.814000801721569</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>1076441.4193085621</v>
+        <v>18.88549904168768</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>989087.48426983203</v>
+        <v>23.327382719201498</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>8507.2024368429938</v>
+        <v>0.38496688884900004</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>893558.91391909041</v>
+        <v>13.877770200036293</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>92.234496999999919</v>
+        <v>0.62045700000000004</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5140,46 +5140,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>795.41192599999999</v>
+        <v>4.6125559999999997</v>
       </c>
       <c r="I17">
-        <v>943.07714799999997</v>
+        <v>5.5398800000000001</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>147.66522199999997</v>
+        <v>0.92732400000000048</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-105.40565652777798</v>
+        <v>-5.5549374351851846</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-261.11018707407402</v>
+        <v>-4.839681935185185</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>11110.352428051905</v>
+        <v>30.857329908821757</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>68178.529793857932</v>
+        <v>23.422521233757816</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>27522.4906946337</v>
+        <v>26.884130356149662</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>21805.017788309277</v>
+        <v>0.85992980097600091</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>12869.760100657881</v>
+        <v>15.30654461300648</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>147.66522199999997</v>
+        <v>0.92732400000000048</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5207,46 +5207,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>1709.023193</v>
+        <v>5.4861620000000002</v>
       </c>
       <c r="I18">
-        <v>1212.424561</v>
+        <v>6.6660279999999998</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-496.59863199999995</v>
+        <v>1.1798659999999996</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>163.9417564722221</v>
+        <v>-4.4287894351851849</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>652.50107992592598</v>
+        <v>-3.9660759351851844</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>26876.899515197376</v>
+        <v>19.614175861207908</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>425757.65930449963</v>
+        <v>15.729758323655036</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>106972.17314307808</v>
+        <v>17.564915200890347</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>246610.20130427138</v>
+        <v>1.3920837779559991</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>24305.573269296077</v>
+        <v>7.762965802924632</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>496.59863199999995</v>
+        <v>1.1798659999999996</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5274,46 +5274,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>1457.332275</v>
+        <v>5.9355869999999999</v>
       </c>
       <c r="I19">
-        <v>1590.2803960000001</v>
+        <v>7.4212160000000003</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>132.94812100000013</v>
+        <v>1.4856290000000003</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>541.79759147222217</v>
+        <v>-3.6736014351851844</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>400.81016192592597</v>
+        <v>-3.5166509351851847</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>293544.63012510096</v>
+        <v>13.495347504594648</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>160648.785903087</v>
+        <v>12.366833799938833</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>217157.98036905806</v>
+        <v>12.918773922541616</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>17675.202877430675</v>
+        <v>2.2070935256410009</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>284897.90459203295</v>
+        <v>4.1250501012033709</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>132.94812100000013</v>
+        <v>1.4856290000000003</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5344,46 +5344,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>1507.7835689999999</v>
+        <v>7.5782800000000003</v>
       </c>
       <c r="I20">
-        <v>1574.056763</v>
+        <v>8.8816199999999998</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>66.273194000000103</v>
+        <v>1.3033399999999995</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>525.5739584722221</v>
+        <v>-2.2131974351851849</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>451.26145592592593</v>
+        <v>-1.8739579351851843</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>276227.98582416103</v>
+        <v>4.8982428871102801</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>203636.9016043864</v>
+        <v>3.5117183428435195</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>237171.26969692708</v>
+        <v>4.1474388957967747</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>4392.1362429616493</v>
+        <v>1.6986951555999987</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>267842.11387395079</v>
+        <v>0.32560482795500373</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>66.273194000000103</v>
+        <v>1.3033399999999995</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5417,46 +5417,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>1369.328125</v>
+        <v>9.6720710000000008</v>
       </c>
       <c r="I21">
-        <v>1557.6092530000001</v>
+        <v>11.881873000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>188.28112800000008</v>
+        <v>2.2098019999999998</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>509.12644847222214</v>
+        <v>0.78705556481481587</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>312.80601192592599</v>
+        <v>0.21983306481481613</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>259209.74053393825</v>
+        <v>0.61945646210596883</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>97847.601097002553</v>
+        <v>4.8326576385875147E-2</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>159257.81391260627</v>
+        <v>0.17302083699279713</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>35449.783160952415</v>
+        <v>4.8832248792039996</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>251088.32179914461</v>
+        <v>5.9031265481776947</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>188.28112800000008</v>
+        <v>2.2098019999999998</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5490,46 +5490,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>495.96160900000001</v>
+        <v>12.291582999999999</v>
       </c>
       <c r="I22">
-        <v>818.47106900000006</v>
+        <v>16.148657</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>322.50946000000005</v>
+        <v>3.8570740000000008</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-230.01173552777789</v>
+        <v>5.0538395648148153</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-560.56050407407406</v>
+        <v>2.8393450648148146</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>52905.398480500444</v>
+        <v>25.541294346887604</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>314228.07872778003</v>
+        <v>8.0618803970882436</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>128935.49441040379</v>
+        <v>14.349594426722797</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>104012.35178949163</v>
+        <v>14.877019841476006</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>56668.2995847567</v>
+        <v>44.842028291615328</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>322.50946000000005</v>
+        <v>3.8570740000000008</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5563,46 +5563,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>335.08306900000002</v>
+        <v>13.873253</v>
       </c>
       <c r="I23">
-        <v>576.47088599999995</v>
+        <v>17.884912</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>241.38781699999993</v>
+        <v>4.0116589999999999</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-472.01191852777799</v>
+        <v>6.7900945648148152</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-721.43904407407399</v>
+        <v>4.4210150648148154</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>222795.25123227373</v>
+        <v>46.105384199127698</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>520474.29431451368</v>
+        <v>19.545374203319547</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>340527.82729424984</v>
+        <v>30.019110362563495</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>58268.078196025454</v>
+        <v>16.093407932281</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>230449.18061532421</v>
+        <v>71.109991883400426</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>241.38781699999993</v>
+        <v>4.0116589999999999</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5636,46 +5636,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>312.96588100000002</v>
+        <v>13.524761</v>
       </c>
       <c r="I24">
-        <v>496.20931999999999</v>
+        <v>15.402051999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>183.24343899999997</v>
+        <v>1.8772909999999996</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-552.27348452777801</v>
+        <v>4.3072345648148147</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-743.55623207407393</v>
+        <v>4.0725230648148152</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>305006.00171245384</v>
+        <v>18.552269596335467</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>552875.87025619415</v>
+        <v>16.585444113448656</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>410646.39122989401</v>
+        <v>17.541312110775937</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>33578.157936546711</v>
+        <v>3.5242214986809985</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>313950.42608247016</v>
+        <v>35.400287405868191</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>183.24343899999997</v>
+        <v>1.8772909999999996</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5709,46 +5709,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>518.24975600000005</v>
+        <v>11.462643</v>
       </c>
       <c r="I25">
-        <v>481.50769000000003</v>
+        <v>11.311054</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-36.742066000000023</v>
+        <v>-0.15158899999999953</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-566.97511452777792</v>
+        <v>0.21623656481481568</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-538.27235707407397</v>
+        <v>2.0104050648148153</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>321460.78049378691</v>
+        <v>4.675825196291198E-2</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>289737.1303900794</v>
+        <v>4.0417285246330614</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>305187.03129921004</v>
+        <v>0.43472308510186253</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>1349.9794139483577</v>
+        <v>2.2979224920999856E-2</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>330641.58674321015</v>
+        <v>3.4551971628136373</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>36.742066000000023</v>
+        <v>0.15158899999999953</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5782,46 +5782,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>920.20788600000003</v>
+        <v>8.9966720000000002</v>
       </c>
       <c r="I26">
-        <v>627.29986599999995</v>
+        <v>9.0141100000000005</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-292.90802000000008</v>
+        <v>1.7438000000000287E-2</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-421.18293852777799</v>
+        <v>-2.0807074351851842</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-136.31422707407398</v>
+        <v>-0.4555659351851844</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>177395.06770689401</v>
+        <v>4.3293434308349079</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>18581.568502802205</v>
+        <v>0.20754032130115163</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>57413.226722201274</v>
+        <v>0.9478994285569049</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>85795.108180320443</v>
+        <v>3.0408384400000999E-4</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>184231.73738331749</v>
+        <v>0.1919560875896329</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>292.90802000000008</v>
+        <v>1.7438000000000287E-2</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5855,46 +5855,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>1077.0177000000001</v>
+        <v>6.393554</v>
       </c>
       <c r="I27">
-        <v>1006.087524</v>
+        <v>5.8945230000000004</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-70.930176000000074</v>
+        <v>-0.49903099999999956</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-42.395280527777913</v>
+        <v>-5.2002944351851843</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>20.495586925926091</v>
+        <v>-3.0586839351851847</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>1797.3598110289852</v>
+        <v>27.043062212617993</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>420.06908343819248</v>
+        <v>9.3555474153599274</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>-868.91615730609396</v>
+        <v>15.906057047133837</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>5031.0898673909869</v>
+        <v>0.24903193896099957</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>2543.6477750707027</v>
+        <v>12.657335560039719</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>70.930176000000074</v>
+        <v>0.49903099999999956</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5928,46 +5928,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>1367.690552</v>
+        <v>5.2381729999999997</v>
       </c>
       <c r="I28">
-        <v>1889.8961179999999</v>
+        <v>5.5910279999999997</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>522.20556599999986</v>
+        <v>0.35285499999999992</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>841.41331347222194</v>
+        <v>-5.503789435185185</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>311.16843892592601</v>
+        <v>-4.2140649351851849</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>707976.36408830364</v>
+        <v>30.291698146856056</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>96825.797383597746</v>
+        <v>17.758343277957316</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>261821.26724464213</v>
+        <v>23.19332606945656</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>272698.65316138021</v>
+        <v>0.12450665102499994</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>694512.2320862771</v>
+        <v>14.90894216357278</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>522.20556599999986</v>
+        <v>0.35285499999999992</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -6001,46 +6001,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>1686.0009769999999</v>
+        <v>5.05105</v>
       </c>
       <c r="I29">
-        <v>1380.950562</v>
+        <v>5.7675640000000001</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-305.05041499999993</v>
+        <v>0.7165140000000001</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>332.46775747222205</v>
+        <v>-5.3272534351851846</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>629.47886392592591</v>
+        <v>-4.4011879351851846</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>110534.80975860826</v>
+        <v>28.37962916269235</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>396243.64012947434</v>
+        <v>19.370455240819627</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>209281.4262656146</v>
+        <v>23.446243546610862</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>93055.755691672181</v>
+        <v>0.51339231219600012</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>105253.81847248216</v>
+        <v>13.576822008633073</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>305.05041499999993</v>
+        <v>0.7165140000000001</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6074,46 +6074,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>1920.4738769999999</v>
+        <v>4.7041890000000004</v>
       </c>
       <c r="I30">
-        <v>1588.7939449999999</v>
+        <v>6.0292329999999996</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-331.67993200000001</v>
+        <v>1.3250439999999992</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>540.31114047222195</v>
+        <v>-5.0655844351851851</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>863.95176392592589</v>
+        <v>-4.7480489351851842</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>291936.12851839315</v>
+        <v>25.66014566999041</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>746412.65039071883</v>
+        <v>22.543968690913161</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>466802.76287980488</v>
+        <v>24.051642783571662</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>110011.57729152463</v>
+        <v>1.7557416019359979</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>283313.3030617811</v>
+        <v>11.716962786302133</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>331.67993200000001</v>
+        <v>1.3250439999999992</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6147,46 +6147,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>2405.016846</v>
+        <v>6.78416</v>
       </c>
       <c r="I31">
-        <v>2247.7705080000001</v>
+        <v>7.5388890000000002</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-157.24633799999992</v>
+        <v>0.75472900000000021</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>1199.2877034722221</v>
+        <v>-3.5559284351851845</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>1348.494732925926</v>
+        <v>-2.6680779351851847</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>1438290.9956996767</v>
+        <v>12.644627036158555</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>1818438.0447289643</v>
+        <v>7.1186398682220382</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>1617233.1513951214</v>
+        <v>9.487494197015172</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>24726.410814410221</v>
+        <v>0.56961586344100035</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>1419072.7384135951</v>
+        <v>3.660904147774279</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>157.24633799999992</v>
+        <v>0.75472900000000021</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6220,46 +6220,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>1548.114746</v>
+        <v>8.5450079999999993</v>
       </c>
       <c r="I32">
-        <v>1784.1904300000001</v>
+        <v>9.6521509999999999</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>236.07568400000014</v>
+        <v>1.1071430000000007</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>735.70762547222216</v>
+        <v>-1.4426664351851848</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>491.59263292592595</v>
+        <v>-0.90722993518518535</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>541265.71017797547</v>
+        <v>2.0812864432099292</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>241663.31674704418</v>
+        <v>0.8230661552961156</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>361668.44866957073</v>
+        <v>1.3088301764868977</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>55731.728576067922</v>
+        <v>1.2257656224490014</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>529501.17945781001</v>
+        <v>3.9965233483652544E-2</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>236.07568400000014</v>
+        <v>1.1071430000000007</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6287,46 +6287,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>1120.1635739999999</v>
+        <v>10.039804</v>
       </c>
       <c r="I33">
-        <v>1237.536621</v>
+        <v>12.711807</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>117.37304700000004</v>
+        <v>2.6720030000000001</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>189.05381647222202</v>
+        <v>1.6169895648148156</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>63.641460925925912</v>
+        <v>0.58756606481481555</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>35741.345522712611</v>
+        <v>2.6146552527200067</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>4050.2355487861546</v>
+        <v>0.34523388052196802</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>12031.661073914087</v>
+        <v>0.95008819544486234</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>13776.432162064219</v>
+        <v>7.1396000320090005</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>32766.252079665112</v>
+        <v>10.624790488297732</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>117.37304700000004</v>
+        <v>2.6720030000000001</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6354,46 +6354,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>437.747681</v>
+        <v>13.209507</v>
       </c>
       <c r="I34">
-        <v>785.24462900000003</v>
+        <v>16.876681999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>347.49694800000003</v>
+        <v>3.6671749999999985</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-263.23817552777791</v>
+        <v>5.7818645648148141</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-618.77443207407396</v>
+        <v>3.7572690648148157</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>69294.337055193217</v>
+        <v>33.429957845861203</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>382881.79778859275</v>
+        <v>14.1170708254144</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>162885.05256241618</v>
+        <v>21.724020866327677</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>120754.12886931472</v>
+        <v>13.448172480624988</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>73591.473365559461</v>
+        <v>55.122369671563924</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>347.49694800000003</v>
+        <v>3.6671749999999985</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6421,46 +6421,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>344.42398100000003</v>
+        <v>14.471056000000001</v>
       </c>
       <c r="I35">
-        <v>598.64007600000002</v>
+        <v>18.446539000000001</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>254.216095</v>
+        <v>3.9754830000000005</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-449.84272852777792</v>
+        <v>7.3517215648148166</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-712.09813207407399</v>
+        <v>5.0188180648148162</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>202358.48040931611</v>
+        <v>54.047809966563214</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>507083.74970338534</v>
+        <v>25.188534767711538</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>320332.16671173542</v>
+        <v>36.896952996981248</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>64625.822957049022</v>
+        <v>15.804465083289005</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>209655.95987510367</v>
+        <v>80.897451644528942</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>254.216095</v>
+        <v>3.9754830000000005</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6488,46 +6488,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>315.44812000000002</v>
+        <v>14.034072</v>
       </c>
       <c r="I36">
-        <v>520.57391399999995</v>
+        <v>14.266251</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>205.12579399999993</v>
+        <v>0.23217900000000036</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-527.908890527778</v>
+        <v>3.1714335648148158</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-741.073993074074</v>
+        <v>4.5818340648148155</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>278687.79669826949</v>
+        <v>10.05799085603401</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>549190.66321075265</v>
+        <v>20.993203397497453</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>391219.54948272463</v>
+        <v>14.530982341565608</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>42076.591364130407</v>
+        <v>5.3907088041000167E-2</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>287240.47209074331</v>
+        <v>23.174721788207737</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>205.12579399999993</v>
+        <v>0.23217900000000036</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6555,46 +6555,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>1114.8023679999999</v>
+        <v>11.927625000000001</v>
       </c>
       <c r="I37">
-        <v>648.737122</v>
+        <v>10.601513000000001</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-466.06524599999989</v>
+        <v>-1.3261120000000002</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-399.74568252777794</v>
+        <v>-0.49330443518518408</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>58.280254925925874</v>
+        <v>2.4753870648148162</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>159796.61069959903</v>
+        <v>0.24334926577337349</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>3396.5881142309072</v>
+        <v>6.127541120652511</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-23297.280283257132</v>
+        <v>-1.2211194178731835</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>217216.8135290404</v>
+        <v>1.7585730365440004</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>166288.59894528263</v>
+        <v>1.3208331746050996</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>466.06524599999989</v>
+        <v>1.3261120000000002</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6622,46 +6622,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>1797.338501</v>
+        <v>8.7805119999999999</v>
       </c>
       <c r="I38">
-        <v>1312.4486079999999</v>
+        <v>9.7765780000000007</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-484.88989300000003</v>
+        <v>0.99606600000000078</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>263.96580347222198</v>
+        <v>-1.318239435185184</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>740.81638792592594</v>
+        <v>-0.67172593518518475</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>69677.945402735713</v>
+        <v>1.7377552084773531</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>548808.92061961594</v>
+        <v>0.45121573200041104</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>195550.19306425634</v>
+        <v>0.88549561739775751</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>235118.20833355148</v>
+        <v>0.99214747635600153</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>65498.370805069979</v>
+        <v>0.10519647764407906</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>484.88989300000003</v>
+        <v>0.99606600000000078</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6689,46 +6689,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>1535.640991</v>
+        <v>5.4185600000000003</v>
       </c>
       <c r="I39">
-        <v>1912.724121</v>
+        <v>6.913138</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>377.08312999999998</v>
+        <v>1.4945779999999997</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>864.24131647222202</v>
+        <v>-4.1816794351851847</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>479.11887792592597</v>
+        <v>-4.0336779351851844</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>746913.05309763947</v>
+        <v>17.486442898650687</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>229554.89918499836</v>
+        <v>16.270557684799812</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>414074.32980539609</v>
+        <v>16.867548069724123</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>142191.68693059689</v>
+        <v>2.2337633980839993</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>733081.87837638741</v>
+        <v>6.4470284808574085</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>377.08312999999998</v>
+        <v>1.4945779999999997</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6756,46 +6756,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>1042.2468260000001</v>
+        <v>4.487285</v>
       </c>
       <c r="I40">
-        <v>1003.251221</v>
+        <v>4.6715059999999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-38.995605000000069</v>
+        <v>0.18422099999999997</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-45.231583527777957</v>
+        <v>-6.4233114351851848</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-14.275287074073958</v>
+        <v>-4.9649529351851847</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>2045.8961484303543</v>
+        <v>41.258929793380759</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>203.78382104722303</v>
+        <v>24.650757648603982</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>645.69383967398528</v>
+        <v>31.891438963731243</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>1520.6572093160303</v>
+        <v>3.393737684099999E-2</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>2837.7879423676432</v>
+        <v>22.855397836099481</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>38.995605000000069</v>
+        <v>0.18422099999999997</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6823,46 +6823,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>947.88952600000005</v>
+        <v>4.5380079999999996</v>
       </c>
       <c r="I41">
-        <v>992.99786400000005</v>
+        <v>5.9268229999999997</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>45.108338000000003</v>
+        <v>1.3888150000000001</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-55.484940527777894</v>
+        <v>-5.167994435185185</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-108.63258707407397</v>
+        <v>-4.914229935185185</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>3078.5786253710498</v>
+        <v>26.708166482105039</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>11801.038974406263</v>
+        <v>24.149655855870186</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>6027.4726331836473</v>
+        <v>25.396712958257488</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>2034.7621571222444</v>
+        <v>1.9288071042250003</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>4035.3302204249867</v>
+        <v>12.428550465226762</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>45.108338000000003</v>
+        <v>1.3888150000000001</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6890,46 +6890,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>1290.0119629999999</v>
+        <v>5.9891019999999999</v>
       </c>
       <c r="I42">
-        <v>1306.5604249999999</v>
+        <v>7.2695530000000002</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>16.548461999999972</v>
+        <v>1.2804510000000002</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>258.07762047222195</v>
+        <v>-3.8252644351851846</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>233.48984992592591</v>
+        <v>-3.4631359351851847</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>66604.058188604235</v>
+        <v>14.632647999092629</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>54517.510018431407</v>
+        <v>11.993310505570964</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>60258.504873299171</v>
+        <v>13.247410727075671</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>273.85159456544307</v>
+        <v>1.6395547634010006</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>62519.157430766609</v>
+        <v>4.764113526284353</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>16.548461999999972</v>
+        <v>1.2804510000000002</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6957,46 +6957,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>1562.4719239999999</v>
+        <v>7.1827540000000001</v>
       </c>
       <c r="I43">
-        <v>1844.041504</v>
+        <v>9.0236800000000006</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>281.56958000000009</v>
+        <v>1.8409260000000005</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>795.55869947222209</v>
+        <v>-2.0711374351851841</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>505.94981092592593</v>
+        <v>-2.2694839351851845</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>632913.64430593338</v>
+        <v>4.2896102754254626</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>255985.21117598019</v>
+        <v>5.1505573320636309</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>402512.7735784463</v>
+        <v>4.7004131367134221</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>79281.428381376449</v>
+        <v>3.3890085374760019</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>620186.79108434147</v>
+        <v>0.1836619038101884</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>281.56958000000009</v>
+        <v>1.8409260000000005</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7024,46 +7024,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>1078.8942870000001</v>
+        <v>9.2055249999999997</v>
       </c>
       <c r="I44">
-        <v>1224.181885</v>
+        <v>10.714046</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>145.28759799999989</v>
+        <v>1.508521</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>175.69908047222202</v>
+        <v>-0.38077143518518497</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>22.372173925926063</v>
+        <v>-0.24671293518518489</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>30870.166878784348</v>
+        <v>0.14498688585298553</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>500.51416617188602</v>
+        <v>6.0867272387689242E-2</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>3930.7703869498305</v>
+        <v>9.3941238409212369E-2</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>21108.486132609571</v>
+        <v>2.275635607441</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>28109.799122253509</v>
+        <v>1.5921595924317087</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>145.28759799999989</v>
+        <v>1.508521</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7091,46 +7091,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>513.56964100000005</v>
+        <v>11.538337</v>
       </c>
       <c r="I45">
-        <v>792.33429000000001</v>
+        <v>14.825206</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>278.76464899999996</v>
+        <v>3.2868689999999994</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-256.14851452777793</v>
+        <v>3.730388564814815</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-542.95247207407397</v>
+        <v>2.0860990648148157</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>65612.061494787267</v>
+        <v>13.915798844501134</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>294797.38693134807</v>
+        <v>4.3518093082212488</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>139076.46918095887</v>
+        <v>7.7819600964560678</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>77709.729532093173</v>
+        <v>10.803507823160995</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>69795.205860618225</v>
+        <v>28.868785825519858</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>278.76464899999996</v>
+        <v>3.2868689999999994</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7158,46 +7158,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>329.101562</v>
+        <v>13.708549</v>
       </c>
       <c r="I46">
-        <v>575.90563999999995</v>
+        <v>18.854301</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>246.80407799999995</v>
+        <v>5.1457519999999999</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-472.577164527778</v>
+        <v>7.7594835648148148</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-727.42055107407396</v>
+        <v>4.256311064814815</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>223329.17643311454</v>
+        <v>60.209585192631224</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>529140.65812490939</v>
+        <v>18.116183880465023</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>343762.34144581959</v>
+        <v>33.026775754170004</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>60912.252917430058</v>
+        <v>26.478763645503999</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>230992.19419016215</v>
+        <v>88.398789874754954</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>246.80407799999995</v>
+        <v>5.1457519999999999</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7225,46 +7225,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>317.72796599999998</v>
+        <v>14.568191000000001</v>
       </c>
       <c r="I47">
-        <v>490.24523900000003</v>
+        <v>18.179331000000001</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>172.51727300000005</v>
+        <v>3.6111400000000007</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-558.23756552777786</v>
+        <v>7.0845135648148165</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-738.79414707407409</v>
+        <v>5.1159530648148159</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>311629.1795663801</v>
+        <v>50.19033245004514</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>545816.7917509086</v>
+        <v>26.172975761388109</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>412422.6460888022</v>
+        <v>36.244038884636495</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>29762.209483356546</v>
+        <v>13.040332099600004</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>320669.49811110459</v>
+        <v>76.162153361938863</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>172.51727300000005</v>
+        <v>3.6111400000000007</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7292,46 +7292,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>666.160706</v>
+        <v>13.419032</v>
       </c>
       <c r="I48">
-        <v>645.09240699999998</v>
+        <v>13.831529</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-21.068299000000025</v>
+        <v>0.41249700000000011</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-403.39039752777796</v>
+        <v>2.736711564814815</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-390.36140707407401</v>
+        <v>3.966794064814815</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>162723.81281761875</v>
+        <v>7.4895901889911531</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>152382.02813285092</v>
+        <v>15.735455152650042</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>157468.04317911348</v>
+        <v>10.855971192417472</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>443.87322275340205</v>
+        <v>0.17015377500900009</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>169274.40304019896</v>
+        <v>19.178190230366877</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>21.068299000000025</v>
+        <v>0.41249700000000011</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7359,46 +7359,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>791.40741000000003</v>
+        <v>10.593218999999999</v>
       </c>
       <c r="I49">
-        <v>850.20874000000003</v>
+        <v>11.222716</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>58.801330000000007</v>
+        <v>0.62949700000000064</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-198.27406452777791</v>
+        <v>0.12789856481481543</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-265.11470307407399</v>
+        <v>1.1409810648148149</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>39312.604664365441</v>
+        <v>1.6358042881689544E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>70285.805786054421</v>
+        <v>1.3018377902659488</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>52565.369744571624</v>
+        <v>0.14592984067069473</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>3457.5964097689007</v>
+        <v>0.39626647300900081</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>42565.207909202036</v>
+        <v>3.1345925779904142</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>58.801330000000007</v>
+        <v>0.62949700000000064</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7426,46 +7426,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>865.16235400000005</v>
+        <v>8.6587770000000006</v>
       </c>
       <c r="I50">
-        <v>901.28021200000001</v>
+        <v>9.0450400000000002</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>36.117857999999956</v>
+        <v>0.38626299999999958</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-147.20259252777794</v>
+        <v>-2.0497774351851845</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-191.35975907407396</v>
+        <v>-0.79346093518518401</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>21668.603246899027</v>
+        <v>4.2015875337943536</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>36618.557392887633</v>
+        <v>0.6295802556649468</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>28168.652641194665</v>
+        <v>1.6264183206435243</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>1304.4996665081608</v>
+        <v>0.14919910516899967</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>24100.047849092582</v>
+        <v>0.16581015841907767</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>36.117857999999956</v>
+        <v>0.38626299999999958</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7493,46 +7493,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>731.682007</v>
+        <v>5.7266870000000001</v>
       </c>
       <c r="I51">
-        <v>859.92095900000004</v>
+        <v>5.3185479999999998</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>128.23895200000004</v>
+        <v>-0.40813900000000025</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-188.5618455277779</v>
+        <v>-5.7762694351851849</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-324.84010607407401</v>
+        <v>-3.7255509351851845</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>35555.569588841579</v>
+        <v>33.365288587854572</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>105521.09451421566</v>
+        <v>13.879729770659203</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>61252.449902766537</v>
+        <v>21.519785996135763</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>16445.228810058314</v>
+        <v>0.16657744332100022</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>38652.013783257775</v>
+        <v>17.087392480251296</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>128.23895200000004</v>
+        <v>0.40813900000000025</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7560,46 +7560,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>973.36920199999997</v>
+        <v>5.585604</v>
       </c>
       <c r="I52">
-        <v>1009.971436</v>
+        <v>5.3352490000000001</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>36.602234000000067</v>
+        <v>-0.25035499999999988</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-38.511368527777904</v>
+        <v>-5.7595684351851846</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-83.152911074074041</v>
+        <v>-3.8666339351851846</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>1483.1255058823224</v>
+        <v>33.172628559581518</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>6914.4066200928655</v>
+        <v>14.950857988725666</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>3202.3324025312099</v>
+        <v>22.270142763508467</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>1339.7235337907609</v>
+        <v>6.2677626024999947E-2</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>2166.9655360547163</v>
+        <v>16.949597892437239</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>36.602234000000067</v>
+        <v>0.25035499999999988</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7627,46 +7627,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>1925.5120850000001</v>
+        <v>5.2912280000000003</v>
       </c>
       <c r="I53">
-        <v>2192.0620119999999</v>
+        <v>5.3281619999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>266.5499269999998</v>
+        <v>3.6933999999999578E-2</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>1143.5792074722219</v>
+        <v>-5.7666554351851849</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>868.98997192592606</v>
+        <v>-4.1610099351851844</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>1307773.4037627953</v>
+        <v>33.254314908150832</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>755143.57130782178</v>
+        <v>17.314003680709813</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>993758.86339635891</v>
+        <v>23.995110558595197</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>71048.863583705228</v>
+        <v>1.3641203559999688E-3</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>1289450.8620527019</v>
+        <v>17.008002319173556</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>266.5499269999998</v>
+        <v>3.6933999999999578E-2</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7694,46 +7694,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>2745.2280270000001</v>
+        <v>6.3648740000000004</v>
       </c>
       <c r="I54">
-        <v>2580.6989749999998</v>
+        <v>7.0873920000000004</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-164.52905200000032</v>
+        <v>0.72251799999999999</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>1532.2161704722218</v>
+        <v>-4.0074254351851843</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>1688.7059139259261</v>
+        <v>-3.0873639351851843</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>2347686.3930565608</v>
+        <v>16.059458618569163</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>2851727.6637283973</v>
+        <v>9.5318160682821471</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>2587462.5084893759</v>
+        <v>12.372380761534531</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>27069.808952018808</v>
+        <v>0.52203226032399996</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>2323115.1064303624</v>
+        <v>5.5924962971618886</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>164.52905200000032</v>
+        <v>0.72251799999999999</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7761,46 +7761,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>1477.073486</v>
+        <v>7.6323100000000004</v>
       </c>
       <c r="I55">
-        <v>1471.7113039999999</v>
+        <v>8.8406249999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-5.3621820000000753</v>
+        <v>1.2083149999999989</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>423.22849947222198</v>
+        <v>-2.2541924351851854</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>420.55137292592599</v>
+        <v>-1.8199279351851843</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>179122.36276550862</v>
+        <v>5.0813835348461165</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>176863.45726988127</v>
+        <v>3.3121376892674084</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>177989.32651442249</v>
+        <v>4.1024677840766364</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>28.752995801124808</v>
+        <v>1.4600251392249974</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>172382.06426172497</v>
+        <v>0.37407038248583774</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>5.3621820000000753</v>
+        <v>1.2083149999999989</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7828,46 +7828,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>1294.546509</v>
+        <v>9.3850379999999998</v>
       </c>
       <c r="I56">
-        <v>1382.6301269999999</v>
+        <v>10.805914</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>88.083617999999888</v>
+        <v>1.4208759999999998</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>334.14732247222196</v>
+        <v>-0.28890343518518513</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>238.024395925926</v>
+        <v>-6.7199935185184856E-2</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>111654.43311535509</v>
+        <v>8.3465194861800471E-2</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>56655.61305590198</v>
+        <v>4.5158312888930454E-3</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>79535.214581716224</v>
+        <v>1.9414292119221695E-2</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>7758.7237599699038</v>
+        <v>2.0188886073759993</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>106346.43674671187</v>
+        <v>1.8324388884525231</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>88.083617999999888</v>
+        <v>1.4208759999999998</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7895,46 +7895,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>531.51275599999997</v>
+        <v>11.610981000000001</v>
       </c>
       <c r="I57">
-        <v>764.53741500000001</v>
+        <v>15.333819</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>233.02465900000004</v>
+        <v>3.7228379999999994</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-283.94538952777793</v>
+        <v>4.2390015648148154</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-525.00935707407405</v>
+        <v>2.158743064814816</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>80624.984234081538</v>
+        <v>17.969134266502454</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>275634.82501533261</v>
+        <v>4.6601716198860652</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>149073.98640012622</v>
+        <v>9.150915229783136</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>54300.491702066298</v>
+        <v>13.859522774243995</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>85255.063909408156</v>
+        <v>34.592995821988175</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>233.02465900000004</v>
+        <v>3.7228379999999994</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7962,46 +7962,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>370.54007000000001</v>
+        <v>13.79973</v>
       </c>
       <c r="I58">
-        <v>605.08038299999998</v>
+        <v>19.290593999999999</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>234.54031299999997</v>
+        <v>5.4908639999999984</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-443.40242152777796</v>
+        <v>8.195776564814814</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-685.982043074074</v>
+        <v>4.3474920648148156</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>196605.70741669729</v>
+        <v>67.170753500367709</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>470571.36342008074</v>
+        <v>18.90068725362779</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>304166.09902361687</v>
+        <v>35.631073580527634</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>55009.158422137953</v>
+        <v>30.149587466495984</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>203799.63565227311</v>
+        <v>96.793250058078428</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>234.54031299999997</v>
+        <v>5.4908639999999984</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8029,46 +8029,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>317.260895</v>
+        <v>14.901332999999999</v>
       </c>
       <c r="I59">
-        <v>483.81219499999997</v>
+        <v>19.834306999999999</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>166.55129999999997</v>
+        <v>4.9329739999999997</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-564.67060952777797</v>
+        <v>8.7394895648148143</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-739.26121807407401</v>
+        <v>5.4490950648148146</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>318852.89726447233</v>
+        <v>76.378677853507028</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>546507.14854836359</v>
+        <v>29.692637025389168</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>417439.08261013497</v>
+        <v>47.622309456632976</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>27739.335531689991</v>
+        <v>24.334232484675997</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>327996.6502604126</v>
+        <v>107.78735806658476</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>166.55129999999997</v>
+        <v>4.9329739999999997</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8096,46 +8096,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>310.85693400000002</v>
+        <v>14.157674999999999</v>
       </c>
       <c r="I60">
-        <v>433.66195699999997</v>
+        <v>15.202292</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>122.80502299999995</v>
+        <v>1.0446170000000006</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-614.82084752777791</v>
+        <v>4.1074745648148152</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-745.66517907407399</v>
+        <v>4.7054370648148147</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>378004.67455477512</v>
+        <v>16.871347300600657</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>556016.55928357085</v>
+        <v>22.141137970933059</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>458450.49737027445</v>
+        <v>19.327463060063732</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>15081.073674030516</v>
+        <v>1.0912246766890012</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>387954.77402461978</v>
+        <v>33.063121748293383</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>122.80502299999995</v>
+        <v>1.0446170000000006</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8163,46 +8163,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>998.69805899999994</v>
+        <v>12.445987000000001</v>
       </c>
       <c r="I61">
-        <v>516.242615</v>
+        <v>12.222011</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-482.45544399999994</v>
+        <v>-0.2239760000000004</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-532.24018952777794</v>
+        <v>1.1271935648148155</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-57.82405407407407</v>
+        <v>2.993749064814816</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>283279.619348565</v>
+        <v>1.2705653325599315</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>3343.6212295614419</v>
+        <v>8.9625334630795859</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>30776.285499649664</v>
+        <v>3.3745346805296323</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>232763.25544523707</v>
+        <v>5.0165248576000181E-2</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>291901.93603917334</v>
+        <v>7.6716428305736564</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>482.45544399999994</v>
+        <v>0.2239760000000004</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8230,46 +8230,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>1886.5954589999999</v>
+        <v>9.0372620000000001</v>
       </c>
       <c r="I62">
-        <v>1207.1164550000001</v>
+        <v>9.9835840000000005</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-679.4790039999998</v>
+        <v>0.94632200000000033</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>158.63365047222214</v>
+        <v>-1.1112334351851842</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>830.07334592592588</v>
+        <v>-0.4149759351851845</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>25164.635062143145</v>
+        <v>1.2348397474734651</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>689021.75961666182</v>
+        <v>0.17220502678281843</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>131677.56502392126</v>
+        <v>0.46113513397501693</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>461691.71687683178</v>
+        <v>0.89552532768400062</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>22678.655820102736</v>
+        <v>0.28232864059419049</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>679.4790039999998</v>
+        <v>0.94632200000000033</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8297,46 +8297,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>2037.9986570000001</v>
+        <v>6.9718749999999998</v>
       </c>
       <c r="I63">
-        <v>1884.2677000000001</v>
+        <v>8.0302419999999994</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-153.73095699999999</v>
+        <v>1.0583669999999996</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>835.78489547222216</v>
+        <v>-3.0645754351851853</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>981.47654392592608</v>
+        <v>-2.4803629351851848</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>698536.39149951329</v>
+        <v>9.3916225979404668</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>963296.20627678034</v>
+        <v>6.1522002902404651</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>820303.27067356801</v>
+        <v>7.601259321512341</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>23633.207140135844</v>
+        <v>1.1201407066889992</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>685162.75667534582</v>
+        <v>2.0220724396831895</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>153.73095699999999</v>
+        <v>1.0583669999999996</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8364,46 +8364,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>1400.7531739999999</v>
+        <v>6.2968140000000004</v>
       </c>
       <c r="I64">
-        <v>1309.7821039999999</v>
+        <v>6.7544029999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-90.971070000000054</v>
+        <v>0.45758899999999958</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>261.29929947222195</v>
+        <v>-4.3404144351851848</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>344.23106092592593</v>
+        <v>-3.1554239351851843</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>68277.323904673933</v>
+        <v>18.839197469163928</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>118495.02330618854</v>
+        <v>9.9567002107395535</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>89947.335076524192</v>
+        <v>13.695847597406615</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>8275.7355769449096</v>
+        <v>0.20938769292099962</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>64140.623003800058</v>
+        <v>7.2783133375056499</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>90.971070000000054</v>
+        <v>0.45758899999999958</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8431,46 +8431,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>1137.1290280000001</v>
+        <v>6.9573999999999998</v>
       </c>
       <c r="I65">
-        <v>1191.05188</v>
+        <v>7.7837420000000002</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>53.922851999999921</v>
+        <v>0.82634200000000035</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>142.56907547222204</v>
+        <v>-3.3110754351851845</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>80.606914925926048</v>
+        <v>-2.4948379351851848</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>20325.941281004143</v>
+        <v>10.963220537486759</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>6497.4747338754796</v>
+        <v>6.2242163228390766</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>11492.053337657331</v>
+        <v>8.2605966019597936</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>2907.6739678138956</v>
+        <v>0.68284110096400064</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>18098.258189143966</v>
+        <v>2.7838786857294835</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>53.922851999999921</v>
+        <v>0.82634200000000035</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8498,46 +8498,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>790.69457999999997</v>
+        <v>7.9527080000000003</v>
       </c>
       <c r="I66">
-        <v>773.01031499999999</v>
+        <v>9.1715890000000009</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-17.684264999999982</v>
+        <v>1.2188810000000005</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-275.47248952777795</v>
+        <v>-1.9232284351851838</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-265.82753307407404</v>
+        <v>-1.4995299351851843</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>75885.092486631736</v>
+        <v>3.6988076139048509</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>70664.277340247922</v>
+        <v>2.2485900265164829</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>73228.172320942904</v>
+        <v>2.8839386107595422</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>312.73322859022437</v>
+        <v>1.4856708921610013</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>80378.939647194522</v>
+        <v>7.8763824820577463E-2</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>17.684264999999982</v>
+        <v>1.2188810000000005</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8565,46 +8565,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>718.36987299999998</v>
+        <v>8.1538699999999995</v>
       </c>
       <c r="I67">
-        <v>757.00372300000004</v>
+        <v>10.332568999999999</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>38.633850000000052</v>
+        <v>2.1786989999999999</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-291.47908152777791</v>
+        <v>-0.76224843518518526</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-338.15224007407403</v>
+        <v>-1.2983679351851851</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>84960.054968277007</v>
+        <v>0.58102267694226362</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>114346.9374671142</v>
+        <v>1.685759295117041</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>98564.304353351748</v>
+        <v>0.98967892688952741</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>1492.574365822504</v>
+        <v>4.7467293326009994</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>89711.265992565139</v>
+        <v>0.77498278367798568</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>38.633850000000052</v>
+        <v>2.1786989999999999</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8632,46 +8632,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>449.86929300000003</v>
+        <v>10.582678</v>
       </c>
       <c r="I68">
-        <v>572.77179000000001</v>
+        <v>13.706182999999999</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>122.90249699999998</v>
+        <v>3.1235049999999998</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-475.71101452777793</v>
+        <v>2.6113655648148146</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-606.65282007407404</v>
+        <v>1.130440064814815</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>226300.96934304773</v>
+        <v>6.8192301131005957</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>368027.64410382684</v>
+        <v>1.277894740138523</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>288591.42850357527</v>
+        <v>2.9519922583444349</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>15105.023768835004</v>
+        <v>9.7562834850249978</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>234014.37507427097</v>
+        <v>18.096048614462319</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>122.90249699999998</v>
+        <v>3.1235049999999998</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8699,46 +8699,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>312.76174900000001</v>
+        <v>13.866313</v>
       </c>
       <c r="I69">
-        <v>451.80908199999999</v>
+        <v>17.640868999999999</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>139.04733299999998</v>
+        <v>3.7745559999999987</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-596.67372252777795</v>
+        <v>6.5460515648148139</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-743.760364074074</v>
+        <v>4.4140750648148153</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>356019.53115515574</v>
+        <v>42.850791089214475</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>553179.47916759911</v>
+        <v>19.484058677819917</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>443782.26510069316</v>
+        <v>28.894762985241073</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>19334.160814412884</v>
+        <v>14.24727299713599</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>365677.84995079401</v>
+        <v>67.053678715650193</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>139.04733299999998</v>
+        <v>3.7745559999999987</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8766,46 +8766,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>289.552887</v>
+        <v>17.659742000000001</v>
       </c>
       <c r="I70">
-        <v>331.84762599999999</v>
+        <v>19.424499999999998</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>42.294738999999993</v>
+        <v>1.7647579999999969</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-716.63517852777795</v>
+        <v>8.3296825648148136</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-766.96922607407396</v>
+        <v>8.2075040648148168</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>513565.97910354019</v>
+        <v>69.383611630579892</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>588241.79374466394</v>
+        <v>67.363122973951747</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>549637.12825290568</v>
+        <v>68.365903509334686</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>1788.8449470781204</v>
+        <v>3.1143707985639892</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>525153.11221607227</v>
+        <v>99.446010689344618</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>42.294738999999993</v>
+        <v>1.7647579999999969</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8833,46 +8833,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>266.81918300000001</v>
+        <v>18.425664999999999</v>
       </c>
       <c r="I71">
-        <v>344.88644399999998</v>
+        <v>19.429907</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>78.067260999999974</v>
+        <v>1.0042420000000014</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-703.59636052777796</v>
+        <v>8.3350895648148153</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-789.70293007407395</v>
+        <v>8.973427064814814</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>495047.83854793489</v>
+        <v>69.473718053484831</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>623630.71776757773</v>
+        <v>80.522393287551012</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>555632.10749824077</v>
+        <v>74.794318288564796</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>6094.4972400421166</v>
+        <v>1.0085019945640028</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>506425.32549850503</v>
+        <v>99.553879966962555</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>78.067260999999974</v>
+        <v>1.0042420000000014</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8900,46 +8900,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>321.18594400000001</v>
+        <v>15.563864000000001</v>
       </c>
       <c r="I72">
-        <v>331.10879499999999</v>
+        <v>16.769477999999999</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>9.9228509999999801</v>
+        <v>1.2056139999999989</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-717.37400952777796</v>
+        <v>5.6746605648148147</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-735.33616907407395</v>
+        <v>6.111626064814816</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>514625.46954596048</v>
+        <v>32.201772525864392</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>540719.2815485351</v>
+        <v>37.351973156123833</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>527511.05595946452</v>
+        <v>34.681403416898988</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>98.462971968200605</v>
+        <v>1.4535051169959972</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>526224.48203923774</v>
+        <v>53.542002166131113</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>9.9228509999999801</v>
+        <v>1.2056139999999989</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8967,46 +8967,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>348.42294299999998</v>
+        <v>13.997923</v>
       </c>
       <c r="I73">
-        <v>319.937073</v>
+        <v>14.072948999999999</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>-28.485869999999977</v>
+        <v>7.5025999999999371E-2</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-728.54573152777789</v>
+        <v>2.9781315648148148</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-708.09917007407398</v>
+        <v>4.5456850648148155</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>530778.882927345</v>
+        <v>8.8692676173463365</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>501404.43465959234</v>
+        <v>20.663252708480474</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>515882.62785582861</v>
+        <v>13.537648175232279</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>811.44478965689871</v>
+        <v>5.6289006759999054E-3</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>542557.5212609251</v>
+        <v>21.35097074450206</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>28.485869999999977</v>
+        <v>7.5025999999999371E-2</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9034,46 +9034,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>1444.014038</v>
+        <v>8.3817280000000007</v>
       </c>
       <c r="I74">
-        <v>633.98730499999999</v>
+        <v>9.2432739999999995</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-810.02673300000004</v>
+        <v>0.86154599999999881</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-414.49549952777795</v>
+        <v>-1.8515434351851852</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>387.49192492592601</v>
+        <v>-1.0705099351851839</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>171806.51912878218</v>
+        <v>3.4282130923773559</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>150149.99188279948</v>
+        <v>1.1459915213301866</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>-160613.65898515194</v>
+        <v>1.9820956427926453</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>656143.30817465333</v>
+        <v>0.74226151011599795</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>178535.66403419457</v>
+        <v>4.3665926208078229E-2</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>810.02673300000004</v>
+        <v>0.86154599999999881</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9101,46 +9101,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>2182.4985350000002</v>
+        <v>6.4533620000000003</v>
       </c>
       <c r="I75">
-        <v>1822.4492190000001</v>
+        <v>7.8496639999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>-360.04931600000009</v>
+        <v>1.3963019999999995</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>773.96641447222214</v>
+        <v>-3.245153435185185</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>1125.9764219259262</v>
+        <v>-2.9988759351851844</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>599024.01073098753</v>
+        <v>10.531020817894206</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>1267822.9027331113</v>
+        <v>8.9932568746328148</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>871467.934058271</v>
+        <v>9.7318125427603857</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>129635.50995206792</v>
+        <v>1.9496592752039985</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>586644.33159206482</v>
+        <v>2.568243217734929</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>360.04931600000009</v>
+        <v>1.3963019999999995</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9168,46 +9168,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>1807.3911129999999</v>
+        <v>5.010999</v>
       </c>
       <c r="I76">
-        <v>1335.939087</v>
+        <v>6.3295029999999999</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-471.45202599999993</v>
+        <v>1.3185039999999999</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>287.45628247222203</v>
+        <v>-4.7653144351851848</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>750.86899992592589</v>
+        <v>-4.4412389351851846</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>82631.114332749901</v>
+        <v>22.708221666184297</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>563804.2550497601</v>
+        <v>19.724603279404832</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>215842.01134234181</v>
+        <v>21.163900007944441</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>222267.0128195046</v>
+        <v>1.7384527980159998</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>78073.845317921587</v>
+        <v>9.7514734754260193</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>471.45202599999993</v>
+        <v>1.3185039999999999</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9235,46 +9235,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>2005.2761230000001</v>
+        <v>6.1084540000000001</v>
       </c>
       <c r="I77">
-        <v>1661.1883539999999</v>
+        <v>7.4234200000000001</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>-344.08776900000021</v>
+        <v>1.3149660000000001</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>612.70554947222195</v>
+        <v>-3.6713974351851846</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>948.75400992592608</v>
+        <v>-3.3437839351851846</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>375408.09035405744</v>
+        <v>13.479159127084351</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>900134.1713505243</v>
+        <v>11.180891005202518</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>581306.84696563846</v>
+        <v>12.276359763452311</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>118396.3927753975</v>
+        <v>1.7291355811560003</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>365621.26291548985</v>
+        <v>4.1161022141290751</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>344.08776900000021</v>
+        <v>1.3149660000000001</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9302,46 +9302,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>1763.7615969999999</v>
+        <v>6.1605270000000001</v>
       </c>
       <c r="I78">
-        <v>1609.378418</v>
+        <v>7.8133689999999998</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>-154.38317899999993</v>
+        <v>1.6528419999999997</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>560.89561347222207</v>
+        <v>-3.2814484351851849</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>707.23948392592592</v>
+        <v>-3.2917109351851845</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>314603.88921238034</v>
+        <v>10.767903832779298</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>500187.68762381002</v>
+        <v>10.835360880817722</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>396687.52420840994</v>
+        <v>10.801579697345385</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>23834.165958146019</v>
+        <v>2.7318866769639989</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>305650.09389634844</v>
+        <v>2.6858913867150216</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>154.38317899999993</v>
+        <v>1.6528419999999997</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9369,46 +9369,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>1381.885986</v>
+        <v>8.5957170000000005</v>
       </c>
       <c r="I79">
-        <v>1348.593018</v>
+        <v>10.50104</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>-33.292967999999973</v>
+        <v>1.9053229999999992</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>300.11021347222209</v>
+        <v>-0.593777435185185</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>325.36387292592599</v>
+        <v>-0.85652093518518413</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>90066.140230342717</v>
+        <v>0.3525716425350966</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>105861.64980535812</v>
+        <v>0.73362811241050241</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>97645.021359948587</v>
+        <v>0.50858280407667467</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>1108.4217182490222</v>
+        <v>3.6302557343289972</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>85305.413504249314</v>
+        <v>1.0999857711598195</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>33.292967999999973</v>
+        <v>1.9053229999999992</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9436,46 +9436,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>694.88903800000003</v>
+        <v>10.185598000000001</v>
       </c>
       <c r="I80">
-        <v>855.28253199999995</v>
+        <v>12.243783000000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>160.39349399999992</v>
+        <v>2.0581849999999999</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-193.200272527778</v>
+        <v>1.1489655648148158</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-361.63307507407399</v>
+        <v>0.73336006481481597</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>37326.345304807692</v>
+        <v>1.3201218691302288</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>130778.48098753083</v>
+        <v>0.53781698466519112</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>69867.608659369493</v>
+        <v>0.84260546108258494</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>25726.07291752801</v>
+        <v>4.236125494225</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>40497.368990868832</v>
+        <v>7.7927238488919546</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>160.39349399999992</v>
+        <v>2.0581849999999999</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9503,46 +9503,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>449.42630000000003</v>
+        <v>12.135494</v>
       </c>
       <c r="I81">
-        <v>589.57531700000004</v>
+        <v>16.326910000000002</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>140.14901700000001</v>
+        <v>4.191416000000002</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-458.9074875277779</v>
+        <v>5.2320925648148169</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-607.09581307407393</v>
+        <v>2.6832560648148149</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>210596.08210905764</v>
+        <v>27.374792606790489</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>368565.3262520709</v>
+        <v>7.1998631093654861</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>278600.81426645676</v>
+        <v>14.039044106211858</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>19641.746966066294</v>
+        <v>17.567968085056016</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>218039.31036384281</v>
+        <v>47.261115998745218</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>140.14901700000001</v>
+        <v>4.191416000000002</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9570,46 +9570,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>358.43609600000002</v>
+        <v>13.727627</v>
       </c>
       <c r="I82">
-        <v>456.26327500000002</v>
+        <v>18.894119</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>97.827179000000001</v>
+        <v>5.1664919999999999</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-592.21952952777792</v>
+        <v>7.7993015648148152</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-698.08601707407399</v>
+        <v>4.2753890648148154</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>350723.97115410265</v>
+        <v>60.829104898922822</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>487324.08723434433</v>
+        <v>18.278951655538101</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>413420.17260152847</v>
+        <v>33.345048623402342</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>9570.1569510980407</v>
+        <v>26.692639586063997</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>360310.67268603737</v>
+        <v>89.149118042108555</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>97.827179000000001</v>
+        <v>5.1664919999999999</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9637,46 +9637,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>300.15698200000003</v>
+        <v>15.084669999999999</v>
       </c>
       <c r="I83">
-        <v>381.15924100000001</v>
+        <v>17.526512</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>81.002258999999981</v>
+        <v>2.4418420000000012</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-667.32356352777788</v>
+        <v>6.4316945648148156</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-756.36513107407404</v>
+        <v>5.6324320648148145</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>445320.73843941221</v>
+        <v>41.366694975068441</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>572088.21150470118</v>
+        <v>31.724290964754076</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>504740.27459650591</v>
+        <v>36.226082697958134</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>6561.3659631030778</v>
+        <v>5.9625923529640055</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>456115.00897614198</v>
+        <v>65.193901673741166</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>81.002258999999981</v>
+        <v>2.4418420000000012</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9704,46 +9704,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>349.01693699999998</v>
+        <v>13.913895999999999</v>
       </c>
       <c r="I84">
-        <v>357.50091600000002</v>
+        <v>14.350834000000001</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>8.4839790000000335</v>
+        <v>0.43693800000000138</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-690.98188852777798</v>
+        <v>3.256016564814816</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-707.50517607407403</v>
+        <v>4.4616580648148148</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>477455.97027341463</v>
+        <v>10.601643870348475</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>500563.57417160651</v>
+        <v>19.906392687327077</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>488873.26270684175</v>
+        <v>14.527232565576654</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>71.977899672441566</v>
+        <v>0.19091481584400122</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>488630.63395887148</v>
+        <v>23.996243406219204</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>8.4839790000000335</v>
+        <v>0.43693800000000138</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9771,46 +9771,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>2405.686279</v>
+        <v>10.185138</v>
       </c>
       <c r="I85">
-        <v>1041.809814</v>
+        <v>11.847716</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-1363.8764650000001</v>
+        <v>1.6625779999999999</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>-6.6729905277779835</v>
+        <v>0.75289856481481543</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>1349.164165925926</v>
+        <v>0.73290006481481562</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>44.528802583814688</v>
+        <v>0.5668562489002088</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>1820243.9466185996</v>
+        <v>0.53714250500556093</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>-9002.9596996411874</v>
+        <v>0.55179940695175989</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>1860159.0117808965</v>
+        <v>2.7641656060839996</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>216.45174404500025</v>
+        <v>5.7383151590089332</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1363.8764650000001</v>
+        <v>1.6625779999999999</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9838,46 +9838,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>1382.7768550000001</v>
+        <v>8.0148329999999994</v>
       </c>
       <c r="I86">
-        <v>1006.809875</v>
+        <v>10.713042</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-375.96698000000004</v>
+        <v>2.6982090000000003</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-41.67292952777791</v>
+        <v>-0.38177543518518497</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>326.25474192592606</v>
+        <v>-1.4374049351851852</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>1736.633055427144</v>
+        <v>0.14575248291083737</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>106442.15662915261</v>
+        <v>2.0661329476947263</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>-13595.990868382485</v>
+        <v>0.54876589466765668</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>141351.17005032042</v>
+        <v>7.2803318076810015</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>2471.3066143334108</v>
+        <v>1.5896268898535606</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>375.96698000000004</v>
+        <v>2.6982090000000003</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9905,46 +9905,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>516.87701400000003</v>
+        <v>4.560098</v>
       </c>
       <c r="I87">
-        <v>1003.057678</v>
+        <v>6.493347</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>486.18066399999998</v>
+        <v>1.933249</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-45.425126527777934</v>
+        <v>-4.6014704351851847</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-539.64509907407398</v>
+        <v>-4.8921399351851846</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>2063.4421200646348</v>
+        <v>21.173530165883335</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>291216.8329546671</v>
+        <v>23.933033145433704</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>24513.446905535071</v>
+        <v>22.511037276543394</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>236371.63804748087</v>
+        <v>3.737451696001</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>2858.4458177898746</v>
+        <v>8.7550355663210571</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>486.18066399999998</v>
+        <v>1.933249</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9972,46 +9972,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>905.80480999999997</v>
+        <v>3.8927480000000001</v>
       </c>
       <c r="I88">
-        <v>853.50561500000003</v>
+        <v>4.2790330000000001</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-52.299194999999941</v>
+        <v>0.38628499999999999</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-194.97718952777791</v>
+        <v>-6.8157844351851846</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-150.71730307407404</v>
+        <v>-5.5594899351851845</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>38016.104436151028</v>
+        <v>46.454917466912626</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>22715.705445922289</v>
+        <v>30.907928339425368</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>29386.436166589279</v>
+        <v>37.892284967803874</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>2735.2057976480187</v>
+        <v>0.14921610122499998</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>41215.698490260482</v>
+        <v>26.762049301424348</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>52.299194999999941</v>
+        <v>0.38628499999999999</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10039,46 +10039,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>2773.8715820000002</v>
+        <v>5.2789570000000001</v>
       </c>
       <c r="I89">
-        <v>1857.5124510000001</v>
+        <v>5.7391360000000002</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-916.35913100000016</v>
+        <v>0.46017900000000012</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>809.02964647222211</v>
+        <v>-5.3556814351851845</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>1717.3494689259262</v>
+        <v>-4.1732809351851845</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>654528.96887096867</v>
+        <v>28.683323635187236</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>2949289.1984201609</v>
+        <v>17.416273763980129</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>1389386.6337144005</v>
+        <v>22.350763228383556</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>839714.05696707545</v>
+        <v>0.21176471204100011</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>641585.52145068918</v>
+        <v>13.787125981075961</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>916.35913100000016</v>
+        <v>0.46017900000000012</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10106,46 +10106,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>2821.6750489999999</v>
+        <v>5.8748389999999997</v>
       </c>
       <c r="I90">
-        <v>2413.1938479999999</v>
+        <v>6.6877690000000003</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>-408.48120100000006</v>
+        <v>0.8129300000000006</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>1364.7110434722219</v>
+        <v>-4.4070484351851844</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>1765.1529359259259</v>
+        <v>-3.5773989351851849</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>1862436.2321750408</v>
+        <v>19.422075910068184</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>3115764.887207916</v>
+        <v>12.797783141464095</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>2408923.7050755266</v>
+        <v>15.765770379341014</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>166856.89157040245</v>
+        <v>0.66085518490000095</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>1840558.1963469216</v>
+        <v>7.6422884936039068</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>408.48120100000006</v>
+        <v>0.8129300000000006</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10173,46 +10173,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>1691.4564210000001</v>
+        <v>6.6104690000000002</v>
       </c>
       <c r="I91">
-        <v>1843.8084719999999</v>
+        <v>8.1786799999999999</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>152.35205099999985</v>
+        <v>1.5682109999999998</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>795.32566747222199</v>
+        <v>-2.9161374351851848</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>634.93430792592608</v>
+        <v>-2.8417689351851845</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>632542.91734013543</v>
+        <v>8.5038575408884274</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>403141.57538137474</v>
+        <v>8.0756506809835376</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>504979.55225220049</v>
+        <v>8.2869887740398571</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>23211.147443906553</v>
+        <v>2.4592857405209996</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>619819.81095084187</v>
+        <v>1.621949814273151</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>152.35205099999985</v>
+        <v>1.5682109999999998</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10240,46 +10240,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>1785.1719969999999</v>
+        <v>8.5207829999999998</v>
       </c>
       <c r="I92">
-        <v>1872.5166019999999</v>
+        <v>10.853664</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>87.344605000000001</v>
+        <v>2.3328810000000004</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>824.03379747222198</v>
+        <v>-0.24115343518518451</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>728.64988392592591</v>
+        <v>-0.93145493518518485</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>679031.6993764909</v>
+        <v>5.8154979301614985E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>530930.65334526531</v>
+        <v>0.86760829628083691</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>600432.13087917445</v>
+        <v>0.2246235573401007</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>7629.0800226060255</v>
+        <v>5.4423337601610022</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>665847.00595748296</v>
+        <v>1.9639950151423398</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>87.344605000000001</v>
+        <v>2.3328810000000004</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10307,46 +10307,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>858.02258300000005</v>
+        <v>11.018535999999999</v>
       </c>
       <c r="I93">
-        <v>1033.8005370000001</v>
+        <v>14.339339000000001</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>175.77795400000002</v>
+        <v>3.3208030000000015</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>-14.682267527777867</v>
+        <v>3.244521564814816</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-198.49953007407396</v>
+        <v>1.5662980648148146</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>215.56897975724041</v>
+        <v>10.526920184548382</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>39402.063439628189</v>
+        <v>2.4532896278426333</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>2914.4232046857423</v>
+        <v>5.0818878482193801</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>30897.889112426124</v>
+        <v>11.027732564809011</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>516.27001928992922</v>
+        <v>23.883756817714108</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>175.77795400000002</v>
+        <v>3.3208030000000015</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10374,46 +10374,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>401.760559</v>
+        <v>13.730498000000001</v>
       </c>
       <c r="I94">
-        <v>625.26245100000006</v>
+        <v>18.666298000000001</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>223.50189200000005</v>
+        <v>4.9358000000000004</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-423.22035352777789</v>
+        <v>7.5714805648148165</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-654.76155407407396</v>
+        <v>4.2782600648148161</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>179115.46764017729</v>
+        <v>57.327317943368492</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>428712.69269349647</v>
+        <v>18.303509182189273</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>277108.41639162682</v>
+        <v>32.392762931968754</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>49953.09572757969</v>
+        <v>24.362121640000005</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>185984.89613224447</v>
+        <v>84.898902878015221</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>223.50189200000005</v>
+        <v>4.9358000000000004</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10441,46 +10441,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>355.96896400000003</v>
+        <v>14.956518000000001</v>
       </c>
       <c r="I95">
-        <v>524.06451400000003</v>
+        <v>18.377521999999999</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>168.09555</v>
+        <v>3.4210039999999982</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-524.41829052777791</v>
+        <v>7.2827045648148143</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-700.55314907407399</v>
+        <v>5.5042800648148162</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>275014.54344007687</v>
+        <v>53.037785778374534</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>490774.7146776017</v>
+        <v>30.297099031917799</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>367382.88486127742</v>
+        <v>40.086045554046045</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>28256.113929802501</v>
+        <v>11.703268368015987</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>283511.09481172729</v>
+        <v>79.660695637637261</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>168.09555</v>
+        <v>3.4210039999999982</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10508,46 +10508,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>578.98370399999999</v>
+        <v>13.544943999999999</v>
       </c>
       <c r="I96">
-        <v>519.48230000000001</v>
+        <v>14.019964</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-59.50140399999998</v>
+        <v>0.47502000000000066</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-529.00050452777793</v>
+        <v>2.9251465648148152</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-477.53840907407402</v>
+        <v>4.0927060648148146</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>279841.53379064362</v>
+        <v>8.5564824256479142</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>228042.93214099767</v>
+        <v>16.750242932971965</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>252618.05933157756</v>
+        <v>11.971765086289816</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>3540.4170779712135</v>
+        <v>0.22564400040000063</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>288411.76082663634</v>
+        <v>20.864121403188637</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>59.50140399999998</v>
+        <v>0.47502000000000066</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10575,46 +10575,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>1514.574707</v>
+        <v>10.999205</v>
       </c>
       <c r="I97">
-        <v>915.51599099999999</v>
+        <v>11.267341</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-599.058716</v>
+        <v>0.26813600000000015</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-132.96681352777796</v>
+        <v>0.17252356481481534</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>458.05259392592598</v>
+        <v>1.5469670648148153</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>17680.173499730874</v>
+        <v>2.976438041641179E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>209812.17880226925</v>
+        <v>2.3931070996217647</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>-60905.793842463601</v>
+        <v>0.26688827267296344</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>358871.34521556867</v>
+        <v>7.1896914496000081E-2</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>19882.726462368668</v>
+        <v>3.2945991359001359</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>599.058716</v>
+        <v>0.26813600000000015</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10642,46 +10642,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>2058.774414</v>
+        <v>8.0877579999999991</v>
       </c>
       <c r="I98">
-        <v>1592.2476810000001</v>
+        <v>9.4617199999999997</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>-466.52673299999992</v>
+        <v>1.3739620000000006</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>543.76487647222211</v>
+        <v>-1.633097435185185</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>1002.252300925926</v>
+        <v>-1.3644799351851855</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>295680.24088485097</v>
+        <v>2.6670072328084298</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>1004509.6747113129</v>
+        <v>1.861805493522968</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>544989.59860698646</v>
+        <v>2.2283286825125739</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>217647.19260365321</v>
+        <v>1.8877715774440016</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>287001.88412955601</v>
+        <v>8.9909553152353779E-5</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>466.52673299999992</v>
+        <v>1.3739620000000006</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10709,46 +10709,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>891.30712900000003</v>
+        <v>5.8003999999999998</v>
       </c>
       <c r="I99">
-        <v>916.08667000000003</v>
+        <v>6.4049060000000004</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>24.779540999999995</v>
+        <v>0.60450600000000065</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-132.39613452777792</v>
+        <v>-4.6899114351851843</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-165.21498407407398</v>
+        <v>-3.6518379351851848</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>17528.736437897467</v>
+        <v>21.995269269880755</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>27295.990962596519</v>
+        <v>13.335920304857595</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>21873.825257475786</v>
+        <v>17.126796491668049</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>614.0256521706807</v>
+        <v>0.36542750403600077</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>19722.113671411476</v>
+        <v>9.2862319231994803</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>24.779540999999995</v>
+        <v>0.60450600000000065</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10776,46 +10776,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>1632.2181399999999</v>
+        <v>5.6153320000000004</v>
       </c>
       <c r="I100">
-        <v>1438.466553</v>
+        <v>6.5747650000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-193.75158699999997</v>
+        <v>0.95943299999999976</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>389.98374847222203</v>
+        <v>-4.5200524351851845</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>575.69602692592593</v>
+        <v>-3.8369059351851842</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>152087.32407244534</v>
+        <v>20.430874016823516</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>331425.91541829641</v>
+        <v>14.721847155459292</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>224512.09456113787</v>
+        <v>17.34301601591028</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>37539.677465018562</v>
+        <v>0.92051168148899953</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>145881.55519032927</v>
+        <v>8.2798504927232415</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>193.75158699999997</v>
+        <v>0.95943299999999976</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10843,46 +10843,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>872.39831500000003</v>
+        <v>4.89405</v>
       </c>
       <c r="I101">
-        <v>1156.155518</v>
+        <v>5.9763390000000003</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>283.757203</v>
+        <v>1.0822890000000003</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>107.67271347222209</v>
+        <v>-5.1184784351851844</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-184.12379807407399</v>
+        <v>-4.5581879351851846</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>11593.413226471235</v>
+        <v>26.198821491455774</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>33901.57301722237</v>
+        <v>20.777077252467777</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>-19825.108953447045</v>
+        <v>23.33098664976665</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>80518.150254383218</v>
+        <v>1.1713494795210007</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>9926.8153771335383</v>
+        <v>12.081873407621499</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>283.757203</v>
+        <v>1.0822890000000003</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10910,46 +10910,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>1371.462769</v>
+        <v>5.731071</v>
       </c>
       <c r="I102">
-        <v>1003.138733</v>
+        <v>7.1298199999999996</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-368.32403599999998</v>
+        <v>1.3987489999999996</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-45.344071527777942</v>
+        <v>-3.9649974351851851</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>314.94065592592597</v>
+        <v>-3.7211669351851846</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>2056.0848227162423</v>
+        <v>15.721204661025096</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>99187.616755052484</v>
+        <v>13.8470833595155</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>-14280.69162931049</v>
+        <v>14.754417353905174</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>135662.59549532927</v>
+        <v>1.9564987650009988</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>2849.7852681330423</v>
+        <v>5.3936250656698181</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>368.32403599999998</v>
+        <v>1.3987489999999996</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10977,46 +10977,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>1466.903198</v>
+        <v>7.1734150000000003</v>
       </c>
       <c r="I103">
-        <v>1613.4224850000001</v>
+        <v>8.4933680000000003</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>146.51928700000008</v>
+        <v>1.3199529999999999</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>564.93968047222211</v>
+        <v>-2.6014494351851845</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>410.38108492592596</v>
+        <v>-2.2788229351851843</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>319156.8425720564</v>
+        <v>6.7675391638253153</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>168412.63486498006</v>
+        <v>5.1930339699260184</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>231840.55898989647</v>
+        <v>5.9282426376245416</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>21467.901462988393</v>
+        <v>1.7422759222089998</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>310138.02425123478</v>
+        <v>0.91943155260203968</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>146.51928700000008</v>
+        <v>1.3199529999999999</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11044,46 +11044,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>720.18591300000003</v>
+        <v>9.9253230000000006</v>
       </c>
       <c r="I104">
-        <v>1045.286255</v>
+        <v>11.405948</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>325.10034199999996</v>
+        <v>1.4806249999999999</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>-3.196549527777961</v>
+        <v>0.31113056481481571</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-336.33620007407399</v>
+        <v>0.47308506481481594</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>10.217928883537505</v>
+        <v>9.6802228361986237E-2</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>113122.03948026753</v>
+        <v>0.2238094785508386</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>1075.1153215214149</v>
+        <v>0.14719122342128738</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>105690.23236851694</v>
+        <v>2.1922503906249995</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>126.24450666073459</v>
+        <v>3.8169830173587118</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>325.10034199999996</v>
+        <v>1.4806249999999999</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11111,46 +11111,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>342.06536899999998</v>
+        <v>11.859914</v>
       </c>
       <c r="I105">
-        <v>603.66247599999997</v>
+        <v>14.580590000000001</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>261.59710699999999</v>
+        <v>2.720676000000001</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-444.82032852777797</v>
+        <v>3.4857725648148161</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-714.45674407407409</v>
+        <v>2.4076760648148152</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>197865.12467156033</v>
+        <v>12.150610373615661</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>510448.43915292702</v>
+        <v>5.7969040330821544</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>317804.8836179162</v>
+        <v>8.3926111716927814</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>68433.04639076945</v>
+        <v>7.4020778969760057</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>205081.85089086206</v>
+        <v>26.29999490069039</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>261.59710699999999</v>
+        <v>2.720676000000001</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11178,46 +11178,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>309.22595200000001</v>
+        <v>14.195662</v>
       </c>
       <c r="I106">
-        <v>478.86398300000002</v>
+        <v>18.980105999999999</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>169.63803100000001</v>
+        <v>4.7844439999999988</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-569.61882152777798</v>
+        <v>7.8852885648148145</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-747.29616107407401</v>
+        <v>4.7434240648148158</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>324465.60183869459</v>
+        <v>62.177775750399277</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>558451.55235604837</v>
+        <v>22.50007185866431</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>425673.9586032466</v>
+        <v>37.40326753635167</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>28777.061561556966</v>
+        <v>22.89090438913599</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>333688.91524067585</v>
+        <v>90.780269860518004</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>169.63803100000001</v>
+        <v>4.7844439999999988</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11245,46 +11245,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>289.345032</v>
+        <v>15.346171</v>
       </c>
       <c r="I107">
-        <v>422.33435100000003</v>
+        <v>18.686962000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>132.98931900000002</v>
+        <v>3.3407910000000012</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-626.14845352777797</v>
+        <v>7.5921445648148165</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-767.17708107407407</v>
+        <v>5.8939330648148154</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>392061.88585522794</v>
+        <v>57.640659093047162</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>588560.67372533644</v>
+        <v>34.738446972517366</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>480366.74289648625</v>
+        <v>44.747591883416135</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>17686.158968083768</v>
+        <v>11.160884505681008</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>402194.11756452237</v>
+        <v>85.28012855326989</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>132.98931900000002</v>
+        <v>3.3407910000000012</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11312,46 +11312,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>281.96933000000001</v>
+        <v>14.256568</v>
       </c>
       <c r="I108">
-        <v>392.29061899999999</v>
+        <v>13.893890000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>110.32128899999998</v>
+        <v>-0.36267799999999895</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-656.19218552777795</v>
+        <v>2.799072564814816</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-774.552783074074</v>
+        <v>4.8043300648148151</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>430588.18434772175</v>
+        <v>7.8348072230989922</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>599932.01376779354</v>
+        <v>23.081587371683526</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>508255.48353199952</v>
+        <v>13.447668476738135</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>12170.786806621516</v>
+        <v>0.13153533168399922</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>441203.47771987662</v>
+        <v>19.728273064873719</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>110.32128899999998</v>
+        <v>0.36267799999999895</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11379,46 +11379,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>383.39123499999999</v>
+        <v>12.429778000000001</v>
       </c>
       <c r="I109">
-        <v>393.68478399999998</v>
+        <v>12.614584000000001</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>10.293548999999985</v>
+        <v>0.18480600000000003</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-654.79802052777791</v>
+        <v>1.519766564814816</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-673.13087807407396</v>
+        <v>2.977540064814816</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>428760.44768709625</v>
+        <v>2.3096904115290262</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>453105.17901677382</v>
+        <v>8.8657448375774184</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>440764.76651902864</v>
+        <v>4.5251658359020972</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>105.95715101540068</v>
+        <v>3.4153257636000009E-2</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>439353.32481405226</v>
+        <v>10.000432633649753</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>10.293548999999985</v>
+        <v>0.18480600000000003</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11446,46 +11446,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>927.26355000000001</v>
+        <v>9.0345519999999997</v>
       </c>
       <c r="I110">
-        <v>512.39947500000005</v>
+        <v>9.8861899999999991</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-414.86407499999996</v>
+        <v>0.85163799999999945</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-536.08332952777789</v>
+        <v>-1.2086274351851856</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-129.258563074074</v>
+        <v>-0.41768593518518493</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>287385.33619758813</v>
+        <v>1.4607802770823199</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>16707.776127974368</v>
+        <v>0.17446154045152251</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>69293.36086272588</v>
+        <v>0.50482668055579571</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>172112.20072560559</v>
+        <v>0.72528728304399903</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>296069.44526468968</v>
+        <v>0.18831439455704099</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>414.86407499999996</v>
+        <v>0.85163799999999945</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11513,46 +11513,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>1427.7319339999999</v>
+        <v>6.5480689999999999</v>
       </c>
       <c r="I111">
-        <v>1060.9879149999999</v>
+        <v>7.5468070000000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-366.74401899999998</v>
+        <v>0.99873800000000035</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>12.505110472221986</v>
+        <v>-3.5480104351851844</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>371.2098209259259</v>
+        <v>-2.9041689351851847</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>156.37778792247599</v>
+        <v>12.588378048182962</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>137796.73115185797</v>
+        <v>8.4341972040946498</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>4642.0198190524443</v>
+        <v>10.304021687577681</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>134501.17547227236</v>
+        <v>0.99747759264400071</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>19.943386841603623</v>
+        <v>3.630667048760686</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>366.74401899999998</v>
+        <v>0.99873800000000035</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8D8AF-63D4-45BC-A6A7-C169A7CA6E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D917105-982A-4C7C-9E32-547A08220528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,328 +852,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.8202920000000002</c:v>
+                  <c:v>5.8116019999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9174030000000002</c:v>
+                  <c:v>5.9468069999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0693089999999996</c:v>
+                  <c:v>6.1231640000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6768650000000003</c:v>
+                  <c:v>6.7148019999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0729710000000008</c:v>
+                  <c:v>8.1224790000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.310928000000001</c:v>
+                  <c:v>10.368868000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.692622999999999</c:v>
+                  <c:v>12.784416999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.865622</c:v>
+                  <c:v>13.967082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.790706999999999</c:v>
+                  <c:v>12.866607999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.081913999999999</c:v>
+                  <c:v>11.158422</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3434299999999997</c:v>
+                  <c:v>8.3720230000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9622609999999998</c:v>
+                  <c:v>5.9794119999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1064930000000004</c:v>
+                  <c:v>5.1166239999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6125559999999997</c:v>
+                  <c:v>4.6176500000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4861620000000002</c:v>
+                  <c:v>5.4936290000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9355869999999999</c:v>
+                  <c:v>5.9458070000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.5782800000000003</c:v>
+                  <c:v>7.602169</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.6720710000000008</c:v>
+                  <c:v>9.722156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.291582999999999</c:v>
+                  <c:v>12.284406000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.873253</c:v>
+                  <c:v>13.916598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.524761</c:v>
+                  <c:v>13.562449000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.462643</c:v>
+                  <c:v>11.493366</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.9966720000000002</c:v>
+                  <c:v>9.0158109999999994</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.393554</c:v>
+                  <c:v>6.4194360000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2381729999999997</c:v>
+                  <c:v>5.245177</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.05105</c:v>
+                  <c:v>5.0537679999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.7041890000000004</c:v>
+                  <c:v>4.7173579999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.78416</c:v>
+                  <c:v>6.7963040000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.5450079999999993</c:v>
+                  <c:v>8.569051</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.039804</c:v>
+                  <c:v>10.027310999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.209507</c:v>
+                  <c:v>13.222445</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.471056000000001</c:v>
+                  <c:v>14.489941</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.034072</c:v>
+                  <c:v>14.065899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.927625000000001</c:v>
+                  <c:v>11.951362</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.7805119999999999</c:v>
+                  <c:v>8.7939129999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.4185600000000003</c:v>
+                  <c:v>5.4329580000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.487285</c:v>
+                  <c:v>4.5168200000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.5380079999999996</c:v>
+                  <c:v>4.5455240000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.9891019999999999</c:v>
+                  <c:v>6.0120979999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.1827540000000001</c:v>
+                  <c:v>7.1983870000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.2055249999999997</c:v>
+                  <c:v>9.2191130000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.538337</c:v>
+                  <c:v>11.558054</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.708549</c:v>
+                  <c:v>13.739312</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.568191000000001</c:v>
+                  <c:v>14.601336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.419032</c:v>
+                  <c:v>13.449405</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10.593218999999999</c:v>
+                  <c:v>10.633471</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.6587770000000006</c:v>
+                  <c:v>8.6755309999999994</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.7266870000000001</c:v>
+                  <c:v>5.7623800000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.585604</c:v>
+                  <c:v>5.5897990000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.2912280000000003</c:v>
+                  <c:v>5.2787759999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.3648740000000004</c:v>
+                  <c:v>6.3668060000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.6323100000000004</c:v>
+                  <c:v>7.6484620000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3850379999999998</c:v>
+                  <c:v>9.3984170000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.610981000000001</c:v>
+                  <c:v>11.638714</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.79973</c:v>
+                  <c:v>13.820983</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14.901332999999999</c:v>
+                  <c:v>14.928369</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.157674999999999</c:v>
+                  <c:v>14.191447999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.445987000000001</c:v>
+                  <c:v>12.483772</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.0372620000000001</c:v>
+                  <c:v>9.0472819999999992</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9718749999999998</c:v>
+                  <c:v>6.9741989999999996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.2968140000000004</c:v>
+                  <c:v>6.3042600000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.9573999999999998</c:v>
+                  <c:v>6.9640209999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.9527080000000003</c:v>
+                  <c:v>7.9770110000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.1538699999999995</c:v>
+                  <c:v>8.1857310000000005</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.582678</c:v>
+                  <c:v>10.625261999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.866313</c:v>
+                  <c:v>13.922245999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.659742000000001</c:v>
+                  <c:v>17.695663</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18.425664999999999</c:v>
+                  <c:v>18.530918</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15.563864000000001</c:v>
+                  <c:v>15.653884</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13.997923</c:v>
+                  <c:v>14.092393</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.3817280000000007</c:v>
+                  <c:v>8.4108440000000009</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.4533620000000003</c:v>
+                  <c:v>6.4633950000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.010999</c:v>
+                  <c:v>5.0245389999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.1084540000000001</c:v>
+                  <c:v>6.1121150000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.1605270000000001</c:v>
+                  <c:v>6.1635179999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.5957170000000005</c:v>
+                  <c:v>8.6088609999999992</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.185598000000001</c:v>
+                  <c:v>10.209149999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.135494</c:v>
+                  <c:v>12.172535</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.727627</c:v>
+                  <c:v>13.776844000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.084669999999999</c:v>
+                  <c:v>15.134320000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.913895999999999</c:v>
+                  <c:v>13.969346</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.185138</c:v>
+                  <c:v>10.209688</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.0148329999999994</c:v>
+                  <c:v>8.0216259999999995</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.560098</c:v>
+                  <c:v>4.5843800000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.8927480000000001</c:v>
+                  <c:v>3.9162780000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.2789570000000001</c:v>
+                  <c:v>5.2744390000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.8748389999999997</c:v>
+                  <c:v>5.86911</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.6104690000000002</c:v>
+                  <c:v>6.618493</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.5207829999999998</c:v>
+                  <c:v>8.5456400000000006</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.018535999999999</c:v>
+                  <c:v>11.024537</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.730498000000001</c:v>
+                  <c:v>13.768291</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.956518000000001</c:v>
+                  <c:v>14.999605000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.544943999999999</c:v>
+                  <c:v>13.57985</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.999205</c:v>
+                  <c:v>11.024760000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.0877579999999991</c:v>
+                  <c:v>8.0972089999999994</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.8003999999999998</c:v>
+                  <c:v>5.8116279999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.6153320000000004</c:v>
+                  <c:v>5.617127</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.89405</c:v>
+                  <c:v>4.9062659999999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.731071</c:v>
+                  <c:v>5.7414849999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.1734150000000003</c:v>
+                  <c:v>7.1856260000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.9253230000000006</c:v>
+                  <c:v>9.9552870000000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11.859914</c:v>
+                  <c:v>11.90559</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>14.195662</c:v>
+                  <c:v>14.251386</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>15.346171</c:v>
+                  <c:v>15.404261999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>14.256568</c:v>
+                  <c:v>14.320114999999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12.429778000000001</c:v>
+                  <c:v>12.483866000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.0345519999999997</c:v>
+                  <c:v>9.0680689999999995</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.5480689999999999</c:v>
+                  <c:v>6.562208</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.7262389999999996</c:v>
@@ -3747,7 +3747,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+      <selection activeCell="H3" sqref="H3:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-1.6425795000000001</v>
+        <v>-1.6152488333333324</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3793,7 +3793,7 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>9.4522379351851846</v>
+        <v>9.4795686018518523</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
@@ -3807,12 +3807,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>4.7838187550420193</v>
+        <v>4.682232408385075</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>1.7022439444444446</v>
+        <v>1.6797946851851848</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>0.17377678294424137</v>
+        <v>0.17039265194175507</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.75626775042597505</v>
+        <v>0.76144350437162933</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -3938,14 +3938,14 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5.8202920000000002</v>
+        <v>5.8116019999999997</v>
       </c>
       <c r="I4">
         <v>6.54711</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.72681799999999974</v>
+        <v>0.73550800000000027</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-3.6319459351851844</v>
+        <v>-3.6679666018518526</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
@@ -3961,23 +3961,23 @@
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>13.191031276108184</v>
+        <v>13.453978992300627</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>16.517027533632273</v>
+        <v>16.680838987252606</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>0.52826440512399964</v>
+        <v>0.54097201806400042</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>8.439768319793334</v>
+        <v>8.5993134515749201</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.72681799999999974</v>
+        <v>0.73550800000000027</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.46290038436311748</v>
+        <v>0.45887503225400533</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -4037,14 +4037,14 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>5.9174030000000002</v>
+        <v>5.9468069999999997</v>
       </c>
       <c r="I5">
         <v>7.1049119999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>1.1875089999999995</v>
+        <v>1.1581049999999999</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-3.5348349351851844</v>
+        <v>-3.5327616018518526</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
@@ -4060,23 +4060,23 @@
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>12.495058019005647</v>
+        <v>12.480404535518868</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>14.103657120377839</v>
+        <v>14.095384716442227</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>1.4101776250809988</v>
+        <v>1.3412071910249999</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>5.5099390459930033</v>
+        <v>5.6389939767185879</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>1.1875089999999995</v>
+        <v>1.1581049999999999</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.91564141950270506</v>
+        <v>0.91520155751567467</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -4136,14 +4136,14 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>6.0693089999999996</v>
+        <v>6.1231640000000001</v>
       </c>
       <c r="I6">
         <v>7.7561590000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.6868500000000006</v>
+        <v>1.6329950000000002</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-3.382928935185185</v>
+        <v>-3.3564046018518523</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
@@ -4159,23 +4159,23 @@
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>11.44420818051317</v>
+        <v>11.265451851332291</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>11.294444225088052</v>
+        <v>11.205888535867057</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>2.8454629225000021</v>
+        <v>2.6666726700250005</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>2.876683754378909</v>
+        <v>2.9701406557551593</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>1.6868500000000006</v>
+        <v>1.6329950000000002</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>9.4522379351851846</v>
+        <v>9.4795686018518523</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4232,14 +4232,14 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>6.6768650000000003</v>
+        <v>6.7148019999999997</v>
       </c>
       <c r="I7">
         <v>8.5838889999999992</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.9070239999999989</v>
+        <v>1.8690869999999995</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7753729351851844</v>
+        <v>-2.7647666018518526</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
@@ -4255,23 +4255,23 @@
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>7.7026949293584259</v>
+        <v>7.6439343627154406</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>6.9687628211998502</v>
+        <v>6.942131077240135</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>3.6367405365759962</v>
+        <v>3.4934862135689979</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>0.75402987323724535</v>
+        <v>0.80224194917349412</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.9070239999999989</v>
+        <v>1.8690869999999995</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>3.5835385132214861</v>
+        <v>3.5988741742749535</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4328,14 +4328,14 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>8.0729710000000008</v>
+        <v>8.1224790000000002</v>
       </c>
       <c r="I8">
         <v>9.6268139999999995</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.5538429999999988</v>
+        <v>1.5043349999999993</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3792669351851838</v>
+        <v>-1.3570896018518521</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
@@ -4351,23 +4351,23 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>1.9023772784951301</v>
+        <v>1.8416921874544185</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>2.0247685988891919</v>
+        <v>1.9922121973726141</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>2.4144280686489963</v>
+        <v>2.2630237922249981</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>3.0476802406226456E-2</v>
+        <v>2.1681207275806389E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>1.5538429999999988</v>
+        <v>1.5043349999999993</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4424,14 +4424,14 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>10.310928000000001</v>
+        <v>10.368868000000001</v>
       </c>
       <c r="I9">
         <v>12.364478</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>2.0535499999999995</v>
+        <v>1.9956099999999992</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.85869006481481591</v>
+        <v>0.88929939814814851</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
@@ -4447,23 +4447,23 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>0.73734862741167273</v>
+        <v>0.79085341954665922</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.0902449126936495</v>
+        <v>1.1291083761422536</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>4.2170676024999985</v>
+        <v>3.9824592720999967</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>8.4811421951126</v>
+        <v>8.3227022355235079</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>2.0535499999999995</v>
+        <v>1.9956099999999992</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4519,14 +4519,14 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>12.692622999999999</v>
+        <v>12.784416999999999</v>
       </c>
       <c r="I10">
         <v>17.944284</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>5.2516610000000004</v>
+        <v>5.1598670000000002</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>3.2403850648148147</v>
+        <v>3.3048483981481471</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
@@ -4542,23 +4542,23 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>10.500095368274911</v>
+        <v>10.922022934742374</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>22.194909158574362</v>
+        <v>22.636448604897534</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>27.579943258921002</v>
+        <v>26.624227457689003</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>72.114846366936789</v>
+        <v>71.65140677164635</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>5.2516610000000004</v>
+        <v>5.1598670000000002</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>2.1871942655013568</v>
+        <v>2.1638466693333598</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4614,14 +4614,14 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>13.865622</v>
+        <v>13.967082</v>
       </c>
       <c r="I11">
         <v>17.621203999999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>3.7555819999999986</v>
+        <v>3.6541219999999992</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>4.4133840648148155</v>
+        <v>4.4875133981481472</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
@@ -4637,23 +4637,23 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>19.477958903561344</v>
+        <v>20.137776498559131</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>28.803450465975203</v>
+        <v>29.287247151100541</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>14.10439615872399</v>
+        <v>13.352607590883995</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>66.732006568096025</v>
+        <v>66.286226956378925</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>3.7555819999999986</v>
+        <v>3.6541219999999992</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.95689154009360178</v>
+        <v>0.95666167348528952</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -4710,14 +4710,14 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>12.790706999999999</v>
+        <v>12.866607999999999</v>
       </c>
       <c r="I12">
         <v>14.150831</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.3601240000000008</v>
+        <v>1.2842230000000008</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>3.3384690648148148</v>
+        <v>3.387039398148147</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
@@ -4733,23 +4733,23 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>11.145375696725504</v>
+        <v>11.472035884607761</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>10.202406747788705</v>
+        <v>10.350838345302947</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>1.849937295376002</v>
+        <v>1.649228713729002</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>22.07677678872588</v>
+        <v>21.820692392352786</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>1.3601240000000008</v>
+        <v>1.2842230000000008</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>1.7022439444444446</v>
+        <v>1.6797946851851848</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4805,14 +4805,14 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>11.081913999999999</v>
+        <v>11.158422</v>
       </c>
       <c r="I13">
         <v>11.137532999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>5.5619000000000085E-2</v>
+        <v>-2.0889000000000379E-2</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>1.6296760648148148</v>
+        <v>1.6788533981481475</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
@@ -4828,23 +4828,23 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>2.6558440762303004</v>
+        <v>2.8185487324735821</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>6.9612533573749469E-2</v>
+        <v>7.1713171143169191E-2</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>3.0934731610000096E-3</v>
+        <v>4.3635032100001586E-4</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>2.8402194554891711</v>
+        <v>2.7488459455267478</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>5.5619000000000085E-2</v>
+        <v>2.0889000000000379E-2</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4893,14 +4893,14 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>8.3434299999999997</v>
+        <v>8.3720230000000004</v>
       </c>
       <c r="I14">
         <v>9.6229460000000007</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.279516000000001</v>
+        <v>1.2509230000000002</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1088079351851849</v>
+        <v>-1.1075456018518519</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
@@ -4916,23 +4916,23 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1.2294550371296333</v>
+        <v>1.2266572601813808</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>1.6320227269057388</v>
+        <v>1.6301647345307237</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>1.6371611942560025</v>
+        <v>1.5648083519290006</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>2.9141243392819434E-2</v>
+        <v>2.0557078299732644E-2</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>1.279516000000001</v>
+        <v>1.2509230000000002</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4970,7 +4970,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.46290038436311748</v>
+        <v>0.45887503225400533</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4985,14 +4985,14 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>5.9622609999999998</v>
+        <v>5.9794119999999999</v>
       </c>
       <c r="I15">
         <v>6.9719420000000003</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.0096810000000005</v>
+        <v>0.99253000000000036</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4899769351851848</v>
+        <v>-3.5001566018518524</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
@@ -5008,23 +5008,23 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>12.179939008124576</v>
+        <v>12.251096237487106</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>14.388740175437874</v>
+        <v>14.430709673076253</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>1.019455721761001</v>
+        <v>0.98511580090000073</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>6.1518679260961484</v>
+        <v>6.2881911743150667</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>1.0096810000000005</v>
+        <v>0.99253000000000036</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5073,14 +5073,14 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5.1064930000000004</v>
+        <v>5.1166239999999998</v>
       </c>
       <c r="I16">
         <v>5.7269500000000004</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>0.62045700000000004</v>
+        <v>0.61032600000000059</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3457449351851842</v>
+        <v>-4.3629446018518525</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
@@ -5096,23 +5096,23 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>18.88549904168768</v>
+        <v>19.035285598828221</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>23.327382719201498</v>
+        <v>23.419708249797548</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>0.38496688884900004</v>
+        <v>0.3724978262760007</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>13.877770200036293</v>
+        <v>14.082146370964548</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>0.62045700000000004</v>
+        <v>0.61032600000000059</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5140,14 +5140,14 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>4.6125559999999997</v>
+        <v>4.6176500000000003</v>
       </c>
       <c r="I17">
         <v>5.5398800000000001</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>0.92732400000000048</v>
+        <v>0.92222999999999988</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-4.839681935185185</v>
+        <v>-4.8619186018518521</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
@@ -5163,23 +5163,23 @@
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>23.422521233757816</v>
+        <v>23.638252491033068</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>26.884130356149662</v>
+        <v>27.007653648250066</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>0.85992980097600091</v>
+        <v>0.8505081728999998</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>15.30654461300648</v>
+        <v>15.521146279561401</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>0.92732400000000048</v>
+        <v>0.92222999999999988</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5207,14 +5207,14 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5.4861620000000002</v>
+        <v>5.4936290000000003</v>
       </c>
       <c r="I18">
         <v>6.6660279999999998</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>1.1798659999999996</v>
+        <v>1.1723989999999995</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-3.9660759351851844</v>
+        <v>-3.985939601851852</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
@@ -5230,23 +5230,23 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>15.729758323655036</v>
+        <v>15.8877145096109</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>17.564915200890347</v>
+        <v>17.652887197967726</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>1.3920837779559991</v>
+        <v>1.374519415200999</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>7.762965802924632</v>
+        <v>7.9160107182688844</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>1.1798659999999996</v>
+        <v>1.1723989999999995</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5274,14 +5274,14 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5.9355869999999999</v>
+        <v>5.9458070000000003</v>
       </c>
       <c r="I19">
         <v>7.4212160000000003</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>1.4856290000000003</v>
+        <v>1.475409</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-3.5166509351851847</v>
+        <v>-3.5337616018518521</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
@@ -5297,23 +5297,23 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>12.366833799938833</v>
+        <v>12.487471058722567</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>12.918773922541616</v>
+        <v>12.98163169216526</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>2.2070935256410009</v>
+        <v>2.1768317172809999</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>4.1250501012033709</v>
+        <v>4.236815433550289</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>1.4856290000000003</v>
+        <v>1.475409</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5344,14 +5344,14 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>7.5782800000000003</v>
+        <v>7.602169</v>
       </c>
       <c r="I20">
         <v>8.8816199999999998</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.3033399999999995</v>
+        <v>1.2794509999999999</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8739579351851843</v>
+        <v>-1.8773996018518524</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
@@ -5367,23 +5367,23 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>3.5117183428435195</v>
+        <v>3.5246292650334938</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>4.1474388957967747</v>
+        <v>4.1550559836362071</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>1.6986951555999987</v>
+        <v>1.6369948614009997</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.32560482795500373</v>
+        <v>0.35754253045658524</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>1.3033399999999995</v>
+        <v>1.2794509999999999</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5417,14 +5417,14 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.6720710000000008</v>
+        <v>9.722156</v>
       </c>
       <c r="I21">
         <v>11.881873000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>2.2098019999999998</v>
+        <v>2.1597170000000006</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.21983306481481613</v>
+        <v>0.24258739814814767</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
@@ -5440,23 +5440,23 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>4.8326576385875147E-2</v>
+        <v>5.8848645740287919E-2</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>0.17302083699279713</v>
+        <v>0.19092976166644698</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>4.8832248792039996</v>
+        <v>4.6643775200890021</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>5.9031265481776947</v>
+        <v>5.7710664213619367</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>2.2098019999999998</v>
+        <v>2.1597170000000006</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5490,14 +5490,14 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>12.291582999999999</v>
+        <v>12.284406000000001</v>
       </c>
       <c r="I22">
         <v>16.148657</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.8570740000000008</v>
+        <v>3.8642509999999994</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.8393450648148146</v>
+        <v>2.8048373981481483</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
@@ -5513,23 +5513,23 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>8.0618803970882436</v>
+        <v>7.8671128300504742</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>14.349594426722797</v>
+        <v>14.175198215633356</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>14.877019841476006</v>
+        <v>14.932435791000996</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>44.842028291615328</v>
+        <v>44.476740062314228</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>3.8570740000000008</v>
+        <v>3.8642509999999994</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5563,14 +5563,14 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>13.873253</v>
+        <v>13.916598</v>
       </c>
       <c r="I23">
         <v>17.884912</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>4.0116589999999999</v>
+        <v>3.9683139999999995</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>4.4210150648148154</v>
+        <v>4.4370293981481481</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
@@ -5586,23 +5586,23 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>19.545374203319547</v>
+        <v>19.687229880030916</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>30.019110362563495</v>
+        <v>30.12784920028929</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>16.093407932281</v>
+        <v>15.747516002595995</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>71.109991883400426</v>
+        <v>70.649797640792656</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>4.0116589999999999</v>
+        <v>3.9683139999999995</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5636,14 +5636,14 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>13.524761</v>
+        <v>13.562449000000001</v>
       </c>
       <c r="I24">
         <v>15.402051999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>1.8772909999999996</v>
+        <v>1.8396029999999985</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>4.0725230648148152</v>
+        <v>4.0828803981481485</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
@@ -5659,23 +5659,23 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>16.585444113448656</v>
+        <v>16.669912345582382</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>17.541312110775937</v>
+        <v>17.585923574908577</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>3.5242214986809985</v>
+        <v>3.3841391976089947</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>35.400287405868191</v>
+        <v>35.075809601340424</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>1.8772909999999996</v>
+        <v>1.8396029999999985</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5709,14 +5709,14 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>11.462643</v>
+        <v>11.493366</v>
       </c>
       <c r="I25">
         <v>11.311054</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-0.15158899999999953</v>
+        <v>-0.18231199999999959</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>2.0104050648148153</v>
+        <v>2.0137973981481476</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
@@ -5732,23 +5732,23 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>4.0417285246330614</v>
+        <v>4.0553799607882492</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>0.43472308510186253</v>
+        <v>0.43545663160856912</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>2.2979224920999856E-2</v>
+        <v>3.3237665343999849E-2</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>3.4551971628136373</v>
+        <v>3.3543387636298805</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>0.15158899999999953</v>
+        <v>0.18231199999999959</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5782,14 +5782,14 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>8.9966720000000002</v>
+        <v>9.0158109999999994</v>
       </c>
       <c r="I26">
         <v>9.0141100000000005</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>1.7438000000000287E-2</v>
+        <v>-1.7009999999988423E-3</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-0.4555659351851844</v>
+        <v>-0.463757601851853</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
@@ -5805,23 +5805,23 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>0.20754032130115163</v>
+        <v>0.21507111327538181</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>0.9478994285569049</v>
+        <v>0.96494389029680083</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>3.0408384400000999E-4</v>
+        <v>2.8934009999960617E-6</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>0.1919560875896329</v>
+        <v>0.21665171003788072</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>1.7438000000000287E-2</v>
+        <v>1.7009999999988423E-3</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5855,14 +5855,14 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>6.393554</v>
+        <v>6.4194360000000001</v>
       </c>
       <c r="I27">
         <v>5.8945230000000004</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-0.49903099999999956</v>
+        <v>-0.52491299999999974</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0586839351851847</v>
+        <v>-3.0601326018518522</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
@@ -5878,23 +5878,23 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>9.3555474153599274</v>
+        <v>9.3644115409165867</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>15.906057047133837</v>
+        <v>15.913590540338946</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>0.24903193896099957</v>
+        <v>0.27553365756899972</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>12.657335560039719</v>
+        <v>12.852551967357307</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>0.49903099999999956</v>
+        <v>0.52491299999999974</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5928,14 +5928,14 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>5.2381729999999997</v>
+        <v>5.245177</v>
       </c>
       <c r="I28">
         <v>5.5910279999999997</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>0.35285499999999992</v>
+        <v>0.34585099999999969</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2140649351851849</v>
+        <v>-4.2343916018518524</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
@@ -5951,23 +5951,23 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>17.758343277957316</v>
+        <v>17.930072237833496</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>23.19332606945656</v>
+        <v>23.305199762709098</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>0.12450665102499994</v>
+        <v>0.11961291420099979</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>14.90894216357278</v>
+        <v>15.120748012250369</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>0.35285499999999992</v>
+        <v>0.34585099999999969</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -6001,14 +6001,14 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5.05105</v>
+        <v>5.0537679999999998</v>
       </c>
       <c r="I29">
         <v>5.7675640000000001</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>0.7165140000000001</v>
+        <v>0.71379600000000032</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-4.4011879351851846</v>
+        <v>-4.4258006018518525</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
@@ -6024,23 +6024,23 @@
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>19.370455240819627</v>
+        <v>19.587710967352219</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>23.446243546610862</v>
+        <v>23.57736145965994</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>0.51339231219600012</v>
+        <v>0.50950472961600046</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>13.576822008633073</v>
+        <v>13.778978164169327</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>0.7165140000000001</v>
+        <v>0.71379600000000032</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6074,14 +6074,14 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>4.7041890000000004</v>
+        <v>4.7173579999999999</v>
       </c>
       <c r="I30">
         <v>6.0292329999999996</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1.3250439999999992</v>
+        <v>1.3118749999999997</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-4.7480489351851842</v>
+        <v>-4.7622106018518524</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
@@ -6097,23 +6097,23 @@
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>22.543968690913161</v>
+        <v>22.678649816390184</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>24.051642783571662</v>
+        <v>24.123379901814616</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1.7557416019359979</v>
+        <v>1.7210160156249992</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>11.716962786302133</v>
+        <v>11.904815765406386</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>1.3250439999999992</v>
+        <v>1.3118749999999997</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6147,14 +6147,14 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6.78416</v>
+        <v>6.7963040000000001</v>
       </c>
       <c r="I31">
         <v>7.5388890000000002</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>0.75472900000000021</v>
+        <v>0.74258500000000005</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6680779351851847</v>
+        <v>-2.6832646018518522</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
@@ -6170,23 +6170,23 @@
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>7.1186398682220382</v>
+        <v>7.1999089235511793</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>9.487494197015172</v>
+        <v>9.5414968968508536</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>0.56961586344100035</v>
+        <v>0.55143248222500008</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>3.660904147774279</v>
+        <v>3.7662373170438634</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>0.75472900000000021</v>
+        <v>0.74258500000000005</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6220,14 +6220,14 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>8.5450079999999993</v>
+        <v>8.569051</v>
       </c>
       <c r="I32">
         <v>9.6521509999999999</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1.1071430000000007</v>
+        <v>1.0831</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-0.90722993518518535</v>
+        <v>-0.91051760185185238</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
@@ -6243,23 +6243,23 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>0.8230661552961156</v>
+        <v>0.82904230328204842</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>1.3088301764868977</v>
+        <v>1.3135731828369752</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1.2257656224490014</v>
+        <v>1.1731056099999999</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>3.9965233483652544E-2</v>
+        <v>2.9784684150565732E-2</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1.1071430000000007</v>
+        <v>1.0831</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6287,14 +6287,14 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>10.039804</v>
+        <v>10.027310999999999</v>
       </c>
       <c r="I33">
         <v>12.711807</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>2.6720030000000001</v>
+        <v>2.6844960000000011</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.58756606481481555</v>
+        <v>0.54774239814814685</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
@@ -6310,23 +6310,23 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>0.34523388052196802</v>
+        <v>0.300021734729083</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>0.95008819544486234</v>
+        <v>0.88569374201219542</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>7.1396000320090005</v>
+        <v>7.2065187740160059</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>10.624790488297732</v>
+        <v>10.447365062463305</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>2.6720030000000001</v>
+        <v>2.6844960000000011</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6354,14 +6354,14 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>13.209507</v>
+        <v>13.222445</v>
       </c>
       <c r="I34">
         <v>16.876681999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>3.6671749999999985</v>
+        <v>3.6542369999999984</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>3.7572690648148157</v>
+        <v>3.7428763981481481</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
@@ -6377,23 +6377,23 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>14.1170708254144</v>
+        <v>14.009123731814455</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>21.724020866327677</v>
+        <v>21.640804416934483</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>13.448172480624988</v>
+        <v>13.353448052168988</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>55.122369671563924</v>
+        <v>54.717286625062819</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>3.6671749999999985</v>
+        <v>3.6542369999999984</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6421,14 +6421,14 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>14.471056000000001</v>
+        <v>14.489941</v>
       </c>
       <c r="I35">
         <v>18.446539000000001</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>3.9754830000000005</v>
+        <v>3.9565980000000014</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>5.0188180648148162</v>
+        <v>5.0103723981481476</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
@@ -6444,23 +6444,23 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>25.188534767711538</v>
+        <v>25.103831568124821</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>36.896952996981248</v>
+        <v>36.834862807218663</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>15.804465083289005</v>
+        <v>15.654667733604011</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>80.897451644528942</v>
+        <v>80.406558121265178</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>3.9754830000000005</v>
+        <v>3.9565980000000014</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6488,14 +6488,14 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>14.034072</v>
+        <v>14.065899</v>
       </c>
       <c r="I36">
         <v>14.266251</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>0.23217900000000036</v>
+        <v>0.20035200000000053</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>4.5818340648148155</v>
+        <v>4.5863303981481476</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
@@ -6511,23 +6511,23 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>20.993203397497453</v>
+        <v>21.034426520977746</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>14.530982341565608</v>
+        <v>14.545242164017534</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>5.3907088041000167E-2</v>
+        <v>4.014092390400021E-2</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>23.174721788207737</v>
+        <v>22.912328380741307</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>0.23217900000000036</v>
+        <v>0.20035200000000053</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6555,14 +6555,14 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>11.927625000000001</v>
+        <v>11.951362</v>
       </c>
       <c r="I37">
         <v>10.601513000000001</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3261120000000002</v>
+        <v>-1.349848999999999</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>2.4753870648148162</v>
+        <v>2.4717933981481472</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
@@ -6578,23 +6578,23 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>6.127541120652511</v>
+        <v>6.1097626031287655</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-1.2211194178731835</v>
+        <v>-1.2193466461679385</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>1.7585730365440004</v>
+        <v>1.8220923228009973</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>1.3208331746050996</v>
+        <v>1.2587592325360106</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1.3261120000000002</v>
+        <v>1.349848999999999</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6622,14 +6622,14 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>8.7805119999999999</v>
+        <v>8.7939129999999999</v>
       </c>
       <c r="I38">
         <v>9.7765780000000007</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0.99606600000000078</v>
+        <v>0.98266500000000079</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-0.67172593518518475</v>
+        <v>-0.68565560185185248</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
@@ -6645,23 +6645,23 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>0.45121573200041104</v>
+        <v>0.47012360435082606</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>0.88549561739775751</v>
+        <v>0.90385825331674341</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>0.99214747635600153</v>
+        <v>0.96563050222500157</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>0.10519647764407906</v>
+        <v>8.8214582588325277E-2</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>0.99606600000000078</v>
+        <v>0.98266500000000079</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6689,14 +6689,14 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>5.4185600000000003</v>
+        <v>5.4329580000000002</v>
       </c>
       <c r="I39">
         <v>6.913138</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1.4945779999999997</v>
+        <v>1.4801799999999998</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0336779351851844</v>
+        <v>-4.0466106018518522</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
@@ -6712,23 +6712,23 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>16.270557684799812</v>
+        <v>16.37505736301981</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>16.867548069724123</v>
+        <v>16.921628335966233</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>2.2337633980839993</v>
+        <v>2.1909328323999997</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>6.4470284808574085</v>
+        <v>6.5865660341216614</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>1.4945779999999997</v>
+        <v>1.4801799999999998</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6756,14 +6756,14 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4.487285</v>
+        <v>4.5168200000000001</v>
       </c>
       <c r="I40">
         <v>4.6715059999999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>0.18422099999999997</v>
+        <v>0.15468599999999988</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-4.9649529351851847</v>
+        <v>-4.9627486018518523</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
@@ -6779,23 +6779,23 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>24.650757648603982</v>
+        <v>24.628873685182516</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>31.891438963731243</v>
+        <v>31.87727984422429</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>3.393737684099999E-2</v>
+        <v>2.3927758595999962E-2</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>22.855397836099481</v>
+        <v>23.117465983326404</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>0.18422099999999997</v>
+        <v>0.15468599999999988</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6823,14 +6823,14 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>4.5380079999999996</v>
+        <v>4.5455240000000003</v>
       </c>
       <c r="I41">
         <v>5.9268229999999997</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>1.3888150000000001</v>
+        <v>1.3812989999999994</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-4.914229935185185</v>
+        <v>-4.934044601851852</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
@@ -6846,23 +6846,23 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>24.149655855870186</v>
+        <v>24.344796133063401</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>25.396712958257488</v>
+        <v>25.499115045325873</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>1.9288071042250003</v>
+        <v>1.9079869274009984</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>12.428550465226762</v>
+        <v>12.622001311477682</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>1.3888150000000001</v>
+        <v>1.3812989999999994</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6890,14 +6890,14 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>5.9891019999999999</v>
+        <v>6.0120979999999999</v>
       </c>
       <c r="I42">
         <v>7.2695530000000002</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>1.2804510000000002</v>
+        <v>1.2574550000000002</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4631359351851847</v>
+        <v>-3.4674706018518524</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
@@ -6913,23 +6913,23 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>11.993310505570964</v>
+        <v>12.023352374706848</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>13.247410727075671</v>
+        <v>13.263991973314058</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>1.6395547634010006</v>
+        <v>1.5811930770250004</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>4.764113526284353</v>
+        <v>4.884168960428604</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>1.2804510000000002</v>
+        <v>1.2574550000000002</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6957,14 +6957,14 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>7.1827540000000001</v>
+        <v>7.1983870000000003</v>
       </c>
       <c r="I43">
         <v>9.0236800000000006</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>1.8409260000000005</v>
+        <v>1.8252930000000003</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2694839351851845</v>
+        <v>-2.281181601851852</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
@@ -6980,23 +6980,23 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>5.1505573320636309</v>
+        <v>5.2037895006273818</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>4.7004131367134221</v>
+        <v>4.7246406120510747</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>3.3890085374760019</v>
+        <v>3.3316945358490009</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>0.1836619038101884</v>
+        <v>0.20783441729843621</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>1.8409260000000005</v>
+        <v>1.8252930000000003</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7024,14 +7024,14 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>9.2055249999999997</v>
+        <v>9.2191130000000001</v>
       </c>
       <c r="I44">
         <v>10.714046</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1.508521</v>
+        <v>1.4949329999999996</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-0.24671293518518489</v>
+        <v>-0.26045560185185224</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
@@ -7047,23 +7047,23 @@
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>6.0867272387689242E-2</v>
+        <v>6.783712053601057E-2</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>9.3941238409212369E-2</v>
+        <v>9.9174053319150898E-2</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>2.275635607441</v>
+        <v>2.234824674488999</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>1.5921595924317087</v>
+        <v>1.5239344465386195</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>1.508521</v>
+        <v>1.4949329999999996</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7091,14 +7091,14 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>11.538337</v>
+        <v>11.558054</v>
       </c>
       <c r="I45">
         <v>14.825206</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>3.2868689999999994</v>
+        <v>3.2671519999999994</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>2.0860990648148157</v>
+        <v>2.0784853981481479</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
@@ -7114,23 +7114,23 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>4.3518093082212488</v>
+        <v>4.3201015503150648</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>7.7819600964560678</v>
+        <v>7.7535581613864188</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>10.803507823160995</v>
+        <v>10.674282191103996</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>28.868785825519858</v>
+        <v>28.575839192480093</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>3.2868689999999994</v>
+        <v>3.2671519999999994</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7158,14 +7158,14 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>13.708549</v>
+        <v>13.739312</v>
       </c>
       <c r="I46">
         <v>18.854301</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>5.1457519999999999</v>
+        <v>5.1149889999999996</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>4.256311064814815</v>
+        <v>4.2597433981481476</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
@@ -7181,23 +7181,23 @@
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>18.116183880465023</v>
+        <v>18.145413818066729</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>33.026775754170004</v>
+        <v>33.053408888258964</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>26.478763645503999</v>
+        <v>26.163112470120996</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>88.398789874754954</v>
+        <v>87.885607536888514</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>5.1457519999999999</v>
+        <v>5.1149889999999996</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7225,14 +7225,14 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>14.568191000000001</v>
+        <v>14.601336</v>
       </c>
       <c r="I47">
         <v>18.179331000000001</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>3.6111400000000007</v>
+        <v>3.5779950000000014</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>5.1159530648148159</v>
+        <v>5.1217673981481475</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
@@ -7248,23 +7248,23 @@
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>26.172975761388109</v>
+        <v>26.232501280733246</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>36.244038884636495</v>
+        <v>36.285230608006842</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>13.040332099600004</v>
+        <v>12.802048220025009</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>76.162153361938863</v>
+        <v>75.685865784232433</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>3.6111400000000007</v>
+        <v>3.5779950000000014</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7292,14 +7292,14 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>13.419032</v>
+        <v>13.449405</v>
       </c>
       <c r="I48">
         <v>13.831529</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>0.41249700000000011</v>
+        <v>0.38212399999999924</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>3.966794064814815</v>
+        <v>3.9698363981481481</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
@@ -7315,23 +7315,23 @@
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>15.735455152650042</v>
+        <v>15.759601028061862</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>10.855971192417472</v>
+        <v>10.864297181234827</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>0.17015377500900009</v>
+        <v>0.14601875137599943</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>19.178190230366877</v>
+        <v>18.93955930704978</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>0.41249700000000011</v>
+        <v>0.38212399999999924</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7359,14 +7359,14 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>10.593218999999999</v>
+        <v>10.633471</v>
       </c>
       <c r="I49">
         <v>11.222716</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>0.62949700000000064</v>
+        <v>0.58924500000000002</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>1.1409810648148149</v>
+        <v>1.1539023981481478</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
@@ -7382,23 +7382,23 @@
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>1.3018377902659488</v>
+        <v>1.3314907444520465</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>0.14592984067069473</v>
+        <v>0.14758246065952182</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>0.39626647300900081</v>
+        <v>0.34720967002500003</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>3.1345925779904142</v>
+        <v>3.0385628516706573</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>0.62949700000000064</v>
+        <v>0.58924500000000002</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7426,14 +7426,14 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>8.6587770000000006</v>
+        <v>8.6755309999999994</v>
       </c>
       <c r="I50">
         <v>9.0450400000000002</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>0.38626299999999958</v>
+        <v>0.36950900000000075</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-0.79346093518518401</v>
+        <v>-0.80403760185185291</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
@@ -7449,23 +7449,23 @@
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>0.6295802556649468</v>
+        <v>0.64647646519167878</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>1.6264183206435243</v>
+        <v>1.6480981333163376</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>0.14919910516899967</v>
+        <v>0.13653690108100056</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>0.16581015841907767</v>
+        <v>0.18881510582732547</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>0.38626299999999958</v>
+        <v>0.36950900000000075</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7493,14 +7493,14 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>5.7266870000000001</v>
+        <v>5.7623800000000003</v>
       </c>
       <c r="I51">
         <v>5.3185479999999998</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-0.40813900000000025</v>
+        <v>-0.44383200000000045</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7255509351851845</v>
+        <v>-3.7171886018518521</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
@@ -7516,23 +7516,23 @@
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>13.879729770659203</v>
+        <v>13.817491101737327</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>21.519785996135763</v>
+        <v>21.471482905695606</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>0.16657744332100022</v>
+        <v>0.1969868442240004</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>17.087392480251296</v>
+        <v>17.314092449035552</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>0.40813900000000025</v>
+        <v>0.44383200000000045</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7560,14 +7560,14 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>5.585604</v>
+        <v>5.5897990000000002</v>
       </c>
       <c r="I52">
         <v>5.3352490000000001</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-0.25035499999999988</v>
+        <v>-0.25455000000000005</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-3.8666339351851846</v>
+        <v>-3.8897696018518522</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
@@ -7583,23 +7583,23 @@
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>14.950857988725666</v>
+        <v>15.130307555490717</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>22.270142763508467</v>
+        <v>22.403394218968771</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>6.2677626024999947E-2</v>
+        <v>6.4795702500000024E-2</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>16.949597892437239</v>
+        <v>17.175384962293496</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>0.25035499999999988</v>
+        <v>0.25455000000000005</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7627,14 +7627,14 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5.2912280000000003</v>
+        <v>5.2787759999999997</v>
       </c>
       <c r="I53">
         <v>5.3281619999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>3.6933999999999578E-2</v>
+        <v>4.9386000000000152E-2</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1610099351851844</v>
+        <v>-4.2007926018518527</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
@@ -7650,23 +7650,23 @@
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>17.314003680709813</v>
+        <v>17.646658483773258</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>23.995110558595197</v>
+        <v>24.224523489554702</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>1.3641203559999688E-3</v>
+        <v>2.4389769960000149E-3</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>17.008002319173556</v>
+        <v>17.234176773899147</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>3.6933999999999578E-2</v>
+        <v>4.9386000000000152E-2</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7694,14 +7694,14 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>6.3648740000000004</v>
+        <v>6.3668060000000004</v>
       </c>
       <c r="I54">
         <v>7.0873920000000004</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>0.72251799999999999</v>
+        <v>0.72058599999999995</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0873639351851843</v>
+        <v>-3.1127626018518519</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
@@ -7717,23 +7717,23 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>9.5318160682821471</v>
+        <v>9.6892910154875107</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>12.372380761534531</v>
+        <v>12.474164024354325</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.52203226032399996</v>
+        <v>0.51924418339599998</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>5.5924962971618886</v>
+        <v>5.7225088944474738</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>0.72251799999999999</v>
+        <v>0.72058599999999995</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7761,14 +7761,14 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>7.6323100000000004</v>
+        <v>7.6484620000000003</v>
       </c>
       <c r="I55">
         <v>8.8406249999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>1.2083149999999989</v>
+        <v>1.192162999999999</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8199279351851843</v>
+        <v>-1.831106601851852</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
@@ -7784,23 +7784,23 @@
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>3.3121376892674084</v>
+        <v>3.3529513873454371</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>4.1024677840766364</v>
+        <v>4.1276666499120962</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>1.4600251392249974</v>
+        <v>1.4212526185689975</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>0.37407038248583774</v>
+        <v>0.40824892634741933</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>1.2083149999999989</v>
+        <v>1.192162999999999</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7828,14 +7828,14 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>9.3850379999999998</v>
+        <v>9.3984170000000002</v>
       </c>
       <c r="I56">
         <v>10.805914</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>1.4208759999999998</v>
+        <v>1.4074969999999993</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>-6.7199935185184856E-2</v>
+        <v>-8.1151601851852107E-2</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
@@ -7851,23 +7851,23 @@
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>4.5158312888930454E-3</v>
+        <v>6.5855824831215258E-3</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>1.9414292119221695E-2</v>
+        <v>2.3444976545780503E-2</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>2.0188886073759993</v>
+        <v>1.9810478050089981</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>1.8324388884525231</v>
+        <v>1.7591921151887673</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>1.4208759999999998</v>
+        <v>1.4074969999999993</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7895,14 +7895,14 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>11.610981000000001</v>
+        <v>11.638714</v>
       </c>
       <c r="I57">
         <v>15.333819</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>3.7228379999999994</v>
+        <v>3.6951049999999999</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>2.158743064814816</v>
+        <v>2.1591453981481479</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
@@ -7918,23 +7918,23 @@
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>4.6601716198860652</v>
+        <v>4.6619088503443242</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>9.150915229783136</v>
+        <v>9.1526207214127062</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>13.859522774243995</v>
+        <v>13.653800961024999</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>34.592995821988175</v>
+        <v>34.272247724217749</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>3.7228379999999994</v>
+        <v>3.6951049999999999</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7962,14 +7962,14 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>13.79973</v>
+        <v>13.820983</v>
       </c>
       <c r="I58">
         <v>19.290593999999999</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>5.4908639999999984</v>
+        <v>5.4696109999999987</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>4.3474920648148156</v>
+        <v>4.3414143981481477</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
@@ -7985,23 +7985,23 @@
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>18.90068725362779</v>
+        <v>18.847878976448044</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>35.631073580527634</v>
+        <v>35.581262382492199</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>30.149587466495984</v>
+        <v>29.916644491320984</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>96.793250058078428</v>
+        <v>96.256219363107988</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>5.4908639999999984</v>
+        <v>5.4696109999999987</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8029,14 +8029,14 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>14.901332999999999</v>
+        <v>14.928369</v>
       </c>
       <c r="I59">
         <v>19.834306999999999</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>4.9329739999999997</v>
+        <v>4.905937999999999</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>5.4490950648148146</v>
+        <v>5.4488003981481477</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
@@ -8052,23 +8052,23 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>29.692637025389168</v>
+        <v>29.689425778859412</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>47.622309456632976</v>
+        <v>47.619734220374539</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>24.334232484675997</v>
+        <v>24.068227659843991</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>107.78735806658476</v>
+        <v>107.22060729408365</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>4.9329739999999997</v>
+        <v>4.905937999999999</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8096,14 +8096,14 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>14.157674999999999</v>
+        <v>14.191447999999999</v>
       </c>
       <c r="I60">
         <v>15.202292</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>1.0446170000000006</v>
+        <v>1.0108440000000005</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>4.7054370648148147</v>
+        <v>4.711879398148147</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
@@ -8119,23 +8119,23 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>22.141137970933059</v>
+        <v>22.201807462692944</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>19.327463060063732</v>
+        <v>19.353924780368455</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>1.0912246766890012</v>
+        <v>1.021805592336001</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>33.063121748293383</v>
+        <v>32.749563091712282</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>1.0446170000000006</v>
+        <v>1.0108440000000005</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8163,14 +8163,14 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>12.445987000000001</v>
+        <v>12.483772</v>
       </c>
       <c r="I61">
         <v>12.222011</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-0.2239760000000004</v>
+        <v>-0.26176099999999991</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>2.993749064814816</v>
+        <v>3.0042033981481477</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
@@ -8186,23 +8186,23 @@
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>8.9625334630795859</v>
+        <v>9.0252380574448789</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>3.3745346805296323</v>
+        <v>3.3863187377873931</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>5.0165248576000181E-2</v>
+        <v>6.8518821120999954E-2</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>7.6716428305736564</v>
+        <v>7.5209903071605639</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>0.2239760000000004</v>
+        <v>0.26176099999999991</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8230,14 +8230,14 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>9.0372620000000001</v>
+        <v>9.0472819999999992</v>
       </c>
       <c r="I62">
         <v>9.9835840000000005</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>0.94632200000000033</v>
+        <v>0.9363020000000013</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-0.4149759351851845</v>
+        <v>-0.43228660185185319</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
@@ -8253,23 +8253,23 @@
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>0.17220502678281843</v>
+        <v>0.18687170614062265</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>0.46113513397501693</v>
+        <v>0.48037132556036483</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>0.89552532768400062</v>
+        <v>0.87666143520400241</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>0.28232864059419049</v>
+        <v>0.25403152157043624</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>0.94632200000000033</v>
+        <v>0.9363020000000013</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8297,14 +8297,14 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>6.9718749999999998</v>
+        <v>6.9741989999999996</v>
       </c>
       <c r="I63">
         <v>8.0302419999999994</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1.0583669999999996</v>
+        <v>1.0560429999999998</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4803629351851848</v>
+        <v>-2.5053696018518528</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
@@ -8320,23 +8320,23 @@
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>6.1522002902404651</v>
+        <v>6.2768768418833112</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>7.601259321512341</v>
+        <v>7.6778941378948762</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>1.1201407066889992</v>
+        <v>1.1152268178489997</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>2.0220724396831895</v>
+        <v>2.1005475988354392</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>1.0583669999999996</v>
+        <v>1.0560429999999998</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8364,14 +8364,14 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6.2968140000000004</v>
+        <v>6.3042600000000002</v>
       </c>
       <c r="I64">
         <v>6.7544029999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>0.45758899999999958</v>
+        <v>0.45014299999999974</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1554239351851843</v>
+        <v>-3.1753086018518522</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>9.9567002107395535</v>
+        <v>10.082584716994365</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>13.695847597406615</v>
+        <v>13.782155291645466</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>0.20938769292099962</v>
+        <v>0.20262872044899977</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>7.2783133375056499</v>
+        <v>7.426527557516569</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>0.45758899999999958</v>
+        <v>0.45014299999999974</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8431,14 +8431,14 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>6.9573999999999998</v>
+        <v>6.9640209999999998</v>
       </c>
       <c r="I65">
         <v>7.7837420000000002</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>0.82634200000000035</v>
+        <v>0.81972100000000037</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4948379351851848</v>
+        <v>-2.5155476018518526</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
@@ -8454,23 +8454,23 @@
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>6.2242163228390766</v>
+        <v>6.3279797371826065</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>8.2605966019597936</v>
+        <v>8.3291678705306698</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>0.68284110096400064</v>
+        <v>0.67194251784100056</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>2.7838786857294835</v>
+        <v>2.8758278635484005</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>0.82634200000000035</v>
+        <v>0.81972100000000037</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8498,14 +8498,14 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>7.9527080000000003</v>
+        <v>7.9770110000000001</v>
       </c>
       <c r="I66">
         <v>9.1715890000000009</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>1.2188810000000005</v>
+        <v>1.1945780000000008</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4995299351851843</v>
+        <v>-1.5025576018518523</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
@@ -8521,23 +8521,23 @@
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>2.2485900265164829</v>
+        <v>2.2576793468827896</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>2.8839386107595422</v>
+        <v>2.8897615053851404</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.4856708921610013</v>
+        <v>1.4270165980840019</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>7.8763824820577463E-2</v>
+        <v>9.4851435156824954E-2</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>1.2188810000000005</v>
+        <v>1.1945780000000008</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8565,14 +8565,14 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>8.1538699999999995</v>
+        <v>8.1857310000000005</v>
       </c>
       <c r="I67">
         <v>10.332568999999999</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>2.1786989999999999</v>
+        <v>2.1468379999999989</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2983679351851851</v>
+        <v>-1.2938376018518518</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
@@ -8588,23 +8588,23 @@
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>1.685759295117041</v>
+        <v>1.6740157399657509</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.98967892688952741</v>
+        <v>0.98622568739532679</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>4.7467293326009994</v>
+        <v>4.6089133982439954</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>0.77498278367798568</v>
+        <v>0.72760967924089748</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>2.1786989999999999</v>
+        <v>2.1468379999999989</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8632,14 +8632,14 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>10.582678</v>
+        <v>10.625261999999999</v>
       </c>
       <c r="I68">
         <v>13.706182999999999</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>3.1235049999999998</v>
+        <v>3.080921</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.130440064814815</v>
+        <v>1.145693398148147</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
@@ -8655,23 +8655,23 @@
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>1.277894740138523</v>
+        <v>1.3126133625602485</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>2.9519922583444349</v>
+        <v>2.9918242877597403</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>9.7562834850249978</v>
+        <v>9.4920742082410001</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>18.096048614462319</v>
+        <v>17.864269270633223</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>3.1235049999999998</v>
+        <v>3.080921</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8699,14 +8699,14 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>13.866313</v>
+        <v>13.922245999999999</v>
       </c>
       <c r="I69">
         <v>17.640868999999999</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>3.7745559999999987</v>
+        <v>3.7186229999999991</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>4.4140750648148153</v>
+        <v>4.4426773981481471</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
@@ -8722,23 +8722,23 @@
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>19.484058677819917</v>
+        <v>19.737382464016392</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>28.894762985241073</v>
+        <v>29.081995334115085</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>14.24727299713599</v>
+        <v>13.828157016128994</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>67.053678715650193</v>
+        <v>66.606824188813093</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>3.7745559999999987</v>
+        <v>3.7186229999999991</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8766,14 +8766,14 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>17.659742000000001</v>
+        <v>17.695663</v>
       </c>
       <c r="I70">
         <v>19.424499999999998</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>1.7647579999999969</v>
+        <v>1.7288369999999986</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>8.2075040648148168</v>
+        <v>8.2160943981481473</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>67.363122973951747</v>
+        <v>67.504207159281364</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>68.365903509334686</v>
+        <v>68.437458259127283</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>3.1143707985639892</v>
+        <v>2.9888773725689952</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>99.446010689344618</v>
+        <v>98.901660513872841</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>1.7647579999999969</v>
+        <v>1.7288369999999986</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8833,14 +8833,14 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>18.425664999999999</v>
+        <v>18.530918</v>
       </c>
       <c r="I71">
         <v>19.429907</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>1.0042420000000014</v>
+        <v>0.89898900000000026</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>8.973427064814814</v>
+        <v>9.0513493981481474</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
@@ -8856,23 +8856,23 @@
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>80.522393287551012</v>
+        <v>81.926925927356834</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>74.794318288564796</v>
+        <v>75.443807915997482</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>1.0085019945640028</v>
+        <v>0.80818122212100052</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>99.553879966962555</v>
+        <v>99.009234237661445</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>1.0042420000000014</v>
+        <v>0.89898900000000026</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8900,14 +8900,14 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>15.563864000000001</v>
+        <v>15.653884</v>
       </c>
       <c r="I72">
         <v>16.769477999999999</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>1.2056139999999989</v>
+        <v>1.1155939999999998</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>6.111626064814816</v>
+        <v>6.1743153981481473</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
@@ -8923,23 +8923,23 @@
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>37.351973156123833</v>
+        <v>38.122170635809319</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>34.681403416898988</v>
+        <v>35.037144104600173</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>1.4535051169959972</v>
+        <v>1.2445499728359994</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>53.542002166131113</v>
+        <v>53.142779033208683</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>1.2056139999999989</v>
+        <v>1.1155939999999998</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8967,14 +8967,14 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>13.997923</v>
+        <v>14.092393</v>
       </c>
       <c r="I73">
         <v>14.072948999999999</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>7.5025999999999371E-2</v>
+        <v>-1.9444000000000017E-2</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>4.5456850648148155</v>
+        <v>4.6128243981481472</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
@@ -8990,23 +8990,23 @@
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>20.663252708480474</v>
+        <v>21.278148928150816</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>13.537648175232279</v>
+        <v>13.737597943072897</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>5.6289006759999054E-3</v>
+        <v>3.7806913600000068E-4</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>21.35097074450206</v>
+        <v>21.09914348209163</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>7.5025999999999371E-2</v>
+        <v>1.9444000000000017E-2</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9034,14 +9034,14 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>8.3817280000000007</v>
+        <v>8.4108440000000009</v>
       </c>
       <c r="I74">
         <v>9.2432739999999995</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>0.86154599999999881</v>
+        <v>0.83242999999999867</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-1.0705099351851839</v>
+        <v>-1.0687246018518515</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
@@ -9057,23 +9057,23 @@
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>1.1459915213301866</v>
+        <v>1.1421722746033984</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>1.9820956427926453</v>
+        <v>1.9787900205796964</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>0.74226151011599795</v>
+        <v>0.69293970489999779</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>4.3665926208078229E-2</v>
+        <v>5.5835138864325638E-2</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>0.86154599999999881</v>
+        <v>0.83242999999999867</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9101,14 +9101,14 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>6.4533620000000003</v>
+        <v>6.4633950000000002</v>
       </c>
       <c r="I75">
         <v>7.8496639999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>1.3963019999999995</v>
+        <v>1.3862689999999995</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9988759351851844</v>
+        <v>-3.0161736018518521</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
@@ -9124,23 +9124,23 @@
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>8.9932568746328148</v>
+        <v>9.0973031965079745</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>9.7318125427603857</v>
+        <v>9.7879461251644102</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>1.9496592752039985</v>
+        <v>1.9217417403609987</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>2.568243217734929</v>
+        <v>2.6565890111378461</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>1.3963019999999995</v>
+        <v>1.3862689999999995</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9168,14 +9168,14 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5.010999</v>
+        <v>5.0245389999999999</v>
       </c>
       <c r="I76">
         <v>6.3295029999999999</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>1.3185039999999999</v>
+        <v>1.304964</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-4.4412389351851846</v>
+        <v>-4.4550296018518525</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
@@ -9191,23 +9191,23 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>19.724603279404832</v>
+        <v>19.847288753376276</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>21.163900007944441</v>
+        <v>21.229616870881941</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>1.7384527980159998</v>
+        <v>1.7029310412959999</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>9.7514734754260193</v>
+        <v>9.9229132959702735</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>1.3185039999999999</v>
+        <v>1.304964</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9235,14 +9235,14 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6.1084540000000001</v>
+        <v>6.1121150000000002</v>
       </c>
       <c r="I77">
         <v>7.4234200000000001</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>1.3149660000000001</v>
+        <v>1.3113049999999999</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>-3.3437839351851846</v>
+        <v>-3.3674536018518522</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
@@ -9258,23 +9258,23 @@
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>11.180891005202518</v>
+        <v>11.339743760625012</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>12.276359763452311</v>
+        <v>12.363260516944003</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>1.7291355811560003</v>
+        <v>1.7195208030249998</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>4.1161022141290751</v>
+        <v>4.2277470728973263</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>1.3149660000000001</v>
+        <v>1.3113049999999999</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9302,14 +9302,14 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>6.1605270000000001</v>
+        <v>6.1635179999999998</v>
       </c>
       <c r="I78">
         <v>7.8133689999999998</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>1.6528419999999997</v>
+        <v>1.649851</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>-3.2917109351851845</v>
+        <v>-3.3160506018518525</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
@@ -9325,23 +9325,23 @@
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>10.835360880817722</v>
+        <v>10.996191594042033</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>10.801579697345385</v>
+        <v>10.881449058441651</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>2.7318866769639989</v>
+        <v>2.7220083222009999</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>2.6858913867150216</v>
+        <v>2.776221113211272</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>1.6528419999999997</v>
+        <v>1.649851</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9369,14 +9369,14 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>8.5957170000000005</v>
+        <v>8.6088609999999992</v>
       </c>
       <c r="I79">
         <v>10.50104</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>1.9053229999999992</v>
+        <v>1.8921790000000005</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-0.85652093518518413</v>
+        <v>-0.87070760185185314</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
@@ -9392,23 +9392,23 @@
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>0.73362811241050241</v>
+        <v>0.75813172792260519</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>0.50858280407667467</v>
+        <v>0.51700652662383662</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>3.6302557343289972</v>
+        <v>3.5803413680410019</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>1.0999857711598195</v>
+        <v>1.0434038172347311</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>1.9053229999999992</v>
+        <v>1.8921790000000005</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9436,14 +9436,14 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>10.185598000000001</v>
+        <v>10.209149999999999</v>
       </c>
       <c r="I80">
         <v>12.243783000000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>2.0581849999999999</v>
+        <v>2.0346330000000012</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>0.73336006481481597</v>
+        <v>0.72958139814814693</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
@@ -9459,23 +9459,23 @@
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>0.53781698466519112</v>
+        <v>0.53228901652380489</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>0.84260546108258494</v>
+        <v>0.83826390320166866</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>4.236125494225</v>
+        <v>4.139731444689005</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>7.7927238488919546</v>
+        <v>7.6408812389295289</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>2.0581849999999999</v>
+        <v>2.0346330000000012</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9503,14 +9503,14 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>12.135494</v>
+        <v>12.172535</v>
       </c>
       <c r="I81">
         <v>16.326910000000002</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>4.191416000000002</v>
+        <v>4.1543750000000017</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>2.6832560648148149</v>
+        <v>2.6929663981481475</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
@@ -9526,23 +9526,23 @@
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>7.1998631093654861</v>
+        <v>7.2520680215550071</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>14.039044106211858</v>
+        <v>14.08984946904706</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>17.567968085056016</v>
+        <v>17.258831640625015</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>47.261115998745218</v>
+        <v>46.88608422279345</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>4.191416000000002</v>
+        <v>4.1543750000000017</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9570,14 +9570,14 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>13.727627</v>
+        <v>13.776844000000001</v>
       </c>
       <c r="I82">
         <v>18.894119</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>5.1664919999999999</v>
+        <v>5.1172749999999994</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>4.2753890648148154</v>
+        <v>4.2972753981481482</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
@@ -9593,23 +9593,23 @@
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>18.278951655538101</v>
+        <v>18.466575847529324</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>33.345048623402342</v>
+        <v>33.515746737217057</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>26.692639586063997</v>
+        <v>26.186503425624995</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>89.149118042108555</v>
+        <v>88.633759199271438</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>5.1664919999999999</v>
+        <v>5.1172749999999994</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9637,14 +9637,14 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>15.084669999999999</v>
+        <v>15.134320000000001</v>
       </c>
       <c r="I83">
         <v>17.526512</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>2.4418420000000012</v>
+        <v>2.3921919999999997</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>5.6324320648148145</v>
+        <v>5.6547513981481483</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
@@ -9660,23 +9660,23 @@
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>31.724290964754076</v>
+        <v>31.976213374858439</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>36.226082697958134</v>
+        <v>36.369633832848422</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>5.9625923529640055</v>
+        <v>5.7225825648639983</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>65.193901673741166</v>
+        <v>64.753298053000066</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>2.4418420000000012</v>
+        <v>2.3921919999999997</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9704,14 +9704,14 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>13.913895999999999</v>
+        <v>13.969346</v>
       </c>
       <c r="I84">
         <v>14.350834000000001</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>0.43693800000000138</v>
+        <v>0.38148800000000094</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>4.4616580648148148</v>
+        <v>4.4897773981481475</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
@@ -9727,23 +9727,23 @@
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>19.906392687327077</v>
+        <v>20.158101084921949</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>14.527232565576654</v>
+        <v>14.618789580701534</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>0.19091481584400122</v>
+        <v>0.1455330941440007</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>23.996243406219204</v>
+        <v>23.729226579195437</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>0.43693800000000138</v>
+        <v>0.38148800000000094</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9771,14 +9771,14 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>10.185138</v>
+        <v>10.209688</v>
       </c>
       <c r="I85">
         <v>11.847716</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>1.6625779999999999</v>
+        <v>1.6380280000000003</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>0.73290006481481562</v>
+        <v>0.73011939814814752</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
@@ -9794,23 +9794,23 @@
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>0.53714250500556093</v>
+        <v>0.53307433555221317</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>0.55179940695175989</v>
+        <v>0.54970584700919711</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>2.7641656060839996</v>
+        <v>2.6831357287840008</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>5.7383151590089332</v>
+        <v>5.6081220993558416</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1.6625779999999999</v>
+        <v>1.6380280000000003</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9838,14 +9838,14 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>8.0148329999999994</v>
+        <v>8.0216259999999995</v>
       </c>
       <c r="I86">
         <v>10.713042</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>2.6982090000000003</v>
+        <v>2.6914160000000003</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>-1.4374049351851852</v>
+        <v>-1.4579426018518529</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
@@ -9861,23 +9861,23 @@
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>2.0661329476947263</v>
+        <v>2.1255966302945506</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>0.54876589466765668</v>
+        <v>0.55660667129701202</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>7.2803318076810015</v>
+        <v>7.2437200850560011</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>1.5896268898535606</v>
+        <v>1.5214566239391381</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>2.6982090000000003</v>
+        <v>2.6914160000000003</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9905,14 +9905,14 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.560098</v>
+        <v>4.5843800000000003</v>
       </c>
       <c r="I87">
         <v>6.493347</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1.933249</v>
+        <v>1.9089669999999996</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
@@ -9920,7 +9920,7 @@
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-4.8921399351851846</v>
+        <v>-4.895188601851852</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
@@ -9928,23 +9928,23 @@
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>23.933033145433704</v>
+        <v>23.962871447700291</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>22.511037276543394</v>
+        <v>22.525065626076799</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>3.737451696001</v>
+        <v>3.6441550070889988</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>8.7550355663210571</v>
+        <v>8.9175194553666426</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1.933249</v>
+        <v>1.9089669999999996</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9972,14 +9972,14 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>3.8927480000000001</v>
+        <v>3.9162780000000001</v>
       </c>
       <c r="I88">
         <v>4.2790330000000001</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>0.38628499999999999</v>
+        <v>0.36275499999999994</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-5.5594899351851845</v>
+        <v>-5.5632906018518522</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
@@ -9995,23 +9995,23 @@
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>30.907928339425368</v>
+        <v>30.950202320653144</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>37.892284967803874</v>
+        <v>37.918189492513875</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>0.14921610122499998</v>
+        <v>0.13159119002499994</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>26.762049301424348</v>
+        <v>27.045570546128609</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>0.38628499999999999</v>
+        <v>0.36275499999999994</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10039,14 +10039,14 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>5.2789570000000001</v>
+        <v>5.2744390000000001</v>
       </c>
       <c r="I89">
         <v>5.7391360000000002</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>0.46017900000000012</v>
+        <v>0.46469700000000014</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>-4.1732809351851845</v>
+        <v>-4.2051296018518523</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
@@ -10062,23 +10062,23 @@
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>17.416273763980129</v>
+        <v>17.683114968370717</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>22.350763228383556</v>
+        <v>22.521334541185631</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>0.21176471204100011</v>
+        <v>0.21594330180900012</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>13.787125981075961</v>
+        <v>13.990836048996217</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>0.46017900000000012</v>
+        <v>0.46469700000000014</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10106,14 +10106,14 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>5.8748389999999997</v>
+        <v>5.86911</v>
       </c>
       <c r="I90">
         <v>6.6877690000000003</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>0.8129300000000006</v>
+        <v>0.81865900000000025</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>-3.5773989351851849</v>
+        <v>-3.6104586018518523</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
@@ -10129,23 +10129,23 @@
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>12.797783141464095</v>
+        <v>13.035411315686032</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>15.765770379341014</v>
+        <v>15.911465931592094</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>0.66085518490000095</v>
+        <v>0.67020255828100039</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>7.6422884936039068</v>
+        <v>7.7941450169001598</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>0.8129300000000006</v>
+        <v>0.81865900000000025</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10173,14 +10173,14 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>6.6104690000000002</v>
+        <v>6.618493</v>
       </c>
       <c r="I91">
         <v>8.1786799999999999</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>1.5682109999999998</v>
+        <v>1.560187</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>-2.8417689351851845</v>
+        <v>-2.8610756018518524</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
@@ -10196,23 +10196,23 @@
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>8.0756506809835376</v>
+        <v>8.1857535995119388</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>8.2869887740398571</v>
+        <v>8.3432896674551689</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>2.4592857405209996</v>
+        <v>2.4341834749690001</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>1.621949814273151</v>
+        <v>1.6923111544280673</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>1.5682109999999998</v>
+        <v>1.560187</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10240,14 +10240,14 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>8.5207829999999998</v>
+        <v>8.5456400000000006</v>
       </c>
       <c r="I92">
         <v>10.853664</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>2.3328810000000004</v>
+        <v>2.3080239999999996</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>-0.93145493518518485</v>
+        <v>-0.93392860185185178</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
@@ -10263,23 +10263,23 @@
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>0.86760829628083691</v>
+        <v>0.87222263335695471</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>0.2246235573401007</v>
+        <v>0.22522009055427053</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>5.4423337601610022</v>
+        <v>5.3269747845759987</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>1.9639950151423398</v>
+        <v>1.888138163211917</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>2.3328810000000004</v>
+        <v>2.3080239999999996</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10307,14 +10307,14 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>11.018535999999999</v>
+        <v>11.024537</v>
       </c>
       <c r="I93">
         <v>14.339339000000001</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>3.3208030000000015</v>
+        <v>3.3148020000000002</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
@@ -10322,7 +10322,7 @@
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>1.5662980648148146</v>
+        <v>1.5449683981481481</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
@@ -10330,23 +10330,23 @@
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>2.4532896278426333</v>
+        <v>2.3869273512764546</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>5.0818878482193801</v>
+        <v>5.0126832847490697</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>11.027732564809011</v>
+        <v>10.987912299204002</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>23.883756817714108</v>
+        <v>23.617368322717013</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>3.3208030000000015</v>
+        <v>3.3148020000000002</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10374,14 +10374,14 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>13.730498000000001</v>
+        <v>13.768291</v>
       </c>
       <c r="I94">
         <v>18.666298000000001</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>4.9358000000000004</v>
+        <v>4.8980070000000016</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>4.2782600648148161</v>
+        <v>4.2887223981481473</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
@@ -10397,23 +10397,23 @@
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>18.303509182189273</v>
+        <v>18.393139808377594</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>32.392762931968754</v>
+        <v>32.471978285464687</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>24.362121640000005</v>
+        <v>23.990472572049015</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>84.898902878015221</v>
+        <v>84.39599703479945</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>4.9358000000000004</v>
+        <v>4.8980070000000016</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10441,14 +10441,14 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>14.956518000000001</v>
+        <v>14.999605000000001</v>
       </c>
       <c r="I95">
         <v>18.377521999999999</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>3.4210039999999982</v>
+        <v>3.3779169999999983</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>5.5042800648148162</v>
+        <v>5.5200363981481484</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
@@ -10464,23 +10464,23 @@
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>30.297099031917799</v>
+        <v>30.470801836880383</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>40.086045554046045</v>
+        <v>40.200794274737447</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>11.703268368015987</v>
+        <v>11.410323258888988</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>79.660695637637261</v>
+        <v>79.173574675616152</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>3.4210039999999982</v>
+        <v>3.3779169999999983</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10508,14 +10508,14 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>13.544943999999999</v>
+        <v>13.57985</v>
       </c>
       <c r="I96">
         <v>14.019964</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>0.47502000000000066</v>
+        <v>0.44011399999999945</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>4.0927060648148146</v>
+        <v>4.1002813981481481</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
@@ -10531,23 +10531,23 @@
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>16.750242932971965</v>
+        <v>16.812307543999733</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>11.971765086289816</v>
+        <v>11.993924046567143</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>0.22564400040000063</v>
+        <v>0.19370033299599951</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>20.864121403188637</v>
+        <v>20.615190371524875</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>0.47502000000000066</v>
+        <v>0.44011399999999945</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10575,14 +10575,14 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>10.999205</v>
+        <v>11.024760000000001</v>
       </c>
       <c r="I97">
         <v>11.267341</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>0.26813600000000015</v>
+        <v>0.24258099999999949</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>1.5469670648148153</v>
+        <v>1.5451913981481482</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
@@ -10598,23 +10598,23 @@
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>2.3931070996217647</v>
+        <v>2.387616456911029</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>0.26688827267296344</v>
+        <v>0.26658192832970717</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>7.1896914496000081E-2</v>
+        <v>5.8845541560999755E-2</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>3.2945991359001359</v>
+        <v>3.1961301475803792</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>0.26813600000000015</v>
+        <v>0.24258099999999949</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10642,14 +10642,14 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>8.0877579999999991</v>
+        <v>8.0972089999999994</v>
       </c>
       <c r="I98">
         <v>9.4617199999999997</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>1.3739620000000006</v>
+        <v>1.3645110000000003</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>-1.3644799351851855</v>
+        <v>-1.3823596018518529</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
@@ -10665,23 +10665,23 @@
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>1.861805493522968</v>
+        <v>1.9109180688320133</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>2.2283286825125739</v>
+        <v>2.2575279202878744</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>1.8877715774440016</v>
+        <v>1.8618902691210006</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>8.9909553152353779E-5</v>
+        <v>3.1857258806595833E-4</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>1.3739620000000006</v>
+        <v>1.3645110000000003</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10709,14 +10709,14 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>5.8003999999999998</v>
+        <v>5.8116279999999998</v>
       </c>
       <c r="I99">
         <v>6.4049060000000004</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>0.60450600000000065</v>
+        <v>0.59327800000000064</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-3.6518379351851848</v>
+        <v>-3.6679406018518526</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
@@ -10732,23 +10732,23 @@
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>13.335920304857595</v>
+        <v>13.453788258713331</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>17.126796491668049</v>
+        <v>17.202316572205032</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>0.36542750403600077</v>
+        <v>0.35197878528400078</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>9.2862319231994803</v>
+        <v>9.453550115226399</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>0.60450600000000065</v>
+        <v>0.59327800000000064</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10776,14 +10776,14 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5.6153320000000004</v>
+        <v>5.617127</v>
       </c>
       <c r="I100">
         <v>6.5747650000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>0.95943299999999976</v>
+        <v>0.95763800000000021</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>-3.8369059351851842</v>
+        <v>-3.8624416018518524</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
@@ -10799,23 +10799,23 @@
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>14.721847155459292</v>
+        <v>14.918455127715903</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>17.34301601591028</v>
+        <v>17.458438568211029</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>0.92051168148899953</v>
+        <v>0.91707053904400038</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>8.2798504927232415</v>
+        <v>8.4378839653314941</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>0.95943299999999976</v>
+        <v>0.95763800000000021</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10843,14 +10843,14 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>4.89405</v>
+        <v>4.9062659999999996</v>
       </c>
       <c r="I101">
         <v>5.9763390000000003</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>1.0822890000000003</v>
+        <v>1.0700730000000007</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-4.5581879351851846</v>
+        <v>-4.5733026018518528</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
@@ -10866,23 +10866,23 @@
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>20.777077252467777</v>
+        <v>20.915096688104928</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>23.33098664976665</v>
+        <v>23.408350745155005</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>1.1713494795210007</v>
+        <v>1.1450562253290015</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>12.081873407621499</v>
+        <v>12.272617643291087</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>1.0822890000000003</v>
+        <v>1.0700730000000007</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10910,14 +10910,14 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>5.731071</v>
+        <v>5.7414849999999999</v>
       </c>
       <c r="I102">
         <v>7.1298199999999996</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>1.3987489999999996</v>
+        <v>1.3883349999999997</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-3.7211669351851846</v>
+        <v>-3.7380836018518524</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
@@ -10933,23 +10933,23 @@
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>13.8470833595155</v>
+        <v>13.973269014433718</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>14.754417353905174</v>
+        <v>14.821491893850393</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>1.9564987650009988</v>
+        <v>1.927474072224999</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>5.3936250656698181</v>
+        <v>5.5213184919047364</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>1.3987489999999996</v>
+        <v>1.3883349999999997</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10977,14 +10977,14 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>7.1734150000000003</v>
+        <v>7.1856260000000001</v>
       </c>
       <c r="I103">
         <v>8.4933680000000003</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>1.3199529999999999</v>
+        <v>1.3077420000000002</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-2.2788229351851843</v>
+        <v>-2.2939426018518523</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
@@ -11000,23 +11000,23 @@
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>5.1930339699260184</v>
+        <v>5.2621726605908457</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>5.9282426376245416</v>
+        <v>5.967575685934734</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>1.7422759222089998</v>
+        <v>1.7101891385640005</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>0.91943155260203968</v>
+        <v>0.97259162709295532</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>1.3199529999999999</v>
+        <v>1.3077420000000002</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11044,14 +11044,14 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>9.9253230000000006</v>
+        <v>9.9552870000000002</v>
       </c>
       <c r="I104">
         <v>11.405948</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>1.4806249999999999</v>
+        <v>1.4506610000000002</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>0.47308506481481594</v>
+        <v>0.47571839814814787</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
@@ -11067,23 +11067,23 @@
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>0.2238094785508386</v>
+        <v>0.22630799433663973</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>0.14719122342128738</v>
+        <v>0.14801053390863264</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>2.1922503906249995</v>
+        <v>2.1044173369210006</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>3.8169830173587118</v>
+        <v>3.7109375856096212</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>1.4806249999999999</v>
+        <v>1.4506610000000002</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11111,14 +11111,14 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>11.859914</v>
+        <v>11.90559</v>
       </c>
       <c r="I105">
         <v>14.580590000000001</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>2.720676000000001</v>
+        <v>2.6750000000000007</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
@@ -11126,7 +11126,7 @@
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>2.4076760648148152</v>
+        <v>2.4260213981481478</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
@@ -11134,23 +11134,23 @@
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>5.7969040330821544</v>
+        <v>5.8855798242726935</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>8.3926111716927814</v>
+        <v>8.4565588313184961</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>7.4020778969760057</v>
+        <v>7.1556250000000041</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>26.29999490069039</v>
+        <v>26.020419304365291</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>2.720676000000001</v>
+        <v>2.6750000000000007</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11178,14 +11178,14 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>14.195662</v>
+        <v>14.251386</v>
       </c>
       <c r="I106">
         <v>18.980105999999999</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>4.7844439999999988</v>
+        <v>4.7287199999999991</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>4.7434240648148158</v>
+        <v>4.7718173981481478</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
@@ -11201,23 +11201,23 @@
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>22.50007185866431</v>
+        <v>22.77024128126936</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>37.40326753635167</v>
+        <v>37.627157163001968</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>22.89090438913599</v>
+        <v>22.360792838399991</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>90.780269860518004</v>
+        <v>90.260210853611568</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>4.7844439999999988</v>
+        <v>4.7287199999999991</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11245,14 +11245,14 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>15.346171</v>
+        <v>15.404261999999999</v>
       </c>
       <c r="I107">
         <v>18.686962000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>3.3407910000000012</v>
+        <v>3.2827000000000019</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
@@ -11260,7 +11260,7 @@
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>5.8939330648148154</v>
+        <v>5.9246933981481469</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
@@ -11268,23 +11268,23 @@
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>34.738446972517366</v>
+        <v>35.101991862060238</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>44.747591883416135</v>
+        <v>44.98112878094468</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>11.160884505681008</v>
+        <v>10.776119290000013</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>85.28012855326989</v>
+        <v>84.776093188262109</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>3.3407910000000012</v>
+        <v>3.2827000000000019</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11312,14 +11312,14 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>14.256568</v>
+        <v>14.320114999999999</v>
       </c>
       <c r="I108">
         <v>13.893890000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-0.36267799999999895</v>
+        <v>-0.42622499999999874</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>4.8043300648148151</v>
+        <v>4.8405463981481471</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
@@ -11335,23 +11335,23 @@
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>23.081587371683526</v>
+        <v>23.430889432625001</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>13.447668476738135</v>
+        <v>13.549040621769654</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>0.13153533168399922</v>
+        <v>0.18166775062499893</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>19.728273064873719</v>
+        <v>19.486233406148624</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>0.36267799999999895</v>
+        <v>0.42622499999999874</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11379,14 +11379,14 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>12.429778000000001</v>
+        <v>12.483866000000001</v>
       </c>
       <c r="I109">
         <v>12.614584000000001</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>0.18480600000000003</v>
+        <v>0.13071799999999989</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>2.977540064814816</v>
+        <v>3.0042973981481484</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
@@ -11402,23 +11402,23 @@
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>8.8657448375774184</v>
+        <v>9.0258028565197339</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>4.5251658359020972</v>
+        <v>4.5658307364657009</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>3.4153257636000009E-2</v>
+        <v>1.7087195523999971E-2</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>10.000432633649753</v>
+        <v>9.8283215466259932</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>0.18480600000000003</v>
+        <v>0.13071799999999989</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11446,14 +11446,14 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>9.0345519999999997</v>
+        <v>9.0680689999999995</v>
       </c>
       <c r="I110">
         <v>9.8861899999999991</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>0.85163799999999945</v>
+        <v>0.81812099999999965</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-0.41768593518518493</v>
+        <v>-0.41149960185185286</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
@@ -11469,23 +11469,23 @@
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>0.17446154045152251</v>
+        <v>0.16933192232423341</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>0.50482668055579571</v>
+        <v>0.49734970836592995</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>0.72528728304399903</v>
+        <v>0.66932197064099941</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>0.18831439455704099</v>
+        <v>0.16534096143195373</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>0.85163799999999945</v>
+        <v>0.81812099999999965</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11513,14 +11513,14 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>6.5480689999999999</v>
+        <v>6.562208</v>
       </c>
       <c r="I111">
         <v>7.5468070000000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>0.99873800000000035</v>
+        <v>0.98459900000000022</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9041689351851847</v>
+        <v>-2.9173606018518523</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
@@ -11536,23 +11536,23 @@
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>8.4341972040946498</v>
+        <v>8.5109928812374012</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>10.304021687577681</v>
+        <v>10.350825858568502</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>0.99747759264400071</v>
+        <v>0.96943519080100049</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>3.630667048760686</v>
+        <v>3.735567409592937</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>0.99873800000000035</v>
+        <v>0.98459900000000022</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D917105-982A-4C7C-9E32-547A08220528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B83845A-0514-470A-97FF-E9B0D33EDD8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,10 +165,10 @@
     <t>MAE</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</t>
+    <t xml:space="preserve"> USGS_14180300_temp_BLOWOUT CREEK NEAR DETROIT  OR_23780557</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14180300_temp_BLOWOUT CREEK NEAR DETROIT  OR_23780557.csv</t>
   </si>
 </sst>
 </file>
@@ -852,328 +852,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.8116019999999997</c:v>
+                  <c:v>5.2419719999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9468069999999997</c:v>
+                  <c:v>5.0949939999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1231640000000001</c:v>
+                  <c:v>4.8986179999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7148019999999997</c:v>
+                  <c:v>5.2132360000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1224790000000002</c:v>
+                  <c:v>6.5407209999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.368868000000001</c:v>
+                  <c:v>9.0397219999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.784416999999999</c:v>
+                  <c:v>10.868954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.967082</c:v>
+                  <c:v>9.1853689999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.866607999999999</c:v>
+                  <c:v>7.5160470000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.158422</c:v>
+                  <c:v>6.553998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3720230000000004</c:v>
+                  <c:v>4.7201709999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9794119999999999</c:v>
+                  <c:v>3.8279719999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1166239999999998</c:v>
+                  <c:v>4.4768739999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6176500000000003</c:v>
+                  <c:v>3.6331329999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4936290000000003</c:v>
+                  <c:v>4.2496710000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9458070000000003</c:v>
+                  <c:v>4.202833</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.602169</c:v>
+                  <c:v>6.4582519999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.722156</c:v>
+                  <c:v>9.4497669999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.284406000000001</c:v>
+                  <c:v>9.9536850000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.916598</c:v>
+                  <c:v>8.8739609999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.562449000000001</c:v>
+                  <c:v>7.4884009999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.493366</c:v>
+                  <c:v>6.548057</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0158109999999994</c:v>
+                  <c:v>4.0560999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4194360000000001</c:v>
+                  <c:v>3.9512320000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.245177</c:v>
+                  <c:v>3.9248129999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0537679999999998</c:v>
+                  <c:v>4.1292210000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.7173579999999999</c:v>
+                  <c:v>3.644091</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7963040000000001</c:v>
+                  <c:v>6.6855820000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.569051</c:v>
+                  <c:v>7.9209849999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.027310999999999</c:v>
+                  <c:v>9.1286900000000006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.222445</c:v>
+                  <c:v>11.09207</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.489941</c:v>
+                  <c:v>9.6180199999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.065899</c:v>
+                  <c:v>7.4460040000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.951362</c:v>
+                  <c:v>6.4589379999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.7939129999999999</c:v>
+                  <c:v>5.6897729999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.4329580000000002</c:v>
+                  <c:v>3.200841</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.5168200000000001</c:v>
+                  <c:v>3.6047310000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.5455240000000003</c:v>
+                  <c:v>3.479962</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.0120979999999999</c:v>
+                  <c:v>5.3047009999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.1983870000000003</c:v>
+                  <c:v>6.0746969999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.2191130000000001</c:v>
+                  <c:v>8.2528079999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.558054</c:v>
+                  <c:v>9.9528239999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.739312</c:v>
+                  <c:v>10.41943</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.601336</c:v>
+                  <c:v>8.8168220000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.449405</c:v>
+                  <c:v>8.2223970000000008</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10.633471</c:v>
+                  <c:v>7.1077490000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.6755309999999994</c:v>
+                  <c:v>4.7543660000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.7623800000000003</c:v>
+                  <c:v>4.0385949999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5897990000000002</c:v>
+                  <c:v>5.5932329999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.2787759999999997</c:v>
+                  <c:v>4.0500150000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.3668060000000004</c:v>
+                  <c:v>5.4342160000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.6484620000000003</c:v>
+                  <c:v>6.4882270000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3984170000000002</c:v>
+                  <c:v>8.9281430000000004</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.638714</c:v>
+                  <c:v>9.3607379999999996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.820983</c:v>
+                  <c:v>10.723186</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14.928369</c:v>
+                  <c:v>8.9892850000000006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.191447999999999</c:v>
+                  <c:v>7.329949</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.483772</c:v>
+                  <c:v>7.0039100000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.0472819999999992</c:v>
+                  <c:v>5.4021809999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9741989999999996</c:v>
+                  <c:v>4.950418</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.3042600000000002</c:v>
+                  <c:v>6.4187000000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.9640209999999998</c:v>
+                  <c:v>6.4005270000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.9770110000000001</c:v>
+                  <c:v>7.0483919999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.1857310000000005</c:v>
+                  <c:v>6.133235</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.625261999999999</c:v>
+                  <c:v>8.3730609999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.922245999999999</c:v>
+                  <c:v>9.3701299999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.695663</c:v>
+                  <c:v>9.0147829999999995</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18.530918</c:v>
+                  <c:v>7.9606919999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15.653884</c:v>
+                  <c:v>6.8826720000000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.092393</c:v>
+                  <c:v>6.2283900000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.4108440000000009</c:v>
+                  <c:v>4.445424</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.4633950000000002</c:v>
+                  <c:v>3.9987279999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.0245389999999999</c:v>
+                  <c:v>4.0511569999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.1121150000000002</c:v>
+                  <c:v>5.6382079999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.1635179999999998</c:v>
+                  <c:v>5.0019080000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.6088609999999992</c:v>
+                  <c:v>8.2137729999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.209149999999999</c:v>
+                  <c:v>8.8283909999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.172535</c:v>
+                  <c:v>9.4083039999999993</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.776844000000001</c:v>
+                  <c:v>8.6027199999999997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.134320000000001</c:v>
+                  <c:v>8.0709289999999996</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.969346</c:v>
+                  <c:v>7.0193110000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.209688</c:v>
+                  <c:v>6.729749</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.0216259999999995</c:v>
+                  <c:v>6.1663370000000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.5843800000000003</c:v>
+                  <c:v>2.6930420000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.9162780000000001</c:v>
+                  <c:v>3.522392</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.2744390000000001</c:v>
+                  <c:v>4.3887530000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.86911</c:v>
+                  <c:v>5.0151940000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.618493</c:v>
+                  <c:v>5.2808919999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.5456400000000006</c:v>
+                  <c:v>8.8697060000000008</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.024537</c:v>
+                  <c:v>9.6491439999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.768291</c:v>
+                  <c:v>9.8149929999999994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.999605000000001</c:v>
+                  <c:v>8.9980469999999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.57985</c:v>
+                  <c:v>7.8789829999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.024760000000001</c:v>
+                  <c:v>7.1990080000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.0972089999999994</c:v>
+                  <c:v>4.8337500000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.8116279999999998</c:v>
+                  <c:v>4.2885819999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.617127</c:v>
+                  <c:v>5.0902070000000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.9062659999999996</c:v>
+                  <c:v>4.0864190000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.7414849999999999</c:v>
+                  <c:v>4.5526580000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.1856260000000001</c:v>
+                  <c:v>6.1024960000000004</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.9552870000000002</c:v>
+                  <c:v>9.3422990000000006</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11.90559</c:v>
+                  <c:v>8.3140940000000008</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>14.251386</c:v>
+                  <c:v>8.6226079999999996</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>15.404261999999999</c:v>
+                  <c:v>8.3973049999999994</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>14.320114999999999</c:v>
+                  <c:v>6.577216</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12.483866000000001</c:v>
+                  <c:v>5.9785170000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.0680689999999995</c:v>
+                  <c:v>5.3246120000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.562208</c:v>
+                  <c:v>3.7586900000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.7262389999999996</c:v>
@@ -1197,7 +1197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14180300_temp_BLOWOUT CREEK NEAR DETROIT  OR_23780557.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1221,328 +1221,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.54711</c:v>
+                  <c:v>4.9304439999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1049119999999997</c:v>
+                  <c:v>4.701562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7561590000000002</c:v>
+                  <c:v>4.734928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5838889999999992</c:v>
+                  <c:v>5.2130559999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6268139999999995</c:v>
+                  <c:v>6.662903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.364478</c:v>
+                  <c:v>8.8705569999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.944284</c:v>
+                  <c:v>13.421946999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.621203999999999</c:v>
+                  <c:v>14.410047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.150831</c:v>
+                  <c:v>12.400347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.137532999999999</c:v>
+                  <c:v>9.1906920000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6229460000000007</c:v>
+                  <c:v>5.7716830000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9719420000000003</c:v>
+                  <c:v>4.4653559999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7269500000000004</c:v>
+                  <c:v>3.8536079999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5398800000000001</c:v>
+                  <c:v>2.9846339999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6660279999999998</c:v>
+                  <c:v>4.0498010000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4212160000000003</c:v>
+                  <c:v>4.5851389999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8816199999999998</c:v>
+                  <c:v>5.7314860000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.881873000000001</c:v>
+                  <c:v>7.9797929999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.148657</c:v>
+                  <c:v>11.851042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.884912</c:v>
+                  <c:v>14.344889</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.402051999999999</c:v>
+                  <c:v>13.315555</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.311054</c:v>
+                  <c:v>9.5108549999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0141100000000005</c:v>
+                  <c:v>5.1493080000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.8945230000000004</c:v>
+                  <c:v>2.4536959999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.5910279999999997</c:v>
+                  <c:v>3.6149529999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.7675640000000001</c:v>
+                  <c:v>3.6020829999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0292329999999996</c:v>
+                  <c:v>3.3416990000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.5388890000000002</c:v>
+                  <c:v>4.9653119999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.6521509999999999</c:v>
+                  <c:v>6.8807460000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.711807</c:v>
+                  <c:v>8.9986110000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.876681999999999</c:v>
+                  <c:v>13.258972999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.446539000000001</c:v>
+                  <c:v>14.855275000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.266251</c:v>
+                  <c:v>12.387187000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.601513000000001</c:v>
+                  <c:v>8.2147500000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.7765780000000007</c:v>
+                  <c:v>6.4361740000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.913138</c:v>
+                  <c:v>4.6127019999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.6715059999999999</c:v>
+                  <c:v>2.8536619999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.9268229999999997</c:v>
+                  <c:v>3.7675230000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.2695530000000002</c:v>
+                  <c:v>4.4040280000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.0236800000000006</c:v>
+                  <c:v>5.5048959999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.714046</c:v>
+                  <c:v>8.1537970000000008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.825206</c:v>
+                  <c:v>11.141494</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.854301</c:v>
+                  <c:v>15.461762</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.179331000000001</c:v>
+                  <c:v>16.488776999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.831529</c:v>
+                  <c:v>13.884964999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.222716</c:v>
+                  <c:v>7.2704969999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.0450400000000002</c:v>
+                  <c:v>5.7284040000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.3185479999999998</c:v>
+                  <c:v>2.7692540000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.3352490000000001</c:v>
+                  <c:v>3.6647850000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.3281619999999998</c:v>
+                  <c:v>3.4971730000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.0873920000000004</c:v>
+                  <c:v>5.0500930000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8406249999999993</c:v>
+                  <c:v>6.1957279999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.805914</c:v>
+                  <c:v>8.3425729999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15.333819</c:v>
+                  <c:v>11.046635</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.290593999999999</c:v>
+                  <c:v>15.348991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.834306999999999</c:v>
+                  <c:v>16.355612000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>15.202292</c:v>
+                  <c:v>13.380451000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.222011</c:v>
+                  <c:v>10.260956</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.9835840000000005</c:v>
+                  <c:v>6.1787200000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.0302419999999994</c:v>
+                  <c:v>5.8156920000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7544029999999999</c:v>
+                  <c:v>5.0111549999999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.7837420000000002</c:v>
+                  <c:v>5.7763770000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.1715890000000009</c:v>
+                  <c:v>6.0222550000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.332568999999999</c:v>
+                  <c:v>6.5243060000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.706182999999999</c:v>
+                  <c:v>9.8318209999999997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.640868999999999</c:v>
+                  <c:v>14.263369000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.424499999999998</c:v>
+                  <c:v>16.563137000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.429907</c:v>
+                  <c:v>16.276378999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16.769477999999999</c:v>
+                  <c:v>12.748089999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.072948999999999</c:v>
+                  <c:v>10.578362</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.2432739999999995</c:v>
+                  <c:v>6.1180279999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.8496639999999998</c:v>
+                  <c:v>5.3269390000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.3295029999999999</c:v>
+                  <c:v>4.2999330000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.4234200000000001</c:v>
+                  <c:v>5.2941099999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.8133689999999998</c:v>
+                  <c:v>5.5454689999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.50104</c:v>
+                  <c:v>7.2178490000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.243783000000001</c:v>
+                  <c:v>9.5353829999999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>16.326910000000002</c:v>
+                  <c:v>12.326946</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>18.894119</c:v>
+                  <c:v>14.736090000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>17.526512</c:v>
+                  <c:v>15.499017</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.350834000000001</c:v>
+                  <c:v>12.004861</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.847716</c:v>
+                  <c:v>9.24953</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.713042</c:v>
+                  <c:v>7.7227480000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.493347</c:v>
+                  <c:v>4.271795</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.2790330000000001</c:v>
+                  <c:v>2.9396420000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.7391360000000002</c:v>
+                  <c:v>4.2773430000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.6877690000000003</c:v>
+                  <c:v>4.6477680000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.1786799999999999</c:v>
+                  <c:v>5.4789589999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.853664</c:v>
+                  <c:v>7.2629039999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.339339000000001</c:v>
+                  <c:v>10.467051</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.666298000000001</c:v>
+                  <c:v>14.483231999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>18.377521999999999</c:v>
+                  <c:v>15.56391</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.019964</c:v>
+                  <c:v>12.990728000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.267341</c:v>
+                  <c:v>7.6994629999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.4617199999999997</c:v>
+                  <c:v>6.0259119999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.4049060000000004</c:v>
+                  <c:v>3.836344</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.5747650000000002</c:v>
+                  <c:v>4.9524530000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.9763390000000003</c:v>
+                  <c:v>3.4905879999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.1298199999999996</c:v>
+                  <c:v>3.943794</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.4933680000000003</c:v>
+                  <c:v>5.3185419999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.405948</c:v>
+                  <c:v>8.8277549999999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14.580590000000001</c:v>
+                  <c:v>11.403541000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>18.980105999999999</c:v>
+                  <c:v>15.617777999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>18.686962000000001</c:v>
+                  <c:v>16.141884000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.893890000000001</c:v>
+                  <c:v>12.169641</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12.614584000000001</c:v>
+                  <c:v>8.3930869999999995</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.8861899999999991</c:v>
+                  <c:v>5.1728160000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.5468070000000003</c:v>
+                  <c:v>4.2978500000000004</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>4.7575370000000001</c:v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-1.6152488333333324</v>
+        <v>-1.6538399629629694</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3793,11 +3793,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>9.4795686018518523</v>
+        <v>6.6097266574074034</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>11.094817435185185</v>
+        <v>8.2635666203703728</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3807,12 +3807,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>4.682232408385075</v>
+        <v>9.9778074633428133</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>1.6797946851851848</v>
+        <v>2.1701081851851853</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3825,13 +3825,13 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>0.17039265194175507</v>
+        <v>0.25021306457651171</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -3849,10 +3849,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3919,11 +3919,11 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.76144350437162933</v>
+        <v>0.42713195318373209</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>G</v>
+        <v>NS</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3938,46 +3938,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5.8116019999999997</v>
+        <v>5.2419719999999996</v>
       </c>
       <c r="I4">
-        <v>6.54711</v>
+        <v>4.9304439999999996</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.73550800000000027</v>
+        <v>-0.31152800000000003</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-4.5477074351851847</v>
+        <v>-3.3331226203703732</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-3.6679666018518526</v>
+        <v>-1.3677546574074038</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>20.681642916038612</v>
+        <v>11.109706402424663</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>13.453978992300627</v>
+        <v>1.8707528028596445</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>16.680838987252606</v>
+        <v>4.5588939877215475</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>0.54097201806400042</v>
+        <v>9.7049694784000023E-2</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>8.5993134515749201</v>
+        <v>2.8199902434692721</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.73550800000000027</v>
+        <v>0.31152800000000003</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4018,11 +4018,11 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.45887503225400533</v>
+        <v>0.70364462369625214</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
-        <v>VG</v>
+        <v>NS</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4037,46 +4037,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>5.9468069999999997</v>
+        <v>5.0949939999999998</v>
       </c>
       <c r="I5">
-        <v>7.1049119999999997</v>
+        <v>4.701562</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>1.1581049999999999</v>
+        <v>-0.39343199999999978</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.989905435185185</v>
+        <v>-3.5620046203703728</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-3.5327616018518526</v>
+        <v>-1.5147326574074036</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>15.91934538172028</v>
+        <v>12.687876915539883</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>12.480404535518868</v>
+        <v>2.2944150234164948</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>14.095384716442227</v>
+        <v>5.3954847243110642</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>1.3412071910249999</v>
+        <v>0.15478873862399983</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>5.6389939767185879</v>
+        <v>3.641092359778713</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>1.1581049999999999</v>
+        <v>0.39343199999999978</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4117,11 +4117,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.91520155751567467</v>
+        <v>0.68871879087358645</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>VG</v>
+        <v>S</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4136,46 +4136,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>6.1231640000000001</v>
+        <v>4.8986179999999999</v>
       </c>
       <c r="I6">
-        <v>7.7561590000000002</v>
+        <v>4.734928</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.6329950000000002</v>
+        <v>-0.16368999999999989</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3386584351851845</v>
+        <v>-3.5286386203703728</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3564046018518523</v>
+        <v>-1.7111086574074035</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>11.146640146833185</v>
+        <v>12.451290513169328</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>11.265451851332291</v>
+        <v>2.927892837454567</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>11.205888535867057</v>
+        <v>6.0378840921778609</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>2.6666726700250005</v>
+        <v>2.6794416099999965E-2</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>2.9701406557551593</v>
+        <v>3.514870005816602</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>1.6329950000000002</v>
+        <v>0.16368999999999989</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>9.4795686018518523</v>
+        <v>6.6097266574074034</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4232,46 +4232,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>6.7148019999999997</v>
+        <v>5.2132360000000002</v>
       </c>
       <c r="I7">
-        <v>8.5838889999999992</v>
+        <v>5.2130559999999999</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.8690869999999995</v>
+        <v>-1.8000000000029104E-4</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5109284351851855</v>
+        <v>-3.0505106203703729</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7647666018518526</v>
+        <v>-1.3964906574074032</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>6.3047616066215246</v>
+        <v>9.3056150449924377</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>7.6439343627154406</v>
+        <v>1.9501861562261611</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>6.942131077240135</v>
+        <v>4.2600095816692871</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>3.4934862135689979</v>
+        <v>3.2400000000104773E-8</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>0.80224194917349412</v>
+        <v>1.9506889252628286</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.8690869999999995</v>
+        <v>1.8000000000029104E-4</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>3.5988741742749535</v>
+        <v>2.1140438553564618</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4328,46 +4328,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>8.1224790000000002</v>
+        <v>6.5407209999999996</v>
       </c>
       <c r="I8">
-        <v>9.6268139999999995</v>
+        <v>6.662903</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.5043349999999993</v>
+        <v>0.12218200000000046</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4680034351851852</v>
+        <v>-1.6006636203703728</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3570896018518521</v>
+        <v>-6.9005657407403831E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.1550340857155041</v>
+        <v>2.5621240255771891</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>1.8416921874544185</v>
+        <v>4.7617807542279875E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>1.9922121973726141</v>
+        <v>0.11045484541177265</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>2.2630237922249981</v>
+        <v>1.4928441124000111E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>2.1681207275806389E-2</v>
+        <v>2.8277234115252061E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>1.5043349999999993</v>
+        <v>0.12218200000000046</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>11.094817435185185</v>
+        <v>8.2635666203703728</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4424,46 +4424,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>10.368868000000001</v>
+        <v>9.0397219999999994</v>
       </c>
       <c r="I9">
-        <v>12.364478</v>
+        <v>8.8705569999999998</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.9956099999999992</v>
+        <v>-0.16916499999999957</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.2696605648148154</v>
+        <v>0.60699037962962699</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.88929939814814851</v>
+        <v>2.429995342592596</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>1.6120379498458759</v>
+        <v>0.3684373209629187</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>0.79085341954665922</v>
+        <v>5.9048773650217079</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.1291083761422536</v>
+        <v>1.4749837954985052</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>3.9824592720999967</v>
+        <v>2.8616797224999851E-2</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>8.3227022355235079</v>
+        <v>5.1113538379873571</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>1.9956099999999992</v>
+        <v>0.16916499999999957</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>4.4302767865875357</v>
+        <v>4.1734023873452708</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4519,46 +4519,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>12.784416999999999</v>
+        <v>10.868954</v>
       </c>
       <c r="I10">
-        <v>17.944284</v>
+        <v>13.421946999999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>5.1598670000000002</v>
+        <v>2.552992999999999</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>6.849466564814815</v>
+        <v>5.1583803796296266</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>3.3048483981481471</v>
+        <v>4.2592273425925971</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>46.915192222516062</v>
+        <v>26.60888814094789</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>10.922022934742374</v>
+        <v>18.141017555888396</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>22.636448604897534</v>
+        <v>21.970714756411688</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>26.624227457689003</v>
+        <v>6.5177732580489947</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>71.65140677164635</v>
+        <v>46.406345996032385</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>5.1598670000000002</v>
+        <v>2.552992999999999</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>2.1638466693333598</v>
+        <v>3.1587667630489613</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4614,46 +4614,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>13.967082</v>
+        <v>9.1853689999999997</v>
       </c>
       <c r="I11">
-        <v>17.621203999999999</v>
+        <v>14.410047</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>3.6541219999999992</v>
+        <v>5.2246780000000008</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>6.5263865648148141</v>
+        <v>6.1464803796296277</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>4.4875133981481472</v>
+        <v>2.5756423425925963</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>42.593721593395308</v>
+        <v>37.779221057171974</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>20.137776498559131</v>
+        <v>6.6339334769558773</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>29.287247151100541</v>
+        <v>15.831135123688684</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>13.352607590883995</v>
+        <v>27.297260203684008</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>66.286226956378925</v>
+        <v>60.844997447063889</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>3.6541219999999992</v>
+        <v>5.2246780000000008</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.95666167348528952</v>
+        <v>0.82989083069617442</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -4710,46 +4710,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>12.866607999999999</v>
+        <v>7.5160470000000004</v>
       </c>
       <c r="I12">
-        <v>14.150831</v>
+        <v>12.400347</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.2842230000000008</v>
+        <v>4.8842999999999996</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>3.0560135648148155</v>
+        <v>4.1367803796296272</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>3.387039398148147</v>
+        <v>0.90632034259259697</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>9.3392189083321568</v>
+        <v>17.112951909288643</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>11.472035884607761</v>
+        <v>0.82141656339716229</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>10.350838345302947</v>
+        <v>3.749248210896257</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>1.649228713729002</v>
+        <v>23.856386489999995</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>21.820692392352786</v>
+        <v>33.531283952047204</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>1.2842230000000008</v>
+        <v>4.8842999999999996</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>1.6797946851851848</v>
+        <v>2.1701081851851853</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4805,46 +4805,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>11.158422</v>
+        <v>6.553998</v>
       </c>
       <c r="I13">
-        <v>11.137532999999999</v>
+        <v>9.1906920000000003</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0889000000000379E-2</v>
+        <v>2.6366940000000003</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>4.2715564814814755E-2</v>
+        <v>0.92712537962962749</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>1.6788533981481475</v>
+        <v>-5.5728657407403404E-2</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>1.8246194774486403E-3</v>
+        <v>0.85956146955338086</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>2.8185487324735821</v>
+        <v>3.1056832564317384E-3</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>7.1713171143169191E-2</v>
+        <v>-5.1667452655088333E-2</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>4.3635032100001586E-4</v>
+        <v>6.952155249636002</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>2.7488459455267478</v>
+        <v>6.6613820996641211</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>2.0889000000000379E-2</v>
+        <v>2.6366940000000003</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4893,46 +4893,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>8.3720230000000004</v>
+        <v>4.7201709999999997</v>
       </c>
       <c r="I14">
-        <v>9.6229460000000007</v>
+        <v>5.7716830000000003</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.2509230000000002</v>
+        <v>1.0515120000000007</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-1.471871435185184</v>
+        <v>-2.4918836203703725</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1075456018518519</v>
+        <v>-1.8895556574074037</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>2.1664055217140934</v>
+        <v>6.2094839774701542</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1.2266572601813808</v>
+        <v>3.5704205824403257</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>1.6301647345307237</v>
+        <v>4.7085527924716803</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>1.5648083519290006</v>
+        <v>1.1056774861440013</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>2.0557078299732644E-2</v>
+        <v>0.70231717172077679</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>1.2509230000000002</v>
+        <v>1.0515120000000007</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4970,7 +4970,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.45887503225400533</v>
+        <v>0.70364462369625214</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4985,46 +4985,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>5.9794119999999999</v>
+        <v>3.8279719999999999</v>
       </c>
       <c r="I15">
-        <v>6.9719420000000003</v>
+        <v>4.4653559999999999</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0.99253000000000036</v>
+        <v>0.63738399999999995</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1228754351851844</v>
+        <v>-3.7982106203703729</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3.5001566018518524</v>
+        <v>-2.7817546574074035</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>16.998101854053424</v>
+        <v>14.426403916694293</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>12.251096237487106</v>
+        <v>7.7381589740077805</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>14.430709673076253</v>
+        <v>10.565690083029548</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>0.98511580090000073</v>
+        <v>0.40625836345599992</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>6.2881911743150667</v>
+        <v>4.5983255163498598</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.99253000000000036</v>
+        <v>0.63738399999999995</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5073,46 +5073,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5.1166239999999998</v>
+        <v>4.4768739999999996</v>
       </c>
       <c r="I16">
-        <v>5.7269500000000004</v>
+        <v>3.8536079999999999</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>0.61032600000000059</v>
+        <v>-0.62326599999999965</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3678674351851843</v>
+        <v>-4.4099586203703733</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3629446018518525</v>
+        <v>-2.1328526574074038</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>28.814000801721569</v>
+        <v>19.447735033378965</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>19.035285598828221</v>
+        <v>4.5490604582098246</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>23.419708249797548</v>
+        <v>9.4057919625136392</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>0.3724978262760007</v>
+        <v>0.38846050675599958</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>14.082146370964548</v>
+        <v>7.5961900537091882</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>0.61032600000000059</v>
+        <v>0.62326599999999965</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5140,46 +5140,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>4.6176500000000003</v>
+        <v>3.6331329999999999</v>
       </c>
       <c r="I17">
-        <v>5.5398800000000001</v>
+        <v>2.9846339999999998</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>0.92222999999999988</v>
+        <v>-0.64849900000000016</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5549374351851846</v>
+        <v>-5.278932620370373</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8619186018518521</v>
+        <v>-2.9765936574074034</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>30.857329908821757</v>
+        <v>27.867129610410412</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>23.638252491033068</v>
+        <v>8.8601098013179822</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>27.007653648250066</v>
+        <v>15.713237355675497</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>0.8505081728999998</v>
+        <v>0.42055095300100021</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>15.521146279561401</v>
+        <v>13.141296774789071</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>0.92222999999999988</v>
+        <v>0.64849900000000016</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5207,46 +5207,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5.4936290000000003</v>
+        <v>4.2496710000000002</v>
       </c>
       <c r="I18">
-        <v>6.6660279999999998</v>
+        <v>4.0498010000000004</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>1.1723989999999995</v>
+        <v>-0.19986999999999977</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4287894351851849</v>
+        <v>-4.2137656203703724</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-3.985939601851852</v>
+        <v>-2.3600556574074032</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>19.614175861207908</v>
+        <v>17.75582070341531</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>15.8877145096109</v>
+        <v>5.5698627060606904</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>17.652887197967726</v>
+        <v>9.9447213913439132</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>1.374519415200999</v>
+        <v>3.9948016899999911E-2</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>7.9160107182688844</v>
+        <v>6.553219371452724</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>1.1723989999999995</v>
+        <v>0.19986999999999977</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5274,46 +5274,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5.9458070000000003</v>
+        <v>4.202833</v>
       </c>
       <c r="I19">
-        <v>7.4212160000000003</v>
+        <v>4.5851389999999999</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>1.475409</v>
+        <v>0.38230599999999981</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6736014351851844</v>
+        <v>-3.678427620370373</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-3.5337616018518521</v>
+        <v>-2.4068936574074034</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>13.495347504594648</v>
+        <v>13.530829758303645</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>12.487471058722567</v>
+        <v>5.7931370780679865</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>12.98163169216526</v>
+        <v>8.8535841087016589</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>2.1768317172809999</v>
+        <v>0.14615787763599986</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>4.236815433550289</v>
+        <v>4.0989551825263977</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>1.475409</v>
+        <v>0.38230599999999981</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5344,46 +5344,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>7.602169</v>
+        <v>6.4582519999999999</v>
       </c>
       <c r="I20">
-        <v>8.8816199999999998</v>
+        <v>5.7314860000000003</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.2794509999999999</v>
+        <v>-0.72676599999999958</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-2.2131974351851849</v>
+        <v>-2.5320806203703725</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8773996018518524</v>
+        <v>-0.15147465740740351</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>4.8982428871102801</v>
+        <v>6.4114322680552105</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>3.5246292650334938</v>
+        <v>2.2944571836690263E-2</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>4.1550559836362071</v>
+        <v>0.38354604449852792</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>1.6369948614009997</v>
+        <v>0.52818881875599943</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.35754253045658524</v>
+        <v>0.77130665232338758</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>1.2794509999999999</v>
+        <v>0.72676599999999958</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5417,46 +5417,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.722156</v>
+        <v>9.4497669999999996</v>
       </c>
       <c r="I21">
-        <v>11.881873000000001</v>
+        <v>7.9797929999999999</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>2.1597170000000006</v>
+        <v>-1.4699739999999997</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.78705556481481587</v>
+        <v>-0.2837736203703729</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.24258739814814767</v>
+        <v>2.8400403425925962</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.61945646210596883</v>
+        <v>8.0527467618108514E-2</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>5.8848645740287919E-2</v>
+        <v>8.0658291475534707</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>0.19092976166644698</v>
+        <v>-0.8059285300154152</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>4.6643775200890021</v>
+        <v>2.1608235606759991</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>5.7710664213619367</v>
+        <v>1.8770817831050541</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>2.1597170000000006</v>
+        <v>1.4699739999999997</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5490,46 +5490,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>12.284406000000001</v>
+        <v>9.9536850000000001</v>
       </c>
       <c r="I22">
-        <v>16.148657</v>
+        <v>11.851042</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.8642509999999994</v>
+        <v>1.8973569999999995</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>5.0538395648148153</v>
+        <v>3.5874753796296268</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.8048373981481483</v>
+        <v>3.3439583425925967</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>25.541294346887604</v>
+        <v>12.869979599448735</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>7.8671128300504742</v>
+        <v>11.182057396994626</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>14.175198215633356</v>
+        <v>11.996368224558033</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>14.932435791000996</v>
+        <v>3.599963585448998</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>44.476740062314228</v>
+        <v>27.471386520496544</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>3.8642509999999994</v>
+        <v>1.8973569999999995</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5563,46 +5563,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>13.916598</v>
+        <v>8.8739609999999995</v>
       </c>
       <c r="I23">
-        <v>17.884912</v>
+        <v>14.344889</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>3.9683139999999995</v>
+        <v>5.4709280000000007</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>6.7900945648148152</v>
+        <v>6.0813223796296274</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>4.4370293981481481</v>
+        <v>2.2642343425925961</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>46.105384199127698</v>
+        <v>36.982481884984153</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>19.687229880030916</v>
+        <v>5.1267571581757263</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>30.12784920028929</v>
+        <v>13.769538980334332</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>15.747516002595995</v>
+        <v>29.931053181184009</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>70.649797640792656</v>
+        <v>59.832736466262588</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>3.9683139999999995</v>
+        <v>5.4709280000000007</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5636,46 +5636,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>13.562449000000001</v>
+        <v>7.4884009999999996</v>
       </c>
       <c r="I24">
-        <v>15.402051999999999</v>
+        <v>13.315555</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>1.8396029999999985</v>
+        <v>5.8271540000000002</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>4.3072345648148147</v>
+        <v>5.051988379629627</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>4.0828803981481485</v>
+        <v>0.87867434259259625</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>18.552269596335467</v>
+        <v>25.522586587912784</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>16.669912345582382</v>
+        <v>0.77206860033053115</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>17.585923574908577</v>
+        <v>4.4390525682564981</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>3.3841391976089947</v>
+        <v>33.955723739715999</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>35.075809601340424</v>
+        <v>44.968133760318167</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>1.8396029999999985</v>
+        <v>5.8271540000000002</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5709,46 +5709,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>11.493366</v>
+        <v>6.548057</v>
       </c>
       <c r="I25">
-        <v>11.311054</v>
+        <v>9.5108549999999994</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-0.18231199999999959</v>
+        <v>2.9627979999999994</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>0.21623656481481568</v>
+        <v>1.2472883796296266</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>2.0137973981481476</v>
+        <v>-6.1669657407403378E-2</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>4.675825196291198E-2</v>
+        <v>1.5557283019590995</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>4.0553799607882492</v>
+        <v>3.8031466447465022E-3</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>0.43545663160856912</v>
+        <v>-7.6919847059994356E-2</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>3.3237665343999849E-2</v>
+        <v>8.7781719888039955</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>3.3543387636298805</v>
+        <v>8.4165456601940623</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>0.18231199999999959</v>
+        <v>2.9627979999999994</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5782,46 +5782,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>9.0158109999999994</v>
+        <v>4.0560999999999998</v>
       </c>
       <c r="I26">
-        <v>9.0141100000000005</v>
+        <v>5.1493080000000004</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7009999999988423E-3</v>
+        <v>1.0932080000000006</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0807074351851842</v>
+        <v>-3.1142586203703724</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-0.463757601851853</v>
+        <v>-2.5536266574074036</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>4.3293434308349079</v>
+        <v>9.6986067545511752</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>0.21507111327538181</v>
+        <v>6.521009105421709</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>0.96494389029680083</v>
+        <v>7.9526538310385861</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>2.8934009999960617E-6</v>
+        <v>1.1951037312640014</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>0.21665171003788072</v>
+        <v>2.1328226549036415</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>1.7009999999988423E-3</v>
+        <v>1.0932080000000006</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5855,46 +5855,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>6.4194360000000001</v>
+        <v>3.9512320000000001</v>
       </c>
       <c r="I27">
-        <v>5.8945230000000004</v>
+        <v>2.4536959999999999</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-0.52491299999999974</v>
+        <v>-1.4975360000000002</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.2002944351851843</v>
+        <v>-5.8098706203703729</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0601326018518522</v>
+        <v>-2.6584946574074033</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>27.043062212617993</v>
+        <v>33.754596625442822</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>9.3644115409165867</v>
+        <v>7.0675938434637064</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>15.913590540338946</v>
+        <v>15.445510004482873</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>0.27553365756899972</v>
+        <v>2.2426140712960008</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>12.852551967357307</v>
+        <v>17.272590825310214</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>0.52491299999999974</v>
+        <v>1.4975360000000002</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5928,46 +5928,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>5.245177</v>
+        <v>3.9248129999999999</v>
       </c>
       <c r="I28">
-        <v>5.5910279999999997</v>
+        <v>3.6149529999999999</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>0.34585099999999969</v>
+        <v>-0.30986000000000002</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-5.503789435185185</v>
+        <v>-4.648613620370373</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2343916018518524</v>
+        <v>-2.6849136574074035</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>30.291698146856056</v>
+        <v>21.609608591492947</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>17.930072237833496</v>
+        <v>7.2087613477327999</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>23.305199762709098</v>
+        <v>12.481126197342489</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>0.11961291420099979</v>
+        <v>9.6013219600000019E-2</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>15.120748012250369</v>
+        <v>8.9686692591013166</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>0.34585099999999969</v>
+        <v>0.30986000000000002</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -6001,46 +6001,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5.0537679999999998</v>
+        <v>4.1292210000000003</v>
       </c>
       <c r="I29">
-        <v>5.7675640000000001</v>
+        <v>3.6020829999999999</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>0.71379600000000032</v>
+        <v>-0.52713800000000033</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3272534351851846</v>
+        <v>-4.6614836203703724</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-4.4258006018518525</v>
+        <v>-2.4805056574074031</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>28.37962916269235</v>
+        <v>21.729429542981276</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>19.587710967352219</v>
+        <v>6.1529083164301328</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>23.57736145965994</v>
+        <v>11.562836492240653</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>0.50950472961600046</v>
+        <v>0.27787447104400037</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>13.778978164169327</v>
+        <v>9.0459203699429818</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>0.71379600000000032</v>
+        <v>0.52713800000000033</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6074,46 +6074,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>4.7173579999999999</v>
+        <v>3.644091</v>
       </c>
       <c r="I30">
-        <v>6.0292329999999996</v>
+        <v>3.3416990000000002</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1.3118749999999997</v>
+        <v>-0.30239199999999977</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-5.0655844351851851</v>
+        <v>-4.9218676203703726</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-4.7622106018518524</v>
+        <v>-2.9656356574074034</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>25.66014566999041</v>
+        <v>24.224780872450314</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>22.678649816390184</v>
+        <v>8.7949948524862425</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>24.123379901814616</v>
+        <v>14.596466116009303</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1.7210160156249992</v>
+        <v>9.1440921663999863E-2</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>11.904815765406386</v>
+        <v>10.680004769579719</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>1.3118749999999997</v>
+        <v>0.30239199999999977</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6147,46 +6147,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6.7963040000000001</v>
+        <v>6.6855820000000001</v>
       </c>
       <c r="I31">
-        <v>7.5388890000000002</v>
+        <v>4.9653119999999999</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>0.74258500000000005</v>
+        <v>-1.7202700000000002</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5559284351851845</v>
+        <v>-3.2982546203703729</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6832646018518522</v>
+        <v>7.5855342592596742E-2</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>12.644627036158555</v>
+        <v>10.878483540794512</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>7.1999089235511793</v>
+        <v>5.7540329998402211E-3</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>9.5414968968508536</v>
+        <v>-0.25019023418580977</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>0.55143248222500008</v>
+        <v>2.9593288729000005</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>3.7662373170438634</v>
+        <v>2.7040995654963083</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>0.74258500000000005</v>
+        <v>1.7202700000000002</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6220,46 +6220,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>8.569051</v>
+        <v>7.9209849999999999</v>
       </c>
       <c r="I32">
-        <v>9.6521509999999999</v>
+        <v>6.8807460000000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1.0831</v>
+        <v>-1.0402389999999997</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4426664351851848</v>
+        <v>-1.3828206203703726</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-0.91051760185185238</v>
+        <v>1.3112583425925965</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>2.0812864432099292</v>
+        <v>1.9121928681215021</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>0.82904230328204842</v>
+        <v>1.7193984410186833</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>1.3135731828369752</v>
+        <v>-1.8132350747697208</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1.1731056099999999</v>
+        <v>1.0820971771209993</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>2.9784684150565732E-2</v>
+        <v>7.3451484059323391E-2</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1.0831</v>
+        <v>1.0402389999999997</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6287,46 +6287,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>10.027310999999999</v>
+        <v>9.1286900000000006</v>
       </c>
       <c r="I33">
-        <v>12.711807</v>
+        <v>8.9986110000000004</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>2.6844960000000011</v>
+        <v>-0.13007900000000028</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>1.6169895648148156</v>
+        <v>0.73504437962962754</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.54774239814814685</v>
+        <v>2.5189633425925972</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>2.6146552527200067</v>
+        <v>0.54029024002510406</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>0.300021734729083</v>
+        <v>6.3451763213252708</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>0.88569374201219542</v>
+        <v>1.8515498474657486</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>7.2065187740160059</v>
+        <v>1.6920546241000072E-2</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>10.447365062463305</v>
+        <v>5.7067684022840641</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>2.6844960000000011</v>
+        <v>0.13007900000000028</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6354,46 +6354,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>13.222445</v>
+        <v>11.09207</v>
       </c>
       <c r="I34">
-        <v>16.876681999999999</v>
+        <v>13.258972999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>3.6542369999999984</v>
+        <v>2.1669029999999996</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>5.7818645648148141</v>
+        <v>4.9954063796296264</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>3.7428763981481481</v>
+        <v>4.4823433425925963</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>33.429957845861203</v>
+        <v>24.954084897644371</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>14.009123731814455</v>
+        <v>20.091401840884167</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>21.640804416934483</v>
+        <v>22.39112652927744</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>13.353448052168988</v>
+        <v>4.6954686114089981</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>54.717286625062819</v>
+        <v>44.21247692448101</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>3.6542369999999984</v>
+        <v>2.1669029999999996</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6421,46 +6421,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>14.489941</v>
+        <v>9.6180199999999996</v>
       </c>
       <c r="I35">
-        <v>18.446539000000001</v>
+        <v>14.855275000000001</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>3.9565980000000014</v>
+        <v>5.2372550000000011</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>7.3517215648148166</v>
+        <v>6.5917083796296279</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>5.0103723981481476</v>
+        <v>3.0082933425925962</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>54.047809966563214</v>
+        <v>43.450619362079451</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>25.103831568124821</v>
+        <v>9.0498288350869345</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>36.834862807218663</v>
+        <v>19.829792434751639</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>15.654667733604011</v>
+        <v>27.42883993502501</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>80.406558121265178</v>
+        <v>67.989067470031529</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>3.9565980000000014</v>
+        <v>5.2372550000000011</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6488,46 +6488,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>14.065899</v>
+        <v>7.4460040000000003</v>
       </c>
       <c r="I36">
-        <v>14.266251</v>
+        <v>12.387187000000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>0.20035200000000053</v>
+        <v>4.9411830000000005</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>3.1714335648148158</v>
+        <v>4.123620379629628</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>4.5863303981481476</v>
+        <v>0.8362773425925969</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>10.05799085603401</v>
+        <v>17.004245035296798</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>21.034426520977746</v>
+        <v>0.69935979373373569</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>14.545242164017534</v>
+        <v>3.4484902929373411</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>4.014092390400021E-2</v>
+        <v>24.415289439489005</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>22.912328380741307</v>
+        <v>33.379048010230171</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>0.20035200000000053</v>
+        <v>4.9411830000000005</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6555,46 +6555,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>11.951362</v>
+        <v>6.4589379999999998</v>
       </c>
       <c r="I37">
-        <v>10.601513000000001</v>
+        <v>8.2147500000000004</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-1.349848999999999</v>
+        <v>1.7558120000000006</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-0.49330443518518408</v>
+        <v>-4.8816620370372377E-2</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>2.4717933981481472</v>
+        <v>-0.15078865740740355</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.24334926577337349</v>
+        <v>2.3830624243850553E-3</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>6.1097626031287655</v>
+        <v>2.2737219202727317E-2</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-1.2193466461679385</v>
+        <v>7.3609926448153576E-3</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>1.8220923228009973</v>
+        <v>3.0828757793440023</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>1.2587592325360106</v>
+        <v>2.5760999302671133</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1.349848999999999</v>
+        <v>1.7558120000000006</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6622,46 +6622,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>8.7939129999999999</v>
+        <v>5.6897729999999997</v>
       </c>
       <c r="I38">
-        <v>9.7765780000000007</v>
+        <v>6.4361740000000003</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0.98266500000000079</v>
+        <v>0.74640100000000054</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.318239435185184</v>
+        <v>-1.8273926203703725</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-0.68565560185185248</v>
+        <v>-0.91995365740740365</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>1.7377552084773531</v>
+        <v>3.3393637889840964</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>0.47012360435082606</v>
+        <v>0.84631473177725858</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>0.90385825331674341</v>
+        <v>1.6811165246290234</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>0.96563050222500157</v>
+        <v>0.5571144528010008</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>8.8214582588325277E-2</v>
+        <v>3.0120524893171435E-2</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>0.98266500000000079</v>
+        <v>0.74640100000000054</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6689,46 +6689,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>5.4329580000000002</v>
+        <v>3.200841</v>
       </c>
       <c r="I39">
-        <v>6.913138</v>
+        <v>4.6127019999999996</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1.4801799999999998</v>
+        <v>1.4118609999999996</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1816794351851847</v>
+        <v>-3.6508646203703732</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0466106018518522</v>
+        <v>-3.4088856574074033</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>17.486442898650687</v>
+        <v>13.328812476272109</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>16.37505736301981</v>
+        <v>11.620501425277904</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>16.921628335966233</v>
+        <v>12.445380041516689</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>2.1909328323999997</v>
+        <v>1.9933514833209989</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>6.5865660341216614</v>
+        <v>3.9881074822931581</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>1.4801799999999998</v>
+        <v>1.4118609999999996</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6756,46 +6756,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4.5168200000000001</v>
+        <v>3.6047310000000001</v>
       </c>
       <c r="I40">
-        <v>4.6715059999999999</v>
+        <v>2.8536619999999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>0.15468599999999988</v>
+        <v>-0.75106900000000021</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-6.4233114351851848</v>
+        <v>-5.4099046203703729</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-4.9627486018518523</v>
+        <v>-3.0049956574074033</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>41.258929793380759</v>
+        <v>29.267068001504708</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>24.628873685182516</v>
+        <v>9.0299989010373523</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>31.87727984422429</v>
+        <v>16.256739891201217</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>2.3927758595999962E-2</v>
+        <v>0.56410464276100036</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>23.117465983326404</v>
+        <v>14.108021710624996</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>0.15468599999999988</v>
+        <v>0.75106900000000021</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6823,46 +6823,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>4.5455240000000003</v>
+        <v>3.479962</v>
       </c>
       <c r="I41">
-        <v>5.9268229999999997</v>
+        <v>3.7675230000000002</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>1.3812989999999994</v>
+        <v>0.28756100000000018</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-5.167994435185185</v>
+        <v>-4.4960436203703722</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-4.934044601851852</v>
+        <v>-3.1297646574074034</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>26.708166482105039</v>
+        <v>20.214408236273123</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>24.344796133063401</v>
+        <v>9.7954268107564815</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>25.499115045325873</v>
+        <v>14.071558421197219</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>1.9079869274009984</v>
+        <v>8.2691328721000101E-2</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>12.622001311477682</v>
+        <v>8.0781216301800196</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>1.3812989999999994</v>
+        <v>0.28756100000000018</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6890,46 +6890,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>6.0120979999999999</v>
+        <v>5.3047009999999997</v>
       </c>
       <c r="I42">
-        <v>7.2695530000000002</v>
+        <v>4.4040280000000003</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>1.2574550000000002</v>
+        <v>-0.90067299999999939</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8252644351851846</v>
+        <v>-3.8595386203703725</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4674706018518524</v>
+        <v>-1.3050256574074037</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>14.632647999092629</v>
+        <v>14.896038362130438</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>12.023352374706848</v>
+        <v>1.7030919664916262</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>13.263991973314058</v>
+        <v>5.0367969253381091</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>1.5811930770250004</v>
+        <v>0.81121185292899889</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>4.884168960428604</v>
+        <v>4.8651065672888203</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>1.2574550000000002</v>
+        <v>0.90067299999999939</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6957,46 +6957,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>7.1983870000000003</v>
+        <v>6.0746969999999996</v>
       </c>
       <c r="I43">
-        <v>9.0236800000000006</v>
+        <v>5.5048959999999996</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>1.8252930000000003</v>
+        <v>-0.569801</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0711374351851841</v>
+        <v>-2.7586706203703732</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-2.281181601851852</v>
+        <v>-0.53502965740740382</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>4.2896102754254626</v>
+        <v>7.6102635916946602</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>5.2037895006273818</v>
+        <v>0.28625673430548393</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>4.7246406120510747</v>
+        <v>1.475970596916631</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>3.3316945358490009</v>
+        <v>0.32467317960100001</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>0.20783441729843621</v>
+        <v>1.220650781547276</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>1.8252930000000003</v>
+        <v>0.569801</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7024,46 +7024,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>9.2191130000000001</v>
+        <v>8.2528079999999999</v>
       </c>
       <c r="I44">
-        <v>10.714046</v>
+        <v>8.1537970000000008</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1.4949329999999996</v>
+        <v>-9.9010999999999072E-2</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-0.38077143518518497</v>
+        <v>-0.10976962037037197</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-0.26045560185185224</v>
+        <v>1.6430813425925965</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.14498688585298553</v>
+        <v>1.2049369556255581E-2</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>6.783712053601057E-2</v>
+        <v>2.6997162983758898</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>9.9174053319150898E-2</v>
+        <v>-0.1803604152140304</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>2.234824674488999</v>
+        <v>9.803178120999817E-3</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>1.5239344465386195</v>
+        <v>2.3841532228740214</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>1.4949329999999996</v>
+        <v>9.9010999999999072E-2</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7091,46 +7091,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>11.558054</v>
+        <v>9.9528239999999997</v>
       </c>
       <c r="I45">
-        <v>14.825206</v>
+        <v>11.141494</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>3.2671519999999994</v>
+        <v>1.1886700000000001</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>3.730388564814815</v>
+        <v>2.877927379629627</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>2.0784853981481479</v>
+        <v>3.3430973425925963</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>13.915798844501134</v>
+        <v>8.2824660024218506</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>4.3201015503150648</v>
+        <v>11.176299842049678</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>7.7535581613864188</v>
+        <v>9.6211913750142806</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>10.674282191103996</v>
+        <v>1.4129363689000003</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>28.575839192480093</v>
+        <v>20.536915247388762</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>3.2671519999999994</v>
+        <v>1.1886700000000001</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7158,46 +7158,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>13.739312</v>
+        <v>10.41943</v>
       </c>
       <c r="I46">
-        <v>18.854301</v>
+        <v>15.461762</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>5.1149889999999996</v>
+        <v>5.042332</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>7.7594835648148148</v>
+        <v>7.1981953796296274</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>4.2597433981481476</v>
+        <v>3.8097033425925968</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>60.209585192631224</v>
+        <v>51.814016723321316</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>18.145413818066729</v>
+        <v>14.513839558561205</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>33.053408888258964</v>
+        <v>27.422988998409579</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>26.163112470120996</v>
+        <v>25.425111998224001</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>87.885607536888514</v>
+        <v>78.358529706508435</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>5.1149889999999996</v>
+        <v>5.042332</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7225,46 +7225,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>14.601336</v>
+        <v>8.8168220000000002</v>
       </c>
       <c r="I47">
-        <v>18.179331000000001</v>
+        <v>16.488776999999999</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>3.5779950000000014</v>
+        <v>7.6719549999999987</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>7.0845135648148165</v>
+        <v>8.2252103796296261</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>5.1217673981481475</v>
+        <v>2.2070953425925968</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>50.19033245004514</v>
+        <v>67.654085789166942</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>26.232501280733246</v>
+        <v>4.8712698512939321</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>36.285230608006842</v>
+        <v>18.153823520724831</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>12.802048220025009</v>
+        <v>58.858893522024978</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>75.685865784232433</v>
+        <v>97.595635671478874</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>3.5779950000000014</v>
+        <v>7.6719549999999987</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7292,46 +7292,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>13.449405</v>
+        <v>8.2223970000000008</v>
       </c>
       <c r="I48">
-        <v>13.831529</v>
+        <v>13.884964999999999</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>0.38212399999999924</v>
+        <v>5.6625679999999985</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>2.736711564814815</v>
+        <v>5.6213983796296265</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>3.9698363981481481</v>
+        <v>1.6126703425925974</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>7.4895901889911531</v>
+        <v>31.600119742502592</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>15.759601028061862</v>
+        <v>2.6007056338777255</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>10.864297181234827</v>
+        <v>9.0654624507267823</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>0.14601875137599943</v>
+        <v>32.064676354623984</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>18.93955930704978</v>
+        <v>52.929092941529461</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>0.38212399999999924</v>
+        <v>5.6625679999999985</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7359,46 +7359,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>10.633471</v>
+        <v>7.1077490000000001</v>
       </c>
       <c r="I49">
-        <v>11.222716</v>
+        <v>7.2704969999999998</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>0.58924500000000002</v>
+        <v>0.16274799999999967</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>0.12789856481481543</v>
+        <v>-0.99306962037037305</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>1.1539023981481478</v>
+        <v>0.4980223425925967</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>1.6358042881689544E-2</v>
+        <v>0.98618727090255687</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>1.3314907444520465</v>
+        <v>0.24802625372141776</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>0.14758246065952182</v>
+        <v>-0.49457085869439388</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>0.34720967002500003</v>
+        <v>2.6486911503999892E-2</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>3.0385628516706573</v>
+        <v>0.43661744564993715</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>0.58924500000000002</v>
+        <v>0.16274799999999967</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7426,46 +7426,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>8.6755309999999994</v>
+        <v>4.7543660000000001</v>
       </c>
       <c r="I50">
-        <v>9.0450400000000002</v>
+        <v>5.7284040000000003</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>0.36950900000000075</v>
+        <v>0.97403800000000018</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0497774351851845</v>
+        <v>-2.5351626203703725</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-0.80403760185185291</v>
+        <v>-1.8553606574074033</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>4.2015875337943536</v>
+        <v>6.4270495117231734</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>0.64647646519167878</v>
+        <v>3.4423631690552319</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>1.6480981333163376</v>
+        <v>4.7036409859650492</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>0.13653690108100056</v>
+        <v>0.94875002544400033</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>0.18881510582732547</v>
+        <v>0.77672962645964683</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>0.36950900000000075</v>
+        <v>0.97403800000000018</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7493,46 +7493,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>5.7623800000000003</v>
+        <v>4.0385949999999999</v>
       </c>
       <c r="I51">
-        <v>5.3185479999999998</v>
+        <v>2.7692540000000001</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-0.44383200000000045</v>
+        <v>-1.2693409999999998</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7762694351851849</v>
+        <v>-5.4943126203703727</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7171886018518521</v>
+        <v>-2.5711316574074035</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>33.365288587854572</v>
+        <v>30.18747117036115</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>13.817491101737327</v>
+        <v>6.6107179997225414</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>21.471482905695606</v>
+        <v>14.12660111392729</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>0.1969868442240004</v>
+        <v>1.6112265742809995</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>17.314092449035552</v>
+        <v>14.749230232293883</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>0.44383200000000045</v>
+        <v>1.2693409999999998</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7560,46 +7560,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>5.5897990000000002</v>
+        <v>5.5932329999999997</v>
       </c>
       <c r="I52">
-        <v>5.3352490000000001</v>
+        <v>3.6647850000000002</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-0.25455000000000005</v>
+        <v>-1.9284479999999995</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7595684351851846</v>
+        <v>-4.5987816203703726</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-3.8897696018518522</v>
+        <v>-1.0164936574074037</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>33.172628559581518</v>
+        <v>21.14879239185635</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>15.130307555490717</v>
+        <v>1.0332593555494802</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>22.403394218968771</v>
+        <v>4.6746323489082267</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>6.4795702500000024E-2</v>
+        <v>3.7189116887039981</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>17.175384962293496</v>
+        <v>8.6726813655334638</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>0.25455000000000005</v>
+        <v>1.9284479999999995</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7627,46 +7627,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5.2787759999999997</v>
+        <v>4.0500150000000001</v>
       </c>
       <c r="I53">
-        <v>5.3281619999999998</v>
+        <v>3.4971730000000001</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>4.9386000000000152E-2</v>
+        <v>-0.55284200000000006</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7666554351851849</v>
+        <v>-4.7663936203703727</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2007926018518527</v>
+        <v>-2.5597116574074033</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>33.254314908150832</v>
+        <v>22.718508144307389</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>17.646658483773258</v>
+        <v>6.5521237690673555</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>24.224523489554702</v>
+        <v>12.20059331385432</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>2.4389769960000149E-3</v>
+        <v>0.30563427696400008</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>17.234176773899147</v>
+        <v>9.6879902702402028</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>4.9386000000000152E-2</v>
+        <v>0.55284200000000006</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7694,46 +7694,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>6.3668060000000004</v>
+        <v>5.4342160000000002</v>
       </c>
       <c r="I54">
-        <v>7.0873920000000004</v>
+        <v>5.0500930000000004</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>0.72058599999999995</v>
+        <v>-0.38412299999999977</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-4.0074254351851843</v>
+        <v>-3.2134736203703724</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1127626018518519</v>
+        <v>-1.1755106574074032</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>16.059458618569163</v>
+        <v>10.326412708816269</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>9.6892910154875107</v>
+        <v>1.3818253056783854</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>12.474164024354325</v>
+        <v>3.7774724880429247</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.51924418339599998</v>
+        <v>0.14755047912899982</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>5.7225088944474738</v>
+        <v>2.4324571453179926</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>0.72058599999999995</v>
+        <v>0.38412299999999977</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7761,46 +7761,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>7.6484620000000003</v>
+        <v>6.4882270000000002</v>
       </c>
       <c r="I55">
-        <v>8.8406249999999993</v>
+        <v>6.1957279999999999</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>1.192162999999999</v>
+        <v>-0.29249900000000029</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-2.2541924351851854</v>
+        <v>-2.0678386203703729</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-1.831106601851852</v>
+        <v>-0.12149965740740321</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>5.0813835348461165</v>
+        <v>4.2759565598952474</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>3.3529513873454371</v>
+        <v>1.4762166750116349E-2</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>4.1276666499120962</v>
+        <v>0.25124168394879759</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>1.4212526185689975</v>
+        <v>8.5555665001000161E-2</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>0.40824892634741933</v>
+        <v>0.17139488833513264</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>1.192162999999999</v>
+        <v>0.29249900000000029</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7828,46 +7828,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>9.3984170000000002</v>
+        <v>8.9281430000000004</v>
       </c>
       <c r="I56">
-        <v>10.805914</v>
+        <v>8.3425729999999998</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>1.4074969999999993</v>
+        <v>-0.58557000000000059</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>-0.28890343518518513</v>
+        <v>7.9006379629626977E-2</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>-8.1151601851852107E-2</v>
+        <v>2.318416342592597</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>8.3465194861800471E-2</v>
+        <v>6.2420080221807367E-3</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>6.5855824831215258E-3</v>
+        <v>5.3750543376004343</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>2.3444976545780503E-2</v>
+        <v>0.18316968170240203</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>1.9810478050089981</v>
+        <v>0.34289222490000071</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>1.7591921151887673</v>
+        <v>3.0027564470365378</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>1.4074969999999993</v>
+        <v>0.58557000000000059</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7895,46 +7895,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>11.638714</v>
+        <v>9.3607379999999996</v>
       </c>
       <c r="I57">
-        <v>15.333819</v>
+        <v>11.046635</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>3.6951049999999999</v>
+        <v>1.6858970000000006</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>4.2390015648148154</v>
+        <v>2.7830683796296274</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>2.1591453981481479</v>
+        <v>2.7510113425925962</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>17.969134266502454</v>
+        <v>7.7454696056942796</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>4.6619088503443242</v>
+        <v>7.5680634070731188</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>9.1526207214127062</v>
+        <v>7.6562526795719021</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>13.653800961024999</v>
+        <v>2.842248694609002</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>34.272247724217749</v>
+        <v>19.686155640567783</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>3.6951049999999999</v>
+        <v>1.6858970000000006</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7962,46 +7962,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>13.820983</v>
+        <v>10.723186</v>
       </c>
       <c r="I58">
-        <v>19.290593999999999</v>
+        <v>15.348991</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>5.4696109999999987</v>
+        <v>4.6258049999999997</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>8.195776564814814</v>
+        <v>7.085424379629627</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>4.3414143981481477</v>
+        <v>4.1134593425925967</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>67.170753500367709</v>
+        <v>50.203238639449886</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>18.847878976448044</v>
+        <v>16.920547763162318</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>35.581262382492199</v>
+        <v>29.145605110620842</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>29.916644491320984</v>
+        <v>21.398071898024998</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>96.256219363107988</v>
+        <v>76.374741249710411</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>5.4696109999999987</v>
+        <v>4.6258049999999997</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8029,46 +8029,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>14.928369</v>
+        <v>8.9892850000000006</v>
       </c>
       <c r="I59">
-        <v>19.834306999999999</v>
+        <v>16.355612000000001</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>4.905937999999999</v>
+        <v>7.3663270000000001</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>8.7394895648148143</v>
+        <v>8.0920453796296279</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>5.4488003981481477</v>
+        <v>2.3795583425925972</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>76.378677853507028</v>
+        <v>65.481198425985212</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>29.689425778859412</v>
+        <v>5.6622979058020286</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>47.619734220374539</v>
+        <v>19.25549409173556</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>24.068227659843991</v>
+        <v>54.262773470928998</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>107.22060729408365</v>
+        <v>94.982281110961225</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>4.905937999999999</v>
+        <v>7.3663270000000001</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8096,46 +8096,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>14.191447999999999</v>
+        <v>7.329949</v>
       </c>
       <c r="I60">
-        <v>15.202292</v>
+        <v>13.380451000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>1.0108440000000005</v>
+        <v>6.0505020000000007</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>4.1074745648148152</v>
+        <v>5.1168843796296279</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>4.711879398148147</v>
+        <v>0.72022234259259665</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>16.871347300600657</v>
+        <v>26.182505754497683</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>22.201807462692944</v>
+        <v>0.51872022276956764</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>19.353924780368455</v>
+        <v>3.6852944546723161</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>1.021805592336001</v>
+        <v>36.608574452004007</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>32.749563091712282</v>
+        <v>45.842708123375957</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>1.0108440000000005</v>
+        <v>6.0505020000000007</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8163,46 +8163,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>12.483772</v>
+        <v>7.0039100000000003</v>
       </c>
       <c r="I61">
-        <v>12.222011</v>
+        <v>10.260956</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-0.26176099999999991</v>
+        <v>3.2570459999999999</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.1271935648148155</v>
+        <v>1.9973893796296274</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>3.0042033981481477</v>
+        <v>0.39418334259259691</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>1.2705653325599315</v>
+        <v>3.9895643338572278</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>9.0252380574448789</v>
+        <v>0.15538050757747263</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>3.3863187377873931</v>
+        <v>0.78733762212136005</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>6.8518821120999954E-2</v>
+        <v>10.608348646115999</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>7.5209903071605639</v>
+        <v>13.331475712209167</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>0.26176099999999991</v>
+        <v>3.2570459999999999</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8230,46 +8230,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>9.0472819999999992</v>
+        <v>5.4021809999999997</v>
       </c>
       <c r="I62">
-        <v>9.9835840000000005</v>
+        <v>6.1787200000000002</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>0.9363020000000013</v>
+        <v>0.77653900000000053</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-1.1112334351851842</v>
+        <v>-2.0848466203703726</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-0.43228660185185319</v>
+        <v>-1.2075456574074037</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>1.2348397474734651</v>
+        <v>4.3465854304697649</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>0.18687170614062265</v>
+        <v>1.4581665147234788</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>0.48037132556036483</v>
+        <v>2.5175474827887454</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>0.87666143520400241</v>
+        <v>0.60301281852100086</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>0.25403152157043624</v>
+        <v>0.18576673872950261</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>0.9363020000000013</v>
+        <v>0.77653900000000053</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8297,46 +8297,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>6.9741989999999996</v>
+        <v>4.950418</v>
       </c>
       <c r="I63">
-        <v>8.0302419999999994</v>
+        <v>5.8156920000000003</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1.0560429999999998</v>
+        <v>0.86527400000000032</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0645754351851853</v>
+        <v>-2.4478746203703725</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5053696018518528</v>
+        <v>-1.6593086574074034</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>9.3916225979404668</v>
+        <v>5.9920901570533953</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>6.2768768418833112</v>
+        <v>2.7533052205471598</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>7.6778941378948762</v>
+        <v>4.0617795498284197</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>1.1152268178489997</v>
+        <v>0.74869909507600052</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>2.1005475988354392</v>
+        <v>0.63049103716409194</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>1.0560429999999998</v>
+        <v>0.86527400000000032</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8364,46 +8364,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6.3042600000000002</v>
+        <v>6.4187000000000003</v>
       </c>
       <c r="I64">
-        <v>6.7544029999999999</v>
+        <v>5.0111549999999996</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>0.45014299999999974</v>
+        <v>-1.4075450000000007</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-4.3404144351851848</v>
+        <v>-3.2524116203703732</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1753086018518522</v>
+        <v>-0.1910266574074031</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>18.839197469163928</v>
+        <v>10.578181348320237</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>10.082584716994365</v>
+        <v>3.6491183840245356E-2</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>13.782155291645466</v>
+        <v>0.62129732035234808</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>0.20262872044899977</v>
+        <v>1.9811829270250021</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>7.426527557516569</v>
+        <v>2.5554313438662541</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>0.45014299999999974</v>
+        <v>1.4075450000000007</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8431,46 +8431,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>6.9640209999999998</v>
+        <v>6.4005270000000003</v>
       </c>
       <c r="I65">
-        <v>7.7837420000000002</v>
+        <v>5.7763770000000001</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>0.81972100000000037</v>
+        <v>-0.6241500000000002</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3110754351851845</v>
+        <v>-2.4871896203703727</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5155476018518526</v>
+        <v>-0.20919965740740309</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>10.963220537486759</v>
+        <v>6.1861122076781188</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>6.3279797371826065</v>
+        <v>4.3764496659374826E-2</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>8.3291678705306698</v>
+        <v>0.52031921648873092</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>0.67194251784100056</v>
+        <v>0.38956322250000025</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>2.8758278635484005</v>
+        <v>0.6944716515010364</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>0.81972100000000037</v>
+        <v>0.6241500000000002</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8498,46 +8498,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>7.9770110000000001</v>
+        <v>7.0483919999999998</v>
       </c>
       <c r="I66">
-        <v>9.1715890000000009</v>
+        <v>6.0222550000000004</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>1.1945780000000008</v>
+        <v>-1.0261369999999994</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1.9232284351851838</v>
+        <v>-2.2413116203703725</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5025576018518523</v>
+        <v>0.43866534259259637</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>3.6988076139048509</v>
+        <v>5.0234777796072647</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>2.2576793468827896</v>
+        <v>0.19242728279187996</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>2.8897615053851404</v>
+        <v>-0.98318572980653673</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.4270165980840019</v>
+        <v>1.0529571427689988</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>9.4851435156824954E-2</v>
+        <v>0.34512294825700113</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>1.1945780000000008</v>
+        <v>1.0261369999999994</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8565,46 +8565,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>8.1857310000000005</v>
+        <v>6.133235</v>
       </c>
       <c r="I67">
-        <v>10.332568999999999</v>
+        <v>6.5243060000000002</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>2.1468379999999989</v>
+        <v>0.39107100000000017</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-0.76224843518518526</v>
+        <v>-1.7392606203703727</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2938376018518518</v>
+        <v>-0.4764916574074034</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>0.58102267694226362</v>
+        <v>3.0250275055711335</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>1.6740157399657509</v>
+        <v>0.2270442995788543</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.98622568739532679</v>
+        <v>0.82874317566370748</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>4.6089133982439954</v>
+        <v>0.15293652704100014</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>0.72760967924089748</v>
+        <v>7.296688711912953E-3</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>2.1468379999999989</v>
+        <v>0.39107100000000017</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8632,46 +8632,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>10.625261999999999</v>
+        <v>8.3730609999999999</v>
       </c>
       <c r="I68">
-        <v>13.706182999999999</v>
+        <v>9.8318209999999997</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>3.080921</v>
+        <v>1.4587599999999998</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>2.6113655648148146</v>
+        <v>1.5682543796296269</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.145693398148147</v>
+        <v>1.7633343425925965</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>6.8192301131005957</v>
+        <v>2.4594217992275058</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>1.3126133625602485</v>
+        <v>3.1093480037664643</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>2.9918242877597403</v>
+        <v>2.7653568055221682</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>9.4920742082410001</v>
+        <v>2.1279807375999997</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>17.864269270633223</v>
+        <v>10.381891952567216</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>3.080921</v>
+        <v>1.4587599999999998</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8699,46 +8699,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>13.922245999999999</v>
+        <v>9.3701299999999996</v>
       </c>
       <c r="I69">
-        <v>17.640868999999999</v>
+        <v>14.263369000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>3.7186229999999991</v>
+        <v>4.8932390000000012</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>6.5460515648148139</v>
+        <v>5.999802379629628</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>4.4426773981481471</v>
+        <v>2.7604033425925962</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>42.850791089214475</v>
+        <v>35.997628594609345</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>19.737382464016392</v>
+        <v>7.6198266137963779</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>29.081995334115085</v>
+        <v>16.56187454362464</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>13.828157016128994</v>
+        <v>23.943787911121014</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>66.606824188813093</v>
+        <v>58.578241108326303</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>3.7186229999999991</v>
+        <v>4.8932390000000012</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8766,46 +8766,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>17.695663</v>
+        <v>9.0147829999999995</v>
       </c>
       <c r="I70">
-        <v>19.424499999999998</v>
+        <v>16.563137000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>1.7288369999999986</v>
+        <v>7.5483540000000016</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>8.3296825648148136</v>
+        <v>8.2995703796296283</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>8.2160943981481473</v>
+        <v>2.4050563425925962</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>69.383611630579892</v>
+        <v>68.882868486425494</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>67.504207159281364</v>
+        <v>5.7842960110448756</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>68.437458259127283</v>
+        <v>19.960934382321877</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>2.9888773725689952</v>
+        <v>56.977648109316021</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>98.901660513872841</v>
+        <v>99.070377448029291</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>1.7288369999999986</v>
+        <v>7.5483540000000016</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8833,46 +8833,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>18.530918</v>
+        <v>7.9606919999999999</v>
       </c>
       <c r="I71">
-        <v>19.429907</v>
+        <v>16.276378999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>0.89898900000000026</v>
+        <v>8.3156869999999987</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>8.3350895648148153</v>
+        <v>8.0128123796296258</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>9.0513493981481474</v>
+        <v>1.3509653425925965</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>69.473718053484831</v>
+        <v>64.205162231145792</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>81.926925927356834</v>
+        <v>1.8251073568863316</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>75.443807915997482</v>
+        <v>10.825031821576536</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>0.80818122212100052</v>
+        <v>69.150650281968979</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>99.009234237661445</v>
+        <v>93.444167512550905</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>0.89898900000000026</v>
+        <v>8.3156869999999987</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8900,46 +8900,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>15.653884</v>
+        <v>6.8826720000000003</v>
       </c>
       <c r="I72">
-        <v>16.769477999999999</v>
+        <v>12.748089999999999</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>1.1155939999999998</v>
+        <v>5.8654179999999991</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>5.6746605648148147</v>
+        <v>4.4845233796296267</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>6.1743153981481473</v>
+        <v>0.27294534259259695</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>32.201772525864392</v>
+        <v>20.11094994244473</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>38.122170635809319</v>
+        <v>7.449916004299012E-2</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>35.037144104600173</v>
+        <v>1.2240297702175191</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>1.2445499728359994</v>
+        <v>34.403128314723993</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>53.142779033208683</v>
+        <v>37.67950452568455</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>1.1155939999999998</v>
+        <v>5.8654179999999991</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8967,46 +8967,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>14.092393</v>
+        <v>6.2283900000000001</v>
       </c>
       <c r="I73">
-        <v>14.072948999999999</v>
+        <v>10.578362</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>-1.9444000000000017E-2</v>
+        <v>4.3499720000000002</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>2.9781315648148148</v>
+        <v>2.3147953796296274</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>4.6128243981481472</v>
+        <v>-0.3813366574074033</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>8.8692676173463365</v>
+        <v>5.3582776495546707</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>21.278148928150816</v>
+        <v>0.14541764628265128</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>13.737597943072897</v>
+        <v>-0.88271633265006333</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>3.7806913600000068E-4</v>
+        <v>18.922256400784001</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>21.09914348209163</v>
+        <v>15.750066482475059</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>1.9444000000000017E-2</v>
+        <v>4.3499720000000002</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9034,46 +9034,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>8.4108440000000009</v>
+        <v>4.445424</v>
       </c>
       <c r="I74">
-        <v>9.2432739999999995</v>
+        <v>6.1180279999999998</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>0.83242999999999867</v>
+        <v>1.6726039999999998</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-1.8515434351851852</v>
+        <v>-2.145538620370373</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-1.0687246018518515</v>
+        <v>-2.1643026574074034</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>3.4282130923773559</v>
+        <v>4.6033359715008038</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>1.1421722746033984</v>
+        <v>4.6842059928607478</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>1.9787900205796964</v>
+        <v>4.6435949376378121</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>0.69293970489999779</v>
+        <v>2.7976041408159991</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>5.5835138864325638E-2</v>
+        <v>0.24176756969624325</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>0.83242999999999867</v>
+        <v>1.6726039999999998</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9101,46 +9101,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>6.4633950000000002</v>
+        <v>3.9987279999999998</v>
       </c>
       <c r="I75">
-        <v>7.8496639999999998</v>
+        <v>5.3269390000000003</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>1.3862689999999995</v>
+        <v>1.3282110000000005</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>-3.245153435185185</v>
+        <v>-2.9366276203703725</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-3.0161736018518521</v>
+        <v>-2.6109986574074036</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>10.531020817894206</v>
+        <v>8.6237817807221564</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>9.0973031965079745</v>
+        <v>6.8173139889832637</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>9.7879461251644102</v>
+        <v>7.6675307740925414</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>1.9217417403609987</v>
+        <v>1.7641444605210013</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>2.6565890111378461</v>
+        <v>1.6455441739967729</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>1.3862689999999995</v>
+        <v>1.3282110000000005</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9168,46 +9168,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5.0245389999999999</v>
+        <v>4.0511569999999999</v>
       </c>
       <c r="I76">
-        <v>6.3295029999999999</v>
+        <v>4.2999330000000002</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>1.304964</v>
+        <v>0.24877600000000033</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>-4.7653144351851848</v>
+        <v>-3.9636336203703726</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-4.4550296018518525</v>
+        <v>-2.5585696574074035</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>22.708221666184297</v>
+        <v>15.710391476530347</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>19.847288753376276</v>
+        <v>6.5462786918058384</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>21.229616870881941</v>
+        <v>10.141232714159491</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>1.7029310412959999</v>
+        <v>6.1889498176000167E-2</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>9.9229132959702735</v>
+        <v>5.3351467397994679</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>1.304964</v>
+        <v>0.24877600000000033</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9235,46 +9235,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6.1121150000000002</v>
+        <v>5.6382079999999997</v>
       </c>
       <c r="I77">
-        <v>7.4234200000000001</v>
+        <v>5.2941099999999999</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>1.3113049999999999</v>
+        <v>-0.34409799999999979</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>-3.6713974351851846</v>
+        <v>-2.9694566203703729</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>-3.3674536018518522</v>
+        <v>-0.97151865740740373</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>13.479159127084351</v>
+        <v>8.8176726202614368</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>11.339743760625012</v>
+        <v>0.94384850169068435</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>12.363260516944003</v>
+        <v>2.8848825090517511</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>1.7195208030249998</v>
+        <v>0.11840343360399985</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>4.2277470728973263</v>
+        <v>1.7308471892478294</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>1.3113049999999999</v>
+        <v>0.34409799999999979</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9302,46 +9302,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>6.1635179999999998</v>
+        <v>5.0019080000000002</v>
       </c>
       <c r="I78">
-        <v>7.8133689999999998</v>
+        <v>5.5454689999999998</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>1.649851</v>
+        <v>0.54356099999999952</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>-3.2814484351851849</v>
+        <v>-2.7180976203703731</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>-3.3160506018518525</v>
+        <v>-1.6078186574074032</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>10.767903832779298</v>
+        <v>7.3880546738630848</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>10.996191594042033</v>
+        <v>2.5850808351073442</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>10.881449058441651</v>
+        <v>4.3702080666861507</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>2.7220083222009999</v>
+        <v>0.29545856072099946</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>2.776221113211272</v>
+        <v>1.1326443613502946</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>1.649851</v>
+        <v>0.54356099999999952</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9369,46 +9369,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>8.6088609999999992</v>
+        <v>8.2137729999999998</v>
       </c>
       <c r="I79">
-        <v>10.50104</v>
+        <v>7.2178490000000002</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>1.8921790000000005</v>
+        <v>-0.99592399999999959</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-0.593777435185185</v>
+        <v>-1.0457176203703726</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-0.87070760185185314</v>
+        <v>1.6040463425925964</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>0.3525716425350966</v>
+        <v>1.0935253415530748</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>0.75813172792260519</v>
+        <v>2.5729646691846852</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>0.51700652662383662</v>
+        <v>-1.6773795243397294</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>3.5803413680410019</v>
+        <v>0.99186461377599922</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>1.0434038172347311</v>
+        <v>0.36981278356030767</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>1.8921790000000005</v>
+        <v>0.99592399999999959</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9436,46 +9436,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>10.209149999999999</v>
+        <v>8.8283909999999999</v>
       </c>
       <c r="I80">
-        <v>12.243783000000001</v>
+        <v>9.5353829999999995</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>2.0346330000000012</v>
+        <v>0.70699199999999962</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>1.1489655648148158</v>
+        <v>1.2718163796296267</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>0.72958139814814693</v>
+        <v>2.2186643425925965</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>1.3201218691302288</v>
+        <v>1.6175169034942107</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>0.53228901652380489</v>
+        <v>4.9224714650918386</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>0.83826390320166866</v>
+        <v>2.821733651809462</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>4.139731444689005</v>
+        <v>0.49983768806399947</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>7.6408812389295289</v>
+        <v>8.5594650349522858</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>2.0346330000000012</v>
+        <v>0.70699199999999962</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9503,46 +9503,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>12.172535</v>
+        <v>9.4083039999999993</v>
       </c>
       <c r="I81">
-        <v>16.326910000000002</v>
+        <v>12.326946</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>4.1543750000000017</v>
+        <v>2.9186420000000002</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>5.2320925648148169</v>
+        <v>4.0633793796296267</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>2.6929663981481475</v>
+        <v>2.7985773425925959</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>27.374792606790489</v>
+        <v>16.511051982799248</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>7.2520680215550071</v>
+        <v>7.8320351424726358</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>14.08984946904706</v>
+        <v>11.371681466189433</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>17.258831640625015</v>
+        <v>8.5184711241640017</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>46.88608422279345</v>
+        <v>32.686597011314916</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>4.1543750000000017</v>
+        <v>2.9186420000000002</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9570,46 +9570,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>13.776844000000001</v>
+        <v>8.6027199999999997</v>
       </c>
       <c r="I82">
-        <v>18.894119</v>
+        <v>14.736090000000001</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>5.1172749999999994</v>
+        <v>6.1333700000000011</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>7.7993015648148152</v>
+        <v>6.472523379629628</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>4.2972753981481482</v>
+        <v>1.9929933425925963</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>60.829104898922822</v>
+        <v>41.893558899852138</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>18.466575847529324</v>
+        <v>3.9720224636184098</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>33.515746737217057</v>
+        <v>12.89969600537678</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>26.186503425624995</v>
+        <v>37.618227556900017</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>88.633759199271438</v>
+        <v>66.037781175832734</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>5.1172749999999994</v>
+        <v>6.1333700000000011</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9637,46 +9637,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>15.134320000000001</v>
+        <v>8.0709289999999996</v>
       </c>
       <c r="I83">
-        <v>17.526512</v>
+        <v>15.499017</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>2.3921919999999997</v>
+        <v>7.4280880000000007</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>6.4316945648148156</v>
+        <v>7.2354503796296274</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>5.6547513981481483</v>
+        <v>1.4612023425925962</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>41.366694975068441</v>
+        <v>52.351742196082519</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>31.976213374858439</v>
+        <v>2.1351122859980909</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>36.369633832848422</v>
+        <v>10.572457044427301</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>5.7225825648639983</v>
+        <v>55.176491335744011</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>64.753298053000066</v>
+        <v>79.019482794910004</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>2.3921919999999997</v>
+        <v>7.4280880000000007</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9704,46 +9704,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>13.969346</v>
+        <v>7.0193110000000001</v>
       </c>
       <c r="I84">
-        <v>14.350834000000001</v>
+        <v>12.004861</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>0.38148800000000094</v>
+        <v>4.9855499999999999</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>3.256016564814816</v>
+        <v>3.7412943796296272</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>4.4897773981481475</v>
+        <v>0.40958434259259668</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>10.601643870348475</v>
+        <v>13.997283635048237</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>20.158101084921949</v>
+        <v>0.1677593336970096</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>14.618789580701534</v>
+        <v>1.5323755989259777</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>0.1455330941440007</v>
+        <v>24.855708802500001</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>23.729226579195437</v>
+        <v>29.107474574622049</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>0.38148800000000094</v>
+        <v>4.9855499999999999</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9771,46 +9771,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>10.209688</v>
+        <v>6.729749</v>
       </c>
       <c r="I85">
-        <v>11.847716</v>
+        <v>9.24953</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>1.6380280000000003</v>
+        <v>2.519781</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>0.75289856481481543</v>
+        <v>0.98596337962962721</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>0.73011939814814752</v>
+        <v>0.12002234259259659</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>0.5668562489002088</v>
+        <v>0.97212378597067639</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>0.53307433555221317</v>
+        <v>1.4405362721414626E-2</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>0.54970584700919711</v>
+        <v>0.11833763453366149</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>2.6831357287840008</v>
+        <v>6.3492962879610007</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>5.6081220993558416</v>
+        <v>6.9685616875630458</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1.6380280000000003</v>
+        <v>2.519781</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9838,46 +9838,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>8.0216259999999995</v>
+        <v>6.1663370000000004</v>
       </c>
       <c r="I86">
-        <v>10.713042</v>
+        <v>7.7227480000000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>2.6914160000000003</v>
+        <v>1.5564109999999998</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-0.38177543518518497</v>
+        <v>-0.54081862037037265</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>-1.4579426018518529</v>
+        <v>-0.44338965740740299</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>0.14575248291083737</v>
+        <v>0.29248478013931323</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>2.1255966302945506</v>
+        <v>0.19659438829585418</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>0.55660667129701202</v>
+        <v>0.23979338280556386</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>7.2437200850560011</v>
+        <v>2.4224152009209994</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>1.5214566239391381</v>
+        <v>1.2388165090666268</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>2.6914160000000003</v>
+        <v>1.5564109999999998</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9905,46 +9905,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.5843800000000003</v>
+        <v>2.6930420000000002</v>
       </c>
       <c r="I87">
-        <v>6.493347</v>
+        <v>4.271795</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1.9089669999999996</v>
+        <v>1.5787529999999999</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-4.6014704351851847</v>
+        <v>-3.9917716203703728</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-4.895188601851852</v>
+        <v>-3.9166846574074032</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>21.173530165883335</v>
+        <v>15.934240669194311</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>23.962871447700291</v>
+        <v>15.340418705570547</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>22.525065626076799</v>
+        <v>15.634510661378929</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>3.6441550070889988</v>
+        <v>2.4924610350089997</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>8.9175194553666426</v>
+        <v>5.4659244347077278</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1.9089669999999996</v>
+        <v>1.5787529999999999</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9972,46 +9972,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>3.9162780000000001</v>
+        <v>3.522392</v>
       </c>
       <c r="I88">
-        <v>4.2790330000000001</v>
+        <v>2.9396420000000001</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>0.36275499999999994</v>
+        <v>-0.58274999999999988</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-6.8157844351851846</v>
+        <v>-5.3239246203703727</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-5.5632906018518522</v>
+        <v>-3.0873346574074034</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>46.454917466912626</v>
+        <v>28.344173363385817</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>30.950202320653144</v>
+        <v>9.5316352868288892</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>37.918189492513875</v>
+        <v>16.436736993894005</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>0.13159119002499994</v>
+        <v>0.33959756249999984</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>27.045570546128609</v>
+        <v>13.469521392537217</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>0.36275499999999994</v>
+        <v>0.58274999999999988</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10039,46 +10039,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>5.2744390000000001</v>
+        <v>4.3887530000000003</v>
       </c>
       <c r="I89">
-        <v>5.7391360000000002</v>
+        <v>4.2773430000000001</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>0.46469700000000014</v>
+        <v>-0.11141000000000023</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3556814351851845</v>
+        <v>-3.9862236203703727</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>-4.2051296018518523</v>
+        <v>-2.220973657407403</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>28.683323635187236</v>
+        <v>15.889978751598681</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>17.683114968370717</v>
+        <v>4.9327239868976163</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>22.521334541185631</v>
+        <v>8.8532976533777656</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>0.21594330180900012</v>
+        <v>1.2412188100000051E-2</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>13.990836048996217</v>
+        <v>5.4400135253411355</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>0.46469700000000014</v>
+        <v>0.11141000000000023</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10106,46 +10106,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>5.86911</v>
+        <v>5.0151940000000002</v>
       </c>
       <c r="I90">
-        <v>6.6877690000000003</v>
+        <v>4.6477680000000001</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>0.81865900000000025</v>
+        <v>-0.36742600000000003</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>-4.4070484351851844</v>
+        <v>-3.6157986203703727</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>-3.6104586018518523</v>
+        <v>-1.5945326574074032</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>19.422075910068184</v>
+        <v>13.073999663072291</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>13.035411315686032</v>
+        <v>2.5425343955387154</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>15.911465931592094</v>
+        <v>5.7655089827891928</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>0.67020255828100039</v>
+        <v>0.13500186547600002</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>7.7941450169001598</v>
+        <v>3.8492817733758602</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>0.81865900000000025</v>
+        <v>0.36742600000000003</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10173,46 +10173,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>6.618493</v>
+        <v>5.2808919999999997</v>
       </c>
       <c r="I91">
-        <v>8.1786799999999999</v>
+        <v>5.4789589999999997</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>1.560187</v>
+        <v>0.19806699999999999</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>-2.9161374351851848</v>
+        <v>-2.7846076203703731</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>-2.8610756018518524</v>
+        <v>-1.3288346574074037</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>8.5038575408884274</v>
+        <v>7.7540395994247522</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>8.1857535995119388</v>
+        <v>1.765801546727052</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>8.3432896674551689</v>
+        <v>3.7002831132289105</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>2.4341834749690001</v>
+        <v>3.9230536488999997E-2</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>1.6923111544280673</v>
+        <v>1.2786354950386276</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>1.560187</v>
+        <v>0.19806699999999999</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10240,46 +10240,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>8.5456400000000006</v>
+        <v>8.8697060000000008</v>
       </c>
       <c r="I92">
-        <v>10.853664</v>
+        <v>7.2629039999999998</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>2.3080239999999996</v>
+        <v>-1.606802000000001</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>-0.24115343518518451</v>
+        <v>-1.000662620370373</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>-0.93392860185185178</v>
+        <v>2.2599793425925974</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>5.8154979301614985E-2</v>
+        <v>1.0013256798065013</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>0.87222263335695471</v>
+        <v>5.1075066289452682</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>0.22522009055427053</v>
+        <v>-2.2614768509416212</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>5.3269747845759987</v>
+        <v>2.5818126672040029</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>1.888138163211917</v>
+        <v>0.42664064087632608</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>2.3080239999999996</v>
+        <v>1.606802000000001</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10307,46 +10307,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>11.024537</v>
+        <v>9.6491439999999997</v>
       </c>
       <c r="I93">
-        <v>14.339339000000001</v>
+        <v>10.467051</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>3.3148020000000002</v>
+        <v>0.81790699999999994</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>3.244521564814816</v>
+        <v>2.2034843796296268</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>1.5449683981481481</v>
+        <v>3.0394173425925963</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>10.526920184548382</v>
+        <v>4.8553434112717611</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>2.3869273512764546</v>
+        <v>9.2380577824526409</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>5.0126832847490697</v>
+        <v>6.6973086375781765</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>10.987912299204002</v>
+        <v>0.66897186064899994</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>23.617368322717013</v>
+        <v>14.878951083957405</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>3.3148020000000002</v>
+        <v>0.81790699999999994</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10374,46 +10374,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>13.768291</v>
+        <v>9.8149929999999994</v>
       </c>
       <c r="I94">
-        <v>18.666298000000001</v>
+        <v>14.483231999999999</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>4.8980070000000016</v>
+        <v>4.6682389999999998</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>7.5714805648148165</v>
+        <v>6.2196653796296264</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>4.2887223981481473</v>
+        <v>3.205266342592596</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>57.327317943368492</v>
+        <v>38.684237434563343</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>18.393139808377594</v>
+        <v>10.273732326956917</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>32.471978285464687</v>
+        <v>19.935684103515243</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>23.990472572049015</v>
+        <v>21.792455361120997</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>84.39599703479945</v>
+        <v>61.992086379834149</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>4.8980070000000016</v>
+        <v>4.6682389999999998</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10441,46 +10441,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>14.999605000000001</v>
+        <v>8.9980469999999997</v>
       </c>
       <c r="I95">
-        <v>18.377521999999999</v>
+        <v>15.56391</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>3.3779169999999983</v>
+        <v>6.5658630000000002</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>7.2827045648148143</v>
+        <v>7.3003433796296271</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>5.5200363981481484</v>
+        <v>2.3883203425925963</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>53.037785778374534</v>
+        <v>53.295013460502126</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>30.470801836880383</v>
+        <v>5.7040740588416163</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>40.200794274737447</v>
+        <v>17.435558601480622</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>11.410323258888988</v>
+        <v>43.110556934769001</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>79.173574675616152</v>
+        <v>80.177399332762718</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>3.3779169999999983</v>
+        <v>6.5658630000000002</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10508,46 +10508,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>13.57985</v>
+        <v>7.8789829999999998</v>
       </c>
       <c r="I96">
-        <v>14.019964</v>
+        <v>12.990728000000001</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>0.44011399999999945</v>
+        <v>5.1117450000000009</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>2.9251465648148152</v>
+        <v>4.7271613796296279</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>4.1002813981481481</v>
+        <v>1.2692563425925965</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>8.5564824256479142</v>
+        <v>22.346054709061885</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>16.812307543999733</v>
+        <v>1.6110116632115346</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>11.993924046567143</v>
+        <v>5.9999795635536737</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>0.19370033299599951</v>
+        <v>26.129936945025008</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>20.615190371524875</v>
+        <v>40.717178134168527</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>0.44011399999999945</v>
+        <v>5.1117450000000009</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10575,46 +10575,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>11.024760000000001</v>
+        <v>7.1990080000000001</v>
       </c>
       <c r="I97">
-        <v>11.267341</v>
+        <v>7.6994629999999997</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>0.24258099999999949</v>
+        <v>0.50045499999999965</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>0.17252356481481534</v>
+        <v>-0.56410362037037309</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>1.5451913981481482</v>
+        <v>0.58928134259259668</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>2.976438041641179E-2</v>
+        <v>0.31821289451496199</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>2.387616456911029</v>
+        <v>0.34725250072773328</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>0.26658192832970717</v>
+        <v>-0.33241573877319791</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>5.8845541560999755E-2</v>
+        <v>0.25045520702499963</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>3.1961301475803792</v>
+        <v>1.1875252963670884</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>0.24258099999999949</v>
+        <v>0.50045499999999965</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10642,46 +10642,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>8.0972089999999994</v>
+        <v>4.8337500000000002</v>
       </c>
       <c r="I98">
-        <v>9.4617199999999997</v>
+        <v>6.0259119999999999</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>1.3645110000000003</v>
+        <v>1.1921619999999997</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>-1.633097435185185</v>
+        <v>-2.2376546203703729</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>-1.3823596018518529</v>
+        <v>-1.7759766574074032</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>2.6670072328084298</v>
+        <v>5.0070982000648776</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>1.9109180688320133</v>
+        <v>3.1540930876559727</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>2.2575279202878744</v>
+        <v>3.9740223731176068</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>1.8618902691210006</v>
+        <v>1.4212502342439994</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>3.1857258806595833E-4</v>
+        <v>0.34083955420372386</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>1.3645110000000003</v>
+        <v>1.1921619999999997</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10709,46 +10709,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>5.8116279999999998</v>
+        <v>4.2885819999999999</v>
       </c>
       <c r="I99">
-        <v>6.4049060000000004</v>
+        <v>3.836344</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>0.59327800000000064</v>
+        <v>-0.45223799999999992</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-4.6899114351851843</v>
+        <v>-4.4272226203703724</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-3.6679406018518526</v>
+        <v>-2.3211446574074035</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>21.995269269880755</v>
+        <v>19.600300130319106</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>13.453788258713331</v>
+        <v>5.3877125206109326</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>17.202316572205032</v>
+        <v>10.276224132425895</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>0.35197878528400078</v>
+        <v>0.20451920864399992</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>9.453550115226399</v>
+        <v>7.691651364408151</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>0.59327800000000064</v>
+        <v>0.45223799999999992</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10776,46 +10776,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5.617127</v>
+        <v>5.0902070000000004</v>
       </c>
       <c r="I100">
-        <v>6.5747650000000002</v>
+        <v>4.9524530000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>0.95763800000000021</v>
+        <v>-0.13775400000000015</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>-4.5200524351851845</v>
+        <v>-3.3111136203703726</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>-3.8624416018518524</v>
+        <v>-1.519519657407403</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>20.430874016823516</v>
+        <v>10.963473407002196</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>14.918455127715903</v>
+        <v>2.3089399892475115</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>17.458438568211029</v>
+        <v>5.0313022340621743</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>0.91707053904400038</v>
+        <v>1.8976164516000042E-2</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>8.4378839653314941</v>
+        <v>2.7465559755365105</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>0.95763800000000021</v>
+        <v>0.13775400000000015</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10843,46 +10843,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>4.9062659999999996</v>
+        <v>4.0864190000000002</v>
       </c>
       <c r="I101">
-        <v>5.9763390000000003</v>
+        <v>3.4905879999999998</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>1.0700730000000007</v>
+        <v>-0.59583100000000044</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-5.1184784351851844</v>
+        <v>-4.772978620370373</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-4.5733026018518528</v>
+        <v>-2.5233076574074031</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>26.198821491455774</v>
+        <v>22.781324910512669</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>20.915096688104928</v>
+        <v>6.3670815339308362</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>23.408350745155005</v>
+        <v>12.043693501422386</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>1.1450562253290015</v>
+        <v>0.35501458056100055</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>12.272617643291087</v>
+        <v>9.7290259641332604</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>1.0700730000000007</v>
+        <v>0.59583100000000044</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10910,46 +10910,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>5.7414849999999999</v>
+        <v>4.5526580000000001</v>
       </c>
       <c r="I102">
-        <v>7.1298199999999996</v>
+        <v>3.943794</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>1.3883349999999997</v>
+        <v>-0.60886400000000007</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-3.9649974351851851</v>
+        <v>-4.3197726203703724</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-3.7380836018518524</v>
+        <v>-2.0570686574074033</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>15.721204661025096</v>
+        <v>18.660435491701513</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>13.973269014433718</v>
+        <v>4.2315314612878971</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>14.821491893850393</v>
+        <v>8.886068864490543</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>1.927474072224999</v>
+        <v>0.37071537049600006</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>5.5213184919047364</v>
+        <v>7.1071969338312995</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>1.3883349999999997</v>
+        <v>0.60886400000000007</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10977,46 +10977,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>7.1856260000000001</v>
+        <v>6.1024960000000004</v>
       </c>
       <c r="I103">
-        <v>8.4933680000000003</v>
+        <v>5.3185419999999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>1.3077420000000002</v>
+        <v>-0.78395400000000048</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>-2.6014494351851845</v>
+        <v>-2.9450246203703729</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-2.2939426018518523</v>
+        <v>-0.50723065740740303</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>6.7675391638253153</v>
+        <v>8.6731700145876598</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>5.2621726605908457</v>
+        <v>0.25728293981394629</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>5.967575685934734</v>
+        <v>1.4938067742714518</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>1.7101891385640005</v>
+        <v>0.61458387411600079</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>0.97259162709295532</v>
+        <v>1.667157819524274</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>1.3077420000000002</v>
+        <v>0.78395400000000048</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11044,46 +11044,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>9.9552870000000002</v>
+        <v>9.3422990000000006</v>
       </c>
       <c r="I104">
-        <v>11.405948</v>
+        <v>8.8277549999999998</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>1.4506610000000002</v>
+        <v>-0.51454400000000078</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>0.31113056481481571</v>
+        <v>0.56418837962962698</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>0.47571839814814787</v>
+        <v>2.7325723425925972</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>9.6802228361986237E-2</v>
+        <v>0.31830852770910412</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>0.22630799433663973</v>
+        <v>7.4669516075019944</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>0.14801053390863264</v>
+        <v>1.5416855621880514</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>2.1044173369210006</v>
+        <v>0.26475552793600082</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>3.7109375856096212</v>
+        <v>4.9196497285440604</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>1.4506610000000002</v>
+        <v>0.51454400000000078</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11111,46 +11111,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>11.90559</v>
+        <v>8.3140940000000008</v>
       </c>
       <c r="I105">
-        <v>14.580590000000001</v>
+        <v>11.403541000000001</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>2.6750000000000007</v>
+        <v>3.0894469999999998</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>3.4857725648148161</v>
+        <v>3.1399743796296278</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>2.4260213981481478</v>
+        <v>1.7043673425925974</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>12.150610373615661</v>
+        <v>9.8594391047304661</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>5.8855798242726935</v>
+        <v>2.904868038496152</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>8.4565588313184961</v>
+        <v>5.3516697892181879</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>7.1556250000000041</v>
+        <v>9.5446827658089983</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>26.020419304365291</v>
+        <v>22.980655951246494</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>2.6750000000000007</v>
+        <v>3.0894469999999998</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11178,46 +11178,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>14.251386</v>
+        <v>8.6226079999999996</v>
       </c>
       <c r="I106">
-        <v>18.980105999999999</v>
+        <v>15.617777999999999</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>4.7287199999999991</v>
+        <v>6.9951699999999999</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>7.8852885648148145</v>
+        <v>7.3542113796296267</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>4.7718173981481478</v>
+        <v>2.0128813425925962</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>62.177775750399277</v>
+        <v>54.084425016273897</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>22.77024128126936</v>
+        <v>4.0516912993573726</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>37.627157163001968</v>
+        <v>14.803154875538633</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>22.360792838399991</v>
+        <v>48.932403328900001</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>90.260210853611568</v>
+        <v>81.14498899078427</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>4.7287199999999991</v>
+        <v>6.9951699999999999</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11245,46 +11245,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>15.404261999999999</v>
+        <v>8.3973049999999994</v>
       </c>
       <c r="I107">
-        <v>18.686962000000001</v>
+        <v>16.141884000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>3.2827000000000019</v>
+        <v>7.7445790000000017</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>7.5921445648148165</v>
+        <v>7.8783173796296282</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>5.9246933981481469</v>
+        <v>1.787578342592596</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>57.640659093047162</v>
+        <v>62.06788473417425</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>35.101991862060238</v>
+        <v>3.1954363309060922</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>44.98112878094468</v>
+        <v>14.083109523896775</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>10.776119290000013</v>
+        <v>59.978503887241025</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>84.776093188262109</v>
+        <v>90.862023603941978</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>3.2827000000000019</v>
+        <v>7.7445790000000017</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11312,46 +11312,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>14.320114999999999</v>
+        <v>6.577216</v>
       </c>
       <c r="I108">
-        <v>13.893890000000001</v>
+        <v>12.169641</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-0.42622499999999874</v>
+        <v>5.5924250000000004</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>2.799072564814816</v>
+        <v>3.9060743796296276</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>4.8405463981481471</v>
+        <v>-3.2510657407403443E-2</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>7.8348072230989922</v>
+        <v>15.25741705919898</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>23.430889432625001</v>
+        <v>1.0569428450615563E-3</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>13.549040621769654</v>
+        <v>-0.12698904596397476</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>0.18166775062499893</v>
+        <v>31.275217380625005</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>19.486233406148624</v>
+        <v>30.912647496966869</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>0.42622499999999874</v>
+        <v>5.5924250000000004</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11379,46 +11379,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>12.483866000000001</v>
+        <v>5.9785170000000001</v>
       </c>
       <c r="I109">
-        <v>12.614584000000001</v>
+        <v>8.3930869999999995</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>0.13071799999999989</v>
+        <v>2.4145699999999994</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>1.519766564814816</v>
+        <v>0.1295203796296267</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>3.0042973981481484</v>
+        <v>-0.63120965740740331</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>2.3096904115290262</v>
+        <v>1.677552873940262E-2</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>9.0258028565197339</v>
+        <v>0.39842563160437144</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>4.5658307364657009</v>
+        <v>-8.1754514453293486E-2</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>1.7087195523999971E-2</v>
+        <v>5.8301482848999973</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>9.8283215466259932</v>
+        <v>3.1803741115319819</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>0.13071799999999989</v>
+        <v>2.4145699999999994</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11446,46 +11446,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>9.0680689999999995</v>
+        <v>5.3246120000000001</v>
       </c>
       <c r="I110">
-        <v>9.8861899999999991</v>
+        <v>5.1728160000000001</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>0.81812099999999965</v>
+        <v>-0.15179600000000004</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-1.2086274351851856</v>
+        <v>-3.0907506203703727</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-0.41149960185185286</v>
+        <v>-1.2851146574074033</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>1.4607802770823199</v>
+        <v>9.5527393973198436</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>0.16933192232423341</v>
+        <v>1.6515196826833476</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>0.49734970836592995</v>
+        <v>3.9719689246289906</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>0.66932197064099941</v>
+        <v>2.3042025616000012E-2</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>0.16534096143195373</v>
+        <v>2.0647122373709759</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>0.81812099999999965</v>
+        <v>0.15179600000000004</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11513,46 +11513,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>6.562208</v>
+        <v>3.7586900000000001</v>
       </c>
       <c r="I111">
-        <v>7.5468070000000003</v>
+        <v>4.2978500000000004</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>0.98459900000000022</v>
+        <v>0.53916000000000031</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>-3.5480104351851844</v>
+        <v>-3.9657166203703724</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9173606018518523</v>
+        <v>-2.8510366574074033</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>12.588378048182962</v>
+        <v>15.726908313081809</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>8.5109928812374012</v>
+        <v>8.1284100218807787</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>10.350825858568502</v>
+        <v>11.306403457565731</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>0.96943519080100049</v>
+        <v>0.29069350560000035</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>3.735567409592937</v>
+        <v>5.3447736790652263</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>0.98459900000000022</v>
+        <v>0.53916000000000031</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B83845A-0514-470A-97FF-E9B0D33EDD8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3523E2A0-5E91-44D4-A95F-EA699085D84F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,10 +165,10 @@
     <t>MAE</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14180300_temp_BLOWOUT CREEK NEAR DETROIT  OR_23780557</t>
+    <t xml:space="preserve"> USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14180300_temp_BLOWOUT CREEK NEAR DETROIT  OR_23780557.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
   </si>
 </sst>
 </file>
@@ -852,328 +852,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.2419719999999996</c:v>
+                  <c:v>5.922885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0949939999999998</c:v>
+                  <c:v>6.0427559999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8986179999999999</c:v>
+                  <c:v>6.144552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2132360000000002</c:v>
+                  <c:v>6.7517649999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5407209999999996</c:v>
+                  <c:v>8.1476179999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0397219999999994</c:v>
+                  <c:v>10.632562999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.868954</c:v>
+                  <c:v>12.899336999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1853689999999997</c:v>
+                  <c:v>13.729644</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5160470000000004</c:v>
+                  <c:v>12.365583000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.553998</c:v>
+                  <c:v>10.518193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7201709999999997</c:v>
+                  <c:v>7.8354280000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8279719999999999</c:v>
+                  <c:v>5.4912939999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4768739999999996</c:v>
+                  <c:v>4.7974399999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6331329999999999</c:v>
+                  <c:v>4.3039129999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2496710000000002</c:v>
+                  <c:v>5.3128789999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.202833</c:v>
+                  <c:v>5.7033620000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4582519999999999</c:v>
+                  <c:v>7.4240199999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.4497669999999996</c:v>
+                  <c:v>9.5370039999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.9536850000000001</c:v>
+                  <c:v>12.066784</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8739609999999995</c:v>
+                  <c:v>14.113701000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.4884009999999996</c:v>
+                  <c:v>12.620493</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.548057</c:v>
+                  <c:v>10.699263</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0560999999999998</c:v>
+                  <c:v>8.1206899999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9512320000000001</c:v>
+                  <c:v>5.9106379999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9248129999999999</c:v>
+                  <c:v>4.9040330000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1292210000000003</c:v>
+                  <c:v>4.7825350000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.644091</c:v>
+                  <c:v>4.4081659999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.6855820000000001</c:v>
+                  <c:v>6.8728590000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.9209849999999999</c:v>
+                  <c:v>8.3156440000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.1286900000000006</c:v>
+                  <c:v>9.8756970000000006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.09207</c:v>
+                  <c:v>12.984833999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.6180199999999996</c:v>
+                  <c:v>14.687898000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.4460040000000003</c:v>
+                  <c:v>12.981524</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.4589379999999998</c:v>
+                  <c:v>11.045548999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.6897729999999997</c:v>
+                  <c:v>8.386495</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.200841</c:v>
+                  <c:v>5.0949070000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6047310000000001</c:v>
+                  <c:v>4.2086690000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.479962</c:v>
+                  <c:v>4.1517220000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.3047009999999997</c:v>
+                  <c:v>5.8348639999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.0746969999999996</c:v>
+                  <c:v>7.0524519999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.2528079999999999</c:v>
+                  <c:v>9.1350409999999993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.9528239999999997</c:v>
+                  <c:v>11.628033</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.41943</c:v>
+                  <c:v>13.474235</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.8168220000000002</c:v>
+                  <c:v>14.039861999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.2223970000000008</c:v>
+                  <c:v>12.713673999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.1077490000000001</c:v>
+                  <c:v>10.125171999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7543660000000001</c:v>
+                  <c:v>8.1183669999999992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.0385949999999999</c:v>
+                  <c:v>5.3820059999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5932329999999997</c:v>
+                  <c:v>5.5669740000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.0500150000000001</c:v>
+                  <c:v>4.9330980000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.4342160000000002</c:v>
+                  <c:v>6.2262630000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.4882270000000002</c:v>
+                  <c:v>7.5342890000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.9281430000000004</c:v>
+                  <c:v>9.3448139999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.3607379999999996</c:v>
+                  <c:v>11.341475000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.723186</c:v>
+                  <c:v>13.801539999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.9892850000000006</c:v>
+                  <c:v>14.611623</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.329949</c:v>
+                  <c:v>13.445843</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.0039100000000003</c:v>
+                  <c:v>11.683187</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.4021809999999997</c:v>
+                  <c:v>8.5646529999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.950418</c:v>
+                  <c:v>6.6228540000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.4187000000000003</c:v>
+                  <c:v>6.1632559999999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.4005270000000003</c:v>
+                  <c:v>7.1589320000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.0483919999999998</c:v>
+                  <c:v>8.030621</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.133235</c:v>
+                  <c:v>7.9749340000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.3730609999999999</c:v>
+                  <c:v>10.324871</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.3701299999999996</c:v>
+                  <c:v>13.153845</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.0147829999999995</c:v>
+                  <c:v>14.664453999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.9606919999999999</c:v>
+                  <c:v>15.643188</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.8826720000000003</c:v>
+                  <c:v>14.541834</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.2283900000000001</c:v>
+                  <c:v>12.898694000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.445424</c:v>
+                  <c:v>7.31968</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.9987279999999998</c:v>
+                  <c:v>5.7434649999999996</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.0511569999999999</c:v>
+                  <c:v>4.6946380000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.6382079999999997</c:v>
+                  <c:v>6.1495290000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.0019080000000002</c:v>
+                  <c:v>5.941427</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.2137729999999998</c:v>
+                  <c:v>8.7040319999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.8283909999999999</c:v>
+                  <c:v>10.067416</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.4083039999999993</c:v>
+                  <c:v>11.964162</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.6027199999999997</c:v>
+                  <c:v>13.328908</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.0709289999999996</c:v>
+                  <c:v>14.426311</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.0193110000000001</c:v>
+                  <c:v>12.98785</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.729749</c:v>
+                  <c:v>9.934984</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.1663370000000004</c:v>
+                  <c:v>7.9788480000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.6930420000000002</c:v>
+                  <c:v>4.2013769999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.522392</c:v>
+                  <c:v>3.6497480000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.3887530000000003</c:v>
+                  <c:v>4.9159410000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.0151940000000002</c:v>
+                  <c:v>5.6630929999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.2808919999999997</c:v>
+                  <c:v>6.4027180000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.8697060000000008</c:v>
+                  <c:v>8.4522290000000009</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.6491439999999997</c:v>
+                  <c:v>10.349615999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.8149929999999994</c:v>
+                  <c:v>13.698544</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.9980469999999997</c:v>
+                  <c:v>15.254111</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.8789829999999998</c:v>
+                  <c:v>12.884378999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.1990080000000001</c:v>
+                  <c:v>10.590356999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.8337500000000002</c:v>
+                  <c:v>7.8114949999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.2885819999999999</c:v>
+                  <c:v>5.5548159999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.0902070000000004</c:v>
+                  <c:v>5.4601150000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.0864190000000002</c:v>
+                  <c:v>4.7591939999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.5526580000000001</c:v>
+                  <c:v>5.4963189999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.1024960000000004</c:v>
+                  <c:v>7.1801069999999996</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.3422990000000006</c:v>
+                  <c:v>9.8347069999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.3140940000000008</c:v>
+                  <c:v>11.547197000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.6226079999999996</c:v>
+                  <c:v>13.799156</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.3973049999999994</c:v>
+                  <c:v>14.656934</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6.577216</c:v>
+                  <c:v>13.115987000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.9785170000000001</c:v>
+                  <c:v>11.439418999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.3246120000000001</c:v>
+                  <c:v>9.0102639999999994</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.7586900000000001</c:v>
+                  <c:v>6.0235209999999997</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.7262389999999996</c:v>
@@ -1197,7 +1197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14180300_temp_BLOWOUT CREEK NEAR DETROIT  OR_23780557.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1221,328 +1221,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>4.9304439999999996</c:v>
+                  <c:v>6.54711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.701562</c:v>
+                  <c:v>7.1049119999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.734928</c:v>
+                  <c:v>7.7561590000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2130559999999999</c:v>
+                  <c:v>8.5838889999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.662903</c:v>
+                  <c:v>9.6268139999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8705569999999998</c:v>
+                  <c:v>12.364478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.421946999999999</c:v>
+                  <c:v>17.944284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.410047</c:v>
+                  <c:v>17.621203999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.400347</c:v>
+                  <c:v>14.150831</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1906920000000003</c:v>
+                  <c:v>11.137532999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7716830000000003</c:v>
+                  <c:v>9.6229460000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4653559999999999</c:v>
+                  <c:v>6.9719420000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8536079999999999</c:v>
+                  <c:v>5.7269500000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9846339999999998</c:v>
+                  <c:v>5.5398800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0498010000000004</c:v>
+                  <c:v>6.6660279999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5851389999999999</c:v>
+                  <c:v>7.4212160000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7314860000000003</c:v>
+                  <c:v>8.8816199999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9797929999999999</c:v>
+                  <c:v>11.881873000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.851042</c:v>
+                  <c:v>16.148657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.344889</c:v>
+                  <c:v>17.884912</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.315555</c:v>
+                  <c:v>15.402051999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5108549999999994</c:v>
+                  <c:v>11.311054</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1493080000000004</c:v>
+                  <c:v>9.0141100000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4536959999999999</c:v>
+                  <c:v>5.8945230000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.6149529999999999</c:v>
+                  <c:v>5.5910279999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6020829999999999</c:v>
+                  <c:v>5.7675640000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3416990000000002</c:v>
+                  <c:v>6.0292329999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9653119999999999</c:v>
+                  <c:v>7.5388890000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.8807460000000003</c:v>
+                  <c:v>9.6521509999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.9986110000000004</c:v>
+                  <c:v>12.711807</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.258972999999999</c:v>
+                  <c:v>16.876681999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.855275000000001</c:v>
+                  <c:v>18.446539000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.387187000000001</c:v>
+                  <c:v>14.266251</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2147500000000004</c:v>
+                  <c:v>10.601513000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.4361740000000003</c:v>
+                  <c:v>9.7765780000000007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.6127019999999996</c:v>
+                  <c:v>6.913138</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.8536619999999999</c:v>
+                  <c:v>4.6715059999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7675230000000002</c:v>
+                  <c:v>5.9268229999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4040280000000003</c:v>
+                  <c:v>7.2695530000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.5048959999999996</c:v>
+                  <c:v>9.0236800000000006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.1537970000000008</c:v>
+                  <c:v>10.714046</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.141494</c:v>
+                  <c:v>14.825206</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15.461762</c:v>
+                  <c:v>18.854301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.488776999999999</c:v>
+                  <c:v>18.179331000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.884964999999999</c:v>
+                  <c:v>13.831529</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.2704969999999998</c:v>
+                  <c:v>11.222716</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.7284040000000003</c:v>
+                  <c:v>9.0450400000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7692540000000001</c:v>
+                  <c:v>5.3185479999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.6647850000000002</c:v>
+                  <c:v>5.3352490000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.4971730000000001</c:v>
+                  <c:v>5.3281619999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.0500930000000004</c:v>
+                  <c:v>7.0873920000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.1957279999999999</c:v>
+                  <c:v>8.8406249999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.3425729999999998</c:v>
+                  <c:v>10.805914</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.046635</c:v>
+                  <c:v>15.333819</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15.348991</c:v>
+                  <c:v>19.290593999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.355612000000001</c:v>
+                  <c:v>19.834306999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.380451000000001</c:v>
+                  <c:v>15.202292</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.260956</c:v>
+                  <c:v>12.222011</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.1787200000000002</c:v>
+                  <c:v>9.9835840000000005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.8156920000000003</c:v>
+                  <c:v>8.0302419999999994</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.0111549999999996</c:v>
+                  <c:v>6.7544029999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.7763770000000001</c:v>
+                  <c:v>7.7837420000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.0222550000000004</c:v>
+                  <c:v>9.1715890000000009</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.5243060000000002</c:v>
+                  <c:v>10.332568999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.8318209999999997</c:v>
+                  <c:v>13.706182999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.263369000000001</c:v>
+                  <c:v>17.640868999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.563137000000001</c:v>
+                  <c:v>19.424499999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>16.276378999999999</c:v>
+                  <c:v>19.429907</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12.748089999999999</c:v>
+                  <c:v>16.769477999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.578362</c:v>
+                  <c:v>14.072948999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.1180279999999998</c:v>
+                  <c:v>9.2432739999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.3269390000000003</c:v>
+                  <c:v>7.8496639999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.2999330000000002</c:v>
+                  <c:v>6.3295029999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.2941099999999999</c:v>
+                  <c:v>7.4234200000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.5454689999999998</c:v>
+                  <c:v>7.8133689999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.2178490000000002</c:v>
+                  <c:v>10.50104</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.5353829999999995</c:v>
+                  <c:v>12.243783000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.326946</c:v>
+                  <c:v>16.326910000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>14.736090000000001</c:v>
+                  <c:v>18.894119</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.499017</c:v>
+                  <c:v>17.526512</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.004861</c:v>
+                  <c:v>14.350834000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.24953</c:v>
+                  <c:v>11.847716</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.7227480000000002</c:v>
+                  <c:v>10.713042</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.271795</c:v>
+                  <c:v>6.493347</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.9396420000000001</c:v>
+                  <c:v>4.2790330000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.2773430000000001</c:v>
+                  <c:v>5.7391360000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6477680000000001</c:v>
+                  <c:v>6.6877690000000003</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.4789589999999997</c:v>
+                  <c:v>8.1786799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.2629039999999998</c:v>
+                  <c:v>10.853664</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.467051</c:v>
+                  <c:v>14.339339000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.483231999999999</c:v>
+                  <c:v>18.666298000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.56391</c:v>
+                  <c:v>18.377521999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.990728000000001</c:v>
+                  <c:v>14.019964</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.6994629999999997</c:v>
+                  <c:v>11.267341</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0259119999999999</c:v>
+                  <c:v>9.4617199999999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.836344</c:v>
+                  <c:v>6.4049060000000004</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9524530000000002</c:v>
+                  <c:v>6.5747650000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.4905879999999998</c:v>
+                  <c:v>5.9763390000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.943794</c:v>
+                  <c:v>7.1298199999999996</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.3185419999999999</c:v>
+                  <c:v>8.4933680000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.8277549999999998</c:v>
+                  <c:v>11.405948</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11.403541000000001</c:v>
+                  <c:v>14.580590000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>15.617777999999999</c:v>
+                  <c:v>18.980105999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.141884000000001</c:v>
+                  <c:v>18.686962000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.169641</c:v>
+                  <c:v>13.893890000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.3930869999999995</c:v>
+                  <c:v>12.614584000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.1728160000000001</c:v>
+                  <c:v>9.8861899999999991</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.2978500000000004</c:v>
+                  <c:v>7.5468070000000003</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>4.7575370000000001</c:v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-1.6538399629629694</v>
+        <v>-1.9974111481481476</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3793,11 +3793,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>6.6097266574074034</v>
+        <v>9.0974062870370371</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>8.2635666203703728</v>
+        <v>11.094817435185185</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3807,12 +3807,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>9.9778074633428133</v>
+        <v>5.946658988042925</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>2.1701081851851853</v>
+        <v>2.0113988148148145</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3825,13 +3825,13 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>0.25021306457651171</v>
+        <v>0.21955830982224833</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -3849,10 +3849,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3919,11 +3919,11 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.42713195318373209</v>
+        <v>0.69702184659950261</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>NS</v>
+        <v>S</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3938,46 +3938,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5.2419719999999996</v>
+        <v>5.922885</v>
       </c>
       <c r="I4">
-        <v>4.9304439999999996</v>
+        <v>6.54711</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>-0.31152800000000003</v>
+        <v>0.62422500000000003</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-3.3331226203703732</v>
+        <v>-4.5477074351851847</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-1.3677546574074038</v>
+        <v>-3.1745212870370372</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>11.109706402424663</v>
+        <v>20.681642916038612</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>1.8707528028596445</v>
+        <v>10.077585401851287</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>4.5588939877215475</v>
+        <v>14.436794060211977</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>9.7049694784000023E-2</v>
+        <v>0.38965685062500005</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>2.8199902434692721</v>
+        <v>6.5040111516748977</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.31152800000000003</v>
+        <v>0.62422500000000003</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4018,11 +4018,11 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.70364462369625214</v>
+        <v>0.50179244519447985</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
-        <v>NS</v>
+        <v>G</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4037,46 +4037,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>5.0949939999999998</v>
+        <v>6.0427559999999998</v>
       </c>
       <c r="I5">
-        <v>4.701562</v>
+        <v>7.1049119999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-0.39343199999999978</v>
+        <v>1.0621559999999999</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.5620046203703728</v>
+        <v>-3.989905435185185</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-1.5147326574074036</v>
+        <v>-3.0546502870370373</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>12.687876915539883</v>
+        <v>15.91934538172028</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>2.2944150234164948</v>
+        <v>9.3308883760954551</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>5.3954847243110642</v>
+        <v>12.18776578283906</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.15478873862399983</v>
+        <v>1.1281753683359999</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>3.641092359778713</v>
+        <v>3.9700334838752322</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>0.39343199999999978</v>
+        <v>1.0621559999999999</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4117,11 +4117,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.68871879087358645</v>
+        <v>0.9418278607488253</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>S</v>
+        <v>VG</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4136,46 +4136,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>4.8986179999999999</v>
+        <v>6.144552</v>
       </c>
       <c r="I6">
-        <v>4.734928</v>
+        <v>7.7561590000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.16368999999999989</v>
+        <v>1.6116070000000002</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5286386203703728</v>
+        <v>-3.3386584351851845</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7111086574074035</v>
+        <v>-2.9528542870370371</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>12.451290513169328</v>
+        <v>11.146640146833185</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>2.927892837454567</v>
+        <v>8.7193484404730093</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>6.0378840921778609</v>
+        <v>9.8585718732889376</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>2.6794416099999965E-2</v>
+        <v>2.5972771224490008</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>3.514870005816602</v>
+        <v>1.7989442849842117</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>0.16368999999999989</v>
+        <v>1.6116070000000002</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>6.6097266574074034</v>
+        <v>9.0974062870370371</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4232,46 +4232,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>5.2132360000000002</v>
+        <v>6.7517649999999998</v>
       </c>
       <c r="I7">
-        <v>5.2130559999999999</v>
+        <v>8.5838889999999992</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8000000000029104E-4</v>
+        <v>1.8321239999999994</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0505106203703729</v>
+        <v>-2.5109284351851855</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3964906574074032</v>
+        <v>-2.3456412870370373</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>9.3056150449924377</v>
+        <v>6.3047616066215246</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>1.9501861562261611</v>
+        <v>5.5020330474527688</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>4.2600095816692871</v>
+        <v>5.8897374063656729</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>3.2400000000104773E-8</v>
+        <v>3.3566783513759977</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>1.9506889252628286</v>
+        <v>0.26370000408587957</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.8000000000029104E-4</v>
+        <v>1.8321239999999994</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>2.1140438553564618</v>
+        <v>3.3965790011976376</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4328,46 +4328,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>6.5407209999999996</v>
+        <v>8.1476179999999996</v>
       </c>
       <c r="I8">
-        <v>6.662903</v>
+        <v>9.6268139999999995</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.12218200000000046</v>
+        <v>1.479196</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6006636203703728</v>
+        <v>-1.4680034351851852</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-6.9005657407403831E-2</v>
+        <v>-0.94978828703703755</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.5621240255771891</v>
+        <v>2.1550340857155041</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>4.7617807542279875E-3</v>
+        <v>0.90209779019275005</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.11045484541177265</v>
+        <v>1.3942924680690238</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>1.4928441124000111E-2</v>
+        <v>2.1880208064160001</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>2.8277234115252061E-3</v>
+        <v>0.28027252654467438</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>0.12218200000000046</v>
+        <v>1.479196</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>8.2635666203703728</v>
+        <v>11.094817435185185</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4424,46 +4424,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>9.0397219999999994</v>
+        <v>10.632562999999999</v>
       </c>
       <c r="I9">
-        <v>8.8705569999999998</v>
+        <v>12.364478</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>-0.16916499999999957</v>
+        <v>1.7319150000000008</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>0.60699037962962699</v>
+        <v>1.2696605648148154</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>2.429995342592596</v>
+        <v>1.5351567129629622</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.3684373209629187</v>
+        <v>1.6120379498458759</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>5.9048773650217079</v>
+        <v>2.3567061333552468</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.4749837954985052</v>
+        <v>1.94912793925981</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>2.8616797224999851E-2</v>
+        <v>2.9995295672250024</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>5.1113538379873571</v>
+        <v>10.67375757764275</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>0.16916499999999957</v>
+        <v>1.7319150000000008</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>4.1734023873452708</v>
+        <v>4.4302767865875357</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4519,46 +4519,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>10.868954</v>
+        <v>12.899336999999999</v>
       </c>
       <c r="I10">
-        <v>13.421946999999999</v>
+        <v>17.944284</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>2.552992999999999</v>
+        <v>5.0449470000000005</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>5.1583803796296266</v>
+        <v>6.849466564814815</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>4.2592273425925971</v>
+        <v>3.801930712962962</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>26.60888814094789</v>
+        <v>46.915192222516062</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>18.141017555888396</v>
+        <v>14.454677146171056</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>21.970714756411688</v>
+        <v>26.041197300182361</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>6.5177732580489947</v>
+        <v>25.451490232809004</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>46.406345996032385</v>
+        <v>78.267245268120774</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>2.552992999999999</v>
+        <v>5.0449470000000005</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>3.1587667630489613</v>
+        <v>2.4385772466835913</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4614,46 +4614,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>9.1853689999999997</v>
+        <v>13.729644</v>
       </c>
       <c r="I11">
-        <v>14.410047</v>
+        <v>17.621203999999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>5.2246780000000008</v>
+        <v>3.8915599999999984</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>6.1464803796296277</v>
+        <v>6.5263865648148141</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>2.5756423425925963</v>
+        <v>4.6322377129629633</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>37.779221057171974</v>
+        <v>42.593721593395308</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>6.6339334769558773</v>
+        <v>21.457626229396343</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>15.831135123688684</v>
+        <v>30.231773974909984</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>27.297260203684008</v>
+        <v>15.144239233599988</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>60.844997447063889</v>
+        <v>72.655127451512612</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>5.2246780000000008</v>
+        <v>3.8915599999999984</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.82989083069617442</v>
+        <v>0.97047816088195682</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -4710,46 +4710,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>7.5160470000000004</v>
+        <v>12.365583000000001</v>
       </c>
       <c r="I12">
-        <v>12.400347</v>
+        <v>14.150831</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>4.8842999999999996</v>
+        <v>1.7852479999999993</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>4.1367803796296272</v>
+        <v>3.0560135648148155</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>0.90632034259259697</v>
+        <v>3.2681767129629637</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>17.112951909288643</v>
+        <v>9.3392189083321568</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>0.82141656339716229</v>
+        <v>10.680979027153402</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>3.749248210896257</v>
+        <v>9.9875923670267124</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>23.856386489999995</v>
+        <v>3.1871104215039976</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>33.531283952047204</v>
+        <v>25.537101329584804</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>4.8842999999999996</v>
+        <v>1.7852479999999993</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>2.1701081851851853</v>
+        <v>2.0113988148148145</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4805,46 +4805,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>6.553998</v>
+        <v>10.518193</v>
       </c>
       <c r="I13">
-        <v>9.1906920000000003</v>
+        <v>11.137532999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>2.6366940000000003</v>
+        <v>0.61933999999999934</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.92712537962962749</v>
+        <v>4.2715564814814755E-2</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-5.5728657407403404E-2</v>
+        <v>1.420786712962963</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.85956146955338086</v>
+        <v>1.8246194774486403E-3</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>3.1056832564317384E-3</v>
+        <v>2.0186348837321009</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>-5.1667452655088333E-2</v>
+        <v>6.0689706925597053E-2</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>6.952155249636002</v>
+        <v>0.38358203559999915</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>6.6613820996641211</v>
+        <v>4.1621170049450615</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>2.6366940000000003</v>
+        <v>0.61933999999999934</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4893,46 +4893,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>4.7201709999999997</v>
+        <v>7.8354280000000003</v>
       </c>
       <c r="I14">
-        <v>5.7716830000000003</v>
+        <v>9.6229460000000007</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.0515120000000007</v>
+        <v>1.7875180000000004</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4918836203703725</v>
+        <v>-1.471871435185184</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8895556574074037</v>
+        <v>-1.2619782870370368</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>6.2094839774701542</v>
+        <v>2.1664055217140934</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>3.5704205824403257</v>
+        <v>1.5925891969529338</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>4.7085527924716803</v>
+        <v>1.8574697925137436</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>1.1056774861440013</v>
+        <v>3.1952206003240016</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>0.70231717172077679</v>
+        <v>0.27619198990119409</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>1.0515120000000007</v>
+        <v>1.7875180000000004</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4970,7 +4970,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.70364462369625214</v>
+        <v>0.50179244519447985</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4985,46 +4985,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>3.8279719999999999</v>
+        <v>5.4912939999999999</v>
       </c>
       <c r="I15">
-        <v>4.4653559999999999</v>
+        <v>6.9719420000000003</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0.63738399999999995</v>
+        <v>1.4806480000000004</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7982106203703729</v>
+        <v>-4.1228754351851844</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7817546574074035</v>
+        <v>-3.6061122870370372</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>14.426403916694293</v>
+        <v>16.998101854053424</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>7.7381589740077805</v>
+        <v>13.004045826719491</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>10.565690083029548</v>
+        <v>14.867551764744466</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>0.40625836345599992</v>
+        <v>2.1923184999040011</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>4.5983255163498598</v>
+        <v>4.5175984354698588</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.63738399999999995</v>
+        <v>1.4806480000000004</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5073,46 +5073,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>4.4768739999999996</v>
+        <v>4.7974399999999999</v>
       </c>
       <c r="I16">
-        <v>3.8536079999999999</v>
+        <v>5.7269500000000004</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-0.62326599999999965</v>
+        <v>0.9295100000000005</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4099586203703733</v>
+        <v>-5.3678674351851843</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1328526574074038</v>
+        <v>-4.2999662870370372</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>19.447735033378965</v>
+        <v>28.814000801721569</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>4.5490604582098246</v>
+        <v>18.489710069655082</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>9.4057919625136392</v>
+        <v>23.08164900458026</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>0.38846050675599958</v>
+        <v>0.86398884010000099</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>7.5961900537091882</v>
+        <v>11.359975582827488</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>0.62326599999999965</v>
+        <v>0.9295100000000005</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5140,46 +5140,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>3.6331329999999999</v>
+        <v>4.3039129999999997</v>
       </c>
       <c r="I17">
-        <v>2.9846339999999998</v>
+        <v>5.5398800000000001</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-0.64849900000000016</v>
+        <v>1.2359670000000005</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.278932620370373</v>
+        <v>-5.5549374351851846</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9765936574074034</v>
+        <v>-4.7934932870370375</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>27.867129610410412</v>
+        <v>30.857329908821757</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>8.8601098013179822</v>
+        <v>22.977577892869142</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>15.713237355675497</v>
+        <v>26.627555305470921</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>0.42055095300100021</v>
+        <v>1.5276144250890011</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>13.141296774789071</v>
+        <v>12.655993282959527</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>0.64849900000000016</v>
+        <v>1.2359670000000005</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5207,46 +5207,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>4.2496710000000002</v>
+        <v>5.3128789999999997</v>
       </c>
       <c r="I18">
-        <v>4.0498010000000004</v>
+        <v>6.6660279999999998</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-0.19986999999999977</v>
+        <v>1.3531490000000002</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2137656203703724</v>
+        <v>-4.4287894351851849</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3600556574074032</v>
+        <v>-3.7845272870370374</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>17.75582070341531</v>
+        <v>19.614175861207908</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>5.5698627060606904</v>
+        <v>14.322646786327919</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>9.9447213913439132</v>
+        <v>16.760874465999681</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>3.9948016899999911E-2</v>
+        <v>1.8310122162010005</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>6.553219371452724</v>
+        <v>5.9116003746751575</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>0.19986999999999977</v>
+        <v>1.3531490000000002</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5274,46 +5274,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>4.202833</v>
+        <v>5.7033620000000003</v>
       </c>
       <c r="I19">
-        <v>4.5851389999999999</v>
+        <v>7.4212160000000003</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>0.38230599999999981</v>
+        <v>1.717854</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-3.678427620370373</v>
+        <v>-3.6736014351851844</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4068936574074034</v>
+        <v>-3.3940442870370369</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>13.530829758303645</v>
+        <v>13.495347504594648</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>5.7931370780679865</v>
+        <v>11.519536622368747</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>8.8535841087016589</v>
+        <v>12.468365963941334</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>0.14615787763599986</v>
+        <v>2.9510223653160002</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>4.0989551825263977</v>
+        <v>2.8096138783573039</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>0.38230599999999981</v>
+        <v>1.717854</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5344,46 +5344,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>6.4582519999999999</v>
+        <v>7.4240199999999996</v>
       </c>
       <c r="I20">
-        <v>5.7314860000000003</v>
+        <v>8.8816199999999998</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>-0.72676599999999958</v>
+        <v>1.4576000000000002</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5320806203703725</v>
+        <v>-2.2131974351851849</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-0.15147465740740351</v>
+        <v>-1.6733862870370375</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>6.4114322680552105</v>
+        <v>4.8982428871102801</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2.2944571836690263E-2</v>
+        <v>2.8002216656436025</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>0.38354604449852792</v>
+        <v>3.7035342385444308</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>0.52818881875599943</v>
+        <v>2.1245977600000008</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.77130665232338758</v>
+        <v>4.6563721673230647E-2</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>0.72676599999999958</v>
+        <v>1.4576000000000002</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5417,46 +5417,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.4497669999999996</v>
+        <v>9.5370039999999996</v>
       </c>
       <c r="I21">
-        <v>7.9797929999999999</v>
+        <v>11.881873000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4699739999999997</v>
+        <v>2.344869000000001</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-0.2837736203703729</v>
+        <v>0.78705556481481587</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>2.8400403425925962</v>
+        <v>0.43959771296296246</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>8.0527467618108514E-2</v>
+        <v>0.61945646210596883</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>8.0658291475534707</v>
+        <v>0.19324614924226713</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-0.8059285300154152</v>
+        <v>0.34598782626736574</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>2.1608235606759991</v>
+        <v>5.4984106271610047</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>1.8770817831050541</v>
+        <v>7.7532548755987705</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>1.4699739999999997</v>
+        <v>2.344869000000001</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5490,46 +5490,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>9.9536850000000001</v>
+        <v>12.066784</v>
       </c>
       <c r="I22">
-        <v>11.851042</v>
+        <v>16.148657</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>1.8973569999999995</v>
+        <v>4.0818729999999999</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>3.5874753796296268</v>
+        <v>5.0538395648148153</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>3.3439583425925967</v>
+        <v>2.969377712962963</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>12.869979599448735</v>
+        <v>25.541294346887604</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>11.182057396994626</v>
+        <v>8.8172040022411569</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>11.996368224558033</v>
+        <v>15.006758568651552</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>3.599963585448998</v>
+        <v>16.661687188128997</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>27.471386520496544</v>
+        <v>49.720136617060696</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>1.8973569999999995</v>
+        <v>4.0818729999999999</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5563,46 +5563,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>8.8739609999999995</v>
+        <v>14.113701000000001</v>
       </c>
       <c r="I23">
-        <v>14.344889</v>
+        <v>17.884912</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>5.4709280000000007</v>
+        <v>3.7712109999999992</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>6.0813223796296274</v>
+        <v>6.7900945648148152</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>2.2642343425925961</v>
+        <v>5.0162947129629636</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>36.982481884984153</v>
+        <v>46.105384199127698</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>5.1267571581757263</v>
+        <v>25.163212647300181</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>13.769538980334332</v>
+        <v>34.061115465999116</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>29.931053181184009</v>
+        <v>14.222032406520993</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>59.832736466262588</v>
+        <v>77.220256655356707</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>5.4709280000000007</v>
+        <v>3.7712109999999992</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5636,46 +5636,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>7.4884009999999996</v>
+        <v>12.620493</v>
       </c>
       <c r="I24">
-        <v>13.315555</v>
+        <v>15.402051999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>5.8271540000000002</v>
+        <v>2.7815589999999997</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>5.051988379629627</v>
+        <v>4.3072345648148147</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>0.87867434259259625</v>
+        <v>3.5230867129629626</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>25.522586587912784</v>
+        <v>18.552269596335467</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>0.77206860033053115</v>
+        <v>12.412139987056172</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>4.4390525682564981</v>
+        <v>15.174760864913882</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>33.955723739715999</v>
+        <v>7.7370704704809983</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>44.968133760318167</v>
+        <v>39.74855756598226</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>5.8271540000000002</v>
+        <v>2.7815589999999997</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5709,46 +5709,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>6.548057</v>
+        <v>10.699263</v>
       </c>
       <c r="I25">
-        <v>9.5108549999999994</v>
+        <v>11.311054</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>2.9627979999999994</v>
+        <v>0.6117910000000002</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>1.2472883796296266</v>
+        <v>0.21623656481481568</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-6.1669657407403378E-2</v>
+        <v>1.6018567129629631</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>1.5557283019590995</v>
+        <v>4.675825196291198E-2</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>3.8031466447465022E-3</v>
+        <v>2.5659449288645084</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>-7.6919847059994356E-2</v>
+        <v>0.34637999293666338</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>8.7781719888039955</v>
+        <v>0.37428822768100023</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>8.4165456601940623</v>
+        <v>4.9002361971061577</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>2.9627979999999994</v>
+        <v>0.6117910000000002</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5782,46 +5782,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>4.0560999999999998</v>
+        <v>8.1206899999999997</v>
       </c>
       <c r="I26">
-        <v>5.1493080000000004</v>
+        <v>9.0141100000000005</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>1.0932080000000006</v>
+        <v>0.89342000000000077</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-3.1142586203703724</v>
+        <v>-2.0807074351851842</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5536266574074036</v>
+        <v>-0.97671628703703739</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>9.6986067545511752</v>
+        <v>4.3293434308349079</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>6.521009105421709</v>
+        <v>0.95397470536341644</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>7.9526538310385861</v>
+        <v>2.0322608405044305</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>1.1951037312640014</v>
+        <v>0.79819929640000142</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>2.1328226549036415</v>
+        <v>6.9382714341563951E-3</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>1.0932080000000006</v>
+        <v>0.89342000000000077</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5855,46 +5855,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>3.9512320000000001</v>
+        <v>5.9106379999999996</v>
       </c>
       <c r="I27">
-        <v>2.4536959999999999</v>
+        <v>5.8945230000000004</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4975360000000002</v>
+        <v>-1.6114999999999213E-2</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8098706203703729</v>
+        <v>-5.2002944351851843</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6584946574074033</v>
+        <v>-3.1867682870370375</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>33.754596625442822</v>
+        <v>27.043062212617993</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>7.0675938434637064</v>
+        <v>10.155492115264975</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>15.445510004482873</v>
+        <v>16.572133389303328</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>2.2426140712960008</v>
+        <v>2.5969322499997462E-4</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>17.272590825310214</v>
+        <v>10.258461350381173</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>1.4975360000000002</v>
+        <v>1.6114999999999213E-2</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5928,46 +5928,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>3.9248129999999999</v>
+        <v>4.9040330000000001</v>
       </c>
       <c r="I28">
-        <v>3.6149529999999999</v>
+        <v>5.5910279999999997</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-0.30986000000000002</v>
+        <v>0.68699499999999958</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-4.648613620370373</v>
+        <v>-5.503789435185185</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6849136574074035</v>
+        <v>-4.193373287037037</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>21.609608591492947</v>
+        <v>30.291698146856056</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>7.2087613477327999</v>
+        <v>17.584379524435803</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>12.481126197342489</v>
+        <v>23.079443594982216</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>9.6013219600000019E-2</v>
+        <v>0.47196213002499943</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>8.9686692591013166</v>
+        <v>12.294688691804788</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>0.30986000000000002</v>
+        <v>0.68699499999999958</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -6001,46 +6001,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>4.1292210000000003</v>
+        <v>4.7825350000000002</v>
       </c>
       <c r="I29">
-        <v>3.6020829999999999</v>
+        <v>5.7675640000000001</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-0.52713800000000033</v>
+        <v>0.98502899999999993</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-4.6614836203703724</v>
+        <v>-5.3272534351851846</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4805056574074031</v>
+        <v>-4.3148712870370369</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>21.729429542981276</v>
+        <v>28.37962916269235</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>6.1529083164301328</v>
+        <v>18.618114223696654</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>11.562836492240653</v>
+        <v>22.986412886249973</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>0.27787447104400037</v>
+        <v>0.9702821308409999</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>9.0459203699429818</v>
+        <v>11.087849656540046</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>0.52713800000000033</v>
+        <v>0.98502899999999993</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6074,46 +6074,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>3.644091</v>
+        <v>4.4081659999999996</v>
       </c>
       <c r="I30">
-        <v>3.3416990000000002</v>
+        <v>6.0292329999999996</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-0.30239199999999977</v>
+        <v>1.621067</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9218676203703726</v>
+        <v>-5.0655844351851851</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9656356574074034</v>
+        <v>-4.6892402870370375</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>24.224780872450314</v>
+        <v>25.66014566999041</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>8.7949948524862425</v>
+        <v>21.988974469571197</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>14.596466116009303</v>
+        <v>23.753742610858126</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>9.1440921663999863E-2</v>
+        <v>2.627858218489</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>10.680004769579719</v>
+        <v>9.4136873192876589</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>0.30239199999999977</v>
+        <v>1.621067</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6147,46 +6147,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6.6855820000000001</v>
+        <v>6.8728590000000001</v>
       </c>
       <c r="I31">
-        <v>4.9653119999999999</v>
+        <v>7.5388890000000002</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7202700000000002</v>
+        <v>0.66603000000000012</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-3.2982546203703729</v>
+        <v>-3.5559284351851845</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>7.5855342592596742E-2</v>
+        <v>-2.2245472870370371</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>10.878483540794512</v>
+        <v>12.644627036158555</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>5.7540329998402211E-3</v>
+        <v>4.9486106322638417</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>-0.25019023418580977</v>
+        <v>7.9103309533890585</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>2.9593288729000005</v>
+        <v>0.44359596090000014</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>2.7040995654963083</v>
+        <v>2.4289761339932858</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>1.7202700000000002</v>
+        <v>0.66603000000000012</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6220,46 +6220,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>7.9209849999999999</v>
+        <v>8.3156440000000007</v>
       </c>
       <c r="I32">
-        <v>6.8807460000000003</v>
+        <v>9.6521509999999999</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0402389999999997</v>
+        <v>1.3365069999999992</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3828206203703726</v>
+        <v>-1.4426664351851848</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>1.3112583425925965</v>
+        <v>-0.78176228703703643</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>1.9121928681215021</v>
+        <v>2.0812864432099292</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>1.7193984410186833</v>
+        <v>0.61115227343337775</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>-1.8132350747697208</v>
+        <v>1.1278222118019385</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1.0820971771209993</v>
+        <v>1.7862509610489978</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>7.3451484059323391E-2</v>
+        <v>0.30774169656035999</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1.0402389999999997</v>
+        <v>1.3365069999999992</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6287,46 +6287,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>9.1286900000000006</v>
+        <v>9.8756970000000006</v>
       </c>
       <c r="I33">
-        <v>8.9986110000000004</v>
+        <v>12.711807</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>-0.13007900000000028</v>
+        <v>2.8361099999999997</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>0.73504437962962754</v>
+        <v>1.6169895648148156</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>2.5189633425925972</v>
+        <v>0.77829071296296348</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.54029024002510406</v>
+        <v>2.6146552527200067</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>6.3451763213252708</v>
+        <v>0.60573643388439802</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>1.8515498474657486</v>
+        <v>1.2584879612533948</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>1.6920546241000072E-2</v>
+        <v>8.0435199320999988</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>5.7067684022840641</v>
+        <v>13.063892513867177</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>0.13007900000000028</v>
+        <v>2.8361099999999997</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6354,46 +6354,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>11.09207</v>
+        <v>12.984833999999999</v>
       </c>
       <c r="I34">
-        <v>13.258972999999999</v>
+        <v>16.876681999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>2.1669029999999996</v>
+        <v>3.8918479999999995</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>4.9954063796296264</v>
+        <v>5.7818645648148141</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>4.4823433425925963</v>
+        <v>3.8874277129629622</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>24.954084897644371</v>
+        <v>33.429957845861203</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>20.091401840884167</v>
+        <v>15.112094223512447</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>22.39112652927744</v>
+        <v>22.476580541859647</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>4.6954686114089981</v>
+        <v>15.146480855103997</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>44.21247692448101</v>
+        <v>60.517130618295397</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>2.1669029999999996</v>
+        <v>3.8918479999999995</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6421,46 +6421,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>9.6180199999999996</v>
+        <v>14.687898000000001</v>
       </c>
       <c r="I35">
-        <v>14.855275000000001</v>
+        <v>18.446539000000001</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>5.2372550000000011</v>
+        <v>3.7586410000000008</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>6.5917083796296279</v>
+        <v>7.3517215648148166</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>3.0082933425925962</v>
+        <v>5.5904917129629634</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>43.450619362079451</v>
+        <v>54.047809966563214</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>9.0498288350869345</v>
+        <v>31.253597592707568</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>19.829792434751639</v>
+        <v>41.099738484108343</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>27.42883993502501</v>
+        <v>14.127382166881006</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>67.989067470031529</v>
+        <v>87.406282484594229</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>5.2372550000000011</v>
+        <v>3.7586410000000008</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6488,46 +6488,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>7.4460040000000003</v>
+        <v>12.981524</v>
       </c>
       <c r="I36">
-        <v>12.387187000000001</v>
+        <v>14.266251</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>4.9411830000000005</v>
+        <v>1.2847270000000002</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>4.123620379629628</v>
+        <v>3.1714335648148158</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>0.8362773425925969</v>
+        <v>3.8841177129629632</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>17.004245035296798</v>
+        <v>10.05799085603401</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>0.69935979373373569</v>
+        <v>15.086370408152639</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>3.4484902929373411</v>
+        <v>12.318221284582499</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>24.415289439489005</v>
+        <v>1.6505234645290003</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>33.379048010230171</v>
+        <v>26.71695566672518</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>4.9411830000000005</v>
+        <v>1.2847270000000002</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6555,46 +6555,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>6.4589379999999998</v>
+        <v>11.045548999999999</v>
       </c>
       <c r="I37">
-        <v>8.2147500000000004</v>
+        <v>10.601513000000001</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>1.7558120000000006</v>
+        <v>-0.44403599999999877</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-4.8816620370372377E-2</v>
+        <v>-0.49330443518518408</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-0.15078865740740355</v>
+        <v>1.9481427129629623</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>2.3830624243850553E-3</v>
+        <v>0.24334926577337349</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>2.2737219202727317E-2</v>
+        <v>3.7952600300706907</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>7.3609926448153576E-3</v>
+        <v>-0.96102744067832624</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>3.0828757793440023</v>
+        <v>0.19716796929599889</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>2.5760999302671133</v>
+        <v>2.2623370039802508</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1.7558120000000006</v>
+        <v>0.44403599999999877</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6622,46 +6622,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>5.6897729999999997</v>
+        <v>8.386495</v>
       </c>
       <c r="I38">
-        <v>6.4361740000000003</v>
+        <v>9.7765780000000007</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0.74640100000000054</v>
+        <v>1.3900830000000006</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8273926203703725</v>
+        <v>-1.318239435185184</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-0.91995365740740365</v>
+        <v>-0.7109112870370371</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3.3393637889840964</v>
+        <v>1.7377552084773531</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>0.84631473177725858</v>
+        <v>0.50539485803665651</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>1.6811165246290234</v>
+        <v>0.93715129349047599</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>0.5571144528010008</v>
+        <v>1.9323307468890016</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>3.0120524893171435E-2</v>
+        <v>0.46127421568904614</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>0.74640100000000054</v>
+        <v>1.3900830000000006</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6689,46 +6689,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>3.200841</v>
+        <v>5.0949070000000001</v>
       </c>
       <c r="I39">
-        <v>4.6127019999999996</v>
+        <v>6.913138</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1.4118609999999996</v>
+        <v>1.8182309999999999</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6508646203703732</v>
+        <v>-4.1816794351851847</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4088856574074033</v>
+        <v>-4.0024992870370371</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>13.328812476272109</v>
+        <v>17.486442898650687</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>11.620501425277904</v>
+        <v>16.020000542731989</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>12.445380041516689</v>
+        <v>16.737168957946142</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>1.9933514833209989</v>
+        <v>3.3059639693609997</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>3.9881074822931581</v>
+        <v>4.7710279497557124</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>1.4118609999999996</v>
+        <v>1.8182309999999999</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6756,46 +6756,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>3.6047310000000001</v>
+        <v>4.2086690000000004</v>
       </c>
       <c r="I40">
-        <v>2.8536619999999999</v>
+        <v>4.6715059999999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-0.75106900000000021</v>
+        <v>0.4628369999999995</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4099046203703729</v>
+        <v>-6.4233114351851848</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0049956574074033</v>
+        <v>-4.8887372870370367</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>29.267068001504708</v>
+        <v>41.258929793380759</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>9.0299989010373523</v>
+        <v>23.899752261666247</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>16.256739891201217</v>
+        <v>31.401882119441193</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>0.56410464276100036</v>
+        <v>0.21421808856899954</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>14.108021710624996</v>
+        <v>19.588593350794529</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>0.75106900000000021</v>
+        <v>0.4628369999999995</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6823,46 +6823,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>3.479962</v>
+        <v>4.1517220000000004</v>
       </c>
       <c r="I41">
-        <v>3.7675230000000002</v>
+        <v>5.9268229999999997</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>0.28756100000000018</v>
+        <v>1.7751009999999994</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4960436203703722</v>
+        <v>-5.167994435185185</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1297646574074034</v>
+        <v>-4.9456842870370368</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>20.214408236273123</v>
+        <v>26.708166482105039</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>9.7954268107564815</v>
+        <v>24.459793067045045</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>14.071558421197219</v>
+        <v>25.559268873590216</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>8.2691328721000101E-2</v>
+        <v>3.1509835602009977</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>8.0781216301800196</v>
+        <v>10.052598380038585</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>0.28756100000000018</v>
+        <v>1.7751009999999994</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6890,46 +6890,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>5.3047009999999997</v>
+        <v>5.8348639999999996</v>
       </c>
       <c r="I42">
-        <v>4.4040280000000003</v>
+        <v>7.2695530000000002</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-0.90067299999999939</v>
+        <v>1.4346890000000005</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8595386203703725</v>
+        <v>-3.8252644351851846</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3050256574074037</v>
+        <v>-3.2625422870370375</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>14.896038362130438</v>
+        <v>14.632647999092629</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>1.7030919664916262</v>
+        <v>10.644182174704863</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>5.0367969253381091</v>
+        <v>12.480086978890514</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>0.81121185292899889</v>
+        <v>2.0583325267210015</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>4.8651065672888203</v>
+        <v>3.3410476389321007</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>0.90067299999999939</v>
+        <v>1.4346890000000005</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6957,46 +6957,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>6.0746969999999996</v>
+        <v>7.0524519999999997</v>
       </c>
       <c r="I43">
-        <v>5.5048959999999996</v>
+        <v>9.0236800000000006</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-0.569801</v>
+        <v>1.9712280000000009</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7586706203703732</v>
+        <v>-2.0711374351851841</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-0.53502965740740382</v>
+        <v>-2.0449542870370374</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>7.6102635916946602</v>
+        <v>4.2896102754254626</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>0.28625673430548393</v>
+        <v>4.1818380360711576</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>1.475970596916631</v>
+        <v>4.2353813771248365</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>0.32467317960100001</v>
+        <v>3.8857398279840036</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>1.220650781547276</v>
+        <v>5.4355654002675021E-3</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>0.569801</v>
+        <v>1.9712280000000009</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7024,46 +7024,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>8.2528079999999999</v>
+        <v>9.1350409999999993</v>
       </c>
       <c r="I44">
-        <v>8.1537970000000008</v>
+        <v>10.714046</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>-9.9010999999999072E-2</v>
+        <v>1.5790050000000004</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-0.10976962037037197</v>
+        <v>-0.38077143518518497</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>1.6430813425925965</v>
+        <v>3.7634712962962169E-2</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>1.2049369556255581E-2</v>
+        <v>0.14498688585298553</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>2.6997162983758898</v>
+        <v>1.4163716198045528E-3</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>-0.1803604152140304</v>
+        <v>-1.4330223667689591E-2</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>9.803178120999817E-3</v>
+        <v>2.4932567900250016</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>2.3841532228740214</v>
+        <v>2.61352396152897</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>9.9010999999999072E-2</v>
+        <v>1.5790050000000004</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7091,46 +7091,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>9.9528239999999997</v>
+        <v>11.628033</v>
       </c>
       <c r="I45">
-        <v>11.141494</v>
+        <v>14.825206</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>1.1886700000000001</v>
+        <v>3.1971729999999994</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>2.877927379629627</v>
+        <v>3.730388564814815</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>3.3430973425925963</v>
+        <v>2.5306267129629632</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>8.2824660024218506</v>
+        <v>13.915798844501134</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>11.176299842049678</v>
+        <v>6.4040715603617313</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>9.6211913750142806</v>
+        <v>9.4402209518519413</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>1.4129363689000003</v>
+        <v>10.221915191928996</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>20.536915247388762</v>
+        <v>32.807689551818598</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>1.1886700000000001</v>
+        <v>3.1971729999999994</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7158,46 +7158,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>10.41943</v>
+        <v>13.474235</v>
       </c>
       <c r="I46">
-        <v>15.461762</v>
+        <v>18.854301</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>5.042332</v>
+        <v>5.3800659999999993</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>7.1981953796296274</v>
+        <v>7.7594835648148148</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>3.8097033425925968</v>
+        <v>4.3768287129629631</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>51.814016723321316</v>
+        <v>60.209585192631224</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>14.513839558561205</v>
+        <v>19.156629582617029</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>27.422988998409579</v>
+        <v>33.96193046424569</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>25.425111998224001</v>
+        <v>28.945110164355992</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>78.358529706508435</v>
+        <v>95.196994439844602</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>5.042332</v>
+        <v>5.3800659999999993</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7225,46 +7225,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>8.8168220000000002</v>
+        <v>14.039861999999999</v>
       </c>
       <c r="I47">
-        <v>16.488776999999999</v>
+        <v>18.179331000000001</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>7.6719549999999987</v>
+        <v>4.1394690000000018</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>8.2252103796296261</v>
+        <v>7.0845135648148165</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>2.2070953425925968</v>
+        <v>4.9424557129629623</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>67.654085789166942</v>
+        <v>50.19033245004514</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>4.8712698512939321</v>
+        <v>24.427868474600224</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>18.153823520724831</v>
+        <v>35.014894541982592</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>58.858893522024978</v>
+        <v>17.135203601961017</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>97.595635671478874</v>
+        <v>82.481356491927414</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>7.6719549999999987</v>
+        <v>4.1394690000000018</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7292,46 +7292,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>8.2223970000000008</v>
+        <v>12.713673999999999</v>
       </c>
       <c r="I48">
-        <v>13.884964999999999</v>
+        <v>13.831529</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>5.6625679999999985</v>
+        <v>1.1178550000000005</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>5.6213983796296265</v>
+        <v>2.736711564814815</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>1.6126703425925974</v>
+        <v>3.6162677129629621</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>31.600119742502592</v>
+        <v>7.4895901889911531</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>2.6007056338777255</v>
+        <v>13.077392171818373</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>9.0654624507267823</v>
+        <v>9.8966816715321606</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>32.064676354623984</v>
+        <v>1.2495998010250011</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>52.929092941529461</v>
+        <v>22.4119178613918</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>5.6625679999999985</v>
+        <v>1.1178550000000005</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7359,46 +7359,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>7.1077490000000001</v>
+        <v>10.125171999999999</v>
       </c>
       <c r="I49">
-        <v>7.2704969999999998</v>
+        <v>11.222716</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>0.16274799999999967</v>
+        <v>1.097544000000001</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-0.99306962037037305</v>
+        <v>0.12789856481481543</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>0.4980223425925967</v>
+        <v>1.027765712962962</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>0.98618727090255687</v>
+        <v>1.6358042881689544E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>0.24802625372141776</v>
+        <v>1.0563023607422657</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-0.49457085869439388</v>
+        <v>0.1314497596538384</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>2.6486911503999892E-2</v>
+        <v>1.204602831936002</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>0.43661744564993715</v>
+        <v>4.5169413760147119</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>0.16274799999999967</v>
+        <v>1.097544000000001</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7426,46 +7426,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>4.7543660000000001</v>
+        <v>8.1183669999999992</v>
       </c>
       <c r="I50">
-        <v>5.7284040000000003</v>
+        <v>9.0450400000000002</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>0.97403800000000018</v>
+        <v>0.92667300000000097</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5351626203703725</v>
+        <v>-2.0497774351851845</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8553606574074033</v>
+        <v>-0.97903928703703791</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>6.4270495117231734</v>
+        <v>4.2015875337943536</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>3.4423631690552319</v>
+        <v>0.95851792556199156</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>4.7036409859650492</v>
+        <v>2.0068126387283112</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>0.94875002544400033</v>
+        <v>0.85872284892900175</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>0.77672962645964683</v>
+        <v>2.7422280180453432E-3</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>0.97403800000000018</v>
+        <v>0.92667300000000097</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7493,46 +7493,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>4.0385949999999999</v>
+        <v>5.3820059999999996</v>
       </c>
       <c r="I51">
-        <v>2.7692540000000001</v>
+        <v>5.3185479999999998</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2693409999999998</v>
+        <v>-6.3457999999999792E-2</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4943126203703727</v>
+        <v>-5.7762694351851849</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5711316574074035</v>
+        <v>-3.7154002870370375</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>30.18747117036115</v>
+        <v>33.365288587854572</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>6.6107179997225414</v>
+        <v>13.8041992929149</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>14.12660111392729</v>
+        <v>21.461153117490301</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>1.6112265742809995</v>
+        <v>4.026917763999974E-3</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>14.749230232293883</v>
+        <v>14.279769953508492</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>1.2693409999999998</v>
+        <v>6.3457999999999792E-2</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7560,46 +7560,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>5.5932329999999997</v>
+        <v>5.5669740000000001</v>
       </c>
       <c r="I52">
-        <v>3.6647850000000002</v>
+        <v>5.3352490000000001</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9284479999999995</v>
+        <v>-0.23172499999999996</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-4.5987816203703726</v>
+        <v>-5.7595684351851846</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0164936574074037</v>
+        <v>-3.530432287037037</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>21.14879239185635</v>
+        <v>33.172628559581518</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>1.0332593555494802</v>
+        <v>12.463952133353564</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>4.6746323489082267</v>
+        <v>20.333766362977158</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>3.7189116887039981</v>
+        <v>5.3696475624999983E-2</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>8.6726813655334638</v>
+        <v>14.153827452405878</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>1.9284479999999995</v>
+        <v>0.23172499999999996</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7627,46 +7627,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>4.0500150000000001</v>
+        <v>4.9330980000000002</v>
       </c>
       <c r="I53">
-        <v>3.4971730000000001</v>
+        <v>5.3281619999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-0.55284200000000006</v>
+        <v>0.39506399999999964</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7663936203703727</v>
+        <v>-5.7666554351851849</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5597116574074033</v>
+        <v>-4.1643082870370369</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>22.718508144307389</v>
+        <v>33.254314908150832</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>6.5521237690673555</v>
+        <v>17.34146350948534</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>12.20059331385432</v>
+        <v>24.014131017228834</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>0.30563427696400008</v>
+        <v>0.15607556409599971</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>9.6879902702402028</v>
+        <v>14.207202495361344</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>0.55284200000000006</v>
+        <v>0.39506399999999964</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7694,46 +7694,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>5.4342160000000002</v>
+        <v>6.2262630000000003</v>
       </c>
       <c r="I54">
-        <v>5.0500930000000004</v>
+        <v>7.0873920000000004</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-0.38412299999999977</v>
+        <v>0.86112900000000003</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-3.2134736203703724</v>
+        <v>-4.0074254351851843</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1755106574074032</v>
+        <v>-2.8711432870370368</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>10.326412708816269</v>
+        <v>16.059458618569163</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>1.3818253056783854</v>
+        <v>8.2434637746978403</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>3.7774724880429247</v>
+        <v>11.505892636533417</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.14755047912899982</v>
+        <v>0.74154315464100007</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>2.4324571453179926</v>
+        <v>4.0401574340930075</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>0.38412299999999977</v>
+        <v>0.86112900000000003</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7761,46 +7761,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>6.4882270000000002</v>
+        <v>7.5342890000000002</v>
       </c>
       <c r="I55">
-        <v>6.1957279999999999</v>
+        <v>8.8406249999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-0.29249900000000029</v>
+        <v>1.3063359999999991</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0678386203703729</v>
+        <v>-2.2541924351851854</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-0.12149965740740321</v>
+        <v>-1.5631172870370369</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>4.2759565598952474</v>
+        <v>5.0813835348461165</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>1.4762166750116349E-2</v>
+        <v>2.4433356530340262</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>0.25124168394879759</v>
+        <v>3.5235671637460788</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>8.5555665001000161E-2</v>
+        <v>1.7065137448959975</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>0.17139488833513264</v>
+        <v>6.5936629372397623E-2</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>0.29249900000000029</v>
+        <v>1.3063359999999991</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7828,46 +7828,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>8.9281430000000004</v>
+        <v>9.3448139999999995</v>
       </c>
       <c r="I56">
-        <v>8.3425729999999998</v>
+        <v>10.805914</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>-0.58557000000000059</v>
+        <v>1.4611000000000001</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>7.9006379629626977E-2</v>
+        <v>-0.28890343518518513</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>2.318416342592597</v>
+        <v>0.24740771296296238</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>6.2420080221807367E-3</v>
+        <v>8.3465194861800471E-2</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>5.3750543376004343</v>
+        <v>6.1210576433563584E-2</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.18316968170240203</v>
+        <v>-7.1476938166310094E-2</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>0.34289222490000071</v>
+        <v>2.1348132100000003</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>3.0027564470365378</v>
+        <v>2.9189986052539325</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>0.58557000000000059</v>
+        <v>1.4611000000000001</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7895,46 +7895,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>9.3607379999999996</v>
+        <v>11.341475000000001</v>
       </c>
       <c r="I57">
-        <v>11.046635</v>
+        <v>15.333819</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>1.6858970000000006</v>
+        <v>3.9923439999999992</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>2.7830683796296274</v>
+        <v>4.2390015648148154</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>2.7510113425925962</v>
+        <v>2.2440687129629637</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>7.7454696056942796</v>
+        <v>17.969134266502454</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>7.5680634070731188</v>
+        <v>5.0358443884992523</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>7.6562526795719021</v>
+        <v>9.5126107858019715</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>2.842248694609002</v>
+        <v>15.938810614335994</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>19.686155640567783</v>
+        <v>38.892843526406061</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>1.6858970000000006</v>
+        <v>3.9923439999999992</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7962,46 +7962,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>10.723186</v>
+        <v>13.801539999999999</v>
       </c>
       <c r="I58">
-        <v>15.348991</v>
+        <v>19.290593999999999</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>4.6258049999999997</v>
+        <v>5.4890539999999994</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>7.085424379629627</v>
+        <v>8.195776564814814</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>4.1134593425925967</v>
+        <v>4.7041337129629621</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>50.203238639449886</v>
+        <v>67.170753500367709</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>16.920547763162318</v>
+        <v>22.128873989434705</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>29.145605110620842</v>
+        <v>38.554028842457143</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>21.398071898024998</v>
+        <v>30.129713814915995</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>76.374741249710411</v>
+        <v>103.9010757516991</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>4.6258049999999997</v>
+        <v>5.4890539999999994</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8029,46 +8029,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>8.9892850000000006</v>
+        <v>14.611623</v>
       </c>
       <c r="I59">
-        <v>16.355612000000001</v>
+        <v>19.834306999999999</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>7.3663270000000001</v>
+        <v>5.2226839999999992</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>8.0920453796296279</v>
+        <v>8.7394895648148143</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>2.3795583425925972</v>
+        <v>5.5142167129629627</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>65.481198425985212</v>
+        <v>76.378677853507028</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>5.6622979058020286</v>
+        <v>30.406585957520061</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>19.25549409173556</v>
+        <v>48.191439421067258</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>54.262773470928998</v>
+        <v>27.276428163855993</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>94.982281110961225</v>
+        <v>115.28103692002456</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>7.3663270000000001</v>
+        <v>5.2226839999999992</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8096,46 +8096,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>7.329949</v>
+        <v>13.445843</v>
       </c>
       <c r="I60">
-        <v>13.380451000000001</v>
+        <v>15.202292</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>6.0505020000000007</v>
+        <v>1.7564489999999999</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>5.1168843796296279</v>
+        <v>4.1074745648148152</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>0.72022234259259665</v>
+        <v>4.3484367129629629</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>26.182505754497683</v>
+        <v>16.871347300600657</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>0.51872022276956764</v>
+        <v>18.908901846644138</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>3.6852944546723161</v>
+        <v>17.861093195202312</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>36.608574452004007</v>
+        <v>3.0851130896009997</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>45.842708123375957</v>
+        <v>37.269629568339305</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>6.0505020000000007</v>
+        <v>1.7564489999999999</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8163,46 +8163,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>7.0039100000000003</v>
+        <v>11.683187</v>
       </c>
       <c r="I61">
-        <v>10.260956</v>
+        <v>12.222011</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>3.2570459999999999</v>
+        <v>0.53882399999999997</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.9973893796296274</v>
+        <v>1.1271935648148155</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>0.39418334259259691</v>
+        <v>2.5857807129629631</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>3.9895643338572278</v>
+        <v>1.2705653325599315</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>0.15538050757747263</v>
+        <v>6.6862618955312501</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>0.78733762212136005</v>
+        <v>2.9146753796741174</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>10.608348646115999</v>
+        <v>0.29033130297599996</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>13.331475712209167</v>
+        <v>9.7631546122703607</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>3.2570459999999999</v>
+        <v>0.53882399999999997</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8230,46 +8230,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>5.4021809999999997</v>
+        <v>8.5646529999999998</v>
       </c>
       <c r="I62">
-        <v>6.1787200000000002</v>
+        <v>9.9835840000000005</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>0.77653900000000053</v>
+        <v>1.4189310000000006</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0848466203703726</v>
+        <v>-1.1112334351851842</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2075456574074037</v>
+        <v>-0.53275328703703728</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>4.3465854304697649</v>
+        <v>1.2348397474734651</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>1.4581665147234788</v>
+        <v>0.28382606484876782</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>2.5175474827887454</v>
+        <v>0.59201326526036546</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>0.60301281852100086</v>
+        <v>2.0133651827610017</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>0.18576673872950261</v>
+        <v>0.78531093895226822</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>0.77653900000000053</v>
+        <v>1.4189310000000006</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8297,46 +8297,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>4.950418</v>
+        <v>6.6228540000000002</v>
       </c>
       <c r="I63">
-        <v>5.8156920000000003</v>
+        <v>8.0302419999999994</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>0.86527400000000032</v>
+        <v>1.4073879999999992</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4478746203703725</v>
+        <v>-3.0645754351851853</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6593086574074034</v>
+        <v>-2.4745522870370369</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>5.9920901570533953</v>
+        <v>9.3916225979404668</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>2.7533052205471598</v>
+        <v>6.1234090212802297</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>4.0617795498284197</v>
+        <v>7.5834521519350231</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>0.74869909507600052</v>
+        <v>1.9807409825439977</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>0.63049103716409194</v>
+        <v>1.1388396155272691</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>0.86527400000000032</v>
+        <v>1.4073879999999992</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8364,46 +8364,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6.4187000000000003</v>
+        <v>6.1632559999999996</v>
       </c>
       <c r="I64">
-        <v>5.0111549999999996</v>
+        <v>6.7544029999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4075450000000007</v>
+        <v>0.59114700000000031</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-3.2524116203703732</v>
+        <v>-4.3404144351851848</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-0.1910266574074031</v>
+        <v>-2.9341502870370375</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>10.578181348320237</v>
+        <v>18.839197469163928</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>3.6491183840245356E-2</v>
+        <v>8.6092379069195299</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>0.62129732035234808</v>
+        <v>12.735428260858312</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>1.9811829270250021</v>
+        <v>0.34945477560900035</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>2.5554313438662541</v>
+        <v>5.4896644030663611</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>1.4075450000000007</v>
+        <v>0.59114700000000031</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8431,46 +8431,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>6.4005270000000003</v>
+        <v>7.1589320000000001</v>
       </c>
       <c r="I65">
-        <v>5.7763770000000001</v>
+        <v>7.7837420000000002</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>-0.6241500000000002</v>
+        <v>0.62481000000000009</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4871896203703727</v>
+        <v>-3.3110754351851845</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-0.20919965740740309</v>
+        <v>-1.9384742870370371</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>6.1861122076781188</v>
+        <v>10.963220537486759</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>4.3764496659374826E-2</v>
+        <v>3.7576825615037492</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>0.52031921648873092</v>
+        <v>6.418434593546448</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>0.38956322250000025</v>
+        <v>0.3903875361000001</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>0.6944716515010364</v>
+        <v>1.7257138590365266</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>0.6241500000000002</v>
+        <v>0.62481000000000009</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8498,46 +8498,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>7.0483919999999998</v>
+        <v>8.030621</v>
       </c>
       <c r="I66">
-        <v>6.0222550000000004</v>
+        <v>9.1715890000000009</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0261369999999994</v>
+        <v>1.1409680000000009</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-2.2413116203703725</v>
+        <v>-1.9232284351851838</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>0.43866534259259637</v>
+        <v>-1.0667852870370371</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>5.0234777796072647</v>
+        <v>3.6988076139048509</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>0.19242728279187996</v>
+        <v>1.1380308486386936</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>-0.98318572980653673</v>
+        <v>2.0516717982668182</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.0529571427689988</v>
+        <v>1.3018079770240021</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>0.34512294825700113</v>
+        <v>5.5030749025454699E-3</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>1.0261369999999994</v>
+        <v>1.1409680000000009</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8565,46 +8565,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>6.133235</v>
+        <v>7.9749340000000002</v>
       </c>
       <c r="I67">
-        <v>6.5243060000000002</v>
+        <v>10.332568999999999</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>0.39107100000000017</v>
+        <v>2.3576349999999993</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1.7392606203703727</v>
+        <v>-0.76224843518518526</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-0.4764916574074034</v>
+        <v>-1.1224722870370369</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3.0250275055711335</v>
+        <v>0.58102267694226362</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>0.2270442995788543</v>
+        <v>1.2599440351661562</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.82874317566370748</v>
+        <v>0.85560274433271755</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>0.15293652704100014</v>
+        <v>5.5584427932249962</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>7.296688711912953E-3</v>
+        <v>1.5256269274940253</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>0.39107100000000017</v>
+        <v>2.3576349999999993</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8632,46 +8632,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>8.3730609999999999</v>
+        <v>10.324871</v>
       </c>
       <c r="I68">
-        <v>9.8318209999999997</v>
+        <v>13.706182999999999</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>1.4587599999999998</v>
+        <v>3.3813119999999994</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>1.5682543796296269</v>
+        <v>2.6113655648148146</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.7633343425925965</v>
+        <v>1.2274647129629628</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>2.4594217992275058</v>
+        <v>6.8192301131005957</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>3.1093480037664643</v>
+        <v>1.5066696215692486</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>2.7653568055221682</v>
+        <v>3.2053590834567816</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>2.1279807375999997</v>
+        <v>11.433270841343996</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>10.381891952567216</v>
+        <v>21.240822789949686</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>1.4587599999999998</v>
+        <v>3.3813119999999994</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8699,46 +8699,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>9.3701299999999996</v>
+        <v>13.153845</v>
       </c>
       <c r="I69">
-        <v>14.263369000000001</v>
+        <v>17.640868999999999</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>4.8932390000000012</v>
+        <v>4.4870239999999981</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>5.999802379629628</v>
+        <v>6.5460515648148139</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>2.7604033425925962</v>
+        <v>4.0564387129629633</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>35.997628594609345</v>
+        <v>42.850791089214475</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>7.6198266137963779</v>
+        <v>16.454695032024624</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>16.56187454362464</v>
+        <v>26.553656984566597</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>23.943787911121014</v>
+        <v>20.133384376575982</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>58.578241108326303</v>
+        <v>72.990755127788447</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>4.8932390000000012</v>
+        <v>4.4870239999999981</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8766,46 +8766,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>9.0147829999999995</v>
+        <v>14.664453999999999</v>
       </c>
       <c r="I70">
-        <v>16.563137000000001</v>
+        <v>19.424499999999998</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>7.5483540000000016</v>
+        <v>4.7600459999999991</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>8.2995703796296283</v>
+        <v>8.3296825648148136</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>2.4050563425925962</v>
+        <v>5.5670477129629621</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>68.882868486425494</v>
+        <v>69.383611630579892</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>5.7842960110448756</v>
+        <v>30.992020238406148</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>19.960934382321877</v>
+        <v>46.371740272159769</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>56.977648109316021</v>
+        <v>22.658037922115991</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>99.070377448029291</v>
+        <v>106.64886455631913</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>7.5483540000000016</v>
+        <v>4.7600459999999991</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8833,46 +8833,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>7.9606919999999999</v>
+        <v>15.643188</v>
       </c>
       <c r="I71">
-        <v>16.276378999999999</v>
+        <v>19.429907</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>8.3156869999999987</v>
+        <v>3.7867189999999997</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>8.0128123796296258</v>
+        <v>8.3350895648148153</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>1.3509653425925965</v>
+        <v>6.5457817129629632</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>64.205162231145792</v>
+        <v>69.473718053484831</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>1.8251073568863316</v>
+        <v>42.847258233760343</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>10.825031821576536</v>
+        <v>54.559676849273238</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>69.150650281968979</v>
+        <v>14.339240784960998</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>93.444167512550905</v>
+        <v>106.76057098338013</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>8.3156869999999987</v>
+        <v>3.7867189999999997</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8900,46 +8900,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>6.8826720000000003</v>
+        <v>14.541834</v>
       </c>
       <c r="I72">
-        <v>12.748089999999999</v>
+        <v>16.769477999999999</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>5.8654179999999991</v>
+        <v>2.2276439999999997</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>4.4845233796296267</v>
+        <v>5.6746605648148147</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>0.27294534259259695</v>
+        <v>5.4444277129629626</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>20.11094994244473</v>
+        <v>32.201772525864392</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>7.449916004299012E-2</v>
+        <v>29.641793121679115</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>1.2240297702175191</v>
+        <v>30.895279240735835</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>34.403128314723993</v>
+        <v>4.9623977907359986</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>37.67950452568455</v>
+        <v>58.860684368846442</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>5.8654179999999991</v>
+        <v>2.2276439999999997</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8967,46 +8967,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>6.2283900000000001</v>
+        <v>12.898694000000001</v>
       </c>
       <c r="I73">
-        <v>10.578362</v>
+        <v>14.072948999999999</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>4.3499720000000002</v>
+        <v>1.1742549999999987</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>2.3147953796296274</v>
+        <v>2.9781315648148148</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-0.3813366574074033</v>
+        <v>3.8012877129629636</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>5.3582776495546707</v>
+        <v>8.8692676173463365</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>0.14541764628265128</v>
+        <v>14.449788276723199</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>-0.88271633265006333</v>
+        <v>11.320734924917719</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>18.922256400784001</v>
+        <v>1.378874805024997</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>15.750066482475059</v>
+        <v>24.756025288518835</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>4.3499720000000002</v>
+        <v>1.1742549999999987</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9034,46 +9034,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>4.445424</v>
+        <v>7.31968</v>
       </c>
       <c r="I74">
-        <v>6.1180279999999998</v>
+        <v>9.2432739999999995</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>1.6726039999999998</v>
+        <v>1.9235939999999996</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-2.145538620370373</v>
+        <v>-1.8515434351851852</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-2.1643026574074034</v>
+        <v>-1.7777262870370372</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>4.6033359715008038</v>
+        <v>3.4282130923773559</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>4.6842059928607478</v>
+        <v>3.1603107516224904</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>4.6435949376378121</v>
+        <v>3.2915374363195604</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>2.7976041408159991</v>
+        <v>3.7002138768359982</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>0.24176756969624325</v>
+        <v>2.1277389685045195E-2</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>1.6726039999999998</v>
+        <v>1.9235939999999996</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9101,46 +9101,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>3.9987279999999998</v>
+        <v>5.7434649999999996</v>
       </c>
       <c r="I75">
-        <v>5.3269390000000003</v>
+        <v>7.8496639999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>1.3282110000000005</v>
+        <v>2.1061990000000002</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>-2.9366276203703725</v>
+        <v>-3.245153435185185</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-2.6109986574074036</v>
+        <v>-3.3539412870370375</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>8.6237817807221564</v>
+        <v>10.531020817894206</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>6.8173139889832637</v>
+        <v>11.248922156891659</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>7.6675307740925414</v>
+        <v>10.884054089037663</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>1.7641444605210013</v>
+        <v>4.4360742276010008</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>1.6455441739967729</v>
+        <v>1.5568608148604166</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>1.3282110000000005</v>
+        <v>2.1061990000000002</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9168,46 +9168,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>4.0511569999999999</v>
+        <v>4.6946380000000003</v>
       </c>
       <c r="I76">
-        <v>4.2999330000000002</v>
+        <v>6.3295029999999999</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>0.24877600000000033</v>
+        <v>1.6348649999999996</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>-3.9636336203703726</v>
+        <v>-4.7653144351851848</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5585696574074035</v>
+        <v>-4.4027682870370368</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>15.710391476530347</v>
+        <v>22.708221666184297</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>6.5462786918058384</v>
+        <v>19.384368589339044</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>10.141232714159491</v>
+        <v>20.980575272993139</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>6.1889498176000167E-2</v>
+        <v>2.6727835682249985</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>5.3351467397994679</v>
+        <v>7.6612886063904355</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>0.24877600000000033</v>
+        <v>1.6348649999999996</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9235,46 +9235,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>5.6382079999999997</v>
+        <v>6.1495290000000002</v>
       </c>
       <c r="I77">
-        <v>5.2941099999999999</v>
+        <v>7.4234200000000001</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>-0.34409799999999979</v>
+        <v>1.2738909999999999</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>-2.9694566203703729</v>
+        <v>-3.6713974351851846</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>-0.97151865740740373</v>
+        <v>-2.9478772870370369</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>8.8176726202614368</v>
+        <v>13.479159127084351</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>0.94384850169068435</v>
+        <v>8.6899804994288399</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>2.8848825090517511</v>
+        <v>10.822829110868437</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>0.11840343360399985</v>
+        <v>1.6227982798809997</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>1.7308471892478294</v>
+        <v>2.8022300891880452</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>0.34409799999999979</v>
+        <v>1.2738909999999999</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9302,46 +9302,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>5.0019080000000002</v>
+        <v>5.941427</v>
       </c>
       <c r="I78">
-        <v>5.5454689999999998</v>
+        <v>7.8133689999999998</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>0.54356099999999952</v>
+        <v>1.8719419999999998</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>-2.7180976203703731</v>
+        <v>-3.2814484351851849</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>-1.6078186574074032</v>
+        <v>-3.1559792870370371</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>7.3880546738630848</v>
+        <v>10.767903832779298</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>2.5850808351073442</v>
+        <v>9.9602052602068056</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>4.3702080666861507</v>
+        <v>10.356183292924541</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>0.29545856072099946</v>
+        <v>3.504166851363999</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>1.1326443613502946</v>
+        <v>1.648751754501435</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>0.54356099999999952</v>
+        <v>1.8719419999999998</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9369,46 +9369,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>8.2137729999999998</v>
+        <v>8.7040319999999998</v>
       </c>
       <c r="I79">
-        <v>7.2178490000000002</v>
+        <v>10.50104</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>-0.99592399999999959</v>
+        <v>1.7970079999999999</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-1.0457176203703726</v>
+        <v>-0.593777435185185</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>1.6040463425925964</v>
+        <v>-0.39337428703703736</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>1.0935253415530748</v>
+        <v>0.3525716425350966</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>2.5729646691846852</v>
+        <v>0.15474332970189747</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>-1.6773795243397294</v>
+        <v>0.23357677522465281</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>0.99186461377599922</v>
+        <v>3.2292377520639999</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>0.36981278356030767</v>
+        <v>1.9701876001661924</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>0.99592399999999959</v>
+        <v>1.7970079999999999</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9436,46 +9436,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>8.8283909999999999</v>
+        <v>10.067416</v>
       </c>
       <c r="I80">
-        <v>9.5353829999999995</v>
+        <v>12.243783000000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>0.70699199999999962</v>
+        <v>2.1763670000000008</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>1.2718163796296267</v>
+        <v>1.1489655648148158</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>2.2186643425925965</v>
+        <v>0.97000971296296257</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>1.6175169034942107</v>
+        <v>1.3201218691302288</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>4.9224714650918386</v>
+        <v>0.94091884324248898</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2.821733651809462</v>
+        <v>1.1145077577303477</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>0.49983768806399947</v>
+        <v>4.736573318689004</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>8.5594650349522858</v>
+        <v>9.8996864198756214</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>0.70699199999999962</v>
+        <v>2.1763670000000008</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9503,46 +9503,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>9.4083039999999993</v>
+        <v>11.964162</v>
       </c>
       <c r="I81">
-        <v>12.326946</v>
+        <v>16.326910000000002</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>2.9186420000000002</v>
+        <v>4.3627480000000016</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>4.0633793796296267</v>
+        <v>5.2320925648148169</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>2.7985773425925959</v>
+        <v>2.8667557129629628</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>16.511051982799248</v>
+        <v>27.374792606790489</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>7.8320351424726358</v>
+        <v>8.2182883178057846</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>11.371681466189433</v>
+        <v>14.999131250933917</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>8.5184711241640017</v>
+        <v>19.033570111504016</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>32.686597011314916</v>
+        <v>52.265723935745292</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>2.9186420000000002</v>
+        <v>4.3627480000000016</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9570,46 +9570,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>8.6027199999999997</v>
+        <v>13.328908</v>
       </c>
       <c r="I82">
-        <v>14.736090000000001</v>
+        <v>18.894119</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>6.1333700000000011</v>
+        <v>5.5652109999999997</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>6.472523379629628</v>
+        <v>7.7993015648148152</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>1.9929933425925963</v>
+        <v>4.2315017129629631</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>41.893558899852138</v>
+        <v>60.829104898922822</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>3.9720224636184098</v>
+        <v>17.905606746808491</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>12.89969600537678</v>
+        <v>33.002757931428611</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>37.618227556900017</v>
+        <v>30.971573474520998</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>66.037781175832734</v>
+        <v>95.975579980330139</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>6.1333700000000011</v>
+        <v>5.5652109999999997</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9637,46 +9637,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>8.0709289999999996</v>
+        <v>14.426311</v>
       </c>
       <c r="I83">
-        <v>15.499017</v>
+        <v>17.526512</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>7.4280880000000007</v>
+        <v>3.1002010000000002</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>7.2354503796296274</v>
+        <v>6.4316945648148156</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>1.4612023425925962</v>
+        <v>5.328904712962963</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>52.351742196082519</v>
+        <v>41.366694975068441</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>2.1351122859980909</v>
+        <v>28.397225439838881</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>10.572457044427301</v>
+        <v>34.273887478779947</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>55.176491335744011</v>
+        <v>9.6112462404010017</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>79.019482794910004</v>
+        <v>71.049823120304865</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>7.4280880000000007</v>
+        <v>3.1002010000000002</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9704,46 +9704,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>7.0193110000000001</v>
+        <v>12.98785</v>
       </c>
       <c r="I84">
-        <v>12.004861</v>
+        <v>14.350834000000001</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>4.9855499999999999</v>
+        <v>1.3629840000000009</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>3.7412943796296272</v>
+        <v>3.256016564814816</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>0.40958434259259668</v>
+        <v>3.8904437129629628</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>13.997283635048237</v>
+        <v>10.601643870348475</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>0.1677593336970096</v>
+        <v>15.135552283733043</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>1.5323755989259777</v>
+        <v>12.667349173887064</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>24.855708802500001</v>
+        <v>1.8577253842560024</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>29.107474574622049</v>
+        <v>27.598502735327276</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>4.9855499999999999</v>
+        <v>1.3629840000000009</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9771,46 +9771,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>6.729749</v>
+        <v>9.934984</v>
       </c>
       <c r="I85">
-        <v>9.24953</v>
+        <v>11.847716</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>2.519781</v>
+        <v>1.9127320000000001</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>0.98596337962962721</v>
+        <v>0.75289856481481543</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>0.12002234259259659</v>
+        <v>0.83757771296296291</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>0.97212378597067639</v>
+        <v>0.5668562489002088</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>1.4405362721414626E-2</v>
+        <v>0.70153642525226745</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>0.11833763453366149</v>
+        <v>0.63061105801069017</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>6.3492962879610007</v>
+        <v>3.6585437038240003</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>6.9685616875630458</v>
+        <v>7.5642035172184157</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>2.519781</v>
+        <v>1.9127320000000001</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9838,46 +9838,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>6.1663370000000004</v>
+        <v>7.9788480000000002</v>
       </c>
       <c r="I86">
-        <v>7.7227480000000002</v>
+        <v>10.713042</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>1.5564109999999998</v>
+        <v>2.7341939999999996</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-0.54081862037037265</v>
+        <v>-0.38177543518518497</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>-0.44338965740740299</v>
+        <v>-1.118558287037037</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>0.29248478013931323</v>
+        <v>0.14575248291083737</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>0.19659438829585418</v>
+        <v>1.2511726414992304</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>0.23979338280556386</v>
+        <v>0.42703807681355982</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>2.4224152009209994</v>
+        <v>7.4758168296359973</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>1.2388165090666268</v>
+        <v>2.6102787570013404</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>1.5564109999999998</v>
+        <v>2.7341939999999996</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9905,46 +9905,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>2.6930420000000002</v>
+        <v>4.2013769999999999</v>
       </c>
       <c r="I87">
-        <v>4.271795</v>
+        <v>6.493347</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1.5787529999999999</v>
+        <v>2.2919700000000001</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-3.9917716203703728</v>
+        <v>-4.6014704351851847</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-3.9166846574074032</v>
+        <v>-4.8960292870370372</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>15.934240669194311</v>
+        <v>21.173530165883335</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>15.340418705570547</v>
+        <v>23.971102779524401</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>15.634510661378929</v>
+        <v>22.528934014101726</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>2.4924610350089997</v>
+        <v>5.2531264809000007</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>5.4659244347077278</v>
+        <v>6.7811247704038422</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1.5787529999999999</v>
+        <v>2.2919700000000001</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9972,46 +9972,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>3.522392</v>
+        <v>3.6497480000000002</v>
       </c>
       <c r="I88">
-        <v>2.9396420000000001</v>
+        <v>4.2790330000000001</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-0.58274999999999988</v>
+        <v>0.62928499999999987</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3239246203703727</v>
+        <v>-6.8157844351851846</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-3.0873346574074034</v>
+        <v>-5.4476582870370365</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>28.344173363385817</v>
+        <v>46.454917466912626</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>9.5316352868288892</v>
+        <v>29.676980812323297</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>16.436736993894005</v>
+        <v>37.130064560994619</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>0.33959756249999984</v>
+        <v>0.39599961122499983</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>13.469521392537217</v>
+        <v>23.216721133232102</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>0.58274999999999988</v>
+        <v>0.62928499999999987</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10039,46 +10039,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>4.3887530000000003</v>
+        <v>4.9159410000000001</v>
       </c>
       <c r="I89">
-        <v>4.2773430000000001</v>
+        <v>5.7391360000000002</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-0.11141000000000023</v>
+        <v>0.82319500000000012</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>-3.9862236203703727</v>
+        <v>-5.3556814351851845</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>-2.220973657407403</v>
+        <v>-4.181465287037037</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>15.889978751598681</v>
+        <v>28.683323635187236</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>4.9327239868976163</v>
+        <v>17.484651946695731</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>8.8532976533777656</v>
+        <v>22.394596009655547</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>1.2412188100000051E-2</v>
+        <v>0.67765000802500019</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>5.4400135253411355</v>
+        <v>11.277979320795822</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>0.11141000000000023</v>
+        <v>0.82319500000000012</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10106,46 +10106,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>5.0151940000000002</v>
+        <v>5.6630929999999999</v>
       </c>
       <c r="I90">
-        <v>4.6477680000000001</v>
+        <v>6.6877690000000003</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>-0.36742600000000003</v>
+        <v>1.0246760000000004</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>-3.6157986203703727</v>
+        <v>-4.4070484351851844</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>-1.5945326574074032</v>
+        <v>-3.4343132870370372</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>13.073999663072291</v>
+        <v>19.422075910068184</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>2.5425343955387154</v>
+        <v>11.79450775351914</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>5.7655089827891928</v>
+        <v>15.135184997572262</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>0.13500186547600002</v>
+        <v>1.0499609049760008</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>3.8492817733758602</v>
+        <v>5.8063518550792113</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>0.36742600000000003</v>
+        <v>1.0246760000000004</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10173,46 +10173,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>5.2808919999999997</v>
+        <v>6.4027180000000001</v>
       </c>
       <c r="I91">
-        <v>5.4789589999999997</v>
+        <v>8.1786799999999999</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>0.19806699999999999</v>
+        <v>1.7759619999999998</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>-2.7846076203703731</v>
+        <v>-2.9161374351851848</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>-1.3288346574074037</v>
+        <v>-2.694688287037037</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>7.7540395994247522</v>
+        <v>8.5038575408884274</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>1.765801546727052</v>
+        <v>7.2613449642946009</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>3.7002831132289105</v>
+        <v>7.8580813899837443</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>3.9230536488999997E-2</v>
+        <v>3.1540410254439992</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>1.2786354950386276</v>
+        <v>0.84405799049286045</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>0.19806699999999999</v>
+        <v>1.7759619999999998</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10240,46 +10240,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>8.8697060000000008</v>
+        <v>8.4522290000000009</v>
       </c>
       <c r="I92">
-        <v>7.2629039999999998</v>
+        <v>10.853664</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>-1.606802000000001</v>
+        <v>2.4014349999999993</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>-1.000662620370373</v>
+        <v>-0.24115343518518451</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>2.2599793425925974</v>
+        <v>-0.64517728703703625</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>1.0013256798065013</v>
+        <v>5.8154979301614985E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>5.1075066289452682</v>
+        <v>0.41625373170847024</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>-2.2614768509416212</v>
+        <v>0.15558671907243909</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>2.5818126672040029</v>
+        <v>5.7668900592249965</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>0.42664064087632608</v>
+        <v>3.0844411543418975</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>1.606802000000001</v>
+        <v>2.4014349999999993</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10307,46 +10307,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>9.6491439999999997</v>
+        <v>10.349615999999999</v>
       </c>
       <c r="I93">
-        <v>10.467051</v>
+        <v>14.339339000000001</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>0.81790699999999994</v>
+        <v>3.9897230000000015</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>2.2034843796296268</v>
+        <v>3.244521564814816</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>3.0394173425925963</v>
+        <v>1.2522097129629621</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>4.8553434112717611</v>
+        <v>10.526920184548382</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>9.2380577824526409</v>
+        <v>1.5680291652387841</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>6.6973086375781765</v>
+        <v>4.0628214173789017</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>0.66897186064899994</v>
+        <v>15.917889616729012</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>14.878951083957405</v>
+        <v>27.477858567231255</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>0.81790699999999994</v>
+        <v>3.9897230000000015</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10374,46 +10374,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>9.8149929999999994</v>
+        <v>13.698544</v>
       </c>
       <c r="I94">
-        <v>14.483231999999999</v>
+        <v>18.666298000000001</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>4.6682389999999998</v>
+        <v>4.9677540000000011</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>6.2196653796296264</v>
+        <v>7.5714805648148165</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>3.205266342592596</v>
+        <v>4.6011377129629629</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>38.684237434563343</v>
+        <v>57.327317943368492</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>10.273732326956917</v>
+        <v>21.170468253650046</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>19.935684103515243</v>
+        <v>34.83742476973557</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>21.792455361120997</v>
+        <v>24.678579804516012</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>61.992086379834149</v>
+        <v>91.563688614411291</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>4.6682389999999998</v>
+        <v>4.9677540000000011</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10441,46 +10441,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>8.9980469999999997</v>
+        <v>15.254111</v>
       </c>
       <c r="I95">
-        <v>15.56391</v>
+        <v>18.377521999999999</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>6.5658630000000002</v>
+        <v>3.123410999999999</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>7.3003433796296271</v>
+        <v>7.2827045648148143</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>2.3883203425925963</v>
+        <v>6.1567047129629628</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>53.295013460502126</v>
+        <v>53.037785778374534</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>5.7040740588416163</v>
+        <v>37.905012922620358</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>17.435558601480622</v>
+        <v>44.837461517312249</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>43.110556934769001</v>
+        <v>9.7556962749209948</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>80.177399332762718</v>
+        <v>86.120547645982057</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>6.5658630000000002</v>
+        <v>3.123410999999999</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10508,46 +10508,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>7.8789829999999998</v>
+        <v>12.884378999999999</v>
       </c>
       <c r="I96">
-        <v>12.990728000000001</v>
+        <v>14.019964</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>5.1117450000000009</v>
+        <v>1.1355850000000007</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>4.7271613796296279</v>
+        <v>2.9251465648148152</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>1.2692563425925965</v>
+        <v>3.786972712962962</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>22.346054709061885</v>
+        <v>8.5564824256479142</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>1.6110116632115346</v>
+        <v>14.341162328726057</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>5.9999795635536737</v>
+        <v>11.077450222371048</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>26.129936945025008</v>
+        <v>1.2895532922250017</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>40.717178134168527</v>
+        <v>24.231574437451155</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>5.1117450000000009</v>
+        <v>1.1355850000000007</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10575,46 +10575,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>7.1990080000000001</v>
+        <v>10.590356999999999</v>
       </c>
       <c r="I97">
-        <v>7.6994629999999997</v>
+        <v>11.267341</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>0.50045499999999965</v>
+        <v>0.67698400000000092</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-0.56410362037037309</v>
+        <v>0.17252356481481534</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>0.58928134259259668</v>
+        <v>1.492950712962962</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>0.31821289451496199</v>
+        <v>2.976438041641179E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>0.34725250072773328</v>
+        <v>2.2289018313366165</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>-0.33241573877319791</v>
+        <v>0.25756917909319038</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>0.25045520702499963</v>
+        <v>0.45830733625600123</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>1.1875252963670884</v>
+        <v>4.708616658521656</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>0.50045499999999965</v>
+        <v>0.67698400000000092</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10642,46 +10642,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>4.8337500000000002</v>
+        <v>7.8114949999999999</v>
       </c>
       <c r="I98">
-        <v>6.0259119999999999</v>
+        <v>9.4617199999999997</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>1.1921619999999997</v>
+        <v>1.6502249999999998</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>-2.2376546203703729</v>
+        <v>-1.633097435185185</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>-1.7759766574074032</v>
+        <v>-1.2859112870370373</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>5.0070982000648776</v>
+        <v>2.6670072328084298</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>3.1540930876559727</v>
+        <v>1.6535678381292496</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>3.9740223731176068</v>
+        <v>2.100018424735866</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>1.4212502342439994</v>
+        <v>2.7232425506249993</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>0.34083955420372386</v>
+        <v>0.13272448145285987</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>1.1921619999999997</v>
+        <v>1.6502249999999998</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10709,46 +10709,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>4.2885819999999999</v>
+        <v>5.5548159999999998</v>
       </c>
       <c r="I99">
-        <v>3.836344</v>
+        <v>6.4049060000000004</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-0.45223799999999992</v>
+        <v>0.85009000000000068</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-4.4272226203703724</v>
+        <v>-4.6899114351851843</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-2.3211446574074035</v>
+        <v>-3.5425902870370374</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>19.600300130319106</v>
+        <v>21.995269269880755</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>5.3877125206109326</v>
+        <v>12.54994594180916</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>10.276224132425895</v>
+        <v>16.614434697350966</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>0.20451920864399992</v>
+        <v>0.7226530081000011</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>7.691651364408151</v>
+        <v>7.2495577956945247</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>0.45223799999999992</v>
+        <v>0.85009000000000068</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10776,46 +10776,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5.0902070000000004</v>
+        <v>5.4601150000000001</v>
       </c>
       <c r="I100">
-        <v>4.9524530000000002</v>
+        <v>6.5747650000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-0.13775400000000015</v>
+        <v>1.1146500000000001</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>-3.3111136203703726</v>
+        <v>-4.5200524351851845</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>-1.519519657407403</v>
+        <v>-3.6372912870370371</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>10.963473407002196</v>
+        <v>20.430874016823516</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>2.3089399892475115</v>
+        <v>13.229887906755545</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>5.0313022340621743</v>
+        <v>16.440747339449615</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>1.8976164516000042E-2</v>
+        <v>1.2424446225000003</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>2.7465559755365105</v>
+        <v>6.3637190630638782</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>0.13775400000000015</v>
+        <v>1.1146500000000001</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10843,46 +10843,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>4.0864190000000002</v>
+        <v>4.7591939999999999</v>
       </c>
       <c r="I101">
-        <v>3.4905879999999998</v>
+        <v>5.9763390000000003</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>-0.59583100000000044</v>
+        <v>1.2171450000000004</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-4.772978620370373</v>
+        <v>-5.1184784351851844</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5233076574074031</v>
+        <v>-4.3382122870370372</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>22.781324910512669</v>
+        <v>26.198821491455774</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>6.3670815339308362</v>
+        <v>18.82008584739912</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>12.043693501422386</v>
+        <v>22.205046038454473</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>0.35501458056100055</v>
+        <v>1.481441951025001</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>9.7290259641332604</v>
+        <v>9.7410610102127286</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>0.59583100000000044</v>
+        <v>1.2171450000000004</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10910,46 +10910,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>4.5526580000000001</v>
+        <v>5.4963189999999997</v>
       </c>
       <c r="I102">
-        <v>3.943794</v>
+        <v>7.1298199999999996</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-0.60886400000000007</v>
+        <v>1.6335009999999999</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-4.3197726203703724</v>
+        <v>-3.9649974351851851</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-2.0570686574074033</v>
+        <v>-3.6010872870370374</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>18.660435491701513</v>
+        <v>15.721204661025096</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>4.2315314612878971</v>
+        <v>12.96782964885977</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>8.886068864490543</v>
+        <v>14.27830185697983</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>0.37071537049600006</v>
+        <v>2.6683255170009996</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>7.1071969338312995</v>
+        <v>3.8713957969361954</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>0.60886400000000007</v>
+        <v>1.6335009999999999</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10977,46 +10977,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>6.1024960000000004</v>
+        <v>7.1801069999999996</v>
       </c>
       <c r="I103">
-        <v>5.3185419999999999</v>
+        <v>8.4933680000000003</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>-0.78395400000000048</v>
+        <v>1.3132610000000007</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>-2.9450246203703729</v>
+        <v>-2.6014494351851845</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-0.50723065740740303</v>
+        <v>-1.9172992870370376</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>8.6731700145876598</v>
+        <v>6.7675391638253153</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>0.25728293981394629</v>
+        <v>3.6760365560727326</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>1.4938067742714518</v>
+        <v>4.9877571473434585</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>0.61458387411600079</v>
+        <v>1.7246544541210018</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>1.667157819524274</v>
+        <v>0.36486225220663776</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>0.78395400000000048</v>
+        <v>1.3132610000000007</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11044,46 +11044,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>9.3422990000000006</v>
+        <v>9.8347069999999999</v>
       </c>
       <c r="I104">
-        <v>8.8277549999999998</v>
+        <v>11.405948</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>-0.51454400000000078</v>
+        <v>1.5712410000000006</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>0.56418837962962698</v>
+        <v>0.31113056481481571</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>2.7325723425925972</v>
+        <v>0.73730071296296273</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>0.31830852770910412</v>
+        <v>9.6802228361986237E-2</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>7.4669516075019944</v>
+        <v>0.54361234133569314</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>1.5416855621880514</v>
+        <v>0.2293967872625329</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>0.26475552793600082</v>
+        <v>2.4687982800810016</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>4.9196497285440604</v>
+        <v>5.3293648404899727</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>0.51454400000000078</v>
+        <v>1.5712410000000006</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11111,46 +11111,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>8.3140940000000008</v>
+        <v>11.547197000000001</v>
       </c>
       <c r="I105">
-        <v>11.403541000000001</v>
+        <v>14.580590000000001</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>3.0894469999999998</v>
+        <v>3.0333930000000002</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>3.1399743796296278</v>
+        <v>3.4857725648148161</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>1.7043673425925974</v>
+        <v>2.4497907129629635</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>9.8594391047304661</v>
+        <v>12.150610373615661</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>2.904868038496152</v>
+        <v>6.0014745373195852</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>5.3516697892181879</v>
+        <v>8.5394132567844263</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>9.5446827658089983</v>
+        <v>9.2014730924490014</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>22.980655951246494</v>
+        <v>30.065303630102314</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>3.0894469999999998</v>
+        <v>3.0333930000000002</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11178,46 +11178,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>8.6226079999999996</v>
+        <v>13.799156</v>
       </c>
       <c r="I106">
-        <v>15.617777999999999</v>
+        <v>18.980105999999999</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>6.9951699999999999</v>
+        <v>5.1809499999999993</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>7.3542113796296267</v>
+        <v>7.8852885648148145</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>2.0128813425925962</v>
+        <v>4.7017497129629628</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>54.084425016273897</v>
+        <v>62.177775750399277</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>4.0516912993573726</v>
+        <v>22.106450363347303</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>14.803154875538633</v>
+        <v>37.074653246248189</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>48.932403328900001</v>
+        <v>26.842242902499994</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>81.14498899078427</v>
+        <v>97.667753616598219</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>6.9951699999999999</v>
+        <v>5.1809499999999993</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11245,46 +11245,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>8.3973049999999994</v>
+        <v>14.656934</v>
       </c>
       <c r="I107">
-        <v>16.141884000000001</v>
+        <v>18.686962000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>7.7445790000000017</v>
+        <v>4.0300280000000015</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>7.8783173796296282</v>
+        <v>7.5921445648148165</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>1.787578342592596</v>
+        <v>5.5595277129629626</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>62.06788473417425</v>
+        <v>57.640659093047162</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>3.1954363309060922</v>
+        <v>30.908348391203187</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>14.083109523896775</v>
+        <v>42.208738108909102</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>59.978503887241025</v>
+        <v>16.241125680784013</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>90.862023603941978</v>
+        <v>91.95957877202062</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>7.7445790000000017</v>
+        <v>4.0300280000000015</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11312,46 +11312,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>6.577216</v>
+        <v>13.115987000000001</v>
       </c>
       <c r="I108">
-        <v>12.169641</v>
+        <v>13.893890000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>5.5924250000000004</v>
+        <v>0.77790300000000023</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>3.9060743796296276</v>
+        <v>2.799072564814816</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-3.2510657407403443E-2</v>
+        <v>4.0185807129629634</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>15.25741705919898</v>
+        <v>7.8348072230989922</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>1.0569428450615563E-3</v>
+        <v>16.14899094659792</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>-0.12698904596397476</v>
+        <v>11.248299023148594</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>31.275217380625005</v>
+        <v>0.60513307740900035</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>30.912647496966869</v>
+        <v>23.006256008718978</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>5.5924250000000004</v>
+        <v>0.77790300000000023</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11379,46 +11379,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>5.9785170000000001</v>
+        <v>11.439418999999999</v>
       </c>
       <c r="I109">
-        <v>8.3930869999999995</v>
+        <v>12.614584000000001</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>2.4145699999999994</v>
+        <v>1.1751650000000016</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>0.1295203796296267</v>
+        <v>1.519766564814816</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-0.63120965740740331</v>
+        <v>2.342012712962962</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>1.677552873940262E-2</v>
+        <v>2.3096904115290262</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>0.39842563160437144</v>
+        <v>5.4850235476801332</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>-8.1754514453293486E-2</v>
+        <v>3.5593126155323485</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>5.8301482848999973</v>
+        <v>1.3810127772250036</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>3.1803741115319819</v>
+        <v>12.370539064563383</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>2.4145699999999994</v>
+        <v>1.1751650000000016</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11446,46 +11446,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>5.3246120000000001</v>
+        <v>9.0102639999999994</v>
       </c>
       <c r="I110">
-        <v>5.1728160000000001</v>
+        <v>9.8861899999999991</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-0.15179600000000004</v>
+        <v>0.87592599999999976</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-3.0907506203703727</v>
+        <v>-1.2086274351851856</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-1.2851146574074033</v>
+        <v>-8.7142287037037747E-2</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>9.5527393973198436</v>
+        <v>1.4607802770823199</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>1.6515196826833476</v>
+        <v>7.5937781900454766E-3</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>3.9719689246289906</v>
+        <v>0.10532255887774618</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>2.3042025616000012E-2</v>
+        <v>0.76724635747599956</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>2.0647122373709759</v>
+        <v>0.6221797458356364</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>0.15179600000000004</v>
+        <v>0.87592599999999976</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11513,46 +11513,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>3.7586900000000001</v>
+        <v>6.0235209999999997</v>
       </c>
       <c r="I111">
-        <v>4.2978500000000004</v>
+        <v>7.5468070000000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>0.53916000000000031</v>
+        <v>1.5232860000000006</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>-3.9657166203703724</v>
+        <v>-3.5480104351851844</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-2.8510366574074033</v>
+        <v>-3.0738852870370375</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>15.726908313081809</v>
+        <v>12.588378048182962</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>8.1284100218807787</v>
+        <v>9.4487707578627695</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>11.306403457565731</v>
+        <v>10.906177074969614</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>0.29069350560000035</v>
+        <v>2.3204002377960018</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>5.3447736790652263</v>
+        <v>2.404358148959767</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>0.53916000000000031</v>
+        <v>1.5232860000000006</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3523E2A0-5E91-44D4-A95F-EA699085D84F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4546B4B8-EC88-4144-B126-CFA9D59FE136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,11 +782,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Monthly simulated v. measured stream temperature for 2010-18 on the McKenzie R. above Hayden</a:t>
+              <a:t>Monthly simulated v. measured stream temperature for 2010-18 on the North</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Br. near Springfield</a:t>
+              <a:t> Santiam</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> R. near</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Jefferson</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -831,7 +839,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>simulated stream temperature (CW3M ver. 225)</c:v>
+            <c:v>simulated stream temperature</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3747,7 +3755,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I111"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4546B4B8-EC88-4144-B126-CFA9D59FE136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59F52A6-F4FE-437F-AA53-889C106E591E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Month index</t>
   </si>
@@ -163,12 +163,6 @@
   </si>
   <si>
     <t>MAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
   </si>
 </sst>
 </file>
@@ -782,21 +776,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Monthly simulated v. measured stream temperature for 2010-18 on the North</a:t>
+              <a:t>Monthly simulated v. measured stream temperature for 2010-18 on the MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Santiam</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> R. near</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Jefferson</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -860,328 +841,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.922885</c:v>
+                  <c:v>6.3206389999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0427559999999998</c:v>
+                  <c:v>6.2318449999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.144552</c:v>
+                  <c:v>6.3371760000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7517649999999998</c:v>
+                  <c:v>7.0442720000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1476179999999996</c:v>
+                  <c:v>7.8795279999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.632562999999999</c:v>
+                  <c:v>9.7755580000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.899336999999999</c:v>
+                  <c:v>10.833072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.729644</c:v>
+                  <c:v>10.77763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.365583000000001</c:v>
+                  <c:v>9.4549669999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.518193</c:v>
+                  <c:v>8.5701940000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8354280000000003</c:v>
+                  <c:v>6.7132050000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4912939999999999</c:v>
+                  <c:v>6.3394360000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7974399999999999</c:v>
+                  <c:v>6.1939770000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3039129999999997</c:v>
+                  <c:v>4.9470260000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3128789999999997</c:v>
+                  <c:v>6.2958689999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7033620000000003</c:v>
+                  <c:v>6.6962339999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.4240199999999996</c:v>
+                  <c:v>7.6271440000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.5370039999999996</c:v>
+                  <c:v>9.048902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.066784</c:v>
+                  <c:v>10.373708000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.113701000000001</c:v>
+                  <c:v>11.105347</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.620493</c:v>
+                  <c:v>10.037611999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.699263</c:v>
+                  <c:v>8.5145780000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1206899999999997</c:v>
+                  <c:v>6.7189449999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.9106379999999996</c:v>
+                  <c:v>4.9864560000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9040330000000001</c:v>
+                  <c:v>6.3592120000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.7825350000000002</c:v>
+                  <c:v>6.000515</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4081659999999996</c:v>
+                  <c:v>6.0960729999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.8728590000000001</c:v>
+                  <c:v>8.3277219999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.3156440000000007</c:v>
+                  <c:v>8.3946439999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.8756970000000006</c:v>
+                  <c:v>9.2757249999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.984833999999999</c:v>
+                  <c:v>11.150831999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.687898000000001</c:v>
+                  <c:v>11.411343</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.981524</c:v>
+                  <c:v>10.313846</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.045548999999999</c:v>
+                  <c:v>8.9408370000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.386495</c:v>
+                  <c:v>7.986631</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.0949070000000001</c:v>
+                  <c:v>6.0168030000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2086690000000004</c:v>
+                  <c:v>5.0073090000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.1517220000000004</c:v>
+                  <c:v>5.339283</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.8348639999999996</c:v>
+                  <c:v>6.6472230000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.0524519999999997</c:v>
+                  <c:v>7.6188520000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.1350409999999993</c:v>
+                  <c:v>8.8921250000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.628033</c:v>
+                  <c:v>10.008660000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.474235</c:v>
+                  <c:v>11.4452</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.039861999999999</c:v>
+                  <c:v>11.095675999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.713673999999999</c:v>
+                  <c:v>9.76661</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10.125171999999999</c:v>
+                  <c:v>8.5710130000000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.1183669999999992</c:v>
+                  <c:v>6.8527420000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.3820059999999996</c:v>
+                  <c:v>5.1288710000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5669740000000001</c:v>
+                  <c:v>6.1718659999999996</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9330980000000002</c:v>
+                  <c:v>6.9872459999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.2262630000000003</c:v>
+                  <c:v>8.2935210000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.5342890000000002</c:v>
+                  <c:v>7.9591609999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3448139999999995</c:v>
+                  <c:v>9.12744</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.341475000000001</c:v>
+                  <c:v>9.9504699999999993</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.801539999999999</c:v>
+                  <c:v>11.465539</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14.611623</c:v>
+                  <c:v>11.383589000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.445843</c:v>
+                  <c:v>10.278784</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.683187</c:v>
+                  <c:v>9.2576269999999994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.5646529999999998</c:v>
+                  <c:v>7.7195650000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.6228540000000002</c:v>
+                  <c:v>7.3529270000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.1632559999999996</c:v>
+                  <c:v>6.8661390000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.1589320000000001</c:v>
+                  <c:v>7.2088080000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.030621</c:v>
+                  <c:v>7.791366</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.9749340000000002</c:v>
+                  <c:v>7.9396639999999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.324871</c:v>
+                  <c:v>9.6000589999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.153845</c:v>
+                  <c:v>11.241293000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14.664453999999999</c:v>
+                  <c:v>11.402308</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.643188</c:v>
+                  <c:v>11.342434000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.541834</c:v>
+                  <c:v>9.5645150000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.898694000000001</c:v>
+                  <c:v>8.7361509999999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.31968</c:v>
+                  <c:v>6.5638719999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.7434649999999996</c:v>
+                  <c:v>7.0123899999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.6946380000000003</c:v>
+                  <c:v>5.6570869999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.1495290000000002</c:v>
+                  <c:v>6.888007</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.941427</c:v>
+                  <c:v>6.7150550000000004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.7040319999999998</c:v>
+                  <c:v>8.4107599999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.067416</c:v>
+                  <c:v>9.2092290000000006</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.964162</c:v>
+                  <c:v>10.318377</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.328908</c:v>
+                  <c:v>10.796206</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14.426311</c:v>
+                  <c:v>11.198941</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.98785</c:v>
+                  <c:v>9.5919190000000008</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.934984</c:v>
+                  <c:v>9.3302370000000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.9788480000000002</c:v>
+                  <c:v>7.3961160000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.2013769999999999</c:v>
+                  <c:v>4.6604169999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.6497480000000002</c:v>
+                  <c:v>4.879537</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.9159410000000001</c:v>
+                  <c:v>6.8162089999999997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.6630929999999999</c:v>
+                  <c:v>8.2242040000000003</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.4027180000000001</c:v>
+                  <c:v>7.5915020000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.4522290000000009</c:v>
+                  <c:v>8.8253439999999994</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.349615999999999</c:v>
+                  <c:v>9.7733360000000005</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.698544</c:v>
+                  <c:v>11.41417</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.254111</c:v>
+                  <c:v>11.607586</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.884378999999999</c:v>
+                  <c:v>10.119764999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.590356999999999</c:v>
+                  <c:v>9.1903980000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.8114949999999999</c:v>
+                  <c:v>7.5776729999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.5548159999999998</c:v>
+                  <c:v>5.8106280000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.4601150000000001</c:v>
+                  <c:v>6.3695870000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.7591939999999999</c:v>
+                  <c:v>5.5549609999999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.4963189999999997</c:v>
+                  <c:v>6.5634100000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.1801069999999996</c:v>
+                  <c:v>7.7157220000000004</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.8347069999999999</c:v>
+                  <c:v>9.6403280000000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11.547197000000001</c:v>
+                  <c:v>10.070378</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>13.799156</c:v>
+                  <c:v>11.386215999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>14.656934</c:v>
+                  <c:v>11.27984</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.115987000000001</c:v>
+                  <c:v>9.3914950000000008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11.439418999999999</c:v>
+                  <c:v>8.5094259999999995</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.0102639999999994</c:v>
+                  <c:v>7.3764890000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.0235209999999997</c:v>
+                  <c:v>6.0720700000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.7262389999999996</c:v>
@@ -1205,7 +1186,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14184100_temp_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1229,328 +1210,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.54711</c:v>
+                  <c:v>6.7575260000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1049119999999997</c:v>
+                  <c:v>7.0468979999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7561590000000002</c:v>
+                  <c:v>7.5625140000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5838889999999992</c:v>
+                  <c:v>8.5006950000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6268139999999995</c:v>
+                  <c:v>10.083938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.364478</c:v>
+                  <c:v>11.837152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.944284</c:v>
+                  <c:v>16.065334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.621203999999999</c:v>
+                  <c:v>15.599329000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.150831</c:v>
+                  <c:v>13.234444999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.137532999999999</c:v>
+                  <c:v>11.104032999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6229460000000007</c:v>
+                  <c:v>7.7684309999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9719420000000003</c:v>
+                  <c:v>6.5254580000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7269500000000004</c:v>
+                  <c:v>5.8123259999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5398800000000001</c:v>
+                  <c:v>5.5251479999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6660279999999998</c:v>
+                  <c:v>6.5961270000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4212160000000003</c:v>
+                  <c:v>7.4708329999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8816199999999998</c:v>
+                  <c:v>8.912903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.881873000000001</c:v>
+                  <c:v>10.841665000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.148657</c:v>
+                  <c:v>13.848522000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.884912</c:v>
+                  <c:v>15.150067999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.402051999999999</c:v>
+                  <c:v>12.886526999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.311054</c:v>
+                  <c:v>10.686559000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0141100000000005</c:v>
+                  <c:v>7.3908750000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.8945230000000004</c:v>
+                  <c:v>4.6762090000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.5910279999999997</c:v>
+                  <c:v>5.7243950000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.7675640000000001</c:v>
+                  <c:v>6.0212640000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0292329999999996</c:v>
+                  <c:v>6.2946020000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.5388890000000002</c:v>
+                  <c:v>8.0125010000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.6521509999999999</c:v>
+                  <c:v>9.9014100000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.711807</c:v>
+                  <c:v>11.643750000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.876681999999999</c:v>
+                  <c:v>14.857324999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.446539000000001</c:v>
+                  <c:v>15.432864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.266251</c:v>
+                  <c:v>12.870347000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.601513000000001</c:v>
+                  <c:v>10.587904999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.7765780000000007</c:v>
+                  <c:v>8.4551409999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.913138</c:v>
+                  <c:v>6.7407919999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.6715059999999999</c:v>
+                  <c:v>4.9180770000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.9268229999999997</c:v>
+                  <c:v>6.1956850000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.2695530000000002</c:v>
+                  <c:v>7.492057</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.0236800000000006</c:v>
+                  <c:v>8.5971530000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.714046</c:v>
+                  <c:v>11.077218</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.825206</c:v>
+                  <c:v>13.704166000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.854301</c:v>
+                  <c:v>16.750347000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.179331000000001</c:v>
+                  <c:v>15.772145</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.831529</c:v>
+                  <c:v>13.215868</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.222716</c:v>
+                  <c:v>9.9914310000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.0450400000000002</c:v>
+                  <c:v>7.4102540000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.3185479999999998</c:v>
+                  <c:v>4.2807459999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.3352490000000001</c:v>
+                  <c:v>5.2900869999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.3281619999999998</c:v>
+                  <c:v>5.9716139999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.0873920000000004</c:v>
+                  <c:v>7.3243400000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8406249999999993</c:v>
+                  <c:v>8.8320469999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.805914</c:v>
+                  <c:v>11.221339</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15.333819</c:v>
+                  <c:v>13.324306</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.290593999999999</c:v>
+                  <c:v>16.180609</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.834306999999999</c:v>
+                  <c:v>15.435485</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>15.202292</c:v>
+                  <c:v>13.738193000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.222011</c:v>
+                  <c:v>11.838914000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.9835840000000005</c:v>
+                  <c:v>8.3758119999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.0302419999999994</c:v>
+                  <c:v>7.792554</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7544029999999999</c:v>
+                  <c:v>6.7203629999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.7837420000000002</c:v>
+                  <c:v>7.6048359999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.1715890000000009</c:v>
+                  <c:v>8.8436210000000006</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.332568999999999</c:v>
+                  <c:v>10.058611000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.706182999999999</c:v>
+                  <c:v>13.074730000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.640868999999999</c:v>
+                  <c:v>16.857534000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.424499999999998</c:v>
+                  <c:v>18.027048000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.429907</c:v>
+                  <c:v>17.185048999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16.769477999999999</c:v>
+                  <c:v>14.390521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.072948999999999</c:v>
+                  <c:v>11.777958</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.2432739999999995</c:v>
+                  <c:v>8.0507980000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.8496639999999998</c:v>
+                  <c:v>7.1561149999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.3295029999999999</c:v>
+                  <c:v>6.2070230000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.4234200000000001</c:v>
+                  <c:v>7.2024429999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.8133689999999998</c:v>
+                  <c:v>7.5207629999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.50104</c:v>
+                  <c:v>10.099689</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.243783000000001</c:v>
+                  <c:v>12.167942999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>16.326910000000002</c:v>
+                  <c:v>14.868748</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>18.894119</c:v>
+                  <c:v>16.696805999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>17.526512</c:v>
+                  <c:v>16.748556000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.350834000000001</c:v>
+                  <c:v>14.161457</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.847716</c:v>
+                  <c:v>11.1876</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.713042</c:v>
+                  <c:v>9.3414070000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.493347</c:v>
+                  <c:v>6.1767459999999996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.2790330000000001</c:v>
+                  <c:v>4.7506050000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.7391360000000002</c:v>
+                  <c:v>6.3771940000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.6877690000000003</c:v>
+                  <c:v>7.0906229999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.1786799999999999</c:v>
+                  <c:v>8.3418410000000005</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.853664</c:v>
+                  <c:v>10.444659</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.339339000000001</c:v>
+                  <c:v>13.197846</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.666298000000001</c:v>
+                  <c:v>16.418118</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>18.377521999999999</c:v>
+                  <c:v>14.948691</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.019964</c:v>
+                  <c:v>12.859022</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.267341</c:v>
+                  <c:v>10.140311000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.4617199999999997</c:v>
+                  <c:v>7.9655129999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.4049060000000004</c:v>
+                  <c:v>5.5748559999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.5747650000000002</c:v>
+                  <c:v>6.7227480000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.9763390000000003</c:v>
+                  <c:v>6.0133390000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.1298199999999996</c:v>
+                  <c:v>7.0182650000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.4933680000000003</c:v>
+                  <c:v>8.6028570000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.405948</c:v>
+                  <c:v>11.752383999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14.580590000000001</c:v>
+                  <c:v>13.440951999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>18.980105999999999</c:v>
+                  <c:v>16.549931999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>18.686962000000001</c:v>
+                  <c:v>16.771944000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.893890000000001</c:v>
+                  <c:v>13.094060000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12.614584000000001</c:v>
+                  <c:v>10.210146</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.8861899999999991</c:v>
+                  <c:v>7.540826</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.5468070000000003</c:v>
+                  <c:v>6.1656829999999996</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>4.7575370000000001</c:v>
@@ -3755,7 +3736,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3791,7 +3772,7 @@
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-1.9974111481481476</v>
+        <v>-1.9319871481481492</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3801,11 +3782,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>9.0974062870370371</v>
+        <v>8.3205594999999981</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>11.094817435185185</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3815,12 +3796,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>5.946658988042925</v>
+        <v>7.3022438263689615</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>2.0113988148148145</v>
+        <v>2.0714123518518521</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3833,13 +3814,13 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>0.21955830982224833</v>
+        <v>0.23219437925396119</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -3858,10 +3839,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -3927,7 +3908,7 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.69702184659950261</v>
+        <v>0.46494975537234984</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -3946,46 +3927,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5.922885</v>
+        <v>6.3206389999999999</v>
       </c>
       <c r="I4">
-        <v>6.54711</v>
+        <v>6.7575260000000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.62422500000000003</v>
+        <v>0.43688700000000047</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-4.5477074351851847</v>
+        <v>-3.4950206481481469</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-3.1745212870370372</v>
+        <v>-1.9999204999999982</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>20.681642916038612</v>
+        <v>12.215169330981894</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>10.077585401851287</v>
+        <v>3.999682006320243</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>14.436794060211977</v>
+        <v>6.9897634421547599</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>0.38965685062500005</v>
+        <v>0.19087025076900041</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>6.5040111516748977</v>
+        <v>2.4430737221222429</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.62422500000000003</v>
+        <v>0.43688700000000047</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4026,11 +4007,11 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.50179244519447985</v>
+        <v>0.64818496039881368</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4045,46 +4026,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>6.0427559999999998</v>
+        <v>6.2318449999999999</v>
       </c>
       <c r="I5">
-        <v>7.1049119999999997</v>
+        <v>7.0468979999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>1.0621559999999999</v>
+        <v>0.81505299999999981</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.989905435185185</v>
+        <v>-3.2056486481481477</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-3.0546502870370373</v>
+        <v>-2.0887144999999983</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>15.91934538172028</v>
+        <v>10.276183255374047</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>9.3308883760954551</v>
+        <v>4.3627282625102426</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>12.18776578283906</v>
+        <v>6.6956848132924289</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>1.1281753683359999</v>
+        <v>0.66431139280899965</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>3.9700334838752322</v>
+        <v>1.6222136165822461</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>1.0621559999999999</v>
+        <v>0.81505299999999981</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4125,7 +4106,7 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.9418278607488253</v>
+        <v>0.93435749623530606</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -4144,46 +4125,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>6.144552</v>
+        <v>6.3371760000000004</v>
       </c>
       <c r="I6">
-        <v>7.7561590000000002</v>
+        <v>7.5625140000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.6116070000000002</v>
+        <v>1.2253379999999998</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3386584351851845</v>
+        <v>-2.6900326481481471</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9528542870370371</v>
+        <v>-1.9833834999999977</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>11.146640146833185</v>
+        <v>7.2362756481029331</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>8.7193484404730093</v>
+        <v>3.9338101080722412</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>9.8585718732889376</v>
+        <v>5.3353663687983346</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>2.5972771224490008</v>
+        <v>1.5014532142439996</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>1.7989442849842117</v>
+        <v>0.57463298007024688</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>1.6116070000000002</v>
+        <v>1.2253379999999998</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4224,7 +4205,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>9.0974062870370371</v>
+        <v>8.3205594999999981</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4240,46 +4221,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>6.7517649999999998</v>
+        <v>7.0442720000000003</v>
       </c>
       <c r="I7">
-        <v>8.5838889999999992</v>
+        <v>8.5006950000000003</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.8321239999999994</v>
+        <v>1.456423</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5109284351851855</v>
+        <v>-1.751851648148147</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3456412870370373</v>
+        <v>-1.2762874999999978</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>6.3047616066215246</v>
+        <v>3.068984197119379</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>5.5020330474527688</v>
+        <v>1.6289097826562444</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>5.8897374063656729</v>
+        <v>2.2358663603858742</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>3.3566783513759977</v>
+        <v>2.1211679549290001</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>0.26370000408587957</v>
+        <v>3.2448798360250802E-2</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.8321239999999994</v>
+        <v>1.456423</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4320,7 +4301,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>3.3965790011976376</v>
+        <v>1.9358055362422601</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4336,46 +4317,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>8.1476179999999996</v>
+        <v>7.8795279999999996</v>
       </c>
       <c r="I8">
-        <v>9.6268139999999995</v>
+        <v>10.083938</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.479196</v>
+        <v>2.2044100000000002</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4680034351851852</v>
+        <v>-0.16860864814814747</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.94978828703703755</v>
+        <v>-0.44103149999999847</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.1550340857155041</v>
+        <v>2.8428876230345793E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.90209779019275005</v>
+        <v>0.19450878399224864</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>1.3942924680690238</v>
+        <v>7.4361725005749446E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>2.1880208064160001</v>
+        <v>4.8594234481000012</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>0.28027252654467438</v>
+        <v>3.109503734262256</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>1.479196</v>
+        <v>2.2044100000000002</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4416,7 +4397,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>11.094817435185185</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4432,46 +4413,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>10.632562999999999</v>
+        <v>9.7755580000000002</v>
       </c>
       <c r="I9">
-        <v>12.364478</v>
+        <v>11.837152</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.7319150000000008</v>
+        <v>2.0615939999999995</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.2696605648148154</v>
+        <v>1.5846053518518524</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>1.5351567129629622</v>
+        <v>1.4549985000000021</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>1.6120379498458759</v>
+        <v>2.5109741211175329</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>2.3567061333552468</v>
+        <v>2.1170206350022562</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.94912793925981</v>
+        <v>2.3055984100364206</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>2.9995295672250024</v>
+        <v>4.2501698208359979</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>10.67375757764275</v>
+        <v>12.36642281105626</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>1.7319150000000008</v>
+        <v>2.0615939999999995</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4512,7 +4493,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>4.4302767865875357</v>
+        <v>3.6942891261951312</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4527,46 +4508,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>12.899336999999999</v>
+        <v>10.833072</v>
       </c>
       <c r="I10">
-        <v>17.944284</v>
+        <v>16.065334</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>5.0449470000000005</v>
+        <v>5.2322620000000004</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>6.849466564814815</v>
+        <v>5.8127873518518527</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>3.801930712962962</v>
+        <v>2.5125125000000015</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>46.915192222516062</v>
+        <v>33.788496797848872</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>14.454677146171056</v>
+        <v>6.3127190626562575</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>26.041197300182361</v>
+        <v>14.604700881369686</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>25.451490232809004</v>
+        <v>27.376565636644003</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>78.267245268120774</v>
+        <v>59.98153205585028</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>5.0449470000000005</v>
+        <v>5.2322620000000004</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4607,7 +4588,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>2.4385772466835913</v>
+        <v>2.7022664240168774</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4622,46 +4603,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>13.729644</v>
+        <v>10.77763</v>
       </c>
       <c r="I11">
-        <v>17.621203999999999</v>
+        <v>15.599329000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>3.8915599999999984</v>
+        <v>4.8216990000000006</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>6.5263865648148141</v>
+        <v>5.3467823518518536</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>4.6322377129629633</v>
+        <v>2.4570705000000022</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>42.593721593395308</v>
+        <v>28.588081518074439</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>21.457626229396343</v>
+        <v>6.0371954419702609</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>30.231773974909984</v>
+        <v>13.137421186655821</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>15.144239233599988</v>
+        <v>23.248781246601006</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>72.655127451512612</v>
+        <v>52.980485434130287</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>3.8915599999999984</v>
+        <v>4.8216990000000006</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4702,7 +4683,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.97047816088195682</v>
+        <v>0.96662169240882756</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -4718,46 +4699,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>12.365583000000001</v>
+        <v>9.4549669999999999</v>
       </c>
       <c r="I12">
-        <v>14.150831</v>
+        <v>13.234444999999999</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.7852479999999993</v>
+        <v>3.7794779999999992</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>3.0560135648148155</v>
+        <v>2.9818983518518518</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>3.2681767129629637</v>
+        <v>1.1344075000000018</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>9.3392189083321568</v>
+        <v>8.8917177807767906</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>10.680979027153402</v>
+        <v>1.2868803760562542</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>9.9875923670267124</v>
+        <v>3.3826878545783847</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>3.1871104215039976</v>
+        <v>14.284453952483995</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>25.537101329584804</v>
+        <v>24.146270707110261</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>1.7852479999999993</v>
+        <v>3.7794779999999992</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4798,7 +4779,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>2.0113988148148145</v>
+        <v>2.0714123518518521</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4813,46 +4794,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>10.518193</v>
+        <v>8.5701940000000008</v>
       </c>
       <c r="I13">
-        <v>11.137532999999999</v>
+        <v>11.104032999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0.61933999999999934</v>
+        <v>2.5338389999999986</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>4.2715564814814755E-2</v>
+        <v>0.85148635185185206</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>1.420786712962963</v>
+        <v>0.24963450000000265</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>1.8246194774486403E-3</v>
+        <v>0.725029007389976</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>2.0186348837321009</v>
+        <v>6.2317383590251324E-2</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>6.0689706925597053E-2</v>
+        <v>0.21256036970136341</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>0.38358203559999915</v>
+        <v>6.4203400779209927</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>4.1621170049450615</v>
+        <v>7.7477247252022572</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>0.61933999999999934</v>
+        <v>2.5338389999999986</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4901,46 +4882,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>7.8354280000000003</v>
+        <v>6.7132050000000003</v>
       </c>
       <c r="I14">
-        <v>9.6229460000000007</v>
+        <v>7.7684309999999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.7875180000000004</v>
+        <v>1.0552259999999993</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-1.471871435185184</v>
+        <v>-2.4841156481481477</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2619782870370368</v>
+        <v>-1.6073544999999978</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>2.1664055217140934</v>
+        <v>6.1708305533744916</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1.5925891969529338</v>
+        <v>2.5835884886702427</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>1.8574697925137436</v>
+        <v>3.9928544655713365</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>3.1952206003240016</v>
+        <v>1.1135019110759985</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>0.27619198990119409</v>
+        <v>0.30484588051224831</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>1.7875180000000004</v>
+        <v>1.0552259999999993</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4978,7 +4959,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.50179244519447985</v>
+        <v>0.64818496039881368</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4993,46 +4974,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>5.4912939999999999</v>
+        <v>6.3394360000000001</v>
       </c>
       <c r="I15">
-        <v>6.9719420000000003</v>
+        <v>6.5254580000000004</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.4806480000000004</v>
+        <v>0.18602200000000035</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1228754351851844</v>
+        <v>-3.7270886481481469</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6061122870370372</v>
+        <v>-1.981123499999998</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>16.998101854053424</v>
+        <v>13.891189791154781</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>13.004045826719491</v>
+        <v>3.9248503222522424</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>14.867551764744466</v>
+        <v>7.3838229074295176</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>2.1923184999040011</v>
+        <v>3.4604184484000135E-2</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>4.5175984354698588</v>
+        <v>3.2223893953022418</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>1.4806480000000004</v>
+        <v>0.18602200000000035</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5081,46 +5062,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>4.7974399999999999</v>
+        <v>6.1939770000000003</v>
       </c>
       <c r="I16">
-        <v>5.7269500000000004</v>
+        <v>5.8123259999999997</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>0.9295100000000005</v>
+        <v>-0.38165100000000063</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3678674351851843</v>
+        <v>-4.4402206481481477</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2999662870370372</v>
+        <v>-2.1265824999999978</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>28.814000801721569</v>
+        <v>19.715559404241155</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>18.489710069655082</v>
+        <v>4.5223531293062411</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>23.08164900458026</v>
+        <v>9.4424955264904984</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>0.86398884010000099</v>
+        <v>0.14565748580100049</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>11.359975582827488</v>
+        <v>6.2912352905222422</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>0.9295100000000005</v>
+        <v>0.38165100000000063</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5148,46 +5129,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>4.3039129999999997</v>
+        <v>4.9470260000000001</v>
       </c>
       <c r="I17">
-        <v>5.5398800000000001</v>
+        <v>5.5251479999999997</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>1.2359670000000005</v>
+        <v>0.57812199999999958</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5549374351851846</v>
+        <v>-4.7273986481481476</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-4.7934932870370375</v>
+        <v>-3.373533499999998</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>30.857329908821757</v>
+        <v>22.348297978512932</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>22.977577892869142</v>
+        <v>11.380728275622236</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>26.627555305470921</v>
+        <v>15.948037707382479</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>1.5276144250890011</v>
+        <v>0.33422504688399951</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>12.655993282959527</v>
+        <v>7.8143254543322413</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>1.2359670000000005</v>
+        <v>0.57812199999999958</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5215,46 +5196,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5.3128789999999997</v>
+        <v>6.2958689999999997</v>
       </c>
       <c r="I18">
-        <v>6.6660279999999998</v>
+        <v>6.5961270000000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>1.3531490000000002</v>
+        <v>0.30025800000000036</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4287894351851849</v>
+        <v>-3.6564196481481472</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7845272870370374</v>
+        <v>-2.0246904999999984</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>19.614175861207908</v>
+        <v>13.36940464336382</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>14.322646786327919</v>
+        <v>4.0993716207902438</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>16.760874465999681</v>
+        <v>7.4031181256188905</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>1.8310122162010005</v>
+        <v>9.0154866564000222E-2</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>5.9116003746751575</v>
+        <v>2.9736674470562434</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>1.3531490000000002</v>
+        <v>0.30025800000000036</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5282,46 +5263,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5.7033620000000003</v>
+        <v>6.6962339999999996</v>
       </c>
       <c r="I19">
-        <v>7.4212160000000003</v>
+        <v>7.4708329999999998</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>1.717854</v>
+        <v>0.77459900000000026</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6736014351851844</v>
+        <v>-2.7817136481481475</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3940442870370369</v>
+        <v>-1.6243254999999985</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>13.495347504594648</v>
+        <v>7.7379308202936752</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>11.519536622368747</v>
+        <v>2.6384333299502454</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>12.468365963941334</v>
+        <v>4.5184084123850594</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>2.9510223653160002</v>
+        <v>0.6000036108010004</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>2.8096138783573039</v>
+        <v>0.72203512480224707</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>1.717854</v>
+        <v>0.77459900000000026</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5352,46 +5333,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>7.4240199999999996</v>
+        <v>7.6271440000000004</v>
       </c>
       <c r="I20">
-        <v>8.8816199999999998</v>
+        <v>8.912903</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.4576000000000002</v>
+        <v>1.2857589999999997</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-2.2131974351851849</v>
+        <v>-1.3396436481481473</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6733862870370375</v>
+        <v>-0.69341549999999774</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>4.8982428871102801</v>
+        <v>1.7946451040236771</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2.8002216656436025</v>
+        <v>0.48082505564024686</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>3.7035342385444308</v>
+        <v>0.92892967010246863</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>2.1245977600000008</v>
+        <v>1.6531762060809991</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>4.6563721673230647E-2</v>
+        <v>0.35087082199225228</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>1.4576000000000002</v>
+        <v>1.2857589999999997</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5425,46 +5406,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.5370039999999996</v>
+        <v>9.048902</v>
       </c>
       <c r="I21">
-        <v>11.881873000000001</v>
+        <v>10.841665000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>2.344869000000001</v>
+        <v>1.7927630000000008</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.78705556481481587</v>
+        <v>0.58911835185185346</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.43959771296296246</v>
+        <v>0.72834250000000189</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.61945646210596883</v>
+        <v>0.34706043248864421</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>0.19324614924226713</v>
+        <v>0.53048279730625281</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>0.34598782626736574</v>
+        <v>0.42907993318365967</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>5.4984106271610047</v>
+        <v>3.2139991741690026</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>7.7532548755987705</v>
+        <v>6.3559729421302631</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>2.344869000000001</v>
+        <v>1.7927630000000008</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5498,46 +5479,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>12.066784</v>
+        <v>10.373708000000001</v>
       </c>
       <c r="I22">
-        <v>16.148657</v>
+        <v>13.848522000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>4.0818729999999999</v>
+        <v>3.4748140000000003</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>5.0538395648148153</v>
+        <v>3.5959753518518536</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.969377712962963</v>
+        <v>2.0531485000000025</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>25.541294346887604</v>
+        <v>12.931038731126062</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>8.8172040022411569</v>
+        <v>4.2154187630522602</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>15.006758568651552</v>
+        <v>7.3830713996916142</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>16.661687188128997</v>
+        <v>12.074332334596003</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>49.720136617060696</v>
+        <v>30.558369401406281</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>4.0818729999999999</v>
+        <v>3.4748140000000003</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5571,46 +5552,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>14.113701000000001</v>
+        <v>11.105347</v>
       </c>
       <c r="I23">
-        <v>17.884912</v>
+        <v>15.150067999999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>3.7712109999999992</v>
+        <v>4.0447209999999991</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>6.7900945648148152</v>
+        <v>4.8975213518518519</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>5.0162947129629636</v>
+        <v>2.784787500000002</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>46.105384199127698</v>
+        <v>23.985715391844792</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>25.163212647300181</v>
+        <v>7.7550414201562612</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>34.061115465999116</v>
+        <v>13.638556241620149</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>14.222032406520993</v>
+        <v>16.359767967840995</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>77.220256655356707</v>
+        <v>46.642186351572263</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>3.7712109999999992</v>
+        <v>4.0447209999999991</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5644,46 +5625,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>12.620493</v>
+        <v>10.037611999999999</v>
       </c>
       <c r="I24">
-        <v>15.402051999999999</v>
+        <v>12.886526999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>2.7815589999999997</v>
+        <v>2.8489149999999999</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>4.3072345648148147</v>
+        <v>2.6339803518518519</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>3.5230867129629626</v>
+        <v>1.7170525000000012</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>18.552269596335467</v>
+        <v>6.9378524939416053</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>12.412139987056172</v>
+        <v>2.9482692877562542</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>15.174760864913882</v>
+        <v>4.5226825480981052</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>7.7370704704809983</v>
+        <v>8.1163166772249991</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>39.74855756598226</v>
+        <v>20.84805921105626</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>2.7815589999999997</v>
+        <v>2.8489149999999999</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5717,46 +5698,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>10.699263</v>
+        <v>8.5145780000000002</v>
       </c>
       <c r="I25">
-        <v>11.311054</v>
+        <v>10.686559000000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>0.6117910000000002</v>
+        <v>2.1719810000000006</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>0.21623656481481568</v>
+        <v>0.4340123518518535</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>1.6018567129629631</v>
+        <v>0.19401850000000209</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>4.675825196291198E-2</v>
+        <v>0.18836672155997708</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>2.5659449288645084</v>
+        <v>3.764317834225081E-2</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>0.34637999293666338</v>
+        <v>8.4206425487769743E-2</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>0.37428822768100023</v>
+        <v>4.7175014643610025</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>4.9002361971061577</v>
+        <v>5.5979536340002625</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>0.6117910000000002</v>
+        <v>2.1719810000000006</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5790,46 +5771,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>8.1206899999999997</v>
+        <v>6.7189449999999997</v>
       </c>
       <c r="I26">
-        <v>9.0141100000000005</v>
+        <v>7.3908750000000003</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>0.89342000000000077</v>
+        <v>0.67193000000000058</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0807074351851842</v>
+        <v>-2.861671648148147</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-0.97671628703703739</v>
+        <v>-1.6016144999999984</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>4.3293434308349079</v>
+        <v>8.1891646218149319</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>0.95397470536341644</v>
+        <v>2.5651690066102448</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>2.0322608405044305</v>
+        <v>4.5832948059129661</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>0.79819929640000142</v>
+        <v>0.45148992490000078</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>6.9382714341563951E-3</v>
+        <v>0.8643132695402459</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>0.89342000000000077</v>
+        <v>0.67193000000000058</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5863,46 +5844,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>5.9106379999999996</v>
+        <v>4.9864560000000004</v>
       </c>
       <c r="I27">
-        <v>5.8945230000000004</v>
+        <v>4.6762090000000001</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6114999999999213E-2</v>
+        <v>-0.31024700000000038</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.2002944351851843</v>
+        <v>-5.5763376481481473</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1867682870370375</v>
+        <v>-3.3341034999999977</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>27.043062212617993</v>
+        <v>31.095541566154409</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>10.155492115264975</v>
+        <v>11.116246148712234</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>16.572133389303328</v>
+        <v>18.592086869872492</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>2.5969322499997462E-4</v>
+        <v>9.6253201009000242E-2</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>10.258461350381173</v>
+        <v>13.281290566850236</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>1.6114999999999213E-2</v>
+        <v>0.31024700000000038</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5936,46 +5917,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>4.9040330000000001</v>
+        <v>6.3592120000000003</v>
       </c>
       <c r="I28">
-        <v>5.5910279999999997</v>
+        <v>5.7243950000000003</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>0.68699499999999958</v>
+        <v>-0.63481699999999996</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-5.503789435185185</v>
+        <v>-4.528151648148147</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-4.193373287037037</v>
+        <v>-1.9613474999999978</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>30.291698146856056</v>
+        <v>20.50415734862678</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>17.584379524435803</v>
+        <v>3.8468840157562414</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>23.079443594982216</v>
+        <v>8.881278914716237</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>0.47196213002499943</v>
+        <v>0.40299262348899995</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>12.294688691804788</v>
+        <v>6.7400701110602386</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>0.68699499999999958</v>
+        <v>0.63481699999999996</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -6009,46 +5990,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>4.7825350000000002</v>
+        <v>6.000515</v>
       </c>
       <c r="I29">
-        <v>5.7675640000000001</v>
+        <v>6.0212640000000004</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>0.98502899999999993</v>
+        <v>2.074900000000035E-2</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3272534351851846</v>
+        <v>-4.2312826481481469</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3148712870370369</v>
+        <v>-2.3200444999999981</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>28.37962916269235</v>
+        <v>17.903752848519595</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>18.618114223696654</v>
+        <v>5.3826064819802406</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>22.986412886249973</v>
+        <v>9.8167640357815351</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>0.9702821308409999</v>
+        <v>4.3052100100001453E-4</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>11.087849656540046</v>
+        <v>5.2867597963202391</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>0.98502899999999993</v>
+        <v>2.074900000000035E-2</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6082,46 +6063,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>4.4081659999999996</v>
+        <v>6.0960729999999996</v>
       </c>
       <c r="I30">
-        <v>6.0292329999999996</v>
+        <v>6.2946020000000003</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1.621067</v>
+        <v>0.19852900000000062</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-5.0655844351851851</v>
+        <v>-3.9579446481481471</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-4.6892402870370375</v>
+        <v>-2.2244864999999985</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>25.66014566999041</v>
+        <v>15.665325837804559</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>21.988974469571197</v>
+        <v>4.9483401886822431</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>23.753742610858126</v>
+        <v>8.8043944375527978</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>2.627858218489</v>
+        <v>3.9413763841000246E-2</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>9.4136873192876589</v>
+        <v>4.1045037918062413</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>1.621067</v>
+        <v>0.19852900000000062</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6155,46 +6136,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6.8728590000000001</v>
+        <v>8.3277219999999996</v>
       </c>
       <c r="I31">
-        <v>7.5388890000000002</v>
+        <v>8.0125010000000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>0.66603000000000012</v>
+        <v>-0.31522099999999931</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5559284351851845</v>
+        <v>-2.240045648148147</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2245472870370371</v>
+        <v>7.1625000000015149E-3</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>12.644627036158555</v>
+        <v>5.0178045057874519</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>4.9486106322638417</v>
+        <v>5.1301406250021703E-5</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>7.9103309533890585</v>
+        <v>-1.6044326954864498E-2</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>0.44359596090000014</v>
+        <v>9.9364278840999562E-2</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>2.4289761339932858</v>
+        <v>9.4900039422248644E-2</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>0.66603000000000012</v>
+        <v>0.31522099999999931</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6228,46 +6209,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>8.3156440000000007</v>
+        <v>8.3946439999999996</v>
       </c>
       <c r="I32">
-        <v>9.6521509999999999</v>
+        <v>9.9014100000000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1.3365069999999992</v>
+        <v>1.5067660000000007</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4426664351851848</v>
+        <v>-0.35113664814814705</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-0.78176228703703643</v>
+        <v>7.4084500000001441E-2</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>2.0812864432099292</v>
+        <v>0.12329694567271562</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>0.61115227343337775</v>
+        <v>5.4885131402502138E-3</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>1.1278222118019385</v>
+        <v>-2.6013783009731905E-2</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1.7862509610489978</v>
+        <v>2.2703437787560024</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>0.30774169656035999</v>
+        <v>2.4990883033502569</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1.3365069999999992</v>
+        <v>1.5067660000000007</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6295,46 +6276,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>9.8756970000000006</v>
+        <v>9.2757249999999996</v>
       </c>
       <c r="I33">
-        <v>12.711807</v>
+        <v>11.643750000000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>2.8361099999999997</v>
+        <v>2.3680250000000012</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>1.6169895648148156</v>
+        <v>1.3912033518518534</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.77829071296296348</v>
+        <v>0.95516550000000144</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>2.6146552527200067</v>
+        <v>1.9354467662038317</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>0.60573643388439802</v>
+        <v>0.91234113239025272</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>1.2584879612533948</v>
+        <v>1.3288294451732534</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>8.0435199320999988</v>
+        <v>5.6075424006250056</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>13.063892513867177</v>
+        <v>11.043595099290267</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>2.8361099999999997</v>
+        <v>2.3680250000000012</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6362,46 +6343,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>12.984833999999999</v>
+        <v>11.150831999999999</v>
       </c>
       <c r="I34">
-        <v>16.876681999999999</v>
+        <v>14.857324999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>3.8918479999999995</v>
+        <v>3.706493</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>5.7818645648148141</v>
+        <v>4.6047783518518521</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>3.8874277129629622</v>
+        <v>2.8302725000000013</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>33.429957845861203</v>
+        <v>21.20398366968346</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>15.112094223512447</v>
+        <v>8.010442424256258</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>22.476580541859647</v>
+        <v>13.032777537841627</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>15.146480855103997</v>
+        <v>13.738090359049</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>60.517130618295397</v>
+        <v>42.72930320199027</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>3.8918479999999995</v>
+        <v>3.706493</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6429,46 +6410,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>14.687898000000001</v>
+        <v>11.411343</v>
       </c>
       <c r="I35">
-        <v>18.446539000000001</v>
+        <v>15.432864</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>3.7586410000000008</v>
+        <v>4.0215209999999999</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>7.3517215648148166</v>
+        <v>5.180317351851853</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>5.5904917129629634</v>
+        <v>3.0907835000000023</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>54.047809966563214</v>
+        <v>26.835687865897395</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>31.253597592707568</v>
+        <v>9.5529426438722638</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>41.099738484108343</v>
+        <v>16.011239395867413</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>14.127382166881006</v>
+        <v>16.172631153440999</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>87.406282484594229</v>
+        <v>50.584875300720284</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>3.7586410000000008</v>
+        <v>4.0215209999999999</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6496,46 +6477,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>12.981524</v>
+        <v>10.313846</v>
       </c>
       <c r="I36">
-        <v>14.266251</v>
+        <v>12.870347000000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>1.2847270000000002</v>
+        <v>2.5565010000000008</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>3.1714335648148158</v>
+        <v>2.6178003518518533</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>3.8841177129629632</v>
+        <v>1.9932865000000017</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>10.05799085603401</v>
+        <v>6.8528786821556871</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>15.086370408152639</v>
+        <v>3.9731910710822569</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>12.318221284582499</v>
+        <v>5.2180261010415538</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>1.6505234645290003</v>
+        <v>6.5356973630010042</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>26.71695566672518</v>
+        <v>20.700566295156275</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>1.2847270000000002</v>
+        <v>2.5565010000000008</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6563,46 +6544,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>11.045548999999999</v>
+        <v>8.9408370000000001</v>
       </c>
       <c r="I37">
-        <v>10.601513000000001</v>
+        <v>10.587904999999999</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-0.44403599999999877</v>
+        <v>1.6470679999999991</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-0.49330443518518408</v>
+        <v>0.33535835185185192</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>1.9481427129629623</v>
+        <v>0.62027750000000204</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.24334926577337349</v>
+        <v>0.11246522415679051</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>3.7952600300706907</v>
+        <v>0.38474417700625252</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-0.96102744067832624</v>
+        <v>0.20801524009078776</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>0.19716796929599889</v>
+        <v>2.7128329966239968</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>2.2623370039802508</v>
+        <v>5.1408556163702555</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>0.44403599999999877</v>
+        <v>1.6470679999999991</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6630,46 +6611,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>8.386495</v>
+        <v>7.986631</v>
       </c>
       <c r="I38">
-        <v>9.7765780000000007</v>
+        <v>8.4551409999999994</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>1.3900830000000006</v>
+        <v>0.46850999999999932</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.318239435185184</v>
+        <v>-1.797405648148148</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-0.7109112870370371</v>
+        <v>-0.33392849999999807</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>1.7377552084773531</v>
+        <v>3.230667063994864</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>0.50539485803665651</v>
+        <v>0.11150824311224872</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>0.93715129349047599</v>
+        <v>0.60020497197763534</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>1.9323307468890016</v>
+        <v>0.21950162009999935</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>0.46127421568904614</v>
+        <v>1.8112180142250335E-2</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>1.3900830000000006</v>
+        <v>0.46850999999999932</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6697,46 +6678,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>5.0949070000000001</v>
+        <v>6.0168030000000003</v>
       </c>
       <c r="I39">
-        <v>6.913138</v>
+        <v>6.7407919999999999</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1.8182309999999999</v>
+        <v>0.72398899999999955</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1816794351851847</v>
+        <v>-3.5117546481481474</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0024992870370371</v>
+        <v>-2.3037564999999978</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>17.486442898650687</v>
+        <v>12.332420708790119</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>16.020000542731989</v>
+        <v>5.3072940112922398</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>16.737168957946142</v>
+        <v>8.090227597076499</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>3.3059639693609997</v>
+        <v>0.52416007212099935</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>4.7710279497557124</v>
+        <v>2.4956653540562446</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>1.8182309999999999</v>
+        <v>0.72398899999999955</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6764,46 +6745,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4.2086690000000004</v>
+        <v>5.0073090000000002</v>
       </c>
       <c r="I40">
-        <v>4.6715059999999999</v>
+        <v>4.9180770000000003</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>0.4628369999999995</v>
+        <v>-8.9231999999999978E-2</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-6.4233114351851848</v>
+        <v>-5.3344696481481471</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8887372870370367</v>
+        <v>-3.3132504999999979</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>41.258929793380759</v>
+        <v>28.456566427013815</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>23.899752261666247</v>
+        <v>10.977628875750236</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>31.401882119441193</v>
+        <v>17.674434228961662</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>0.21421808856899954</v>
+        <v>7.9623498239999955E-3</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>19.588593350794529</v>
+        <v>11.576887162806235</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>0.4628369999999995</v>
+        <v>8.9231999999999978E-2</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6831,46 +6812,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>4.1517220000000004</v>
+        <v>5.339283</v>
       </c>
       <c r="I41">
-        <v>5.9268229999999997</v>
+        <v>6.1956850000000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>1.7751009999999994</v>
+        <v>0.85640200000000011</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-5.167994435185185</v>
+        <v>-4.0568616481481472</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-4.9456842870370368</v>
+        <v>-2.9812764999999981</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>26.708166482105039</v>
+        <v>16.458126432215302</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>24.459793067045045</v>
+        <v>8.8880095694522385</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>25.559268873590216</v>
+        <v>12.094626295375333</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>3.1509835602009977</v>
+        <v>0.73342438560400014</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>10.052598380038585</v>
+        <v>4.5150916407502413</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>1.7751009999999994</v>
+        <v>0.85640200000000011</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6898,46 +6879,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>5.8348639999999996</v>
+        <v>6.6472230000000003</v>
       </c>
       <c r="I42">
-        <v>7.2695530000000002</v>
+        <v>7.492057</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>1.4346890000000005</v>
+        <v>0.84483399999999964</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8252644351851846</v>
+        <v>-2.7604896481481473</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-3.2625422870370375</v>
+        <v>-1.6733364999999978</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>14.632647999092629</v>
+        <v>7.6203030975330828</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>10.644182174704863</v>
+        <v>2.8000550422322426</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>12.480086978890514</v>
+        <v>4.6192280861184463</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>2.0583325267210015</v>
+        <v>0.7137444875559994</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>3.3410476389321007</v>
+        <v>0.68641639250624698</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>1.4346890000000005</v>
+        <v>0.84483399999999964</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6965,46 +6946,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>7.0524519999999997</v>
+        <v>7.6188520000000004</v>
       </c>
       <c r="I43">
-        <v>9.0236800000000006</v>
+        <v>8.5971530000000005</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>1.9712280000000009</v>
+        <v>0.97830100000000009</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0711374351851841</v>
+        <v>-1.6553936481481468</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0449542870370374</v>
+        <v>-0.70170749999999771</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>4.2896102754254626</v>
+        <v>2.7403281303292304</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>4.1818380360711576</v>
+        <v>0.49239341555624677</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>4.2353813771248365</v>
+        <v>1.161602138357912</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>3.8857398279840036</v>
+        <v>0.95707284660100012</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>5.4355654002675021E-3</v>
+        <v>7.650396424225131E-2</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>1.9712280000000009</v>
+        <v>0.97830100000000009</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7032,46 +7013,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>9.1350409999999993</v>
+        <v>8.8921250000000001</v>
       </c>
       <c r="I44">
-        <v>10.714046</v>
+        <v>11.077218</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1.5790050000000004</v>
+        <v>2.1850930000000002</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-0.38077143518518497</v>
+        <v>0.82467135185185292</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>3.7634712962962169E-2</v>
+        <v>0.57156550000000195</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.14498688585298553</v>
+        <v>0.68008283856516261</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>1.4163716198045528E-3</v>
+        <v>0.32668712079025225</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>-1.4330223667689591E-2</v>
+        <v>0.47135369355688184</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>2.4932567900250016</v>
+        <v>4.7746314186490011</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>2.61352396152897</v>
+        <v>7.5991660856222616</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>1.5790050000000004</v>
+        <v>2.1850930000000002</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7099,46 +7080,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>11.628033</v>
+        <v>10.008660000000001</v>
       </c>
       <c r="I45">
-        <v>14.825206</v>
+        <v>13.704166000000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>3.1971729999999994</v>
+        <v>3.695506</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>3.730388564814815</v>
+        <v>3.4516193518518534</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>2.5306267129629632</v>
+        <v>1.6881005000000027</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>13.915798844501134</v>
+        <v>11.913676150078208</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>6.4040715603617313</v>
+        <v>2.8496832981002589</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>9.4402209518519413</v>
+        <v>5.826680353670799</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>10.221915191928996</v>
+        <v>13.656764596036</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>32.807689551818598</v>
+        <v>28.983218946842278</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>3.1971729999999994</v>
+        <v>3.695506</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7166,46 +7147,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>13.474235</v>
+        <v>11.4452</v>
       </c>
       <c r="I46">
-        <v>18.854301</v>
+        <v>16.750347000000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>5.3800659999999993</v>
+        <v>5.3051470000000016</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>7.7594835648148148</v>
+        <v>6.4978003518518541</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>4.3768287129629631</v>
+        <v>3.1246405000000017</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>60.209585192631224</v>
+        <v>42.221409412526079</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>19.156629582617029</v>
+        <v>9.7633782542402603</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>33.96193046424569</v>
+        <v>20.303290140310565</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>28.945110164355992</v>
+        <v>28.144584691609015</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>95.196994439844602</v>
+        <v>71.0613172951563</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>5.3800659999999993</v>
+        <v>5.3051470000000016</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7233,46 +7214,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>14.039861999999999</v>
+        <v>11.095675999999999</v>
       </c>
       <c r="I47">
-        <v>18.179331000000001</v>
+        <v>15.772145</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>4.1394690000000018</v>
+        <v>4.6764690000000009</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>7.0845135648148165</v>
+        <v>5.5195983518518528</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>4.9424557129629623</v>
+        <v>2.7751165000000011</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>50.19033245004514</v>
+        <v>30.46596596576569</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>24.427868474600224</v>
+        <v>7.701271588572256</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>35.014894541982592</v>
+        <v>15.317528459596888</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>17.135203601961017</v>
+        <v>21.869362307961008</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>82.481356491927414</v>
+        <v>55.526126463810279</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>4.1394690000000018</v>
+        <v>4.6764690000000009</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7300,46 +7281,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>12.713673999999999</v>
+        <v>9.76661</v>
       </c>
       <c r="I48">
-        <v>13.831529</v>
+        <v>13.215868</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>1.1178550000000005</v>
+        <v>3.4492580000000004</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>2.736711564814815</v>
+        <v>2.9633213518518531</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>3.6162677129629621</v>
+        <v>1.4460505000000019</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>7.4895901889911531</v>
+        <v>8.7812734343410934</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>13.077392171818373</v>
+        <v>2.0910620485502553</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>9.8966816715321606</v>
+        <v>4.2851123225060537</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>1.2495998010250011</v>
+        <v>11.897380750564002</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>22.4119178613918</v>
+        <v>23.964045310172274</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>1.1178550000000005</v>
+        <v>3.4492580000000004</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7367,46 +7348,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>10.125171999999999</v>
+        <v>8.5710130000000007</v>
       </c>
       <c r="I49">
-        <v>11.222716</v>
+        <v>9.9914310000000004</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>1.097544000000001</v>
+        <v>1.4204179999999997</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>0.12789856481481543</v>
+        <v>-0.26111564814814692</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>1.027765712962962</v>
+        <v>0.25045350000000255</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>1.6358042881689544E-2</v>
+        <v>6.8181381707826866E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>1.0563023607422657</v>
+        <v>6.2726955662251282E-2</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>0.1314497596538384</v>
+        <v>-6.5397327983472586E-2</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>1.204602831936002</v>
+        <v>2.0175872947239992</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>4.5169413760147119</v>
+        <v>2.7918115695122578</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>1.097544000000001</v>
+        <v>1.4204179999999997</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7434,46 +7415,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>8.1183669999999992</v>
+        <v>6.8527420000000001</v>
       </c>
       <c r="I50">
-        <v>9.0450400000000002</v>
+        <v>7.4102540000000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>0.92667300000000097</v>
+        <v>0.55751200000000001</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0497774351851845</v>
+        <v>-2.8422926481481472</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-0.97903928703703791</v>
+        <v>-1.467817499999998</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>4.2015875337943536</v>
+        <v>8.0786274977170081</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>0.95851792556199156</v>
+        <v>2.154488213306244</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>2.0068126387283112</v>
+        <v>4.1719668890731869</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>0.85872284892900175</v>
+        <v>0.31081963014399999</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>2.7422280180453432E-3</v>
+        <v>0.82865610333024631</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>0.92667300000000097</v>
+        <v>0.55751200000000001</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7501,46 +7482,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>5.3820059999999996</v>
+        <v>5.1288710000000002</v>
       </c>
       <c r="I51">
-        <v>5.3185479999999998</v>
+        <v>4.2807459999999997</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-6.3457999999999792E-2</v>
+        <v>-0.84812500000000046</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7762694351851849</v>
+        <v>-5.9718006481481476</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7154002870370375</v>
+        <v>-3.1916884999999979</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>33.365288587854572</v>
+        <v>35.662402981222634</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>13.8041992929149</v>
+        <v>10.186875481032237</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>21.461153117490301</v>
+        <v>19.060127452986976</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>4.026917763999974E-3</v>
+        <v>0.7193160156250008</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>14.279769953508492</v>
+        <v>16.320093114782235</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>6.3457999999999792E-2</v>
+        <v>0.84812500000000046</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7568,46 +7549,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>5.5669740000000001</v>
+        <v>6.1718659999999996</v>
       </c>
       <c r="I52">
-        <v>5.3352490000000001</v>
+        <v>5.2900869999999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-0.23172499999999996</v>
+        <v>-0.88177899999999987</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7595684351851846</v>
+        <v>-4.9624596481481476</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-3.530432287037037</v>
+        <v>-2.1486934999999985</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>33.172628559581518</v>
+        <v>24.626005759498636</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>12.463952133353564</v>
+        <v>4.6168837569422436</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>20.333766362977158</v>
+        <v>10.662804789988204</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>5.3696475624999983E-2</v>
+        <v>0.77753420484099978</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>14.153827452405878</v>
+        <v>9.1837635732562397</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>0.23172499999999996</v>
+        <v>0.88177899999999987</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7635,46 +7616,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>4.9330980000000002</v>
+        <v>6.9872459999999998</v>
       </c>
       <c r="I53">
-        <v>5.3281619999999998</v>
+        <v>5.9716139999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>0.39506399999999964</v>
+        <v>-1.0156320000000001</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7666554351851849</v>
+        <v>-4.2809326481481476</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1643082870370369</v>
+        <v>-1.3333134999999983</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>33.254314908150832</v>
+        <v>18.326384337980713</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>17.34146350948534</v>
+        <v>1.7777248892822455</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>24.014131017228834</v>
+        <v>5.7078252923666675</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>0.15607556409599971</v>
+        <v>1.0315083594240002</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>14.207202495361344</v>
+        <v>5.5175449619702421</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>0.39506399999999964</v>
+        <v>1.0156320000000001</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7702,46 +7683,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>6.2262630000000003</v>
+        <v>8.2935210000000001</v>
       </c>
       <c r="I54">
-        <v>7.0873920000000004</v>
+        <v>7.3243400000000003</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>0.86112900000000003</v>
+        <v>-0.96918099999999985</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-4.0074254351851843</v>
+        <v>-2.928206648148147</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8711432870370368</v>
+        <v>-2.7038499999997967E-2</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>16.059458618569163</v>
+        <v>8.5743941742590053</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>8.2434637746978403</v>
+        <v>7.3108048224989003E-4</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>11.505892636533417</v>
+        <v>7.9174315455947719E-2</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.74154315464100007</v>
+        <v>0.93931181076099968</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>4.0401574340930075</v>
+        <v>0.99245329218024569</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>0.86112900000000003</v>
+        <v>0.96918099999999985</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7769,46 +7750,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>7.5342890000000002</v>
+        <v>7.9591609999999999</v>
       </c>
       <c r="I55">
-        <v>8.8406249999999993</v>
+        <v>8.8320469999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>1.3063359999999991</v>
+        <v>0.87288599999999938</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-2.2541924351851854</v>
+        <v>-1.420499648148148</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5631172870370369</v>
+        <v>-0.36139849999999818</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>5.0813835348461165</v>
+        <v>2.0178192503890124</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>2.4433356530340262</v>
+        <v>0.1306088758022487</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>3.5235671637460788</v>
+        <v>0.51336644209126592</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>1.7065137448959975</v>
+        <v>0.76192996899599896</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>6.5936629372397623E-2</v>
+        <v>0.26161946265625124</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>1.3063359999999991</v>
+        <v>0.87288599999999938</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7836,46 +7817,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>9.3448139999999995</v>
+        <v>9.12744</v>
       </c>
       <c r="I56">
-        <v>10.805914</v>
+        <v>11.221339</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>1.4611000000000001</v>
+        <v>2.0938990000000004</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>-0.28890343518518513</v>
+        <v>0.96879235185185308</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.24740771296296238</v>
+        <v>0.80688050000000189</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>8.3465194861800471E-2</v>
+        <v>0.93855862100664467</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>6.1210576433563584E-2</v>
+        <v>0.65105614128025302</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>-7.1476938166310094E-2</v>
+        <v>0.78169965725840096</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>2.1348132100000003</v>
+        <v>4.3844130222010014</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>2.9189986052539325</v>
+        <v>8.4145217076202634</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>1.4611000000000001</v>
+        <v>2.0938990000000004</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7903,46 +7884,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>11.341475000000001</v>
+        <v>9.9504699999999993</v>
       </c>
       <c r="I57">
-        <v>15.333819</v>
+        <v>13.324306</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>3.9923439999999992</v>
+        <v>3.3738360000000007</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>4.2390015648148154</v>
+        <v>3.0717593518518527</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>2.2440687129629637</v>
+        <v>1.6299105000000012</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>17.969134266502454</v>
+        <v>9.4357055156893139</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>5.0358443884992523</v>
+        <v>2.6566082380102536</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>9.5126107858019715</v>
+        <v>5.0066928210565322</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>15.938810614335994</v>
+        <v>11.382769354896006</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>38.892843526406061</v>
+        <v>25.037479036262269</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>3.9923439999999992</v>
+        <v>3.3738360000000007</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7970,46 +7951,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>13.801539999999999</v>
+        <v>11.465539</v>
       </c>
       <c r="I58">
-        <v>19.290593999999999</v>
+        <v>16.180609</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>5.4890539999999994</v>
+        <v>4.7150700000000008</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>8.195776564814814</v>
+        <v>5.9280623518518532</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>4.7041337129629621</v>
+        <v>3.1449795000000016</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>67.170753500367709</v>
+        <v>35.141923247443323</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>22.128873989434705</v>
+        <v>9.8908960554202601</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>38.554028842457143</v>
+        <v>18.643634571295873</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>30.129713814915995</v>
+        <v>22.231885104900009</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>103.9010757516991</v>
+        <v>61.780378142450289</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>5.4890539999999994</v>
+        <v>4.7150700000000008</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8037,46 +8018,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>14.611623</v>
+        <v>11.383589000000001</v>
       </c>
       <c r="I59">
-        <v>19.834306999999999</v>
+        <v>15.435485</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>5.2226839999999992</v>
+        <v>4.0518959999999993</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>8.7394895648148143</v>
+        <v>5.1829383518518526</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>5.5142167129629627</v>
+        <v>3.0630295000000025</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>76.378677853507028</v>
+        <v>26.862849959096799</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>30.406585957520061</v>
+        <v>9.3821497178702646</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>48.191439421067258</v>
+        <v>15.875493068403618</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>27.276428163855993</v>
+        <v>16.417861194815995</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>115.28103692002456</v>
+        <v>50.622164870550279</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>5.2226839999999992</v>
+        <v>4.0518959999999993</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8104,46 +8085,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>13.445843</v>
+        <v>10.278784</v>
       </c>
       <c r="I60">
-        <v>15.202292</v>
+        <v>13.738193000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>1.7564489999999999</v>
+        <v>3.4594090000000008</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>4.1074745648148152</v>
+        <v>3.4856463518518535</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>4.3484367129629629</v>
+        <v>1.9582245000000018</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>16.871347300600657</v>
+        <v>12.149730490178134</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>18.908901846644138</v>
+        <v>3.8346431924002573</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>17.861093195202312</v>
+        <v>6.8256780845319263</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>3.0851130896009997</v>
+        <v>11.967510629281007</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>37.269629568339305</v>
+        <v>29.350752740322278</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>1.7564489999999999</v>
+        <v>3.4594090000000008</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8171,46 +8152,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>11.683187</v>
+        <v>9.2576269999999994</v>
       </c>
       <c r="I61">
-        <v>12.222011</v>
+        <v>11.838914000000001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>0.53882399999999997</v>
+        <v>2.5812870000000014</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.1271935648148155</v>
+        <v>1.5863673518518535</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>2.5857807129629631</v>
+        <v>0.93706750000000127</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>1.2705653325599315</v>
+        <v>2.5165613750214626</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>6.6862618955312501</v>
+        <v>0.87809549955625243</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>2.9146753796741174</v>
+        <v>1.4865332884814388</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>0.29033130297599996</v>
+        <v>6.6630425763690075</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>9.7631546122703607</v>
+        <v>12.37881838767027</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>0.53882399999999997</v>
+        <v>2.5812870000000014</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8238,46 +8219,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>8.5646529999999998</v>
+        <v>7.7195650000000002</v>
       </c>
       <c r="I62">
-        <v>9.9835840000000005</v>
+        <v>8.3758119999999998</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>1.4189310000000006</v>
+        <v>0.65624699999999958</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-1.1112334351851842</v>
+        <v>-1.8767346481481475</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-0.53275328703703728</v>
+        <v>-0.60099449999999788</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>1.2348397474734651</v>
+        <v>3.5221329395597509</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>0.28382606484876782</v>
+        <v>0.36119438903024748</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>0.59201326526036546</v>
+        <v>1.1279072014964679</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>2.0133651827610017</v>
+        <v>0.43066012500899947</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>0.78531093895226822</v>
+        <v>3.0528387562501883E-3</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>1.4189310000000006</v>
+        <v>0.65624699999999958</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8305,46 +8286,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>6.6228540000000002</v>
+        <v>7.3529270000000002</v>
       </c>
       <c r="I63">
-        <v>8.0302419999999994</v>
+        <v>7.792554</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1.4073879999999992</v>
+        <v>0.43962699999999977</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0645754351851853</v>
+        <v>-2.4599926481481473</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4745522870370369</v>
+        <v>-0.9676324999999979</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>9.3916225979404668</v>
+        <v>6.0515638289429345</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>6.1234090212802297</v>
+        <v>0.93631265505624595</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>7.5834521519350231</v>
+        <v>2.380368836109207</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>1.9807409825439977</v>
+        <v>0.19327189912899981</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>1.1388396155272691</v>
+        <v>0.278789808030248</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>1.4073879999999992</v>
+        <v>0.43962699999999977</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8372,46 +8353,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6.1632559999999996</v>
+        <v>6.8661390000000004</v>
       </c>
       <c r="I64">
-        <v>6.7544029999999999</v>
+        <v>6.7203629999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>0.59114700000000031</v>
+        <v>-0.14577600000000057</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-4.3404144351851848</v>
+        <v>-3.5321836481481474</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9341502870370375</v>
+        <v>-1.4544204999999977</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>18.839197469163928</v>
+        <v>12.476321324245156</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>8.6092379069195299</v>
+        <v>2.1153389908202431</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>12.735428260858312</v>
+        <v>5.1372803076314444</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>0.34945477560900035</v>
+        <v>2.1250642176000166E-2</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>5.4896644030663611</v>
+        <v>2.5606288386122444</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>0.59114700000000031</v>
+        <v>0.14577600000000057</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8439,46 +8420,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>7.1589320000000001</v>
+        <v>7.2088080000000003</v>
       </c>
       <c r="I65">
-        <v>7.7837420000000002</v>
+        <v>7.6048359999999997</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>0.62481000000000009</v>
+        <v>0.39602799999999938</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3110754351851845</v>
+        <v>-2.6477106481481476</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9384742870370371</v>
+        <v>-1.1117514999999978</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>10.963220537486759</v>
+        <v>7.0103716763170842</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>3.7576825615037492</v>
+        <v>1.235991397752245</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>6.418434593546448</v>
+        <v>2.9435962846446695</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>0.3903875361000001</v>
+        <v>0.1568381767839995</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>1.7257138590365266</v>
+        <v>0.51226012845224767</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>0.62481000000000009</v>
+        <v>0.39602799999999938</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8506,46 +8487,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>8.030621</v>
+        <v>7.791366</v>
       </c>
       <c r="I66">
-        <v>9.1715890000000009</v>
+        <v>8.8436210000000006</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>1.1409680000000009</v>
+        <v>1.0522550000000006</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1.9232284351851838</v>
+        <v>-1.4089256481481467</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0667852870370371</v>
+        <v>-0.5291934999999981</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>3.6988076139048509</v>
+        <v>1.9850714820096753</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1.1380308486386936</v>
+        <v>0.28004576044224799</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>2.0516717982668182</v>
+        <v>0.74559429498328356</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.3018079770240021</v>
+        <v>1.1072405850250013</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>5.5030749025454699E-3</v>
+        <v>0.27359333278225262</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>1.1409680000000009</v>
+        <v>1.0522550000000006</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8573,46 +8554,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>7.9749340000000002</v>
+        <v>7.9396639999999996</v>
       </c>
       <c r="I67">
-        <v>10.332568999999999</v>
+        <v>10.058611000000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>2.3576349999999993</v>
+        <v>2.1189470000000012</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-0.76224843518518526</v>
+        <v>-0.19393564814814646</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1224722870370369</v>
+        <v>-0.3808954999999985</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>0.58102267694226362</v>
+        <v>3.7611035622641661E-2</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>1.2599440351661562</v>
+        <v>0.14508138192024886</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.85560274433271755</v>
+        <v>7.3869215669212021E-2</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>5.5584427932249962</v>
+        <v>4.4899363888090056</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>1.5256269274940253</v>
+        <v>3.0208230166522596</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>2.3576349999999993</v>
+        <v>2.1189470000000012</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8640,46 +8621,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>10.324871</v>
+        <v>9.6000589999999999</v>
       </c>
       <c r="I68">
-        <v>13.706182999999999</v>
+        <v>13.074730000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>3.3813119999999994</v>
+        <v>3.4746710000000007</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>2.6113655648148146</v>
+        <v>2.8221833518518533</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.2274647129629628</v>
+        <v>1.2794995000000018</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>6.8192301131005957</v>
+        <v>7.9647188714697617</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>1.5066696215692486</v>
+        <v>1.6371189705002547</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>3.2053590834567816</v>
+        <v>3.6109821876027755</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>11.433270841343996</v>
+        <v>12.073338558241005</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>21.240822789949686</v>
+        <v>22.602137143070273</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>3.3813119999999994</v>
+        <v>3.4746710000000007</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8707,46 +8688,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>13.153845</v>
+        <v>11.241293000000001</v>
       </c>
       <c r="I69">
-        <v>17.640868999999999</v>
+        <v>16.857534000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>4.4870239999999981</v>
+        <v>5.6162410000000005</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>6.5460515648148139</v>
+        <v>6.6049873518518538</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>4.0564387129629633</v>
+        <v>2.9207335000000025</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>42.850791089214475</v>
+        <v>43.625857918122968</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>16.454695032024624</v>
+        <v>8.5306841780222644</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>26.553656984566597</v>
+        <v>19.291407825630014</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>20.133384376575982</v>
+        <v>31.542162970081005</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>72.990755127788447</v>
+        <v>72.879933613650309</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>4.4870239999999981</v>
+        <v>5.6162410000000005</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8774,46 +8755,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>14.664453999999999</v>
+        <v>11.402308</v>
       </c>
       <c r="I70">
-        <v>19.424499999999998</v>
+        <v>18.027048000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>4.7600459999999991</v>
+        <v>6.624740000000001</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>8.3296825648148136</v>
+        <v>7.7745013518518533</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>5.5670477129629621</v>
+        <v>3.0817485000000016</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>69.383611630579892</v>
+        <v>60.442871269946295</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>30.992020238406148</v>
+        <v>9.4971738172522588</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>46.371740272159769</v>
+        <v>23.959057879317434</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>22.658037922115991</v>
+        <v>43.887180067600013</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>106.64886455631913</v>
+        <v>94.215919000632297</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>4.7600459999999991</v>
+        <v>6.624740000000001</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8841,46 +8822,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>15.643188</v>
+        <v>11.342434000000001</v>
       </c>
       <c r="I71">
-        <v>19.429907</v>
+        <v>17.185048999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>3.7867189999999997</v>
+        <v>5.8426149999999986</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>8.3350895648148153</v>
+        <v>6.932502351851852</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>6.5457817129629632</v>
+        <v>3.0218745000000027</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>69.473718053484831</v>
+        <v>48.059588858431461</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>42.847258233760343</v>
+        <v>9.1317254937502668</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>54.559676849273238</v>
+        <v>20.949152078251156</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>14.339240784960998</v>
+        <v>34.136150038224983</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>106.76057098338013</v>
+        <v>78.57917409561027</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>3.7867189999999997</v>
+        <v>5.8426149999999986</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8908,46 +8889,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>14.541834</v>
+        <v>9.5645150000000001</v>
       </c>
       <c r="I72">
-        <v>16.769477999999999</v>
+        <v>14.390521</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>2.2276439999999997</v>
+        <v>4.8260059999999996</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>5.6746605648148147</v>
+        <v>4.1379743518518524</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>5.4444277129629626</v>
+        <v>1.243955500000002</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>32.201772525864392</v>
+        <v>17.122831736583759</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>29.641793121679115</v>
+        <v>1.5474252859802549</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>30.895279240735835</v>
+        <v>5.1474559538450553</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>4.9623977907359986</v>
+        <v>23.290333912035997</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>58.860684368846442</v>
+        <v>36.844432611482269</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>2.2276439999999997</v>
+        <v>4.8260059999999996</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8975,46 +8956,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>12.898694000000001</v>
+        <v>8.7361509999999996</v>
       </c>
       <c r="I73">
-        <v>14.072948999999999</v>
+        <v>11.777958</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>1.1742549999999987</v>
+        <v>3.0418070000000004</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>2.9781315648148148</v>
+        <v>1.5254113518518526</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>3.8012877129629636</v>
+        <v>0.41559150000000145</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>8.8692676173463365</v>
+        <v>2.3268797923584965</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>14.449788276723199</v>
+        <v>0.17271629487225121</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>11.320734924917719</v>
+        <v>0.63394799183314143</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>1.378874805024997</v>
+        <v>9.252589825249002</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>24.756025288518835</v>
+        <v>11.953604387802262</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>1.1742549999999987</v>
+        <v>3.0418070000000004</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9042,46 +9023,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>7.31968</v>
+        <v>6.5638719999999999</v>
       </c>
       <c r="I74">
-        <v>9.2432739999999995</v>
+        <v>8.0507980000000003</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>1.9235939999999996</v>
+        <v>1.4869260000000004</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-1.8515434351851852</v>
+        <v>-2.201748648148147</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-1.7777262870370372</v>
+        <v>-1.7566874999999982</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>3.4282130923773559</v>
+        <v>4.8476971096221924</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>3.1603107516224904</v>
+        <v>3.0859509726562435</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>3.2915374363195604</v>
+        <v>3.8677843283437441</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>3.7002138768359982</v>
+        <v>2.2109489294760012</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>2.1277389685045195E-2</v>
+        <v>7.2771266882248789E-2</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>1.9235939999999996</v>
+        <v>1.4869260000000004</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9109,46 +9090,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>5.7434649999999996</v>
+        <v>7.0123899999999999</v>
       </c>
       <c r="I75">
-        <v>7.8496639999999998</v>
+        <v>7.1561149999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>2.1061990000000002</v>
+        <v>0.14372499999999988</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>-3.245153435185185</v>
+        <v>-3.0964316481481475</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-3.3539412870370375</v>
+        <v>-1.3081694999999982</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>10.531020817894206</v>
+        <v>9.5878889516534525</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>11.248922156891659</v>
+        <v>1.7113074407302453</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>10.884054089037663</v>
+        <v>4.0506574409421328</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>4.4360742276010008</v>
+        <v>2.0656875624999967E-2</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>1.5568608148604166</v>
+        <v>1.3559309935802462</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>2.1061990000000002</v>
+        <v>0.14372499999999988</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9176,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>4.6946380000000003</v>
+        <v>5.6570869999999998</v>
       </c>
       <c r="I76">
-        <v>6.3295029999999999</v>
+        <v>6.2070230000000004</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>1.6348649999999996</v>
+        <v>0.54993600000000065</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>-4.7653144351851848</v>
+        <v>-4.0455236481481469</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-4.4027682870370368</v>
+        <v>-2.6634724999999984</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>22.708221666184297</v>
+        <v>16.366261587725891</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>19.384368589339044</v>
+        <v>7.0940857582562415</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>20.980575272993139</v>
+        <v>10.775140984942258</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>2.6727835682249985</v>
+        <v>0.30242960409600073</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>7.6612886063904355</v>
+        <v>4.4670365368322402</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>1.6348649999999996</v>
+        <v>0.54993600000000065</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9243,46 +9224,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6.1495290000000002</v>
+        <v>6.888007</v>
       </c>
       <c r="I77">
-        <v>7.4234200000000001</v>
+        <v>7.2024429999999997</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>1.2738909999999999</v>
+        <v>0.31443599999999972</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>-3.6713974351851846</v>
+        <v>-3.0501036481481476</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9478772870370369</v>
+        <v>-1.4325524999999981</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>13.479159127084351</v>
+        <v>9.3031322644466385</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>8.6899804994288399</v>
+        <v>2.0522066652562447</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>10.822829110868437</v>
+        <v>4.3694336064137431</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>1.6227982798809997</v>
+        <v>9.886999809599982E-2</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>2.8022300891880452</v>
+        <v>1.2501845075722464</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>1.2738909999999999</v>
+        <v>0.31443599999999972</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9310,46 +9291,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>5.941427</v>
+        <v>6.7150550000000004</v>
       </c>
       <c r="I78">
-        <v>7.8133689999999998</v>
+        <v>7.5207629999999996</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>1.8719419999999998</v>
+        <v>0.8057079999999992</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>-3.2814484351851849</v>
+        <v>-2.7317836481481477</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>-3.1559792870370371</v>
+        <v>-1.6055044999999977</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>10.767903832779298</v>
+        <v>7.4626419002896025</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>9.9602052602068056</v>
+        <v>2.5776446995202424</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>10.356183292924541</v>
+        <v>4.3858909401282613</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>3.504166851363999</v>
+        <v>0.6491653812639987</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>1.648751754501435</v>
+        <v>0.6396744414122475</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>1.8719419999999998</v>
+        <v>0.8057079999999992</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9377,46 +9358,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>8.7040319999999998</v>
+        <v>8.4107599999999998</v>
       </c>
       <c r="I79">
-        <v>10.50104</v>
+        <v>10.099689</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>1.7970079999999999</v>
+        <v>1.6889289999999999</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-0.593777435185185</v>
+        <v>-0.15285764814814762</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-0.39337428703703736</v>
+        <v>9.0200500000001682E-2</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>0.3525716425350966</v>
+        <v>2.3365460597382898E-2</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>0.15474332970189747</v>
+        <v>8.1361302002503043E-3</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>0.23357677522465281</v>
+        <v>-1.3787836291787247E-2</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>3.2292377520639999</v>
+        <v>2.8524811670409997</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>1.9701876001661924</v>
+        <v>3.1653017777702557</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>1.7970079999999999</v>
+        <v>1.6889289999999999</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9444,46 +9425,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>10.067416</v>
+        <v>9.2092290000000006</v>
       </c>
       <c r="I80">
-        <v>12.243783000000001</v>
+        <v>12.167942999999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>2.1763670000000008</v>
+        <v>2.9587139999999987</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>1.1489655648148158</v>
+        <v>1.915396351851852</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>0.97000971296296257</v>
+        <v>0.88866950000000244</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>1.3201218691302288</v>
+        <v>3.6687431846873837</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>0.94091884324248898</v>
+        <v>0.78973348023025436</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>1.1145077577303477</v>
+        <v>1.702154318302014</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>4.736573318689004</v>
+        <v>8.753988533795992</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>9.8996864198756214</v>
+        <v>14.80235979607226</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>2.1763670000000008</v>
+        <v>2.9587139999999987</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9511,46 +9492,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>11.964162</v>
+        <v>10.318377</v>
       </c>
       <c r="I81">
-        <v>16.326910000000002</v>
+        <v>14.868748</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>4.3627480000000016</v>
+        <v>4.5503710000000002</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>5.2320925648148169</v>
+        <v>4.6162013518518528</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>2.8667557129629628</v>
+        <v>1.9978175000000018</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>27.374792606790489</v>
+        <v>21.309314920838872</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>8.2182883178057846</v>
+        <v>3.9912747633062571</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>14.999131250933917</v>
+        <v>9.2223278442532965</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>19.033570111504016</v>
+        <v>20.705876237641</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>52.265723935745292</v>
+        <v>42.878772631532279</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>4.3627480000000016</v>
+        <v>4.5503710000000002</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9578,46 +9559,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>13.328908</v>
+        <v>10.796206</v>
       </c>
       <c r="I82">
-        <v>18.894119</v>
+        <v>16.696805999999999</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>5.5652109999999997</v>
+        <v>5.900599999999999</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>7.7993015648148152</v>
+        <v>6.4442593518518514</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>4.2315017129629631</v>
+        <v>2.4756465000000016</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>60.829104898922822</v>
+        <v>41.528478593930046</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>17.905606746808491</v>
+        <v>6.1288255929622579</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>33.002757931428611</v>
+        <v>15.953708109504316</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>30.971573474520998</v>
+        <v>34.817080359999984</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>95.975579980330139</v>
+        <v>70.161505428762254</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>5.5652109999999997</v>
+        <v>5.900599999999999</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9645,46 +9626,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>14.426311</v>
+        <v>11.198941</v>
       </c>
       <c r="I83">
-        <v>17.526512</v>
+        <v>16.748556000000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>3.1002010000000002</v>
+        <v>5.5496150000000011</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>6.4316945648148156</v>
+        <v>6.4960093518518534</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>5.328904712962963</v>
+        <v>2.8783815000000015</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>41.366694975068441</v>
+        <v>42.198137499346736</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>28.397225439838881</v>
+        <v>8.285080059542258</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>34.273887478779947</v>
+        <v>18.697993142197376</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>9.6112462404010017</v>
+        <v>30.798226648225011</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>71.049823120304865</v>
+        <v>71.031125004012296</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>3.1002010000000002</v>
+        <v>5.5496150000000011</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9712,46 +9693,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>12.98785</v>
+        <v>9.5919190000000008</v>
       </c>
       <c r="I84">
-        <v>14.350834000000001</v>
+        <v>14.161457</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>1.3629840000000009</v>
+        <v>4.5695379999999997</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>3.256016564814816</v>
+        <v>3.9089103518518531</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>3.8904437129629628</v>
+        <v>1.2713595000000026</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>10.601643870348475</v>
+        <v>15.279580138814579</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>15.135552283733043</v>
+        <v>1.6163549782402566</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>12.667349173887064</v>
+        <v>4.969630310475206</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>1.8577253842560024</v>
+        <v>20.880677533443997</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>27.598502735327276</v>
+        <v>34.116083605506276</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>1.3629840000000009</v>
+        <v>4.5695379999999997</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9779,46 +9760,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>9.934984</v>
+        <v>9.3302370000000003</v>
       </c>
       <c r="I85">
-        <v>11.847716</v>
+        <v>11.1876</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>1.9127320000000001</v>
+        <v>1.8573629999999994</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>0.75289856481481543</v>
+        <v>0.93505335185185245</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>0.83757771296296291</v>
+        <v>1.0096775000000022</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>0.5668562489002088</v>
+        <v>0.8743247708093842</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>0.70153642525226745</v>
+        <v>1.0194486540062544</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>0.63061105801069017</v>
+        <v>0.94410233066440086</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>3.6585437038240003</v>
+        <v>3.4497973137689977</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>7.5642035172184157</v>
+        <v>8.2199212286402599</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1.9127320000000001</v>
+        <v>1.8573629999999994</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9846,46 +9827,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>7.9788480000000002</v>
+        <v>7.3961160000000001</v>
       </c>
       <c r="I86">
-        <v>10.713042</v>
+        <v>9.3414070000000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>2.7341939999999996</v>
+        <v>1.9452910000000001</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-0.38177543518518497</v>
+        <v>-0.91113964814814707</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>-1.118558287037037</v>
+        <v>-0.92444349999999798</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>0.14575248291083737</v>
+        <v>0.83017545842752927</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>1.2511726414992304</v>
+        <v>0.85459578469224629</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>0.42703807681355982</v>
+        <v>0.84229712532283973</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>7.4758168296359973</v>
+        <v>3.7841570746810005</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>2.6102787570013404</v>
+        <v>1.0421296182562543</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>2.7341939999999996</v>
+        <v>1.9452910000000001</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9913,46 +9894,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.2013769999999999</v>
+        <v>4.6604169999999998</v>
       </c>
       <c r="I87">
-        <v>6.493347</v>
+        <v>6.1767459999999996</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>2.2919700000000001</v>
+        <v>1.5163289999999998</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-4.6014704351851847</v>
+        <v>-4.0758006481481477</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-4.8960292870370372</v>
+        <v>-3.6601424999999983</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>21.173530165883335</v>
+        <v>16.612150923444862</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>23.971102779524401</v>
+        <v>13.396643120306237</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>22.528934014101726</v>
+        <v>14.918011173814575</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>5.2531264809000007</v>
+        <v>2.2992536362409997</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>6.7811247704038422</v>
+        <v>4.5959363227822436</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>2.2919700000000001</v>
+        <v>1.5163289999999998</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9980,46 +9961,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>3.6497480000000002</v>
+        <v>4.879537</v>
       </c>
       <c r="I88">
-        <v>4.2790330000000001</v>
+        <v>4.7506050000000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>0.62928499999999987</v>
+        <v>-0.12893199999999982</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-6.8157844351851846</v>
+        <v>-5.5019416481481471</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-5.4476582870370365</v>
+        <v>-3.4410224999999981</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>46.454917466912626</v>
+        <v>30.271361899627149</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>29.676980812323297</v>
+        <v>11.840635845506236</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>37.130064560994619</v>
+        <v>18.932305004964846</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>0.39599961122499983</v>
+        <v>1.6623460623999955E-2</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>23.216721133232102</v>
+        <v>12.744575132070235</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>0.62928499999999987</v>
+        <v>0.12893199999999982</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10047,46 +10028,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>4.9159410000000001</v>
+        <v>6.8162089999999997</v>
       </c>
       <c r="I89">
-        <v>5.7391360000000002</v>
+        <v>6.3771940000000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>0.82319500000000012</v>
+        <v>-0.43901499999999949</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3556814351851845</v>
+        <v>-3.8753526481481471</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>-4.181465287037037</v>
+        <v>-1.5043504999999984</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>28.683323635187236</v>
+        <v>15.018358147508856</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>17.484651946695731</v>
+        <v>2.2630704268502453</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>22.394596009655547</v>
+        <v>5.829888693917983</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>0.67765000802500019</v>
+        <v>0.19273417022499956</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>11.277979320795822</v>
+        <v>3.7766694665902416</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>0.82319500000000012</v>
+        <v>0.43901499999999949</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10114,46 +10095,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>5.6630929999999999</v>
+        <v>8.2242040000000003</v>
       </c>
       <c r="I90">
-        <v>6.6877690000000003</v>
+        <v>7.0906229999999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>1.0246760000000004</v>
+        <v>-1.1335810000000004</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>-4.4070484351851844</v>
+        <v>-3.1619236481481474</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>-3.4343132870370372</v>
+        <v>-9.6355499999997818E-2</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>19.422075910068184</v>
+        <v>9.9977611567184894</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>11.79450775351914</v>
+        <v>9.2843823802495791E-3</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>15.135184997572262</v>
+        <v>0.30466873407913192</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>1.0499609049760008</v>
+        <v>1.285005883561001</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>5.8063518550792113</v>
+        <v>1.5127437940322457</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>1.0246760000000004</v>
+        <v>1.1335810000000004</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10181,46 +10162,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>6.4027180000000001</v>
+        <v>7.5915020000000002</v>
       </c>
       <c r="I91">
-        <v>8.1786799999999999</v>
+        <v>8.3418410000000005</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>1.7759619999999998</v>
+        <v>0.75033900000000031</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>-2.9161374351851848</v>
+        <v>-1.9107056481481468</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>-2.694688287037037</v>
+        <v>-0.72905749999999792</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>8.5038575408884274</v>
+        <v>3.6507960738652296</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>7.2613449642946009</v>
+        <v>0.53152483830624697</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>7.8580813899837443</v>
+        <v>1.3930142830747636</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>3.1540410254439992</v>
+        <v>0.56300861492100052</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>0.84405799049286045</v>
+        <v>4.5290224225010196E-4</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>1.7759619999999998</v>
+        <v>0.75033900000000031</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10248,46 +10229,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>8.4522290000000009</v>
+        <v>8.8253439999999994</v>
       </c>
       <c r="I92">
-        <v>10.853664</v>
+        <v>10.444659</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>2.4014349999999993</v>
+        <v>1.6193150000000003</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>-0.24115343518518451</v>
+        <v>0.19211235185185238</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>-0.64517728703703625</v>
+        <v>0.5047845000000013</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>5.8154979301614985E-2</v>
+        <v>3.6907155734049929E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>0.41625373170847024</v>
+        <v>0.25480739144025133</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>0.15558671907243909</v>
+        <v>9.6975337473361622E-2</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>5.7668900592249965</v>
+        <v>2.6221810692250007</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>3.0844411543418975</v>
+        <v>4.5117986859002563</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>2.4014349999999993</v>
+        <v>1.6193150000000003</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10315,46 +10296,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>10.349615999999999</v>
+        <v>9.7733360000000005</v>
       </c>
       <c r="I93">
-        <v>14.339339000000001</v>
+        <v>13.197846</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>3.9897230000000015</v>
+        <v>3.4245099999999997</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>3.244521564814816</v>
+        <v>2.9452993518518529</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>1.2522097129629621</v>
+        <v>1.4527765000000024</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>10.526920184548382</v>
+        <v>8.6747882720189455</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>1.5680291652387841</v>
+        <v>2.1105595589522568</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>4.0628214173789017</v>
+        <v>4.2788616838356104</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>15.917889616729012</v>
+        <v>11.727268740099998</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>27.477858567231255</v>
+        <v>23.78792360308227</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>3.9897230000000015</v>
+        <v>3.4245099999999997</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10382,46 +10363,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>13.698544</v>
+        <v>11.41417</v>
       </c>
       <c r="I94">
-        <v>18.666298000000001</v>
+        <v>16.418118</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>4.9677540000000011</v>
+        <v>5.0039479999999994</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>7.5714805648148165</v>
+        <v>6.1655713518518525</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>4.6011377129629629</v>
+        <v>3.0936105000000023</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>57.327317943368492</v>
+        <v>38.014270094776279</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>21.170468253650046</v>
+        <v>9.5704259257102642</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>34.83742476973557</v>
+        <v>19.073876272588098</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>24.678579804516012</v>
+        <v>25.039495586703993</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>91.563688614411291</v>
+        <v>65.570453660922283</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>4.9677540000000011</v>
+        <v>5.0039479999999994</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10449,46 +10430,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>15.254111</v>
+        <v>11.607586</v>
       </c>
       <c r="I95">
-        <v>18.377521999999999</v>
+        <v>14.948691</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>3.123410999999999</v>
+        <v>3.3411050000000007</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>7.2827045648148143</v>
+        <v>4.6961443518518529</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>6.1567047129629628</v>
+        <v>3.2870265000000014</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>53.037785778374534</v>
+        <v>22.053771773430061</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>37.905012922620358</v>
+        <v>10.80454321170226</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>44.837461517312249</v>
+        <v>15.436350932362371</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>9.7556962749209948</v>
+        <v>11.162982621025005</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>86.120547645982057</v>
+        <v>43.93212718129228</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>3.123410999999999</v>
+        <v>3.3411050000000007</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10516,46 +10497,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>12.884378999999999</v>
+        <v>10.119764999999999</v>
       </c>
       <c r="I96">
-        <v>14.019964</v>
+        <v>12.859022</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>1.1355850000000007</v>
+        <v>2.7392570000000003</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>2.9251465648148152</v>
+        <v>2.6064753518518522</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>3.786972712962962</v>
+        <v>1.7992055000000011</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>8.5564824256479142</v>
+        <v>6.7937137598112365</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>14.341162328726057</v>
+        <v>3.2371404312302539</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>11.077450222371048</v>
+        <v>4.6895847886662905</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>1.2895532922250017</v>
+        <v>7.5035289120490019</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>24.231574437451155</v>
+        <v>20.597641863906262</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>1.1355850000000007</v>
+        <v>2.7392570000000003</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10583,46 +10564,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>10.590356999999999</v>
+        <v>9.1903980000000001</v>
       </c>
       <c r="I97">
-        <v>11.267341</v>
+        <v>10.140311000000001</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>0.67698400000000092</v>
+        <v>0.94991300000000045</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>0.17252356481481534</v>
+        <v>-0.11223564814814679</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>1.492950712962962</v>
+        <v>0.86983850000000196</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>2.976438041641179E-2</v>
+        <v>1.2596840715234607E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>2.2289018313366165</v>
+        <v>0.75661901608225346</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>0.25756917909319038</v>
+        <v>-9.7626887831712E-2</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>0.45830733625600123</v>
+        <v>0.9023347075690008</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>4.708616658521656</v>
+        <v>3.3114955217522586</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>0.67698400000000092</v>
+        <v>0.94991300000000045</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10650,46 +10631,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7.8114949999999999</v>
+        <v>7.5776729999999999</v>
       </c>
       <c r="I98">
-        <v>9.4617199999999997</v>
+        <v>7.9655129999999996</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>1.6502249999999998</v>
+        <v>0.38783999999999974</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>-1.633097435185185</v>
+        <v>-2.2870336481481477</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>-1.2859112870370373</v>
+        <v>-0.74288649999999823</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>2.6670072328084298</v>
+        <v>5.2305229077618254</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>1.6535678381292496</v>
+        <v>0.55188035188224738</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>2.100018424735866</v>
+        <v>1.699006422255005</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>2.7232425506249993</v>
+        <v>0.15041986559999979</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>0.13272448145285987</v>
+        <v>0.12605801716224893</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>1.6502249999999998</v>
+        <v>0.38783999999999974</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10717,46 +10698,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>5.5548159999999998</v>
+        <v>5.8106280000000003</v>
       </c>
       <c r="I99">
-        <v>6.4049060000000004</v>
+        <v>5.5748559999999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>0.85009000000000068</v>
+        <v>-0.23577200000000076</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-4.6899114351851843</v>
+        <v>-4.6776906481481477</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-3.5425902870370374</v>
+        <v>-2.5099314999999978</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>21.995269269880755</v>
+        <v>21.880789799772639</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>12.54994594180916</v>
+        <v>6.2997561346922391</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>16.614434697350966</v>
+        <v>11.740683105042443</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>0.7226530081000011</v>
+        <v>5.5588435984000359E-2</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>7.2495577956945247</v>
+        <v>7.5388877099122418</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>0.85009000000000068</v>
+        <v>0.23577200000000076</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10784,46 +10765,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5.4601150000000001</v>
+        <v>6.3695870000000001</v>
       </c>
       <c r="I100">
-        <v>6.5747650000000002</v>
+        <v>6.7227480000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>1.1146500000000001</v>
+        <v>0.35316100000000006</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>-4.5200524351851845</v>
+        <v>-3.5297986481481471</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>-3.6372912870370371</v>
+        <v>-1.950972499999998</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>20.430874016823516</v>
+        <v>12.459478496468487</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>13.229887906755545</v>
+        <v>3.8062936957562421</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>16.440747339449615</v>
+        <v>6.8865400930742036</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>1.2424446225000003</v>
+        <v>0.12472269192100004</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>6.3637190630638782</v>
+        <v>2.5530015895322435</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>1.1146500000000001</v>
+        <v>0.35316100000000006</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10851,46 +10832,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>4.7591939999999999</v>
+        <v>5.5549609999999996</v>
       </c>
       <c r="I101">
-        <v>5.9763390000000003</v>
+        <v>6.0133390000000002</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>1.2171450000000004</v>
+        <v>0.45837800000000062</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-5.1184784351851844</v>
+        <v>-4.2392076481481471</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-4.3382122870370372</v>
+        <v>-2.7655984999999985</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>26.198821491455774</v>
+        <v>17.970881484117744</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>18.82008584739912</v>
+        <v>7.6485350632022415</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>22.205046038454473</v>
+        <v>11.723946312907037</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>1.481441951025001</v>
+        <v>0.21011039088400058</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>9.7410610102127286</v>
+        <v>5.3232664356202406</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>1.2171450000000004</v>
+        <v>0.45837800000000062</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10918,46 +10899,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>5.4963189999999997</v>
+        <v>6.5634100000000002</v>
       </c>
       <c r="I102">
-        <v>7.1298199999999996</v>
+        <v>7.0182650000000004</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>1.6335009999999999</v>
+        <v>0.45485500000000023</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-3.9649974351851851</v>
+        <v>-3.2342816481481469</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-3.6010872870370374</v>
+        <v>-1.7571494999999979</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>15.721204661025096</v>
+        <v>10.460577779547894</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>12.96782964885977</v>
+        <v>3.0875743653502425</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>14.27830185697983</v>
+        <v>5.6831163809026854</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>2.6683255170009996</v>
+        <v>0.20689307102500021</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>3.8713957969361954</v>
+        <v>1.6959709647302439</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>1.6335009999999999</v>
+        <v>0.45485500000000023</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10985,46 +10966,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>7.1801069999999996</v>
+        <v>7.7157220000000004</v>
       </c>
       <c r="I103">
-        <v>8.4933680000000003</v>
+        <v>8.6028570000000002</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>1.3132610000000007</v>
+        <v>0.88713499999999978</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>-2.6014494351851845</v>
+        <v>-1.6496896481481471</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-1.9172992870370376</v>
+        <v>-0.6048374999999977</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>6.7675391638253153</v>
+        <v>2.7214759352071574</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>3.6760365560727326</v>
+        <v>0.36582840140624723</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>4.9877571473434585</v>
+        <v>0.99779416256180109</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>1.7246544541210018</v>
+        <v>0.78700850822499957</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>0.36486225220663776</v>
+        <v>7.9691878506251174E-2</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>1.3132610000000007</v>
+        <v>0.88713499999999978</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11052,46 +11033,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>9.8347069999999999</v>
+        <v>9.6403280000000002</v>
       </c>
       <c r="I104">
-        <v>11.405948</v>
+        <v>11.752383999999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>1.5712410000000006</v>
+        <v>2.112055999999999</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>0.31113056481481571</v>
+        <v>1.499837351851852</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>0.73730071296296273</v>
+        <v>1.3197685000000021</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>9.6802228361986237E-2</v>
+        <v>2.2495120820099759</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>0.54361234133569314</v>
+        <v>1.7417888935922556</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>0.2293967872625329</v>
+        <v>1.9794380920974941</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>2.4687982800810016</v>
+        <v>4.4607805471359958</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>5.3293648404899727</v>
+        <v>11.777419398800259</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>1.5712410000000006</v>
+        <v>2.112055999999999</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11119,46 +11100,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>11.547197000000001</v>
+        <v>10.070378</v>
       </c>
       <c r="I105">
-        <v>14.580590000000001</v>
+        <v>13.440951999999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>3.0333930000000002</v>
+        <v>3.3705739999999995</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>3.4857725648148161</v>
+        <v>3.188405351851852</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>2.4497907129629635</v>
+        <v>1.7498185000000017</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>12.150610373615661</v>
+        <v>10.165928687717532</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>6.0014745373195852</v>
+        <v>3.0618647829422558</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>8.5394132567844263</v>
+        <v>5.579130670169385</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>9.2014730924490014</v>
+        <v>11.360769089475998</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>30.065303630102314</v>
+        <v>26.218419354056262</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>3.0333930000000002</v>
+        <v>3.3705739999999995</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11186,46 +11167,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>13.799156</v>
+        <v>11.386215999999999</v>
       </c>
       <c r="I106">
-        <v>18.980105999999999</v>
+        <v>16.549931999999998</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>5.1809499999999993</v>
+        <v>5.1637159999999991</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>7.8852885648148145</v>
+        <v>6.297385351851851</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>4.7017497129629628</v>
+        <v>3.0656565000000011</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>62.177775750399277</v>
+        <v>39.65706226971826</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>22.106450363347303</v>
+        <v>9.398249775992257</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>37.074653246248189</v>
+        <v>19.305620336909421</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>26.842242902499994</v>
+        <v>26.663962928655991</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>97.667753616598219</v>
+        <v>67.722571743756248</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>5.1809499999999993</v>
+        <v>5.1637159999999991</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11253,46 +11234,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>14.656934</v>
+        <v>11.27984</v>
       </c>
       <c r="I107">
-        <v>18.686962000000001</v>
+        <v>16.771944000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>4.0300280000000015</v>
+        <v>5.4921040000000012</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>7.5921445648148165</v>
+        <v>6.519397351851854</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>5.5595277129629626</v>
+        <v>2.959280500000002</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>57.640659093047162</v>
+        <v>42.502541831332969</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>30.908348391203187</v>
+        <v>8.7573410776802625</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>42.208738108909102</v>
+        <v>19.292725455086842</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>16.241125680784013</v>
+        <v>30.163206346816015</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>91.95957877202062</v>
+        <v>71.425899966840305</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>4.0300280000000015</v>
+        <v>5.4921040000000012</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11320,46 +11301,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>13.115987000000001</v>
+        <v>9.3914950000000008</v>
       </c>
       <c r="I108">
-        <v>13.893890000000001</v>
+        <v>13.094060000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>0.77790300000000023</v>
+        <v>3.7025649999999999</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>2.799072564814816</v>
+        <v>2.8415133518518534</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>4.0185807129629634</v>
+        <v>1.0709355000000027</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>7.8348072230989922</v>
+        <v>8.0741981287523554</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>16.14899094659792</v>
+        <v>1.1469028451602559</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>11.248299023148594</v>
+        <v>3.043077522222148</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>0.60513307740900035</v>
+        <v>13.708987579224999</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>23.006256008718978</v>
+        <v>22.786307023500274</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>0.77790300000000023</v>
+        <v>3.7025649999999999</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11387,46 +11368,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>11.439418999999999</v>
+        <v>8.5094259999999995</v>
       </c>
       <c r="I109">
-        <v>12.614584000000001</v>
+        <v>10.210146</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>1.1751650000000016</v>
+        <v>1.7007200000000005</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>1.519766564814816</v>
+        <v>-4.2400648148147368E-2</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>2.342012712962962</v>
+        <v>0.18886650000000138</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>2.3096904115290262</v>
+        <v>1.797814963382993E-3</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>5.4850235476801332</v>
+        <v>3.5670554822250525E-2</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>3.5593126155323485</v>
+        <v>-8.008062013472133E-3</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>1.3810127772250036</v>
+        <v>2.8924485184000015</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>12.370539064563383</v>
+        <v>3.5705371409822568</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>1.1751650000000016</v>
+        <v>1.7007200000000005</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11454,46 +11435,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>9.0102639999999994</v>
+        <v>7.3764890000000003</v>
       </c>
       <c r="I110">
-        <v>9.8861899999999991</v>
+        <v>7.540826</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>0.87592599999999976</v>
+        <v>0.16433699999999973</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-1.2086274351851856</v>
+        <v>-2.7117206481481473</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-8.7142287037037747E-2</v>
+        <v>-0.94407049999999781</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>1.4607802770823199</v>
+        <v>7.3534288735930078</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>7.5937781900454766E-3</v>
+        <v>0.89126910897024592</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>0.10532255887774618</v>
+        <v>2.5600554681575396</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>0.76724635747599956</v>
+        <v>2.7006649568999914E-2</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>0.6221797458356364</v>
+        <v>0.60798433102224703</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>0.87592599999999976</v>
+        <v>0.16433699999999973</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11521,46 +11502,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>6.0235209999999997</v>
+        <v>6.0720700000000001</v>
       </c>
       <c r="I111">
-        <v>7.5468070000000003</v>
+        <v>6.1656829999999996</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>1.5232860000000006</v>
+        <v>9.3612999999999502E-2</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>-3.5480104351851844</v>
+        <v>-4.0868636481481477</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-3.0738852870370375</v>
+        <v>-2.248489499999998</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>12.588378048182962</v>
+        <v>16.702454478554788</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>9.4487707578627695</v>
+        <v>5.0557050316102412</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>10.906177074969614</v>
+        <v>9.1892700007927974</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>2.3204002377960018</v>
+        <v>8.7633937689999067E-3</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>2.404358148959767</v>
+        <v>4.6434927302522437</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>1.5232860000000006</v>
+        <v>9.3612999999999502E-2</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59F52A6-F4FE-437F-AA53-889C106E591E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D4D0D-27B4-49CB-932E-90F35057C318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="37905" yWindow="-975" windowWidth="12930" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Monthly simulated v. measured stream temperature for 2010-18 on the MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</a:t>
+              <a:t>Monthly simulated v. measured stream temperature for 2010-18 on the MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751 ver. 373</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -841,331 +841,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.3206389999999999</c:v>
+                  <c:v>6.5227069999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2318449999999999</c:v>
+                  <c:v>6.6070089999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3371760000000004</c:v>
+                  <c:v>6.774267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0442720000000003</c:v>
+                  <c:v>7.4198310000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8795279999999996</c:v>
+                  <c:v>8.5404520000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7755580000000002</c:v>
+                  <c:v>10.450379999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.833072</c:v>
+                  <c:v>13.758582000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.77763</c:v>
+                  <c:v>14.000897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4549669999999999</c:v>
+                  <c:v>11.578806999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5701940000000008</c:v>
+                  <c:v>10.269057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7132050000000003</c:v>
+                  <c:v>7.3639929999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3394360000000001</c:v>
+                  <c:v>5.8827429999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1939770000000003</c:v>
+                  <c:v>5.7665870000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9470260000000001</c:v>
+                  <c:v>5.1467510000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.2958689999999997</c:v>
+                  <c:v>6.3792179999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6962339999999996</c:v>
+                  <c:v>6.802861</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6271440000000004</c:v>
+                  <c:v>8.0566659999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.048902</c:v>
+                  <c:v>9.8968170000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.373708000000001</c:v>
+                  <c:v>12.332447</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.105347</c:v>
+                  <c:v>14.217790000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.037611999999999</c:v>
+                  <c:v>12.554982000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.5145780000000002</c:v>
+                  <c:v>10.250622</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.7189449999999997</c:v>
+                  <c:v>7.5549160000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9864560000000004</c:v>
+                  <c:v>5.3761929999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.3592120000000003</c:v>
+                  <c:v>5.7455259999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.000515</c:v>
+                  <c:v>5.8703349999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0960729999999996</c:v>
+                  <c:v>5.9707939999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.3277219999999996</c:v>
+                  <c:v>7.9841379999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.3946439999999996</c:v>
+                  <c:v>9.0325050000000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.2757249999999996</c:v>
+                  <c:v>10.316644</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.150831999999999</c:v>
+                  <c:v>13.732511000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.411343</c:v>
+                  <c:v>14.718249</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.313846</c:v>
+                  <c:v>12.816041999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.9408370000000001</c:v>
+                  <c:v>10.646215</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.986631</c:v>
+                  <c:v>8.1557099999999991</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.0168030000000003</c:v>
+                  <c:v>5.6312959999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0073090000000002</c:v>
+                  <c:v>5.1363120000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.339283</c:v>
+                  <c:v>5.5056969999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.6472230000000003</c:v>
+                  <c:v>7.0525180000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.6188520000000004</c:v>
+                  <c:v>8.1045409999999993</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.8921250000000001</c:v>
+                  <c:v>9.7917360000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10.008660000000001</c:v>
+                  <c:v>11.835266000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.4452</c:v>
+                  <c:v>14.678535</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.095675999999999</c:v>
+                  <c:v>14.470969999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.76661</c:v>
+                  <c:v>12.300613</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.5710130000000007</c:v>
+                  <c:v>9.938955</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.8527420000000001</c:v>
+                  <c:v>7.654674</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.1288710000000002</c:v>
+                  <c:v>5.4788030000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.1718659999999996</c:v>
+                  <c:v>6.6716660000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.9872459999999998</c:v>
+                  <c:v>6.2244809999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.2935210000000001</c:v>
+                  <c:v>7.3050899999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.9591609999999999</c:v>
+                  <c:v>8.3001799999999992</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.12744</c:v>
+                  <c:v>10.006822</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.9504699999999993</c:v>
+                  <c:v>11.721905</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.465539</c:v>
+                  <c:v>14.571548</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.383589000000001</c:v>
+                  <c:v>14.761447</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10.278784</c:v>
+                  <c:v>12.885653</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.2576269999999994</c:v>
+                  <c:v>11.195872</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.7195650000000002</c:v>
+                  <c:v>8.0642399999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.3529270000000002</c:v>
+                  <c:v>6.9118930000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.8661390000000004</c:v>
+                  <c:v>7.1087670000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.2088080000000003</c:v>
+                  <c:v>7.791963</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.791366</c:v>
+                  <c:v>8.7714510000000008</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.9396639999999996</c:v>
+                  <c:v>8.8322920000000007</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.6000589999999999</c:v>
+                  <c:v>11.439719999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11.241293000000001</c:v>
+                  <c:v>14.391586</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.402308</c:v>
+                  <c:v>15.081728</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.342434000000001</c:v>
+                  <c:v>15.282311</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.5645150000000001</c:v>
+                  <c:v>12.428732999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.7361509999999996</c:v>
+                  <c:v>11.578151999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.5638719999999999</c:v>
+                  <c:v>7.532743</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.0123899999999999</c:v>
+                  <c:v>6.241784</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.6570869999999998</c:v>
+                  <c:v>5.4644370000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.888007</c:v>
+                  <c:v>6.9287840000000003</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.7150550000000004</c:v>
+                  <c:v>6.926984</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.4107599999999998</c:v>
+                  <c:v>9.1725349999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.2092290000000006</c:v>
+                  <c:v>10.658953</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.318377</c:v>
+                  <c:v>12.606221</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.796206</c:v>
+                  <c:v>13.598976</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.198941</c:v>
+                  <c:v>14.638446</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.5919190000000008</c:v>
+                  <c:v>11.913157</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.3302370000000003</c:v>
+                  <c:v>9.4543990000000004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.3961160000000001</c:v>
+                  <c:v>8.0590740000000007</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.6604169999999998</c:v>
+                  <c:v>4.7721220000000004</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.879537</c:v>
+                  <c:v>4.9702929999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.8162089999999997</c:v>
+                  <c:v>6.3430400000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.2242040000000003</c:v>
+                  <c:v>6.9417119999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.5915020000000002</c:v>
+                  <c:v>7.4535499999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.8253439999999994</c:v>
+                  <c:v>9.5067590000000006</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7733360000000005</c:v>
+                  <c:v>11.51624</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11.41417</c:v>
+                  <c:v>14.496236</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.607586</c:v>
+                  <c:v>15.178988</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.119764999999999</c:v>
+                  <c:v>12.659817</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.1903980000000001</c:v>
+                  <c:v>10.056915999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.5776729999999999</c:v>
+                  <c:v>7.6801560000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.8106280000000003</c:v>
+                  <c:v>6.1206110000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.3695870000000001</c:v>
+                  <c:v>6.6705810000000003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.5549609999999996</c:v>
+                  <c:v>5.7661499999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.5634100000000002</c:v>
+                  <c:v>6.8529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.7157220000000004</c:v>
+                  <c:v>8.1572969999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.6403280000000002</c:v>
+                  <c:v>11.317183</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.070378</c:v>
+                  <c:v>12.480255</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.386215999999999</c:v>
+                  <c:v>14.768364999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>11.27984</c:v>
+                  <c:v>14.78607</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>9.3914950000000008</c:v>
+                  <c:v>11.963168</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.5094259999999995</c:v>
+                  <c:v>10.635922000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.3764890000000003</c:v>
+                  <c:v>8.687678</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.0720700000000001</c:v>
+                  <c:v>6.2619369999999996</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.7262389999999996</c:v>
+                  <c:v>6.1383000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,7 +1534,7 @@
                   <c:v>6.1656829999999996</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.7575370000000001</c:v>
+                  <c:v>5.924798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3736,7 +3736,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-1.9319871481481492</v>
+        <v>-0.74660962037036782</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3782,7 +3782,7 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>8.3205594999999981</v>
+        <v>9.5059370277777795</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
@@ -3796,12 +3796,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>7.3022438263689615</v>
+        <v>1.2847670291176394</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>2.0714123518518521</v>
+        <v>0.88510549074074085</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3820,11 +3820,11 @@
       </c>
       <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>0.23219437925396119</v>
+        <v>7.8541401882703629E-2</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>NS</v>
+        <v>G</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -3838,10 +3838,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.46494975537234984</v>
+        <v>0.90586250889943931</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>S</v>
+        <v>VG</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3927,14 +3927,14 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>6.3206389999999999</v>
+        <v>6.5227069999999996</v>
       </c>
       <c r="I4">
         <v>6.7575260000000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.43688700000000047</v>
+        <v>0.23481900000000078</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-1.9999204999999982</v>
+        <v>-2.9832300277777799</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
@@ -3950,23 +3950,23 @@
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>3.999682006320243</v>
+        <v>8.899661398635013</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>6.9897634421547599</v>
+        <v>10.426450545258911</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>0.19087025076900041</v>
+        <v>5.5139962761000368E-2</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>2.4430737221222429</v>
+        <v>7.5537631776105085</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.43688700000000047</v>
+        <v>0.23481900000000078</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.64818496039881368</v>
+        <v>0.300738164330137</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
-        <v>S</v>
+        <v>VG</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4026,14 +4026,14 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>6.2318449999999999</v>
+        <v>6.6070089999999997</v>
       </c>
       <c r="I5">
         <v>7.0468979999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>0.81505299999999981</v>
+        <v>0.43988899999999997</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-2.0887144999999983</v>
+        <v>-2.8989280277777798</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
@@ -4049,23 +4049,23 @@
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>4.3627282625102426</v>
+        <v>8.4037837102355688</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>6.6956848132924289</v>
+        <v>9.2929447133246157</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.66431139280899965</v>
+        <v>0.19350233232099998</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>1.6222136165822461</v>
+        <v>6.0468729401342882</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>0.81505299999999981</v>
+        <v>0.43988899999999997</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.93435749623530606</v>
+        <v>0.96672570758377796</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -4125,14 +4125,14 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>6.3371760000000004</v>
+        <v>6.774267</v>
       </c>
       <c r="I6">
         <v>7.5625140000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.2253379999999998</v>
+        <v>0.78824700000000014</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9833834999999977</v>
+        <v>-2.7316700277777795</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
@@ -4148,23 +4148,23 @@
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>3.9338101080722412</v>
+        <v>7.4620211406594548</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>5.3353663687983346</v>
+        <v>7.3482815586899823</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>1.5014532142439996</v>
+        <v>0.62133333300900018</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>0.57463298007024688</v>
+        <v>3.7768930648969512</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>1.2253379999999998</v>
+        <v>0.78824700000000014</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>8.3205594999999981</v>
+        <v>9.5059370277777795</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4221,14 +4221,14 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>7.0442720000000003</v>
+        <v>7.4198310000000003</v>
       </c>
       <c r="I7">
         <v>8.5006950000000003</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.456423</v>
+        <v>1.080864</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2762874999999978</v>
+        <v>-2.0861060277777792</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
@@ -4244,23 +4244,23 @@
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>1.6289097826562444</v>
+        <v>4.3518383591307845</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>2.2358663603858742</v>
+        <v>3.6545482829742868</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>2.1211679549290001</v>
+        <v>1.168266986496</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>3.2448798360250802E-2</v>
+        <v>1.0105115344107813</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.456423</v>
+        <v>1.080864</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>1.9358055362422601</v>
+        <v>3.1096011323949786</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4317,14 +4317,14 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>7.8795279999999996</v>
+        <v>8.5404520000000002</v>
       </c>
       <c r="I8">
         <v>10.083938</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.2044100000000002</v>
+        <v>1.5434859999999997</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.44103149999999847</v>
+        <v>-0.96548502777777934</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
@@ -4340,23 +4340,23 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.19450878399224864</v>
+        <v>0.9321613388630593</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>7.4361725005749446E-2</v>
+        <v>0.16278912534088799</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>4.8594234481000012</v>
+        <v>2.3823490321959992</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>3.109503734262256</v>
+        <v>0.33408512388983197</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>2.2044100000000002</v>
+        <v>1.5434859999999997</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4413,14 +4413,14 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>9.7755580000000002</v>
+        <v>10.450379999999999</v>
       </c>
       <c r="I9">
         <v>11.837152</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>2.0615939999999995</v>
+        <v>1.3867720000000006</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>1.4549985000000021</v>
+        <v>0.94444297222221962</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
@@ -4436,23 +4436,23 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>2.1170206350022562</v>
+        <v>0.89197252777994029</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>2.3055984100364206</v>
+        <v>1.4965693883021995</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>4.2501698208359979</v>
+        <v>1.9231365799840014</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>12.36642281105626</v>
+        <v>5.4345632467130471</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>2.0615939999999995</v>
+        <v>1.3867720000000006</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4508,14 +4508,14 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>10.833072</v>
+        <v>13.758582000000001</v>
       </c>
       <c r="I10">
         <v>16.065334</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>5.2322620000000004</v>
+        <v>2.3067519999999995</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>2.5125125000000015</v>
+        <v>4.252644972222221</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
@@ -4531,23 +4531,23 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>6.3127190626562575</v>
+        <v>18.084989259766935</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>14.604700881369686</v>
+        <v>24.719720906449702</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>27.376565636644003</v>
+        <v>5.3211047895039973</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>59.98153205585028</v>
+        <v>43.025688639198037</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>5.2322620000000004</v>
+        <v>2.3067519999999995</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>2.7022664240168774</v>
+        <v>1.1334756411664255</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4603,14 +4603,14 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>10.77763</v>
+        <v>14.000897</v>
       </c>
       <c r="I11">
         <v>15.599329000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>4.8216990000000006</v>
+        <v>1.5984320000000007</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>2.4570705000000022</v>
+        <v>4.4949599722222207</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
@@ -4626,23 +4626,23 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>6.0371954419702609</v>
+        <v>20.204665151879986</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>13.137421186655821</v>
+        <v>24.033572651758266</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>23.248781246601006</v>
+        <v>2.5549848586240023</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>52.980485434130287</v>
+        <v>37.129425727142213</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>4.8216990000000006</v>
+        <v>1.5984320000000007</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.96662169240882756</v>
+        <v>0.98322210491006456</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -4699,14 +4699,14 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>9.4549669999999999</v>
+        <v>11.578806999999999</v>
       </c>
       <c r="I12">
         <v>13.234444999999999</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>3.7794779999999992</v>
+        <v>1.6556379999999997</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>1.1344075000000018</v>
+        <v>2.0728699722222199</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
@@ -4722,23 +4722,23 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>1.2868803760562542</v>
+        <v>4.2967899217405465</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>3.3826878545783847</v>
+        <v>6.1810875537726311</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>14.284453952483995</v>
+        <v>2.7411371870439991</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>24.146270707110261</v>
+        <v>13.901771698924648</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>3.7794779999999992</v>
+        <v>1.6556379999999997</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>2.0714123518518521</v>
+        <v>0.88510549074074085</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4794,14 +4794,14 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>8.5701940000000008</v>
+        <v>10.269057</v>
       </c>
       <c r="I13">
         <v>11.104032999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>2.5338389999999986</v>
+        <v>0.83497599999999927</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>0.24963450000000265</v>
+        <v>0.76311997222222061</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
@@ -4817,23 +4817,23 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>6.2317383590251324E-2</v>
+        <v>0.58235209200444271</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>0.21256036970136341</v>
+        <v>0.64978624117278527</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>6.4203400779209927</v>
+        <v>0.69718492057599879</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>7.7477247252022572</v>
+        <v>2.5539107364328824</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>2.5338389999999986</v>
+        <v>0.83497599999999927</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4882,14 +4882,14 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>6.7132050000000003</v>
+        <v>7.3639929999999998</v>
       </c>
       <c r="I14">
         <v>7.7684309999999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.0552259999999993</v>
+        <v>0.40443799999999985</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6073544999999978</v>
+        <v>-2.1419440277777797</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
@@ -4905,23 +4905,23 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>2.5835884886702427</v>
+        <v>4.5879242181328976</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>3.9928544655713365</v>
+        <v>5.3208366768602531</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>1.1135019110759985</v>
+        <v>0.16357009584399987</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>0.30484588051224831</v>
+        <v>3.0189271965641189</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>1.0552259999999993</v>
+        <v>0.40443799999999985</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4959,7 +4959,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.64818496039881368</v>
+        <v>0.300738164330137</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4974,14 +4974,14 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>6.3394360000000001</v>
+        <v>5.8827429999999996</v>
       </c>
       <c r="I15">
         <v>6.5254580000000004</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0.18602200000000035</v>
+        <v>0.64271500000000081</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-1.981123499999998</v>
+        <v>-3.6231940277777799</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
@@ -4997,23 +4997,23 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>3.9248503222522424</v>
+        <v>13.127534962924571</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>7.3838229074295176</v>
+        <v>13.503965330968725</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>3.4604184484000135E-2</v>
+        <v>0.41308257122500103</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>3.2223893953022418</v>
+        <v>8.8832552350231744</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.18602200000000035</v>
+        <v>0.64271500000000081</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5062,14 +5062,14 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>6.1939770000000003</v>
+        <v>5.7665870000000004</v>
       </c>
       <c r="I16">
         <v>5.8123259999999997</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-0.38165100000000063</v>
+        <v>4.5738999999999308E-2</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1265824999999978</v>
+        <v>-3.7393500277777791</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
@@ -5085,23 +5085,23 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>4.5223531293062411</v>
+        <v>13.982738630241677</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>9.4424955264904984</v>
+        <v>16.603539203992245</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>0.14565748580100049</v>
+        <v>2.0920561209999368E-3</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>6.2912352905222422</v>
+        <v>13.642762424521628</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>0.38165100000000063</v>
+        <v>4.5738999999999308E-2</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5129,14 +5129,14 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>4.9470260000000001</v>
+        <v>5.1467510000000001</v>
       </c>
       <c r="I17">
         <v>5.5251479999999997</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>0.57812199999999958</v>
+        <v>0.37839699999999965</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-3.373533499999998</v>
+        <v>-4.3591860277777794</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
@@ -5152,23 +5152,23 @@
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>11.380728275622236</v>
+        <v>19.002502824773014</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>15.948037707382479</v>
+        <v>20.607610134742966</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>0.33422504688399951</v>
+        <v>0.14318428960899973</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>7.8143254543322413</v>
+        <v>15.846681283675961</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>0.57812199999999958</v>
+        <v>0.37839699999999965</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5196,14 +5196,14 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6.2958689999999997</v>
+        <v>6.3792179999999998</v>
       </c>
       <c r="I18">
         <v>6.5961270000000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>0.30025800000000036</v>
+        <v>0.21690900000000024</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0246904999999984</v>
+        <v>-3.1267190277777797</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
@@ -5219,23 +5219,23 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>4.0993716207902438</v>
+        <v>9.7763718786676232</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>7.4031181256188905</v>
+        <v>11.432596887405346</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>9.0154866564000222E-2</v>
+        <v>4.7049514281000106E-2</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>2.9736674470562434</v>
+        <v>8.4669943977561211</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>0.30025800000000036</v>
+        <v>0.21690900000000024</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5263,14 +5263,14 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>6.6962339999999996</v>
+        <v>6.802861</v>
       </c>
       <c r="I19">
         <v>7.4708329999999998</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>0.77459900000000026</v>
+        <v>0.66797199999999979</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6243254999999985</v>
+        <v>-2.7030760277777794</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
@@ -5286,23 +5286,23 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>2.6384333299502454</v>
+        <v>7.3066200119468983</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>4.5184084123850594</v>
+        <v>7.5191834784515299</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>0.6000036108010004</v>
+        <v>0.44618659278399969</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>0.72203512480224707</v>
+        <v>4.1416484038773413</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>0.77459900000000026</v>
+        <v>0.66797199999999979</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5333,14 +5333,14 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>7.6271440000000004</v>
+        <v>8.0566659999999999</v>
       </c>
       <c r="I20">
         <v>8.912903</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.2857589999999997</v>
+        <v>0.85623700000000014</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-0.69341549999999774</v>
+        <v>-1.4492710277777796</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
@@ -5356,23 +5356,23 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>0.48082505564024686</v>
+        <v>2.1003865119560619</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>0.92892967010246863</v>
+        <v>1.9415067268076396</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>1.6531762060809991</v>
+        <v>0.73314180016900021</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.35087082199225228</v>
+        <v>0.35168935810233609</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>1.2857589999999997</v>
+        <v>0.85623700000000014</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5406,14 +5406,14 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.048902</v>
+        <v>9.8968170000000004</v>
       </c>
       <c r="I21">
         <v>10.841665000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1.7927630000000008</v>
+        <v>0.94484800000000035</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.72834250000000189</v>
+        <v>0.39087997222222093</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
@@ -5429,23 +5429,23 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>0.53048279730625281</v>
+        <v>0.15278715268444421</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>0.42907993318365967</v>
+        <v>0.23027456500745305</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>3.2139991741690026</v>
+        <v>0.89273774310400067</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>6.3559729421302631</v>
+        <v>1.7841692157768871</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>1.7927630000000008</v>
+        <v>0.94484800000000035</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5479,14 +5479,14 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>10.373708000000001</v>
+        <v>12.332447</v>
       </c>
       <c r="I22">
         <v>13.848522000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.4748140000000003</v>
+        <v>1.5160750000000007</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.0531485000000025</v>
+        <v>2.8265099722222207</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
@@ -5502,23 +5502,23 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>4.2154187630522602</v>
+        <v>7.9891586230716589</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>7.3830713996916142</v>
+        <v>10.164060191874572</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>12.074332334596003</v>
+        <v>2.2984834056250021</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>30.558369401406281</v>
+        <v>18.858044240970273</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>3.4748140000000003</v>
+        <v>1.5160750000000007</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5552,14 +5552,14 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>11.105347</v>
+        <v>14.217790000000001</v>
       </c>
       <c r="I23">
         <v>15.150067999999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>4.0447209999999991</v>
+        <v>0.93227799999999839</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>2.784787500000002</v>
+        <v>4.7118529722222213</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
@@ -5575,23 +5575,23 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>7.7550414201562612</v>
+        <v>22.201558431839381</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>13.638556241620149</v>
+        <v>23.07640053824494</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>16.359767967840995</v>
+        <v>0.86914226928399696</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>46.642186351572263</v>
+        <v>31.85621443159814</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>4.0447209999999991</v>
+        <v>0.93227799999999839</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5625,14 +5625,14 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>10.037611999999999</v>
+        <v>12.554982000000001</v>
       </c>
       <c r="I24">
         <v>12.886526999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>2.8489149999999999</v>
+        <v>0.33154499999999842</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>1.7170525000000012</v>
+        <v>3.0490449722222213</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
@@ -5648,23 +5648,23 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>2.9482692877562542</v>
+        <v>9.2966752426336061</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>4.5226825480981052</v>
+        <v>8.031124548746007</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>8.1163166772249991</v>
+        <v>0.10992208702499895</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>20.84805921105626</v>
+        <v>11.428388560289427</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>2.8489149999999999</v>
+        <v>0.33154499999999842</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5698,14 +5698,14 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>8.5145780000000002</v>
+        <v>10.250622</v>
       </c>
       <c r="I25">
         <v>10.686559000000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>2.1719810000000006</v>
+        <v>0.43593700000000091</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>0.19401850000000209</v>
+        <v>0.74468497222222041</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
@@ -5721,23 +5721,23 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>3.764317834225081E-2</v>
+        <v>0.55455570785360919</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>8.4206425487769743E-2</v>
+        <v>0.32320247618289805</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>4.7175014643610025</v>
+        <v>0.1900410679690008</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>5.5979536340002625</v>
+        <v>1.3938682412938874</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>2.1719810000000006</v>
+        <v>0.43593700000000091</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5771,14 +5771,14 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>6.7189449999999997</v>
+        <v>7.5549160000000004</v>
       </c>
       <c r="I26">
         <v>7.3908750000000003</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>0.67193000000000058</v>
+        <v>-0.1640410000000001</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6016144999999984</v>
+        <v>-1.9510210277777791</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
@@ -5794,23 +5794,23 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>2.5651690066102448</v>
+        <v>3.8064830508310612</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>4.5832948059129661</v>
+        <v>5.5831815601325285</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>0.45148992490000078</v>
+        <v>2.6909449681000033E-2</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>0.8643132695402459</v>
+        <v>4.4734873813474509</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>0.67193000000000058</v>
+        <v>0.1640410000000001</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5844,14 +5844,14 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>4.9864560000000004</v>
+        <v>5.3761929999999998</v>
       </c>
       <c r="I27">
         <v>4.6762090000000001</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-0.31024700000000038</v>
+        <v>-0.69998399999999972</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3341034999999977</v>
+        <v>-4.1297440277777797</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
@@ -5867,23 +5867,23 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>11.116246148712234</v>
+        <v>17.054785734966238</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>18.592086869872492</v>
+        <v>23.028847099312202</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>9.6253201009000242E-2</v>
+        <v>0.48997760025599962</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>13.281290566850236</v>
+        <v>23.32627282230224</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>0.31024700000000038</v>
+        <v>0.69998399999999972</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5917,14 +5917,14 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>6.3592120000000003</v>
+        <v>5.7455259999999999</v>
       </c>
       <c r="I28">
         <v>5.7243950000000003</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-0.63481699999999996</v>
+        <v>-2.1130999999999567E-2</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9613474999999978</v>
+        <v>-3.7604110277777796</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
@@ -5940,23 +5940,23 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>3.8468840157562414</v>
+        <v>14.140691097832736</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>8.881278914716237</v>
+        <v>17.027711393146419</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>0.40299262348899995</v>
+        <v>4.4651916099998167E-4</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>6.7400701110602386</v>
+        <v>14.300060107849678</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>0.63481699999999996</v>
+        <v>2.1130999999999567E-2</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -5990,14 +5990,14 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>6.000515</v>
+        <v>5.8703349999999999</v>
       </c>
       <c r="I29">
         <v>6.0212640000000004</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>2.074900000000035E-2</v>
+        <v>0.15092900000000053</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3200444999999981</v>
+        <v>-3.6356020277777796</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
@@ -6013,23 +6013,23 @@
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>5.3826064819802406</v>
+        <v>13.217602104381903</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>9.8167640357815351</v>
+        <v>15.383259775708336</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>4.3052100100001453E-4</v>
+        <v>2.2779563041000161E-2</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>5.2867597963202391</v>
+        <v>12.142946110521954</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>2.074900000000035E-2</v>
+        <v>0.15092900000000053</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6063,14 +6063,14 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>6.0960729999999996</v>
+        <v>5.9707939999999997</v>
       </c>
       <c r="I30">
         <v>6.2946020000000003</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>0.19852900000000062</v>
+        <v>0.32380800000000054</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2244864999999985</v>
+        <v>-3.5351430277777798</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
@@ -6086,23 +6086,23 @@
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>4.9483401886822431</v>
+        <v>12.497236226845848</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>8.8043944375527978</v>
+        <v>13.9919004272313</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>3.9413763841000246E-2</v>
+        <v>0.10485162086400035</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>4.1045037918062413</v>
+        <v>10.31267266063251</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>0.19852900000000062</v>
+        <v>0.32380800000000054</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6136,14 +6136,14 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>8.3277219999999996</v>
+        <v>7.9841379999999997</v>
       </c>
       <c r="I31">
         <v>8.0125010000000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-0.31522099999999931</v>
+        <v>2.8363000000000582E-2</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>7.1625000000015149E-3</v>
+        <v>-1.5217990277777798</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
@@ -6159,23 +6159,23 @@
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>5.1301406250021703E-5</v>
+        <v>2.3158722809453955</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>-1.6044326954864498E-2</v>
+        <v>3.4088992895296966</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>9.9364278840999562E-2</v>
+        <v>8.0445976900003302E-4</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>9.4900039422248644E-2</v>
+        <v>2.2303511690646718</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>0.31522099999999931</v>
+        <v>2.8363000000000582E-2</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6209,14 +6209,14 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>8.3946439999999996</v>
+        <v>9.0325050000000005</v>
       </c>
       <c r="I32">
         <v>9.9014100000000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1.5067660000000007</v>
+        <v>0.86890499999999982</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>7.4084500000001441E-2</v>
+        <v>-0.47343202777777904</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
@@ -6232,23 +6232,23 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>5.4885131402502138E-3</v>
+        <v>0.22413788492577974</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>-2.6013783009731905E-2</v>
+        <v>0.16623933535986979</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>2.2703437787560024</v>
+        <v>0.75499589902499964</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>2.4990883033502569</v>
+        <v>0.15639887175827741</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1.5067660000000007</v>
+        <v>0.86890499999999982</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6276,14 +6276,14 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>9.2757249999999996</v>
+        <v>10.316644</v>
       </c>
       <c r="I33">
         <v>11.643750000000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>2.3680250000000012</v>
+        <v>1.3271060000000006</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.95516550000000144</v>
+        <v>0.81070697222222066</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
@@ -6299,23 +6299,23 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>0.91234113239025272</v>
+        <v>0.65724579480972045</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>1.3288294451732534</v>
+        <v>1.1278582571252207</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>5.6075424006250056</v>
+        <v>1.7612103352360016</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>11.043595099290267</v>
+        <v>4.5702443042016077</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>2.3680250000000012</v>
+        <v>1.3271060000000006</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6343,14 +6343,14 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>11.150831999999999</v>
+        <v>13.732511000000001</v>
       </c>
       <c r="I34">
         <v>14.857324999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>3.706493</v>
+        <v>1.1248139999999989</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>2.8302725000000013</v>
+        <v>4.2265739722222211</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
@@ -6366,23 +6366,23 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>8.010442424256258</v>
+        <v>17.863927542666325</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>13.032777537841627</v>
+        <v>19.462436329789377</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>13.738090359049</v>
+        <v>1.2652065345959975</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>42.72930320199027</v>
+        <v>28.637353229244642</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>3.706493</v>
+        <v>1.1248139999999989</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6410,14 +6410,14 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>11.411343</v>
+        <v>14.718249</v>
       </c>
       <c r="I35">
         <v>15.432864</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>4.0215209999999999</v>
+        <v>0.71461500000000022</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>3.0907835000000023</v>
+        <v>5.2123119722222206</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
@@ -6433,23 +6433,23 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>9.5529426438722638</v>
+        <v>27.168196095771094</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>16.011239395867413</v>
+        <v>27.001430152967924</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>16.172631153440999</v>
+        <v>0.51067459822500028</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>50.584875300720284</v>
+        <v>35.128463334055262</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>4.0215209999999999</v>
+        <v>0.71461500000000022</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6477,14 +6477,14 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>10.313846</v>
+        <v>12.816041999999999</v>
       </c>
       <c r="I36">
         <v>12.870347000000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>2.5565010000000008</v>
+        <v>5.4305000000001158E-2</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>1.9932865000000017</v>
+        <v>3.31010497222222</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
@@ -6500,23 +6500,23 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>3.9731910710822569</v>
+        <v>10.956794927130264</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>5.2180261010415538</v>
+        <v>8.665193960949896</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>6.5356973630010042</v>
+        <v>2.9490330250001259E-3</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>20.700566295156275</v>
+        <v>11.319254461188327</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>2.5565010000000008</v>
+        <v>5.4305000000001158E-2</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6544,14 +6544,14 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>8.9408370000000001</v>
+        <v>10.646215</v>
       </c>
       <c r="I37">
         <v>10.587904999999999</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>1.6470679999999991</v>
+        <v>-5.8310000000000528E-2</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>0.62027750000000204</v>
+        <v>1.1402779722222203</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
@@ -6567,23 +6567,23 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>0.38474417700625252</v>
+        <v>1.3002338539352185</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>0.20801524009078776</v>
+        <v>0.38240174141741556</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>2.7128329966239968</v>
+        <v>3.4000561000000614E-3</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>5.1408556163702555</v>
+        <v>1.1706546929146622</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1.6470679999999991</v>
+        <v>5.8310000000000528E-2</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6611,14 +6611,14 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>7.986631</v>
+        <v>8.1557099999999991</v>
       </c>
       <c r="I38">
         <v>8.4551409999999994</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0.46850999999999932</v>
+        <v>0.29943100000000022</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-0.33392849999999807</v>
+        <v>-1.3502270277777804</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
@@ -6634,23 +6634,23 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>0.11150824311224872</v>
+        <v>1.8231130265416189</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>0.60020497197763534</v>
+        <v>2.4269056860100688</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>0.21950162009999935</v>
+        <v>8.9658923761000139E-2</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1.8112180142250335E-2</v>
+        <v>1.1041722919935613</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>0.46850999999999932</v>
+        <v>0.29943100000000022</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6678,14 +6678,14 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>6.0168030000000003</v>
+        <v>5.6312959999999999</v>
       </c>
       <c r="I39">
         <v>6.7407919999999999</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>0.72398899999999955</v>
+        <v>1.109496</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3037564999999978</v>
+        <v>-3.8746410277777796</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
@@ -6701,23 +6701,23 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>5.3072940112922398</v>
+        <v>15.012843094138848</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>8.090227597076499</v>
+        <v>13.606788639204133</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>0.52416007212099935</v>
+        <v>1.2309813740160001</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>2.4956653540562446</v>
+        <v>7.6460270246441775</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>0.72398899999999955</v>
+        <v>1.109496</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6745,14 +6745,14 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>5.0073090000000002</v>
+        <v>5.1363120000000002</v>
       </c>
       <c r="I40">
         <v>4.9180770000000003</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-8.9231999999999978E-2</v>
+        <v>-0.21823499999999996</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3132504999999979</v>
+        <v>-4.3696250277777793</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
@@ -6768,23 +6768,23 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>10.977628875750236</v>
+        <v>19.093622883381958</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>17.674434228961662</v>
+        <v>23.309632084469069</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>7.9623498239999955E-3</v>
+        <v>4.7626515224999978E-2</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>11.576887162806235</v>
+        <v>21.048459634481127</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>8.9231999999999978E-2</v>
+        <v>0.21823499999999996</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6812,14 +6812,14 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>5.339283</v>
+        <v>5.5056969999999996</v>
       </c>
       <c r="I41">
         <v>6.1956850000000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>0.85640200000000011</v>
+        <v>0.68998800000000049</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9812764999999981</v>
+        <v>-4.0002400277777799</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
@@ -6835,23 +6835,23 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>8.8880095694522385</v>
+        <v>16.001920279835574</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>12.094626295375333</v>
+        <v>16.228420352078754</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>0.73342438560400014</v>
+        <v>0.47608344014400067</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>4.5150916407502413</v>
+        <v>10.9577684874069</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>0.85640200000000011</v>
+        <v>0.68998800000000049</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6879,14 +6879,14 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>6.6472230000000003</v>
+        <v>7.0525180000000001</v>
       </c>
       <c r="I42">
         <v>7.492057</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>0.84483399999999964</v>
+        <v>0.4395389999999999</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6733364999999978</v>
+        <v>-2.4534190277777794</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
@@ -6902,23 +6902,23 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>2.8000550422322426</v>
+        <v>6.0192649258620641</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>4.6192280861184463</v>
+        <v>6.772637828750252</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>0.7137444875559994</v>
+        <v>0.19319453252099991</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>0.68641639250624698</v>
+        <v>4.0557127662822303</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>0.84483399999999964</v>
+        <v>0.4395389999999999</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6946,14 +6946,14 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>7.6188520000000004</v>
+        <v>8.1045409999999993</v>
       </c>
       <c r="I43">
         <v>8.5971530000000005</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>0.97830100000000009</v>
+        <v>0.49261200000000116</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-0.70170749999999771</v>
+        <v>-1.4013960277777802</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
@@ -6969,23 +6969,23 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>0.49239341555624677</v>
+        <v>1.9639108266713408</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>1.161602138357912</v>
+        <v>2.3198620829233811</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>0.95707284660100012</v>
+        <v>0.24266658254400114</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>7.650396424225131E-2</v>
+        <v>0.82588840914400297</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>0.97830100000000009</v>
+        <v>0.49261200000000116</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7013,14 +7013,14 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>8.8921250000000001</v>
+        <v>9.7917360000000002</v>
       </c>
       <c r="I44">
         <v>11.077218</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>2.1850930000000002</v>
+        <v>1.285482</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>0.57156550000000195</v>
+        <v>0.28579897222222073</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
@@ -7036,23 +7036,23 @@
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>0.32668712079025225</v>
+        <v>8.1681052523277689E-2</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>0.47135369355688184</v>
+        <v>0.23569022478036894</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>4.7746314186490011</v>
+        <v>1.652463972324</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>7.5991660856222616</v>
+        <v>2.4689238936676072</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>2.1850930000000002</v>
+        <v>1.285482</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7080,14 +7080,14 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>10.008660000000001</v>
+        <v>11.835266000000001</v>
       </c>
       <c r="I45">
         <v>13.704166000000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>3.695506</v>
+        <v>1.8689</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>1.6881005000000027</v>
+        <v>2.3293289722222212</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
@@ -7103,23 +7103,23 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>2.8496832981002589</v>
+        <v>5.4257734608338293</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>5.826680353670799</v>
+        <v>8.0399569573514071</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>13.656764596036</v>
+        <v>3.4927872099999999</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>28.983218946842278</v>
+        <v>17.625126503206047</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>3.695506</v>
+        <v>1.8689</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7147,14 +7147,14 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>11.4452</v>
+        <v>14.678535</v>
       </c>
       <c r="I46">
         <v>16.750347000000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>5.3051470000000016</v>
+        <v>2.0718120000000013</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>3.1246405000000017</v>
+        <v>5.1725979722222206</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
@@ -7170,23 +7170,23 @@
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>9.7633782542402603</v>
+        <v>26.755769782237429</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>20.303290140310565</v>
+        <v>33.610508923893732</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>28.144584691609015</v>
+        <v>4.2924049633440058</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>71.0613172951563</v>
+        <v>52.481475845632772</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>5.3051470000000016</v>
+        <v>2.0718120000000013</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7214,14 +7214,14 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>11.095675999999999</v>
+        <v>14.470969999999999</v>
       </c>
       <c r="I47">
         <v>15.772145</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>4.6764690000000009</v>
+        <v>1.3011750000000006</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>2.7751165000000011</v>
+        <v>4.96503297222222</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
@@ -7237,23 +7237,23 @@
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>7.701271588572256</v>
+        <v>24.651552415253811</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>15.317528459596888</v>
+        <v>27.404987810367871</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>21.869362307961008</v>
+        <v>1.6930563806250016</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>55.526126463810279</v>
+        <v>39.265362351141313</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>4.6764690000000009</v>
+        <v>1.3011750000000006</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7281,14 +7281,14 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>9.76661</v>
+        <v>12.300613</v>
       </c>
       <c r="I48">
         <v>13.215868</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>3.4492580000000004</v>
+        <v>0.91525500000000015</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>1.4460505000000019</v>
+        <v>2.7946759722222208</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
@@ -7304,23 +7304,23 @@
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>2.0910620485502553</v>
+        <v>7.8102137897162152</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>4.2851123225060537</v>
+        <v>8.2815229799934436</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>11.897380750564002</v>
+        <v>0.83769171502500028</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>23.964045310172274</v>
+        <v>13.763587818653713</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>3.4492580000000004</v>
+        <v>0.91525500000000015</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7348,14 +7348,14 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>8.5710130000000007</v>
+        <v>9.938955</v>
       </c>
       <c r="I49">
         <v>9.9914310000000004</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>1.4204179999999997</v>
+        <v>5.2476000000000411E-2</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>0.25045350000000255</v>
+        <v>0.43301797222222049</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
@@ -7371,23 +7371,23 @@
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>6.2726955662251282E-2</v>
+        <v>0.18750456426744372</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-6.5397327983472586E-2</v>
+        <v>-0.11306776847660138</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>2.0175872947239992</v>
+        <v>2.753730576000043E-3</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>2.7918115695122578</v>
+        <v>0.23570439706411062</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>1.4204179999999997</v>
+        <v>5.2476000000000411E-2</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7415,14 +7415,14 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>6.8527420000000001</v>
+        <v>7.654674</v>
       </c>
       <c r="I50">
         <v>7.4102540000000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>0.55751200000000001</v>
+        <v>-0.24441999999999986</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-1.467817499999998</v>
+        <v>-1.8512630277777795</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
@@ -7438,23 +7438,23 @@
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>2.154488213306244</v>
+        <v>3.4271747980169516</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>4.1719668890731869</v>
+        <v>5.2618312936412623</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>0.31081963014399999</v>
+        <v>5.9741136399999929E-2</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>0.82865610333024631</v>
+        <v>4.3918873529158411</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>0.55751200000000001</v>
+        <v>0.24441999999999986</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7482,14 +7482,14 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>5.1288710000000002</v>
+        <v>5.4788030000000001</v>
       </c>
       <c r="I51">
         <v>4.2807459999999997</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-0.84812500000000046</v>
+        <v>-1.1980570000000004</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1916884999999979</v>
+        <v>-4.0271340277777794</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
@@ -7505,23 +7505,23 @@
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>10.186875481032237</v>
+        <v>16.217808477685679</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>19.060127452986976</v>
+        <v>24.049241597262803</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>0.7193160156250008</v>
+        <v>1.4353405752490009</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>16.320093114782235</v>
+        <v>27.302621276769411</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>0.84812500000000046</v>
+        <v>1.1980570000000004</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7549,14 +7549,14 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>6.1718659999999996</v>
+        <v>6.6716660000000001</v>
       </c>
       <c r="I52">
         <v>5.2900869999999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-0.88177899999999987</v>
+        <v>-1.3815790000000003</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1486934999999985</v>
+        <v>-2.8342710277777794</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
@@ -7572,23 +7572,23 @@
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>4.6168837569422436</v>
+        <v>8.0330922589005098</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>10.662804789988204</v>
+        <v>14.064955607262608</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>0.77753420484099978</v>
+        <v>1.9087605332410009</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>9.1837635732562397</v>
+        <v>17.773391456713906</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>0.88177899999999987</v>
+        <v>1.3815790000000003</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7616,14 +7616,14 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>6.9872459999999998</v>
+        <v>6.2244809999999999</v>
       </c>
       <c r="I53">
         <v>5.9716139999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0156320000000001</v>
+        <v>-0.25286700000000017</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3333134999999983</v>
+        <v>-3.2814560277777796</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
@@ -7639,23 +7639,23 @@
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>1.7777248892822455</v>
+        <v>10.767953662239124</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>5.7078252923666675</v>
+        <v>14.047692242776431</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>1.0315083594240002</v>
+        <v>6.3941719689000087E-2</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>5.5175449619702421</v>
+        <v>12.491439264680292</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>1.0156320000000001</v>
+        <v>0.25286700000000017</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7683,14 +7683,14 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>8.2935210000000001</v>
+        <v>7.3050899999999999</v>
       </c>
       <c r="I54">
         <v>7.3243400000000003</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-0.96918099999999985</v>
+        <v>1.9250000000000433E-2</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7038499999997967E-2</v>
+        <v>-2.2008470277777796</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
@@ -7706,23 +7706,23 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>7.3108048224989003E-4</v>
+        <v>4.8437276396782867</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>7.9174315455947719E-2</v>
+        <v>6.4445348982959842</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.93931181076099968</v>
+        <v>3.7056250000001671E-4</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>0.99245329218024569</v>
+        <v>4.75936559160884</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>0.96918099999999985</v>
+        <v>1.9250000000000433E-2</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7750,14 +7750,14 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>7.9591609999999999</v>
+        <v>8.3001799999999992</v>
       </c>
       <c r="I55">
         <v>8.8320469999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>0.87288599999999938</v>
+        <v>0.53186700000000009</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-0.36139849999999818</v>
+        <v>-1.2057570277777803</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
@@ -7773,23 +7773,23 @@
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>0.1306088758022487</v>
+        <v>1.4538500100355067</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>0.51336644209126592</v>
+        <v>1.7127774337104935</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>0.76192996899599896</v>
+        <v>0.28288250568900009</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>0.26161946265625124</v>
+        <v>0.45412776953833733</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>0.87288599999999938</v>
+        <v>0.53186700000000009</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7817,14 +7817,14 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>9.12744</v>
+        <v>10.006822</v>
       </c>
       <c r="I56">
         <v>11.221339</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>2.0938990000000004</v>
+        <v>1.2145170000000007</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.80688050000000189</v>
+        <v>0.50088497222222017</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
@@ -7840,23 +7840,23 @@
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>0.65105614128025302</v>
+        <v>0.25088575539805424</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.78169965725840096</v>
+        <v>0.48525353024641477</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>4.3844130222010014</v>
+        <v>1.4750515432890017</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>8.4145217076202634</v>
+        <v>2.9426039263038852</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>2.0938990000000004</v>
+        <v>1.2145170000000007</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7884,14 +7884,14 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>9.9504699999999993</v>
+        <v>11.721905</v>
       </c>
       <c r="I57">
         <v>13.324306</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>3.3738360000000007</v>
+        <v>1.6024010000000004</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>1.6299105000000012</v>
+        <v>2.2159679722222201</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
@@ -7907,23 +7907,23 @@
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>2.6566082380102536</v>
+        <v>4.9105140539146577</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>5.0066928210565322</v>
+        <v>6.8069203420777908</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>11.382769354896006</v>
+        <v>2.5676889648010013</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>25.037479036262269</v>
+        <v>14.579941608029376</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>3.3738360000000007</v>
+        <v>1.6024010000000004</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7951,14 +7951,14 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>11.465539</v>
+        <v>14.571548</v>
       </c>
       <c r="I58">
         <v>16.180609</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>4.7150700000000008</v>
+        <v>1.6090610000000005</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>3.1449795000000016</v>
+        <v>5.0656109722222205</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
@@ -7974,23 +7974,23 @@
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>9.8908960554202601</v>
+        <v>25.660414521898151</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>18.643634571295873</v>
+        <v>30.029257693558208</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>22.231885104900009</v>
+        <v>2.5890773017210016</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>61.780378142450289</v>
+        <v>44.551245936768872</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>4.7150700000000008</v>
+        <v>1.6090610000000005</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8018,14 +8018,14 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>11.383589000000001</v>
+        <v>14.761447</v>
       </c>
       <c r="I59">
         <v>15.435485</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>4.0518959999999993</v>
+        <v>0.67403799999999947</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>3.0630295000000025</v>
+        <v>5.2555099722222209</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
@@ -8041,23 +8041,23 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>9.3821497178702646</v>
+        <v>27.620385068127209</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>15.875493068403618</v>
+        <v>27.238984193570413</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>16.417861194815995</v>
+        <v>0.45432722544399928</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>50.622164870550279</v>
+        <v>35.159539154884648</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>4.0518959999999993</v>
+        <v>0.67403799999999947</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8085,14 +8085,14 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>10.278784</v>
+        <v>12.885653</v>
       </c>
       <c r="I60">
         <v>13.738193000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>3.4594090000000008</v>
+        <v>0.85254000000000119</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>1.9582245000000018</v>
+        <v>3.3797159722222201</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
@@ -8108,23 +8108,23 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>3.8346431924002573</v>
+        <v>11.422480052893986</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>6.8256780845319263</v>
+        <v>11.780494648871821</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>11.967510629281007</v>
+        <v>0.72682445160000198</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>29.350752740322278</v>
+        <v>17.911990614410659</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>3.4594090000000008</v>
+        <v>0.85254000000000119</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8152,14 +8152,14 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>9.2576269999999994</v>
+        <v>11.195872</v>
       </c>
       <c r="I61">
         <v>11.838914000000001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>2.5812870000000014</v>
+        <v>0.64304200000000122</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>0.93706750000000127</v>
+        <v>1.6899349722222201</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
@@ -8175,23 +8175,23 @@
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>0.87809549955625243</v>
+        <v>2.8558802103397158</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>1.4865332884814388</v>
+        <v>2.6808576666859989</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>6.6630425763690075</v>
+        <v>0.41350301376400156</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>12.37881838767027</v>
+        <v>5.442781552919163</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>2.5812870000000014</v>
+        <v>0.64304200000000122</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8219,14 +8219,14 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>7.7195650000000002</v>
+        <v>8.0642399999999999</v>
       </c>
       <c r="I62">
         <v>8.3758119999999998</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>0.65624699999999958</v>
+        <v>0.31157199999999996</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-0.60099449999999788</v>
+        <v>-1.4416970277777796</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
@@ -8242,23 +8242,23 @@
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>0.36119438903024748</v>
+        <v>2.0784903199032838</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>1.1279072014964679</v>
+        <v>2.7056827641627614</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>0.43066012500899947</v>
+        <v>9.7077111183999976E-2</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>3.0528387562501883E-3</v>
+        <v>1.2771825784097273</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>0.65624699999999958</v>
+        <v>0.31157199999999996</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8286,14 +8286,14 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>7.3529270000000002</v>
+        <v>6.9118930000000001</v>
       </c>
       <c r="I63">
         <v>7.792554</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>0.43962699999999977</v>
+        <v>0.88066099999999992</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-0.9676324999999979</v>
+        <v>-2.5940440277777794</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
@@ -8309,23 +8309,23 @@
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>0.93631265505624595</v>
+        <v>6.7290644180495649</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>2.380368836109207</v>
+        <v>6.3813292373059456</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>0.19327189912899981</v>
+        <v>0.77556379692099986</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>0.278789808030248</v>
+        <v>2.9356813998769513</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>0.43962699999999977</v>
+        <v>0.88066099999999992</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8353,14 +8353,14 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6.8661390000000004</v>
+        <v>7.1087670000000003</v>
       </c>
       <c r="I64">
         <v>6.7203629999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-0.14577600000000057</v>
+        <v>-0.38840400000000042</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4544204999999977</v>
+        <v>-2.3971700277777792</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
@@ -8376,23 +8376,23 @@
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>2.1153389908202431</v>
+        <v>5.7464241420761191</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>5.1372803076314444</v>
+        <v>8.4672447739475114</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>2.1250642176000166E-2</v>
+        <v>0.15085766721600033</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>2.5606288386122444</v>
+        <v>7.7594226642301223</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>0.14577600000000057</v>
+        <v>0.38840400000000042</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8420,14 +8420,14 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>7.2088080000000003</v>
+        <v>7.791963</v>
       </c>
       <c r="I65">
         <v>7.6048359999999997</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>0.39602799999999938</v>
+        <v>-0.18712700000000027</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1117514999999978</v>
+        <v>-1.7139740277777795</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
@@ -8443,23 +8443,23 @@
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>1.235991397752245</v>
+        <v>2.9377069678967844</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>2.9435962846446695</v>
+        <v>4.5381072839965961</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>0.1568381767839995</v>
+        <v>3.5016514129000101E-2</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>0.51226012845224767</v>
+        <v>3.6141851178177307</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>0.39602799999999938</v>
+        <v>0.18712700000000027</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8487,14 +8487,14 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>7.791366</v>
+        <v>8.7714510000000008</v>
       </c>
       <c r="I66">
         <v>8.8436210000000006</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>1.0522550000000006</v>
+        <v>7.2169999999999845E-2</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-0.5291934999999981</v>
+        <v>-0.73448602777777872</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
@@ -8510,23 +8510,23 @@
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>0.28004576044224799</v>
+        <v>0.53946972500077994</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>0.74559429498328356</v>
+        <v>1.0348362027425646</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.1072405850250013</v>
+        <v>5.2085088999999779E-3</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>0.27359333278225262</v>
+        <v>0.43866252065133554</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>1.0522550000000006</v>
+        <v>7.2169999999999845E-2</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8554,14 +8554,14 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>7.9396639999999996</v>
+        <v>8.8322920000000007</v>
       </c>
       <c r="I67">
         <v>10.058611000000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>2.1189470000000012</v>
+        <v>1.2263190000000002</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-0.3808954999999985</v>
+        <v>-0.67364502777777879</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
@@ -8577,23 +8577,23 @@
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>0.14508138192024886</v>
+        <v>0.45379762344972435</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>7.3869215669212021E-2</v>
+        <v>0.13064378508385965</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>4.4899363888090056</v>
+        <v>1.5038582897610004</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>3.0208230166522596</v>
+        <v>0.30544851957188873</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>2.1189470000000012</v>
+        <v>1.2263190000000002</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8621,14 +8621,14 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>9.6000589999999999</v>
+        <v>11.439719999999999</v>
       </c>
       <c r="I68">
         <v>13.074730000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>3.4746710000000007</v>
+        <v>1.6350100000000012</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.2794995000000018</v>
+        <v>1.93378297222222</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
@@ -8644,23 +8644,23 @@
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>1.6371189705002547</v>
+        <v>3.7395165836566031</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>3.6109821876027755</v>
+        <v>5.4574901103001441</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>12.073338558241005</v>
+        <v>2.6732577001000037</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>22.602137143070273</v>
+        <v>12.736283278582714</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>3.4746710000000007</v>
+        <v>1.6350100000000012</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8688,14 +8688,14 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>11.241293000000001</v>
+        <v>14.391586</v>
       </c>
       <c r="I69">
         <v>16.857534000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>5.6162410000000005</v>
+        <v>2.4659480000000009</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>2.9207335000000025</v>
+        <v>4.8856489722222207</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
@@ -8711,23 +8711,23 @@
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>8.5306841780222644</v>
+        <v>23.86956587977604</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>19.291407825630014</v>
+        <v>32.269649667115779</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>31.542162970081005</v>
+        <v>6.0808995387040046</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>72.879933613650309</v>
+        <v>54.045978041986935</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>5.6162410000000005</v>
+        <v>2.4659480000000009</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8755,14 +8755,14 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>11.402308</v>
+        <v>15.081728</v>
       </c>
       <c r="I70">
         <v>18.027048000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>6.624740000000001</v>
+        <v>2.9453200000000006</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>3.0817485000000016</v>
+        <v>5.5757909722222205</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
@@ -8778,23 +8778,23 @@
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>9.4971738172522588</v>
+        <v>31.089444965914815</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>23.959057879317434</v>
+        <v>43.348994451185014</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>43.887180067600013</v>
+        <v>8.6749099024000031</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>94.215919000632297</v>
+        <v>72.60933220092592</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>6.624740000000001</v>
+        <v>2.9453200000000006</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8822,14 +8822,14 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>11.342434000000001</v>
+        <v>15.282311</v>
       </c>
       <c r="I71">
         <v>17.185048999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>5.8426149999999986</v>
+        <v>1.9027379999999994</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>3.0218745000000027</v>
+        <v>5.7763739722222205</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
@@ -8845,23 +8845,23 @@
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>9.1317254937502668</v>
+        <v>33.366496266966315</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>20.949152078251156</v>
+        <v>40.044726147606369</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>34.136150038224983</v>
+        <v>3.6204118966439975</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>78.57917409561027</v>
+        <v>58.968760681926632</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>5.8426149999999986</v>
+        <v>1.9027379999999994</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8889,14 +8889,14 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>9.5645150000000001</v>
+        <v>12.428732999999999</v>
       </c>
       <c r="I72">
         <v>14.390521</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>4.8260059999999996</v>
+        <v>1.9617880000000003</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>1.243955500000002</v>
+        <v>2.9227959722222199</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
@@ -8912,23 +8912,23 @@
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>1.5474252859802549</v>
+        <v>8.5427362952384307</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>5.1474559538450553</v>
+        <v>12.094454768751445</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>23.290333912035997</v>
+        <v>3.8486121569440011</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>36.844432611482269</v>
+        <v>23.859160581690205</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>4.8260059999999996</v>
+        <v>1.9617880000000003</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8956,14 +8956,14 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>8.7361509999999996</v>
+        <v>11.578151999999999</v>
       </c>
       <c r="I73">
         <v>11.777958</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>3.0418070000000004</v>
+        <v>0.19980600000000059</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>0.41559150000000145</v>
+        <v>2.0722149722222198</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
@@ -8979,23 +8979,23 @@
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>0.17271629487225121</v>
+        <v>4.2940748911019355</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>0.63394799183314143</v>
+        <v>3.1609802421051456</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>9.252589825249002</v>
+        <v>3.9922437636000237E-2</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>11.953604387802262</v>
+        <v>5.1620792982176038</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>3.0418070000000004</v>
+        <v>0.19980600000000059</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9023,14 +9023,14 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>6.5638719999999999</v>
+        <v>7.532743</v>
       </c>
       <c r="I74">
         <v>8.0507980000000003</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>1.4869260000000004</v>
+        <v>0.51805500000000038</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-1.7566874999999982</v>
+        <v>-1.9731940277777795</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
@@ -9046,23 +9046,23 @@
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>3.0859509726562435</v>
+        <v>3.8934946712578964</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>3.8677843283437441</v>
+        <v>4.3444772831937231</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>2.2109489294760012</v>
+        <v>0.26838098302500041</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>7.2771266882248789E-2</v>
+        <v>2.1174295901620601</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>1.4869260000000004</v>
+        <v>0.51805500000000038</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9090,14 +9090,14 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>7.0123899999999999</v>
+        <v>6.241784</v>
       </c>
       <c r="I75">
         <v>7.1561149999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>0.14372499999999988</v>
+        <v>0.91433099999999978</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-1.3081694999999982</v>
+        <v>-3.2641530277777795</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
@@ -9113,23 +9113,23 @@
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>1.7113074407302453</v>
+        <v>10.654694988750846</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>4.0506574409421328</v>
+        <v>10.107226739609716</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>2.0656875624999967E-2</v>
+        <v>0.83600117756099956</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>1.3559309935802462</v>
+        <v>5.5216635622296764</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>0.14372499999999988</v>
+        <v>0.91433099999999978</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9157,14 +9157,14 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5.6570869999999998</v>
+        <v>5.4644370000000002</v>
       </c>
       <c r="I76">
         <v>6.2070230000000004</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>0.54993600000000065</v>
+        <v>0.74258600000000019</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-2.6634724999999984</v>
+        <v>-4.0415000277777793</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
@@ -9180,23 +9180,23 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>7.0940857582562415</v>
+        <v>16.333722474527789</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>10.775140984942258</v>
+        <v>16.349983936366399</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>0.30242960409600073</v>
+        <v>0.55143396739600026</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>4.4670365368322402</v>
+        <v>10.882833762669009</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>0.54993600000000065</v>
+        <v>0.74258600000000019</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9224,14 +9224,14 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6.888007</v>
+        <v>6.9287840000000003</v>
       </c>
       <c r="I77">
         <v>7.2024429999999997</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>0.31443599999999972</v>
+        <v>0.27365899999999943</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>-1.4325524999999981</v>
+        <v>-2.5771530277777792</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
@@ -9247,23 +9247,23 @@
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>2.0522066652562447</v>
+        <v>6.6417177285841751</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>4.3694336064137431</v>
+        <v>7.8605838518610485</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>9.886999809599982E-2</v>
+        <v>7.4889248280999687E-2</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>1.2501845075722464</v>
+        <v>5.3060847360078993</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>0.31443599999999972</v>
+        <v>0.27365899999999943</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9291,14 +9291,14 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>6.7150550000000004</v>
+        <v>6.926984</v>
       </c>
       <c r="I78">
         <v>7.5207629999999996</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>0.8057079999999992</v>
+        <v>0.59377899999999961</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>-1.6055044999999977</v>
+        <v>-2.5789530277777795</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
@@ -9314,23 +9314,23 @@
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>2.5776446995202424</v>
+        <v>6.6509987194841758</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>4.3858909401282613</v>
+        <v>7.0451417106254937</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>0.6491653812639987</v>
+        <v>0.35257350084099953</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>0.6396744414122475</v>
+        <v>3.9409159205634534</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>0.8057079999999992</v>
+        <v>0.59377899999999961</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9358,14 +9358,14 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>8.4107599999999998</v>
+        <v>9.1725349999999999</v>
       </c>
       <c r="I79">
         <v>10.099689</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>1.6889289999999999</v>
+        <v>0.92715399999999981</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>9.0200500000001682E-2</v>
+        <v>-0.33340202777777961</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
@@ -9381,23 +9381,23 @@
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>8.1361302002503043E-3</v>
+        <v>0.11115691212633533</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>-1.3787836291787247E-2</v>
+        <v>5.0963049853934773E-2</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>2.8524811670409997</v>
+        <v>0.85961453971599966</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>3.1653017777702557</v>
+        <v>0.35254140451777616</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>1.6889289999999999</v>
+        <v>0.92715399999999981</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9425,14 +9425,14 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>9.2092290000000006</v>
+        <v>10.658953</v>
       </c>
       <c r="I80">
         <v>12.167942999999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>2.9587139999999987</v>
+        <v>1.5089899999999989</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>0.88866950000000244</v>
+        <v>1.1530159722222209</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
@@ -9448,23 +9448,23 @@
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>0.78973348023025436</v>
+        <v>1.3294458321995533</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>1.702154318302014</v>
+        <v>2.2084825868213582</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>8.753988533795992</v>
+        <v>2.2770508200999968</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>14.80235979607226</v>
+        <v>7.0862757961467659</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>2.9587139999999987</v>
+        <v>1.5089899999999989</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9492,14 +9492,14 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>10.318377</v>
+        <v>12.606221</v>
       </c>
       <c r="I81">
         <v>14.868748</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>4.5503710000000002</v>
+        <v>2.2625270000000004</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>1.9978175000000018</v>
+        <v>3.1002839722222202</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
@@ -9515,23 +9515,23 @@
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>3.9912747633062571</v>
+        <v>9.6117607084179877</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>9.2223278442532965</v>
+        <v>14.311535063696844</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>20.705876237641</v>
+        <v>5.1190284257290015</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>42.878772631532279</v>
+        <v>28.759741523787039</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>4.5503710000000002</v>
+        <v>2.2625270000000004</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9559,14 +9559,14 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>10.796206</v>
+        <v>13.598976</v>
       </c>
       <c r="I82">
         <v>16.696805999999999</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>5.900599999999999</v>
+        <v>3.0978299999999983</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>2.4756465000000016</v>
+        <v>4.0930389722222209</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
@@ -9582,23 +9582,23 @@
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>6.1288255929622579</v>
+        <v>16.752968028129935</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>15.953708109504316</v>
+        <v>26.376604674237136</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>34.817080359999984</v>
+        <v>9.59655070889999</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>70.161505428762254</v>
+        <v>51.708596575668238</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>5.900599999999999</v>
+        <v>3.0978299999999983</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9626,14 +9626,14 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>11.198941</v>
+        <v>14.638446</v>
       </c>
       <c r="I83">
         <v>16.748556000000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>5.5496150000000011</v>
+        <v>2.1101100000000006</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>2.8783815000000015</v>
+        <v>5.1325089722222206</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
@@ -9649,23 +9649,23 @@
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>8.285080059542258</v>
+        <v>26.342648349941594</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>18.697993142197376</v>
+        <v>33.340826282019087</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>30.798226648225011</v>
+        <v>4.4525642121000022</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>71.031125004012296</v>
+        <v>52.455529576793261</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>5.5496150000000011</v>
+        <v>2.1101100000000006</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9693,14 +9693,14 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>9.5919190000000008</v>
+        <v>11.913157</v>
       </c>
       <c r="I84">
         <v>14.161457</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>4.5695379999999997</v>
+        <v>2.2483000000000004</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>1.2713595000000026</v>
+        <v>2.4072199722222205</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
@@ -9716,23 +9716,23 @@
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>1.6163549782402566</v>
+        <v>5.794707994665548</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>4.969630310475206</v>
+        <v>9.4096070686039681</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>20.880677533443997</v>
+        <v>5.054852890000002</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>34.116083605506276</v>
+        <v>21.673866211759989</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>4.5695379999999997</v>
+        <v>2.2483000000000004</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9760,14 +9760,14 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>9.3302370000000003</v>
+        <v>9.4543990000000004</v>
       </c>
       <c r="I85">
         <v>11.1876</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>1.8573629999999994</v>
+        <v>1.7332009999999993</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>1.0096775000000022</v>
+        <v>-5.153802777777905E-2</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
@@ -9783,23 +9783,23 @@
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>1.0194486540062544</v>
+        <v>2.656168307223125E-3</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>0.94410233066440086</v>
+        <v>-4.8190805621446182E-2</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>3.4497973137689977</v>
+        <v>3.0039857064009978</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>8.2199212286402599</v>
+        <v>2.8279903521432721</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1.8573629999999994</v>
+        <v>1.7332009999999993</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9827,14 +9827,14 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>7.3961160000000001</v>
+        <v>8.0590740000000007</v>
       </c>
       <c r="I86">
         <v>9.3414070000000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>1.9452910000000001</v>
+        <v>1.2823329999999995</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>-0.92444349999999798</v>
+        <v>-1.4468630277777788</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
@@ -9850,23 +9850,23 @@
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>0.85459578469224629</v>
+        <v>2.0934126211502813</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>0.84229712532283973</v>
+        <v>1.318294270048008</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>3.7841570746810005</v>
+        <v>1.6443779228889988</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>1.0421296182562543</v>
+        <v>2.7070130040556813E-2</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>1.9452910000000001</v>
+        <v>1.2823329999999995</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9894,14 +9894,14 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.6604169999999998</v>
+        <v>4.7721220000000004</v>
       </c>
       <c r="I87">
         <v>6.1767459999999996</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1.5163289999999998</v>
+        <v>1.4046239999999992</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-3.6601424999999983</v>
+        <v>-4.7338150277777791</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
@@ -9917,23 +9917,23 @@
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>13.396643120306237</v>
+        <v>22.409004717214735</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>14.918011173814575</v>
+        <v>19.294086358430114</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>2.2992536362409997</v>
+        <v>1.9729685813759978</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>4.5959363227822436</v>
+        <v>11.083512899436069</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1.5163289999999998</v>
+        <v>1.4046239999999992</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9961,14 +9961,14 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4.879537</v>
+        <v>4.9702929999999999</v>
       </c>
       <c r="I88">
         <v>4.7506050000000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-0.12893199999999982</v>
+        <v>-0.21968799999999966</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-3.4410224999999981</v>
+        <v>-4.5356440277777796</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
@@ -9984,23 +9984,23 @@
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>11.840635845506236</v>
+        <v>20.572066746716239</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>18.932305004964846</v>
+        <v>24.954848777604976</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>1.6623460623999955E-2</v>
+        <v>4.8262817343999849E-2</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>12.744575132070235</v>
+        <v>22.613182694409126</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>0.12893199999999982</v>
+        <v>0.21968799999999966</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10028,14 +10028,14 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>6.8162089999999997</v>
+        <v>6.3430400000000002</v>
       </c>
       <c r="I89">
         <v>6.3771940000000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-0.43901499999999949</v>
+        <v>3.4154000000000018E-2</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>-1.5043504999999984</v>
+        <v>-3.1628970277777793</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
@@ -10051,23 +10051,23 @@
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>2.2630704268502453</v>
+        <v>10.00391760832551</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>5.829888693917983</v>
+        <v>12.257341372418521</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>0.19273417022499956</v>
+        <v>1.1664957160000013E-3</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>3.7766694665902416</v>
+        <v>9.7890329338680662</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>0.43901499999999949</v>
+        <v>3.4154000000000018E-2</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10095,14 +10095,14 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>8.2242040000000003</v>
+        <v>6.9417119999999999</v>
       </c>
       <c r="I90">
         <v>7.0906229999999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1335810000000004</v>
+        <v>0.14891100000000002</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
@@ -10110,7 +10110,7 @@
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>-9.6355499999997818E-2</v>
+        <v>-2.5642250277777796</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
@@ -10118,23 +10118,23 @@
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>9.2843823802495791E-3</v>
+        <v>6.5752499930819548</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>0.30466873407913192</v>
+        <v>8.1078837545039022</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>1.285005883561001</v>
+        <v>2.2174485921000006E-2</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>1.5127437940322457</v>
+        <v>5.833741852780121</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>1.1335810000000004</v>
+        <v>0.14891100000000002</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10162,14 +10162,14 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>7.5915020000000002</v>
+        <v>7.4535499999999999</v>
       </c>
       <c r="I91">
         <v>8.3418410000000005</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>0.75033900000000031</v>
+        <v>0.88829100000000061</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>-0.72905749999999792</v>
+        <v>-2.0523870277777796</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
@@ -10185,23 +10185,23 @@
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>0.53152483830624697</v>
+        <v>4.2122925117905083</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>1.3930142830747636</v>
+        <v>3.9215074861609911</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>0.56300861492100052</v>
+        <v>0.7890609006810011</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>4.5290224225010196E-4</v>
+        <v>1.3551195618880036</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>0.75033900000000031</v>
+        <v>0.88829100000000061</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10229,14 +10229,14 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>8.8253439999999994</v>
+        <v>9.5067590000000006</v>
       </c>
       <c r="I92">
         <v>10.444659</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>1.6193150000000003</v>
+        <v>0.93789999999999907</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
@@ -10244,7 +10244,7 @@
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>0.5047845000000013</v>
+        <v>8.2197222222113453E-4</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
@@ -10252,23 +10252,23 @@
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>0.25480739144025133</v>
+        <v>6.7563833410315016E-7</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>9.6975337473361622E-2</v>
+        <v>1.5791101676779559E-4</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>2.6221810692250007</v>
+        <v>0.87965640999999828</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>4.5117986859002563</v>
+        <v>0.88119894113277475</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>1.6193150000000003</v>
+        <v>0.93789999999999907</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10296,14 +10296,14 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>9.7733360000000005</v>
+        <v>11.51624</v>
       </c>
       <c r="I93">
         <v>13.197846</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>3.4245099999999997</v>
+        <v>1.6816060000000004</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>1.4527765000000024</v>
+        <v>2.0103029722222203</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
@@ -10319,23 +10319,23 @@
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>2.1105595589522568</v>
+        <v>4.0413180401254936</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>4.2788616838356104</v>
+        <v>5.9209440411119587</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>11.727268740099998</v>
+        <v>2.8277987392360013</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>23.78792360308227</v>
+        <v>13.630191859174934</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>3.4245099999999997</v>
+        <v>1.6816060000000004</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10363,14 +10363,14 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>11.41417</v>
+        <v>14.496236</v>
       </c>
       <c r="I94">
         <v>16.418118</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>5.0039479999999994</v>
+        <v>1.9218820000000001</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
@@ -10378,7 +10378,7 @@
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>3.0936105000000023</v>
+        <v>4.9902989722222202</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
@@ -10386,23 +10386,23 @@
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>9.5704259257102642</v>
+        <v>24.903083832162146</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>19.073876272588098</v>
+        <v>30.768044380309064</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>25.039495586703993</v>
+        <v>3.6936304219240004</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>65.570453660922283</v>
+        <v>47.778245792750916</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>5.0039479999999994</v>
+        <v>1.9218820000000001</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10430,14 +10430,14 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>11.607586</v>
+        <v>15.178988</v>
       </c>
       <c r="I95">
         <v>14.948691</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>3.3411050000000007</v>
+        <v>-0.2302970000000002</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>3.2870265000000014</v>
+        <v>5.6730509722222209</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
@@ -10453,23 +10453,23 @@
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>10.80454321170226</v>
+        <v>32.183507333431486</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>15.436350932362371</v>
+        <v>26.641466280969045</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>11.162982621025005</v>
+        <v>5.303670820900009E-2</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>43.93212718129228</v>
+        <v>29.623570802140762</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>3.3411050000000007</v>
+        <v>0.2302970000000002</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10497,14 +10497,14 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>10.119764999999999</v>
+        <v>12.659817</v>
       </c>
       <c r="I96">
         <v>12.859022</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>2.7392570000000003</v>
+        <v>0.19920499999999919</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
@@ -10512,7 +10512,7 @@
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>1.7992055000000011</v>
+        <v>3.1538799722222208</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
@@ -10520,23 +10520,23 @@
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>3.2371404312302539</v>
+        <v>9.9469588791844359</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>4.6895847886662905</v>
+        <v>8.2205104102964235</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>7.5035289120490019</v>
+        <v>3.9682632024999678E-2</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>20.597641863906262</v>
+        <v>11.243178830942487</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>2.7392570000000003</v>
+        <v>0.19920499999999919</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10564,14 +10564,14 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>9.1903980000000001</v>
+        <v>10.056915999999999</v>
       </c>
       <c r="I97">
         <v>10.140311000000001</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>0.94991300000000045</v>
+        <v>8.3395000000001218E-2</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>0.86983850000000196</v>
+        <v>0.55097897222221981</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
@@ -10587,23 +10587,23 @@
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>0.75661901608225346</v>
+        <v>0.30357782783105369</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>-9.7626887831712E-2</v>
+        <v>-6.183948206336061E-2</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>0.9023347075690008</v>
+        <v>6.9547260250002029E-3</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>3.3114955217522586</v>
+        <v>0.40243033663299926</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>0.94991300000000045</v>
+        <v>8.3395000000001218E-2</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10631,14 +10631,14 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7.5776729999999999</v>
+        <v>7.6801560000000002</v>
       </c>
       <c r="I98">
         <v>7.9655129999999996</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>0.38783999999999974</v>
+        <v>0.28535699999999942</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>-0.74288649999999823</v>
+        <v>-1.8257810277777793</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
@@ -10654,23 +10654,23 @@
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>0.55188035188224738</v>
+        <v>3.3334763613932838</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>1.699006422255005</v>
+        <v>4.1756226446782891</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>0.15041986559999979</v>
+        <v>8.1428617448999666E-2</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>0.12605801716224893</v>
+        <v>2.3729061853551183</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>0.38783999999999974</v>
+        <v>0.28535699999999942</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10698,14 +10698,14 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>5.8106280000000003</v>
+        <v>6.1206110000000002</v>
       </c>
       <c r="I99">
         <v>5.5748559999999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-0.23577200000000076</v>
+        <v>-0.54575500000000066</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5099314999999978</v>
+        <v>-3.3853260277777792</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
@@ -10721,23 +10721,23 @@
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>6.2997561346922391</v>
+        <v>11.460432314349678</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>11.740683105042443</v>
+        <v>15.835507901068635</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>5.5588435984000359E-2</v>
+        <v>0.29784852002500073</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>7.5388877099122418</v>
+        <v>15.453398046954407</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>0.23577200000000076</v>
+        <v>0.54575500000000066</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10765,14 +10765,14 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>6.3695870000000001</v>
+        <v>6.6705810000000003</v>
       </c>
       <c r="I100">
         <v>6.7227480000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>0.35316100000000006</v>
+        <v>5.2166999999999852E-2</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
@@ -10780,7 +10780,7 @@
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>-1.950972499999998</v>
+        <v>-2.8353560277777792</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
@@ -10788,23 +10788,23 @@
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>3.8062936957562421</v>
+        <v>8.0392438042557863</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>6.8865400930742036</v>
+        <v>10.008235873868705</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>0.12472269192100004</v>
+        <v>2.7213958889999845E-3</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>2.5530015895322435</v>
+        <v>7.7461411643426201</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>0.35316100000000006</v>
+        <v>5.2166999999999852E-2</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10832,14 +10832,14 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>5.5549609999999996</v>
+        <v>5.7661499999999997</v>
       </c>
       <c r="I101">
         <v>6.0133390000000002</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>0.45837800000000062</v>
+        <v>0.24718900000000055</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-2.7655984999999985</v>
+        <v>-3.7397870277777798</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
@@ -10855,23 +10855,23 @@
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>7.6485350632022415</v>
+        <v>13.986007013134961</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>11.723946312907037</v>
+        <v>15.853733770600792</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>0.21011039088400058</v>
+        <v>6.1102401721000267E-2</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>5.3232664356202406</v>
+        <v>12.198240983637234</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>0.45837800000000062</v>
+        <v>0.24718900000000055</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10899,14 +10899,14 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>6.5634100000000002</v>
+        <v>6.8529999999999998</v>
       </c>
       <c r="I102">
         <v>7.0182650000000004</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>0.45485500000000023</v>
+        <v>0.16526500000000066</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-1.7571494999999979</v>
+        <v>-2.6529370277777797</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
@@ -10922,23 +10922,23 @@
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>3.0875743653502425</v>
+        <v>7.0380748733544003</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>5.6831163809026854</v>
+        <v>8.5803455426343636</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>0.20689307102500021</v>
+        <v>2.731252022500022E-2</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>1.6959709647302439</v>
+        <v>6.1885121177880071</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>0.45485500000000023</v>
+        <v>0.16526500000000066</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10966,14 +10966,14 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>7.7157220000000004</v>
+        <v>8.1572969999999998</v>
       </c>
       <c r="I103">
         <v>8.6028570000000002</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>0.88713499999999978</v>
+        <v>0.4455600000000004</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-0.6048374999999977</v>
+        <v>-1.3486400277777797</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
@@ -10989,23 +10989,23 @@
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>0.36582840140624723</v>
+        <v>1.8188299245244504</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>0.99779416256180109</v>
+        <v>2.2248374929032328</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>0.78700850822499957</v>
+        <v>0.19852371360000035</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>7.9691878506251174E-2</v>
+        <v>0.81555353657111462</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>0.88713499999999978</v>
+        <v>0.4455600000000004</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11033,14 +11033,14 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>9.6403280000000002</v>
+        <v>11.317183</v>
       </c>
       <c r="I104">
         <v>11.752383999999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>2.112055999999999</v>
+        <v>0.43520099999999928</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>1.3197685000000021</v>
+        <v>1.8112459722222205</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
@@ -11056,23 +11056,23 @@
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>1.7417888935922556</v>
+        <v>3.2806119718912168</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>1.9794380920974941</v>
+        <v>2.7165743625301082</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>4.4607805471359958</v>
+        <v>0.18939991040099938</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>11.777419398800259</v>
+        <v>5.0465239990063786</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>2.112055999999999</v>
+        <v>0.43520099999999928</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11100,14 +11100,14 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>10.070378</v>
+        <v>12.480255</v>
       </c>
       <c r="I105">
         <v>13.440951999999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>3.3705739999999995</v>
+        <v>0.96069699999999969</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>1.7498185000000017</v>
+        <v>2.9743179722222202</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
@@ -11123,23 +11123,23 @@
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>3.0618647829422558</v>
+        <v>8.8465673998840995</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>5.579130670169385</v>
+        <v>9.4833313407424757</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>11.360769089475998</v>
+        <v>0.92293872580899938</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>26.218419354056262</v>
+        <v>15.484342831613038</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>3.3705739999999995</v>
+        <v>0.96069699999999969</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11167,14 +11167,14 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>11.386215999999999</v>
+        <v>14.768364999999999</v>
       </c>
       <c r="I106">
         <v>16.549931999999998</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>5.1637159999999991</v>
+        <v>1.781566999999999</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
@@ -11182,7 +11182,7 @@
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>3.0656565000000011</v>
+        <v>5.2624279722222198</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
@@ -11190,23 +11190,23 @@
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>9.398249775992257</v>
+        <v>27.693148162826866</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>19.305620336909421</v>
+        <v>33.13953682744765</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>26.663962928655991</v>
+        <v>3.1739809754889965</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>67.722571743756248</v>
+        <v>49.6178651686919</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>5.1637159999999991</v>
+        <v>1.781566999999999</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11234,14 +11234,14 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>11.27984</v>
+        <v>14.78607</v>
       </c>
       <c r="I107">
         <v>16.771944000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>5.4921040000000012</v>
+        <v>1.9858740000000008</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>2.959280500000002</v>
+        <v>5.280132972222221</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
@@ -11257,23 +11257,23 @@
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>8.7573410776802625</v>
+        <v>27.879804204348265</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>19.292725455086842</v>
+        <v>34.423284916531209</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>30.163206346816015</v>
+        <v>3.9436955438760033</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>71.425899966840305</v>
+        <v>52.794857320381936</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>5.4921040000000012</v>
+        <v>1.9858740000000008</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11301,14 +11301,14 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>9.3914950000000008</v>
+        <v>11.963168</v>
       </c>
       <c r="I108">
         <v>13.094060000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>3.7025649999999999</v>
+        <v>1.1308920000000011</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>1.0709355000000027</v>
+        <v>2.4572309722222201</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
@@ -11324,23 +11324,23 @@
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>1.1469028451602559</v>
+        <v>6.0379840508481566</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>3.043077522222148</v>
+        <v>6.982254616153349</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>13.708987579224999</v>
+        <v>1.2789167156640024</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>22.786307023500274</v>
+        <v>12.874626463788827</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>3.7025649999999999</v>
+        <v>1.1308920000000011</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11368,14 +11368,14 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>8.5094259999999995</v>
+        <v>10.635922000000001</v>
       </c>
       <c r="I109">
         <v>10.210146</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>1.7007200000000005</v>
+        <v>-0.42577600000000082</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>0.18886650000000138</v>
+        <v>1.1299849722222213</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
@@ -11391,23 +11391,23 @@
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>3.5670554822250525E-2</v>
+        <v>1.2768660374480543</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>-8.008062013472133E-3</v>
+        <v>-4.7912095219888484E-2</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>2.8924485184000015</v>
+        <v>0.18128520217600069</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>3.5705371409822568</v>
+        <v>0.49591027655827608</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>1.7007200000000005</v>
+        <v>0.42577600000000082</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11435,14 +11435,14 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>7.3764890000000003</v>
+        <v>8.687678</v>
       </c>
       <c r="I110">
         <v>7.540826</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>0.16433699999999973</v>
+        <v>-1.146852</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-0.94407049999999781</v>
+        <v>-0.81825902777777948</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
@@ -11458,23 +11458,23 @@
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>0.89126910897024592</v>
+        <v>0.66954783653983685</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>2.5600554681575396</v>
+        <v>2.2188899011586329</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>2.7006649568999914E-2</v>
+        <v>1.3152695099039999</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>0.60798433102224703</v>
+        <v>3.8616613514938409</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>0.16433699999999973</v>
+        <v>1.146852</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11502,14 +11502,14 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>6.0720700000000001</v>
+        <v>6.2619369999999996</v>
       </c>
       <c r="I111">
         <v>6.1656829999999996</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>9.3612999999999502E-2</v>
+        <v>-9.6254000000000062E-2</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-2.248489499999998</v>
+        <v>-3.2440000277777798</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
@@ -11525,23 +11525,23 @@
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>5.0557050316102412</v>
+        <v>10.523536180222237</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>9.1892700007927974</v>
+        <v>13.257785788116591</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>8.7633937689999067E-3</v>
+        <v>9.2648325160000124E-3</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>4.6434927302522437</v>
+        <v>11.157296970085682</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>9.3612999999999502E-2</v>
+        <v>9.6254000000000062E-2</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>
@@ -11557,10 +11557,10 @@
     </row>
     <row r="112" spans="4:22" x14ac:dyDescent="0.3">
       <c r="H112">
-        <v>5.7262389999999996</v>
+        <v>6.1383000000000001</v>
       </c>
       <c r="I112">
-        <v>4.7575370000000001</v>
+        <v>5.924798</v>
       </c>
       <c r="S112"/>
       <c r="T112"/>
@@ -11569,10 +11569,10 @@
     </row>
     <row r="113" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H113">
-        <v>4.4575110000000002</v>
+        <v>5.0824309999999997</v>
       </c>
       <c r="I113">
-        <v>3.4831840000000001</v>
+        <v>5.1351440000000004</v>
       </c>
       <c r="S113"/>
       <c r="T113"/>
@@ -11581,10 +11581,10 @@
     </row>
     <row r="114" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H114">
-        <v>5.5468640000000002</v>
+        <v>6.6425419999999997</v>
       </c>
       <c r="I114">
-        <v>4.3151520000000003</v>
+        <v>6.6382300000000001</v>
       </c>
       <c r="S114"/>
       <c r="T114"/>
@@ -11593,10 +11593,10 @@
     </row>
     <row r="115" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H115">
-        <v>6.8704989999999997</v>
+        <v>8.1711559999999999</v>
       </c>
       <c r="I115">
-        <v>5.6970710000000002</v>
+        <v>8.4642090000000003</v>
       </c>
       <c r="S115"/>
       <c r="T115"/>
@@ -11605,10 +11605,10 @@
     </row>
     <row r="116" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H116">
-        <v>8.6319359999999996</v>
+        <v>10.042151</v>
       </c>
       <c r="I116">
-        <v>8.0723490000000009</v>
+        <v>10.948725</v>
       </c>
       <c r="S116"/>
       <c r="T116"/>
@@ -11617,10 +11617,10 @@
     </row>
     <row r="117" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H117">
-        <v>10.440844</v>
+        <v>12.474290999999999</v>
       </c>
       <c r="I117">
-        <v>10.633053</v>
+        <v>14.313993</v>
       </c>
       <c r="S117"/>
       <c r="T117"/>
@@ -11629,10 +11629,10 @@
     </row>
     <row r="118" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H118">
-        <v>11.506855</v>
+        <v>13.748132999999999</v>
       </c>
       <c r="I118">
-        <v>11.493145</v>
+        <v>16.523859000000002</v>
       </c>
       <c r="S118"/>
       <c r="T118"/>
@@ -11641,10 +11641,10 @@
     </row>
     <row r="119" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H119">
-        <v>12.342603</v>
+        <v>14.490436000000001</v>
       </c>
       <c r="I119">
-        <v>11.438743000000001</v>
+        <v>16.571672</v>
       </c>
       <c r="S119"/>
       <c r="T119"/>
@@ -11653,10 +11653,10 @@
     </row>
     <row r="120" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H120">
-        <v>10.246929</v>
+        <v>12.206099999999999</v>
       </c>
       <c r="I120">
-        <v>9.8048599999999997</v>
+        <v>13.632498999999999</v>
       </c>
       <c r="S120"/>
       <c r="T120"/>
@@ -11665,10 +11665,10 @@
     </row>
     <row r="121" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H121">
-        <v>7.176329</v>
+        <v>9.6481670000000008</v>
       </c>
       <c r="I121">
-        <v>6.9135419999999996</v>
+        <v>9.641197</v>
       </c>
       <c r="S121"/>
       <c r="T121"/>
@@ -11677,10 +11677,10 @@
     </row>
     <row r="122" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H122">
-        <v>7.0608779999999998</v>
+        <v>8.9003510000000006</v>
       </c>
       <c r="I122">
-        <v>5.5912850000000001</v>
+        <v>7.1566989999999997</v>
       </c>
       <c r="S122"/>
       <c r="T122"/>
@@ -11689,10 +11689,10 @@
     </row>
     <row r="123" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H123">
-        <v>5.3229170000000003</v>
+        <v>6.0387649999999997</v>
       </c>
       <c r="I123">
-        <v>4.6995690000000003</v>
+        <v>5.9214380000000002</v>
       </c>
       <c r="S123"/>
       <c r="T123"/>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D4D0D-27B4-49CB-932E-90F35057C318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF8262-371B-4EC9-9A37-351FB59C3AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="37905" yWindow="-975" windowWidth="12930" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -841,328 +841,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.5227069999999996</c:v>
+                  <c:v>6.9533459999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6070089999999997</c:v>
+                  <c:v>6.6336500000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.774267</c:v>
+                  <c:v>6.3294480000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4198310000000003</c:v>
+                  <c:v>6.9640380000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5404520000000002</c:v>
+                  <c:v>7.7267659999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.450379999999999</c:v>
+                  <c:v>9.3968109999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.758582000000001</c:v>
+                  <c:v>8.2965389999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.000897</c:v>
+                  <c:v>6.603542</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.578806999999999</c:v>
+                  <c:v>7.6711900000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.269057</c:v>
+                  <c:v>6.5666969999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3639929999999998</c:v>
+                  <c:v>6.2461570000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8827429999999996</c:v>
+                  <c:v>5.7622669999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7665870000000004</c:v>
+                  <c:v>6.3580699999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1467510000000001</c:v>
+                  <c:v>5.4265869999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3792179999999998</c:v>
+                  <c:v>6.6431420000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.802861</c:v>
+                  <c:v>6.8063650000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0566659999999999</c:v>
+                  <c:v>8.1545120000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.8968170000000004</c:v>
+                  <c:v>9.4976129999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.332447</c:v>
+                  <c:v>8.8428880000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.217790000000001</c:v>
+                  <c:v>6.3898710000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.554982000000001</c:v>
+                  <c:v>5.8167309999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.250622</c:v>
+                  <c:v>6.8956809999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5549160000000004</c:v>
+                  <c:v>5.9200679999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3761929999999998</c:v>
+                  <c:v>5.2392079999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7455259999999999</c:v>
+                  <c:v>5.8181010000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.8703349999999999</c:v>
+                  <c:v>6.1459539999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9707939999999997</c:v>
+                  <c:v>5.8683129999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9841379999999997</c:v>
+                  <c:v>8.6282720000000008</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0325050000000005</c:v>
+                  <c:v>8.7094070000000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.316644</c:v>
+                  <c:v>9.7174420000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.732511000000001</c:v>
+                  <c:v>8.8218789999999991</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.718249</c:v>
+                  <c:v>6.7948449999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.816041999999999</c:v>
+                  <c:v>5.5379370000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.646215</c:v>
+                  <c:v>6.9853709999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.1557099999999991</c:v>
+                  <c:v>7.2559279999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6312959999999999</c:v>
+                  <c:v>5.4550590000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.1363120000000002</c:v>
+                  <c:v>5.6953379999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5056969999999996</c:v>
+                  <c:v>5.7222619999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.0525180000000001</c:v>
+                  <c:v>6.8889509999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.1045409999999993</c:v>
+                  <c:v>7.703233</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.7917360000000002</c:v>
+                  <c:v>8.3211359999999992</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.835266000000001</c:v>
+                  <c:v>9.3699349999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14.678535</c:v>
+                  <c:v>7.4623270000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.470969999999999</c:v>
+                  <c:v>7.1640350000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.300613</c:v>
+                  <c:v>7.8941119999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.938955</c:v>
+                  <c:v>7.0277820000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.654674</c:v>
+                  <c:v>6.2478129999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.4788030000000001</c:v>
+                  <c:v>5.4745939999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.6716660000000001</c:v>
+                  <c:v>6.8553620000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.2244809999999999</c:v>
+                  <c:v>6.4950049999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.3050899999999999</c:v>
+                  <c:v>7.6218719999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.3001799999999992</c:v>
+                  <c:v>8.5039850000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.006822</c:v>
+                  <c:v>9.6445229999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.721905</c:v>
+                  <c:v>9.1118009999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14.571548</c:v>
+                  <c:v>8.4929480000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14.761447</c:v>
+                  <c:v>6.8914710000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.885653</c:v>
+                  <c:v>6.320354</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.195872</c:v>
+                  <c:v>7.8317490000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.0642399999999999</c:v>
+                  <c:v>7.3607040000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9118930000000001</c:v>
+                  <c:v>6.9083500000000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.1087670000000003</c:v>
+                  <c:v>7.9205290000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.791963</c:v>
+                  <c:v>7.6663829999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.7714510000000008</c:v>
+                  <c:v>8.1107650000000007</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.8322920000000007</c:v>
+                  <c:v>7.6980170000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11.439719999999999</c:v>
+                  <c:v>8.2010389999999997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.391586</c:v>
+                  <c:v>7.3589830000000003</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.081728</c:v>
+                  <c:v>6.2621010000000004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.282311</c:v>
+                  <c:v>5.5592990000000002</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12.428732999999999</c:v>
+                  <c:v>6.4810210000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.578151999999999</c:v>
+                  <c:v>6.2884000000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.532743</c:v>
+                  <c:v>6.324751</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.241784</c:v>
+                  <c:v>6.1284650000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.4644370000000002</c:v>
+                  <c:v>6.20214</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.9287840000000003</c:v>
+                  <c:v>7.6137129999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.926984</c:v>
+                  <c:v>7.2152580000000004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.1725349999999999</c:v>
+                  <c:v>9.2051730000000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.658953</c:v>
+                  <c:v>8.7373890000000003</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.606221</c:v>
+                  <c:v>8.5063700000000004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.598976</c:v>
+                  <c:v>7.319496</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14.638446</c:v>
+                  <c:v>5.8575140000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.913157</c:v>
+                  <c:v>6.7531119999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.4543990000000004</c:v>
+                  <c:v>8.2922259999999994</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.0590740000000007</c:v>
+                  <c:v>7.3907439999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7721220000000004</c:v>
+                  <c:v>4.7191710000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9702929999999999</c:v>
+                  <c:v>5.9206380000000003</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.3430400000000002</c:v>
+                  <c:v>6.7117699999999996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.9417119999999999</c:v>
+                  <c:v>7.5358929999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.4535499999999999</c:v>
+                  <c:v>7.7648270000000004</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.5067590000000006</c:v>
+                  <c:v>9.353154</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.51624</c:v>
+                  <c:v>8.059825</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.496236</c:v>
+                  <c:v>7.0920290000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.178988</c:v>
+                  <c:v>6.2016299999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.659817</c:v>
+                  <c:v>6.4228800000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.056915999999999</c:v>
+                  <c:v>8.1535419999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.6801560000000002</c:v>
+                  <c:v>6.9475930000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.1206110000000002</c:v>
+                  <c:v>6.3911119999999997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.6705810000000003</c:v>
+                  <c:v>7.0854330000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.7661499999999997</c:v>
+                  <c:v>5.8742859999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.8529999999999998</c:v>
+                  <c:v>6.9364650000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.1572969999999998</c:v>
+                  <c:v>8.0298069999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.317183</c:v>
+                  <c:v>8.5964179999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.480255</c:v>
+                  <c:v>6.5889600000000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>14.768364999999999</c:v>
+                  <c:v>5.949872</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>14.78607</c:v>
+                  <c:v>5.667249</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11.963168</c:v>
+                  <c:v>5.3324990000000003</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.635922000000001</c:v>
+                  <c:v>6.0825930000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.687678</c:v>
+                  <c:v>6.535202</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.2619369999999996</c:v>
+                  <c:v>5.831226</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>6.1383000000000001</c:v>
@@ -1186,7 +1186,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1210,328 +1210,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.7575260000000004</c:v>
+                  <c:v>5.995069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0468979999999997</c:v>
+                  <c:v>5.7064260000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5625140000000002</c:v>
+                  <c:v>5.4635199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5006950000000003</c:v>
+                  <c:v>5.8469829999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.083938</c:v>
+                  <c:v>7.3546389999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.837152</c:v>
+                  <c:v>9.6800379999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.065334</c:v>
+                  <c:v>14.584220999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.599329000000001</c:v>
+                  <c:v>15.261647999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.234444999999999</c:v>
+                  <c:v>12.806131000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.104032999999999</c:v>
+                  <c:v>9.8069469999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7684309999999996</c:v>
+                  <c:v>6.3599959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5254580000000004</c:v>
+                  <c:v>5.272043</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8123259999999997</c:v>
+                  <c:v>4.6519149999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5251479999999997</c:v>
+                  <c:v>3.530357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5961270000000001</c:v>
+                  <c:v>4.778022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4708329999999998</c:v>
+                  <c:v>5.180104</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.912903</c:v>
+                  <c:v>6.3966960000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.841665000000001</c:v>
+                  <c:v>8.9151740000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.848522000000001</c:v>
+                  <c:v>13.210819000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.150067999999999</c:v>
+                  <c:v>15.696068</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.886526999999999</c:v>
+                  <c:v>14.140558</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.686559000000001</c:v>
+                  <c:v>10.113104</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.3908750000000003</c:v>
+                  <c:v>5.8270860000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6762090000000001</c:v>
+                  <c:v>3.21502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7243950000000003</c:v>
+                  <c:v>4.3466950000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0212640000000004</c:v>
+                  <c:v>4.3152239999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.2946020000000003</c:v>
+                  <c:v>4.1118129999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0125010000000003</c:v>
+                  <c:v>5.5996569999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9014100000000003</c:v>
+                  <c:v>7.8391130000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.643750000000001</c:v>
+                  <c:v>9.6897059999999993</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.857324999999999</c:v>
+                  <c:v>14.292591</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.432864</c:v>
+                  <c:v>15.783275</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.870347000000001</c:v>
+                  <c:v>13.040979999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.587904999999999</c:v>
+                  <c:v>8.8601080000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.4551409999999994</c:v>
+                  <c:v>7.1383010000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.7407919999999999</c:v>
+                  <c:v>4.9432869999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9180770000000003</c:v>
+                  <c:v>3.7774809999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.1956850000000001</c:v>
+                  <c:v>4.4470419999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.492057</c:v>
+                  <c:v>5.2057549999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5971530000000005</c:v>
+                  <c:v>6.2931949999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.077218</c:v>
+                  <c:v>9.0125589999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.704166000000001</c:v>
+                  <c:v>11.620977999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.750347000000001</c:v>
+                  <c:v>16.109044999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.772145</c:v>
+                  <c:v>16.403063</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.215868</c:v>
+                  <c:v>13.773477</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.9914310000000004</c:v>
+                  <c:v>7.6693629999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.4102540000000001</c:v>
+                  <c:v>6.3303070000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.2807459999999997</c:v>
+                  <c:v>3.3336269999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.2900869999999998</c:v>
+                  <c:v>4.5585680000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.9716139999999998</c:v>
+                  <c:v>4.6808779999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.3243400000000003</c:v>
+                  <c:v>5.966812</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8320469999999993</c:v>
+                  <c:v>6.9964919999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.221339</c:v>
+                  <c:v>9.3046369999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.324306</c:v>
+                  <c:v>11.878055</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.180609</c:v>
+                  <c:v>16.008330999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15.435485</c:v>
+                  <c:v>16.785382999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.738193000000001</c:v>
+                  <c:v>13.869374000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.838914000000001</c:v>
+                  <c:v>10.811021</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.3758119999999998</c:v>
+                  <c:v>7.4374570000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.792554</c:v>
+                  <c:v>6.9163920000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7203629999999999</c:v>
+                  <c:v>5.9007389999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.6048359999999997</c:v>
+                  <c:v>6.5825889999999996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.8436210000000006</c:v>
+                  <c:v>6.894501</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.058611000000001</c:v>
+                  <c:v>7.3208640000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.074730000000001</c:v>
+                  <c:v>10.762707000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.857534000000001</c:v>
+                  <c:v>15.518577000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18.027048000000001</c:v>
+                  <c:v>17.680610999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.185048999999999</c:v>
+                  <c:v>17.090021</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.390521</c:v>
+                  <c:v>13.509548000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.777958</c:v>
+                  <c:v>11.196471000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0507980000000003</c:v>
+                  <c:v>6.740685</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.1561149999999998</c:v>
+                  <c:v>5.9052759999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.2070230000000004</c:v>
+                  <c:v>4.9835349999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.2024429999999997</c:v>
+                  <c:v>5.8835810000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.5207629999999996</c:v>
+                  <c:v>5.9938599999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.099689</c:v>
+                  <c:v>7.9413900000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.167942999999999</c:v>
+                  <c:v>10.368010999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.868748</c:v>
+                  <c:v>13.459146</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.696805999999999</c:v>
+                  <c:v>15.561928</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.748556000000001</c:v>
+                  <c:v>16.301983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.161457</c:v>
+                  <c:v>12.822082999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.1876</c:v>
+                  <c:v>9.9084380000000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.3414070000000002</c:v>
+                  <c:v>8.2723960000000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.1767459999999996</c:v>
+                  <c:v>5.093515</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.7506050000000002</c:v>
+                  <c:v>3.808535</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.3771940000000003</c:v>
+                  <c:v>5.1422619999999997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.0906229999999999</c:v>
+                  <c:v>5.3439209999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.3418410000000005</c:v>
+                  <c:v>6.1178819999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.444659</c:v>
+                  <c:v>8.1831309999999995</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.197846</c:v>
+                  <c:v>11.747901000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>16.418118</c:v>
+                  <c:v>15.931585</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.948691</c:v>
+                  <c:v>16.562736999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.859022</c:v>
+                  <c:v>13.422396000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.140311000000001</c:v>
+                  <c:v>8.4957209999999996</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.9655129999999996</c:v>
+                  <c:v>6.7252989999999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.5748559999999996</c:v>
+                  <c:v>4.4009349999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.7227480000000002</c:v>
+                  <c:v>6.1181070000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.0133390000000002</c:v>
+                  <c:v>4.2502230000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.0182650000000004</c:v>
+                  <c:v>4.8250279999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.6028570000000002</c:v>
+                  <c:v>6.2287509999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.752383999999999</c:v>
+                  <c:v>10.341208999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>13.440951999999999</c:v>
+                  <c:v>12.749307</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.549931999999998</c:v>
+                  <c:v>16.671403999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.771944000000001</c:v>
+                  <c:v>16.85783</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.094060000000001</c:v>
+                  <c:v>12.116732000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.210146</c:v>
+                  <c:v>9.4111759999999993</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.540826</c:v>
+                  <c:v>6.3036919999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.1656829999999996</c:v>
+                  <c:v>5.5905180000000003</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.924798</c:v>
@@ -3736,7 +3736,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="H3" sqref="H3:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-0.74660962037036782</v>
+        <v>-1.955695037037037</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3782,11 +3782,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>9.5059370277777795</v>
+        <v>7.0996879537037039</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>10.252546648148147</v>
+        <v>9.0553829907407408</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3796,12 +3796,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>1.2847670291176394</v>
+        <v>21.243440797427443</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>0.88510549074074085</v>
+        <v>3.2551501111111127</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3820,11 +3820,11 @@
       </c>
       <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>7.8541401882703629E-2</v>
+        <v>0.27546211182659186</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>G</v>
+        <v>NS</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -3838,11 +3838,11 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.90586250889943931</v>
+        <v>-0.21240521248037503</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>VG</v>
+        <v>NS</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3927,46 +3927,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>6.5227069999999996</v>
+        <v>6.9533459999999998</v>
       </c>
       <c r="I4">
-        <v>6.7575260000000004</v>
+        <v>5.995069</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.23481900000000078</v>
+        <v>-0.95827699999999982</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-3.4950206481481469</v>
+        <v>-3.0603139907407408</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-2.9832300277777799</v>
+        <v>-0.14634195370370406</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>12.215169330981894</v>
+        <v>9.3655217219235194</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>8.899661398635013</v>
+        <v>2.1415967413817065E-2</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>10.426450545258911</v>
+        <v>0.44785232835177935</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>5.5139962761000368E-2</v>
+        <v>0.91829480872899971</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>7.5537631776105085</v>
+        <v>1.2201830328814656</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.23481900000000078</v>
+        <v>0.95827699999999982</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.300738164330137</v>
+        <v>0.99758367086710587</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
-        <v>VG</v>
+        <v>NS</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4026,46 +4026,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>6.6070089999999997</v>
+        <v>6.6336500000000003</v>
       </c>
       <c r="I5">
-        <v>7.0468979999999997</v>
+        <v>5.7064260000000004</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>0.43988899999999997</v>
+        <v>-0.92722399999999983</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.2056486481481477</v>
+        <v>-3.3489569907407404</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-2.8989280277777798</v>
+        <v>-0.4660379537037036</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>10.276183255374047</v>
+        <v>11.215512925831275</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>8.4037837102355688</v>
+        <v>0.21719137429233537</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>9.2929447133246157</v>
+        <v>1.5607410630065277</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.19350233232099998</v>
+        <v>0.85974434617599971</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>6.0468729401342882</v>
+        <v>1.9411788716382605</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>0.43988899999999997</v>
+        <v>0.92722399999999983</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4106,11 +4106,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.96672570758377796</v>
+        <v>2.1723221838647958E-2</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>VG</v>
+        <v>NS</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4125,46 +4125,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>6.774267</v>
+        <v>6.3294480000000002</v>
       </c>
       <c r="I6">
-        <v>7.5625140000000002</v>
+        <v>5.4635199999999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>0.78824700000000014</v>
+        <v>-0.86592800000000025</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6900326481481471</v>
+        <v>-3.5918629907407409</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7316700277777795</v>
+        <v>-0.77023995370370368</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>7.2362756481029331</v>
+        <v>12.90147974425302</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>7.4620211406594548</v>
+        <v>0.59326958628148363</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>7.3482815586899823</v>
+        <v>2.7665963836981948</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>0.62133333300900018</v>
+        <v>0.74983130118400043</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>3.7768930648969512</v>
+        <v>2.677045572726966</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>0.78824700000000014</v>
+        <v>0.86592800000000025</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>9.5059370277777795</v>
+        <v>7.0996879537037039</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4221,46 +4221,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>7.4198310000000003</v>
+        <v>6.9640380000000004</v>
       </c>
       <c r="I7">
-        <v>8.5006950000000003</v>
+        <v>5.8469829999999998</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.080864</v>
+        <v>-1.1170550000000006</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-1.751851648148147</v>
+        <v>-3.208399990740741</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0861060277777792</v>
+        <v>-0.13564995370370347</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>3.068984197119379</v>
+        <v>10.293830500585187</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>4.3518383591307845</v>
+        <v>1.8400909939816894E-2</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>3.6545482829742868</v>
+        <v>0.43521931020694415</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>1.168266986496</v>
+        <v>1.2478118730250012</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>1.0105115344107813</v>
+        <v>1.5692697010337993</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.080864</v>
+        <v>1.1170550000000006</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>3.1096011323949786</v>
+        <v>1.1438218355266607</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4317,46 +4317,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>8.5404520000000002</v>
+        <v>7.7267659999999996</v>
       </c>
       <c r="I8">
-        <v>10.083938</v>
+        <v>7.3546389999999997</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.5434859999999997</v>
+        <v>-0.37212699999999987</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.16860864814814747</v>
+        <v>-1.7007439907407411</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.96548502777777934</v>
+        <v>0.62707804629629571</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.8428876230345793E-2</v>
+        <v>2.8925301220407422</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.9321613388630593</v>
+        <v>0.3932268761467792</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.16278912534088799</v>
+        <v>-1.0664992189638691</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>2.3823490321959992</v>
+        <v>0.1384785041289999</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>0.33408512388983197</v>
+        <v>6.5000036007575979E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>1.5434859999999997</v>
+        <v>0.37212699999999987</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>10.252546648148147</v>
+        <v>9.0553829907407408</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4413,46 +4413,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>10.450379999999999</v>
+        <v>9.3968109999999996</v>
       </c>
       <c r="I9">
-        <v>11.837152</v>
+        <v>9.6800379999999997</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.3867720000000006</v>
+        <v>0.28322700000000012</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.5846053518518524</v>
+        <v>0.62465500925925888</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.94444297222221962</v>
+        <v>2.2971230462962957</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>2.5109741211175329</v>
+        <v>0.39019388059268478</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>0.89197252777994029</v>
+        <v>5.2767742898255738</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.4965693883021995</v>
+        <v>1.4349094177538695</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>1.9231365799840014</v>
+        <v>8.0217533529000074E-2</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>5.4345632467130471</v>
+        <v>6.6582063614212963</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>1.3867720000000006</v>
+        <v>0.28322700000000012</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>3.6942891261951312</v>
+        <v>4.1858969541271742</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4508,46 +4508,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>13.758582000000001</v>
+        <v>8.2965389999999992</v>
       </c>
       <c r="I10">
-        <v>16.065334</v>
+        <v>14.584220999999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>2.3067519999999995</v>
+        <v>6.2876820000000002</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>5.8127873518518527</v>
+        <v>5.5288380092592586</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>4.252644972222221</v>
+        <v>1.1968510462962954</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>33.788496797848872</v>
+        <v>30.568049732629881</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>18.084989259766935</v>
+        <v>1.432452427020537</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>24.719720906449702</v>
+        <v>6.6171955561846705</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>5.3211047895039973</v>
+        <v>39.534944933124002</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>43.025688639198037</v>
+        <v>56.018234921101303</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>2.3067519999999995</v>
+        <v>6.2876820000000002</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>1.1334756411664255</v>
+        <v>4.609060728329303</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4603,46 +4603,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>14.000897</v>
+        <v>6.603542</v>
       </c>
       <c r="I11">
-        <v>15.599329000000001</v>
+        <v>15.261647999999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>1.5984320000000007</v>
+        <v>8.6581060000000001</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>5.3467823518518536</v>
+        <v>6.2062650092592584</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>4.4949599722222207</v>
+        <v>-0.49614595370370385</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>28.588081518074439</v>
+        <v>38.517725365155826</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>20.204665151879986</v>
+        <v>0.24616080737655785</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>24.033572651758266</v>
+        <v>-3.0792132719568612</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>2.5549848586240023</v>
+        <v>74.962799507235999</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>37.129425727142213</v>
+        <v>66.617591797337028</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>1.5984320000000007</v>
+        <v>8.6581060000000001</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.98322210491006456</v>
+        <v>0.14738799760715918</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -4699,46 +4699,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>11.578806999999999</v>
+        <v>7.6711900000000002</v>
       </c>
       <c r="I12">
-        <v>13.234444999999999</v>
+        <v>12.806131000000001</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.6556379999999997</v>
+        <v>5.1349410000000004</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>2.9818983518518518</v>
+        <v>3.7507480092592598</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>2.0728699722222199</v>
+        <v>0.57150204629629631</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>8.8917177807767906</v>
+        <v>14.0681106289623</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>4.2967899217405465</v>
+        <v>0.32661458892085399</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>6.1810875537726311</v>
+        <v>2.1435601624334266</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>2.7411371870439991</v>
+        <v>26.367619073481006</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>13.901771698924648</v>
+        <v>32.563492240623361</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>1.6556379999999997</v>
+        <v>5.1349410000000004</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>0.88510549074074085</v>
+        <v>3.2551501111111127</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4794,46 +4794,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>10.269057</v>
+        <v>6.5666969999999996</v>
       </c>
       <c r="I13">
-        <v>11.104032999999999</v>
+        <v>9.8069469999999992</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0.83497599999999927</v>
+        <v>3.2402499999999996</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.85148635185185206</v>
+        <v>0.75156400925925837</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>0.76311997222222061</v>
+        <v>-0.53299095370370431</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.725029007389976</v>
+        <v>0.56484846001385058</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>0.58235209200444271</v>
+        <v>0.28407935672998424</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>0.64978624117278527</v>
+        <v>-0.40057681806447176</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>0.69718492057599879</v>
+        <v>10.499220062499997</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>2.5539107364328824</v>
+        <v>7.3292515437531263</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>0.83497599999999927</v>
+        <v>3.2402499999999996</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4882,46 +4882,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>7.3639929999999998</v>
+        <v>6.2461570000000002</v>
       </c>
       <c r="I14">
-        <v>7.7684309999999996</v>
+        <v>6.3599959999999998</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>0.40443799999999985</v>
+        <v>0.11383899999999958</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4841156481481477</v>
+        <v>-2.6953869907407411</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1419440277777797</v>
+        <v>-0.85353095370370369</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>6.1708305533744916</v>
+        <v>7.2651110298544275</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>4.5879242181328976</v>
+        <v>0.72851508893035399</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>5.3208366768602531</v>
+        <v>2.3005962288075006</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>0.16357009584399987</v>
+        <v>1.2959317920999905E-2</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>3.0189271965641189</v>
+        <v>0.54714418637400275</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>0.40443799999999985</v>
+        <v>0.11383899999999958</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4959,7 +4959,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.300738164330137</v>
+        <v>0.99758367086710587</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4974,46 +4974,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>5.8827429999999996</v>
+        <v>5.7622669999999996</v>
       </c>
       <c r="I15">
-        <v>6.5254580000000004</v>
+        <v>5.272043</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0.64271500000000081</v>
+        <v>-0.49022399999999955</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7270886481481469</v>
+        <v>-3.7833399907407408</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6231940277777799</v>
+        <v>-1.3374209537037043</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>13.891189791154781</v>
+        <v>14.313661485538148</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>13.127534962924571</v>
+        <v>1.7886948074057258</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>13.503965330968725</v>
+        <v>5.059918178601845</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>0.41308257122500103</v>
+        <v>0.24031957017599956</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>8.8832552350231744</v>
+        <v>3.3402860767986136</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.64271500000000081</v>
+        <v>0.49022399999999955</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5062,46 +5062,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5.7665870000000004</v>
+        <v>6.3580699999999997</v>
       </c>
       <c r="I16">
-        <v>5.8123259999999997</v>
+        <v>4.6519149999999998</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>4.5738999999999308E-2</v>
+        <v>-1.7061549999999999</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4402206481481477</v>
+        <v>-4.403467990740741</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7393500277777791</v>
+        <v>-0.7416179537037042</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>19.715559404241155</v>
+        <v>19.3905303454783</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>13.982738630241677</v>
+        <v>0.54999718925566954</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>16.603539203992245</v>
+        <v>3.2656909204929101</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>2.0920561209999368E-3</v>
+        <v>2.9109648840249998</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>13.642762424521628</v>
+        <v>5.9915924328833556</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>4.5738999999999308E-2</v>
+        <v>1.7061549999999999</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5129,46 +5129,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>5.1467510000000001</v>
+        <v>5.4265869999999996</v>
       </c>
       <c r="I17">
-        <v>5.5251479999999997</v>
+        <v>3.530357</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>0.37839699999999965</v>
+        <v>-1.8962299999999996</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7273986481481476</v>
+        <v>-5.5250259907407404</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3591860277777794</v>
+        <v>-1.6731009537037043</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>22.348297978512932</v>
+        <v>30.5259121983607</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>19.002502824773014</v>
+        <v>2.7992668012842445</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>20.607610134742966</v>
+        <v>9.2439262543460856</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>0.14318428960899973</v>
+        <v>3.5956882128999985</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>15.846681283675961</v>
+        <v>12.740123457067392</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>0.37839699999999965</v>
+        <v>1.8962299999999996</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5196,46 +5196,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6.3792179999999998</v>
+        <v>6.6431420000000001</v>
       </c>
       <c r="I18">
-        <v>6.5961270000000001</v>
+        <v>4.778022</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>0.21690900000000024</v>
+        <v>-1.8651200000000001</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6564196481481472</v>
+        <v>-4.2773609907407408</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1267190277777797</v>
+        <v>-0.45654595370370377</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>13.36940464336382</v>
+        <v>18.295817045110613</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>9.7763718786676232</v>
+        <v>0.20843420784322442</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>11.432596887405346</v>
+        <v>1.9528118528527507</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>4.7049514281000106E-2</v>
+        <v>3.4786726144000002</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>8.4669943977561211</v>
+        <v>5.3901328005869287</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>0.21690900000000024</v>
+        <v>1.8651200000000001</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5263,46 +5263,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>6.802861</v>
+        <v>6.8063650000000004</v>
       </c>
       <c r="I19">
-        <v>7.4708329999999998</v>
+        <v>5.180104</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>0.66797199999999979</v>
+        <v>-1.6262610000000004</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7817136481481475</v>
+        <v>-3.8752789907407408</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7030760277777794</v>
+        <v>-0.29332295370370343</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>7.7379308202936752</v>
+        <v>15.017787256076575</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>7.3066200119468983</v>
+        <v>8.6038355169464939E-2</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>7.5191834784515299</v>
+        <v>1.1367082799899808</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>0.44618659278399969</v>
+        <v>2.6447248401210013</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>4.1416484038773413</v>
+        <v>3.6848025553167432</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>0.66797199999999979</v>
+        <v>1.6262610000000004</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5333,46 +5333,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>8.0566659999999999</v>
+        <v>8.1545120000000004</v>
       </c>
       <c r="I20">
-        <v>8.912903</v>
+        <v>6.3966960000000004</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>0.85623700000000014</v>
+        <v>-1.757816</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3396436481481473</v>
+        <v>-2.6586869907407404</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4492710277777796</v>
+        <v>1.0548240462962966</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>1.7946451040236771</v>
+        <v>7.0686165147340541</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2.1003865119560619</v>
+        <v>1.1126537686448916</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>1.9415067268076396</v>
+        <v>-2.8044469694084722</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>0.73314180016900021</v>
+        <v>3.0899170898560002</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.35168935810233609</v>
+        <v>0.49419768697215</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>0.85623700000000014</v>
+        <v>1.757816</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5406,46 +5406,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.8968170000000004</v>
+        <v>9.4976129999999994</v>
       </c>
       <c r="I21">
-        <v>10.841665000000001</v>
+        <v>8.9151740000000004</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>0.94484800000000035</v>
+        <v>-0.58243899999999904</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.58911835185185346</v>
+        <v>-0.14020899074074045</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.39087997222222093</v>
+        <v>2.3979250462962955</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.34706043248864421</v>
+        <v>1.9658561084537042E-2</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>0.15278715268444421</v>
+        <v>5.7500445276550911</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>0.23027456500745305</v>
+        <v>-0.33621065061314692</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>0.89273774310400067</v>
+        <v>0.33923518872099889</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>1.7841692157768871</v>
+        <v>3.2959895842965583</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>0.94484800000000035</v>
+        <v>0.58243899999999904</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5479,46 +5479,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>12.332447</v>
+        <v>8.8428880000000003</v>
       </c>
       <c r="I22">
-        <v>13.848522000000001</v>
+        <v>13.210819000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>1.5160750000000007</v>
+        <v>4.3679310000000005</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>3.5959753518518536</v>
+        <v>4.1554360092592599</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.8265099722222207</v>
+        <v>1.7432000462962964</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>12.931038731126062</v>
+        <v>17.267648427048524</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>7.9891586230716589</v>
+        <v>3.0387464014074101</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>10.164060191874572</v>
+        <v>7.2437562437220393</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>2.2984834056250021</v>
+        <v>19.078821220761004</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>18.858044240970273</v>
+        <v>37.345922665006469</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>1.5160750000000007</v>
+        <v>4.3679310000000005</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5552,46 +5552,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>14.217790000000001</v>
+        <v>6.3898710000000003</v>
       </c>
       <c r="I23">
-        <v>15.150067999999999</v>
+        <v>15.696068</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>0.93227799999999839</v>
+        <v>9.3061970000000009</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>4.8975213518518519</v>
+        <v>6.6406850092592595</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>4.7118529722222213</v>
+        <v>-0.70981695370370357</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>23.985715391844792</v>
+        <v>44.098697392200648</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>22.201558431839381</v>
+        <v>0.5038401077652056</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>23.07640053824494</v>
+        <v>-4.7136708037782578</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>0.86914226928399696</v>
+        <v>86.605302602809019</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>31.85621443159814</v>
+        <v>73.89774990036112</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>0.93227799999999839</v>
+        <v>9.3061970000000009</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5625,46 +5625,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>12.554982000000001</v>
+        <v>5.8167309999999999</v>
       </c>
       <c r="I24">
-        <v>12.886526999999999</v>
+        <v>14.140558</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>0.33154499999999842</v>
+        <v>8.3238270000000014</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>2.6339803518518519</v>
+        <v>5.0851750092592596</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>3.0490449722222213</v>
+        <v>-1.282956953703704</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>6.9378524939416053</v>
+        <v>25.859004874794909</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>9.2966752426336061</v>
+        <v>1.6459785450566882</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>8.031124548746007</v>
+        <v>-6.5240606389294644</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>0.10992208702499895</v>
+        <v>69.286095925929018</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>11.428388560289427</v>
+        <v>49.573851008832413</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>0.33154499999999842</v>
+        <v>8.3238270000000014</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5698,46 +5698,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>10.250622</v>
+        <v>6.8956809999999997</v>
       </c>
       <c r="I25">
-        <v>10.686559000000001</v>
+        <v>10.113104</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>0.43593700000000091</v>
+        <v>3.2174230000000001</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>0.4340123518518535</v>
+        <v>1.057721009259259</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>0.74468497222222041</v>
+        <v>-0.20400695370370414</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.18836672155997708</v>
+        <v>1.1187737334284256</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>0.55455570785360919</v>
+        <v>4.1618837159465287E-2</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>0.32320247618289805</v>
+        <v>-0.21578244096738888</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>0.1900410679690008</v>
+        <v>10.351810760929</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>1.3938682412938874</v>
+        <v>9.0806762680760009</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>0.43593700000000091</v>
+        <v>3.2174230000000001</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5771,46 +5771,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>7.5549160000000004</v>
+        <v>5.9200679999999997</v>
       </c>
       <c r="I26">
-        <v>7.3908750000000003</v>
+        <v>5.8270860000000004</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-0.1640410000000001</v>
+        <v>-9.2981999999999232E-2</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-2.861671648148147</v>
+        <v>-3.2282969907407404</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9510210277777791</v>
+        <v>-1.1796199537037042</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>8.1891646218149319</v>
+        <v>10.421901460425721</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>3.8064830508310612</v>
+        <v>1.3915032351759293</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>5.5831815601325285</v>
+        <v>3.8081635467593999</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>2.6909449681000033E-2</v>
+        <v>8.6456523239998567E-3</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>4.4734873813474509</v>
+        <v>1.619515732570483</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>0.1640410000000001</v>
+        <v>9.2981999999999232E-2</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5844,46 +5844,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>5.3761929999999998</v>
+        <v>5.2392079999999996</v>
       </c>
       <c r="I27">
-        <v>4.6762090000000001</v>
+        <v>3.21502</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-0.69998399999999972</v>
+        <v>-2.0241879999999997</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5763376481481473</v>
+        <v>-5.8403629907407408</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1297440277777797</v>
+        <v>-1.8604799537037042</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>31.095541566154409</v>
+        <v>34.109839863614134</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>17.054785734966238</v>
+        <v>3.4613856581333375</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>23.028847099312202</v>
+        <v>10.865878266626162</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>0.48997760025599962</v>
+        <v>4.0973370593439986</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>23.32627282230224</v>
+        <v>15.090645110532522</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>0.69998399999999972</v>
+        <v>2.0241879999999997</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5917,46 +5917,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>5.7455259999999999</v>
+        <v>5.8181010000000004</v>
       </c>
       <c r="I28">
-        <v>5.7243950000000003</v>
+        <v>4.3466950000000004</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1130999999999567E-2</v>
+        <v>-1.471406</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-4.528151648148147</v>
+        <v>-4.7086879907407404</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7604110277777796</v>
+        <v>-1.2815869537037035</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>20.50415734862678</v>
+        <v>22.171742594146071</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>14.140691097832736</v>
+        <v>1.6424651199035385</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>17.027711393146419</v>
+        <v>6.0345930979946374</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>4.4651916099998167E-4</v>
+        <v>2.1650356168360001</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>14.300060107849678</v>
+        <v>7.5789702031422417</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>2.1130999999999567E-2</v>
+        <v>1.471406</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -5990,46 +5990,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5.8703349999999999</v>
+        <v>6.1459539999999997</v>
       </c>
       <c r="I29">
-        <v>6.0212640000000004</v>
+        <v>4.3152239999999997</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>0.15092900000000053</v>
+        <v>-1.83073</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2312826481481469</v>
+        <v>-4.7401589907407411</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6356020277777796</v>
+        <v>-0.95373395370370417</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>17.903752848519595</v>
+        <v>22.46910725750028</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>13.217602104381903</v>
+        <v>0.90960845444729932</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>15.383259775708336</v>
+        <v>4.520850575423327</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>2.2779563041000161E-2</v>
+        <v>3.3515723329</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>12.142946110521954</v>
+        <v>7.7532395094752635</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>0.15092900000000053</v>
+        <v>1.83073</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6063,46 +6063,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5.9707939999999997</v>
+        <v>5.8683129999999997</v>
       </c>
       <c r="I30">
-        <v>6.2946020000000003</v>
+        <v>4.1118129999999997</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>0.32380800000000054</v>
+        <v>-1.7565</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-3.9579446481481471</v>
+        <v>-4.9435699907407411</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-3.5351430277777798</v>
+        <v>-1.2313749537037042</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>15.665325837804559</v>
+        <v>24.438884253352413</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>12.497236226845848</v>
+        <v>1.5162842766087996</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>13.9919004272313</v>
+        <v>6.0873882684794012</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>0.10485162086400035</v>
+        <v>3.0852922499999997</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>10.31267266063251</v>
+        <v>8.9273967389699127</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>0.32380800000000054</v>
+        <v>1.7565</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6136,46 +6136,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>7.9841379999999997</v>
+        <v>8.6282720000000008</v>
       </c>
       <c r="I31">
-        <v>8.0125010000000003</v>
+        <v>5.5996569999999997</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>2.8363000000000582E-2</v>
+        <v>-3.0286150000000012</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-2.240045648148147</v>
+        <v>-3.4557259907407412</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5217990277777798</v>
+        <v>1.528584046296297</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>5.0178045057874519</v>
+        <v>11.942042123081077</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>2.3158722809453955</v>
+        <v>2.3365691865915599</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>3.4088992895296966</v>
+        <v>-5.2823676178177621</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>8.0445976900003302E-4</v>
+        <v>9.1725088182250065</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>2.2303511690646718</v>
+        <v>2.2500928620692444</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>2.8363000000000582E-2</v>
+        <v>3.0286150000000012</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6209,46 +6209,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>9.0325050000000005</v>
+        <v>8.7094070000000006</v>
       </c>
       <c r="I32">
-        <v>9.9014100000000003</v>
+        <v>7.8391130000000002</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>0.86890499999999982</v>
+        <v>-0.87029400000000035</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-0.35113664814814705</v>
+        <v>-1.2162699907407406</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-0.47343202777777904</v>
+        <v>1.6097190462962967</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.12329694567271562</v>
+        <v>1.4793126903764813</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>0.22413788492577974</v>
+        <v>2.5911954080090589</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>0.16623933535986979</v>
+        <v>-1.9578529695339906</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>0.75499589902499964</v>
+        <v>0.75741164643600056</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>0.15639887175827741</v>
+        <v>0.54674939909027997</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>0.86890499999999982</v>
+        <v>0.87029400000000035</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6276,46 +6276,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>10.316644</v>
+        <v>9.7174420000000001</v>
       </c>
       <c r="I33">
-        <v>11.643750000000001</v>
+        <v>9.6897059999999993</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>1.3271060000000006</v>
+        <v>-2.7736000000000871E-2</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>1.3912033518518534</v>
+        <v>0.63432300925925844</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.81070697222222066</v>
+        <v>2.6177540462962963</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>1.9354467662038317</v>
+        <v>0.40236568007572127</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>0.65724579480972045</v>
+        <v>6.8526362469006319</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>1.1278582571252207</v>
+        <v>1.6605016241472668</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>1.7612103352360016</v>
+        <v>7.6928569600004837E-4</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>4.5702443042016077</v>
+        <v>6.708193480140479</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>1.3271060000000006</v>
+        <v>2.7736000000000871E-2</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6343,46 +6343,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>13.732511000000001</v>
+        <v>8.8218789999999991</v>
       </c>
       <c r="I34">
-        <v>14.857324999999999</v>
+        <v>14.292591</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>1.1248139999999989</v>
+        <v>5.4707120000000007</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>4.6047783518518521</v>
+        <v>5.237208009259259</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>4.2265739722222211</v>
+        <v>1.7221910462962953</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>21.20398366968346</v>
+        <v>27.428347732249332</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>17.863927542666325</v>
+        <v>2.9659419999431282</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>19.462436329789377</v>
+        <v>9.019472741137541</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>1.2652065345959975</v>
+        <v>29.928689786944009</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>28.637353229244642</v>
+        <v>51.737854233418531</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>1.1248139999999989</v>
+        <v>5.4707120000000007</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6410,46 +6410,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>14.718249</v>
+        <v>6.7948449999999996</v>
       </c>
       <c r="I35">
-        <v>15.432864</v>
+        <v>15.783275</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>0.71461500000000022</v>
+        <v>8.988430000000001</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>5.180317351851853</v>
+        <v>6.7278920092592589</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>5.2123119722222206</v>
+        <v>-0.30484295370370429</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>26.835687865897395</v>
+        <v>45.26453088825459</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>27.168196095771094</v>
+        <v>9.29292264227988E-2</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>27.001430152967924</v>
+        <v>-2.0509504723021421</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>0.51067459822500028</v>
+        <v>80.791873864900012</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>35.128463334055262</v>
+        <v>75.404683990604823</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>0.71461500000000022</v>
+        <v>8.988430000000001</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6477,46 +6477,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>12.816041999999999</v>
+        <v>5.5379370000000003</v>
       </c>
       <c r="I36">
-        <v>12.870347000000001</v>
+        <v>13.040979999999999</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>5.4305000000001158E-2</v>
+        <v>7.503042999999999</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>2.6178003518518533</v>
+        <v>3.9855970092592585</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>3.31010497222222</v>
+        <v>-1.5617509537037035</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>6.8528786821556871</v>
+        <v>15.884983520216347</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>10.956794927130264</v>
+        <v>2.4390660413944274</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>8.665193960949896</v>
+        <v>-6.2245099302892752</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>2.9490330250001259E-3</v>
+        <v>56.295654259848988</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>11.319254461188327</v>
+        <v>35.298951179383621</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>5.4305000000001158E-2</v>
+        <v>7.503042999999999</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6544,46 +6544,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>10.646215</v>
+        <v>6.9853709999999998</v>
       </c>
       <c r="I37">
-        <v>10.587904999999999</v>
+        <v>8.8601080000000003</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-5.8310000000000528E-2</v>
+        <v>1.8747370000000005</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>0.33535835185185192</v>
+        <v>-0.19527499074074051</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>1.1402779722222203</v>
+        <v>-0.11431695370370409</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.11246522415679051</v>
+        <v>3.8132322008796293E-2</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>1.3002338539352185</v>
+        <v>1.3068365904094825E-2</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>0.38240174141741556</v>
+        <v>2.2323242076000477E-2</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>3.4000561000000614E-3</v>
+        <v>3.5146388191690021</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>1.1706546929146622</v>
+        <v>3.0990787394018544</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>5.8310000000000528E-2</v>
+        <v>1.8747370000000005</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6611,46 +6611,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>8.1557099999999991</v>
+        <v>7.2559279999999999</v>
       </c>
       <c r="I38">
-        <v>8.4551409999999994</v>
+        <v>7.1383010000000002</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>0.29943100000000022</v>
+        <v>-0.1176269999999997</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.797405648148148</v>
+        <v>-1.9170819907407406</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3502270277777804</v>
+        <v>0.15624004629629606</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3.230667063994864</v>
+        <v>3.6752033592224809</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>1.8231130265416189</v>
+        <v>2.4410952066668736E-2</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>2.4269056860100688</v>
+        <v>-0.29952497898712871</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>8.9658923761000139E-2</v>
+        <v>1.383611112899993E-2</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1.1041722919935613</v>
+        <v>1.4909673442799261E-3</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>0.29943100000000022</v>
+        <v>0.1176269999999997</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6678,46 +6678,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>5.6312959999999999</v>
+        <v>5.4550590000000003</v>
       </c>
       <c r="I39">
-        <v>6.7407919999999999</v>
+        <v>4.9432869999999998</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1.109496</v>
+        <v>-0.51177200000000056</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5117546481481474</v>
+        <v>-4.1120959907407411</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-3.8746410277777796</v>
+        <v>-1.6446289537037035</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>12.332420708790119</v>
+        <v>16.909333437066078</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>15.012843094138848</v>
+        <v>2.7048043953605387</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>13.606788639204133</v>
+        <v>6.7628721267811391</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>1.2309813740160001</v>
+        <v>0.26191057998400058</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>7.6460270246441775</v>
+        <v>4.650065073134245</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>1.109496</v>
+        <v>0.51177200000000056</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6745,46 +6745,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>5.1363120000000002</v>
+        <v>5.6953379999999996</v>
       </c>
       <c r="I40">
-        <v>4.9180770000000003</v>
+        <v>3.7774809999999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-0.21823499999999996</v>
+        <v>-1.9178569999999997</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3344696481481471</v>
+        <v>-5.277901990740741</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3696250277777793</v>
+        <v>-1.4043499537037043</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>28.456566427013815</v>
+        <v>27.856249423865076</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>19.093622883381958</v>
+        <v>1.9721987924675963</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>23.309632084469069</v>
+        <v>7.4120214163494484</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>4.7626515224999978E-2</v>
+        <v>3.678175472448999</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>21.048459634481127</v>
+        <v>11.037059043237244</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>0.21823499999999996</v>
+        <v>1.9178569999999997</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6812,46 +6812,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>5.5056969999999996</v>
+        <v>5.7222619999999997</v>
       </c>
       <c r="I41">
-        <v>6.1956850000000001</v>
+        <v>4.4470419999999997</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>0.68998800000000049</v>
+        <v>-1.27522</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-4.0568616481481472</v>
+        <v>-4.6083409907407411</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0002400277777799</v>
+        <v>-1.3774259537037041</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>16.458126432215302</v>
+        <v>21.236806686941357</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>16.001920279835574</v>
+        <v>1.8973022579365588</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>16.228420352078754</v>
+        <v>6.3476484841629377</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>0.47608344014400067</v>
+        <v>1.6261860484000001</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>10.9577684874069</v>
+        <v>7.0365305557006339</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>0.68998800000000049</v>
+        <v>1.27522</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6879,46 +6879,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>7.0525180000000001</v>
+        <v>6.8889509999999996</v>
       </c>
       <c r="I42">
-        <v>7.492057</v>
+        <v>5.2057549999999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>0.4395389999999999</v>
+        <v>-1.6831959999999997</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7604896481481473</v>
+        <v>-3.8496279907407409</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4534190277777794</v>
+        <v>-0.21073695370370427</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>7.6203030975330828</v>
+        <v>14.819635667094595</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>6.0192649258620641</v>
+        <v>4.4410063656317195E-2</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>6.772637828750252</v>
+        <v>0.81125887566121557</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>0.19319453252099991</v>
+        <v>2.8331487744159989</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>4.0557127662822303</v>
+        <v>3.5869820331248365</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>0.4395389999999999</v>
+        <v>1.6831959999999997</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6946,46 +6946,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>8.1045409999999993</v>
+        <v>7.703233</v>
       </c>
       <c r="I43">
-        <v>8.5971530000000005</v>
+        <v>6.2931949999999999</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>0.49261200000000116</v>
+        <v>-1.4100380000000001</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6553936481481468</v>
+        <v>-2.762187990740741</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4013960277777802</v>
+        <v>0.60354504629629613</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>2.7403281303292304</v>
+        <v>7.6296824961923715</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>1.9639108266713408</v>
+        <v>0.36426662290879824</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>2.3198620829233811</v>
+        <v>-1.6671048787506937</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>0.24266658254400114</v>
+        <v>1.9882071614440004</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>0.82588840914400297</v>
+        <v>0.65043088437372487</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>0.49261200000000116</v>
+        <v>1.4100380000000001</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7013,46 +7013,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>9.7917360000000002</v>
+        <v>8.3211359999999992</v>
       </c>
       <c r="I44">
-        <v>11.077218</v>
+        <v>9.0125589999999995</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1.285482</v>
+        <v>0.69142300000000034</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>0.82467135185185292</v>
+        <v>-4.282399074074128E-2</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>0.28579897222222073</v>
+        <v>1.2214480462962953</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.68008283856516261</v>
+        <v>1.833894182963095E-3</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>8.1681052523277689E-2</v>
+        <v>1.4919353298010367</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>0.23569022478036894</v>
+        <v>-5.2307279824889079E-2</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>1.652463972324</v>
+        <v>0.47806576492900049</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>2.4689238936676072</v>
+        <v>3.6590756397586848</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>1.285482</v>
+        <v>0.69142300000000034</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7080,46 +7080,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>11.835266000000001</v>
+        <v>9.3699349999999999</v>
       </c>
       <c r="I45">
-        <v>13.704166000000001</v>
+        <v>11.620977999999999</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>1.8689</v>
+        <v>2.2510429999999992</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>3.4516193518518534</v>
+        <v>2.5655950092592583</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>2.3293289722222212</v>
+        <v>2.270247046296296</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>11.913676150078208</v>
+        <v>6.5822777515360134</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>5.4257734608338293</v>
+        <v>5.1540216512170565</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>8.0399569573514071</v>
+        <v>5.824534491763349</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>3.4927872099999999</v>
+        <v>5.0671945878489968</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>17.625126503206047</v>
+        <v>20.442063682737956</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>1.8689</v>
+        <v>2.2510429999999992</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7147,46 +7147,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>14.678535</v>
+        <v>7.4623270000000002</v>
       </c>
       <c r="I46">
-        <v>16.750347000000001</v>
+        <v>16.109044999999998</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>2.0718120000000013</v>
+        <v>8.6467179999999981</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>6.4978003518518541</v>
+        <v>7.0536620092592575</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>5.1725979722222206</v>
+        <v>0.36263904629629629</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>42.221409412526079</v>
+        <v>49.754147740867346</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>26.755769782237429</v>
+        <v>0.13150707789868732</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>33.610508923893732</v>
+        <v>2.5579332639341943</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>4.2924049633440058</v>
+        <v>74.765732171523965</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>52.481475845632772</v>
+        <v>81.168514387648685</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>2.0718120000000013</v>
+        <v>8.6467179999999981</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7214,46 +7214,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>14.470969999999999</v>
+        <v>7.1640350000000002</v>
       </c>
       <c r="I47">
-        <v>15.772145</v>
+        <v>16.403063</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>1.3011750000000006</v>
+        <v>9.2390279999999994</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>5.5195983518518528</v>
+        <v>7.3476800092592587</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>4.96503297222222</v>
+        <v>6.4347046296296284E-2</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>30.46596596576569</v>
+        <v>53.988401518468137</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>24.651552415253811</v>
+        <v>4.1405423670576973E-3</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>27.404987810367871</v>
+        <v>0.47280150572617624</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>1.6930563806250016</v>
+        <v>85.359638384783992</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>39.265362351141313</v>
+        <v>86.552787252048603</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>1.3011750000000006</v>
+        <v>9.2390279999999994</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7281,46 +7281,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>12.300613</v>
+        <v>7.8941119999999998</v>
       </c>
       <c r="I48">
-        <v>13.215868</v>
+        <v>13.773477</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>0.91525500000000015</v>
+        <v>5.879365</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>2.9633213518518531</v>
+        <v>4.7180940092592589</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>2.7946759722222208</v>
+        <v>0.79442404629629593</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>8.7812734343410934</v>
+        <v>22.260411080208108</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>7.8102137897162152</v>
+        <v>0.63110956533377938</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>8.2815229799934436</v>
+        <v>3.748167333642054</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>0.83769171502500028</v>
+        <v>34.566932803225001</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>13.763587818653713</v>
+        <v>44.539460234464421</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>0.91525500000000015</v>
+        <v>5.879365</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7348,46 +7348,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>9.938955</v>
+        <v>7.0277820000000002</v>
       </c>
       <c r="I49">
-        <v>9.9914310000000004</v>
+        <v>7.6693629999999997</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>5.2476000000000411E-2</v>
+        <v>0.64158099999999951</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-0.26111564814814692</v>
+        <v>-1.3860199907407411</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>0.43301797222222049</v>
+        <v>-7.1905953703703673E-2</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>6.8181381707826866E-2</v>
+        <v>1.921051414732964</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>0.18750456426744372</v>
+        <v>5.1704661780391757E-3</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-0.11306776847660138</v>
+        <v>9.9663089286611523E-2</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>2.753730576000043E-3</v>
+        <v>0.41162617956099939</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>0.23570439706411062</v>
+        <v>0.32452965837268682</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>5.2476000000000411E-2</v>
+        <v>0.64158099999999951</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7415,46 +7415,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>7.654674</v>
+        <v>6.2478129999999998</v>
       </c>
       <c r="I50">
-        <v>7.4102540000000001</v>
+        <v>6.3303070000000004</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-0.24441999999999986</v>
+        <v>8.2494000000000511E-2</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.8422926481481472</v>
+        <v>-2.7250759907407405</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8512630277777795</v>
+        <v>-0.85187495370370403</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>8.0786274977170081</v>
+        <v>7.4260391553116278</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>3.4271747980169516</v>
+        <v>0.72569093674768792</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>5.2618312936412623</v>
+        <v>2.3214239834513437</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>5.9741136399999929E-2</v>
+        <v>6.8052600360000845E-3</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>4.3918873529158411</v>
+        <v>0.59194705192202035</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>0.24441999999999986</v>
+        <v>8.2494000000000511E-2</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7482,46 +7482,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>5.4788030000000001</v>
+        <v>5.4745939999999997</v>
       </c>
       <c r="I51">
-        <v>4.2807459999999997</v>
+        <v>3.3336269999999999</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1980570000000004</v>
+        <v>-2.1409669999999998</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.9718006481481476</v>
+        <v>-5.7217559907407409</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0271340277777794</v>
+        <v>-1.6250939537037041</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>35.662402981222634</v>
+        <v>32.738491617577559</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>16.217808477685679</v>
+        <v>2.6409303583643369</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>24.049241597262803</v>
+        <v>9.2983910651207253</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>1.4353405752490009</v>
+        <v>4.5837396950889993</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>27.302621276769411</v>
+        <v>14.183215107011652</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>1.1980570000000004</v>
+        <v>2.1409669999999998</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7549,46 +7549,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>6.6716660000000001</v>
+        <v>6.8553620000000004</v>
       </c>
       <c r="I52">
-        <v>5.2900869999999998</v>
+        <v>4.5585680000000002</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3815790000000003</v>
+        <v>-2.2967940000000002</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9624596481481476</v>
+        <v>-4.4968149907407406</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8342710277777794</v>
+        <v>-0.24432595370370347</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>24.626005759498636</v>
+        <v>20.221345060950647</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>8.0330922589005098</v>
+        <v>5.9695171653224251E-2</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>14.064955607262608</v>
+        <v>1.0986886112418419</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>1.9087605332410009</v>
+        <v>5.2752626784360013</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>17.773391456713906</v>
+        <v>6.457290619111113</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>1.3815790000000003</v>
+        <v>2.2967940000000002</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7616,46 +7616,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>6.2244809999999999</v>
+        <v>6.4950049999999999</v>
       </c>
       <c r="I53">
-        <v>5.9716139999999998</v>
+        <v>4.6808779999999999</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-0.25286700000000017</v>
+        <v>-1.814127</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2809326481481476</v>
+        <v>-4.374504990740741</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-3.2814560277777796</v>
+        <v>-0.60468295370370395</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>18.326384337980713</v>
+        <v>19.136293914015649</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>10.767953662239124</v>
+        <v>0.36564147449983575</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>14.047692242776431</v>
+        <v>2.6451885987927053</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>6.3941719689000087E-2</v>
+        <v>3.2910567721290001</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>12.491439264680292</v>
+        <v>5.8506415921361148</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>0.25286700000000017</v>
+        <v>1.814127</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7683,46 +7683,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>7.3050899999999999</v>
+        <v>7.6218719999999998</v>
       </c>
       <c r="I54">
-        <v>7.3243400000000003</v>
+        <v>5.966812</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>1.9250000000000433E-2</v>
+        <v>-1.6550599999999998</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-2.928206648148147</v>
+        <v>-3.0885709907407408</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2008470277777796</v>
+        <v>0.52218404629629589</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>8.5743941742590053</v>
+        <v>9.5392707648452415</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>4.8437276396782867</v>
+        <v>0.27267617820637208</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>6.4445348982959842</v>
+        <v>-1.6128024972183594</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>3.7056250000001671E-4</v>
+        <v>2.7392236035999993</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>4.75936559160884</v>
+        <v>1.2834079264800766</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1.9250000000000433E-2</v>
+        <v>1.6550599999999998</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7750,46 +7750,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>8.3001799999999992</v>
+        <v>8.5039850000000001</v>
       </c>
       <c r="I55">
-        <v>8.8320469999999993</v>
+        <v>6.9964919999999999</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>0.53186700000000009</v>
+        <v>-1.5074930000000002</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-1.420499648148148</v>
+        <v>-2.0588909907407409</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2057570277777803</v>
+        <v>1.4042970462962963</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>2.0178192503890124</v>
+        <v>4.2390321117533896</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>1.4538500100355067</v>
+        <v>1.9720501942365021</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1.7127774337104935</v>
+        <v>-2.8912945369432776</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>0.28288250568900009</v>
+        <v>2.2725351450490008</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>0.45412776953833733</v>
+        <v>1.0649404860817006E-2</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>0.53186700000000009</v>
+        <v>1.5074930000000002</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7817,46 +7817,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>10.006822</v>
+        <v>9.6445229999999995</v>
       </c>
       <c r="I56">
-        <v>11.221339</v>
+        <v>9.3046369999999996</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>1.2145170000000007</v>
+        <v>-0.33988599999999991</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>0.96879235185185308</v>
+        <v>0.24925400925925878</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.50088497222222017</v>
+        <v>2.5448350462962956</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>0.93855862100664467</v>
+        <v>6.2127561131814661E-2</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>0.25088575539805424</v>
+        <v>6.4761854128578689</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.48525353024641477</v>
+        <v>0.63431033819282312</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>1.4750515432890017</v>
+        <v>0.11552249299599994</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>2.9426039263038852</v>
+        <v>4.8618002967629437</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>1.2145170000000007</v>
+        <v>0.33988599999999991</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7884,46 +7884,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>11.721905</v>
+        <v>9.1118009999999998</v>
       </c>
       <c r="I57">
-        <v>13.324306</v>
+        <v>11.878055</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>1.6024010000000004</v>
+        <v>2.766254</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>3.0717593518518527</v>
+        <v>2.822672009259259</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>2.2159679722222201</v>
+        <v>2.0121130462962959</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>9.4357055156893139</v>
+        <v>7.9674772718557021</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>4.9105140539146577</v>
+        <v>4.0485989110757599</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>6.8069203420777908</v>
+        <v>5.6795351752459338</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>2.5676889648010013</v>
+        <v>7.652161192516</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>14.579941608029376</v>
+        <v>22.832791629130387</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>1.6024010000000004</v>
+        <v>2.766254</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7951,46 +7951,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>14.571548</v>
+        <v>8.4929480000000002</v>
       </c>
       <c r="I58">
-        <v>16.180609</v>
+        <v>16.008330999999998</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>1.6090610000000005</v>
+        <v>7.5153829999999981</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>5.9280623518518532</v>
+        <v>6.9529480092592575</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>5.0656109722222205</v>
+        <v>1.3932600462962963</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>35.141923247443323</v>
+        <v>48.343486019462269</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>25.660414521898151</v>
+        <v>1.9411735566055577</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>30.029257693558208</v>
+        <v>9.6872646652762935</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>2.5890773017210016</v>
+        <v>56.480981636688973</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>44.551245936768872</v>
+        <v>79.363920926323317</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>1.6090610000000005</v>
+        <v>7.5153829999999981</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8018,46 +8018,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>14.761447</v>
+        <v>6.8914710000000001</v>
       </c>
       <c r="I59">
-        <v>15.435485</v>
+        <v>16.785382999999999</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>0.67403799999999947</v>
+        <v>9.8939120000000003</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>5.1829383518518526</v>
+        <v>7.7300000092592587</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>5.2555099722222209</v>
+        <v>-0.20821695370370374</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>26.862849959096799</v>
+        <v>59.752900143148139</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>27.620385068127209</v>
+        <v>4.3354299809650311E-2</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>27.238984193570413</v>
+        <v>-1.6095170540575645</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>0.45432722544399928</v>
+        <v>97.889494663744003</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>35.159539154884648</v>
+        <v>93.8126885298486</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>0.67403799999999947</v>
+        <v>9.8939120000000003</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8085,46 +8085,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>12.885653</v>
+        <v>6.320354</v>
       </c>
       <c r="I60">
-        <v>13.738193000000001</v>
+        <v>13.869374000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>0.85254000000000119</v>
+        <v>7.5490200000000005</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>3.4856463518518535</v>
+        <v>4.8139910092592597</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>3.3797159722222201</v>
+        <v>-0.77933395370370384</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>12.149730490178134</v>
+        <v>23.174509437228984</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>11.422480052893986</v>
+        <v>0.60736141139544675</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>11.780494648871821</v>
+        <v>-3.7517066463401023</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>0.72682445160000198</v>
+        <v>56.987702960400007</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>17.911990614410659</v>
+        <v>45.828649165418788</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>0.85254000000000119</v>
+        <v>7.5490200000000005</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8152,46 +8152,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>11.195872</v>
+        <v>7.8317490000000003</v>
       </c>
       <c r="I61">
-        <v>11.838914000000001</v>
+        <v>10.811021</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>0.64304200000000122</v>
+        <v>2.9792719999999999</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.5863673518518535</v>
+        <v>1.7556380092592594</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>1.6899349722222201</v>
+        <v>0.73206104629629642</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>2.5165613750214626</v>
+        <v>3.0822648195558155</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>2.8558802103397158</v>
+        <v>0.5359133755044283</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>2.6808576666859989</v>
+        <v>1.2852341979758803</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>0.41350301376400156</v>
+        <v>8.876061649983999</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>5.442781552919163</v>
+        <v>13.773992980530947</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>0.64304200000000122</v>
+        <v>2.9792719999999999</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8219,46 +8219,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>8.0642399999999999</v>
+        <v>7.3607040000000001</v>
       </c>
       <c r="I62">
-        <v>8.3758119999999998</v>
+        <v>7.4374570000000002</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>0.31157199999999996</v>
+        <v>7.6753000000000071E-2</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8767346481481475</v>
+        <v>-1.6179259907407406</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4416970277777796</v>
+        <v>0.26101604629629627</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>3.5221329395597509</v>
+        <v>2.617684511514407</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>2.0784903199032838</v>
+        <v>6.8129376424150276E-2</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>2.7056827641627614</v>
+        <v>-0.42230464530316614</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>9.7077111183999976E-2</v>
+        <v>5.8910230090000112E-3</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1.2771825784097273</v>
+        <v>0.11408792863590958</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>0.31157199999999996</v>
+        <v>7.6753000000000071E-2</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8286,46 +8286,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>6.9118930000000001</v>
+        <v>6.9083500000000004</v>
       </c>
       <c r="I63">
-        <v>7.792554</v>
+        <v>6.9163920000000001</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>0.88066099999999992</v>
+        <v>8.0419999999996605E-3</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4599926481481473</v>
+        <v>-2.1389909907407407</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5940440277777794</v>
+        <v>-0.19133795370370343</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>6.0515638289429345</v>
+        <v>4.5752824584700553</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>6.7290644180495649</v>
+        <v>3.6610212527520558E-2</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>6.3813292373059456</v>
+        <v>0.40927015915899057</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>0.77556379692099986</v>
+        <v>6.4673763999994544E-5</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>2.9356813998769513</v>
+        <v>3.359740664415032E-2</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>0.88066099999999992</v>
+        <v>8.0419999999996605E-3</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8353,46 +8353,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>7.1087670000000003</v>
+        <v>7.9205290000000002</v>
       </c>
       <c r="I64">
-        <v>6.7203629999999999</v>
+        <v>5.9007389999999997</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-0.38840400000000042</v>
+        <v>-2.0197900000000004</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5321836481481474</v>
+        <v>-3.1546439907407411</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3971700277777792</v>
+        <v>0.82084104629629628</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>12.476321324245156</v>
+        <v>9.9517787083166684</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>5.7464241420761191</v>
+        <v>0.67378002328479847</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>8.4672447739475114</v>
+        <v>-2.5894612740519536</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>0.15085766721600033</v>
+        <v>4.0795516441000013</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>7.7594226642301223</v>
+        <v>1.437478593587207</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>0.38840400000000042</v>
+        <v>2.0197900000000004</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8420,46 +8420,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>7.791963</v>
+        <v>7.6663829999999997</v>
       </c>
       <c r="I65">
-        <v>7.6048359999999997</v>
+        <v>6.5825889999999996</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>-0.18712700000000027</v>
+        <v>-1.0837940000000001</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6477106481481476</v>
+        <v>-2.4727939907407412</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7139740277777795</v>
+        <v>0.56669504629629586</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>7.0103716763170842</v>
+        <v>6.1147101206435215</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>2.9377069678967844</v>
+        <v>0.32114327549676092</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>4.5381072839965961</v>
+        <v>-1.4013201050640265</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>3.5016514129000101E-2</v>
+        <v>1.1746094344360003</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>3.6141851178177307</v>
+        <v>0.26739132792146569</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>0.18712700000000027</v>
+        <v>1.0837940000000001</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8487,46 +8487,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>8.7714510000000008</v>
+        <v>8.1107650000000007</v>
       </c>
       <c r="I66">
-        <v>8.8436210000000006</v>
+        <v>6.894501</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>7.2169999999999845E-2</v>
+        <v>-1.2162640000000007</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4089256481481467</v>
+        <v>-2.1608819907407408</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-0.73448602777777872</v>
+        <v>1.0110770462962968</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>1.9850714820096753</v>
+        <v>4.6694109779076669</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>0.53946972500077994</v>
+        <v>1.0222767935472439</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>1.0348362027425646</v>
+        <v>-2.1848181805930098</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>5.2085088999999779E-3</v>
+        <v>1.4792981176960016</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>0.43866252065133554</v>
+        <v>4.2101685970205915E-2</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>7.2169999999999845E-2</v>
+        <v>1.2162640000000007</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8554,46 +8554,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>8.8322920000000007</v>
+        <v>7.6980170000000001</v>
       </c>
       <c r="I67">
-        <v>10.058611000000001</v>
+        <v>7.3208640000000003</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>1.2263190000000002</v>
+        <v>-0.37715299999999985</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19393564814814646</v>
+        <v>-1.7345189907407406</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-0.67364502777777879</v>
+        <v>0.59832904629629624</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3.7611035622641661E-2</v>
+        <v>3.0085561292402772</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>0.45379762344972435</v>
+        <v>0.35799764764183539</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.13064378508385965</v>
+        <v>-1.0378130935127217</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>1.5038582897610004</v>
+        <v>0.14224438540899989</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>0.30544851957188873</v>
+        <v>4.8918843455261443E-2</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>1.2263190000000002</v>
+        <v>0.37715299999999985</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8621,46 +8621,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>11.439719999999999</v>
+        <v>8.2010389999999997</v>
       </c>
       <c r="I68">
-        <v>13.074730000000001</v>
+        <v>10.762707000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>1.6350100000000012</v>
+        <v>2.5616680000000009</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>2.8221833518518533</v>
+        <v>1.7073240092592599</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.93378297222222</v>
+        <v>1.1013510462962959</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>7.9647188714697617</v>
+        <v>2.9149552725931134</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>3.7395165836566031</v>
+        <v>1.2129741271779457</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>5.4574901103001441</v>
+        <v>1.8803630839644727</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>2.6732577001000037</v>
+        <v>6.5621429422240052</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>12.736283278582714</v>
+        <v>13.417708533529431</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>1.6350100000000012</v>
+        <v>2.5616680000000009</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8688,46 +8688,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>14.391586</v>
+        <v>7.3589830000000003</v>
       </c>
       <c r="I69">
-        <v>16.857534000000001</v>
+        <v>15.518577000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>2.4659480000000009</v>
+        <v>8.1595940000000002</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>6.6049873518518538</v>
+        <v>6.4631940092592597</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>4.8856489722222207</v>
+        <v>0.25929504629629641</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>43.625857918122968</v>
+        <v>41.772876801324784</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>23.86956587977604</v>
+        <v>6.7233921033798494E-2</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>32.269649667115779</v>
+        <v>1.6758741898528253</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>6.0808995387040046</v>
+        <v>66.578974244836004</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>54.045978041986935</v>
+        <v>70.87769277384777</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>2.4659480000000009</v>
+        <v>8.1595940000000002</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8755,46 +8755,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>15.081728</v>
+        <v>6.2621010000000004</v>
       </c>
       <c r="I70">
-        <v>18.027048000000001</v>
+        <v>17.680610999999999</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>2.9453200000000006</v>
+        <v>11.418509999999998</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>7.7745013518518533</v>
+        <v>8.6252280092592581</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>5.5757909722222205</v>
+        <v>-0.83758695370370351</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>60.442871269946295</v>
+        <v>74.394558211710432</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>31.089444965914815</v>
+        <v>0.70155190501464992</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>43.348994451185014</v>
+        <v>-7.224378453275321</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>8.6749099024000031</v>
+        <v>130.38237062009995</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>72.60933220092592</v>
+        <v>111.95593251164406</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>2.9453200000000006</v>
+        <v>11.418509999999998</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8822,46 +8822,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>15.282311</v>
+        <v>5.5592990000000002</v>
       </c>
       <c r="I71">
-        <v>17.185048999999999</v>
+        <v>17.090021</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>1.9027379999999994</v>
+        <v>11.530722000000001</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>6.932502351851852</v>
+        <v>8.0346380092592593</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>5.7763739722222205</v>
+        <v>-1.5403889537037037</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>48.059588858431461</v>
+        <v>64.5554079398336</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>33.366496266966315</v>
+        <v>2.3727981286923909</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>40.044726147606369</v>
+        <v>-12.376467636470879</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>3.6204118966439975</v>
+        <v>132.95754984128402</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>58.968760681926632</v>
+        <v>99.806754375919837</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>1.9027379999999994</v>
+        <v>11.530722000000001</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8889,46 +8889,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>12.428732999999999</v>
+        <v>6.4810210000000001</v>
       </c>
       <c r="I72">
-        <v>14.390521</v>
+        <v>13.509548000000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>1.9617880000000003</v>
+        <v>7.0285270000000004</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>4.1379743518518524</v>
+        <v>4.4541650092592597</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>2.9227959722222199</v>
+        <v>-0.61866695370370373</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>17.122831736583759</v>
+        <v>19.839585929709543</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>8.5427362952384307</v>
+        <v>0.38274879960502067</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>12.094454768751445</v>
+        <v>-2.7556446975720554</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>3.8486121569440011</v>
+        <v>49.400191789729007</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>23.859160581690205</v>
+        <v>41.086305813105561</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>1.9617880000000003</v>
+        <v>7.0285270000000004</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8956,46 +8956,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>11.578151999999999</v>
+        <v>6.2884000000000002</v>
       </c>
       <c r="I73">
-        <v>11.777958</v>
+        <v>11.196471000000001</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>0.19980600000000059</v>
+        <v>4.9080710000000005</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>1.5254113518518526</v>
+        <v>2.1410880092592599</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>2.0722149722222198</v>
+        <v>-0.81128795370370366</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>2.3268797923584965</v>
+        <v>4.5842578633937805</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>4.2940748911019355</v>
+        <v>0.65818814382474278</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>3.1609802421051456</v>
+        <v>-1.7370389097314816</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>3.9922437636000237E-2</v>
+        <v>24.089160941041005</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>5.1620792982176038</v>
+        <v>16.783631328420768</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>0.19980600000000059</v>
+        <v>4.9080710000000005</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9023,46 +9023,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>7.532743</v>
+        <v>6.324751</v>
       </c>
       <c r="I74">
-        <v>8.0507980000000003</v>
+        <v>6.740685</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>0.51805500000000038</v>
+        <v>0.41593400000000003</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-2.201748648148147</v>
+        <v>-2.3146979907407408</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-1.9731940277777795</v>
+        <v>-0.77493695370370386</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>4.8476971096221924</v>
+        <v>5.3578267883392225</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>3.8934946712578964</v>
+        <v>0.6005272822155765</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>4.3444772831937231</v>
+        <v>1.7937450096887138</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>0.26838098302500041</v>
+        <v>0.17300109235600003</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>2.1174295901620601</v>
+        <v>0.12888312076798372</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>0.51805500000000038</v>
+        <v>0.41593400000000003</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9090,46 +9090,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>6.241784</v>
+        <v>6.1284650000000003</v>
       </c>
       <c r="I75">
-        <v>7.1561149999999998</v>
+        <v>5.9052759999999997</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>0.91433099999999978</v>
+        <v>-0.22318900000000053</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>-3.0964316481481475</v>
+        <v>-3.1501069907407411</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-3.2641530277777795</v>
+        <v>-0.9712229537037036</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>9.5878889516534525</v>
+        <v>9.9231740531136872</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>10.654694988750846</v>
+        <v>0.94327402580094633</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>10.107226739609716</v>
+        <v>3.0594562160299077</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>0.83600117756099956</v>
+        <v>4.9813329721000235E-2</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>5.5216635622296764</v>
+        <v>1.4266199151502994</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>0.91433099999999978</v>
+        <v>0.22318900000000053</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9157,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5.4644370000000002</v>
+        <v>6.20214</v>
       </c>
       <c r="I76">
-        <v>6.2070230000000004</v>
+        <v>4.9835349999999998</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>0.74258600000000019</v>
+        <v>-1.2186050000000002</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>-4.0455236481481469</v>
+        <v>-4.071847990740741</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-4.0415000277777793</v>
+        <v>-0.89754795370370388</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>16.366261587725891</v>
+        <v>16.579946059699409</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>16.333722474527789</v>
+        <v>0.80559232919770618</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>16.349983936366399</v>
+        <v>3.6546788318818901</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>0.55143396739600026</v>
+        <v>1.4849981460250004</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>10.882833762669009</v>
+        <v>4.4781033234689112</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>0.74258600000000019</v>
+        <v>1.2186050000000002</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9224,46 +9224,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6.9287840000000003</v>
+        <v>7.6137129999999997</v>
       </c>
       <c r="I77">
-        <v>7.2024429999999997</v>
+        <v>5.8835810000000004</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>0.27365899999999943</v>
+        <v>-1.7301319999999993</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>-3.0501036481481476</v>
+        <v>-3.1718019907407404</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5771530277777792</v>
+        <v>0.51402504629629586</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>9.3031322644466385</v>
+        <v>10.060327868466924</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>6.6417177285841751</v>
+        <v>0.26422174821990912</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>7.8605838518610485</v>
+        <v>-1.6303856651331925</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>7.4889248280999687E-2</v>
+        <v>2.9933567374239978</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>5.3060847360078993</v>
+        <v>1.4789161228465015</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>0.27365899999999943</v>
+        <v>1.7301319999999993</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9291,46 +9291,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>6.926984</v>
+        <v>7.2152580000000004</v>
       </c>
       <c r="I78">
-        <v>7.5207629999999996</v>
+        <v>5.9938599999999997</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>0.59377899999999961</v>
+        <v>-1.2213980000000006</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>-2.7317836481481477</v>
+        <v>-3.0615229907407411</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5789530277777795</v>
+        <v>0.11557004629629652</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>7.4626419002896025</v>
+        <v>9.3729230228341311</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>6.6509987194841758</v>
+        <v>1.3356435600928121E-2</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>7.0451417106254937</v>
+        <v>-0.35382035377708365</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>0.35257350084099953</v>
+        <v>1.4918130744040017</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>3.9409159205634534</v>
+        <v>1.2228554631925217</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>0.59377899999999961</v>
+        <v>1.2213980000000006</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9358,46 +9358,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>9.1725349999999999</v>
+        <v>9.2051730000000003</v>
       </c>
       <c r="I79">
-        <v>10.099689</v>
+        <v>7.9413900000000002</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>0.92715399999999981</v>
+        <v>-1.2637830000000001</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-0.15285764814814762</v>
+        <v>-1.1139929907407407</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-0.33340202777777961</v>
+        <v>2.1054850462962964</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>2.3365460597382898E-2</v>
+        <v>1.2409803834194999</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>0.11115691212633533</v>
+        <v>4.4330672801773172</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>5.0963049853934773E-2</v>
+        <v>-2.3454955836835181</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>0.85961453971599966</v>
+        <v>1.5971474710890003</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>0.35254140451777616</v>
+        <v>0.70846233473937248</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>0.92715399999999981</v>
+        <v>1.2637830000000001</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9425,46 +9425,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>10.658953</v>
+        <v>8.7373890000000003</v>
       </c>
       <c r="I80">
-        <v>12.167942999999999</v>
+        <v>10.368010999999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>1.5089899999999989</v>
+        <v>1.6306219999999989</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>1.915396351851852</v>
+        <v>1.3126280092592584</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>1.1530159722222209</v>
+        <v>1.6377010462962964</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>3.6687431846873837</v>
+        <v>1.7229922906919237</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>1.3294458321995533</v>
+        <v>2.6820647170399838</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2.2084825868213582</v>
+        <v>2.149692264161712</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>2.2770508200999968</v>
+        <v>2.6589281068839963</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>7.0862757961467659</v>
+        <v>10.681935534951496</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>1.5089899999999989</v>
+        <v>1.6306219999999989</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9492,46 +9492,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>12.606221</v>
+        <v>8.5063700000000004</v>
       </c>
       <c r="I81">
-        <v>14.868748</v>
+        <v>13.459146</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>2.2625270000000004</v>
+        <v>4.9527760000000001</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>4.6162013518518528</v>
+        <v>4.4037630092592597</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>3.1002839722222202</v>
+        <v>1.4066820462962966</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>21.309314920838872</v>
+        <v>19.393128641720171</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>9.6117607084179877</v>
+        <v>1.9787543793723361</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>14.311535063696844</v>
+        <v>6.1946943612687519</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>5.1190284257290015</v>
+        <v>24.529990106176001</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>28.759741523787039</v>
+        <v>40.442706642602708</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>2.2625270000000004</v>
+        <v>4.9527760000000001</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9559,46 +9559,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>13.598976</v>
+        <v>7.319496</v>
       </c>
       <c r="I82">
-        <v>16.696805999999999</v>
+        <v>15.561928</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>3.0978299999999983</v>
+        <v>8.2424320000000009</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>6.4442593518518514</v>
+        <v>6.5065450092592592</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>4.0930389722222209</v>
+        <v>0.21980804629629613</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>41.528478593930046</v>
+        <v>42.335127957516576</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>16.752968028129935</v>
+        <v>4.8315577216594664E-2</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>26.376604674237136</v>
+        <v>1.4301909466241938</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>9.59655070889999</v>
+        <v>67.937685274624016</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>51.708596575668238</v>
+        <v>71.609506601140737</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>3.0978299999999983</v>
+        <v>8.2424320000000009</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9626,46 +9626,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>14.638446</v>
+        <v>5.8575140000000001</v>
       </c>
       <c r="I83">
-        <v>16.748556000000001</v>
+        <v>16.301983</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>2.1101100000000006</v>
+        <v>10.444469</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>6.4960093518518534</v>
+        <v>7.2466000092592591</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>5.1325089722222206</v>
+        <v>-1.2421739537037038</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>42.198137499346736</v>
+        <v>52.513211694196293</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>26.342648349941594</v>
+        <v>1.5429961312598912</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>33.340826282019087</v>
+        <v>-9.0015377844108695</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>4.4525642121000022</v>
+        <v>109.086932691961</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>52.455529576793261</v>
+        <v>84.682234119089344</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>2.1101100000000006</v>
+        <v>10.444469</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9693,46 +9693,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>11.913157</v>
+        <v>6.7531119999999998</v>
       </c>
       <c r="I84">
-        <v>14.161457</v>
+        <v>12.822082999999999</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>2.2483000000000004</v>
+        <v>6.0689709999999994</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>3.9089103518518531</v>
+        <v>3.7667000092592584</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>2.4072199722222205</v>
+        <v>-0.34657595370370409</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>15.279580138814579</v>
+        <v>14.188028959753698</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>5.794707994665548</v>
+        <v>0.12011489168563204</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>9.4096070686039681</v>
+        <v>-1.3054476480247785</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>5.054852890000002</v>
+        <v>36.832408998840997</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>21.673866211759989</v>
+        <v>32.745805065876382</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>2.2483000000000004</v>
+        <v>6.0689709999999994</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9760,46 +9760,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>9.4543990000000004</v>
+        <v>8.2922259999999994</v>
       </c>
       <c r="I85">
-        <v>11.1876</v>
+        <v>9.9084380000000003</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>1.7332009999999993</v>
+        <v>1.6162120000000009</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>0.93505335185185245</v>
+        <v>0.85305500925925948</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>-5.153802777777905E-2</v>
+        <v>1.1925380462962956</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>0.8743247708093842</v>
+        <v>0.72770284882231528</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>2.656168307223125E-3</v>
+        <v>1.4221469918641856</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>-4.8190805621446182E-2</v>
+        <v>1.0173005541253055</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>3.0039857064009978</v>
+        <v>2.6121412289440027</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>2.8279903521432721</v>
+        <v>7.8890768225694474</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1.7332009999999993</v>
+        <v>1.6162120000000009</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9827,46 +9827,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>8.0590740000000007</v>
+        <v>7.3907439999999998</v>
       </c>
       <c r="I86">
-        <v>9.3414070000000002</v>
+        <v>8.2723960000000005</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>1.2823329999999995</v>
+        <v>0.88165200000000077</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-0.91113964814814707</v>
+        <v>-0.7829869907407403</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>-1.4468630277777788</v>
+        <v>0.29105604629629589</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>0.83017545842752927</v>
+        <v>0.61306862766924008</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>2.0934126211502813</v>
+        <v>8.4713622085631532E-2</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>1.318294270048008</v>
+        <v>-0.2278930978264343</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>1.6443779228889988</v>
+        <v>0.77731024910400137</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>2.7070130040556813E-2</v>
+        <v>1.3752441618480771</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>1.2823329999999995</v>
+        <v>0.88165200000000077</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9894,46 +9894,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.7721220000000004</v>
+        <v>4.7191710000000002</v>
       </c>
       <c r="I87">
-        <v>6.1767459999999996</v>
+        <v>5.093515</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1.4046239999999992</v>
+        <v>0.37434399999999979</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-4.0758006481481477</v>
+        <v>-3.9618679907407408</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-4.7338150277777791</v>
+        <v>-2.3805169537037036</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>16.612150923444862</v>
+        <v>15.696397976056074</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>22.409004717214735</v>
+        <v>5.666860966870761</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>19.294086358430114</v>
+        <v>9.4312939202943618</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>1.9729685813759978</v>
+        <v>0.14013343033599984</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>11.083512899436069</v>
+        <v>4.0247299201722431</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1.4046239999999992</v>
+        <v>0.37434399999999979</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -9961,46 +9961,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4.9702929999999999</v>
+        <v>5.9206380000000003</v>
       </c>
       <c r="I88">
-        <v>4.7506050000000002</v>
+        <v>3.808535</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-0.21968799999999966</v>
+        <v>-2.1121030000000003</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-5.5019416481481471</v>
+        <v>-5.2468479907407408</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-4.5356440277777796</v>
+        <v>-1.1790499537037036</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>30.271361899627149</v>
+        <v>27.529413837940147</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>20.572066746716239</v>
+        <v>1.3901587933287056</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>24.954848777604976</v>
+        <v>6.1862958805732404</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>4.8262817343999849E-2</v>
+        <v>4.4609790826090014</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>22.613182694409126</v>
+        <v>10.831687764672614</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>0.21968799999999966</v>
+        <v>2.1121030000000003</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -10028,46 +10028,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>6.3430400000000002</v>
+        <v>6.7117699999999996</v>
       </c>
       <c r="I89">
-        <v>6.3771940000000003</v>
+        <v>5.1422619999999997</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>3.4154000000000018E-2</v>
+        <v>-1.5695079999999999</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>-3.8753526481481471</v>
+        <v>-3.9131209907407412</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>-3.1628970277777793</v>
+        <v>-0.3879179537037043</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>15.018358147508856</v>
+        <v>15.312515888175799</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>10.00391760832551</v>
+        <v>0.15048033880566927</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>12.257341372418521</v>
+        <v>1.5179698873231604</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>1.1664957160000013E-3</v>
+        <v>2.4633553620639996</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>9.7890329338680662</v>
+        <v>3.831516364232856</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>3.4154000000000018E-2</v>
+        <v>1.5695079999999999</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -10095,46 +10095,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>6.9417119999999999</v>
+        <v>7.5358929999999997</v>
       </c>
       <c r="I90">
-        <v>7.0906229999999999</v>
+        <v>5.3439209999999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>0.14891100000000002</v>
+        <v>-2.1919719999999998</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>-3.1619236481481474</v>
+        <v>-3.7114619907407409</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>-2.5642250277777796</v>
+        <v>0.43620504629629586</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>9.9977611567184894</v>
+        <v>13.774950108713224</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>6.5752499930819548</v>
+        <v>0.19027484241435361</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>8.1078837545039022</v>
+        <v>-1.6189584494980074</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>2.2174485921000006E-2</v>
+        <v>4.8047412487839996</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>5.833741852780121</v>
+        <v>3.0827175957179844</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>0.14891100000000002</v>
+        <v>2.1919719999999998</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -10162,46 +10162,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>7.4535499999999999</v>
+        <v>7.7648270000000004</v>
       </c>
       <c r="I91">
-        <v>8.3418410000000005</v>
+        <v>6.1178819999999998</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>0.88829100000000061</v>
+        <v>-1.6469450000000005</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>-1.9107056481481468</v>
+        <v>-2.937500990740741</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>-2.0523870277777796</v>
+        <v>0.6651390462962965</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>3.6507960738652296</v>
+        <v>8.6289120706028353</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>4.2122925117905083</v>
+        <v>0.44240995090794688</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>3.9215074861609911</v>
+        <v>-1.9538466074757226</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>0.7890609006810011</v>
+        <v>2.7124278330250018</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>1.3551195618880036</v>
+        <v>0.96394293072803983</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>0.88829100000000061</v>
+        <v>1.6469450000000005</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -10229,46 +10229,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>9.5067590000000006</v>
+        <v>9.353154</v>
       </c>
       <c r="I92">
-        <v>10.444659</v>
+        <v>8.1831309999999995</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>0.93789999999999907</v>
+        <v>-1.1700230000000005</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>0.19211235185185238</v>
+        <v>-0.87225199074074133</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>8.2197222222113453E-4</v>
+        <v>2.2534660462962961</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>3.6907155734049929E-2</v>
+        <v>0.7608235353511863</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>6.7563833410315016E-7</v>
+        <v>5.0781092218102604</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>1.5791101676779559E-4</v>
+        <v>-1.9655902449486118</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>0.87965640999999828</v>
+        <v>1.3689538205290011</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>0.88119894113277475</v>
+        <v>1.1738488345677969</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>0.93789999999999907</v>
+        <v>1.1700230000000005</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -10296,46 +10296,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>11.51624</v>
+        <v>8.059825</v>
       </c>
       <c r="I93">
-        <v>13.197846</v>
+        <v>11.747901000000001</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>1.6816060000000004</v>
+        <v>3.6880760000000006</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>2.9452993518518529</v>
+        <v>2.6925180092592598</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>2.0103029722222203</v>
+        <v>0.96013704629629615</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>8.6747882720189455</v>
+        <v>7.2496532301854471</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>4.0413180401254936</v>
+        <v>0.92186314767057598</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>5.9209440411119587</v>
+        <v>2.5851862885097692</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>2.8277987392360013</v>
+        <v>13.601904581776004</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>13.630191859174934</v>
+        <v>21.605884523759098</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>1.6816060000000004</v>
+        <v>3.6880760000000006</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -10363,46 +10363,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>14.496236</v>
+        <v>7.0920290000000001</v>
       </c>
       <c r="I94">
-        <v>16.418118</v>
+        <v>15.931585</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>1.9218820000000001</v>
+        <v>8.839556</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>6.1655713518518525</v>
+        <v>6.8762020092592593</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>4.9902989722222202</v>
+        <v>-7.6589537037037303E-3</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>38.014270094776279</v>
+        <v>47.282154072141076</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>24.903083832162146</v>
+        <v>5.8659571835477091E-5</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>30.768044380309064</v>
+        <v>-5.2664512846231235E-2</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>3.6936304219240004</v>
+        <v>78.137750277135993</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>47.778245792750916</v>
+        <v>78.002405436377245</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>1.9218820000000001</v>
+        <v>8.839556</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -10430,46 +10430,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>15.178988</v>
+        <v>6.2016299999999998</v>
       </c>
       <c r="I95">
-        <v>14.948691</v>
+        <v>16.562736999999998</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-0.2302970000000002</v>
+        <v>10.361106999999999</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>4.6961443518518529</v>
+        <v>7.5073540092592577</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>5.6730509722222209</v>
+        <v>-0.89805795370370411</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>22.053771773430061</v>
+        <v>56.360364220341047</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>32.183507333431486</v>
+        <v>0.80650808821048436</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>26.641466280969045</v>
+        <v>-6.7420389792846676</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>5.303670820900009E-2</v>
+        <v>107.35253826544897</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>29.623570802140762</v>
+        <v>89.549297252609207</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>0.2302970000000002</v>
+        <v>10.361106999999999</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -10497,46 +10497,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>12.659817</v>
+        <v>6.4228800000000001</v>
       </c>
       <c r="I96">
-        <v>12.859022</v>
+        <v>13.422396000000001</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>0.19920499999999919</v>
+        <v>6.9995160000000007</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>2.6064753518518522</v>
+        <v>4.3670130092592601</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>3.1538799722222208</v>
+        <v>-0.67680795370370372</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>6.7937137598112365</v>
+        <v>19.070802623039619</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>9.9469588791844359</v>
+        <v>0.45806900619659474</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>8.2205104102964235</v>
+        <v>-2.9556291385942131</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>3.9682632024999678E-2</v>
+        <v>48.993224234256012</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>11.243178830942487</v>
+        <v>39.976637038699934</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>0.19920499999999919</v>
+        <v>6.9995160000000007</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -10564,46 +10564,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>10.056915999999999</v>
+        <v>8.1535419999999998</v>
       </c>
       <c r="I97">
-        <v>10.140311000000001</v>
+        <v>8.4957209999999996</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>8.3395000000001218E-2</v>
+        <v>0.34217899999999979</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-0.11223564814814679</v>
+        <v>-0.55966199074074119</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>0.55097897222221981</v>
+        <v>1.053854046296296</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>1.2596840715234607E-2</v>
+        <v>0.31322154387988949</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>0.30357782783105369</v>
+        <v>1.1106083508950755</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>-6.183948206336061E-2</v>
+        <v>-0.58980205350037018</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>6.9547260250002029E-3</v>
+        <v>0.11708646804099986</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>0.40243033663299926</v>
+        <v>1.9489082663513155</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>8.3395000000001218E-2</v>
+        <v>0.34217899999999979</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -10631,46 +10631,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7.6801560000000002</v>
+        <v>6.9475930000000004</v>
       </c>
       <c r="I98">
-        <v>7.9655129999999996</v>
+        <v>6.7252989999999997</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>0.28535699999999942</v>
+        <v>-0.22229400000000066</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>-2.2870336481481477</v>
+        <v>-2.3300839907407411</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>-1.8257810277777793</v>
+        <v>-0.15209495370370352</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>5.2305229077618254</v>
+        <v>5.4292914039062978</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>3.3334763613932838</v>
+        <v>2.3132874942131718E-2</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>4.1756226446782891</v>
+        <v>0.35439401669745374</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>8.1428617448999666E-2</v>
+        <v>4.941462243600029E-2</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>2.3729061853551183</v>
+        <v>0.14016708865535435</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>0.28535699999999942</v>
+        <v>0.22229400000000066</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -10698,46 +10698,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>6.1206110000000002</v>
+        <v>6.3911119999999997</v>
       </c>
       <c r="I99">
-        <v>5.5748559999999996</v>
+        <v>4.4009349999999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-0.54575500000000066</v>
+        <v>-1.9901770000000001</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-4.6776906481481477</v>
+        <v>-4.6544479907407412</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-3.3853260277777792</v>
+        <v>-0.70857595370370419</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>21.880789799772639</v>
+        <v>21.663886098510524</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>11.460432314349678</v>
+        <v>0.50207988216711397</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>15.835507901068635</v>
+        <v>3.2980299240034103</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>0.29784852002500073</v>
+        <v>3.9608044913290001</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>15.453398046954407</v>
+        <v>7.283267505124468</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>0.54575500000000066</v>
+        <v>1.9901770000000001</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -10765,46 +10765,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>6.6705810000000003</v>
+        <v>7.0854330000000001</v>
       </c>
       <c r="I100">
-        <v>6.7227480000000002</v>
+        <v>6.1181070000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>5.2166999999999852E-2</v>
+        <v>-0.96732599999999991</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>-3.5297986481481471</v>
+        <v>-2.9372759907407406</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>-2.8353560277777792</v>
+        <v>-1.4254953703703777E-2</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>12.459478496468487</v>
+        <v>8.6275902457819988</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>8.0392438042557863</v>
+        <v>2.0320370509473802E-4</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>10.008235873868705</v>
+        <v>4.1870733263009899E-2</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>2.7213958889999845E-3</v>
+        <v>0.93571959027599982</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>7.7461411643426201</v>
+        <v>0.96350116867387248</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>5.2166999999999852E-2</v>
+        <v>0.96732599999999991</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -10832,46 +10832,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>5.7661499999999997</v>
+        <v>5.8742859999999997</v>
       </c>
       <c r="I101">
-        <v>6.0133390000000002</v>
+        <v>4.2502230000000001</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>0.24718900000000055</v>
+        <v>-1.6240629999999996</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-4.2392076481481471</v>
+        <v>-4.8051599907407407</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-3.7397870277777798</v>
+        <v>-1.2254019537037042</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>17.970881484117744</v>
+        <v>23.089562536615556</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>13.986007013134961</v>
+        <v>1.5016099481408551</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>15.853733770600792</v>
+        <v>5.8882524405125771</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>6.1102401721000267E-2</v>
+        <v>2.6375806279689988</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>12.198240983637234</v>
+        <v>8.1194505223856499</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>0.24718900000000055</v>
+        <v>1.6240629999999996</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -10899,46 +10899,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>6.8529999999999998</v>
+        <v>6.9364650000000001</v>
       </c>
       <c r="I102">
-        <v>7.0182650000000004</v>
+        <v>4.8250279999999997</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>0.16526500000000066</v>
+        <v>-2.1114370000000005</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-3.2342816481481469</v>
+        <v>-4.2303549907407412</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-2.6529370277777797</v>
+        <v>-0.16322295370370377</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>10.460577779547894</v>
+        <v>17.895903347685095</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>7.0380748733544003</v>
+        <v>2.6641732615761422E-2</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>8.5803455426343636</v>
+        <v>0.69049103680390822</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>2.731252022500022E-2</v>
+        <v>4.4581662049690021</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>6.1885121177880071</v>
+        <v>5.1740779049833376</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>0.16526500000000066</v>
+        <v>2.1114370000000005</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -10966,46 +10966,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>8.1572969999999998</v>
+        <v>8.0298069999999999</v>
       </c>
       <c r="I103">
-        <v>8.6028570000000002</v>
+        <v>6.2287509999999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>0.4455600000000004</v>
+        <v>-1.801056</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>-1.6496896481481471</v>
+        <v>-2.8266319907407409</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-1.3486400277777797</v>
+        <v>0.93011904629629605</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>2.7214759352071574</v>
+        <v>7.989848411078964</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>1.8188299245244504</v>
+        <v>0.86512144028313132</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>2.2248374929032328</v>
+        <v>-2.6291042514583784</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>0.19852371360000035</v>
+        <v>3.2438027151359998</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>0.81555353657111462</v>
+        <v>0.75853117732668773</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>0.4455600000000004</v>
+        <v>1.801056</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -11033,46 +11033,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>11.317183</v>
+        <v>8.5964179999999999</v>
       </c>
       <c r="I104">
-        <v>11.752383999999999</v>
+        <v>10.341208999999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>0.43520099999999928</v>
+        <v>1.7447909999999993</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>1.499837351851852</v>
+        <v>1.2858260092592584</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>1.8112459722222205</v>
+        <v>1.496730046296296</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>2.2495120820099759</v>
+        <v>1.6533485260875904</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>3.2806119718912168</v>
+        <v>2.2402008314861126</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>2.7165743625301082</v>
+        <v>1.9245344223675913</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>0.18939991040099938</v>
+        <v>3.0442956336809974</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>5.0465239990063786</v>
+        <v>10.50745869358183</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>0.43520099999999928</v>
+        <v>1.7447909999999993</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -11100,46 +11100,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>12.480255</v>
+        <v>6.5889600000000002</v>
       </c>
       <c r="I105">
-        <v>13.440951999999999</v>
+        <v>12.749307</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>0.96069699999999969</v>
+        <v>6.1603469999999998</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>3.188405351851852</v>
+        <v>3.6939240092592591</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>2.9743179722222202</v>
+        <v>-0.51072795370370372</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>10.165928687717532</v>
+        <v>13.645074586181998</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>8.8465673998840995</v>
+        <v>0.26084304269437253</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>9.4833313407424757</v>
+        <v>-1.8865902503859626</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>0.92293872580899938</v>
+        <v>37.949875160409</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>15.484342831613038</v>
+        <v>31.918195368273871</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>0.96069699999999969</v>
+        <v>6.1603469999999998</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -11167,46 +11167,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>14.768364999999999</v>
+        <v>5.949872</v>
       </c>
       <c r="I106">
-        <v>16.549931999999998</v>
+        <v>16.671403999999999</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>1.781566999999999</v>
+        <v>10.721532</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>6.297385351851851</v>
+        <v>7.6160210092592582</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>5.2624279722222198</v>
+        <v>-1.1498159537037038</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>39.65706226971826</v>
+        <v>58.003776013478408</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>27.693148162826866</v>
+        <v>1.3220767273915579</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>33.13953682744765</v>
+        <v>-8.7570224601888782</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>3.1739809754889965</v>
+        <v>114.951248427024</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>49.6178651686919</v>
+        <v>91.617748070925984</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>1.781566999999999</v>
+        <v>10.721532</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -11234,46 +11234,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>14.78607</v>
+        <v>5.667249</v>
       </c>
       <c r="I107">
-        <v>16.771944000000001</v>
+        <v>16.85783</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>1.9858740000000008</v>
+        <v>11.190581</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>6.519397351851854</v>
+        <v>7.802447009259259</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>5.280132972222221</v>
+        <v>-1.4324389537037039</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>42.502541831332969</v>
+        <v>60.878179332298757</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>27.879804204348265</v>
+        <v>2.0518813560877618</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>34.423284916531209</v>
+        <v>-11.176529030271926</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>3.9436955438760033</v>
+        <v>125.229103117561</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>52.794857320381936</v>
+        <v>95.221336195695656</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>1.9858740000000008</v>
+        <v>11.190581</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -11301,46 +11301,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>11.963168</v>
+        <v>5.3324990000000003</v>
       </c>
       <c r="I108">
-        <v>13.094060000000001</v>
+        <v>12.116732000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>1.1308920000000011</v>
+        <v>6.7842330000000004</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>2.8415133518518534</v>
+        <v>3.0613490092592599</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>2.4572309722222201</v>
+        <v>-1.7671889537037035</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>8.0741981287523554</v>
+        <v>9.371857756492652</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>6.0379840508481566</v>
+        <v>3.1229567980923907</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>6.982254616153349</v>
+        <v>-5.4099821525947407</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>1.2789167156640024</v>
+        <v>46.025817398289007</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>12.874626463788827</v>
+        <v>25.170730962477119</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>1.1308920000000011</v>
+        <v>6.7842330000000004</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -11368,46 +11368,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>10.635922000000001</v>
+        <v>6.0825930000000001</v>
       </c>
       <c r="I109">
-        <v>10.210146</v>
+        <v>9.4111759999999993</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-0.42577600000000082</v>
+        <v>3.3285829999999992</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-4.2400648148147368E-2</v>
+        <v>0.3557930092592585</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>1.1299849722222213</v>
+        <v>-1.0170949537037037</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>1.797814963382993E-3</v>
+        <v>0.12658866543775879</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>1.2768660374480543</v>
+        <v>1.0344821448495392</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>-4.7912095219888484E-2</v>
+        <v>-0.36187527428064697</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>0.18128520217600069</v>
+        <v>11.079464787888995</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>0.49591027655827608</v>
+        <v>5.3429769881706646</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>0.42577600000000082</v>
+        <v>3.3285829999999992</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -11435,46 +11435,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>8.687678</v>
+        <v>6.535202</v>
       </c>
       <c r="I110">
-        <v>7.540826</v>
+        <v>6.3036919999999999</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-1.146852</v>
+        <v>-0.2315100000000001</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-2.7117206481481473</v>
+        <v>-2.751690990740741</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-0.81825902777777948</v>
+        <v>-0.56448595370370391</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>7.3534288735930078</v>
+        <v>7.5718033085237604</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>0.66954783653983685</v>
+        <v>0.31864439192878014</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>2.2188899011586329</v>
+        <v>1.553290913206177</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>1.3152695099039999</v>
+        <v>5.3596880100000049E-2</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>3.8616613514938409</v>
+        <v>0.6336095583126693</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>1.146852</v>
+        <v>0.2315100000000001</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -11502,46 +11502,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>6.2619369999999996</v>
+        <v>5.831226</v>
       </c>
       <c r="I111">
-        <v>6.1656829999999996</v>
+        <v>5.5905180000000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-9.6254000000000062E-2</v>
+        <v>-0.2407079999999997</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>-4.0868636481481477</v>
+        <v>-3.4648649907407405</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-3.2440000277777798</v>
+        <v>-1.2684619537037038</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>16.702454478554788</v>
+        <v>12.005289404060832</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>10.523536180222237</v>
+        <v>1.6089957279938174</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>13.257785788116591</v>
+        <v>4.3950494154745652</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>9.2648325160000124E-3</v>
+        <v>5.7940341263999856E-2</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>11.157296970085682</v>
+        <v>2.2775939491620387</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>9.6254000000000062E-2</v>
+        <v>0.2407079999999997</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF8262-371B-4EC9-9A37-351FB59C3AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC26D42-63D6-4C35-98AC-B4CC3DA7B2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,29 +757,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Monthly simulated v. measured stream temperature for 2010-18 on the MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751 ver. 373</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Statistics calculator'!$H$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v> USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
@@ -841,328 +827,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.9533459999999998</c:v>
+                  <c:v>5.7793219999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6336500000000003</c:v>
+                  <c:v>5.5731859999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3294480000000002</c:v>
+                  <c:v>5.6061269999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9640380000000004</c:v>
+                  <c:v>5.9291660000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7267659999999996</c:v>
+                  <c:v>6.8469889999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3968109999999996</c:v>
+                  <c:v>8.7521199999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2965389999999992</c:v>
+                  <c:v>11.486921000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.603542</c:v>
+                  <c:v>11.504575000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6711900000000002</c:v>
+                  <c:v>9.8655439999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5666969999999996</c:v>
+                  <c:v>8.1763729999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2461570000000002</c:v>
+                  <c:v>5.5188360000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7622669999999996</c:v>
+                  <c:v>4.8902239999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3580699999999997</c:v>
+                  <c:v>5.3884150000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4265869999999996</c:v>
+                  <c:v>4.7573080000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6431420000000001</c:v>
+                  <c:v>5.2381219999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8063650000000004</c:v>
+                  <c:v>5.3458209999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.1545120000000004</c:v>
+                  <c:v>6.6216189999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.4976129999999994</c:v>
+                  <c:v>8.7968290000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8428880000000003</c:v>
+                  <c:v>10.622766</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3898710000000003</c:v>
+                  <c:v>11.755342000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8167309999999999</c:v>
+                  <c:v>11.480649</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8956809999999997</c:v>
+                  <c:v>8.2271180000000008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9200679999999997</c:v>
+                  <c:v>5.375019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2392079999999996</c:v>
+                  <c:v>5.01579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.8181010000000004</c:v>
+                  <c:v>5.1644459999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.1459539999999997</c:v>
+                  <c:v>5.0545819999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.8683129999999997</c:v>
+                  <c:v>5.1517629999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.6282720000000008</c:v>
+                  <c:v>6.8727770000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.7094070000000006</c:v>
+                  <c:v>7.7387610000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.7174420000000001</c:v>
+                  <c:v>8.7878050000000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.8218789999999991</c:v>
+                  <c:v>11.497807999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.7948449999999996</c:v>
+                  <c:v>12.410117</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.5379370000000003</c:v>
+                  <c:v>11.476654</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.9853709999999998</c:v>
+                  <c:v>8.6807390000000009</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.2559279999999999</c:v>
+                  <c:v>6.4692150000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.4550590000000003</c:v>
+                  <c:v>4.528276</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.6953379999999996</c:v>
+                  <c:v>4.9845980000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.7222619999999997</c:v>
+                  <c:v>4.8694519999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.8889509999999996</c:v>
+                  <c:v>6.0452839999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.703233</c:v>
+                  <c:v>6.5628190000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.3211359999999992</c:v>
+                  <c:v>8.3512540000000008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.3699349999999999</c:v>
+                  <c:v>10.121394</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.4623270000000002</c:v>
+                  <c:v>12.455776</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.1640350000000002</c:v>
+                  <c:v>12.236454999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.8941119999999998</c:v>
+                  <c:v>10.282425999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.0277820000000002</c:v>
+                  <c:v>7.8475510000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.2478129999999998</c:v>
+                  <c:v>5.8956289999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.4745939999999997</c:v>
+                  <c:v>5.1881440000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.8553620000000004</c:v>
+                  <c:v>6.2627410000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.4950049999999999</c:v>
+                  <c:v>5.269374</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.6218719999999998</c:v>
+                  <c:v>6.1178229999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.5039850000000001</c:v>
+                  <c:v>7.0015580000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.6445229999999995</c:v>
+                  <c:v>8.5682189999999991</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.1118009999999998</c:v>
+                  <c:v>9.5638400000000008</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.4929480000000002</c:v>
+                  <c:v>12.315927</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.8914710000000001</c:v>
+                  <c:v>12.099008</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.320354</c:v>
+                  <c:v>11.184564</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.8317490000000003</c:v>
+                  <c:v>9.1563230000000004</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.3607040000000001</c:v>
+                  <c:v>6.2208110000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9083500000000004</c:v>
+                  <c:v>5.7414370000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.9205290000000002</c:v>
+                  <c:v>6.7594180000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.6663829999999997</c:v>
+                  <c:v>6.8463580000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.1107650000000007</c:v>
+                  <c:v>7.6145459999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.6980170000000001</c:v>
+                  <c:v>7.0496090000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.2010389999999997</c:v>
+                  <c:v>9.0541110000000007</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.3589830000000003</c:v>
+                  <c:v>11.738591</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.2621010000000004</c:v>
+                  <c:v>12.184172</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.5592990000000002</c:v>
+                  <c:v>12.125973</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.4810210000000001</c:v>
+                  <c:v>10.069281</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.2884000000000002</c:v>
+                  <c:v>9.6466650000000005</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.324751</c:v>
+                  <c:v>5.6161649999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.1284650000000003</c:v>
+                  <c:v>5.0447639999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.20214</c:v>
+                  <c:v>5.0325870000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.6137129999999997</c:v>
+                  <c:v>6.1288710000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.2152580000000004</c:v>
+                  <c:v>5.7820340000000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.2051730000000003</c:v>
+                  <c:v>7.854139</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.7373890000000003</c:v>
+                  <c:v>8.8300129999999992</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.5063700000000004</c:v>
+                  <c:v>10.210096999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.319496</c:v>
+                  <c:v>10.94373</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.8575140000000001</c:v>
+                  <c:v>12.027832</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.7531119999999998</c:v>
+                  <c:v>9.639697</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.2922259999999994</c:v>
+                  <c:v>7.3680279999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.3907439999999998</c:v>
+                  <c:v>6.613556</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7191710000000002</c:v>
+                  <c:v>4.0355249999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.9206380000000003</c:v>
+                  <c:v>4.7864269999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.7117699999999996</c:v>
+                  <c:v>5.451168</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.5358929999999997</c:v>
+                  <c:v>5.9895509999999996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.7648270000000004</c:v>
+                  <c:v>6.1110150000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.353154</c:v>
+                  <c:v>8.3287300000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.059825</c:v>
+                  <c:v>9.9475759999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.0920290000000001</c:v>
+                  <c:v>11.847212000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.2016299999999998</c:v>
+                  <c:v>12.672338999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.4228800000000001</c:v>
+                  <c:v>10.714741999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.1535419999999998</c:v>
+                  <c:v>7.9807100000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.9475930000000004</c:v>
+                  <c:v>5.8291130000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.3911119999999997</c:v>
+                  <c:v>5.45777</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.0854330000000001</c:v>
+                  <c:v>6.015244</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.8742859999999997</c:v>
+                  <c:v>5.1201860000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.9364650000000001</c:v>
+                  <c:v>5.7182529999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.0298069999999999</c:v>
+                  <c:v>6.8216210000000004</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.5964179999999999</c:v>
+                  <c:v>9.3231319999999993</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.5889600000000002</c:v>
+                  <c:v>10.071384</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.949872</c:v>
+                  <c:v>12.174690999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.667249</c:v>
+                  <c:v>12.090075000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.3324990000000003</c:v>
+                  <c:v>10.184459</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.0825930000000001</c:v>
+                  <c:v>8.6617090000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.535202</c:v>
+                  <c:v>6.6817029999999997</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.831226</c:v>
+                  <c:v>5.0515340000000002</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>6.1383000000000001</c:v>
@@ -1186,7 +1172,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1210,328 +1196,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.995069</c:v>
+                  <c:v>5.5611240000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7064260000000004</c:v>
+                  <c:v>5.204129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4635199999999999</c:v>
+                  <c:v>5.0899530000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8469829999999998</c:v>
+                  <c:v>5.3831249999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3546389999999997</c:v>
+                  <c:v>6.4534450000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6800379999999997</c:v>
+                  <c:v>8.8064929999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.584220999999999</c:v>
+                  <c:v>11.253795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.261647999999999</c:v>
+                  <c:v>10.724527999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.806131000000001</c:v>
+                  <c:v>9.3905910000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8069469999999992</c:v>
+                  <c:v>7.7608730000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3599959999999998</c:v>
+                  <c:v>5.7657990000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.272043</c:v>
+                  <c:v>4.8019150000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6519149999999998</c:v>
+                  <c:v>4.3048380000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.530357</c:v>
+                  <c:v>3.5831170000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.778022</c:v>
+                  <c:v>4.5250349999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.180104</c:v>
+                  <c:v>4.8515620000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3966960000000004</c:v>
+                  <c:v>5.832058</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9151740000000004</c:v>
+                  <c:v>7.7188309999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.210819000000001</c:v>
+                  <c:v>10.470634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.696068</c:v>
+                  <c:v>10.573588000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.140558</c:v>
+                  <c:v>9.3907810000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.113104</c:v>
+                  <c:v>7.5293890000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.8270860000000004</c:v>
+                  <c:v>5.3008189999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.21502</c:v>
+                  <c:v>3.5235210000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3466950000000004</c:v>
+                  <c:v>4.1981859999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3152239999999997</c:v>
+                  <c:v>4.2563820000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.1118129999999997</c:v>
+                  <c:v>4.3000590000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5996569999999997</c:v>
+                  <c:v>5.3488879999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8391130000000002</c:v>
+                  <c:v>6.8545740000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.6897059999999993</c:v>
+                  <c:v>8.6545620000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.292591</c:v>
+                  <c:v>10.81798</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.783275</c:v>
+                  <c:v>8.1575600000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.040979999999999</c:v>
+                  <c:v>9.2495150000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.8601080000000003</c:v>
+                  <c:v>7.6215419999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.1383010000000002</c:v>
+                  <c:v>6.709956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9432869999999998</c:v>
+                  <c:v>4.9356859999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7774809999999999</c:v>
+                  <c:v>3.6660560000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4470419999999997</c:v>
+                  <c:v>4.3088790000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.2057549999999999</c:v>
+                  <c:v>4.8697699999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.2931949999999999</c:v>
+                  <c:v>5.6472230000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0125589999999995</c:v>
+                  <c:v>7.939508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.620977999999999</c:v>
+                  <c:v>9.6459100000000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.109044999999998</c:v>
+                  <c:v>11.247596</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.403063</c:v>
+                  <c:v>10.529299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.773477</c:v>
+                  <c:v>9.5790260000000007</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6693629999999997</c:v>
+                  <c:v>6.826441</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3303070000000004</c:v>
+                  <c:v>5.7604949999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3336269999999999</c:v>
+                  <c:v>3.2154120000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5585680000000002</c:v>
+                  <c:v>4.2341430000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6808779999999999</c:v>
+                  <c:v>4.2153099999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.966812</c:v>
+                  <c:v>5.1653010000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.9964919999999999</c:v>
+                  <c:v>6.1528090000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3046369999999996</c:v>
+                  <c:v>8.2855150000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.878055</c:v>
+                  <c:v>9.8023209999999992</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.008330999999998</c:v>
+                  <c:v>11.490181</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.785382999999999</c:v>
+                  <c:v>10.824233</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.869374000000001</c:v>
+                  <c:v>9.5962580000000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.811021</c:v>
+                  <c:v>8.3947640000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.4374570000000002</c:v>
+                  <c:v>6.7528550000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9163920000000001</c:v>
+                  <c:v>6.0831379999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9007389999999997</c:v>
+                  <c:v>5.1523380000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.5825889999999996</c:v>
+                  <c:v>6.0189560000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.894501</c:v>
+                  <c:v>6.4329400000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.3208640000000003</c:v>
+                  <c:v>6.7924300000000004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.762707000000001</c:v>
+                  <c:v>8.9587699999999995</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.518577000000001</c:v>
+                  <c:v>11.389341</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.680610999999999</c:v>
+                  <c:v>11.897917</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.090021</c:v>
+                  <c:v>11.168345</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.509548000000001</c:v>
+                  <c:v>9.3149300000000004</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.196471000000001</c:v>
+                  <c:v>8.3287630000000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.740685</c:v>
+                  <c:v>5.9748169999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.9052759999999997</c:v>
+                  <c:v>5.4039159999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9835349999999998</c:v>
+                  <c:v>4.6272169999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8835810000000004</c:v>
+                  <c:v>5.3779450000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.9938599999999997</c:v>
+                  <c:v>5.659497</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.9413900000000002</c:v>
+                  <c:v>6.7848269999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.368010999999999</c:v>
+                  <c:v>8.7718749999999996</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.459146</c:v>
+                  <c:v>10.353471000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.561928</c:v>
+                  <c:v>11.011625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.301983</c:v>
+                  <c:v>10.872294999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.822082999999999</c:v>
+                  <c:v>9.0363220000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9084380000000003</c:v>
+                  <c:v>8.2622250000000008</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.2723960000000005</c:v>
+                  <c:v>7.2404169999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.093515</c:v>
+                  <c:v>4.67211</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.808535</c:v>
+                  <c:v>3.6666099999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.1422619999999997</c:v>
+                  <c:v>4.7065109999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.3439209999999999</c:v>
+                  <c:v>4.946485</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.1178819999999998</c:v>
+                  <c:v>5.5992629999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.1831309999999995</c:v>
+                  <c:v>7.0140260000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.747901000000001</c:v>
+                  <c:v>9.7849989999999991</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.931585</c:v>
+                  <c:v>11.298373</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>16.562736999999998</c:v>
+                  <c:v>10.501163</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.422396000000001</c:v>
+                  <c:v>9.2247319999999995</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.4957209999999996</c:v>
+                  <c:v>7.2264099999999996</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.7252989999999997</c:v>
+                  <c:v>6.0619870000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.4009349999999996</c:v>
+                  <c:v>4.5872989999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.1181070000000002</c:v>
+                  <c:v>4.9552849999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2502230000000001</c:v>
+                  <c:v>4.2978680000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.8250279999999997</c:v>
+                  <c:v>4.6569880000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.2287509999999999</c:v>
+                  <c:v>5.8367180000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10.341208999999999</c:v>
+                  <c:v>8.8799700000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.749307</c:v>
+                  <c:v>10.157683</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.671403999999999</c:v>
+                  <c:v>11.548427</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.85783</c:v>
+                  <c:v>10.903589</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.116732000000001</c:v>
+                  <c:v>8.9095630000000003</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.4111759999999993</c:v>
+                  <c:v>7.4504200000000003</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.3036919999999999</c:v>
+                  <c:v>5.8304580000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5905180000000003</c:v>
+                  <c:v>4.8333740000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>5.924798</c:v>
@@ -3772,7 +3758,7 @@
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-1.955695037037037</v>
+        <v>0.70793399074074248</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3782,11 +3768,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>7.0996879537037039</v>
+        <v>7.9442188611111124</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>9.0553829907407408</v>
+        <v>7.2362848703703699</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3796,12 +3782,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>21.243440797427443</v>
+        <v>1.0196654218794536</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>3.2551501111111127</v>
+        <v>0.80918587962962996</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -3820,11 +3806,11 @@
       </c>
       <c r="B3" s="11">
         <f>(I2-H2)/H2</f>
-        <v>0.27546211182659186</v>
+        <v>-8.9113102636969366E-2</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>NS</v>
+        <v>G</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -3838,11 +3824,11 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -3908,11 +3894,11 @@
       </c>
       <c r="B4" s="1">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>-0.21240521248037503</v>
+        <v>0.82821759328269295</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>NS</v>
+        <v>VG</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3927,46 +3913,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>6.9533459999999998</v>
+        <v>5.7793219999999996</v>
       </c>
       <c r="I4">
-        <v>5.995069</v>
+        <v>5.5611240000000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>-0.95827699999999982</v>
+        <v>-0.21819799999999923</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-3.0603139907407408</v>
+        <v>-1.6751608703703695</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-0.14634195370370406</v>
+        <v>-2.1648968611111128</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>9.3655217219235194</v>
+        <v>2.8061639416200141</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>2.1415967413817065E-2</v>
+        <v>4.6867784192487489</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>0.44785232835177935</v>
+        <v>3.6265505101209725</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>0.91829480872899971</v>
+        <v>4.7610367203999665E-2</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>1.2201830328814656</v>
+        <v>5.6791411170541899</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.95827699999999982</v>
+        <v>0.21819799999999923</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -4007,11 +3993,11 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.99758367086710587</v>
+        <v>0.39800470023756579</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
-        <v>NS</v>
+        <v>VG</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4026,46 +4012,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>6.6336500000000003</v>
+        <v>5.5731859999999998</v>
       </c>
       <c r="I5">
-        <v>5.7064260000000004</v>
+        <v>5.204129</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-0.92722399999999983</v>
+        <v>-0.36905699999999975</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.3489569907407404</v>
+        <v>-2.0321558703703699</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-0.4660379537037036</v>
+        <v>-2.3710328611111127</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>11.215512925831275</v>
+        <v>4.1296574814807556</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>0.21719137429233537</v>
+        <v>5.6217968284687485</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>1.5607410630065277</v>
+        <v>4.818308347548002</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.85974434617599971</v>
+        <v>0.1362030692489998</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>1.9411788716382605</v>
+        <v>7.5080924469639152</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>0.92722399999999983</v>
+        <v>0.36905699999999975</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -4106,11 +4092,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>2.1723221838647958E-2</v>
+        <v>0.91936006893369027</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>NS</v>
+        <v>VG</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4125,46 +4111,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>6.3294480000000002</v>
+        <v>5.6061269999999999</v>
       </c>
       <c r="I6">
-        <v>5.4635199999999999</v>
+        <v>5.0899530000000004</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.86592800000000025</v>
+        <v>-0.51617399999999947</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5918629907407409</v>
+        <v>-2.1463318703703695</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-0.77023995370370368</v>
+        <v>-2.3380918611111126</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>12.90147974425302</v>
+        <v>4.6067404977675688</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>0.59326958628148363</v>
+        <v>5.4666735509940256</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>2.7665963836981948</v>
+        <v>5.0183210773563527</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>0.74983130118400043</v>
+        <v>0.26643559827599944</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>2.677045572726966</v>
+        <v>8.1468336059043587</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>0.86592800000000025</v>
+        <v>0.51617399999999947</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -4205,7 +4191,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>7.0996879537037039</v>
+        <v>7.9442188611111124</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4221,46 +4207,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>6.9640380000000004</v>
+        <v>5.9291660000000004</v>
       </c>
       <c r="I7">
-        <v>5.8469829999999998</v>
+        <v>5.3831249999999997</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1170550000000006</v>
+        <v>-0.54604100000000066</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-3.208399990740741</v>
+        <v>-1.8531598703703702</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-0.13564995370370347</v>
+        <v>-2.015052861111112</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>10.293830500585187</v>
+        <v>3.4342015051511274</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>1.8400909939816894E-2</v>
+        <v>4.0604380330720788</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>0.43521931020694415</v>
+        <v>3.734215098886112</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>1.2478118730250012</v>
+        <v>0.29816077368100075</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>1.5692697010337993</v>
+        <v>6.5592017654210277</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.1170550000000006</v>
+        <v>0.54604100000000066</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -4301,7 +4287,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>1.1438218355266607</v>
+        <v>2.5356322273202618</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4317,46 +4303,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>7.7267659999999996</v>
+        <v>6.8469889999999998</v>
       </c>
       <c r="I8">
-        <v>7.3546389999999997</v>
+        <v>6.4534450000000003</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.37212699999999987</v>
+        <v>-0.39354399999999945</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.7007439907407411</v>
+        <v>-0.78283987037036962</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>0.62707804629629571</v>
+        <v>-1.0972298611111126</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.8925301220407422</v>
+        <v>0.6128382626414971</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.3932268761467792</v>
+        <v>1.2039133681139116</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0664992189638691</v>
+        <v>0.85895528223872208</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>0.1384785041289999</v>
+        <v>0.15487687993599958</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>6.5000036007575979E-2</v>
+        <v>2.2224067049721334</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>0.37212699999999987</v>
+        <v>0.39354399999999945</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -4397,7 +4383,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>9.0553829907407408</v>
+        <v>7.2362848703703699</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4413,46 +4399,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>9.3968109999999996</v>
+        <v>8.7521199999999997</v>
       </c>
       <c r="I9">
-        <v>9.6800379999999997</v>
+        <v>8.8064929999999997</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>0.28322700000000012</v>
+        <v>5.4373000000000005E-2</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>0.62465500925925888</v>
+        <v>1.5702081296296297</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>2.2971230462962957</v>
+        <v>0.80790113888888726</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.39019388059268478</v>
+        <v>2.46555357035498</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>5.2767742898255738</v>
+        <v>0.65270425021796108</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.4349094177538695</v>
+        <v>1.2685729362203675</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>8.0217533529000074E-2</v>
+        <v>2.9564231290000005E-3</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>6.6582063614212963</v>
+        <v>0.74351669059657199</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>0.28322700000000012</v>
+        <v>5.4373000000000005E-2</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -4493,7 +4479,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>4.1858969541271742</v>
+        <v>2.4363490262215648</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4508,46 +4494,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>8.2965389999999992</v>
+        <v>11.486921000000001</v>
       </c>
       <c r="I10">
-        <v>14.584220999999999</v>
+        <v>11.253795</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6.2876820000000002</v>
+        <v>-0.23312600000000039</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>5.5288380092592586</v>
+        <v>4.0175101296296303</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>1.1968510462962954</v>
+        <v>3.5427021388888882</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>30.568049732629881</v>
+        <v>16.140387641676689</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>1.432452427020537</v>
+        <v>12.550738444887903</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>6.6171955561846705</v>
+        <v>14.232841729246665</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>39.534944933124002</v>
+        <v>5.4347731876000178E-2</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>56.018234921101303</v>
+        <v>10.953294219102679</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>6.2876820000000002</v>
+        <v>0.23312600000000039</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4588,7 +4574,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>4.609060728329303</v>
+        <v>1.0097848393986977</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4603,46 +4589,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>6.603542</v>
+        <v>11.504575000000001</v>
       </c>
       <c r="I11">
-        <v>15.261647999999999</v>
+        <v>10.724527999999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>8.6581060000000001</v>
+        <v>-0.78004700000000149</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>6.2062650092592584</v>
+        <v>3.4882431296296295</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-0.49614595370370385</v>
+        <v>3.5603561388888885</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>38.517725365155826</v>
+        <v>12.167840131408312</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>0.24616080737655785</v>
+        <v>12.676135835723795</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>-3.0792132719568612</v>
+        <v>12.41938784051384</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>74.962799507235999</v>
+        <v>0.6084733222090023</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>66.617591797337028</v>
+        <v>7.7301189077890644</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>8.6581060000000001</v>
+        <v>0.78004700000000149</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4683,7 +4669,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.14738799760715918</v>
+        <v>0.95883265950513508</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -4699,46 +4685,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>7.6711900000000002</v>
+        <v>9.8655439999999999</v>
       </c>
       <c r="I12">
-        <v>12.806131000000001</v>
+        <v>9.3905910000000006</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>5.1349410000000004</v>
+        <v>-0.47495299999999929</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>3.7507480092592598</v>
+        <v>2.1543061296296306</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>0.57150204629629631</v>
+        <v>1.9213251388888875</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>14.0681106289623</v>
+        <v>4.6410349001597986</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>0.32661458892085399</v>
+        <v>3.6914902893264028</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>2.1435601624334266</v>
+        <v>4.1391225237198315</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>26.367619073481006</v>
+        <v>0.22558035220899933</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>32.563492240623361</v>
+        <v>2.091992364154017</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>5.1349410000000004</v>
+        <v>0.47495299999999929</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4779,7 +4765,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>3.2551501111111127</v>
+        <v>0.80918587962962996</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4794,46 +4780,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>6.5666969999999996</v>
+        <v>8.1763729999999999</v>
       </c>
       <c r="I13">
-        <v>9.8069469999999992</v>
+        <v>7.7608730000000001</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>3.2402499999999996</v>
+        <v>-0.41549999999999976</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.75156400925925837</v>
+        <v>0.5245881296296302</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-0.53299095370370431</v>
+        <v>0.23215413888888747</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.56484846001385058</v>
+        <v>0.27519270574831367</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>0.28407935672998424</v>
+        <v>5.3895544203240858E-2</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>-0.40057681806447176</v>
+        <v>0.12178530550549888</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>10.499220062499997</v>
+        <v>0.1726402499999998</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>7.3292515437531263</v>
+        <v>3.3615704786575273E-2</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>3.2402499999999996</v>
+        <v>0.41549999999999976</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4882,46 +4868,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>6.2461570000000002</v>
+        <v>5.5188360000000003</v>
       </c>
       <c r="I14">
-        <v>6.3599959999999998</v>
+        <v>5.7657990000000003</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>0.11383899999999958</v>
+        <v>0.24696300000000004</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6953869907407411</v>
+        <v>-1.4704858703703696</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-0.85353095370370369</v>
+        <v>-2.4253828611111121</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>7.2651110298544275</v>
+        <v>2.1623286949589033</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>0.72851508893035399</v>
+        <v>5.8824820229715238</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>2.3005962288075006</v>
+        <v>3.5664912275023508</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>1.2959317920999905E-2</v>
+        <v>6.0990723369000022E-2</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>0.54714418637400275</v>
+        <v>4.7455130912833567</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>0.11383899999999958</v>
+        <v>0.24696300000000004</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4959,7 +4945,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.99758367086710587</v>
+        <v>0.39800470023756579</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4974,46 +4960,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>5.7622669999999996</v>
+        <v>4.8902239999999999</v>
       </c>
       <c r="I15">
-        <v>5.272043</v>
+        <v>4.8019150000000002</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-0.49022399999999955</v>
+        <v>-8.8308999999999749E-2</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7833399907407408</v>
+        <v>-2.4343698703703698</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3374209537037043</v>
+        <v>-3.0539948611111125</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>14.313661485538148</v>
+        <v>5.926156665767051</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>1.7886948074057258</v>
+        <v>9.3268846116930835</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>5.059918178601845</v>
+        <v>7.4345530741548345</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>0.24031957017599956</v>
+        <v>7.7984794809999557E-3</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>3.3402860767986136</v>
+        <v>9.8740735555538048</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.49022399999999955</v>
+        <v>8.8308999999999749E-2</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -5062,46 +5048,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>6.3580699999999997</v>
+        <v>5.3884150000000002</v>
       </c>
       <c r="I16">
-        <v>4.6519149999999998</v>
+        <v>4.3048380000000002</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7061549999999999</v>
+        <v>-1.083577</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-4.403467990740741</v>
+        <v>-2.9314468703703698</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-0.7416179537037042</v>
+        <v>-2.5558038611111122</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>19.3905303454783</v>
+        <v>8.5933807538042348</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>0.54999718925566954</v>
+        <v>6.5321333764704699</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>3.2656909204929101</v>
+        <v>7.4922032299346775</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>2.9109648840249998</v>
+        <v>1.1741391149289999</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>5.9915924328833556</v>
+        <v>13.245093052221861</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>1.7061549999999999</v>
+        <v>1.083577</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -5129,46 +5115,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>5.4265869999999996</v>
+        <v>4.7573080000000001</v>
       </c>
       <c r="I17">
-        <v>3.530357</v>
+        <v>3.5831170000000001</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8962299999999996</v>
+        <v>-1.174191</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5250259907407404</v>
+        <v>-3.6531678703703698</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6731009537037043</v>
+        <v>-3.1869108611111123</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>30.5259121983607</v>
+        <v>13.345635489106384</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>2.7992668012842445</v>
+        <v>10.156400836667972</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>9.2439262543460856</v>
+        <v>11.642320363545483</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>3.5956882128999985</v>
+        <v>1.3787245044809999</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>12.740123457067392</v>
+        <v>19.01920944298681</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>1.8962299999999996</v>
+        <v>1.174191</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -5196,46 +5182,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6.6431420000000001</v>
+        <v>5.2381219999999997</v>
       </c>
       <c r="I18">
-        <v>4.778022</v>
+        <v>4.5250349999999999</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8651200000000001</v>
+        <v>-0.7130869999999998</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2773609907407408</v>
+        <v>-2.71124987037037</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-0.45654595370370377</v>
+        <v>-2.7060968611111127</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>18.295817045110613</v>
+        <v>7.3508758595833479</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>0.20843420784322442</v>
+        <v>7.3229602217154168</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>1.9528118528527507</v>
+        <v>7.3369047638971692</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>3.4786726144000002</v>
+        <v>0.50849306956899976</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>5.3901328005869287</v>
+        <v>11.690818276082695</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>1.8651200000000001</v>
+        <v>0.7130869999999998</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -5263,46 +5249,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>6.8063650000000004</v>
+        <v>5.3458209999999999</v>
       </c>
       <c r="I19">
-        <v>5.180104</v>
+        <v>4.8515620000000004</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6262610000000004</v>
+        <v>-0.49425899999999956</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8752789907407408</v>
+        <v>-2.3847228703703696</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-0.29332295370370343</v>
+        <v>-2.5983978611111125</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>15.017787256076575</v>
+        <v>5.6869031684674942</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>8.6038355169464939E-2</v>
+        <v>6.7516714446268038</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>1.1367082799899808</v>
+        <v>6.1964588057131209</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>2.6447248401210013</v>
+        <v>0.24429195908099957</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>3.6848025553167432</v>
+        <v>9.5645264605776354</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>1.6262610000000004</v>
+        <v>0.49425899999999956</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -5333,46 +5319,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>8.1545120000000004</v>
+        <v>6.6216189999999999</v>
       </c>
       <c r="I20">
-        <v>6.3966960000000004</v>
+        <v>5.832058</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>-1.757816</v>
+        <v>-0.78956099999999996</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6586869907407404</v>
+        <v>-1.40422687037037</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>1.0548240462962966</v>
+        <v>-1.3225998611111125</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>7.0686165147340541</v>
+        <v>1.9718531034701638</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>1.1126537686448916</v>
+        <v>1.7492703926111342</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>-2.8044469694084722</v>
+        <v>1.8572302637203435</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>3.0899170898560002</v>
+        <v>0.62340657272099997</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>0.49419768697215</v>
+        <v>4.4612235032096361</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>1.757816</v>
+        <v>0.78956099999999996</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -5406,46 +5392,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.4976129999999994</v>
+        <v>8.7968290000000007</v>
       </c>
       <c r="I21">
-        <v>8.9151740000000004</v>
+        <v>7.7188309999999998</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-0.58243899999999904</v>
+        <v>-1.0779980000000009</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-0.14020899074074045</v>
+        <v>0.48254612962962984</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>2.3979250462962955</v>
+        <v>0.85261013888888826</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>1.9658561084537042E-2</v>
+        <v>0.23285076722053552</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>5.7500445276550911</v>
+        <v>0.72694404893612929</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-0.33621065061314692</v>
+        <v>0.41142372260381416</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>0.33923518872099889</v>
+        <v>1.1620796880040019</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>3.2959895842965583</v>
+        <v>5.0799687936242205E-2</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>0.58243899999999904</v>
+        <v>1.0779980000000009</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -5479,46 +5465,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>8.8428880000000003</v>
+        <v>10.622766</v>
       </c>
       <c r="I22">
-        <v>13.210819000000001</v>
+        <v>10.470634</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>4.3679310000000005</v>
+        <v>-0.15213199999999993</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>4.1554360092592599</v>
+        <v>3.2343491296296305</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>1.7432000462962964</v>
+        <v>2.678547138888888</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>17.267648427048524</v>
+        <v>10.461014292335948</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3.0387464014074101</v>
+        <v>7.1746147752498475</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>7.2437562437220393</v>
+        <v>8.6633566073372119</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>19.078821220761004</v>
+        <v>2.3144145423999979E-2</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>37.345922665006469</v>
+        <v>6.3827734540069594</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>4.3679310000000005</v>
+        <v>0.15213199999999993</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -5552,46 +5538,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>6.3898710000000003</v>
+        <v>11.755342000000001</v>
       </c>
       <c r="I23">
-        <v>15.696068</v>
+        <v>10.573588000000001</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>9.3061970000000009</v>
+        <v>-1.1817539999999997</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>6.6406850092592595</v>
+        <v>3.3373031296296309</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-0.70981695370370357</v>
+        <v>3.8111231388888882</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>44.098697392200648</v>
+        <v>11.13759217903573</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>0.5038401077652056</v>
+        <v>14.524659579774292</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>-4.7136708037782578</v>
+        <v>12.718873178817789</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>86.605302602809019</v>
+        <v>1.3965425165159995</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>73.89774990036112</v>
+        <v>6.9135820685412952</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>9.3061970000000009</v>
+        <v>1.1817539999999997</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -5625,46 +5611,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>5.8167309999999999</v>
+        <v>11.480649</v>
       </c>
       <c r="I24">
-        <v>14.140558</v>
+        <v>9.3907810000000005</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>8.3238270000000014</v>
+        <v>-2.0898679999999992</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>5.0851750092592596</v>
+        <v>2.1544961296296306</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1.282956953703704</v>
+        <v>3.5364301388888872</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>25.859004874794909</v>
+        <v>4.6418535725890582</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>1.6459785450566882</v>
+        <v>12.506338127241674</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>-6.5240606389294644</v>
+        <v>7.6192250469416845</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>69.286095925929018</v>
+        <v>4.3675482574239961</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>49.573851008832413</v>
+        <v>2.0925420216667945</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>8.3238270000000014</v>
+        <v>2.0898679999999992</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -5698,46 +5684,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>6.8956809999999997</v>
+        <v>8.2271180000000008</v>
       </c>
       <c r="I25">
-        <v>10.113104</v>
+        <v>7.5293890000000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>3.2174230000000001</v>
+        <v>-0.69772900000000071</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>1.057721009259259</v>
+        <v>0.29310412962963017</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-0.20400695370370414</v>
+        <v>0.2828991388888884</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>1.1187737334284256</v>
+        <v>8.5910030805943047E-2</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>4.1618837159465287E-2</v>
+        <v>8.0031922784074574E-2</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>-0.21578244096738888</v>
+        <v>8.2918905876999502E-2</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>10.351810760929</v>
+        <v>0.48682575744100098</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>9.0806762680760009</v>
+        <v>0.17208381366946474</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>3.2174230000000001</v>
+        <v>0.69772900000000071</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -5771,46 +5757,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>5.9200679999999997</v>
+        <v>5.375019</v>
       </c>
       <c r="I26">
-        <v>5.8270860000000004</v>
+        <v>5.3008189999999997</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-9.2981999999999232E-2</v>
+        <v>-7.4200000000000266E-2</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-3.2282969907407404</v>
+        <v>-1.9354658703703702</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1796199537037042</v>
+        <v>-2.5691998611111124</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>10.421901460425721</v>
+        <v>3.7460281353685345</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1.3915032351759293</v>
+        <v>6.6007879263333598</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>3.8081635467593999</v>
+        <v>4.9725986453408533</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>8.6456523239998567E-3</v>
+        <v>5.505640000000039E-3</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>1.619515732570483</v>
+        <v>6.9875628257222502</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>9.2981999999999232E-2</v>
+        <v>7.4200000000000266E-2</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -5844,46 +5830,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>5.2392079999999996</v>
+        <v>5.01579</v>
       </c>
       <c r="I27">
-        <v>3.21502</v>
+        <v>3.5235210000000001</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0241879999999997</v>
+        <v>-1.4922689999999998</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8403629907407408</v>
+        <v>-3.7127638703703698</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8604799537037042</v>
+        <v>-2.9284288611111124</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>34.109839863614134</v>
+        <v>13.784615557127568</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>3.4613856581333375</v>
+        <v>8.5756955945885274</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>10.865878266626162</v>
+        <v>10.872564872483188</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>4.0973370593439986</v>
+        <v>2.2268667683609995</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>15.090645110532522</v>
+        <v>19.54256957923236</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>2.0241879999999997</v>
+        <v>1.4922689999999998</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -5917,46 +5903,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>5.8181010000000004</v>
+        <v>5.1644459999999999</v>
       </c>
       <c r="I28">
-        <v>4.3466950000000004</v>
+        <v>4.1981859999999998</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-1.471406</v>
+        <v>-0.96626000000000012</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7086879907407404</v>
+        <v>-3.0380988703703702</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2815869537037035</v>
+        <v>-2.7797728611111125</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>22.171742594146071</v>
+        <v>9.2300447461457189</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>1.6424651199035385</v>
+        <v>7.7271371593698603</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>6.0345930979946374</v>
+        <v>8.4452247892278827</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>2.1650356168360001</v>
+        <v>0.93365838760000019</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>7.5789702031422417</v>
+        <v>14.032762196524308</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>1.471406</v>
+        <v>0.96626000000000012</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -5990,46 +5976,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>6.1459539999999997</v>
+        <v>5.0545819999999999</v>
       </c>
       <c r="I29">
-        <v>4.3152239999999997</v>
+        <v>4.2563820000000003</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-1.83073</v>
+        <v>-0.79819999999999958</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7401589907407411</v>
+        <v>-2.9799028703703696</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-0.95373395370370417</v>
+        <v>-2.8896368611111125</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>22.46910725750028</v>
+        <v>8.8798211168415673</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>0.90960845444729932</v>
+        <v>8.3500011890920831</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>4.520850575423327</v>
+        <v>8.6108371767530301</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>3.3515723329</v>
+        <v>0.63712323999999931</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>7.7532395094752635</v>
+        <v>13.600140714169859</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>1.83073</v>
+        <v>0.79819999999999958</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -6063,46 +6049,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5.8683129999999997</v>
+        <v>5.1517629999999999</v>
       </c>
       <c r="I30">
-        <v>4.1118129999999997</v>
+        <v>4.3000590000000001</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7565</v>
+        <v>-0.85170399999999979</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9435699907407411</v>
+        <v>-2.9362258703703699</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2313749537037042</v>
+        <v>-2.7924558611111125</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>24.438884253352413</v>
+        <v>8.6214223618322361</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>1.5162842766087996</v>
+        <v>7.7978097362538055</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>6.0873882684794012</v>
+        <v>8.1992811412618174</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>3.0852922499999997</v>
+        <v>0.7253997036159997</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>8.9273967389699127</v>
+        <v>13.279901093333361</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>1.7565</v>
+        <v>0.85170399999999979</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -6136,46 +6122,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>8.6282720000000008</v>
+        <v>6.8727770000000001</v>
       </c>
       <c r="I31">
-        <v>5.5996569999999997</v>
+        <v>5.3488879999999996</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-3.0286150000000012</v>
+        <v>-1.5238890000000005</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4557259907407412</v>
+        <v>-1.8873968703703703</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>1.528584046296297</v>
+        <v>-1.0714418611111123</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>11.942042123081077</v>
+        <v>3.5622669462838683</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>2.3365691865915599</v>
+        <v>1.1479876617412441</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>-5.2823676178177621</v>
+        <v>2.0222360154449182</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>9.1725088182250065</v>
+        <v>2.3222376843210015</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>2.2500928620692444</v>
+        <v>6.7357422786357501</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>3.0286150000000012</v>
+        <v>1.5238890000000005</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -6209,46 +6195,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>8.7094070000000006</v>
+        <v>7.7387610000000002</v>
       </c>
       <c r="I32">
-        <v>7.8391130000000002</v>
+        <v>6.8545740000000004</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>-0.87029400000000035</v>
+        <v>-0.88418699999999983</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2162699907407406</v>
+        <v>-0.38171087037036955</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>1.6097190462962967</v>
+        <v>-0.20545786111111219</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>1.4793126903764813</v>
+        <v>0.14570318855890507</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>2.5911954080090589</v>
+        <v>4.2212932692353065E-2</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>-1.9578529695339906</v>
+        <v>7.8425498989157141E-2</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>0.75741164643600056</v>
+        <v>0.78178665096899969</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>0.54674939909027997</v>
+        <v>1.1873259233458546</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>0.87029400000000035</v>
+        <v>0.88418699999999983</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -6276,46 +6262,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>9.7174420000000001</v>
+        <v>8.7878050000000005</v>
       </c>
       <c r="I33">
-        <v>9.6897059999999993</v>
+        <v>8.6545620000000003</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>-2.7736000000000871E-2</v>
+        <v>-0.13324300000000022</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>0.63432300925925844</v>
+        <v>1.4182771296296304</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>2.6177540462962963</v>
+        <v>0.84358613888888812</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.40236568007572127</v>
+        <v>2.0115100164304636</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>6.8526362469006319</v>
+        <v>0.71163757372546244</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>1.6605016241472668</v>
+        <v>1.1964389276586749</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>7.6928569600004837E-4</v>
+        <v>1.775369704900006E-2</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>6.708193480140479</v>
+        <v>0.50458737496651784</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>2.7736000000000871E-2</v>
+        <v>0.13324300000000022</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -6343,46 +6329,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>8.8218789999999991</v>
+        <v>11.497807999999999</v>
       </c>
       <c r="I34">
-        <v>14.292591</v>
+        <v>10.81798</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>5.4707120000000007</v>
+        <v>-0.67982799999999877</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>5.237208009259259</v>
+        <v>3.5816951296296304</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>1.7221910462962953</v>
+        <v>3.5535891388888867</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>27.428347732249332</v>
+        <v>12.828540001612614</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>2.9659419999431282</v>
+        <v>12.627995768029059</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>9.019472741137541</v>
+        <v>12.727872911463077</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>29.928689786944009</v>
+        <v>0.46216610958399834</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>51.737854233418531</v>
+        <v>8.2585030833879589</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>5.4707120000000007</v>
+        <v>0.67982799999999877</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -6410,46 +6396,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>6.7948449999999996</v>
+        <v>12.410117</v>
       </c>
       <c r="I35">
-        <v>15.783275</v>
+        <v>8.1575600000000001</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>8.988430000000001</v>
+        <v>-4.2525569999999995</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>6.7278920092592589</v>
+        <v>0.92127512962963021</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-0.30484295370370429</v>
+        <v>4.4658981388888872</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>45.26453088825459</v>
+        <v>0.8487478644740919</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>9.29292264227988E-2</v>
+        <v>19.944246186931228</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>-2.0509504723021421</v>
+        <v>4.114320886817584</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>80.791873864900012</v>
+        <v>18.084241038248997</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>75.404683990604823</v>
+        <v>4.5514441542407684E-2</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>8.988430000000001</v>
+        <v>4.2525569999999995</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -6477,46 +6463,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>5.5379370000000003</v>
+        <v>11.476654</v>
       </c>
       <c r="I36">
-        <v>13.040979999999999</v>
+        <v>9.2495150000000006</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>7.503042999999999</v>
+        <v>-2.2271389999999993</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>3.9855970092592585</v>
+        <v>2.0132301296296307</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5617509537037035</v>
+        <v>3.5324351388888875</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>15.884983520216347</v>
+        <v>4.0530955548485395</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>2.4390660413944274</v>
+        <v>12.478098010456954</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>-6.2245099302892752</v>
+        <v>7.1116048525735369</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>56.295654259848988</v>
+        <v>4.9601481253209974</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>35.298951179383621</v>
+        <v>1.7037980101982397</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>7.503042999999999</v>
+        <v>2.2271389999999993</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -6544,46 +6530,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>6.9853709999999998</v>
+        <v>8.6807390000000009</v>
       </c>
       <c r="I37">
-        <v>8.8601080000000003</v>
+        <v>7.6215419999999998</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>1.8747370000000005</v>
+        <v>-1.0591970000000011</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19527499074074051</v>
+        <v>0.38525712962962988</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-0.11431695370370409</v>
+        <v>0.73652013888888845</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>3.8132322008796293E-2</v>
+        <v>0.14842305593046143</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>1.3068365904094825E-2</v>
+        <v>0.5424619149889075</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>2.2323242076000477E-2</v>
+        <v>0.28374963462274949</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>3.5146388191690021</v>
+        <v>1.1218982848090022</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>3.0990787394018544</v>
+        <v>0.10412035669652026</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1.8747370000000005</v>
+        <v>1.0591970000000011</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -6611,46 +6597,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>7.2559279999999999</v>
+        <v>6.4692150000000002</v>
       </c>
       <c r="I38">
-        <v>7.1383010000000002</v>
+        <v>6.709956</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-0.1176269999999997</v>
+        <v>0.24074099999999987</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.9170819907407406</v>
+        <v>-0.52632887037036991</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>0.15624004629629606</v>
+        <v>-1.4750038611111123</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3.6752033592224809</v>
+        <v>0.27702207978534965</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>2.4410952066668736E-2</v>
+        <v>2.1756363902926892</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>-0.29952497898712871</v>
+        <v>0.77633711601054567</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>1.383611112899993E-2</v>
+        <v>5.7956229080999941E-2</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1.4909673442799261E-3</v>
+        <v>1.5234048103181892</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>0.1176269999999997</v>
+        <v>0.24074099999999987</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -6678,46 +6664,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>5.4550590000000003</v>
+        <v>4.528276</v>
       </c>
       <c r="I39">
-        <v>4.9432869999999998</v>
+        <v>4.9356859999999996</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>-0.51177200000000056</v>
+        <v>0.40740999999999961</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1120959907407411</v>
+        <v>-2.3005988703703704</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6446289537037035</v>
+        <v>-3.4159428611111124</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>16.909333437066078</v>
+        <v>5.2927551623494242</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>2.7048043953605387</v>
+        <v>11.668665630375973</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>6.7628721267811391</v>
+        <v>7.8587142875219564</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>0.26191057998400058</v>
+        <v>0.16598290809999969</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>4.650065073134245</v>
+        <v>9.0512699763854183</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>0.51177200000000056</v>
+        <v>0.40740999999999961</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -6745,46 +6731,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>5.6953379999999996</v>
+        <v>4.9845980000000001</v>
       </c>
       <c r="I40">
-        <v>3.7774809999999999</v>
+        <v>3.6660560000000002</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9178569999999997</v>
+        <v>-1.3185419999999999</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-5.277901990740741</v>
+        <v>-3.5702288703703697</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4043499537037043</v>
+        <v>-2.9596208611111123</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>27.856249423865076</v>
+        <v>12.746534186826086</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>1.9721987924675963</v>
+        <v>8.7593556415240812</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>7.4120214163494484</v>
+        <v>10.566523843689307</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>3.678175472448999</v>
+        <v>1.7385530057639997</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>11.037059043237244</v>
+        <v>18.302677466190417</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>1.9178569999999997</v>
+        <v>1.3185419999999999</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -6812,46 +6798,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>5.7222619999999997</v>
+        <v>4.8694519999999999</v>
       </c>
       <c r="I41">
-        <v>4.4470419999999997</v>
+        <v>4.3088790000000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-1.27522</v>
+        <v>-0.56057299999999977</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-4.6083409907407411</v>
+        <v>-2.9274058703703698</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3774259537037041</v>
+        <v>-3.0747668611111125</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>21.236806686941357</v>
+        <v>8.5697051298789031</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>1.8973022579365588</v>
+        <v>9.4541912501870833</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>6.3476484841629377</v>
+        <v>9.0010905592369461</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>1.6261860484000001</v>
+        <v>0.31424208832899975</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>7.0365305557006339</v>
+        <v>13.215695905783361</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>1.27522</v>
+        <v>0.56057299999999977</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -6879,46 +6865,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>6.8889509999999996</v>
+        <v>6.0452839999999997</v>
       </c>
       <c r="I42">
-        <v>5.2057549999999999</v>
+        <v>4.8697699999999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6831959999999997</v>
+        <v>-1.1755139999999997</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8496279907407409</v>
+        <v>-2.36651487037037</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-0.21073695370370427</v>
+        <v>-1.8989348611111128</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>14.819635667094595</v>
+        <v>5.6003926316840893</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>4.4410063656317195E-2</v>
+        <v>3.6059536067430811</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>0.81125887566121557</v>
+        <v>4.4938575866841415</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>2.8331487744159989</v>
+        <v>1.3818331641959993</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>3.5869820331248365</v>
+        <v>9.4522357995874167</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>1.6831959999999997</v>
+        <v>1.1755139999999997</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -6946,46 +6932,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>7.703233</v>
+        <v>6.5628190000000002</v>
       </c>
       <c r="I43">
-        <v>6.2931949999999999</v>
+        <v>5.6472230000000003</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4100380000000001</v>
+        <v>-0.91559599999999985</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-2.762187990740741</v>
+        <v>-1.5890618703703696</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>0.60354504629629613</v>
+        <v>-1.3813998611111122</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>7.6296824961923715</v>
+        <v>2.5251176278649772</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>0.36426662290879824</v>
+        <v>1.9082655762778002</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>-1.6671048787506937</v>
+        <v>2.195129847026593</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>1.9882071614440004</v>
+        <v>0.83831603521599973</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>0.65043088437372487</v>
+        <v>5.2761899859615795</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>1.4100380000000001</v>
+        <v>0.91559599999999985</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -7013,46 +6999,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>8.3211359999999992</v>
+        <v>8.3512540000000008</v>
       </c>
       <c r="I44">
-        <v>9.0125589999999995</v>
+        <v>7.939508</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>0.69142300000000034</v>
+        <v>-0.41174600000000083</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-4.282399074074128E-2</v>
+        <v>0.70322312962963007</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>1.2214480462962953</v>
+        <v>0.40703513888888843</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>1.833894182963095E-3</v>
+        <v>0.49452277004609152</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>1.4919353298010367</v>
+        <v>0.16567760429029668</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>-5.2307279824889079E-2</v>
+        <v>0.28623652423867529</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>0.47806576492900049</v>
+        <v>0.16953476851600069</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>3.6590756397586848</v>
+        <v>2.2192212408191229E-5</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>0.69142300000000034</v>
+        <v>0.41174600000000083</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -7080,46 +7066,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>9.3699349999999999</v>
+        <v>10.121394</v>
       </c>
       <c r="I45">
-        <v>11.620977999999999</v>
+        <v>9.6459100000000007</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>2.2510429999999992</v>
+        <v>-0.4754839999999998</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>2.5655950092592583</v>
+        <v>2.4096251296296307</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>2.270247046296296</v>
+        <v>2.177175138888888</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>6.5822777515360134</v>
+        <v>5.8062932653426147</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>5.1540216512170565</v>
+        <v>4.7400915853958487</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>5.824534491763349</v>
+        <v>5.2461759262715457</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>5.0671945878489968</v>
+        <v>0.22608503425599979</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>20.442063682737956</v>
+        <v>2.8957527321729617</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>2.2510429999999992</v>
+        <v>0.4754839999999998</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -7147,46 +7133,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>7.4623270000000002</v>
+        <v>12.455776</v>
       </c>
       <c r="I46">
-        <v>16.109044999999998</v>
+        <v>11.247596</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>8.6467179999999981</v>
+        <v>-1.2081800000000005</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>7.0536620092592575</v>
+        <v>4.0113111296296298</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>0.36263904629629629</v>
+        <v>4.5115571388888878</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>49.754147740867346</v>
+        <v>16.090616978690537</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>0.13150707789868732</v>
+        <v>20.354147817459285</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>2.5579332639341943</v>
+        <v>18.097259363185003</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>74.765732171523965</v>
+        <v>1.459698912400001</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>81.168514387648685</v>
+        <v>10.91230052173373</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>8.6467179999999981</v>
+        <v>1.2081800000000005</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -7214,46 +7200,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>7.1640350000000002</v>
+        <v>12.236454999999999</v>
       </c>
       <c r="I47">
-        <v>16.403063</v>
+        <v>10.529299</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>9.2390279999999994</v>
+        <v>-1.7071559999999995</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>7.3476800092592587</v>
+        <v>3.29301412962963</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>6.4347046296296284E-2</v>
+        <v>4.292236138888887</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>53.988401518468137</v>
+        <v>10.84394205794039</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>4.1405423670576973E-3</v>
+        <v>18.42329107198378</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>0.47280150572617624</v>
+        <v>14.134394253068033</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>85.359638384783992</v>
+        <v>2.9143816083359981</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>86.552787252048603</v>
+        <v>6.6826393244777904</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>9.2390279999999994</v>
+        <v>1.7071559999999995</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -7281,46 +7267,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>7.8941119999999998</v>
+        <v>10.282425999999999</v>
       </c>
       <c r="I48">
-        <v>13.773477</v>
+        <v>9.5790260000000007</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>5.879365</v>
+        <v>-0.70339999999999847</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>4.7180940092592589</v>
+        <v>2.3427411296296308</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>0.79442404629629593</v>
+        <v>2.3382071388888868</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>22.260411080208108</v>
+        <v>5.4884360004583188</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>0.63110956533377938</v>
+        <v>5.467212624350954</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>3.748167333642054</v>
+        <v>5.4778140338686176</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>34.566932803225001</v>
+        <v>0.49477155999999783</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>44.539460234464421</v>
+        <v>2.6725943813620727</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>5.879365</v>
+        <v>0.70339999999999847</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -7348,46 +7334,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>7.0277820000000002</v>
+        <v>7.8475510000000002</v>
       </c>
       <c r="I49">
-        <v>7.6693629999999997</v>
+        <v>6.826441</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>0.64158099999999951</v>
+        <v>-1.0211100000000002</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3860199907407411</v>
+        <v>-0.40984387037036996</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-7.1905953703703673E-2</v>
+        <v>-9.6667861111112252E-2</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>1.921051414732964</v>
+        <v>0.16797199808016461</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>5.1704661780391757E-3</v>
+        <v>9.3446753717972893E-3</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>9.9663089286611523E-2</v>
+        <v>3.9618730338203616E-2</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>0.41162617956099939</v>
+        <v>1.0426656321000003</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>0.32452965837268682</v>
+        <v>1.2494273467901333</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>0.64158099999999951</v>
+        <v>1.0211100000000002</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -7415,46 +7401,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>6.2478129999999998</v>
+        <v>5.8956289999999996</v>
       </c>
       <c r="I50">
-        <v>6.3303070000000004</v>
+        <v>5.7604949999999997</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>8.2494000000000511E-2</v>
+        <v>-0.13513399999999987</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7250759907407405</v>
+        <v>-1.4757898703703702</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-0.85187495370370403</v>
+        <v>-2.0485898611111129</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>7.4260391553116278</v>
+        <v>2.1779557414877941</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>0.72569093674768792</v>
+        <v>4.1967204190472485</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>2.3214239834513437</v>
+        <v>3.0232881655712238</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>6.8052600360000845E-3</v>
+        <v>1.8261197955999963E-2</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>0.59194705192202035</v>
+        <v>4.7686499015860262</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>8.2494000000000511E-2</v>
+        <v>0.13513399999999987</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -7482,46 +7468,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>5.4745939999999997</v>
+        <v>5.1881440000000003</v>
       </c>
       <c r="I51">
-        <v>3.3336269999999999</v>
+        <v>3.2154120000000002</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1409669999999998</v>
+        <v>-1.9727320000000002</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7217559907407409</v>
+        <v>-4.0208728703703702</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6250939537037041</v>
+        <v>-2.7560748611111121</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>32.738491617577559</v>
+        <v>16.167418639680459</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>2.6409303583643369</v>
+        <v>7.5959486400486362</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>9.2983910651207253</v>
+        <v>11.081826637751456</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>4.5837396950889993</v>
+        <v>3.8916715438240006</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>14.183215107011652</v>
+        <v>22.361614329691527</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>2.1409669999999998</v>
+        <v>1.9727320000000002</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -7549,46 +7535,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>6.8553620000000004</v>
+        <v>6.2627410000000001</v>
       </c>
       <c r="I52">
-        <v>4.5585680000000002</v>
+        <v>4.2341430000000004</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-2.2967940000000002</v>
+        <v>-2.0285979999999997</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4968149907407406</v>
+        <v>-3.0021418703703695</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-0.24432595370370347</v>
+        <v>-1.6814778611111123</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>20.221345060950647</v>
+        <v>9.0128558098309011</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>5.9695171653224251E-2</v>
+        <v>2.8273677974068012</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>1.0986886112418419</v>
+        <v>5.0480350909424834</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>5.2752626784360013</v>
+        <v>4.1152098456039985</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>6.457290619111113</v>
+        <v>13.764662895199359</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>2.2967940000000002</v>
+        <v>2.0285979999999997</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -7616,46 +7602,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>6.4950049999999999</v>
+        <v>5.269374</v>
       </c>
       <c r="I53">
-        <v>4.6808779999999999</v>
+        <v>4.2153099999999997</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-1.814127</v>
+        <v>-1.0540640000000003</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-4.374504990740741</v>
+        <v>-3.0209748703703703</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-0.60468295370370395</v>
+        <v>-2.6748448611111124</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>19.136293914015649</v>
+        <v>9.1262891674092756</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>0.36564147449983575</v>
+        <v>7.1547950310125259</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>2.6451885987927053</v>
+        <v>8.080639107555994</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>3.2910567721290001</v>
+        <v>1.1110509160960007</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>5.8506415921361148</v>
+        <v>13.904761294472976</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>1.814127</v>
+        <v>1.0540640000000003</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -7683,46 +7669,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>7.6218719999999998</v>
+        <v>6.1178229999999996</v>
       </c>
       <c r="I54">
-        <v>5.966812</v>
+        <v>5.1653010000000004</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6550599999999998</v>
+        <v>-0.9525219999999992</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0885709907407408</v>
+        <v>-2.0709838703703696</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>0.52218404629629589</v>
+        <v>-1.8263958611111129</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>9.5392707648452415</v>
+        <v>4.2889741913342361</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>0.27267617820637208</v>
+        <v>3.3357218414838035</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>-1.6128024972183594</v>
+        <v>3.7824363692723164</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>2.7392236035999993</v>
+        <v>0.90729816048399847</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>1.2834079264800766</v>
+        <v>7.7223844788023577</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1.6550599999999998</v>
+        <v>0.9525219999999992</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -7750,46 +7736,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>8.5039850000000001</v>
+        <v>7.0015580000000002</v>
       </c>
       <c r="I55">
-        <v>6.9964919999999999</v>
+        <v>6.1528090000000004</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5074930000000002</v>
+        <v>-0.84874899999999975</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0588909907407409</v>
+        <v>-1.0834758703703695</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>1.4042970462962963</v>
+        <v>-0.94266086111111225</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>4.2390321117533896</v>
+        <v>1.1739199616748297</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>1.9720501942365021</v>
+        <v>0.8886094990707436</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>-2.8912945369432776</v>
+        <v>1.0213502969564443</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>2.2725351450490008</v>
+        <v>0.72037486500099956</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>1.0649404860817006E-2</v>
+        <v>3.2091492904861334</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>1.5074930000000002</v>
+        <v>0.84874899999999975</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -7817,46 +7803,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>9.6445229999999995</v>
+        <v>8.5682189999999991</v>
       </c>
       <c r="I56">
-        <v>9.3046369999999996</v>
+        <v>8.2855150000000002</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>-0.33988599999999991</v>
+        <v>-0.28270399999999896</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>0.24925400925925878</v>
+        <v>1.0492301296296302</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>2.5448350462962956</v>
+        <v>0.62400013888888672</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>6.2127561131814661E-2</v>
+        <v>1.1008838649226107</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>6.4761854128578689</v>
+        <v>0.3893761733333499</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.63431033819282312</v>
+        <v>0.65471974661529386</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>0.11552249299599994</v>
+        <v>7.9921551615999412E-2</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>4.8618002967629437</v>
+        <v>0.11648305442046297</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>0.33988599999999991</v>
+        <v>0.28270399999999896</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -7884,46 +7870,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>9.1118009999999998</v>
+        <v>9.5638400000000008</v>
       </c>
       <c r="I57">
-        <v>11.878055</v>
+        <v>9.8023209999999992</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>2.766254</v>
+        <v>0.23848099999999839</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>2.822672009259259</v>
+        <v>2.5660361296296292</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>2.0121130462962959</v>
+        <v>1.6196211388888884</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>7.9674772718557021</v>
+        <v>6.5845414185646076</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>4.0485989110757599</v>
+        <v>2.6231726335357397</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>5.6795351752459338</v>
+        <v>4.1560063587007754</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>7.652161192516</v>
+        <v>5.6873187360999229E-2</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>22.832791629130387</v>
+        <v>3.4525435585434558</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>2.766254</v>
+        <v>0.23848099999999839</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -7951,46 +7937,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>8.4929480000000002</v>
+        <v>12.315927</v>
       </c>
       <c r="I58">
-        <v>16.008330999999998</v>
+        <v>11.490181</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>7.5153829999999981</v>
+        <v>-0.82574600000000054</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>6.9529480092592575</v>
+        <v>4.2538961296296298</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>1.3932600462962963</v>
+        <v>4.3717081388888879</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>48.343486019462269</v>
+        <v>18.095632281677943</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>1.9411735566055577</v>
+        <v>19.111832051627342</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>9.6872646652762935</v>
+        <v>18.596792331889791</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>56.480981636688973</v>
+        <v>0.68185645651600091</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>79.363920926323317</v>
+        <v>12.573847490433453</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>7.5153829999999981</v>
+        <v>0.82574600000000054</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -8018,46 +8004,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>6.8914710000000001</v>
+        <v>12.099008</v>
       </c>
       <c r="I59">
-        <v>16.785382999999999</v>
+        <v>10.824233</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>9.8939120000000003</v>
+        <v>-1.274775</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>7.7300000092592587</v>
+        <v>3.5879481296296296</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-0.20821695370370374</v>
+        <v>4.1547891388888871</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>59.752900143148139</v>
+        <v>12.873371780912757</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>4.3354299809650311E-2</v>
+        <v>17.262272788629062</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>-1.6095170540575645</v>
+        <v>14.907167919881882</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>97.889494663744003</v>
+        <v>1.625051300625</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>93.8126885298486</v>
+        <v>8.2944814401998972</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>9.8939120000000003</v>
+        <v>1.274775</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -8085,46 +8071,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>6.320354</v>
+        <v>11.184564</v>
       </c>
       <c r="I60">
-        <v>13.869374000000001</v>
+        <v>9.5962580000000006</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>7.5490200000000005</v>
+        <v>-1.5883059999999993</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>4.8139910092592597</v>
+        <v>2.3599731296296307</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-0.77933395370370384</v>
+        <v>3.2403451388888875</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>23.174509437228984</v>
+        <v>5.5694731725738738</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>0.60736141139544675</v>
+        <v>10.499836619120844</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>-3.7517066463401023</v>
+        <v>7.6471274585037685</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>56.987702960400007</v>
+        <v>2.5227159496359977</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>45.828649165418788</v>
+        <v>2.7292333164207392</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>7.5490200000000005</v>
+        <v>1.5883059999999993</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -8152,46 +8138,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>7.8317490000000003</v>
+        <v>9.1563230000000004</v>
       </c>
       <c r="I61">
-        <v>10.811021</v>
+        <v>8.3947640000000003</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>2.9792719999999999</v>
+        <v>-0.7615590000000001</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.7556380092592594</v>
+        <v>1.1584791296296304</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>0.73206104629629642</v>
+        <v>1.212104138888888</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>3.0822648195558155</v>
+        <v>1.3420738937874259</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>0.5359133755044283</v>
+        <v>1.4691964435115727</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>1.2852341979758803</v>
+        <v>1.4041973478404717</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>8.876061649983999</v>
+        <v>0.57997211048100017</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>13.773992980530947</v>
+        <v>0.2029909221764073</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>2.9792719999999999</v>
+        <v>0.7615590000000001</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -8219,46 +8205,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>7.3607040000000001</v>
+        <v>6.2208110000000003</v>
       </c>
       <c r="I62">
-        <v>7.4374570000000002</v>
+        <v>6.7528550000000003</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>7.6753000000000071E-2</v>
+        <v>0.53204399999999996</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6179259907407406</v>
+        <v>-0.48342987037036966</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>0.26101604629629627</v>
+        <v>-1.7234078611111121</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>2.617684511514407</v>
+        <v>0.23370443956631243</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>6.8129376424150276E-2</v>
+        <v>2.9701346557395785</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>-0.42230464530316614</v>
+        <v>0.83314683889222096</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>5.8910230090000112E-3</v>
+        <v>0.28307081793599997</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>0.11408792863590958</v>
+        <v>1.4193478495615772</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>7.6753000000000071E-2</v>
+        <v>0.53204399999999996</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -8286,46 +8272,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>6.9083500000000004</v>
+        <v>5.7414370000000003</v>
       </c>
       <c r="I63">
-        <v>6.9163920000000001</v>
+        <v>6.0831379999999999</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>8.0419999999996605E-3</v>
+        <v>0.34170099999999959</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1389909907407407</v>
+        <v>-1.15314687037037</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-0.19133795370370343</v>
+        <v>-2.2027818611111121</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>4.5752824584700553</v>
+        <v>1.3297477046449788</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>3.6610212527520558E-2</v>
+        <v>4.8522479276401347</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>0.40927015915899057</v>
+        <v>2.5401310092488978</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>6.4673763999994544E-5</v>
+        <v>0.11675957340099972</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>3.359740664415032E-2</v>
+        <v>3.4636219715940801</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>8.0419999999996605E-3</v>
+        <v>0.34170099999999959</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -8353,46 +8339,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>7.9205290000000002</v>
+        <v>6.7594180000000001</v>
       </c>
       <c r="I64">
-        <v>5.9007389999999997</v>
+        <v>5.1523380000000003</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0197900000000004</v>
+        <v>-1.6070799999999998</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-3.1546439907407411</v>
+        <v>-2.0839468703703696</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>0.82084104629629628</v>
+        <v>-1.1848008611111123</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>9.9517787083166684</v>
+        <v>4.3428345585264578</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>0.67378002328479847</v>
+        <v>1.4037530804896332</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>-2.5894612740519536</v>
+        <v>2.4690620465246216</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>4.0795516441000013</v>
+        <v>2.5827061263999993</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>1.437478593587207</v>
+        <v>7.7945987426385246</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>2.0197900000000004</v>
+        <v>1.6070799999999998</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -8420,46 +8406,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>7.6663829999999997</v>
+        <v>6.8463580000000004</v>
       </c>
       <c r="I65">
-        <v>6.5825889999999996</v>
+        <v>6.0189560000000002</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0837940000000001</v>
+        <v>-0.82740200000000019</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4727939907407412</v>
+        <v>-1.2173288703703697</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>0.56669504629629586</v>
+        <v>-1.097860861111112</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>6.1147101206435215</v>
+        <v>1.4818895786372004</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>0.32114327549676092</v>
+        <v>1.2052984703596323</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>-1.4013201050640265</v>
+        <v>1.3364577218802314</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>1.1746094344360003</v>
+        <v>0.68459406960400027</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>0.26739132792146569</v>
+        <v>3.7066370843737459</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>1.0837940000000001</v>
+        <v>0.82740200000000019</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -8487,46 +8473,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>8.1107650000000007</v>
+        <v>7.6145459999999998</v>
       </c>
       <c r="I66">
-        <v>6.894501</v>
+        <v>6.4329400000000003</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2162640000000007</v>
+        <v>-1.1816059999999995</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1608819907407408</v>
+        <v>-0.80334487037036961</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>1.0110770462962968</v>
+        <v>-0.3296728611111126</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>4.6694109779076669</v>
+        <v>0.64536298075038601</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1.0222767935472439</v>
+        <v>0.10868419535318694</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>-2.1848181805930098</v>
+        <v>0.26484100187393561</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.4792981176960016</v>
+        <v>1.3961927392359987</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>4.2101685970205915E-2</v>
+        <v>2.2839637960413</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>1.2162640000000007</v>
+        <v>1.1816059999999995</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -8554,46 +8540,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>7.6980170000000001</v>
+        <v>7.0496090000000002</v>
       </c>
       <c r="I67">
-        <v>7.3208640000000003</v>
+        <v>6.7924300000000004</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-0.37715299999999985</v>
+        <v>-0.25717899999999982</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1.7345189907407406</v>
+        <v>-0.44385487037036953</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>0.59832904629629624</v>
+        <v>-0.89460986111111218</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3.0085561292402772</v>
+        <v>0.19700714595149754</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>0.35799764764183539</v>
+        <v>0.8003268035972434</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0378130935127217</v>
+        <v>0.397076943935527</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>0.14224438540899989</v>
+        <v>6.6141038040999911E-2</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>4.8918843455261443E-2</v>
+        <v>1.3266175805796325</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>0.37715299999999985</v>
+        <v>0.25717899999999982</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -8621,46 +8607,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>8.2010389999999997</v>
+        <v>9.0541110000000007</v>
       </c>
       <c r="I68">
-        <v>10.762707000000001</v>
+        <v>8.9587699999999995</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>2.5616680000000009</v>
+        <v>-9.534100000000123E-2</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>1.7073240092592599</v>
+        <v>1.7224851296296295</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.1013510462962959</v>
+        <v>1.1098921388888883</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>2.9149552725931134</v>
+        <v>2.9669550217952017</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>1.2129741271779457</v>
+        <v>1.2318605599673513</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>1.8803630839644727</v>
+        <v>1.9117727047289335</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>6.5621429422240052</v>
+        <v>9.0899062810002353E-3</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>13.417708533529431</v>
+        <v>1.0293140134207377</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>2.5616680000000009</v>
+        <v>9.534100000000123E-2</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -8688,46 +8674,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>7.3589830000000003</v>
+        <v>11.738591</v>
       </c>
       <c r="I69">
-        <v>15.518577000000001</v>
+        <v>11.389341</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>8.1595940000000002</v>
+        <v>-0.34924999999999962</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>6.4631940092592597</v>
+        <v>4.15305612962963</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>0.25929504629629641</v>
+        <v>3.7943721388888871</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>41.772876801324784</v>
+        <v>17.247875215854243</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>6.7233921033798494E-2</v>
+        <v>14.397259928376227</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>1.6758741898528253</v>
+        <v>15.758240469508383</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>66.578974244836004</v>
+        <v>0.12197556249999973</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>70.87769277384777</v>
+        <v>11.868866551862343</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>8.1595940000000002</v>
+        <v>0.34924999999999962</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -8755,46 +8741,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>6.2621010000000004</v>
+        <v>12.184172</v>
       </c>
       <c r="I70">
-        <v>17.680610999999999</v>
+        <v>11.897917</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>11.418509999999998</v>
+        <v>-0.28625500000000059</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>8.6252280092592581</v>
+        <v>4.6616321296296297</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-0.83758695370370351</v>
+        <v>4.2399531388888878</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>74.394558211710432</v>
+        <v>21.730814111995276</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>0.70155190501464992</v>
+        <v>17.977202619973731</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>-7.224378453275321</v>
+        <v>19.76510178036844</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>130.38237062009995</v>
+        <v>8.1941925025000334E-2</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>111.95593251164406</v>
+        <v>15.63172897345345</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>11.418509999999998</v>
+        <v>0.28625500000000059</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -8822,46 +8808,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>5.5592990000000002</v>
+        <v>12.125973</v>
       </c>
       <c r="I71">
-        <v>17.090021</v>
+        <v>11.168345</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>11.530722000000001</v>
+        <v>-0.9576279999999997</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>8.0346380092592593</v>
+        <v>3.9320601296296305</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-1.5403889537037037</v>
+        <v>4.1817541388888877</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>64.5554079398336</v>
+        <v>15.461096863022986</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>2.3727981286923909</v>
+        <v>17.487067678114343</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>-12.376467636470879</v>
+        <v>16.442908721438684</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>132.95754984128402</v>
+        <v>0.91705138638399941</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>99.806754375919837</v>
+        <v>10.394989359466569</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>11.530722000000001</v>
+        <v>0.9576279999999997</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -8889,46 +8875,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>6.4810210000000001</v>
+        <v>10.069281</v>
       </c>
       <c r="I72">
-        <v>13.509548000000001</v>
+        <v>9.3149300000000004</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>7.0285270000000004</v>
+        <v>-0.75435099999999977</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>4.4541650092592597</v>
+        <v>2.0786451296296304</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-0.61866695370370373</v>
+        <v>2.1250621388888877</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>19.839585929709543</v>
+        <v>4.3207655749329827</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>0.38274879960502067</v>
+        <v>4.5158890941390144</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>-2.7556446975720554</v>
+        <v>4.4172500651617117</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>49.400191789729007</v>
+        <v>0.56904543120099971</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>41.086305813105561</v>
+        <v>1.8788490262740722</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>7.0285270000000004</v>
+        <v>0.75435099999999977</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -8956,46 +8942,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>6.2884000000000002</v>
+        <v>9.6466650000000005</v>
       </c>
       <c r="I73">
-        <v>11.196471000000001</v>
+        <v>8.3287630000000004</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>4.9080710000000005</v>
+        <v>-1.3179020000000001</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>2.1410880092592599</v>
+        <v>1.0924781296296304</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-0.81128795370370366</v>
+        <v>1.7024461388888881</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>4.5842578633937805</v>
+        <v>1.1935084637190556</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>0.65818814382474278</v>
+        <v>2.8983228558176832</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>-1.7370389097314816</v>
+        <v>1.8598851736085185</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>24.089160941041005</v>
+        <v>1.7368656816040002</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>16.783631328420768</v>
+        <v>0.14787419475379635</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>4.9080710000000005</v>
+        <v>1.3179020000000001</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -9023,46 +9009,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>6.324751</v>
+        <v>5.6161649999999996</v>
       </c>
       <c r="I74">
-        <v>6.740685</v>
+        <v>5.9748169999999998</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>0.41593400000000003</v>
+        <v>0.35865200000000019</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-2.3146979907407408</v>
+        <v>-1.2614678703703701</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-0.77493695370370386</v>
+        <v>-2.3280538611111128</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>5.3578267883392225</v>
+        <v>1.5913011879767569</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>0.6005272822155765</v>
+        <v>5.4198347802343605</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>1.7937450096887138</v>
+        <v>2.9367651462833528</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>0.17300109235600003</v>
+        <v>0.12863125710400014</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>0.12888312076798372</v>
+        <v>3.878543690547914</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>0.41593400000000003</v>
+        <v>0.35865200000000019</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -9090,46 +9076,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>6.1284650000000003</v>
+        <v>5.0447639999999998</v>
       </c>
       <c r="I75">
-        <v>5.9052759999999997</v>
+        <v>5.4039159999999997</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>-0.22318900000000053</v>
+        <v>0.35915199999999992</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>-3.1501069907407411</v>
+        <v>-1.8323688703703702</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>-0.9712229537037036</v>
+        <v>-2.8994548611111126</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>9.9231740531136872</v>
+        <v>3.3575756771023868</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>0.94327402580094633</v>
+        <v>8.4068384916208618</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>3.0594562160299077</v>
+        <v>5.3128708285440478</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>4.9813329721000235E-2</v>
+        <v>0.12899015910399994</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>1.4266199151502994</v>
+        <v>6.4531386261693049</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>0.22318900000000053</v>
+        <v>0.35915199999999992</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -9157,46 +9143,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>6.20214</v>
+        <v>5.0325870000000004</v>
       </c>
       <c r="I76">
-        <v>4.9835349999999998</v>
+        <v>4.6272169999999999</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2186050000000002</v>
+        <v>-0.40537000000000045</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>-4.071847990740741</v>
+        <v>-2.60906787037037</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>-0.89754795370370388</v>
+        <v>-2.9116318611111121</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>16.579946059699409</v>
+        <v>6.8072351521989782</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>0.80559232919770618</v>
+        <v>8.4776000946373582</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>3.6546788318818901</v>
+        <v>7.5966451391716863</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>1.4849981460250004</v>
+        <v>0.16432483690000035</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>4.4781033234689112</v>
+        <v>11.002501346614585</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>1.2186050000000002</v>
+        <v>0.40537000000000045</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -9224,46 +9210,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>7.6137129999999997</v>
+        <v>6.1288710000000002</v>
       </c>
       <c r="I77">
-        <v>5.8835810000000004</v>
+        <v>5.3779450000000004</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>-1.7301319999999993</v>
+        <v>-0.75092599999999976</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>-3.1718019907407404</v>
+        <v>-1.8583398703703695</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>0.51402504629629586</v>
+        <v>-1.8153478611111122</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>10.060327868466924</v>
+        <v>3.4534270738081618</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>0.26422174821990912</v>
+        <v>3.29548785684069</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>-1.6303856651331925</v>
+        <v>3.373533308894352</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>2.9933567374239978</v>
+        <v>0.56388985747599962</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>1.4789161228465015</v>
+        <v>6.5857615302221353</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>1.7301319999999993</v>
+        <v>0.75092599999999976</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -9291,46 +9277,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>7.2152580000000004</v>
+        <v>5.7820340000000003</v>
       </c>
       <c r="I78">
-        <v>5.9938599999999997</v>
+        <v>5.659497</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2213980000000006</v>
+        <v>-0.12253700000000034</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>-3.0615229907407411</v>
+        <v>-1.5767878703703699</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>0.11557004629629652</v>
+        <v>-2.1621848611111121</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>9.3729230228341311</v>
+        <v>2.4862599881471263</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>1.3356435600928121E-2</v>
+        <v>4.6750433736180792</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>-0.35382035377708365</v>
+        <v>3.4093068624984446</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>1.4918130744040017</v>
+        <v>1.5015316369000083E-2</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>1.2228554631925217</v>
+        <v>5.2199539826390255</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>1.2213980000000006</v>
+        <v>0.12253700000000034</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -9358,46 +9344,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>9.2051730000000003</v>
+        <v>7.854139</v>
       </c>
       <c r="I79">
-        <v>7.9413900000000002</v>
+        <v>6.7848269999999999</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2637830000000001</v>
+        <v>-1.069312</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-1.1139929907407407</v>
+        <v>-0.45145787037037</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>2.1054850462962964</v>
+        <v>-9.0079861111112436E-2</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>1.2409803834194999</v>
+        <v>0.2038142087193498</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>4.4330672801773172</v>
+        <v>8.114381377797306E-3</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>-2.3454955836835181</v>
+        <v>4.0667262260481535E-2</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>1.5971474710890003</v>
+        <v>1.1434281533440001</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>0.70846233473937248</v>
+        <v>1.344189487610689</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>1.2637830000000001</v>
+        <v>1.069312</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -9425,46 +9411,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>8.7373890000000003</v>
+        <v>8.8300129999999992</v>
       </c>
       <c r="I80">
-        <v>10.368010999999999</v>
+        <v>8.7718749999999996</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>1.6306219999999989</v>
+        <v>-5.8137999999999579E-2</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>1.3126280092592584</v>
+        <v>1.5355901296296297</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>1.6377010462962964</v>
+        <v>0.88579413888888681</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>1.7229922906919237</v>
+        <v>2.358037046215943</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>2.6820647170399838</v>
+        <v>0.78463125648990451</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2.149692264161712</v>
+        <v>1.3602167365615518</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>2.6589281068839963</v>
+        <v>3.3800270439999511E-3</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>10.681935534951496</v>
+        <v>0.68501468424046097</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>1.6306219999999989</v>
+        <v>5.8137999999999579E-2</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -9492,46 +9478,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>8.5063700000000004</v>
+        <v>10.210096999999999</v>
       </c>
       <c r="I81">
-        <v>13.459146</v>
+        <v>10.353471000000001</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>4.9527760000000001</v>
+        <v>0.14337400000000144</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>4.4037630092592597</v>
+        <v>3.1171861296296308</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>1.4066820462962966</v>
+        <v>2.2658781388888869</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>19.393128641720171</v>
+        <v>9.7168493667553584</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>1.9787543793723361</v>
+        <v>5.1342037402945655</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>6.1946943612687519</v>
+        <v>7.0631639059754407</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>24.529990106176001</v>
+        <v>2.0556103876000414E-2</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>40.442706642602708</v>
+        <v>5.8044958687406831</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>4.9527760000000001</v>
+        <v>0.14337400000000144</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -9559,46 +9545,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>7.319496</v>
+        <v>10.94373</v>
       </c>
       <c r="I82">
-        <v>15.561928</v>
+        <v>11.011625</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>8.2424320000000009</v>
+        <v>6.7895000000000039E-2</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>6.5065450092592592</v>
+        <v>3.7753401296296305</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>0.21980804629629613</v>
+        <v>2.999511138888888</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>42.335127957516576</v>
+        <v>14.253193094391875</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>4.8315577216594664E-2</v>
+        <v>8.9970670723185133</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>1.4301909466241938</v>
+        <v>11.324174771918296</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>67.937685274624016</v>
+        <v>4.6097310250000053E-3</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>71.609506601140737</v>
+        <v>9.4089804208932364</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>8.2424320000000009</v>
+        <v>6.7895000000000039E-2</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -9626,46 +9612,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>5.8575140000000001</v>
+        <v>12.027832</v>
       </c>
       <c r="I83">
-        <v>16.301983</v>
+        <v>10.872294999999999</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>10.444469</v>
+        <v>-1.1555370000000007</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>7.2466000092592591</v>
+        <v>3.6360101296296294</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-1.2421739537037038</v>
+        <v>4.0836131388888877</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>52.513211694196293</v>
+        <v>13.220569662769275</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>1.5429961312598912</v>
+        <v>16.675896268105955</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>-9.0015377844108695</v>
+        <v>14.848058738488643</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>109.086932691961</v>
+        <v>1.3352657583690015</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>84.682234119089344</v>
+        <v>8.573629875130452</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>10.444469</v>
+        <v>1.1555370000000007</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -9693,46 +9679,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>6.7531119999999998</v>
+        <v>9.639697</v>
       </c>
       <c r="I84">
-        <v>12.822082999999999</v>
+        <v>9.0363220000000002</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>6.0689709999999994</v>
+        <v>-0.60337499999999977</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>3.7667000092592584</v>
+        <v>1.8000371296296303</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-0.34657595370370409</v>
+        <v>1.6954781388888875</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>14.188028959753698</v>
+        <v>3.2401336680452784</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>0.12011489168563204</v>
+        <v>2.874646119450126</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>-1.3054476480247785</v>
+        <v>3.0519236024753407</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>36.832408998840997</v>
+        <v>0.3640613906249997</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>32.745805065876382</v>
+        <v>1.1926892659709614</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>6.0689709999999994</v>
+        <v>0.60337499999999977</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -9760,46 +9746,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>8.2922259999999994</v>
+        <v>7.3680279999999998</v>
       </c>
       <c r="I85">
-        <v>9.9084380000000003</v>
+        <v>8.2622250000000008</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>1.6162120000000009</v>
+        <v>0.89419700000000102</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>0.85305500925925948</v>
+        <v>1.0259401296296309</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>1.1925380462962956</v>
+        <v>-0.57619086111111262</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>0.72770284882231528</v>
+        <v>1.0525531495844638</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>1.4221469918641856</v>
+        <v>0.33199590842796545</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>1.0173005541253055</v>
+        <v>-0.59113732673974351</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>2.6121412289440027</v>
+        <v>0.79958827480900185</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>7.8890768225694474</v>
+        <v>0.10112790437101898</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1.6162120000000009</v>
+        <v>0.89419700000000102</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -9827,46 +9813,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>7.3907439999999998</v>
+        <v>6.613556</v>
       </c>
       <c r="I86">
-        <v>8.2723960000000005</v>
+        <v>7.2404169999999999</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>0.88165200000000077</v>
+        <v>0.62686099999999989</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-0.7829869907407403</v>
+        <v>4.1321296296299437E-3</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>0.29105604629629589</v>
+        <v>-1.3306628611111124</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>0.61306862766924008</v>
+        <v>1.7074495276065697E-5</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>8.4713622085631532E-2</v>
+        <v>1.7706636499404116</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>-0.2278930978264343</v>
+        <v>-5.4984714354453824E-3</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>0.77731024910400137</v>
+        <v>0.39295471332099985</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>1.3752441618480771</v>
+        <v>0.49533705970346575</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>0.88165200000000077</v>
+        <v>0.62686099999999989</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -9894,46 +9880,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.7191710000000002</v>
+        <v>4.0355249999999998</v>
       </c>
       <c r="I87">
-        <v>5.093515</v>
+        <v>4.67211</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>0.37434399999999979</v>
+        <v>0.63658500000000018</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-3.9618679907407408</v>
+        <v>-2.56417487037037</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-2.3805169537037036</v>
+        <v>-3.9086938611111126</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>15.696397976056074</v>
+        <v>6.5749927658389034</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>5.666860966870761</v>
+        <v>15.277887699887698</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>9.4312939202943618</v>
+        <v>10.022574574632047</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>0.14013343033599984</v>
+        <v>0.40524046222500021</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>4.0247299201722431</v>
+        <v>10.706696398961862</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>0.37434399999999979</v>
+        <v>0.63658500000000018</v>
       </c>
       <c r="S87">
